--- a/Chiffres  COVID-19 Valais.xlsx
+++ b/Chiffres  COVID-19 Valais.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -94,7 +94,10 @@
     <t>Nb nouveaux décès extra-hospitaliers</t>
   </si>
   <si>
-    <t>Données COVID-19 Valais 05.05.2020</t>
+    <t>Données COVID-19 Valais 06.05.2020</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -673,10 +676,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O71"/>
+  <dimension ref="A1:O72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+      <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3119,11 +3122,11 @@
         <v>9</v>
       </c>
       <c r="G59" s="24">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H59" s="17">
         <f t="shared" si="10"/>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I59" s="16">
         <f t="shared" si="12"/>
@@ -3145,7 +3148,7 @@
         <v>43946</v>
       </c>
       <c r="B60" s="19">
-        <f t="shared" ref="B60:B69" si="14">B59+C60</f>
+        <f t="shared" ref="B60:B63" si="14">B59+C60</f>
         <v>1836</v>
       </c>
       <c r="C60" s="13">
@@ -3161,18 +3164,18 @@
         <v>9</v>
       </c>
       <c r="G60" s="24">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H60" s="17">
-        <f t="shared" ref="H60:H70" si="15">G60+E60</f>
-        <v>72</v>
+        <f t="shared" ref="H60:H63" si="15">G60+E60</f>
+        <v>74</v>
       </c>
       <c r="I60" s="16">
-        <f t="shared" ref="I60:I70" si="16">I59+J60</f>
+        <f t="shared" ref="I60:I63" si="16">I59+J60</f>
         <v>129</v>
       </c>
       <c r="J60" s="16">
-        <f t="shared" ref="J60:J70" si="17">K60+L60</f>
+        <f t="shared" ref="J60:J63" si="17">K60+L60</f>
         <v>2</v>
       </c>
       <c r="K60" s="26">
@@ -3203,11 +3206,11 @@
         <v>8</v>
       </c>
       <c r="G61" s="24">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H61" s="17">
         <f t="shared" si="15"/>
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I61" s="16">
         <f t="shared" si="16"/>
@@ -3245,11 +3248,11 @@
         <v>9</v>
       </c>
       <c r="G62" s="24">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H62" s="17">
         <f t="shared" si="15"/>
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I62" s="16">
         <f t="shared" si="16"/>
@@ -3287,11 +3290,11 @@
         <v>8</v>
       </c>
       <c r="G63" s="24">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H63" s="17">
         <f t="shared" si="15"/>
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I63" s="16">
         <f t="shared" si="16"/>
@@ -3313,7 +3316,7 @@
         <v>43950</v>
       </c>
       <c r="B64" s="19">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="B64:B70" si="18">B63+C64</f>
         <v>1876</v>
       </c>
       <c r="C64" s="13">
@@ -3329,18 +3332,18 @@
         <v>8</v>
       </c>
       <c r="G64" s="24">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H64" s="17">
-        <f t="shared" si="15"/>
-        <v>59</v>
+        <f t="shared" ref="H64:H71" si="19">G64+E64</f>
+        <v>61</v>
       </c>
       <c r="I64" s="16">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="I64:I71" si="20">I63+J64</f>
         <v>136</v>
       </c>
       <c r="J64" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="J64:J71" si="21">K64+L64</f>
         <v>1</v>
       </c>
       <c r="K64" s="26">
@@ -3355,7 +3358,7 @@
         <v>43951</v>
       </c>
       <c r="B65" s="19">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1882</v>
       </c>
       <c r="C65" s="13">
@@ -3371,18 +3374,18 @@
         <v>8</v>
       </c>
       <c r="G65" s="24">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H65" s="17">
-        <f t="shared" si="15"/>
-        <v>59</v>
+        <f t="shared" si="19"/>
+        <v>61</v>
       </c>
       <c r="I65" s="16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>138</v>
       </c>
       <c r="J65" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="K65" s="26">
@@ -3397,7 +3400,7 @@
         <v>43952</v>
       </c>
       <c r="B66" s="19">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1886</v>
       </c>
       <c r="C66" s="13">
@@ -3413,18 +3416,18 @@
         <v>8</v>
       </c>
       <c r="G66" s="24">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H66" s="17">
-        <f t="shared" si="15"/>
-        <v>57</v>
+        <f t="shared" si="19"/>
+        <v>59</v>
       </c>
       <c r="I66" s="16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>138</v>
       </c>
       <c r="J66" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K66" s="26">
@@ -3439,7 +3442,7 @@
         <v>43953</v>
       </c>
       <c r="B67" s="19">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1888</v>
       </c>
       <c r="C67" s="13">
@@ -3455,18 +3458,18 @@
         <v>8</v>
       </c>
       <c r="G67" s="24">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H67" s="17">
-        <f t="shared" si="15"/>
-        <v>57</v>
+        <f t="shared" si="19"/>
+        <v>59</v>
       </c>
       <c r="I67" s="16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>140</v>
       </c>
       <c r="J67" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="K67" s="26">
@@ -3481,14 +3484,14 @@
         <v>43954</v>
       </c>
       <c r="B68" s="19">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1890</v>
       </c>
       <c r="C68" s="13">
         <v>2</v>
       </c>
       <c r="D68" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E68" s="4">
         <v>10</v>
@@ -3497,18 +3500,18 @@
         <v>8</v>
       </c>
       <c r="G68" s="24">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H68" s="17">
-        <f t="shared" si="15"/>
-        <v>56</v>
+        <f t="shared" si="19"/>
+        <v>59</v>
       </c>
       <c r="I68" s="16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>142</v>
       </c>
       <c r="J68" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="K68" s="26">
@@ -3523,11 +3526,11 @@
         <v>43955</v>
       </c>
       <c r="B69" s="19">
-        <f t="shared" si="14"/>
-        <v>1893</v>
+        <f t="shared" si="18"/>
+        <v>1897</v>
       </c>
       <c r="C69" s="13">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D69" s="13">
         <v>0</v>
@@ -3539,66 +3542,108 @@
         <v>7</v>
       </c>
       <c r="G69" s="24">
+        <v>44</v>
+      </c>
+      <c r="H69" s="17">
+        <f t="shared" si="19"/>
+        <v>54</v>
+      </c>
+      <c r="I69" s="16">
+        <f t="shared" si="20"/>
+        <v>142</v>
+      </c>
+      <c r="J69" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="K69" s="26">
+        <v>0</v>
+      </c>
+      <c r="L69" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B70" s="19">
+        <f t="shared" si="18"/>
+        <v>1897</v>
+      </c>
+      <c r="C70" s="13">
+        <v>0</v>
+      </c>
+      <c r="D70" s="13">
+        <v>0</v>
+      </c>
+      <c r="E70" s="4">
+        <v>8</v>
+      </c>
+      <c r="F70" s="3">
+        <v>6</v>
+      </c>
+      <c r="G70" s="24">
         <v>41</v>
       </c>
-      <c r="H69" s="17">
-        <f t="shared" si="15"/>
-        <v>51</v>
-      </c>
-      <c r="I69" s="16">
-        <f t="shared" si="16"/>
-        <v>142</v>
-      </c>
-      <c r="J69" s="16">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="K69" s="26">
-        <v>0</v>
-      </c>
-      <c r="L69" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="2">
-        <v>43956</v>
-      </c>
-      <c r="B70" s="20"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14">
-        <v>0</v>
-      </c>
-      <c r="E70" s="30">
-        <v>10</v>
-      </c>
-      <c r="F70" s="31">
-        <v>7</v>
-      </c>
-      <c r="G70" s="25">
+      <c r="H70" s="17">
+        <f t="shared" si="19"/>
+        <v>49</v>
+      </c>
+      <c r="I70" s="16">
+        <f t="shared" si="20"/>
+        <v>146</v>
+      </c>
+      <c r="J70" s="16">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="K70" s="26">
+        <v>2</v>
+      </c>
+      <c r="L70" s="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>43957</v>
+      </c>
+      <c r="B71" s="20"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14">
+        <v>0</v>
+      </c>
+      <c r="E71" s="30">
+        <v>8</v>
+      </c>
+      <c r="F71" s="31">
+        <v>6</v>
+      </c>
+      <c r="G71" s="25">
         <v>41</v>
       </c>
-      <c r="H70" s="18">
-        <f t="shared" si="15"/>
-        <v>51</v>
-      </c>
-      <c r="I70" s="21">
-        <f t="shared" si="16"/>
-        <v>144</v>
-      </c>
-      <c r="J70" s="21">
-        <f t="shared" si="17"/>
-        <v>2</v>
-      </c>
-      <c r="K70" s="28">
-        <v>0</v>
-      </c>
-      <c r="L70" s="29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F71" t="s">
+      <c r="H71" s="18">
+        <f t="shared" si="19"/>
+        <v>49</v>
+      </c>
+      <c r="I71" s="21">
+        <f t="shared" si="20"/>
+        <v>146</v>
+      </c>
+      <c r="J71" s="21">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="K71" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="L71" s="29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F72" t="s">
         <v>10</v>
       </c>
     </row>

--- a/Chiffres  COVID-19 Valais.xlsx
+++ b/Chiffres  COVID-19 Valais.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\11. Maladies transmissibles\11.2. Lutte\11.2.3. Pandémies\COVID-19\Epi\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
@@ -24,7 +29,7 @@
     <author>Larissa VERNIER</author>
   </authors>
   <commentList>
-    <comment ref="D2" authorId="0">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -53,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -94,16 +99,13 @@
     <t>Nb nouveaux décès extra-hospitaliers</t>
   </si>
   <si>
-    <t>Données COVID-19 Valais 06.05.2020</t>
-  </si>
-  <si>
-    <t>0</t>
+    <t>Données COVID-19 Valais 07.05.2020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -395,7 +397,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -665,7 +667,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -676,23 +678,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O72"/>
+  <dimension ref="A1:O73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="3" width="11.42578125" style="15"/>
-    <col min="4" max="4" width="10.85546875" style="15"/>
-    <col min="8" max="8" width="16.140625" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="6" customWidth="1"/>
+    <col min="2" max="3" width="11.453125" style="15"/>
+    <col min="4" max="4" width="10.81640625" style="15"/>
+    <col min="8" max="8" width="16.1796875" customWidth="1"/>
+    <col min="10" max="10" width="14.54296875" customWidth="1"/>
+    <col min="11" max="11" width="13.54296875" customWidth="1"/>
+    <col min="12" max="12" width="15.7265625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="32" t="s">
         <v>13</v>
       </c>
@@ -708,7 +710,7 @@
       <c r="K1" s="33"/>
       <c r="L1" s="34"/>
     </row>
-    <row r="2" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -749,7 +751,7 @@
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>43889</v>
       </c>
@@ -791,7 +793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>43890</v>
       </c>
@@ -833,7 +835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>43891</v>
       </c>
@@ -875,7 +877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>43892</v>
       </c>
@@ -917,7 +919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>43893</v>
       </c>
@@ -959,7 +961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>43894</v>
       </c>
@@ -1001,7 +1003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>43895</v>
       </c>
@@ -1043,7 +1045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>43896</v>
       </c>
@@ -1085,7 +1087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>43897</v>
       </c>
@@ -1127,7 +1129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>43898</v>
       </c>
@@ -1169,7 +1171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>43899</v>
       </c>
@@ -1211,7 +1213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>43900</v>
       </c>
@@ -1253,7 +1255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>43901</v>
       </c>
@@ -1295,7 +1297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>43902</v>
       </c>
@@ -1337,7 +1339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>43903</v>
       </c>
@@ -1379,7 +1381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>43904</v>
       </c>
@@ -1421,7 +1423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>43905</v>
       </c>
@@ -1463,7 +1465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>43906</v>
       </c>
@@ -1505,7 +1507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>43907</v>
       </c>
@@ -1547,7 +1549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>43908</v>
       </c>
@@ -1589,7 +1591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>43909</v>
       </c>
@@ -1631,7 +1633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>43910</v>
       </c>
@@ -1673,7 +1675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>43911</v>
       </c>
@@ -1715,7 +1717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>43912</v>
       </c>
@@ -1757,7 +1759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>43913</v>
       </c>
@@ -1799,7 +1801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>43914</v>
       </c>
@@ -1841,7 +1843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>43915</v>
       </c>
@@ -1883,7 +1885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>43916</v>
       </c>
@@ -1925,7 +1927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>43917</v>
       </c>
@@ -1967,7 +1969,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>43918</v>
       </c>
@@ -2009,7 +2011,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>43919</v>
       </c>
@@ -2051,7 +2053,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>43920</v>
       </c>
@@ -2072,11 +2074,11 @@
         <v>23</v>
       </c>
       <c r="G34" s="24">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H34" s="17">
         <f t="shared" si="0"/>
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I34" s="16">
         <f t="shared" si="8"/>
@@ -2093,7 +2095,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>43921</v>
       </c>
@@ -2114,11 +2116,11 @@
         <v>23</v>
       </c>
       <c r="G35" s="24">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H35" s="17">
         <f t="shared" ref="H35:H59" si="10">G35+E35</f>
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I35" s="16">
         <f t="shared" si="8"/>
@@ -2135,7 +2137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>43922</v>
       </c>
@@ -2156,11 +2158,11 @@
         <v>25</v>
       </c>
       <c r="G36" s="24">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H36" s="17">
         <f t="shared" si="10"/>
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I36" s="16">
         <f t="shared" si="8"/>
@@ -2177,7 +2179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>43923</v>
       </c>
@@ -2198,11 +2200,11 @@
         <v>24</v>
       </c>
       <c r="G37" s="24">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H37" s="17">
         <f t="shared" si="10"/>
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I37" s="16">
         <f t="shared" si="8"/>
@@ -2219,7 +2221,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>43924</v>
       </c>
@@ -2240,11 +2242,11 @@
         <v>23</v>
       </c>
       <c r="G38" s="24">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H38" s="17">
         <f t="shared" si="10"/>
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I38" s="16">
         <f t="shared" si="8"/>
@@ -2261,7 +2263,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>43925</v>
       </c>
@@ -2282,11 +2284,11 @@
         <v>23</v>
       </c>
       <c r="G39" s="24">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H39" s="17">
         <f t="shared" si="10"/>
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I39" s="16">
         <f t="shared" si="8"/>
@@ -2303,7 +2305,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>43926</v>
       </c>
@@ -2324,11 +2326,11 @@
         <v>23</v>
       </c>
       <c r="G40" s="24">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H40" s="17">
         <f t="shared" si="10"/>
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I40" s="16">
         <f t="shared" si="8"/>
@@ -2345,7 +2347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>43927</v>
       </c>
@@ -2366,11 +2368,11 @@
         <v>22</v>
       </c>
       <c r="G41" s="24">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H41" s="17">
         <f t="shared" si="10"/>
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I41" s="16">
         <f t="shared" si="8"/>
@@ -2387,7 +2389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>43928</v>
       </c>
@@ -2408,11 +2410,11 @@
         <v>20</v>
       </c>
       <c r="G42" s="24">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H42" s="17">
         <f t="shared" si="10"/>
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I42" s="16">
         <f t="shared" si="8"/>
@@ -2429,7 +2431,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>43929</v>
       </c>
@@ -2450,11 +2452,11 @@
         <v>20</v>
       </c>
       <c r="G43" s="24">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H43" s="17">
         <f t="shared" si="10"/>
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I43" s="16">
         <f t="shared" si="8"/>
@@ -2471,7 +2473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>43930</v>
       </c>
@@ -2492,11 +2494,11 @@
         <v>19</v>
       </c>
       <c r="G44" s="24">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H44" s="17">
         <f t="shared" si="10"/>
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I44" s="16">
         <f t="shared" si="8"/>
@@ -2513,7 +2515,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>43931</v>
       </c>
@@ -2534,11 +2536,11 @@
         <v>18</v>
       </c>
       <c r="G45" s="24">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H45" s="17">
         <f t="shared" si="10"/>
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I45" s="16">
         <f t="shared" si="8"/>
@@ -2555,7 +2557,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>43932</v>
       </c>
@@ -2576,11 +2578,11 @@
         <v>15</v>
       </c>
       <c r="G46" s="24">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H46" s="17">
         <f t="shared" si="10"/>
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="I46" s="16">
         <f t="shared" si="8"/>
@@ -2597,7 +2599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>43933</v>
       </c>
@@ -2618,11 +2620,11 @@
         <v>14</v>
       </c>
       <c r="G47" s="24">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H47" s="17">
         <f t="shared" si="10"/>
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I47" s="16">
         <f t="shared" si="8"/>
@@ -2639,7 +2641,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>43934</v>
       </c>
@@ -2660,11 +2662,11 @@
         <v>12</v>
       </c>
       <c r="G48" s="24">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H48" s="17">
         <f t="shared" si="10"/>
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I48" s="16">
         <f t="shared" si="8"/>
@@ -2681,7 +2683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>43935</v>
       </c>
@@ -2702,11 +2704,11 @@
         <v>11</v>
       </c>
       <c r="G49" s="24">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H49" s="17">
         <f t="shared" si="10"/>
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I49" s="16">
         <f t="shared" si="8"/>
@@ -2723,7 +2725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>43936</v>
       </c>
@@ -2744,11 +2746,11 @@
         <v>12</v>
       </c>
       <c r="G50" s="24">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H50" s="17">
         <f t="shared" si="10"/>
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I50" s="16">
         <f t="shared" si="8"/>
@@ -2765,7 +2767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>43937</v>
       </c>
@@ -2786,11 +2788,11 @@
         <v>12</v>
       </c>
       <c r="G51" s="24">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H51" s="17">
         <f t="shared" si="10"/>
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I51" s="16">
         <f t="shared" si="8"/>
@@ -2807,7 +2809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>43938</v>
       </c>
@@ -2828,11 +2830,11 @@
         <v>10</v>
       </c>
       <c r="G52" s="24">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H52" s="17">
         <f t="shared" si="10"/>
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I52" s="16">
         <f t="shared" si="8"/>
@@ -2849,7 +2851,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>43939</v>
       </c>
@@ -2870,11 +2872,11 @@
         <v>10</v>
       </c>
       <c r="G53" s="24">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H53" s="17">
         <f t="shared" si="10"/>
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I53" s="16">
         <f t="shared" si="8"/>
@@ -2891,7 +2893,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>43940</v>
       </c>
@@ -2912,11 +2914,11 @@
         <v>9</v>
       </c>
       <c r="G54" s="24">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H54" s="17">
         <f t="shared" si="10"/>
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I54" s="16">
         <f t="shared" si="8"/>
@@ -2933,7 +2935,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>43941</v>
       </c>
@@ -2954,11 +2956,11 @@
         <v>9</v>
       </c>
       <c r="G55" s="24">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H55" s="17">
         <f t="shared" si="10"/>
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I55" s="16">
         <f t="shared" si="8"/>
@@ -2975,7 +2977,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>43942</v>
       </c>
@@ -2996,11 +2998,11 @@
         <v>10</v>
       </c>
       <c r="G56" s="24">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H56" s="17">
         <f t="shared" si="10"/>
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I56" s="16">
         <f t="shared" ref="I56:I59" si="12">I55+J56</f>
@@ -3017,7 +3019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>43943</v>
       </c>
@@ -3038,11 +3040,11 @@
         <v>10</v>
       </c>
       <c r="G57" s="24">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H57" s="17">
         <f t="shared" si="10"/>
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I57" s="16">
         <f t="shared" si="12"/>
@@ -3059,7 +3061,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>43944</v>
       </c>
@@ -3080,11 +3082,11 @@
         <v>9</v>
       </c>
       <c r="G58" s="24">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H58" s="17">
         <f t="shared" si="10"/>
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I58" s="16">
         <f t="shared" si="12"/>
@@ -3101,7 +3103,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>43945</v>
       </c>
@@ -3122,11 +3124,11 @@
         <v>9</v>
       </c>
       <c r="G59" s="24">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H59" s="17">
         <f t="shared" si="10"/>
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I59" s="16">
         <f t="shared" si="12"/>
@@ -3143,7 +3145,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>43946</v>
       </c>
@@ -3164,11 +3166,11 @@
         <v>9</v>
       </c>
       <c r="G60" s="24">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H60" s="17">
         <f t="shared" ref="H60:H63" si="15">G60+E60</f>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I60" s="16">
         <f t="shared" ref="I60:I63" si="16">I59+J60</f>
@@ -3185,7 +3187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>43947</v>
       </c>
@@ -3206,11 +3208,11 @@
         <v>8</v>
       </c>
       <c r="G61" s="24">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H61" s="17">
         <f t="shared" si="15"/>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I61" s="16">
         <f t="shared" si="16"/>
@@ -3227,7 +3229,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>43948</v>
       </c>
@@ -3248,11 +3250,11 @@
         <v>9</v>
       </c>
       <c r="G62" s="24">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H62" s="17">
         <f t="shared" si="15"/>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I62" s="16">
         <f t="shared" si="16"/>
@@ -3269,7 +3271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>43949</v>
       </c>
@@ -3290,11 +3292,11 @@
         <v>8</v>
       </c>
       <c r="G63" s="24">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H63" s="17">
         <f t="shared" si="15"/>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I63" s="16">
         <f t="shared" si="16"/>
@@ -3311,12 +3313,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>43950</v>
       </c>
       <c r="B64" s="19">
-        <f t="shared" ref="B64:B70" si="18">B63+C64</f>
+        <f t="shared" ref="B64:B66" si="18">B63+C64</f>
         <v>1876</v>
       </c>
       <c r="C64" s="13">
@@ -3332,18 +3334,18 @@
         <v>8</v>
       </c>
       <c r="G64" s="24">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H64" s="17">
-        <f t="shared" ref="H64:H71" si="19">G64+E64</f>
-        <v>61</v>
+        <f t="shared" ref="H64:H66" si="19">G64+E64</f>
+        <v>62</v>
       </c>
       <c r="I64" s="16">
-        <f t="shared" ref="I64:I71" si="20">I63+J64</f>
+        <f t="shared" ref="I64:I66" si="20">I63+J64</f>
         <v>136</v>
       </c>
       <c r="J64" s="16">
-        <f t="shared" ref="J64:J71" si="21">K64+L64</f>
+        <f t="shared" ref="J64:J66" si="21">K64+L64</f>
         <v>1</v>
       </c>
       <c r="K64" s="26">
@@ -3353,7 +3355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>43951</v>
       </c>
@@ -3374,11 +3376,11 @@
         <v>8</v>
       </c>
       <c r="G65" s="24">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H65" s="17">
         <f t="shared" si="19"/>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I65" s="16">
         <f t="shared" si="20"/>
@@ -3395,16 +3397,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>43952</v>
       </c>
       <c r="B66" s="19">
         <f t="shared" si="18"/>
-        <v>1886</v>
+        <v>1887</v>
       </c>
       <c r="C66" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" s="13">
         <v>0</v>
@@ -3416,11 +3418,11 @@
         <v>8</v>
       </c>
       <c r="G66" s="24">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H66" s="17">
         <f t="shared" si="19"/>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I66" s="16">
         <f t="shared" si="20"/>
@@ -3437,13 +3439,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>43953</v>
       </c>
       <c r="B67" s="19">
-        <f t="shared" si="18"/>
-        <v>1888</v>
+        <f t="shared" ref="B67:B71" si="22">B66+C67</f>
+        <v>1889</v>
       </c>
       <c r="C67" s="13">
         <v>2</v>
@@ -3458,18 +3460,18 @@
         <v>8</v>
       </c>
       <c r="G67" s="24">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H67" s="17">
-        <f t="shared" si="19"/>
-        <v>59</v>
+        <f t="shared" ref="H67:H72" si="23">G67+E67</f>
+        <v>60</v>
       </c>
       <c r="I67" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="I67:I72" si="24">I66+J67</f>
         <v>140</v>
       </c>
       <c r="J67" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="J67:J72" si="25">K67+L67</f>
         <v>2</v>
       </c>
       <c r="K67" s="26">
@@ -3479,13 +3481,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>43954</v>
       </c>
       <c r="B68" s="19">
-        <f t="shared" si="18"/>
-        <v>1890</v>
+        <f t="shared" si="22"/>
+        <v>1891</v>
       </c>
       <c r="C68" s="13">
         <v>2</v>
@@ -3500,18 +3502,18 @@
         <v>8</v>
       </c>
       <c r="G68" s="24">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H68" s="17">
-        <f t="shared" si="19"/>
-        <v>59</v>
+        <f t="shared" si="23"/>
+        <v>60</v>
       </c>
       <c r="I68" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>142</v>
       </c>
       <c r="J68" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>2</v>
       </c>
       <c r="K68" s="26">
@@ -3521,16 +3523,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>43955</v>
       </c>
       <c r="B69" s="19">
-        <f t="shared" si="18"/>
-        <v>1897</v>
+        <f t="shared" si="22"/>
+        <v>1899</v>
       </c>
       <c r="C69" s="13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D69" s="13">
         <v>0</v>
@@ -3542,18 +3544,18 @@
         <v>7</v>
       </c>
       <c r="G69" s="24">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H69" s="17">
-        <f t="shared" si="19"/>
-        <v>54</v>
+        <f t="shared" si="23"/>
+        <v>55</v>
       </c>
       <c r="I69" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>142</v>
       </c>
       <c r="J69" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="K69" s="26">
@@ -3563,13 +3565,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>43956</v>
       </c>
       <c r="B70" s="19">
-        <f t="shared" si="18"/>
-        <v>1897</v>
+        <f t="shared" si="22"/>
+        <v>1899</v>
       </c>
       <c r="C70" s="13">
         <v>0</v>
@@ -3584,18 +3586,18 @@
         <v>6</v>
       </c>
       <c r="G70" s="24">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H70" s="17">
-        <f t="shared" si="19"/>
-        <v>49</v>
+        <f t="shared" si="23"/>
+        <v>50</v>
       </c>
       <c r="I70" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>146</v>
       </c>
       <c r="J70" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>4</v>
       </c>
       <c r="K70" s="26">
@@ -3605,45 +3607,87 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="2">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A71" s="1">
         <v>43957</v>
       </c>
-      <c r="B71" s="20"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14">
-        <v>0</v>
-      </c>
-      <c r="E71" s="30">
+      <c r="B71" s="19">
+        <f t="shared" si="22"/>
+        <v>1899</v>
+      </c>
+      <c r="C71" s="13">
+        <v>0</v>
+      </c>
+      <c r="D71" s="13">
+        <v>0</v>
+      </c>
+      <c r="E71" s="4">
         <v>8</v>
       </c>
-      <c r="F71" s="31">
-        <v>6</v>
-      </c>
-      <c r="G71" s="25">
-        <v>41</v>
-      </c>
-      <c r="H71" s="18">
-        <f t="shared" si="19"/>
-        <v>49</v>
-      </c>
-      <c r="I71" s="21">
-        <f t="shared" si="20"/>
+      <c r="F71" s="3">
+        <v>5</v>
+      </c>
+      <c r="G71" s="24">
+        <v>39</v>
+      </c>
+      <c r="H71" s="17">
+        <f t="shared" si="23"/>
+        <v>47</v>
+      </c>
+      <c r="I71" s="16">
+        <f t="shared" si="24"/>
         <v>146</v>
       </c>
-      <c r="J71" s="21">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="K71" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="L71" s="29" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F72" t="s">
+      <c r="J71" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="K71" s="26">
+        <v>0</v>
+      </c>
+      <c r="L71" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A72" s="2">
+        <v>43958</v>
+      </c>
+      <c r="B72" s="20"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14">
+        <v>0</v>
+      </c>
+      <c r="E72" s="30">
+        <v>9</v>
+      </c>
+      <c r="F72" s="31">
+        <v>5</v>
+      </c>
+      <c r="G72" s="25">
+        <v>38</v>
+      </c>
+      <c r="H72" s="18">
+        <f t="shared" si="23"/>
+        <v>47</v>
+      </c>
+      <c r="I72" s="21">
+        <f t="shared" si="24"/>
+        <v>146</v>
+      </c>
+      <c r="J72" s="21">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="K72" s="28">
+        <v>0</v>
+      </c>
+      <c r="L72" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="F73" t="s">
         <v>10</v>
       </c>
     </row>

--- a/Chiffres  COVID-19 Valais.xlsx
+++ b/Chiffres  COVID-19 Valais.xlsx
@@ -99,7 +99,7 @@
     <t>Nb nouveaux décès extra-hospitaliers</t>
   </si>
   <si>
-    <t>Données COVID-19 Valais 07.05.2020</t>
+    <t>Données COVID-19 Valais 08.05.2020</t>
   </si>
 </sst>
 </file>
@@ -678,10 +678,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O73"/>
+  <dimension ref="A1:O74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3361,10 +3361,10 @@
       </c>
       <c r="B65" s="19">
         <f t="shared" si="18"/>
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="C65" s="13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D65" s="13">
         <v>1</v>
@@ -3403,7 +3403,7 @@
       </c>
       <c r="B66" s="19">
         <f t="shared" si="18"/>
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="C66" s="13">
         <v>5</v>
@@ -3445,10 +3445,10 @@
       </c>
       <c r="B67" s="19">
         <f t="shared" ref="B67:B71" si="22">B66+C67</f>
-        <v>1889</v>
+        <v>1891</v>
       </c>
       <c r="C67" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" s="13">
         <v>2</v>
@@ -3463,15 +3463,15 @@
         <v>50</v>
       </c>
       <c r="H67" s="17">
-        <f t="shared" ref="H67:H72" si="23">G67+E67</f>
+        <f t="shared" ref="H67:H73" si="23">G67+E67</f>
         <v>60</v>
       </c>
       <c r="I67" s="16">
-        <f t="shared" ref="I67:I72" si="24">I66+J67</f>
+        <f t="shared" ref="I67:I71" si="24">I66+J67</f>
         <v>140</v>
       </c>
       <c r="J67" s="16">
-        <f t="shared" ref="J67:J72" si="25">K67+L67</f>
+        <f t="shared" ref="J67:J73" si="25">K67+L67</f>
         <v>2</v>
       </c>
       <c r="K67" s="26">
@@ -3487,7 +3487,7 @@
       </c>
       <c r="B68" s="19">
         <f t="shared" si="22"/>
-        <v>1891</v>
+        <v>1893</v>
       </c>
       <c r="C68" s="13">
         <v>2</v>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="B69" s="19">
         <f t="shared" si="22"/>
-        <v>1899</v>
+        <v>1901</v>
       </c>
       <c r="C69" s="13">
         <v>8</v>
@@ -3571,10 +3571,10 @@
       </c>
       <c r="B70" s="19">
         <f t="shared" si="22"/>
-        <v>1899</v>
+        <v>1903</v>
       </c>
       <c r="C70" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D70" s="13">
         <v>0</v>
@@ -3613,10 +3613,10 @@
       </c>
       <c r="B71" s="19">
         <f t="shared" si="22"/>
-        <v>1899</v>
+        <v>1905</v>
       </c>
       <c r="C71" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D71" s="13">
         <v>0</v>
@@ -3650,44 +3650,86 @@
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A72" s="2">
+      <c r="A72" s="1">
         <v>43958</v>
       </c>
-      <c r="B72" s="20"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14">
-        <v>0</v>
-      </c>
-      <c r="E72" s="30">
-        <v>9</v>
-      </c>
-      <c r="F72" s="31">
+      <c r="B72" s="19">
+        <f t="shared" ref="B72:B73" si="26">B71+C72</f>
+        <v>1905</v>
+      </c>
+      <c r="C72" s="13">
+        <v>0</v>
+      </c>
+      <c r="D72" s="13">
+        <v>0</v>
+      </c>
+      <c r="E72" s="4">
+        <v>8</v>
+      </c>
+      <c r="F72" s="3">
         <v>5</v>
       </c>
-      <c r="G72" s="25">
-        <v>38</v>
-      </c>
-      <c r="H72" s="18">
-        <f t="shared" si="23"/>
-        <v>47</v>
-      </c>
-      <c r="I72" s="21">
-        <f t="shared" si="24"/>
+      <c r="G72" s="24">
+        <v>34</v>
+      </c>
+      <c r="H72" s="17">
+        <f t="shared" ref="H72:H73" si="27">G72+E72</f>
+        <v>42</v>
+      </c>
+      <c r="I72" s="16">
+        <f t="shared" ref="I72:I73" si="28">I71+J72</f>
         <v>146</v>
       </c>
-      <c r="J72" s="21">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="K72" s="28">
-        <v>0</v>
-      </c>
-      <c r="L72" s="29">
+      <c r="J72" s="16">
+        <f t="shared" ref="J72:J73" si="29">K72+L72</f>
+        <v>0</v>
+      </c>
+      <c r="K72" s="26">
+        <v>0</v>
+      </c>
+      <c r="L72" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="F73" t="s">
+      <c r="A73" s="2">
+        <v>43959</v>
+      </c>
+      <c r="B73" s="20"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14">
+        <v>0</v>
+      </c>
+      <c r="E73" s="30">
+        <v>8</v>
+      </c>
+      <c r="F73" s="31">
+        <v>5</v>
+      </c>
+      <c r="G73" s="25">
+        <v>33</v>
+      </c>
+      <c r="H73" s="18">
+        <f t="shared" si="27"/>
+        <v>41</v>
+      </c>
+      <c r="I73" s="21">
+        <f t="shared" si="28"/>
+        <v>146</v>
+      </c>
+      <c r="J73" s="21">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="K73" s="28">
+        <v>0</v>
+      </c>
+      <c r="L73" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="F74" t="s">
         <v>10</v>
       </c>
     </row>

--- a/Chiffres  COVID-19 Valais.xlsx
+++ b/Chiffres  COVID-19 Valais.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\11. Maladies transmissibles\11.2. Lutte\11.2.3. Pandémies\COVID-19\Epi\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
@@ -29,7 +24,7 @@
     <author>Larissa VERNIER</author>
   </authors>
   <commentList>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -99,13 +94,13 @@
     <t>Nb nouveaux décès extra-hospitaliers</t>
   </si>
   <si>
-    <t>Données COVID-19 Valais 08.05.2020</t>
+    <t>Données COVID-19 Valais 11.05.2020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -397,7 +392,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -667,7 +662,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -678,23 +673,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O74"/>
+  <dimension ref="A1:O77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D73"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="11.453125" style="15"/>
-    <col min="4" max="4" width="10.81640625" style="15"/>
-    <col min="8" max="8" width="16.1796875" customWidth="1"/>
-    <col min="10" max="10" width="14.54296875" customWidth="1"/>
-    <col min="11" max="11" width="13.54296875" customWidth="1"/>
-    <col min="12" max="12" width="15.7265625" style="6" customWidth="1"/>
+    <col min="2" max="3" width="11.42578125" style="15"/>
+    <col min="4" max="4" width="10.85546875" style="15"/>
+    <col min="8" max="8" width="16.140625" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>13</v>
       </c>
@@ -710,7 +705,7 @@
       <c r="K1" s="33"/>
       <c r="L1" s="34"/>
     </row>
-    <row r="2" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -751,7 +746,7 @@
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43889</v>
       </c>
@@ -793,7 +788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43890</v>
       </c>
@@ -835,7 +830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43891</v>
       </c>
@@ -877,7 +872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43892</v>
       </c>
@@ -919,7 +914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43893</v>
       </c>
@@ -961,7 +956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43894</v>
       </c>
@@ -1003,7 +998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43895</v>
       </c>
@@ -1045,7 +1040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43896</v>
       </c>
@@ -1087,7 +1082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43897</v>
       </c>
@@ -1129,7 +1124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43898</v>
       </c>
@@ -1171,7 +1166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43899</v>
       </c>
@@ -1213,7 +1208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43900</v>
       </c>
@@ -1255,7 +1250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43901</v>
       </c>
@@ -1297,7 +1292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43902</v>
       </c>
@@ -1339,7 +1334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43903</v>
       </c>
@@ -1381,7 +1376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43904</v>
       </c>
@@ -1423,7 +1418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43905</v>
       </c>
@@ -1465,7 +1460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43906</v>
       </c>
@@ -1507,7 +1502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43907</v>
       </c>
@@ -1549,7 +1544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43908</v>
       </c>
@@ -1591,7 +1586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43909</v>
       </c>
@@ -1633,7 +1628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43910</v>
       </c>
@@ -1675,7 +1670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43911</v>
       </c>
@@ -1717,7 +1712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43912</v>
       </c>
@@ -1759,7 +1754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43913</v>
       </c>
@@ -1801,7 +1796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43914</v>
       </c>
@@ -1843,7 +1838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43915</v>
       </c>
@@ -1885,7 +1880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43916</v>
       </c>
@@ -1927,7 +1922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43917</v>
       </c>
@@ -1969,7 +1964,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43918</v>
       </c>
@@ -2011,7 +2006,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43919</v>
       </c>
@@ -2053,7 +2048,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>43920</v>
       </c>
@@ -2095,7 +2090,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>43921</v>
       </c>
@@ -2137,7 +2132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>43922</v>
       </c>
@@ -2179,7 +2174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>43923</v>
       </c>
@@ -2221,7 +2216,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>43924</v>
       </c>
@@ -2263,7 +2258,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>43925</v>
       </c>
@@ -2305,7 +2300,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>43926</v>
       </c>
@@ -2347,7 +2342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>43927</v>
       </c>
@@ -2389,7 +2384,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>43928</v>
       </c>
@@ -2431,7 +2426,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43929</v>
       </c>
@@ -2473,7 +2468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43930</v>
       </c>
@@ -2515,7 +2510,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43931</v>
       </c>
@@ -2557,7 +2552,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43932</v>
       </c>
@@ -2599,7 +2594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>43933</v>
       </c>
@@ -2641,7 +2636,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>43934</v>
       </c>
@@ -2683,7 +2678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>43935</v>
       </c>
@@ -2725,7 +2720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>43936</v>
       </c>
@@ -2767,7 +2762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>43937</v>
       </c>
@@ -2809,7 +2804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>43938</v>
       </c>
@@ -2851,7 +2846,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>43939</v>
       </c>
@@ -2893,7 +2888,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>43940</v>
       </c>
@@ -2935,7 +2930,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>43941</v>
       </c>
@@ -2977,7 +2972,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>43942</v>
       </c>
@@ -3019,7 +3014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>43943</v>
       </c>
@@ -3061,7 +3056,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>43944</v>
       </c>
@@ -3103,7 +3098,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>43945</v>
       </c>
@@ -3145,7 +3140,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>43946</v>
       </c>
@@ -3187,7 +3182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>43947</v>
       </c>
@@ -3229,7 +3224,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>43948</v>
       </c>
@@ -3250,11 +3245,11 @@
         <v>9</v>
       </c>
       <c r="G62" s="24">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H62" s="17">
         <f t="shared" si="15"/>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I62" s="16">
         <f t="shared" si="16"/>
@@ -3271,7 +3266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>43949</v>
       </c>
@@ -3292,11 +3287,11 @@
         <v>8</v>
       </c>
       <c r="G63" s="24">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H63" s="17">
         <f t="shared" si="15"/>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I63" s="16">
         <f t="shared" si="16"/>
@@ -3313,7 +3308,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>43950</v>
       </c>
@@ -3334,11 +3329,11 @@
         <v>8</v>
       </c>
       <c r="G64" s="24">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H64" s="17">
         <f t="shared" ref="H64:H66" si="19">G64+E64</f>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I64" s="16">
         <f t="shared" ref="I64:I66" si="20">I63+J64</f>
@@ -3355,7 +3350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>43951</v>
       </c>
@@ -3376,11 +3371,11 @@
         <v>8</v>
       </c>
       <c r="G65" s="24">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H65" s="17">
         <f t="shared" si="19"/>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I65" s="16">
         <f t="shared" si="20"/>
@@ -3397,7 +3392,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>43952</v>
       </c>
@@ -3418,11 +3413,11 @@
         <v>8</v>
       </c>
       <c r="G66" s="24">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H66" s="17">
         <f t="shared" si="19"/>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I66" s="16">
         <f t="shared" si="20"/>
@@ -3439,12 +3434,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>43953</v>
       </c>
       <c r="B67" s="19">
-        <f t="shared" ref="B67:B71" si="22">B66+C67</f>
+        <f t="shared" ref="B67" si="22">B66+C67</f>
         <v>1891</v>
       </c>
       <c r="C67" s="13">
@@ -3460,18 +3455,18 @@
         <v>8</v>
       </c>
       <c r="G67" s="24">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H67" s="17">
-        <f t="shared" ref="H67:H73" si="23">G67+E67</f>
-        <v>60</v>
+        <f t="shared" ref="H67" si="23">G67+E67</f>
+        <v>61</v>
       </c>
       <c r="I67" s="16">
-        <f t="shared" ref="I67:I71" si="24">I66+J67</f>
+        <f t="shared" ref="I67" si="24">I66+J67</f>
         <v>140</v>
       </c>
       <c r="J67" s="16">
-        <f t="shared" ref="J67:J73" si="25">K67+L67</f>
+        <f t="shared" ref="J67" si="25">K67+L67</f>
         <v>2</v>
       </c>
       <c r="K67" s="26">
@@ -3481,19 +3476,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>43954</v>
       </c>
       <c r="B68" s="19">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="B68:B76" si="26">B67+C68</f>
         <v>1893</v>
       </c>
       <c r="C68" s="13">
         <v>2</v>
       </c>
       <c r="D68" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E68" s="4">
         <v>10</v>
@@ -3502,18 +3497,18 @@
         <v>8</v>
       </c>
       <c r="G68" s="24">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H68" s="17">
-        <f t="shared" si="23"/>
-        <v>60</v>
+        <f t="shared" ref="H68:H76" si="27">G68+E68</f>
+        <v>62</v>
       </c>
       <c r="I68" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="I68:I76" si="28">I67+J68</f>
         <v>142</v>
       </c>
       <c r="J68" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="J68:J76" si="29">K68+L68</f>
         <v>2</v>
       </c>
       <c r="K68" s="26">
@@ -3523,12 +3518,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>43955</v>
       </c>
       <c r="B69" s="19">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1901</v>
       </c>
       <c r="C69" s="13">
@@ -3544,18 +3539,18 @@
         <v>7</v>
       </c>
       <c r="G69" s="24">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H69" s="17">
-        <f t="shared" si="23"/>
-        <v>55</v>
+        <f t="shared" si="27"/>
+        <v>57</v>
       </c>
       <c r="I69" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>142</v>
       </c>
       <c r="J69" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="K69" s="26">
@@ -3565,12 +3560,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>43956</v>
       </c>
       <c r="B70" s="19">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1903</v>
       </c>
       <c r="C70" s="13">
@@ -3586,18 +3581,18 @@
         <v>6</v>
       </c>
       <c r="G70" s="24">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H70" s="17">
-        <f t="shared" si="23"/>
-        <v>50</v>
+        <f t="shared" si="27"/>
+        <v>52</v>
       </c>
       <c r="I70" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>146</v>
       </c>
       <c r="J70" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>4</v>
       </c>
       <c r="K70" s="26">
@@ -3607,12 +3602,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>43957</v>
       </c>
       <c r="B71" s="19">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1905</v>
       </c>
       <c r="C71" s="13">
@@ -3628,18 +3623,18 @@
         <v>5</v>
       </c>
       <c r="G71" s="24">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H71" s="17">
-        <f t="shared" si="23"/>
-        <v>47</v>
+        <f t="shared" si="27"/>
+        <v>49</v>
       </c>
       <c r="I71" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>146</v>
       </c>
       <c r="J71" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="K71" s="26">
@@ -3649,16 +3644,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>43958</v>
       </c>
       <c r="B72" s="19">
-        <f t="shared" ref="B72:B73" si="26">B71+C72</f>
-        <v>1905</v>
+        <f t="shared" si="26"/>
+        <v>1906</v>
       </c>
       <c r="C72" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D72" s="13">
         <v>0</v>
@@ -3670,66 +3665,197 @@
         <v>5</v>
       </c>
       <c r="G72" s="24">
+        <v>36</v>
+      </c>
+      <c r="H72" s="17">
+        <f t="shared" si="27"/>
+        <v>44</v>
+      </c>
+      <c r="I72" s="16">
+        <f t="shared" si="28"/>
+        <v>146</v>
+      </c>
+      <c r="J72" s="16">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="K72" s="26">
+        <v>0</v>
+      </c>
+      <c r="L72" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>43959</v>
+      </c>
+      <c r="B73" s="19">
+        <f t="shared" si="26"/>
+        <v>1909</v>
+      </c>
+      <c r="C73" s="13">
+        <v>3</v>
+      </c>
+      <c r="D73" s="13">
+        <v>1</v>
+      </c>
+      <c r="E73" s="4">
+        <v>8</v>
+      </c>
+      <c r="F73" s="3">
+        <v>5</v>
+      </c>
+      <c r="G73" s="24">
         <v>34</v>
       </c>
-      <c r="H72" s="17">
-        <f t="shared" ref="H72:H73" si="27">G72+E72</f>
+      <c r="H73" s="17">
+        <f t="shared" si="27"/>
         <v>42</v>
       </c>
-      <c r="I72" s="16">
-        <f t="shared" ref="I72:I73" si="28">I71+J72</f>
-        <v>146</v>
-      </c>
-      <c r="J72" s="16">
-        <f t="shared" ref="J72:J73" si="29">K72+L72</f>
-        <v>0</v>
-      </c>
-      <c r="K72" s="26">
-        <v>0</v>
-      </c>
-      <c r="L72" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A73" s="2">
-        <v>43959</v>
-      </c>
-      <c r="B73" s="20"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14">
-        <v>0</v>
-      </c>
-      <c r="E73" s="30">
-        <v>8</v>
-      </c>
-      <c r="F73" s="31">
-        <v>5</v>
-      </c>
-      <c r="G73" s="25">
-        <v>33</v>
-      </c>
-      <c r="H73" s="18">
+      <c r="I73" s="16">
+        <f t="shared" si="28"/>
+        <v>148</v>
+      </c>
+      <c r="J73" s="16">
+        <f t="shared" si="29"/>
+        <v>2</v>
+      </c>
+      <c r="K73" s="26">
+        <v>1</v>
+      </c>
+      <c r="L73" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B74" s="19">
+        <f t="shared" si="26"/>
+        <v>1909</v>
+      </c>
+      <c r="C74" s="13">
+        <v>0</v>
+      </c>
+      <c r="D74" s="13">
+        <v>0</v>
+      </c>
+      <c r="E74" s="4">
+        <v>9</v>
+      </c>
+      <c r="F74" s="3">
+        <v>6</v>
+      </c>
+      <c r="G74" s="24">
+        <v>32</v>
+      </c>
+      <c r="H74" s="17">
         <f t="shared" si="27"/>
         <v>41</v>
       </c>
-      <c r="I73" s="21">
+      <c r="I74" s="16">
         <f t="shared" si="28"/>
-        <v>146</v>
-      </c>
-      <c r="J73" s="21">
+        <v>148</v>
+      </c>
+      <c r="J74" s="16">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="K73" s="28">
-        <v>0</v>
-      </c>
-      <c r="L73" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="F74" t="s">
+      <c r="K74" s="26">
+        <v>0</v>
+      </c>
+      <c r="L74" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B75" s="19">
+        <f t="shared" si="26"/>
+        <v>1909</v>
+      </c>
+      <c r="C75" s="13">
+        <v>0</v>
+      </c>
+      <c r="D75" s="13">
+        <v>0</v>
+      </c>
+      <c r="E75" s="4">
+        <v>9</v>
+      </c>
+      <c r="F75" s="3">
+        <v>6</v>
+      </c>
+      <c r="G75" s="24">
+        <v>32</v>
+      </c>
+      <c r="H75" s="17">
+        <f t="shared" si="27"/>
+        <v>41</v>
+      </c>
+      <c r="I75" s="16">
+        <f t="shared" si="28"/>
+        <v>148</v>
+      </c>
+      <c r="J75" s="16">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="K75" s="26">
+        <v>0</v>
+      </c>
+      <c r="L75" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>43962</v>
+      </c>
+      <c r="B76" s="20">
+        <f t="shared" si="26"/>
+        <v>1910</v>
+      </c>
+      <c r="C76" s="14">
+        <v>1</v>
+      </c>
+      <c r="D76" s="14">
+        <v>1</v>
+      </c>
+      <c r="E76" s="30">
+        <v>9</v>
+      </c>
+      <c r="F76" s="31">
+        <v>6</v>
+      </c>
+      <c r="G76" s="25">
+        <v>33</v>
+      </c>
+      <c r="H76" s="18">
+        <f t="shared" si="27"/>
+        <v>42</v>
+      </c>
+      <c r="I76" s="21">
+        <f t="shared" si="28"/>
+        <v>148</v>
+      </c>
+      <c r="J76" s="21">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="K76" s="28">
+        <v>0</v>
+      </c>
+      <c r="L76" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F77" t="s">
         <v>10</v>
       </c>
     </row>

--- a/Chiffres  COVID-19 Valais.xlsx
+++ b/Chiffres  COVID-19 Valais.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\JIDFS\USERS\B105PLS\Documents\COVID-Monitoring\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
@@ -24,7 +29,7 @@
     <author>Larissa VERNIER</author>
   </authors>
   <commentList>
-    <comment ref="D2" authorId="0">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -53,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -94,13 +99,16 @@
     <t>Nb nouveaux décès extra-hospitaliers</t>
   </si>
   <si>
-    <t>Données COVID-19 Valais 11.05.2020</t>
+    <t>Données COVID-19 Valais 12.05.2020</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -408,7 +416,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -662,7 +670,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -673,23 +681,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O77"/>
+  <dimension ref="A1:O78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="3" width="11.42578125" style="15"/>
-    <col min="4" max="4" width="10.85546875" style="15"/>
-    <col min="8" max="8" width="16.140625" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="6" customWidth="1"/>
+    <col min="2" max="3" width="11.453125" style="15"/>
+    <col min="4" max="4" width="10.81640625" style="15"/>
+    <col min="8" max="8" width="16.1796875" customWidth="1"/>
+    <col min="10" max="10" width="14.54296875" customWidth="1"/>
+    <col min="11" max="11" width="13.54296875" customWidth="1"/>
+    <col min="12" max="12" width="15.7265625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="32" t="s">
         <v>13</v>
       </c>
@@ -705,7 +713,7 @@
       <c r="K1" s="33"/>
       <c r="L1" s="34"/>
     </row>
-    <row r="2" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -746,7 +754,7 @@
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>43889</v>
       </c>
@@ -788,7 +796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>43890</v>
       </c>
@@ -800,7 +808,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E4" s="4">
         <v>0</v>
@@ -830,7 +838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>43891</v>
       </c>
@@ -842,7 +850,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="13">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E5" s="4">
         <v>0</v>
@@ -872,7 +880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>43892</v>
       </c>
@@ -884,7 +892,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="13">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E6" s="4">
         <v>0</v>
@@ -914,7 +922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>43893</v>
       </c>
@@ -926,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="13">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E7" s="4">
         <v>0</v>
@@ -956,7 +964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>43894</v>
       </c>
@@ -968,7 +976,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="13">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E8" s="4">
         <v>0</v>
@@ -998,7 +1006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>43895</v>
       </c>
@@ -1010,7 +1018,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="13">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E9" s="4">
         <v>0</v>
@@ -1040,7 +1048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>43896</v>
       </c>
@@ -1052,7 +1060,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="13">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E10" s="4">
         <v>0</v>
@@ -1082,7 +1090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>43897</v>
       </c>
@@ -1094,7 +1102,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="13">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E11" s="4">
         <v>0</v>
@@ -1124,7 +1132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>43898</v>
       </c>
@@ -1136,7 +1144,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="13">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E12" s="4">
         <v>1</v>
@@ -1166,7 +1174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>43899</v>
       </c>
@@ -1178,7 +1186,7 @@
         <v>5</v>
       </c>
       <c r="D13" s="13">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E13" s="4">
         <v>1</v>
@@ -1208,7 +1216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>43900</v>
       </c>
@@ -1220,7 +1228,7 @@
         <v>5</v>
       </c>
       <c r="D14" s="13">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="E14" s="4">
         <v>1</v>
@@ -1250,7 +1258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>43901</v>
       </c>
@@ -1262,7 +1270,7 @@
         <v>8</v>
       </c>
       <c r="D15" s="13">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E15" s="4">
         <v>1</v>
@@ -1292,7 +1300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>43902</v>
       </c>
@@ -1304,7 +1312,7 @@
         <v>23</v>
       </c>
       <c r="D16" s="13">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="E16" s="4">
         <v>1</v>
@@ -1334,7 +1342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>43903</v>
       </c>
@@ -1346,7 +1354,7 @@
         <v>23</v>
       </c>
       <c r="D17" s="13">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="E17" s="4">
         <v>1</v>
@@ -1376,7 +1384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>43904</v>
       </c>
@@ -1388,7 +1396,7 @@
         <v>22</v>
       </c>
       <c r="D18" s="13">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="E18" s="4">
         <v>1</v>
@@ -1418,7 +1426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>43905</v>
       </c>
@@ -1430,7 +1438,7 @@
         <v>17</v>
       </c>
       <c r="D19" s="13">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="E19" s="4">
         <v>1</v>
@@ -1460,7 +1468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>43906</v>
       </c>
@@ -1472,7 +1480,7 @@
         <v>57</v>
       </c>
       <c r="D20" s="13">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="E20" s="4">
         <v>2</v>
@@ -1502,7 +1510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>43907</v>
       </c>
@@ -1514,7 +1522,7 @@
         <v>53</v>
       </c>
       <c r="D21" s="13">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="E21" s="4">
         <v>2</v>
@@ -1544,7 +1552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>43908</v>
       </c>
@@ -1556,7 +1564,7 @@
         <v>87</v>
       </c>
       <c r="D22" s="13">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="E22" s="4">
         <v>2</v>
@@ -1586,7 +1594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>43909</v>
       </c>
@@ -1598,7 +1606,7 @@
         <v>37</v>
       </c>
       <c r="D23" s="13">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="E23" s="4">
         <v>5</v>
@@ -1628,7 +1636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>43910</v>
       </c>
@@ -1640,7 +1648,7 @@
         <v>87</v>
       </c>
       <c r="D24" s="13">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="E24" s="4">
         <v>6</v>
@@ -1670,7 +1678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>43911</v>
       </c>
@@ -1682,7 +1690,7 @@
         <v>62</v>
       </c>
       <c r="D25" s="13">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="E25" s="4">
         <v>8</v>
@@ -1712,7 +1720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>43912</v>
       </c>
@@ -1724,7 +1732,7 @@
         <v>37</v>
       </c>
       <c r="D26" s="13">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="E26" s="4">
         <v>11</v>
@@ -1754,7 +1762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>43913</v>
       </c>
@@ -1766,7 +1774,7 @@
         <v>93</v>
       </c>
       <c r="D27" s="13">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="E27" s="4">
         <v>12</v>
@@ -1796,7 +1804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>43914</v>
       </c>
@@ -1808,7 +1816,7 @@
         <v>100</v>
       </c>
       <c r="D28" s="13">
-        <v>15</v>
+        <v>117</v>
       </c>
       <c r="E28" s="4">
         <v>13</v>
@@ -1838,7 +1846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>43915</v>
       </c>
@@ -1850,7 +1858,7 @@
         <v>65</v>
       </c>
       <c r="D29" s="13">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="E29" s="4">
         <v>15</v>
@@ -1880,7 +1888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>43916</v>
       </c>
@@ -1892,7 +1900,7 @@
         <v>81</v>
       </c>
       <c r="D30" s="13">
-        <v>18</v>
+        <v>128</v>
       </c>
       <c r="E30" s="4">
         <v>19</v>
@@ -1922,7 +1930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>43917</v>
       </c>
@@ -1934,7 +1942,7 @@
         <v>94</v>
       </c>
       <c r="D31" s="13">
-        <v>20</v>
+        <v>137</v>
       </c>
       <c r="E31" s="4">
         <v>20</v>
@@ -1964,7 +1972,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>43918</v>
       </c>
@@ -1976,7 +1984,7 @@
         <v>49</v>
       </c>
       <c r="D32" s="13">
-        <v>10</v>
+        <v>142</v>
       </c>
       <c r="E32" s="4">
         <v>21</v>
@@ -2006,7 +2014,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>43919</v>
       </c>
@@ -2018,7 +2026,7 @@
         <v>38</v>
       </c>
       <c r="D33" s="13">
-        <v>13</v>
+        <v>152</v>
       </c>
       <c r="E33" s="4">
         <v>22</v>
@@ -2048,7 +2056,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>43920</v>
       </c>
@@ -2060,7 +2068,7 @@
         <v>89</v>
       </c>
       <c r="D34" s="13">
-        <v>20</v>
+        <v>153</v>
       </c>
       <c r="E34" s="4">
         <v>25</v>
@@ -2090,7 +2098,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>43921</v>
       </c>
@@ -2102,7 +2110,7 @@
         <v>67</v>
       </c>
       <c r="D35" s="13">
-        <v>11</v>
+        <v>152</v>
       </c>
       <c r="E35" s="4">
         <v>24</v>
@@ -2132,7 +2140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>43922</v>
       </c>
@@ -2144,7 +2152,7 @@
         <v>71</v>
       </c>
       <c r="D36" s="13">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="E36" s="4">
         <v>26</v>
@@ -2174,7 +2182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>43923</v>
       </c>
@@ -2186,7 +2194,7 @@
         <v>52</v>
       </c>
       <c r="D37" s="13">
-        <v>12</v>
+        <v>146</v>
       </c>
       <c r="E37" s="4">
         <v>28</v>
@@ -2216,7 +2224,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>43924</v>
       </c>
@@ -2228,7 +2236,7 @@
         <v>49</v>
       </c>
       <c r="D38" s="13">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="E38" s="4">
         <v>26</v>
@@ -2258,7 +2266,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>43925</v>
       </c>
@@ -2270,7 +2278,7 @@
         <v>33</v>
       </c>
       <c r="D39" s="13">
-        <v>6</v>
+        <v>149</v>
       </c>
       <c r="E39" s="4">
         <v>28</v>
@@ -2300,7 +2308,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>43926</v>
       </c>
@@ -2312,7 +2320,7 @@
         <v>15</v>
       </c>
       <c r="D40" s="13">
-        <v>4</v>
+        <v>146</v>
       </c>
       <c r="E40" s="4">
         <v>26</v>
@@ -2342,7 +2350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>43927</v>
       </c>
@@ -2354,7 +2362,7 @@
         <v>66</v>
       </c>
       <c r="D41" s="13">
-        <v>7</v>
+        <v>133</v>
       </c>
       <c r="E41" s="4">
         <v>26</v>
@@ -2384,7 +2392,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>43928</v>
       </c>
@@ -2396,7 +2404,7 @@
         <v>39</v>
       </c>
       <c r="D42" s="13">
-        <v>7</v>
+        <v>130</v>
       </c>
       <c r="E42" s="4">
         <v>25</v>
@@ -2426,7 +2434,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>43929</v>
       </c>
@@ -2438,7 +2446,7 @@
         <v>34</v>
       </c>
       <c r="D43" s="13">
-        <v>5</v>
+        <v>123</v>
       </c>
       <c r="E43" s="4">
         <v>26</v>
@@ -2468,7 +2476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>43930</v>
       </c>
@@ -2480,7 +2488,7 @@
         <v>28</v>
       </c>
       <c r="D44" s="13">
-        <v>4</v>
+        <v>119</v>
       </c>
       <c r="E44" s="4">
         <v>24</v>
@@ -2510,7 +2518,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>43931</v>
       </c>
@@ -2522,7 +2530,7 @@
         <v>29</v>
       </c>
       <c r="D45" s="13">
-        <v>5</v>
+        <v>117</v>
       </c>
       <c r="E45" s="4">
         <v>24</v>
@@ -2552,7 +2560,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>43932</v>
       </c>
@@ -2564,7 +2572,7 @@
         <v>26</v>
       </c>
       <c r="D46" s="13">
-        <v>2</v>
+        <v>114</v>
       </c>
       <c r="E46" s="4">
         <v>20</v>
@@ -2594,7 +2602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>43933</v>
       </c>
@@ -2606,7 +2614,7 @@
         <v>13</v>
       </c>
       <c r="D47" s="13">
-        <v>3</v>
+        <v>112</v>
       </c>
       <c r="E47" s="4">
         <v>22</v>
@@ -2636,7 +2644,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>43934</v>
       </c>
@@ -2648,7 +2656,7 @@
         <v>14</v>
       </c>
       <c r="D48" s="13">
-        <v>1</v>
+        <v>108</v>
       </c>
       <c r="E48" s="4">
         <v>21</v>
@@ -2678,7 +2686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>43935</v>
       </c>
@@ -2690,7 +2698,7 @@
         <v>27</v>
       </c>
       <c r="D49" s="13">
-        <v>4</v>
+        <v>102</v>
       </c>
       <c r="E49" s="4">
         <v>20</v>
@@ -2720,7 +2728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>43936</v>
       </c>
@@ -2732,7 +2740,7 @@
         <v>16</v>
       </c>
       <c r="D50" s="13">
-        <v>2</v>
+        <v>96</v>
       </c>
       <c r="E50" s="4">
         <v>20</v>
@@ -2762,7 +2770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>43937</v>
       </c>
@@ -2774,7 +2782,7 @@
         <v>17</v>
       </c>
       <c r="D51" s="13">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="E51" s="4">
         <v>17</v>
@@ -2804,7 +2812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>43938</v>
       </c>
@@ -2816,7 +2824,7 @@
         <v>20</v>
       </c>
       <c r="D52" s="13">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="E52" s="4">
         <v>16</v>
@@ -2846,7 +2854,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>43939</v>
       </c>
@@ -2858,7 +2866,7 @@
         <v>9</v>
       </c>
       <c r="D53" s="13">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="E53" s="4">
         <v>18</v>
@@ -2888,7 +2896,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>43940</v>
       </c>
@@ -2900,7 +2908,7 @@
         <v>7</v>
       </c>
       <c r="D54" s="13">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="E54" s="4">
         <v>16</v>
@@ -2930,7 +2938,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>43941</v>
       </c>
@@ -2942,7 +2950,7 @@
         <v>17</v>
       </c>
       <c r="D55" s="13">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="E55" s="4">
         <v>15</v>
@@ -2972,7 +2980,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>43942</v>
       </c>
@@ -2984,7 +2992,7 @@
         <v>7</v>
       </c>
       <c r="D56" s="13">
-        <v>2</v>
+        <v>78</v>
       </c>
       <c r="E56" s="4">
         <v>14</v>
@@ -3014,7 +3022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>43943</v>
       </c>
@@ -3026,7 +3034,7 @@
         <v>6</v>
       </c>
       <c r="D57" s="13">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="E57" s="4">
         <v>13</v>
@@ -3056,7 +3064,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>43944</v>
       </c>
@@ -3068,7 +3076,7 @@
         <v>16</v>
       </c>
       <c r="D58" s="13">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E58" s="4">
         <v>13</v>
@@ -3098,7 +3106,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>43945</v>
       </c>
@@ -3110,7 +3118,7 @@
         <v>9</v>
       </c>
       <c r="D59" s="13">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="E59" s="4">
         <v>14</v>
@@ -3140,7 +3148,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>43946</v>
       </c>
@@ -3152,7 +3160,7 @@
         <v>5</v>
       </c>
       <c r="D60" s="13">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="E60" s="4">
         <v>14</v>
@@ -3182,7 +3190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>43947</v>
       </c>
@@ -3194,7 +3202,7 @@
         <v>2</v>
       </c>
       <c r="D61" s="13">
-        <v>2</v>
+        <v>77</v>
       </c>
       <c r="E61" s="4">
         <v>15</v>
@@ -3224,7 +3232,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>43948</v>
       </c>
@@ -3236,7 +3244,7 @@
         <v>15</v>
       </c>
       <c r="D62" s="13">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="E62" s="4">
         <v>14</v>
@@ -3266,7 +3274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>43949</v>
       </c>
@@ -3278,7 +3286,7 @@
         <v>11</v>
       </c>
       <c r="D63" s="13">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="E63" s="4">
         <v>13</v>
@@ -3308,7 +3316,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>43950</v>
       </c>
@@ -3320,7 +3328,7 @@
         <v>12</v>
       </c>
       <c r="D64" s="13">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="E64" s="4">
         <v>11</v>
@@ -3350,7 +3358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>43951</v>
       </c>
@@ -3362,7 +3370,7 @@
         <v>7</v>
       </c>
       <c r="D65" s="13">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="E65" s="4">
         <v>10</v>
@@ -3392,7 +3400,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>43952</v>
       </c>
@@ -3404,7 +3412,7 @@
         <v>5</v>
       </c>
       <c r="D66" s="13">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="E66" s="4">
         <v>10</v>
@@ -3434,7 +3442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>43953</v>
       </c>
@@ -3446,7 +3454,7 @@
         <v>3</v>
       </c>
       <c r="D67" s="13">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="E67" s="4">
         <v>10</v>
@@ -3476,19 +3484,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>43954</v>
       </c>
       <c r="B68" s="19">
-        <f t="shared" ref="B68:B76" si="26">B67+C68</f>
+        <f t="shared" ref="B68:B74" si="26">B67+C68</f>
         <v>1893</v>
       </c>
       <c r="C68" s="13">
         <v>2</v>
       </c>
       <c r="D68" s="13">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="E68" s="4">
         <v>10</v>
@@ -3500,15 +3508,15 @@
         <v>52</v>
       </c>
       <c r="H68" s="17">
-        <f t="shared" ref="H68:H76" si="27">G68+E68</f>
+        <f t="shared" ref="H68:H74" si="27">G68+E68</f>
         <v>62</v>
       </c>
       <c r="I68" s="16">
-        <f t="shared" ref="I68:I76" si="28">I67+J68</f>
+        <f t="shared" ref="I68:I74" si="28">I67+J68</f>
         <v>142</v>
       </c>
       <c r="J68" s="16">
-        <f t="shared" ref="J68:J76" si="29">K68+L68</f>
+        <f t="shared" ref="J68:J74" si="29">K68+L68</f>
         <v>2</v>
       </c>
       <c r="K68" s="26">
@@ -3518,7 +3526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>43955</v>
       </c>
@@ -3530,7 +3538,7 @@
         <v>8</v>
       </c>
       <c r="D69" s="13">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="E69" s="4">
         <v>10</v>
@@ -3560,7 +3568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>43956</v>
       </c>
@@ -3572,7 +3580,7 @@
         <v>2</v>
       </c>
       <c r="D70" s="13">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="E70" s="4">
         <v>8</v>
@@ -3602,7 +3610,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>43957</v>
       </c>
@@ -3614,7 +3622,7 @@
         <v>2</v>
       </c>
       <c r="D71" s="13">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="E71" s="4">
         <v>8</v>
@@ -3644,7 +3652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>43958</v>
       </c>
@@ -3656,7 +3664,7 @@
         <v>1</v>
       </c>
       <c r="D72" s="13">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="E72" s="4">
         <v>8</v>
@@ -3686,7 +3694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>43959</v>
       </c>
@@ -3698,7 +3706,7 @@
         <v>3</v>
       </c>
       <c r="D73" s="13">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="E73" s="4">
         <v>8</v>
@@ -3728,19 +3736,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>43960</v>
       </c>
       <c r="B74" s="19">
         <f t="shared" si="26"/>
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="C74" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D74" s="13">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="E74" s="4">
         <v>9</v>
@@ -3770,19 +3778,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>43961</v>
       </c>
       <c r="B75" s="19">
-        <f t="shared" si="26"/>
-        <v>1909</v>
+        <f t="shared" ref="B75:B77" si="30">B74+C75</f>
+        <v>1911</v>
       </c>
       <c r="C75" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D75" s="13">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="E75" s="4">
         <v>9</v>
@@ -3794,15 +3802,15 @@
         <v>32</v>
       </c>
       <c r="H75" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" ref="H75:H77" si="31">G75+E75</f>
         <v>41</v>
       </c>
       <c r="I75" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" ref="I75:I77" si="32">I74+J75</f>
         <v>148</v>
       </c>
       <c r="J75" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" ref="J75:J77" si="33">K75+L75</f>
         <v>0</v>
       </c>
       <c r="K75" s="26">
@@ -3812,50 +3820,90 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="2">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A76" s="1">
         <v>43962</v>
       </c>
-      <c r="B76" s="20">
-        <f t="shared" si="26"/>
-        <v>1910</v>
-      </c>
-      <c r="C76" s="14">
-        <v>1</v>
-      </c>
-      <c r="D76" s="14">
-        <v>1</v>
-      </c>
-      <c r="E76" s="30">
+      <c r="B76" s="19">
+        <f t="shared" si="30"/>
+        <v>1912</v>
+      </c>
+      <c r="C76" s="13">
+        <v>1</v>
+      </c>
+      <c r="D76" s="13">
+        <v>41</v>
+      </c>
+      <c r="E76" s="4">
         <v>9</v>
       </c>
-      <c r="F76" s="31">
+      <c r="F76" s="3">
         <v>6</v>
       </c>
-      <c r="G76" s="25">
-        <v>33</v>
-      </c>
-      <c r="H76" s="18">
-        <f t="shared" si="27"/>
-        <v>42</v>
-      </c>
-      <c r="I76" s="21">
-        <f t="shared" si="28"/>
-        <v>148</v>
-      </c>
-      <c r="J76" s="21">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="K76" s="28">
-        <v>0</v>
-      </c>
-      <c r="L76" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F77" t="s">
+      <c r="G76" s="24">
+        <v>32</v>
+      </c>
+      <c r="H76" s="17">
+        <f t="shared" si="31"/>
+        <v>41</v>
+      </c>
+      <c r="I76" s="16">
+        <f t="shared" si="32"/>
+        <v>149</v>
+      </c>
+      <c r="J76" s="16">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="K76" s="26">
+        <v>1</v>
+      </c>
+      <c r="L76" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A77" s="2">
+        <v>43963</v>
+      </c>
+      <c r="B77" s="20">
+        <f t="shared" si="30"/>
+        <v>1912</v>
+      </c>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14">
+        <v>41</v>
+      </c>
+      <c r="E77" s="30">
+        <v>9</v>
+      </c>
+      <c r="F77" s="31">
+        <v>6</v>
+      </c>
+      <c r="G77" s="25">
+        <v>32</v>
+      </c>
+      <c r="H77" s="18">
+        <f t="shared" si="31"/>
+        <v>41</v>
+      </c>
+      <c r="I77" s="21">
+        <f t="shared" si="32"/>
+        <v>149</v>
+      </c>
+      <c r="J77" s="21">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="K77" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="L77" s="29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="F78" t="s">
         <v>10</v>
       </c>
     </row>

--- a/Chiffres  COVID-19 Valais.xlsx
+++ b/Chiffres  COVID-19 Valais.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\JIDFS\USERS\B105PLS\Documents\COVID-Monitoring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Jidfs\users\B105PLS\Documents\COVID-Monitoring\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -90,19 +90,13 @@
     <t>Nb nouvelles admissions à l'hôpital</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Nb nouveaux décès à l'hôpital</t>
   </si>
   <si>
     <t>Nb nouveaux décès extra-hospitaliers</t>
   </si>
   <si>
-    <t>Données COVID-19 Valais 12.05.2020</t>
-  </si>
-  <si>
-    <t>0</t>
+    <t>Données COVID-19 Valais 13.05.2020</t>
   </si>
 </sst>
 </file>
@@ -683,8 +677,8 @@
   </sheetPr>
   <dimension ref="A1:O78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D77"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="H74" sqref="H74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -699,7 +693,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
@@ -745,10 +739,10 @@
         <v>8</v>
       </c>
       <c r="K2" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="11" t="s">
         <v>11</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>12</v>
       </c>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
@@ -808,7 +802,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E4" s="4">
         <v>0</v>
@@ -850,7 +844,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="13">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E5" s="4">
         <v>0</v>
@@ -892,7 +886,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="13">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E6" s="4">
         <v>0</v>
@@ -934,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="13">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E7" s="4">
         <v>0</v>
@@ -976,7 +970,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="13">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E8" s="4">
         <v>0</v>
@@ -1018,7 +1012,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="13">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E9" s="4">
         <v>0</v>
@@ -1060,7 +1054,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="13">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E10" s="4">
         <v>0</v>
@@ -1102,7 +1096,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="13">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E11" s="4">
         <v>0</v>
@@ -1144,7 +1138,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="13">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E12" s="4">
         <v>1</v>
@@ -1186,7 +1180,7 @@
         <v>5</v>
       </c>
       <c r="D13" s="13">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E13" s="4">
         <v>1</v>
@@ -1228,7 +1222,7 @@
         <v>5</v>
       </c>
       <c r="D14" s="13">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E14" s="4">
         <v>1</v>
@@ -1270,7 +1264,7 @@
         <v>8</v>
       </c>
       <c r="D15" s="13">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E15" s="4">
         <v>1</v>
@@ -1312,7 +1306,7 @@
         <v>23</v>
       </c>
       <c r="D16" s="13">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="E16" s="4">
         <v>1</v>
@@ -1354,7 +1348,7 @@
         <v>23</v>
       </c>
       <c r="D17" s="13">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="E17" s="4">
         <v>1</v>
@@ -1396,7 +1390,7 @@
         <v>22</v>
       </c>
       <c r="D18" s="13">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="E18" s="4">
         <v>1</v>
@@ -1438,7 +1432,7 @@
         <v>17</v>
       </c>
       <c r="D19" s="13">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="E19" s="4">
         <v>1</v>
@@ -1480,7 +1474,7 @@
         <v>57</v>
       </c>
       <c r="D20" s="13">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="E20" s="4">
         <v>2</v>
@@ -1522,7 +1516,7 @@
         <v>53</v>
       </c>
       <c r="D21" s="13">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="E21" s="4">
         <v>2</v>
@@ -1564,7 +1558,7 @@
         <v>87</v>
       </c>
       <c r="D22" s="13">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="E22" s="4">
         <v>2</v>
@@ -1606,7 +1600,7 @@
         <v>37</v>
       </c>
       <c r="D23" s="13">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="E23" s="4">
         <v>5</v>
@@ -1648,7 +1642,7 @@
         <v>87</v>
       </c>
       <c r="D24" s="13">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="E24" s="4">
         <v>6</v>
@@ -1690,7 +1684,7 @@
         <v>62</v>
       </c>
       <c r="D25" s="13">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="E25" s="4">
         <v>8</v>
@@ -1732,7 +1726,7 @@
         <v>37</v>
       </c>
       <c r="D26" s="13">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="E26" s="4">
         <v>11</v>
@@ -1774,7 +1768,7 @@
         <v>93</v>
       </c>
       <c r="D27" s="13">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="E27" s="4">
         <v>12</v>
@@ -1816,7 +1810,7 @@
         <v>100</v>
       </c>
       <c r="D28" s="13">
-        <v>117</v>
+        <v>15</v>
       </c>
       <c r="E28" s="4">
         <v>13</v>
@@ -1858,7 +1852,7 @@
         <v>65</v>
       </c>
       <c r="D29" s="13">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="E29" s="4">
         <v>15</v>
@@ -1900,7 +1894,7 @@
         <v>81</v>
       </c>
       <c r="D30" s="13">
-        <v>128</v>
+        <v>18</v>
       </c>
       <c r="E30" s="4">
         <v>19</v>
@@ -1942,7 +1936,7 @@
         <v>94</v>
       </c>
       <c r="D31" s="13">
-        <v>137</v>
+        <v>20</v>
       </c>
       <c r="E31" s="4">
         <v>20</v>
@@ -1984,7 +1978,7 @@
         <v>49</v>
       </c>
       <c r="D32" s="13">
-        <v>142</v>
+        <v>10</v>
       </c>
       <c r="E32" s="4">
         <v>21</v>
@@ -2026,7 +2020,7 @@
         <v>38</v>
       </c>
       <c r="D33" s="13">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="E33" s="4">
         <v>22</v>
@@ -2068,7 +2062,7 @@
         <v>89</v>
       </c>
       <c r="D34" s="13">
-        <v>153</v>
+        <v>20</v>
       </c>
       <c r="E34" s="4">
         <v>25</v>
@@ -2110,7 +2104,7 @@
         <v>67</v>
       </c>
       <c r="D35" s="13">
-        <v>152</v>
+        <v>11</v>
       </c>
       <c r="E35" s="4">
         <v>24</v>
@@ -2152,7 +2146,7 @@
         <v>71</v>
       </c>
       <c r="D36" s="13">
-        <v>146</v>
+        <v>11</v>
       </c>
       <c r="E36" s="4">
         <v>26</v>
@@ -2194,7 +2188,7 @@
         <v>52</v>
       </c>
       <c r="D37" s="13">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="E37" s="4">
         <v>28</v>
@@ -2236,7 +2230,7 @@
         <v>49</v>
       </c>
       <c r="D38" s="13">
-        <v>146</v>
+        <v>6</v>
       </c>
       <c r="E38" s="4">
         <v>26</v>
@@ -2278,7 +2272,7 @@
         <v>33</v>
       </c>
       <c r="D39" s="13">
-        <v>149</v>
+        <v>6</v>
       </c>
       <c r="E39" s="4">
         <v>28</v>
@@ -2320,7 +2314,7 @@
         <v>15</v>
       </c>
       <c r="D40" s="13">
-        <v>146</v>
+        <v>4</v>
       </c>
       <c r="E40" s="4">
         <v>26</v>
@@ -2362,7 +2356,7 @@
         <v>66</v>
       </c>
       <c r="D41" s="13">
-        <v>133</v>
+        <v>7</v>
       </c>
       <c r="E41" s="4">
         <v>26</v>
@@ -2404,7 +2398,7 @@
         <v>39</v>
       </c>
       <c r="D42" s="13">
-        <v>130</v>
+        <v>7</v>
       </c>
       <c r="E42" s="4">
         <v>25</v>
@@ -2446,7 +2440,7 @@
         <v>34</v>
       </c>
       <c r="D43" s="13">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="E43" s="4">
         <v>26</v>
@@ -2488,7 +2482,7 @@
         <v>28</v>
       </c>
       <c r="D44" s="13">
-        <v>119</v>
+        <v>4</v>
       </c>
       <c r="E44" s="4">
         <v>24</v>
@@ -2530,7 +2524,7 @@
         <v>29</v>
       </c>
       <c r="D45" s="13">
-        <v>117</v>
+        <v>5</v>
       </c>
       <c r="E45" s="4">
         <v>24</v>
@@ -2572,7 +2566,7 @@
         <v>26</v>
       </c>
       <c r="D46" s="13">
-        <v>114</v>
+        <v>2</v>
       </c>
       <c r="E46" s="4">
         <v>20</v>
@@ -2614,7 +2608,7 @@
         <v>13</v>
       </c>
       <c r="D47" s="13">
-        <v>112</v>
+        <v>3</v>
       </c>
       <c r="E47" s="4">
         <v>22</v>
@@ -2656,7 +2650,7 @@
         <v>14</v>
       </c>
       <c r="D48" s="13">
-        <v>108</v>
+        <v>1</v>
       </c>
       <c r="E48" s="4">
         <v>21</v>
@@ -2698,7 +2692,7 @@
         <v>27</v>
       </c>
       <c r="D49" s="13">
-        <v>102</v>
+        <v>4</v>
       </c>
       <c r="E49" s="4">
         <v>20</v>
@@ -2740,7 +2734,7 @@
         <v>16</v>
       </c>
       <c r="D50" s="13">
-        <v>96</v>
+        <v>2</v>
       </c>
       <c r="E50" s="4">
         <v>20</v>
@@ -2782,7 +2776,7 @@
         <v>17</v>
       </c>
       <c r="D51" s="13">
-        <v>94</v>
+        <v>1</v>
       </c>
       <c r="E51" s="4">
         <v>17</v>
@@ -2824,7 +2818,7 @@
         <v>20</v>
       </c>
       <c r="D52" s="13">
-        <v>87</v>
+        <v>1</v>
       </c>
       <c r="E52" s="4">
         <v>16</v>
@@ -2866,7 +2860,7 @@
         <v>9</v>
       </c>
       <c r="D53" s="13">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="E53" s="4">
         <v>18</v>
@@ -2908,7 +2902,7 @@
         <v>7</v>
       </c>
       <c r="D54" s="13">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="E54" s="4">
         <v>16</v>
@@ -2950,7 +2944,7 @@
         <v>17</v>
       </c>
       <c r="D55" s="13">
-        <v>81</v>
+        <v>3</v>
       </c>
       <c r="E55" s="4">
         <v>15</v>
@@ -2992,7 +2986,7 @@
         <v>7</v>
       </c>
       <c r="D56" s="13">
-        <v>78</v>
+        <v>2</v>
       </c>
       <c r="E56" s="4">
         <v>14</v>
@@ -3034,7 +3028,7 @@
         <v>6</v>
       </c>
       <c r="D57" s="13">
-        <v>79</v>
+        <v>4</v>
       </c>
       <c r="E57" s="4">
         <v>13</v>
@@ -3076,7 +3070,7 @@
         <v>16</v>
       </c>
       <c r="D58" s="13">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="E58" s="4">
         <v>13</v>
@@ -3118,7 +3112,7 @@
         <v>9</v>
       </c>
       <c r="D59" s="13">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="E59" s="4">
         <v>14</v>
@@ -3160,7 +3154,7 @@
         <v>5</v>
       </c>
       <c r="D60" s="13">
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="E60" s="4">
         <v>14</v>
@@ -3202,7 +3196,7 @@
         <v>2</v>
       </c>
       <c r="D61" s="13">
-        <v>77</v>
+        <v>2</v>
       </c>
       <c r="E61" s="4">
         <v>15</v>
@@ -3244,7 +3238,7 @@
         <v>15</v>
       </c>
       <c r="D62" s="13">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="E62" s="4">
         <v>14</v>
@@ -3286,7 +3280,7 @@
         <v>11</v>
       </c>
       <c r="D63" s="13">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="E63" s="4">
         <v>13</v>
@@ -3328,7 +3322,7 @@
         <v>12</v>
       </c>
       <c r="D64" s="13">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="E64" s="4">
         <v>11</v>
@@ -3370,7 +3364,7 @@
         <v>7</v>
       </c>
       <c r="D65" s="13">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="E65" s="4">
         <v>10</v>
@@ -3412,7 +3406,7 @@
         <v>5</v>
       </c>
       <c r="D66" s="13">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="E66" s="4">
         <v>10</v>
@@ -3454,7 +3448,7 @@
         <v>3</v>
       </c>
       <c r="D67" s="13">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="E67" s="4">
         <v>10</v>
@@ -3489,14 +3483,14 @@
         <v>43954</v>
       </c>
       <c r="B68" s="19">
-        <f t="shared" ref="B68:B74" si="26">B67+C68</f>
+        <f t="shared" ref="B68:B70" si="26">B67+C68</f>
         <v>1893</v>
       </c>
       <c r="C68" s="13">
         <v>2</v>
       </c>
       <c r="D68" s="13">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="E68" s="4">
         <v>10</v>
@@ -3508,15 +3502,15 @@
         <v>52</v>
       </c>
       <c r="H68" s="17">
-        <f t="shared" ref="H68:H74" si="27">G68+E68</f>
+        <f t="shared" ref="H68:H70" si="27">G68+E68</f>
         <v>62</v>
       </c>
       <c r="I68" s="16">
-        <f t="shared" ref="I68:I74" si="28">I67+J68</f>
+        <f t="shared" ref="I68:I70" si="28">I67+J68</f>
         <v>142</v>
       </c>
       <c r="J68" s="16">
-        <f t="shared" ref="J68:J74" si="29">K68+L68</f>
+        <f t="shared" ref="J68:J70" si="29">K68+L68</f>
         <v>2</v>
       </c>
       <c r="K68" s="26">
@@ -3538,7 +3532,7 @@
         <v>8</v>
       </c>
       <c r="D69" s="13">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="E69" s="4">
         <v>10</v>
@@ -3580,7 +3574,7 @@
         <v>2</v>
       </c>
       <c r="D70" s="13">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="E70" s="4">
         <v>8</v>
@@ -3615,14 +3609,14 @@
         <v>43957</v>
       </c>
       <c r="B71" s="19">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="B71:B77" si="30">B70+C71</f>
         <v>1905</v>
       </c>
       <c r="C71" s="13">
         <v>2</v>
       </c>
       <c r="D71" s="13">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="E71" s="4">
         <v>8</v>
@@ -3634,15 +3628,15 @@
         <v>41</v>
       </c>
       <c r="H71" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" ref="H71:H78" si="31">G71+E71</f>
         <v>49</v>
       </c>
       <c r="I71" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" ref="I71:I78" si="32">I70+J71</f>
         <v>146</v>
       </c>
       <c r="J71" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" ref="J71:J78" si="33">K71+L71</f>
         <v>0</v>
       </c>
       <c r="K71" s="26">
@@ -3657,14 +3651,14 @@
         <v>43958</v>
       </c>
       <c r="B72" s="19">
-        <f t="shared" si="26"/>
-        <v>1906</v>
+        <f t="shared" si="30"/>
+        <v>1907</v>
       </c>
       <c r="C72" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D72" s="13">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="E72" s="4">
         <v>8</v>
@@ -3676,15 +3670,15 @@
         <v>36</v>
       </c>
       <c r="H72" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>44</v>
       </c>
       <c r="I72" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>146</v>
       </c>
       <c r="J72" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="K72" s="26">
@@ -3699,14 +3693,14 @@
         <v>43959</v>
       </c>
       <c r="B73" s="19">
-        <f t="shared" si="26"/>
-        <v>1909</v>
+        <f t="shared" si="30"/>
+        <v>1910</v>
       </c>
       <c r="C73" s="13">
         <v>3</v>
       </c>
       <c r="D73" s="13">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="E73" s="4">
         <v>8</v>
@@ -3718,15 +3712,15 @@
         <v>34</v>
       </c>
       <c r="H73" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>42</v>
       </c>
       <c r="I73" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>148</v>
       </c>
       <c r="J73" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>2</v>
       </c>
       <c r="K73" s="26">
@@ -3741,14 +3735,14 @@
         <v>43960</v>
       </c>
       <c r="B74" s="19">
-        <f t="shared" si="26"/>
-        <v>1910</v>
+        <f t="shared" si="30"/>
+        <v>1911</v>
       </c>
       <c r="C74" s="13">
         <v>1</v>
       </c>
       <c r="D74" s="13">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="E74" s="4">
         <v>9</v>
@@ -3760,15 +3754,15 @@
         <v>32</v>
       </c>
       <c r="H74" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>41</v>
       </c>
       <c r="I74" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>148</v>
       </c>
       <c r="J74" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="K74" s="26">
@@ -3783,14 +3777,14 @@
         <v>43961</v>
       </c>
       <c r="B75" s="19">
-        <f t="shared" ref="B75:B77" si="30">B74+C75</f>
-        <v>1911</v>
+        <f t="shared" si="30"/>
+        <v>1912</v>
       </c>
       <c r="C75" s="13">
         <v>1</v>
       </c>
       <c r="D75" s="13">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="E75" s="4">
         <v>9</v>
@@ -3802,15 +3796,15 @@
         <v>32</v>
       </c>
       <c r="H75" s="17">
-        <f t="shared" ref="H75:H77" si="31">G75+E75</f>
+        <f t="shared" si="31"/>
         <v>41</v>
       </c>
       <c r="I75" s="16">
-        <f t="shared" ref="I75:I77" si="32">I74+J75</f>
+        <f t="shared" si="32"/>
         <v>148</v>
       </c>
       <c r="J75" s="16">
-        <f t="shared" ref="J75:J77" si="33">K75+L75</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="K75" s="26">
@@ -3826,13 +3820,13 @@
       </c>
       <c r="B76" s="19">
         <f t="shared" si="30"/>
-        <v>1912</v>
+        <v>1914</v>
       </c>
       <c r="C76" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D76" s="13">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="E76" s="4">
         <v>9</v>
@@ -3863,48 +3857,82 @@
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A77" s="2">
+      <c r="A77" s="1">
         <v>43963</v>
       </c>
-      <c r="B77" s="20">
+      <c r="B77" s="19">
         <f t="shared" si="30"/>
-        <v>1912</v>
-      </c>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14">
-        <v>41</v>
-      </c>
-      <c r="E77" s="30">
-        <v>9</v>
-      </c>
-      <c r="F77" s="31">
+        <v>1914</v>
+      </c>
+      <c r="C77" s="13">
+        <v>0</v>
+      </c>
+      <c r="D77" s="13">
+        <v>0</v>
+      </c>
+      <c r="E77" s="4">
+        <v>8</v>
+      </c>
+      <c r="F77" s="3">
         <v>6</v>
       </c>
-      <c r="G77" s="25">
-        <v>32</v>
-      </c>
-      <c r="H77" s="18">
+      <c r="G77" s="24">
+        <v>30</v>
+      </c>
+      <c r="H77" s="17">
         <f t="shared" si="31"/>
-        <v>41</v>
-      </c>
-      <c r="I77" s="21">
+        <v>38</v>
+      </c>
+      <c r="I77" s="16">
         <f t="shared" si="32"/>
         <v>149</v>
       </c>
-      <c r="J77" s="21">
+      <c r="J77" s="16">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="K77" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="L77" s="29" t="s">
-        <v>14</v>
+      <c r="K77" s="26">
+        <v>0</v>
+      </c>
+      <c r="L77" s="27">
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="F78" t="s">
-        <v>10</v>
+      <c r="A78" s="2">
+        <v>43964</v>
+      </c>
+      <c r="B78" s="20"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14">
+        <v>0</v>
+      </c>
+      <c r="E78" s="30">
+        <v>8</v>
+      </c>
+      <c r="F78" s="31">
+        <v>6</v>
+      </c>
+      <c r="G78" s="25">
+        <v>30</v>
+      </c>
+      <c r="H78" s="18">
+        <f t="shared" si="31"/>
+        <v>38</v>
+      </c>
+      <c r="I78" s="21">
+        <f t="shared" si="32"/>
+        <v>149</v>
+      </c>
+      <c r="J78" s="21">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="K78" s="28">
+        <v>0</v>
+      </c>
+      <c r="L78" s="29">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Chiffres  COVID-19 Valais.xlsx
+++ b/Chiffres  COVID-19 Valais.xlsx
@@ -96,7 +96,7 @@
     <t>Nb nouveaux décès extra-hospitaliers</t>
   </si>
   <si>
-    <t>Données COVID-19 Valais 13.05.2020</t>
+    <t>Données COVID-19 Valais 14.05.2020</t>
   </si>
 </sst>
 </file>
@@ -675,10 +675,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O78"/>
+  <dimension ref="A1:O79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="H74" sqref="H74"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1600,7 +1600,7 @@
         <v>37</v>
       </c>
       <c r="D23" s="13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E23" s="4">
         <v>5</v>
@@ -1609,11 +1609,11 @@
         <v>5</v>
       </c>
       <c r="G23" s="24">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H23" s="17">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I23" s="16">
         <f t="shared" si="8"/>
@@ -1651,11 +1651,11 @@
         <v>5</v>
       </c>
       <c r="G24" s="24">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H24" s="17">
         <f t="shared" si="0"/>
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I24" s="16">
         <f t="shared" si="8"/>
@@ -1693,11 +1693,11 @@
         <v>6</v>
       </c>
       <c r="G25" s="24">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H25" s="17">
         <f t="shared" si="0"/>
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I25" s="16">
         <f t="shared" si="8"/>
@@ -1735,11 +1735,11 @@
         <v>7</v>
       </c>
       <c r="G26" s="24">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H26" s="17">
         <f t="shared" si="0"/>
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I26" s="16">
         <f t="shared" si="8"/>
@@ -1777,11 +1777,11 @@
         <v>9</v>
       </c>
       <c r="G27" s="24">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H27" s="17">
         <f t="shared" si="0"/>
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I27" s="16">
         <f t="shared" si="8"/>
@@ -1810,7 +1810,7 @@
         <v>100</v>
       </c>
       <c r="D28" s="13">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E28" s="4">
         <v>13</v>
@@ -3112,7 +3112,7 @@
         <v>9</v>
       </c>
       <c r="D59" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E59" s="4">
         <v>14</v>
@@ -3121,11 +3121,11 @@
         <v>9</v>
       </c>
       <c r="G59" s="24">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H59" s="17">
         <f t="shared" si="10"/>
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I59" s="16">
         <f t="shared" si="12"/>
@@ -3163,11 +3163,11 @@
         <v>9</v>
       </c>
       <c r="G60" s="24">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H60" s="17">
         <f t="shared" ref="H60:H63" si="15">G60+E60</f>
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I60" s="16">
         <f t="shared" ref="I60:I63" si="16">I59+J60</f>
@@ -3205,11 +3205,11 @@
         <v>8</v>
       </c>
       <c r="G61" s="24">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H61" s="17">
         <f t="shared" si="15"/>
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I61" s="16">
         <f t="shared" si="16"/>
@@ -3247,11 +3247,11 @@
         <v>9</v>
       </c>
       <c r="G62" s="24">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H62" s="17">
         <f t="shared" si="15"/>
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I62" s="16">
         <f t="shared" si="16"/>
@@ -3289,11 +3289,11 @@
         <v>8</v>
       </c>
       <c r="G63" s="24">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H63" s="17">
         <f t="shared" si="15"/>
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I63" s="16">
         <f t="shared" si="16"/>
@@ -3331,11 +3331,11 @@
         <v>8</v>
       </c>
       <c r="G64" s="24">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H64" s="17">
         <f t="shared" ref="H64:H66" si="19">G64+E64</f>
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I64" s="16">
         <f t="shared" ref="I64:I66" si="20">I63+J64</f>
@@ -3373,11 +3373,11 @@
         <v>8</v>
       </c>
       <c r="G65" s="24">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H65" s="17">
         <f t="shared" si="19"/>
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I65" s="16">
         <f t="shared" si="20"/>
@@ -3415,11 +3415,11 @@
         <v>8</v>
       </c>
       <c r="G66" s="24">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H66" s="17">
         <f t="shared" si="19"/>
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I66" s="16">
         <f t="shared" si="20"/>
@@ -3448,7 +3448,7 @@
         <v>3</v>
       </c>
       <c r="D67" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E67" s="4">
         <v>10</v>
@@ -3457,11 +3457,11 @@
         <v>8</v>
       </c>
       <c r="G67" s="24">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H67" s="17">
         <f t="shared" ref="H67" si="23">G67+E67</f>
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I67" s="16">
         <f t="shared" ref="I67" si="24">I66+J67</f>
@@ -3499,11 +3499,11 @@
         <v>8</v>
       </c>
       <c r="G68" s="24">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H68" s="17">
         <f t="shared" ref="H68:H70" si="27">G68+E68</f>
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I68" s="16">
         <f t="shared" ref="I68:I70" si="28">I67+J68</f>
@@ -3541,11 +3541,11 @@
         <v>7</v>
       </c>
       <c r="G69" s="24">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H69" s="17">
         <f t="shared" si="27"/>
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I69" s="16">
         <f t="shared" si="28"/>
@@ -3609,7 +3609,7 @@
         <v>43957</v>
       </c>
       <c r="B71" s="19">
-        <f t="shared" ref="B71:B77" si="30">B70+C71</f>
+        <f t="shared" ref="B71:B78" si="30">B70+C71</f>
         <v>1905</v>
       </c>
       <c r="C71" s="13">
@@ -3628,15 +3628,15 @@
         <v>41</v>
       </c>
       <c r="H71" s="17">
-        <f t="shared" ref="H71:H78" si="31">G71+E71</f>
+        <f t="shared" ref="H71:H79" si="31">G71+E71</f>
         <v>49</v>
       </c>
       <c r="I71" s="16">
-        <f t="shared" ref="I71:I78" si="32">I70+J71</f>
+        <f t="shared" ref="I71:I79" si="32">I70+J71</f>
         <v>146</v>
       </c>
       <c r="J71" s="16">
-        <f t="shared" ref="J71:J78" si="33">K71+L71</f>
+        <f t="shared" ref="J71:J79" si="33">K71+L71</f>
         <v>0</v>
       </c>
       <c r="K71" s="26">
@@ -3820,10 +3820,10 @@
       </c>
       <c r="B76" s="19">
         <f t="shared" si="30"/>
-        <v>1914</v>
+        <v>1916</v>
       </c>
       <c r="C76" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" s="13">
         <v>1</v>
@@ -3862,7 +3862,7 @@
       </c>
       <c r="B77" s="19">
         <f t="shared" si="30"/>
-        <v>1914</v>
+        <v>1916</v>
       </c>
       <c r="C77" s="13">
         <v>0</v>
@@ -3899,39 +3899,81 @@
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A78" s="2">
+      <c r="A78" s="1">
         <v>43964</v>
       </c>
-      <c r="B78" s="20"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14">
-        <v>0</v>
-      </c>
-      <c r="E78" s="30">
+      <c r="B78" s="19">
+        <f t="shared" si="30"/>
+        <v>1917</v>
+      </c>
+      <c r="C78" s="13">
+        <v>1</v>
+      </c>
+      <c r="D78" s="13">
+        <v>0</v>
+      </c>
+      <c r="E78" s="4">
         <v>8</v>
       </c>
-      <c r="F78" s="31">
-        <v>6</v>
-      </c>
-      <c r="G78" s="25">
-        <v>30</v>
-      </c>
-      <c r="H78" s="18">
+      <c r="F78" s="3">
+        <v>5</v>
+      </c>
+      <c r="G78" s="24">
+        <v>28</v>
+      </c>
+      <c r="H78" s="17">
         <f t="shared" si="31"/>
-        <v>38</v>
-      </c>
-      <c r="I78" s="21">
+        <v>36</v>
+      </c>
+      <c r="I78" s="16">
         <f t="shared" si="32"/>
         <v>149</v>
       </c>
-      <c r="J78" s="21">
+      <c r="J78" s="16">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="K78" s="28">
-        <v>0</v>
-      </c>
-      <c r="L78" s="29">
+      <c r="K78" s="26">
+        <v>0</v>
+      </c>
+      <c r="L78" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A79" s="2">
+        <v>43965</v>
+      </c>
+      <c r="B79" s="20"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14">
+        <v>0</v>
+      </c>
+      <c r="E79" s="30">
+        <v>8</v>
+      </c>
+      <c r="F79" s="31">
+        <v>5</v>
+      </c>
+      <c r="G79" s="25">
+        <v>26</v>
+      </c>
+      <c r="H79" s="18">
+        <f t="shared" si="31"/>
+        <v>34</v>
+      </c>
+      <c r="I79" s="21">
+        <f t="shared" si="32"/>
+        <v>149</v>
+      </c>
+      <c r="J79" s="21">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="K79" s="28">
+        <v>0</v>
+      </c>
+      <c r="L79" s="29">
         <v>0</v>
       </c>
     </row>

--- a/Chiffres  COVID-19 Valais.xlsx
+++ b/Chiffres  COVID-19 Valais.xlsx
@@ -96,7 +96,7 @@
     <t>Nb nouveaux décès extra-hospitaliers</t>
   </si>
   <si>
-    <t>Données COVID-19 Valais 14.05.2020</t>
+    <t>Données COVID-19 Valais 15.05.2020</t>
   </si>
 </sst>
 </file>
@@ -675,10 +675,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O79"/>
+  <dimension ref="A1:O80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -772,7 +772,7 @@
         <v>5</v>
       </c>
       <c r="H3" s="17">
-        <f t="shared" ref="H3:H34" si="0">G3+E3</f>
+        <f t="shared" ref="H3:H22" si="0">G3+E3</f>
         <v>5</v>
       </c>
       <c r="I3" s="16">
@@ -1383,7 +1383,7 @@
         <v>43904</v>
       </c>
       <c r="B18" s="19">
-        <f t="shared" ref="B18:B55" si="7">B17+C18</f>
+        <f t="shared" ref="B18:B22" si="7">B17+C18</f>
         <v>98</v>
       </c>
       <c r="C18" s="13">
@@ -1406,11 +1406,11 @@
         <v>33</v>
       </c>
       <c r="I18" s="16">
-        <f t="shared" ref="I18:I55" si="8">I17+J18</f>
+        <f t="shared" ref="I18:I22" si="8">I17+J18</f>
         <v>1</v>
       </c>
       <c r="J18" s="16">
-        <f t="shared" ref="J18:J55" si="9">K18+L18</f>
+        <f t="shared" ref="J18:J22" si="9">K18+L18</f>
         <v>0</v>
       </c>
       <c r="K18" s="26">
@@ -1593,7 +1593,7 @@
         <v>43909</v>
       </c>
       <c r="B23" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="B23:B79" si="10">B22+C23</f>
         <v>349</v>
       </c>
       <c r="C23" s="13">
@@ -1612,15 +1612,15 @@
         <v>58</v>
       </c>
       <c r="H23" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H23:H80" si="11">G23+E23</f>
         <v>63</v>
       </c>
       <c r="I23" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="I23:I80" si="12">I22+J23</f>
         <v>6</v>
       </c>
       <c r="J23" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="J23:J80" si="13">K23+L23</f>
         <v>2</v>
       </c>
       <c r="K23" s="26">
@@ -1635,7 +1635,7 @@
         <v>43910</v>
       </c>
       <c r="B24" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>436</v>
       </c>
       <c r="C24" s="13">
@@ -1654,15 +1654,15 @@
         <v>66</v>
       </c>
       <c r="H24" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>72</v>
       </c>
       <c r="I24" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="J24" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="K24" s="26">
@@ -1677,7 +1677,7 @@
         <v>43911</v>
       </c>
       <c r="B25" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>498</v>
       </c>
       <c r="C25" s="13">
@@ -1696,15 +1696,15 @@
         <v>74</v>
       </c>
       <c r="H25" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>82</v>
       </c>
       <c r="I25" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="J25" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="K25" s="26">
@@ -1719,7 +1719,7 @@
         <v>43912</v>
       </c>
       <c r="B26" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>535</v>
       </c>
       <c r="C26" s="13">
@@ -1738,15 +1738,15 @@
         <v>80</v>
       </c>
       <c r="H26" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>91</v>
       </c>
       <c r="I26" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>11</v>
       </c>
       <c r="J26" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="K26" s="26">
@@ -1761,7 +1761,7 @@
         <v>43913</v>
       </c>
       <c r="B27" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>628</v>
       </c>
       <c r="C27" s="13">
@@ -1780,15 +1780,15 @@
         <v>91</v>
       </c>
       <c r="H27" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>103</v>
       </c>
       <c r="I27" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>13</v>
       </c>
       <c r="J27" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="K27" s="26">
@@ -1803,7 +1803,7 @@
         <v>43914</v>
       </c>
       <c r="B28" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>728</v>
       </c>
       <c r="C28" s="13">
@@ -1822,15 +1822,15 @@
         <v>104</v>
       </c>
       <c r="H28" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>117</v>
       </c>
       <c r="I28" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="J28" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="K28" s="26">
@@ -1845,7 +1845,7 @@
         <v>43915</v>
       </c>
       <c r="B29" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>793</v>
       </c>
       <c r="C29" s="13">
@@ -1864,15 +1864,15 @@
         <v>103</v>
       </c>
       <c r="H29" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>118</v>
       </c>
       <c r="I29" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="J29" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="K29" s="26">
@@ -1887,7 +1887,7 @@
         <v>43916</v>
       </c>
       <c r="B30" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>874</v>
       </c>
       <c r="C30" s="13">
@@ -1906,15 +1906,15 @@
         <v>109</v>
       </c>
       <c r="H30" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>128</v>
       </c>
       <c r="I30" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>17</v>
       </c>
       <c r="J30" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="K30" s="26">
@@ -1929,7 +1929,7 @@
         <v>43917</v>
       </c>
       <c r="B31" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>968</v>
       </c>
       <c r="C31" s="13">
@@ -1948,15 +1948,15 @@
         <v>117</v>
       </c>
       <c r="H31" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>137</v>
       </c>
       <c r="I31" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>21</v>
       </c>
       <c r="J31" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="K31" s="26">
@@ -1971,7 +1971,7 @@
         <v>43918</v>
       </c>
       <c r="B32" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1017</v>
       </c>
       <c r="C32" s="13">
@@ -1990,15 +1990,15 @@
         <v>121</v>
       </c>
       <c r="H32" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>142</v>
       </c>
       <c r="I32" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>25</v>
       </c>
       <c r="J32" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="K32" s="26">
@@ -2013,7 +2013,7 @@
         <v>43919</v>
       </c>
       <c r="B33" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1055</v>
       </c>
       <c r="C33" s="13">
@@ -2032,15 +2032,15 @@
         <v>130</v>
       </c>
       <c r="H33" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>152</v>
       </c>
       <c r="I33" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>31</v>
       </c>
       <c r="J33" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="K33" s="26">
@@ -2055,7 +2055,7 @@
         <v>43920</v>
       </c>
       <c r="B34" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1144</v>
       </c>
       <c r="C34" s="13">
@@ -2074,15 +2074,15 @@
         <v>128</v>
       </c>
       <c r="H34" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>153</v>
       </c>
       <c r="I34" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>35</v>
       </c>
       <c r="J34" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="K34" s="26">
@@ -2097,7 +2097,7 @@
         <v>43921</v>
       </c>
       <c r="B35" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1211</v>
       </c>
       <c r="C35" s="13">
@@ -2116,15 +2116,15 @@
         <v>128</v>
       </c>
       <c r="H35" s="17">
-        <f t="shared" ref="H35:H59" si="10">G35+E35</f>
+        <f t="shared" si="11"/>
         <v>152</v>
       </c>
       <c r="I35" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>37</v>
       </c>
       <c r="J35" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="K35" s="26">
@@ -2139,7 +2139,7 @@
         <v>43922</v>
       </c>
       <c r="B36" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1282</v>
       </c>
       <c r="C36" s="13">
@@ -2158,15 +2158,15 @@
         <v>120</v>
       </c>
       <c r="H36" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>146</v>
       </c>
       <c r="I36" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>40</v>
       </c>
       <c r="J36" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="K36" s="26">
@@ -2181,7 +2181,7 @@
         <v>43923</v>
       </c>
       <c r="B37" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1334</v>
       </c>
       <c r="C37" s="13">
@@ -2200,15 +2200,15 @@
         <v>118</v>
       </c>
       <c r="H37" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>146</v>
       </c>
       <c r="I37" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>47</v>
       </c>
       <c r="J37" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="K37" s="26">
@@ -2223,7 +2223,7 @@
         <v>43924</v>
       </c>
       <c r="B38" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1383</v>
       </c>
       <c r="C38" s="13">
@@ -2242,15 +2242,15 @@
         <v>120</v>
       </c>
       <c r="H38" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>146</v>
       </c>
       <c r="I38" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>51</v>
       </c>
       <c r="J38" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="K38" s="26">
@@ -2265,7 +2265,7 @@
         <v>43925</v>
       </c>
       <c r="B39" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1416</v>
       </c>
       <c r="C39" s="13">
@@ -2284,15 +2284,15 @@
         <v>121</v>
       </c>
       <c r="H39" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>149</v>
       </c>
       <c r="I39" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>53</v>
       </c>
       <c r="J39" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="K39" s="26">
@@ -2307,7 +2307,7 @@
         <v>43926</v>
       </c>
       <c r="B40" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1431</v>
       </c>
       <c r="C40" s="13">
@@ -2326,15 +2326,15 @@
         <v>120</v>
       </c>
       <c r="H40" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>146</v>
       </c>
       <c r="I40" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>57</v>
       </c>
       <c r="J40" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="K40" s="26">
@@ -2349,7 +2349,7 @@
         <v>43927</v>
       </c>
       <c r="B41" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1497</v>
       </c>
       <c r="C41" s="13">
@@ -2368,15 +2368,15 @@
         <v>107</v>
       </c>
       <c r="H41" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>133</v>
       </c>
       <c r="I41" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>60</v>
       </c>
       <c r="J41" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="K41" s="26">
@@ -2391,7 +2391,7 @@
         <v>43928</v>
       </c>
       <c r="B42" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1536</v>
       </c>
       <c r="C42" s="13">
@@ -2410,15 +2410,15 @@
         <v>105</v>
       </c>
       <c r="H42" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>130</v>
       </c>
       <c r="I42" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>68</v>
       </c>
       <c r="J42" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="K42" s="26">
@@ -2433,7 +2433,7 @@
         <v>43929</v>
       </c>
       <c r="B43" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1570</v>
       </c>
       <c r="C43" s="13">
@@ -2452,15 +2452,15 @@
         <v>97</v>
       </c>
       <c r="H43" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>123</v>
       </c>
       <c r="I43" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>71</v>
       </c>
       <c r="J43" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="K43" s="26">
@@ -2475,7 +2475,7 @@
         <v>43930</v>
       </c>
       <c r="B44" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1598</v>
       </c>
       <c r="C44" s="13">
@@ -2494,15 +2494,15 @@
         <v>95</v>
       </c>
       <c r="H44" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>119</v>
       </c>
       <c r="I44" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>77</v>
       </c>
       <c r="J44" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="K44" s="26">
@@ -2517,7 +2517,7 @@
         <v>43931</v>
       </c>
       <c r="B45" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1627</v>
       </c>
       <c r="C45" s="13">
@@ -2536,15 +2536,15 @@
         <v>93</v>
       </c>
       <c r="H45" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>117</v>
       </c>
       <c r="I45" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>83</v>
       </c>
       <c r="J45" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="K45" s="26">
@@ -2559,7 +2559,7 @@
         <v>43932</v>
       </c>
       <c r="B46" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1653</v>
       </c>
       <c r="C46" s="13">
@@ -2578,15 +2578,15 @@
         <v>94</v>
       </c>
       <c r="H46" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>114</v>
       </c>
       <c r="I46" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>85</v>
       </c>
       <c r="J46" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="K46" s="26">
@@ -2601,7 +2601,7 @@
         <v>43933</v>
       </c>
       <c r="B47" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1666</v>
       </c>
       <c r="C47" s="13">
@@ -2620,15 +2620,15 @@
         <v>90</v>
       </c>
       <c r="H47" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>112</v>
       </c>
       <c r="I47" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>91</v>
       </c>
       <c r="J47" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="K47" s="26">
@@ -2643,7 +2643,7 @@
         <v>43934</v>
       </c>
       <c r="B48" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1680</v>
       </c>
       <c r="C48" s="13">
@@ -2662,15 +2662,15 @@
         <v>87</v>
       </c>
       <c r="H48" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>108</v>
       </c>
       <c r="I48" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>93</v>
       </c>
       <c r="J48" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="K48" s="26">
@@ -2685,7 +2685,7 @@
         <v>43935</v>
       </c>
       <c r="B49" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1707</v>
       </c>
       <c r="C49" s="13">
@@ -2704,15 +2704,15 @@
         <v>82</v>
       </c>
       <c r="H49" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>102</v>
       </c>
       <c r="I49" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>94</v>
       </c>
       <c r="J49" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="K49" s="26">
@@ -2727,7 +2727,7 @@
         <v>43936</v>
       </c>
       <c r="B50" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1723</v>
       </c>
       <c r="C50" s="13">
@@ -2746,15 +2746,15 @@
         <v>76</v>
       </c>
       <c r="H50" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>96</v>
       </c>
       <c r="I50" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>94</v>
       </c>
       <c r="J50" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K50" s="26">
@@ -2769,7 +2769,7 @@
         <v>43937</v>
       </c>
       <c r="B51" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1740</v>
       </c>
       <c r="C51" s="13">
@@ -2788,15 +2788,15 @@
         <v>77</v>
       </c>
       <c r="H51" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>94</v>
       </c>
       <c r="I51" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>95</v>
       </c>
       <c r="J51" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="K51" s="26">
@@ -2811,7 +2811,7 @@
         <v>43938</v>
       </c>
       <c r="B52" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1760</v>
       </c>
       <c r="C52" s="13">
@@ -2830,15 +2830,15 @@
         <v>71</v>
       </c>
       <c r="H52" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>87</v>
       </c>
       <c r="I52" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>99</v>
       </c>
       <c r="J52" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="K52" s="26">
@@ -2853,7 +2853,7 @@
         <v>43939</v>
       </c>
       <c r="B53" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1769</v>
       </c>
       <c r="C53" s="13">
@@ -2872,15 +2872,15 @@
         <v>68</v>
       </c>
       <c r="H53" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>86</v>
       </c>
       <c r="I53" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>104</v>
       </c>
       <c r="J53" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="K53" s="26">
@@ -2895,7 +2895,7 @@
         <v>43940</v>
       </c>
       <c r="B54" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1776</v>
       </c>
       <c r="C54" s="13">
@@ -2914,15 +2914,15 @@
         <v>68</v>
       </c>
       <c r="H54" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>84</v>
       </c>
       <c r="I54" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>107</v>
       </c>
       <c r="J54" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="K54" s="26">
@@ -2937,7 +2937,7 @@
         <v>43941</v>
       </c>
       <c r="B55" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1793</v>
       </c>
       <c r="C55" s="13">
@@ -2956,15 +2956,15 @@
         <v>66</v>
       </c>
       <c r="H55" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>81</v>
       </c>
       <c r="I55" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>110</v>
       </c>
       <c r="J55" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="K55" s="26">
@@ -2979,7 +2979,7 @@
         <v>43942</v>
       </c>
       <c r="B56" s="19">
-        <f t="shared" ref="B56:B59" si="11">B55+C56</f>
+        <f t="shared" si="10"/>
         <v>1800</v>
       </c>
       <c r="C56" s="13">
@@ -2998,15 +2998,15 @@
         <v>64</v>
       </c>
       <c r="H56" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>78</v>
       </c>
       <c r="I56" s="16">
-        <f t="shared" ref="I56:I59" si="12">I55+J56</f>
+        <f t="shared" si="12"/>
         <v>115</v>
       </c>
       <c r="J56" s="16">
-        <f t="shared" ref="J56:J59" si="13">K56+L56</f>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="K56" s="26">
@@ -3021,7 +3021,7 @@
         <v>43943</v>
       </c>
       <c r="B57" s="19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1806</v>
       </c>
       <c r="C57" s="13">
@@ -3040,7 +3040,7 @@
         <v>66</v>
       </c>
       <c r="H57" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>79</v>
       </c>
       <c r="I57" s="16">
@@ -3063,7 +3063,7 @@
         <v>43944</v>
       </c>
       <c r="B58" s="19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1822</v>
       </c>
       <c r="C58" s="13">
@@ -3082,7 +3082,7 @@
         <v>62</v>
       </c>
       <c r="H58" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>75</v>
       </c>
       <c r="I58" s="16">
@@ -3105,7 +3105,7 @@
         <v>43945</v>
       </c>
       <c r="B59" s="19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1831</v>
       </c>
       <c r="C59" s="13">
@@ -3124,7 +3124,7 @@
         <v>58</v>
       </c>
       <c r="H59" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>72</v>
       </c>
       <c r="I59" s="16">
@@ -3147,7 +3147,7 @@
         <v>43946</v>
       </c>
       <c r="B60" s="19">
-        <f t="shared" ref="B60:B63" si="14">B59+C60</f>
+        <f t="shared" si="10"/>
         <v>1836</v>
       </c>
       <c r="C60" s="13">
@@ -3166,15 +3166,15 @@
         <v>60</v>
       </c>
       <c r="H60" s="17">
-        <f t="shared" ref="H60:H63" si="15">G60+E60</f>
+        <f t="shared" si="11"/>
         <v>74</v>
       </c>
       <c r="I60" s="16">
-        <f t="shared" ref="I60:I63" si="16">I59+J60</f>
+        <f t="shared" si="12"/>
         <v>129</v>
       </c>
       <c r="J60" s="16">
-        <f t="shared" ref="J60:J63" si="17">K60+L60</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="K60" s="26">
@@ -3189,7 +3189,7 @@
         <v>43947</v>
       </c>
       <c r="B61" s="19">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>1838</v>
       </c>
       <c r="C61" s="13">
@@ -3208,15 +3208,15 @@
         <v>61</v>
       </c>
       <c r="H61" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>76</v>
       </c>
       <c r="I61" s="16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>131</v>
       </c>
       <c r="J61" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="K61" s="26">
@@ -3231,7 +3231,7 @@
         <v>43948</v>
       </c>
       <c r="B62" s="19">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>1853</v>
       </c>
       <c r="C62" s="13">
@@ -3250,15 +3250,15 @@
         <v>53</v>
       </c>
       <c r="H62" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>67</v>
       </c>
       <c r="I62" s="16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>132</v>
       </c>
       <c r="J62" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="K62" s="26">
@@ -3273,7 +3273,7 @@
         <v>43949</v>
       </c>
       <c r="B63" s="19">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>1864</v>
       </c>
       <c r="C63" s="13">
@@ -3292,15 +3292,15 @@
         <v>50</v>
       </c>
       <c r="H63" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>63</v>
       </c>
       <c r="I63" s="16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>135</v>
       </c>
       <c r="J63" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="K63" s="26">
@@ -3315,7 +3315,7 @@
         <v>43950</v>
       </c>
       <c r="B64" s="19">
-        <f t="shared" ref="B64:B66" si="18">B63+C64</f>
+        <f t="shared" si="10"/>
         <v>1876</v>
       </c>
       <c r="C64" s="13">
@@ -3334,15 +3334,15 @@
         <v>51</v>
       </c>
       <c r="H64" s="17">
-        <f t="shared" ref="H64:H66" si="19">G64+E64</f>
+        <f t="shared" si="11"/>
         <v>62</v>
       </c>
       <c r="I64" s="16">
-        <f t="shared" ref="I64:I66" si="20">I63+J64</f>
+        <f t="shared" si="12"/>
         <v>136</v>
       </c>
       <c r="J64" s="16">
-        <f t="shared" ref="J64:J66" si="21">K64+L64</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="K64" s="26">
@@ -3357,7 +3357,7 @@
         <v>43951</v>
       </c>
       <c r="B65" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>1883</v>
       </c>
       <c r="C65" s="13">
@@ -3376,15 +3376,15 @@
         <v>52</v>
       </c>
       <c r="H65" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v>62</v>
       </c>
       <c r="I65" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>138</v>
       </c>
       <c r="J65" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="K65" s="26">
@@ -3399,7 +3399,7 @@
         <v>43952</v>
       </c>
       <c r="B66" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>1888</v>
       </c>
       <c r="C66" s="13">
@@ -3418,15 +3418,15 @@
         <v>50</v>
       </c>
       <c r="H66" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v>60</v>
       </c>
       <c r="I66" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>138</v>
       </c>
       <c r="J66" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K66" s="26">
@@ -3441,7 +3441,7 @@
         <v>43953</v>
       </c>
       <c r="B67" s="19">
-        <f t="shared" ref="B67" si="22">B66+C67</f>
+        <f t="shared" si="10"/>
         <v>1891</v>
       </c>
       <c r="C67" s="13">
@@ -3460,15 +3460,15 @@
         <v>50</v>
       </c>
       <c r="H67" s="17">
-        <f t="shared" ref="H67" si="23">G67+E67</f>
+        <f t="shared" si="11"/>
         <v>60</v>
       </c>
       <c r="I67" s="16">
-        <f t="shared" ref="I67" si="24">I66+J67</f>
+        <f t="shared" si="12"/>
         <v>140</v>
       </c>
       <c r="J67" s="16">
-        <f t="shared" ref="J67" si="25">K67+L67</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="K67" s="26">
@@ -3483,7 +3483,7 @@
         <v>43954</v>
       </c>
       <c r="B68" s="19">
-        <f t="shared" ref="B68:B70" si="26">B67+C68</f>
+        <f t="shared" si="10"/>
         <v>1893</v>
       </c>
       <c r="C68" s="13">
@@ -3502,15 +3502,15 @@
         <v>51</v>
       </c>
       <c r="H68" s="17">
-        <f t="shared" ref="H68:H70" si="27">G68+E68</f>
+        <f t="shared" si="11"/>
         <v>61</v>
       </c>
       <c r="I68" s="16">
-        <f t="shared" ref="I68:I70" si="28">I67+J68</f>
+        <f t="shared" si="12"/>
         <v>142</v>
       </c>
       <c r="J68" s="16">
-        <f t="shared" ref="J68:J70" si="29">K68+L68</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="K68" s="26">
@@ -3525,7 +3525,7 @@
         <v>43955</v>
       </c>
       <c r="B69" s="19">
-        <f t="shared" si="26"/>
+        <f t="shared" si="10"/>
         <v>1901</v>
       </c>
       <c r="C69" s="13">
@@ -3544,15 +3544,15 @@
         <v>46</v>
       </c>
       <c r="H69" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>56</v>
       </c>
       <c r="I69" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v>142</v>
       </c>
       <c r="J69" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K69" s="26">
@@ -3567,7 +3567,7 @@
         <v>43956</v>
       </c>
       <c r="B70" s="19">
-        <f t="shared" si="26"/>
+        <f t="shared" si="10"/>
         <v>1903</v>
       </c>
       <c r="C70" s="13">
@@ -3586,15 +3586,15 @@
         <v>44</v>
       </c>
       <c r="H70" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="11"/>
         <v>52</v>
       </c>
       <c r="I70" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="12"/>
         <v>146</v>
       </c>
       <c r="J70" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="K70" s="26">
@@ -3609,7 +3609,7 @@
         <v>43957</v>
       </c>
       <c r="B71" s="19">
-        <f t="shared" ref="B71:B78" si="30">B70+C71</f>
+        <f t="shared" si="10"/>
         <v>1905</v>
       </c>
       <c r="C71" s="13">
@@ -3628,15 +3628,15 @@
         <v>41</v>
       </c>
       <c r="H71" s="17">
-        <f t="shared" ref="H71:H79" si="31">G71+E71</f>
+        <f t="shared" si="11"/>
         <v>49</v>
       </c>
       <c r="I71" s="16">
-        <f t="shared" ref="I71:I79" si="32">I70+J71</f>
+        <f t="shared" si="12"/>
         <v>146</v>
       </c>
       <c r="J71" s="16">
-        <f t="shared" ref="J71:J79" si="33">K71+L71</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K71" s="26">
@@ -3651,7 +3651,7 @@
         <v>43958</v>
       </c>
       <c r="B72" s="19">
-        <f t="shared" si="30"/>
+        <f t="shared" si="10"/>
         <v>1907</v>
       </c>
       <c r="C72" s="13">
@@ -3670,15 +3670,15 @@
         <v>36</v>
       </c>
       <c r="H72" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="11"/>
         <v>44</v>
       </c>
       <c r="I72" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="12"/>
         <v>146</v>
       </c>
       <c r="J72" s="16">
-        <f t="shared" si="33"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K72" s="26">
@@ -3693,7 +3693,7 @@
         <v>43959</v>
       </c>
       <c r="B73" s="19">
-        <f t="shared" si="30"/>
+        <f t="shared" si="10"/>
         <v>1910</v>
       </c>
       <c r="C73" s="13">
@@ -3712,15 +3712,15 @@
         <v>34</v>
       </c>
       <c r="H73" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="11"/>
         <v>42</v>
       </c>
       <c r="I73" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="12"/>
         <v>148</v>
       </c>
       <c r="J73" s="16">
-        <f t="shared" si="33"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="K73" s="26">
@@ -3735,7 +3735,7 @@
         <v>43960</v>
       </c>
       <c r="B74" s="19">
-        <f t="shared" si="30"/>
+        <f t="shared" si="10"/>
         <v>1911</v>
       </c>
       <c r="C74" s="13">
@@ -3754,15 +3754,15 @@
         <v>32</v>
       </c>
       <c r="H74" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="11"/>
         <v>41</v>
       </c>
       <c r="I74" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="12"/>
         <v>148</v>
       </c>
       <c r="J74" s="16">
-        <f t="shared" si="33"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K74" s="26">
@@ -3777,14 +3777,14 @@
         <v>43961</v>
       </c>
       <c r="B75" s="19">
-        <f t="shared" si="30"/>
+        <f t="shared" si="10"/>
         <v>1912</v>
       </c>
       <c r="C75" s="13">
         <v>1</v>
       </c>
       <c r="D75" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E75" s="4">
         <v>9</v>
@@ -3793,18 +3793,18 @@
         <v>6</v>
       </c>
       <c r="G75" s="24">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H75" s="17">
-        <f t="shared" si="31"/>
-        <v>41</v>
+        <f t="shared" si="11"/>
+        <v>42</v>
       </c>
       <c r="I75" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="12"/>
         <v>148</v>
       </c>
       <c r="J75" s="16">
-        <f t="shared" si="33"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K75" s="26">
@@ -3819,7 +3819,7 @@
         <v>43962</v>
       </c>
       <c r="B76" s="19">
-        <f t="shared" si="30"/>
+        <f t="shared" si="10"/>
         <v>1916</v>
       </c>
       <c r="C76" s="13">
@@ -3835,18 +3835,18 @@
         <v>6</v>
       </c>
       <c r="G76" s="24">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H76" s="17">
-        <f t="shared" si="31"/>
-        <v>41</v>
+        <f t="shared" si="11"/>
+        <v>42</v>
       </c>
       <c r="I76" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="12"/>
         <v>149</v>
       </c>
       <c r="J76" s="16">
-        <f t="shared" si="33"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="K76" s="26">
@@ -3861,7 +3861,7 @@
         <v>43963</v>
       </c>
       <c r="B77" s="19">
-        <f t="shared" si="30"/>
+        <f t="shared" si="10"/>
         <v>1916</v>
       </c>
       <c r="C77" s="13">
@@ -3877,18 +3877,18 @@
         <v>6</v>
       </c>
       <c r="G77" s="24">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H77" s="17">
-        <f t="shared" si="31"/>
-        <v>38</v>
+        <f t="shared" si="11"/>
+        <v>39</v>
       </c>
       <c r="I77" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="12"/>
         <v>149</v>
       </c>
       <c r="J77" s="16">
-        <f t="shared" si="33"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K77" s="26">
@@ -3903,7 +3903,7 @@
         <v>43964</v>
       </c>
       <c r="B78" s="19">
-        <f t="shared" si="30"/>
+        <f t="shared" si="10"/>
         <v>1917</v>
       </c>
       <c r="C78" s="13">
@@ -3919,18 +3919,18 @@
         <v>5</v>
       </c>
       <c r="G78" s="24">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H78" s="17">
-        <f t="shared" si="31"/>
-        <v>36</v>
+        <f t="shared" si="11"/>
+        <v>37</v>
       </c>
       <c r="I78" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="12"/>
         <v>149</v>
       </c>
       <c r="J78" s="16">
-        <f t="shared" si="33"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K78" s="26">
@@ -3941,39 +3941,81 @@
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A79" s="2">
+      <c r="A79" s="1">
         <v>43965</v>
       </c>
-      <c r="B79" s="20"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14">
-        <v>0</v>
-      </c>
-      <c r="E79" s="30">
+      <c r="B79" s="19">
+        <f t="shared" si="10"/>
+        <v>1919</v>
+      </c>
+      <c r="C79" s="13">
+        <v>2</v>
+      </c>
+      <c r="D79" s="13">
+        <v>0</v>
+      </c>
+      <c r="E79" s="4">
         <v>8</v>
       </c>
-      <c r="F79" s="31">
+      <c r="F79" s="3">
         <v>5</v>
       </c>
-      <c r="G79" s="25">
+      <c r="G79" s="24">
+        <v>27</v>
+      </c>
+      <c r="H79" s="17">
+        <f t="shared" si="11"/>
+        <v>35</v>
+      </c>
+      <c r="I79" s="16">
+        <f t="shared" si="12"/>
+        <v>149</v>
+      </c>
+      <c r="J79" s="16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K79" s="26">
+        <v>0</v>
+      </c>
+      <c r="L79" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A80" s="2">
+        <v>43966</v>
+      </c>
+      <c r="B80" s="20"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14">
+        <v>0</v>
+      </c>
+      <c r="E80" s="30">
+        <v>8</v>
+      </c>
+      <c r="F80" s="31">
+        <v>5</v>
+      </c>
+      <c r="G80" s="25">
         <v>26</v>
       </c>
-      <c r="H79" s="18">
-        <f t="shared" si="31"/>
+      <c r="H80" s="18">
+        <f t="shared" si="11"/>
         <v>34</v>
       </c>
-      <c r="I79" s="21">
-        <f t="shared" si="32"/>
+      <c r="I80" s="21">
+        <f t="shared" si="12"/>
         <v>149</v>
       </c>
-      <c r="J79" s="21">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="K79" s="28">
-        <v>0</v>
-      </c>
-      <c r="L79" s="29">
+      <c r="J80" s="21">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K80" s="28">
+        <v>0</v>
+      </c>
+      <c r="L80" s="29">
         <v>0</v>
       </c>
     </row>

--- a/Chiffres  COVID-19 Valais.xlsx
+++ b/Chiffres  COVID-19 Valais.xlsx
@@ -96,7 +96,7 @@
     <t>Nb nouveaux décès extra-hospitaliers</t>
   </si>
   <si>
-    <t>Données COVID-19 Valais 15.05.2020</t>
+    <t>Données COVID-19 Valais 18.05.2020</t>
   </si>
 </sst>
 </file>
@@ -675,10 +675,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O80"/>
+  <dimension ref="A1:O83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1593,7 +1593,7 @@
         <v>43909</v>
       </c>
       <c r="B23" s="19">
-        <f t="shared" ref="B23:B79" si="10">B22+C23</f>
+        <f t="shared" ref="B23:B71" si="10">B22+C23</f>
         <v>349</v>
       </c>
       <c r="C23" s="13">
@@ -1612,15 +1612,15 @@
         <v>58</v>
       </c>
       <c r="H23" s="17">
-        <f t="shared" ref="H23:H80" si="11">G23+E23</f>
+        <f t="shared" ref="H23:H71" si="11">G23+E23</f>
         <v>63</v>
       </c>
       <c r="I23" s="16">
-        <f t="shared" ref="I23:I80" si="12">I22+J23</f>
+        <f t="shared" ref="I23:I71" si="12">I22+J23</f>
         <v>6</v>
       </c>
       <c r="J23" s="16">
-        <f t="shared" ref="J23:J80" si="13">K23+L23</f>
+        <f t="shared" ref="J23:J71" si="13">K23+L23</f>
         <v>2</v>
       </c>
       <c r="K23" s="26">
@@ -3651,7 +3651,7 @@
         <v>43958</v>
       </c>
       <c r="B72" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="B72:B82" si="14">B71+C72</f>
         <v>1907</v>
       </c>
       <c r="C72" s="13">
@@ -3670,15 +3670,15 @@
         <v>36</v>
       </c>
       <c r="H72" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="H72:H83" si="15">G72+E72</f>
         <v>44</v>
       </c>
       <c r="I72" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="I72:I83" si="16">I71+J72</f>
         <v>146</v>
       </c>
       <c r="J72" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="J72:J83" si="17">K72+L72</f>
         <v>0</v>
       </c>
       <c r="K72" s="26">
@@ -3693,7 +3693,7 @@
         <v>43959</v>
       </c>
       <c r="B73" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1910</v>
       </c>
       <c r="C73" s="13">
@@ -3712,15 +3712,15 @@
         <v>34</v>
       </c>
       <c r="H73" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>42</v>
       </c>
       <c r="I73" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>148</v>
       </c>
       <c r="J73" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="K73" s="26">
@@ -3735,7 +3735,7 @@
         <v>43960</v>
       </c>
       <c r="B74" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1911</v>
       </c>
       <c r="C74" s="13">
@@ -3754,15 +3754,15 @@
         <v>32</v>
       </c>
       <c r="H74" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>41</v>
       </c>
       <c r="I74" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>148</v>
       </c>
       <c r="J74" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K74" s="26">
@@ -3777,7 +3777,7 @@
         <v>43961</v>
       </c>
       <c r="B75" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1912</v>
       </c>
       <c r="C75" s="13">
@@ -3796,15 +3796,15 @@
         <v>33</v>
       </c>
       <c r="H75" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>42</v>
       </c>
       <c r="I75" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>148</v>
       </c>
       <c r="J75" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K75" s="26">
@@ -3819,7 +3819,7 @@
         <v>43962</v>
       </c>
       <c r="B76" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1916</v>
       </c>
       <c r="C76" s="13">
@@ -3838,15 +3838,15 @@
         <v>33</v>
       </c>
       <c r="H76" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>42</v>
       </c>
       <c r="I76" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>149</v>
       </c>
       <c r="J76" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="K76" s="26">
@@ -3861,7 +3861,7 @@
         <v>43963</v>
       </c>
       <c r="B77" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1916</v>
       </c>
       <c r="C77" s="13">
@@ -3871,24 +3871,24 @@
         <v>0</v>
       </c>
       <c r="E77" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F77" s="3">
         <v>6</v>
       </c>
       <c r="G77" s="24">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H77" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>39</v>
       </c>
       <c r="I77" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>149</v>
       </c>
       <c r="J77" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K77" s="26">
@@ -3903,7 +3903,7 @@
         <v>43964</v>
       </c>
       <c r="B78" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1917</v>
       </c>
       <c r="C78" s="13">
@@ -3913,7 +3913,7 @@
         <v>0</v>
       </c>
       <c r="E78" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F78" s="3">
         <v>5</v>
@@ -3922,15 +3922,15 @@
         <v>29</v>
       </c>
       <c r="H78" s="17">
-        <f t="shared" si="11"/>
-        <v>37</v>
+        <f t="shared" si="15"/>
+        <v>36</v>
       </c>
       <c r="I78" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>149</v>
       </c>
       <c r="J78" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K78" s="26">
@@ -3945,7 +3945,7 @@
         <v>43965</v>
       </c>
       <c r="B79" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1919</v>
       </c>
       <c r="C79" s="13">
@@ -3955,7 +3955,7 @@
         <v>0</v>
       </c>
       <c r="E79" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F79" s="3">
         <v>5</v>
@@ -3964,15 +3964,15 @@
         <v>27</v>
       </c>
       <c r="H79" s="17">
-        <f t="shared" si="11"/>
-        <v>35</v>
+        <f t="shared" si="15"/>
+        <v>34</v>
       </c>
       <c r="I79" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>149</v>
       </c>
       <c r="J79" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K79" s="26">
@@ -3983,39 +3983,165 @@
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A80" s="2">
+      <c r="A80" s="1">
         <v>43966</v>
       </c>
-      <c r="B80" s="20"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14">
-        <v>0</v>
-      </c>
-      <c r="E80" s="30">
-        <v>8</v>
-      </c>
-      <c r="F80" s="31">
+      <c r="B80" s="19">
+        <f t="shared" si="14"/>
+        <v>1928</v>
+      </c>
+      <c r="C80" s="13">
+        <v>9</v>
+      </c>
+      <c r="D80" s="13">
+        <v>0</v>
+      </c>
+      <c r="E80" s="4">
+        <v>7</v>
+      </c>
+      <c r="F80" s="3">
         <v>5</v>
       </c>
-      <c r="G80" s="25">
-        <v>26</v>
-      </c>
-      <c r="H80" s="18">
-        <f t="shared" si="11"/>
-        <v>34</v>
-      </c>
-      <c r="I80" s="21">
-        <f t="shared" si="12"/>
+      <c r="G80" s="24">
+        <v>24</v>
+      </c>
+      <c r="H80" s="17">
+        <f t="shared" si="15"/>
+        <v>31</v>
+      </c>
+      <c r="I80" s="16">
+        <f t="shared" si="16"/>
         <v>149</v>
       </c>
-      <c r="J80" s="21">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K80" s="28">
-        <v>0</v>
-      </c>
-      <c r="L80" s="29">
+      <c r="J80" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="K80" s="26">
+        <v>0</v>
+      </c>
+      <c r="L80" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A81" s="1">
+        <v>43967</v>
+      </c>
+      <c r="B81" s="19">
+        <f t="shared" si="14"/>
+        <v>1931</v>
+      </c>
+      <c r="C81" s="13">
+        <v>3</v>
+      </c>
+      <c r="D81" s="13">
+        <v>0</v>
+      </c>
+      <c r="E81" s="4">
+        <v>7</v>
+      </c>
+      <c r="F81" s="3">
+        <v>5</v>
+      </c>
+      <c r="G81" s="24">
+        <v>24</v>
+      </c>
+      <c r="H81" s="17">
+        <f t="shared" si="15"/>
+        <v>31</v>
+      </c>
+      <c r="I81" s="16">
+        <f t="shared" si="16"/>
+        <v>149</v>
+      </c>
+      <c r="J81" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="K81" s="26">
+        <v>0</v>
+      </c>
+      <c r="L81" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A82" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B82" s="19">
+        <f t="shared" si="14"/>
+        <v>1931</v>
+      </c>
+      <c r="C82" s="13">
+        <v>0</v>
+      </c>
+      <c r="D82" s="13">
+        <v>0</v>
+      </c>
+      <c r="E82" s="4">
+        <v>7</v>
+      </c>
+      <c r="F82" s="3">
+        <v>5</v>
+      </c>
+      <c r="G82" s="24">
+        <v>24</v>
+      </c>
+      <c r="H82" s="17">
+        <f t="shared" si="15"/>
+        <v>31</v>
+      </c>
+      <c r="I82" s="16">
+        <f t="shared" si="16"/>
+        <v>149</v>
+      </c>
+      <c r="J82" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="K82" s="26">
+        <v>0</v>
+      </c>
+      <c r="L82" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A83" s="2">
+        <v>43969</v>
+      </c>
+      <c r="B83" s="20"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14">
+        <v>0</v>
+      </c>
+      <c r="E83" s="30">
+        <v>6</v>
+      </c>
+      <c r="F83" s="31">
+        <v>4</v>
+      </c>
+      <c r="G83" s="25">
+        <v>24</v>
+      </c>
+      <c r="H83" s="18">
+        <f t="shared" si="15"/>
+        <v>30</v>
+      </c>
+      <c r="I83" s="21">
+        <f t="shared" si="16"/>
+        <v>150</v>
+      </c>
+      <c r="J83" s="21">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="K83" s="28">
+        <v>1</v>
+      </c>
+      <c r="L83" s="29">
         <v>0</v>
       </c>
     </row>

--- a/Chiffres  COVID-19 Valais.xlsx
+++ b/Chiffres  COVID-19 Valais.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Jidfs\users\B105PLS\Documents\COVID-Monitoring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\11. Maladies transmissibles\11.2. Lutte\11.2.3. Pandémies\COVID-19\Epi\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -96,7 +96,7 @@
     <t>Nb nouveaux décès extra-hospitaliers</t>
   </si>
   <si>
-    <t>Données COVID-19 Valais 18.05.2020</t>
+    <t>Données COVID-19 Valais 19.05.2020</t>
   </si>
 </sst>
 </file>
@@ -394,7 +394,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -410,7 +410,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -675,23 +675,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O83"/>
+  <dimension ref="A1:O84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="11.453125" style="15"/>
-    <col min="4" max="4" width="10.81640625" style="15"/>
-    <col min="8" max="8" width="16.1796875" customWidth="1"/>
-    <col min="10" max="10" width="14.54296875" customWidth="1"/>
-    <col min="11" max="11" width="13.54296875" customWidth="1"/>
-    <col min="12" max="12" width="15.7265625" style="6" customWidth="1"/>
+    <col min="2" max="3" width="11.42578125" style="15"/>
+    <col min="4" max="4" width="10.85546875" style="15"/>
+    <col min="8" max="8" width="16.140625" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>12</v>
       </c>
@@ -707,7 +707,7 @@
       <c r="K1" s="33"/>
       <c r="L1" s="34"/>
     </row>
-    <row r="2" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -748,7 +748,7 @@
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43889</v>
       </c>
@@ -790,7 +790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43890</v>
       </c>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43891</v>
       </c>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43892</v>
       </c>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43893</v>
       </c>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43894</v>
       </c>
@@ -1000,7 +1000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43895</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43896</v>
       </c>
@@ -1084,7 +1084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43897</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43898</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43899</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43900</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43901</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43902</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43903</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43904</v>
       </c>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43905</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43906</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43907</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43908</v>
       </c>
@@ -1588,7 +1588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43909</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43910</v>
       </c>
@@ -1672,7 +1672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43911</v>
       </c>
@@ -1714,7 +1714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43912</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43913</v>
       </c>
@@ -1798,7 +1798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43914</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43915</v>
       </c>
@@ -1882,7 +1882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43916</v>
       </c>
@@ -1924,7 +1924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43917</v>
       </c>
@@ -1966,7 +1966,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43918</v>
       </c>
@@ -2008,7 +2008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43919</v>
       </c>
@@ -2050,7 +2050,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>43920</v>
       </c>
@@ -2092,7 +2092,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>43921</v>
       </c>
@@ -2134,7 +2134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>43922</v>
       </c>
@@ -2176,7 +2176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>43923</v>
       </c>
@@ -2218,7 +2218,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>43924</v>
       </c>
@@ -2260,7 +2260,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>43925</v>
       </c>
@@ -2302,7 +2302,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>43926</v>
       </c>
@@ -2344,7 +2344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>43927</v>
       </c>
@@ -2386,7 +2386,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>43928</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43929</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43930</v>
       </c>
@@ -2512,7 +2512,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43931</v>
       </c>
@@ -2554,7 +2554,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43932</v>
       </c>
@@ -2596,7 +2596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>43933</v>
       </c>
@@ -2638,7 +2638,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>43934</v>
       </c>
@@ -2680,7 +2680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>43935</v>
       </c>
@@ -2722,7 +2722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>43936</v>
       </c>
@@ -2764,7 +2764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>43937</v>
       </c>
@@ -2806,7 +2806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>43938</v>
       </c>
@@ -2848,7 +2848,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>43939</v>
       </c>
@@ -2890,7 +2890,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>43940</v>
       </c>
@@ -2932,7 +2932,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>43941</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>43942</v>
       </c>
@@ -3016,7 +3016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>43943</v>
       </c>
@@ -3058,7 +3058,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>43944</v>
       </c>
@@ -3100,7 +3100,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>43945</v>
       </c>
@@ -3142,7 +3142,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>43946</v>
       </c>
@@ -3184,7 +3184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>43947</v>
       </c>
@@ -3226,7 +3226,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>43948</v>
       </c>
@@ -3268,7 +3268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>43949</v>
       </c>
@@ -3310,7 +3310,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>43950</v>
       </c>
@@ -3352,7 +3352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>43951</v>
       </c>
@@ -3394,7 +3394,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>43952</v>
       </c>
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>43953</v>
       </c>
@@ -3478,7 +3478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>43954</v>
       </c>
@@ -3520,7 +3520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>43955</v>
       </c>
@@ -3562,7 +3562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>43956</v>
       </c>
@@ -3604,7 +3604,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>43957</v>
       </c>
@@ -3646,12 +3646,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>43958</v>
       </c>
       <c r="B72" s="19">
-        <f t="shared" ref="B72:B82" si="14">B71+C72</f>
+        <f t="shared" ref="B72:B83" si="14">B71+C72</f>
         <v>1907</v>
       </c>
       <c r="C72" s="13">
@@ -3670,15 +3670,15 @@
         <v>36</v>
       </c>
       <c r="H72" s="17">
-        <f t="shared" ref="H72:H83" si="15">G72+E72</f>
+        <f t="shared" ref="H72:H84" si="15">G72+E72</f>
         <v>44</v>
       </c>
       <c r="I72" s="16">
-        <f t="shared" ref="I72:I83" si="16">I71+J72</f>
+        <f t="shared" ref="I72:I84" si="16">I71+J72</f>
         <v>146</v>
       </c>
       <c r="J72" s="16">
-        <f t="shared" ref="J72:J83" si="17">K72+L72</f>
+        <f t="shared" ref="J72:J84" si="17">K72+L72</f>
         <v>0</v>
       </c>
       <c r="K72" s="26">
@@ -3688,7 +3688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>43959</v>
       </c>
@@ -3730,7 +3730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>43960</v>
       </c>
@@ -3772,7 +3772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>43961</v>
       </c>
@@ -3814,7 +3814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>43962</v>
       </c>
@@ -3856,7 +3856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>43963</v>
       </c>
@@ -3898,7 +3898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>43964</v>
       </c>
@@ -3940,7 +3940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>43965</v>
       </c>
@@ -3982,12 +3982,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>43966</v>
       </c>
       <c r="B80" s="19">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="B80:B84" si="18">B79+C80</f>
         <v>1928</v>
       </c>
       <c r="C80" s="13">
@@ -4006,15 +4006,15 @@
         <v>24</v>
       </c>
       <c r="H80" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="H80:H84" si="19">G80+E80</f>
         <v>31</v>
       </c>
       <c r="I80" s="16">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="I80:I84" si="20">I79+J80</f>
         <v>149</v>
       </c>
       <c r="J80" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="J80:J84" si="21">K80+L80</f>
         <v>0</v>
       </c>
       <c r="K80" s="26">
@@ -4024,12 +4024,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>43967</v>
       </c>
       <c r="B81" s="19">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1931</v>
       </c>
       <c r="C81" s="13">
@@ -4048,15 +4048,15 @@
         <v>24</v>
       </c>
       <c r="H81" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>31</v>
       </c>
       <c r="I81" s="16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>149</v>
       </c>
       <c r="J81" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K81" s="26">
@@ -4066,12 +4066,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>43968</v>
       </c>
       <c r="B82" s="19">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1931</v>
       </c>
       <c r="C82" s="13">
@@ -4090,15 +4090,15 @@
         <v>24</v>
       </c>
       <c r="H82" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>31</v>
       </c>
       <c r="I82" s="16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>149</v>
       </c>
       <c r="J82" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K82" s="26">
@@ -4108,40 +4108,87 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A83" s="2">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
         <v>43969</v>
       </c>
-      <c r="B83" s="20"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14">
-        <v>0</v>
-      </c>
-      <c r="E83" s="30">
+      <c r="B83" s="19">
+        <f t="shared" si="18"/>
+        <v>1932</v>
+      </c>
+      <c r="C83" s="13">
+        <v>1</v>
+      </c>
+      <c r="D83" s="13">
+        <v>1</v>
+      </c>
+      <c r="E83" s="4">
         <v>6</v>
       </c>
-      <c r="F83" s="31">
+      <c r="F83" s="3">
         <v>4</v>
       </c>
-      <c r="G83" s="25">
-        <v>24</v>
-      </c>
-      <c r="H83" s="18">
-        <f t="shared" si="15"/>
-        <v>30</v>
-      </c>
-      <c r="I83" s="21">
-        <f t="shared" si="16"/>
-        <v>150</v>
-      </c>
-      <c r="J83" s="21">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="K83" s="28">
-        <v>1</v>
-      </c>
-      <c r="L83" s="29">
+      <c r="G83" s="24">
+        <v>23</v>
+      </c>
+      <c r="H83" s="17">
+        <f t="shared" si="19"/>
+        <v>29</v>
+      </c>
+      <c r="I83" s="16">
+        <f t="shared" si="20"/>
+        <v>151</v>
+      </c>
+      <c r="J83" s="16">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="K83" s="26">
+        <v>1</v>
+      </c>
+      <c r="L83" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>43970</v>
+      </c>
+      <c r="B84" s="20">
+        <f t="shared" si="18"/>
+        <v>1933</v>
+      </c>
+      <c r="C84" s="14">
+        <v>1</v>
+      </c>
+      <c r="D84" s="14">
+        <v>0</v>
+      </c>
+      <c r="E84" s="30">
+        <v>6</v>
+      </c>
+      <c r="F84" s="31">
+        <v>4</v>
+      </c>
+      <c r="G84" s="25">
+        <v>23</v>
+      </c>
+      <c r="H84" s="18">
+        <f t="shared" si="19"/>
+        <v>29</v>
+      </c>
+      <c r="I84" s="21">
+        <f t="shared" si="20"/>
+        <v>151</v>
+      </c>
+      <c r="J84" s="21">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="K84" s="28">
+        <v>0</v>
+      </c>
+      <c r="L84" s="29">
         <v>0</v>
       </c>
     </row>

--- a/Chiffres  COVID-19 Valais.xlsx
+++ b/Chiffres  COVID-19 Valais.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\11. Maladies transmissibles\11.2. Lutte\11.2.3. Pandémies\COVID-19\Epi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Jidfs\users\B105PLS\Documents\COVID-Monitoring\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -96,7 +96,7 @@
     <t>Nb nouveaux décès extra-hospitaliers</t>
   </si>
   <si>
-    <t>Données COVID-19 Valais 19.05.2020</t>
+    <t>Données COVID-19 Valais 20.05.2020</t>
   </si>
 </sst>
 </file>
@@ -394,7 +394,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -410,7 +410,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -675,23 +675,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O84"/>
+  <dimension ref="A1:O85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D94" sqref="D94"/>
+      <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="3" width="11.42578125" style="15"/>
-    <col min="4" max="4" width="10.85546875" style="15"/>
-    <col min="8" max="8" width="16.140625" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="6" customWidth="1"/>
+    <col min="2" max="3" width="11.453125" style="15"/>
+    <col min="4" max="4" width="10.81640625" style="15"/>
+    <col min="8" max="8" width="16.1796875" customWidth="1"/>
+    <col min="10" max="10" width="14.54296875" customWidth="1"/>
+    <col min="11" max="11" width="13.54296875" customWidth="1"/>
+    <col min="12" max="12" width="15.7265625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="32" t="s">
         <v>12</v>
       </c>
@@ -707,7 +707,7 @@
       <c r="K1" s="33"/>
       <c r="L1" s="34"/>
     </row>
-    <row r="2" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -748,7 +748,7 @@
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>43889</v>
       </c>
@@ -790,7 +790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>43890</v>
       </c>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>43891</v>
       </c>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>43892</v>
       </c>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>43893</v>
       </c>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>43894</v>
       </c>
@@ -1000,7 +1000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>43895</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>43896</v>
       </c>
@@ -1084,7 +1084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>43897</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>43898</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>43899</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>43900</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>43901</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>43902</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>43903</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>43904</v>
       </c>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>43905</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>43906</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>43907</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>43908</v>
       </c>
@@ -1588,7 +1588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>43909</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>43910</v>
       </c>
@@ -1672,7 +1672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>43911</v>
       </c>
@@ -1714,7 +1714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>43912</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>43913</v>
       </c>
@@ -1798,7 +1798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>43914</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>43915</v>
       </c>
@@ -1882,7 +1882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>43916</v>
       </c>
@@ -1924,7 +1924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>43917</v>
       </c>
@@ -1966,7 +1966,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>43918</v>
       </c>
@@ -2008,7 +2008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>43919</v>
       </c>
@@ -2050,7 +2050,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>43920</v>
       </c>
@@ -2092,7 +2092,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>43921</v>
       </c>
@@ -2134,7 +2134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>43922</v>
       </c>
@@ -2176,7 +2176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>43923</v>
       </c>
@@ -2218,7 +2218,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>43924</v>
       </c>
@@ -2260,7 +2260,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>43925</v>
       </c>
@@ -2302,7 +2302,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>43926</v>
       </c>
@@ -2344,7 +2344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>43927</v>
       </c>
@@ -2386,7 +2386,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>43928</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>43929</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>43930</v>
       </c>
@@ -2512,7 +2512,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>43931</v>
       </c>
@@ -2554,7 +2554,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>43932</v>
       </c>
@@ -2596,7 +2596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>43933</v>
       </c>
@@ -2638,7 +2638,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>43934</v>
       </c>
@@ -2680,7 +2680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>43935</v>
       </c>
@@ -2722,7 +2722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>43936</v>
       </c>
@@ -2764,7 +2764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>43937</v>
       </c>
@@ -2806,7 +2806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>43938</v>
       </c>
@@ -2848,7 +2848,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>43939</v>
       </c>
@@ -2890,7 +2890,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>43940</v>
       </c>
@@ -2932,7 +2932,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>43941</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>43942</v>
       </c>
@@ -3016,7 +3016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>43943</v>
       </c>
@@ -3058,7 +3058,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>43944</v>
       </c>
@@ -3100,7 +3100,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>43945</v>
       </c>
@@ -3142,7 +3142,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>43946</v>
       </c>
@@ -3184,7 +3184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>43947</v>
       </c>
@@ -3226,7 +3226,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>43948</v>
       </c>
@@ -3268,7 +3268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>43949</v>
       </c>
@@ -3310,7 +3310,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>43950</v>
       </c>
@@ -3352,7 +3352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>43951</v>
       </c>
@@ -3394,7 +3394,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>43952</v>
       </c>
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>43953</v>
       </c>
@@ -3478,7 +3478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>43954</v>
       </c>
@@ -3520,7 +3520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>43955</v>
       </c>
@@ -3562,7 +3562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>43956</v>
       </c>
@@ -3604,7 +3604,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>43957</v>
       </c>
@@ -3646,12 +3646,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>43958</v>
       </c>
       <c r="B72" s="19">
-        <f t="shared" ref="B72:B83" si="14">B71+C72</f>
+        <f t="shared" ref="B72:B76" si="14">B71+C72</f>
         <v>1907</v>
       </c>
       <c r="C72" s="13">
@@ -3670,15 +3670,15 @@
         <v>36</v>
       </c>
       <c r="H72" s="17">
-        <f t="shared" ref="H72:H84" si="15">G72+E72</f>
+        <f t="shared" ref="H72:H76" si="15">G72+E72</f>
         <v>44</v>
       </c>
       <c r="I72" s="16">
-        <f t="shared" ref="I72:I84" si="16">I71+J72</f>
+        <f t="shared" ref="I72:I76" si="16">I71+J72</f>
         <v>146</v>
       </c>
       <c r="J72" s="16">
-        <f t="shared" ref="J72:J84" si="17">K72+L72</f>
+        <f t="shared" ref="J72:J76" si="17">K72+L72</f>
         <v>0</v>
       </c>
       <c r="K72" s="26">
@@ -3688,7 +3688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>43959</v>
       </c>
@@ -3730,7 +3730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>43960</v>
       </c>
@@ -3772,7 +3772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>43961</v>
       </c>
@@ -3814,7 +3814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>43962</v>
       </c>
@@ -3856,12 +3856,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>43963</v>
       </c>
       <c r="B77" s="19">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="B77:B84" si="18">B76+C77</f>
         <v>1916</v>
       </c>
       <c r="C77" s="13">
@@ -3880,15 +3880,15 @@
         <v>32</v>
       </c>
       <c r="H77" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="H77:H85" si="19">G77+E77</f>
         <v>39</v>
       </c>
       <c r="I77" s="16">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="I77:I85" si="20">I76+J77</f>
         <v>149</v>
       </c>
       <c r="J77" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="J77:J85" si="21">K77+L77</f>
         <v>0</v>
       </c>
       <c r="K77" s="26">
@@ -3898,12 +3898,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>43964</v>
       </c>
       <c r="B78" s="19">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1917</v>
       </c>
       <c r="C78" s="13">
@@ -3922,15 +3922,15 @@
         <v>29</v>
       </c>
       <c r="H78" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>36</v>
       </c>
       <c r="I78" s="16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>149</v>
       </c>
       <c r="J78" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K78" s="26">
@@ -3940,12 +3940,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>43965</v>
       </c>
       <c r="B79" s="19">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1919</v>
       </c>
       <c r="C79" s="13">
@@ -3964,15 +3964,15 @@
         <v>27</v>
       </c>
       <c r="H79" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>34</v>
       </c>
       <c r="I79" s="16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>149</v>
       </c>
       <c r="J79" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K79" s="26">
@@ -3982,12 +3982,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>43966</v>
       </c>
       <c r="B80" s="19">
-        <f t="shared" ref="B80:B84" si="18">B79+C80</f>
+        <f t="shared" si="18"/>
         <v>1928</v>
       </c>
       <c r="C80" s="13">
@@ -4006,15 +4006,15 @@
         <v>24</v>
       </c>
       <c r="H80" s="17">
-        <f t="shared" ref="H80:H84" si="19">G80+E80</f>
+        <f t="shared" si="19"/>
         <v>31</v>
       </c>
       <c r="I80" s="16">
-        <f t="shared" ref="I80:I84" si="20">I79+J80</f>
+        <f t="shared" si="20"/>
         <v>149</v>
       </c>
       <c r="J80" s="16">
-        <f t="shared" ref="J80:J84" si="21">K80+L80</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K80" s="26">
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>43967</v>
       </c>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>43968</v>
       </c>
@@ -4108,7 +4108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>43969</v>
       </c>
@@ -4150,45 +4150,82 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" s="2">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A84" s="1">
         <v>43970</v>
       </c>
-      <c r="B84" s="20">
+      <c r="B84" s="19">
         <f t="shared" si="18"/>
         <v>1933</v>
       </c>
-      <c r="C84" s="14">
-        <v>1</v>
-      </c>
-      <c r="D84" s="14">
-        <v>0</v>
-      </c>
-      <c r="E84" s="30">
+      <c r="C84" s="13">
+        <v>1</v>
+      </c>
+      <c r="D84" s="13">
+        <v>0</v>
+      </c>
+      <c r="E84" s="4">
         <v>6</v>
       </c>
-      <c r="F84" s="31">
+      <c r="F84" s="3">
         <v>4</v>
       </c>
-      <c r="G84" s="25">
-        <v>23</v>
-      </c>
-      <c r="H84" s="18">
+      <c r="G84" s="24">
+        <v>22</v>
+      </c>
+      <c r="H84" s="17">
         <f t="shared" si="19"/>
-        <v>29</v>
-      </c>
-      <c r="I84" s="21">
+        <v>28</v>
+      </c>
+      <c r="I84" s="16">
         <f t="shared" si="20"/>
         <v>151</v>
       </c>
-      <c r="J84" s="21">
+      <c r="J84" s="16">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="K84" s="28">
-        <v>0</v>
-      </c>
-      <c r="L84" s="29">
+      <c r="K84" s="26">
+        <v>0</v>
+      </c>
+      <c r="L84" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A85" s="2">
+        <v>43971</v>
+      </c>
+      <c r="B85" s="20"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14">
+        <v>0</v>
+      </c>
+      <c r="E85" s="30">
+        <v>6</v>
+      </c>
+      <c r="F85" s="31">
+        <v>4</v>
+      </c>
+      <c r="G85" s="25">
+        <v>22</v>
+      </c>
+      <c r="H85" s="18">
+        <f t="shared" si="19"/>
+        <v>28</v>
+      </c>
+      <c r="I85" s="21">
+        <f t="shared" si="20"/>
+        <v>151</v>
+      </c>
+      <c r="J85" s="21">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="K85" s="28">
+        <v>0</v>
+      </c>
+      <c r="L85" s="29">
         <v>0</v>
       </c>
     </row>

--- a/Chiffres  COVID-19 Valais.xlsx
+++ b/Chiffres  COVID-19 Valais.xlsx
@@ -96,7 +96,7 @@
     <t>Nb nouveaux décès extra-hospitaliers</t>
   </si>
   <si>
-    <t>Données COVID-19 Valais 20.05.2020</t>
+    <t>Données COVID-19 Valais 25.05.2020</t>
   </si>
 </sst>
 </file>
@@ -675,10 +675,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O85"/>
+  <dimension ref="A1:O90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -760,7 +760,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="13">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E3" s="4">
         <v>0</v>
@@ -769,11 +769,11 @@
         <v>0</v>
       </c>
       <c r="G3" s="24">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ref="H3:H22" si="0">G3+E3</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I3" s="16">
         <f>J3</f>
@@ -811,11 +811,11 @@
         <v>0</v>
       </c>
       <c r="G4" s="24">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H4" s="17">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I4" s="16">
         <f>I3+J4</f>
@@ -853,11 +853,11 @@
         <v>0</v>
       </c>
       <c r="G5" s="24">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H5" s="17">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I5" s="16">
         <f t="shared" ref="I5:I16" si="3">I4+J5</f>
@@ -895,11 +895,11 @@
         <v>0</v>
       </c>
       <c r="G6" s="24">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H6" s="17">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I6" s="16">
         <f t="shared" si="3"/>
@@ -937,11 +937,11 @@
         <v>0</v>
       </c>
       <c r="G7" s="24">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H7" s="17">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I7" s="16">
         <f t="shared" si="3"/>
@@ -979,11 +979,11 @@
         <v>0</v>
       </c>
       <c r="G8" s="24">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H8" s="17">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I8" s="16">
         <f t="shared" si="3"/>
@@ -1021,11 +1021,11 @@
         <v>0</v>
       </c>
       <c r="G9" s="24">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H9" s="17">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I9" s="16">
         <f t="shared" si="3"/>
@@ -1063,11 +1063,11 @@
         <v>0</v>
       </c>
       <c r="G10" s="24">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H10" s="17">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I10" s="16">
         <f t="shared" si="3"/>
@@ -1105,11 +1105,11 @@
         <v>0</v>
       </c>
       <c r="G11" s="24">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H11" s="17">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I11" s="16">
         <f t="shared" si="3"/>
@@ -1147,11 +1147,11 @@
         <v>1</v>
       </c>
       <c r="G12" s="24">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H12" s="17">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I12" s="16">
         <f t="shared" si="3"/>
@@ -1189,11 +1189,11 @@
         <v>1</v>
       </c>
       <c r="G13" s="24">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H13" s="17">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I13" s="16">
         <f t="shared" si="3"/>
@@ -1231,11 +1231,11 @@
         <v>1</v>
       </c>
       <c r="G14" s="24">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H14" s="17">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I14" s="16">
         <f t="shared" si="3"/>
@@ -1273,11 +1273,11 @@
         <v>1</v>
       </c>
       <c r="G15" s="24">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H15" s="17">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I15" s="16">
         <f t="shared" si="3"/>
@@ -1315,11 +1315,11 @@
         <v>1</v>
       </c>
       <c r="G16" s="24">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H16" s="17">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I16" s="16">
         <f t="shared" si="3"/>
@@ -1357,11 +1357,11 @@
         <v>1</v>
       </c>
       <c r="G17" s="24">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H17" s="17">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I17" s="16">
         <f t="shared" ref="I17" si="5">I16+J17</f>
@@ -1399,11 +1399,11 @@
         <v>1</v>
       </c>
       <c r="G18" s="24">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H18" s="17">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I18" s="16">
         <f t="shared" ref="I18:I22" si="8">I17+J18</f>
@@ -1441,11 +1441,11 @@
         <v>1</v>
       </c>
       <c r="G19" s="24">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H19" s="17">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I19" s="16">
         <f t="shared" si="8"/>
@@ -1483,11 +1483,11 @@
         <v>1</v>
       </c>
       <c r="G20" s="24">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H20" s="17">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I20" s="16">
         <f t="shared" si="8"/>
@@ -1525,11 +1525,11 @@
         <v>2</v>
       </c>
       <c r="G21" s="24">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H21" s="17">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I21" s="16">
         <f t="shared" si="8"/>
@@ -1567,11 +1567,11 @@
         <v>2</v>
       </c>
       <c r="G22" s="24">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H22" s="17">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I22" s="16">
         <f t="shared" si="8"/>
@@ -1609,11 +1609,11 @@
         <v>5</v>
       </c>
       <c r="G23" s="24">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H23" s="17">
         <f t="shared" ref="H23:H71" si="11">G23+E23</f>
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I23" s="16">
         <f t="shared" ref="I23:I71" si="12">I22+J23</f>
@@ -1651,11 +1651,11 @@
         <v>5</v>
       </c>
       <c r="G24" s="24">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H24" s="17">
         <f t="shared" si="11"/>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I24" s="16">
         <f t="shared" si="12"/>
@@ -1693,11 +1693,11 @@
         <v>6</v>
       </c>
       <c r="G25" s="24">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H25" s="17">
         <f t="shared" si="11"/>
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I25" s="16">
         <f t="shared" si="12"/>
@@ -1735,11 +1735,11 @@
         <v>7</v>
       </c>
       <c r="G26" s="24">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H26" s="17">
         <f t="shared" si="11"/>
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I26" s="16">
         <f t="shared" si="12"/>
@@ -1777,11 +1777,11 @@
         <v>9</v>
       </c>
       <c r="G27" s="24">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H27" s="17">
         <f t="shared" si="11"/>
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I27" s="16">
         <f t="shared" si="12"/>
@@ -1819,11 +1819,11 @@
         <v>12</v>
       </c>
       <c r="G28" s="24">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H28" s="17">
         <f t="shared" si="11"/>
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I28" s="16">
         <f t="shared" si="12"/>
@@ -1861,11 +1861,11 @@
         <v>14</v>
       </c>
       <c r="G29" s="24">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H29" s="17">
         <f t="shared" si="11"/>
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I29" s="16">
         <f t="shared" si="12"/>
@@ -1903,11 +1903,11 @@
         <v>17</v>
       </c>
       <c r="G30" s="24">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H30" s="17">
         <f t="shared" si="11"/>
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I30" s="16">
         <f t="shared" si="12"/>
@@ -1945,11 +1945,11 @@
         <v>16</v>
       </c>
       <c r="G31" s="24">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H31" s="17">
         <f t="shared" si="11"/>
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="I31" s="16">
         <f t="shared" si="12"/>
@@ -1987,11 +1987,11 @@
         <v>19</v>
       </c>
       <c r="G32" s="24">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H32" s="17">
         <f t="shared" si="11"/>
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I32" s="16">
         <f t="shared" si="12"/>
@@ -2029,11 +2029,11 @@
         <v>21</v>
       </c>
       <c r="G33" s="24">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H33" s="17">
         <f t="shared" si="11"/>
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I33" s="16">
         <f t="shared" si="12"/>
@@ -2071,11 +2071,11 @@
         <v>23</v>
       </c>
       <c r="G34" s="24">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H34" s="17">
         <f t="shared" si="11"/>
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I34" s="16">
         <f t="shared" si="12"/>
@@ -2113,11 +2113,11 @@
         <v>23</v>
       </c>
       <c r="G35" s="24">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H35" s="17">
         <f t="shared" si="11"/>
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I35" s="16">
         <f t="shared" si="12"/>
@@ -2155,11 +2155,11 @@
         <v>25</v>
       </c>
       <c r="G36" s="24">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H36" s="17">
         <f t="shared" si="11"/>
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I36" s="16">
         <f t="shared" si="12"/>
@@ -2197,11 +2197,11 @@
         <v>24</v>
       </c>
       <c r="G37" s="24">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H37" s="17">
         <f t="shared" si="11"/>
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I37" s="16">
         <f t="shared" si="12"/>
@@ -2239,11 +2239,11 @@
         <v>23</v>
       </c>
       <c r="G38" s="24">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H38" s="17">
         <f t="shared" si="11"/>
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I38" s="16">
         <f t="shared" si="12"/>
@@ -2281,11 +2281,11 @@
         <v>23</v>
       </c>
       <c r="G39" s="24">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H39" s="17">
         <f t="shared" si="11"/>
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I39" s="16">
         <f t="shared" si="12"/>
@@ -2323,11 +2323,11 @@
         <v>23</v>
       </c>
       <c r="G40" s="24">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H40" s="17">
         <f t="shared" si="11"/>
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I40" s="16">
         <f t="shared" si="12"/>
@@ -2365,11 +2365,11 @@
         <v>22</v>
       </c>
       <c r="G41" s="24">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H41" s="17">
         <f t="shared" si="11"/>
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="I41" s="16">
         <f t="shared" si="12"/>
@@ -2407,11 +2407,11 @@
         <v>20</v>
       </c>
       <c r="G42" s="24">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H42" s="17">
         <f t="shared" si="11"/>
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I42" s="16">
         <f t="shared" si="12"/>
@@ -2449,11 +2449,11 @@
         <v>20</v>
       </c>
       <c r="G43" s="24">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H43" s="17">
         <f t="shared" si="11"/>
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="I43" s="16">
         <f t="shared" si="12"/>
@@ -2491,11 +2491,11 @@
         <v>19</v>
       </c>
       <c r="G44" s="24">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H44" s="17">
         <f t="shared" si="11"/>
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I44" s="16">
         <f t="shared" si="12"/>
@@ -2533,11 +2533,11 @@
         <v>18</v>
       </c>
       <c r="G45" s="24">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H45" s="17">
         <f t="shared" si="11"/>
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I45" s="16">
         <f t="shared" si="12"/>
@@ -2575,11 +2575,11 @@
         <v>15</v>
       </c>
       <c r="G46" s="24">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H46" s="17">
         <f t="shared" si="11"/>
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I46" s="16">
         <f t="shared" si="12"/>
@@ -2617,11 +2617,11 @@
         <v>14</v>
       </c>
       <c r="G47" s="24">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H47" s="17">
         <f t="shared" si="11"/>
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="I47" s="16">
         <f t="shared" si="12"/>
@@ -2659,11 +2659,11 @@
         <v>12</v>
       </c>
       <c r="G48" s="24">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H48" s="17">
         <f t="shared" si="11"/>
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I48" s="16">
         <f t="shared" si="12"/>
@@ -2701,11 +2701,11 @@
         <v>11</v>
       </c>
       <c r="G49" s="24">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H49" s="17">
         <f t="shared" si="11"/>
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I49" s="16">
         <f t="shared" si="12"/>
@@ -2743,11 +2743,11 @@
         <v>12</v>
       </c>
       <c r="G50" s="24">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H50" s="17">
         <f t="shared" si="11"/>
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I50" s="16">
         <f t="shared" si="12"/>
@@ -2785,11 +2785,11 @@
         <v>12</v>
       </c>
       <c r="G51" s="24">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H51" s="17">
         <f t="shared" si="11"/>
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I51" s="16">
         <f t="shared" si="12"/>
@@ -2827,11 +2827,11 @@
         <v>10</v>
       </c>
       <c r="G52" s="24">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H52" s="17">
         <f t="shared" si="11"/>
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I52" s="16">
         <f t="shared" si="12"/>
@@ -2869,11 +2869,11 @@
         <v>10</v>
       </c>
       <c r="G53" s="24">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H53" s="17">
         <f t="shared" si="11"/>
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I53" s="16">
         <f t="shared" si="12"/>
@@ -2911,11 +2911,11 @@
         <v>9</v>
       </c>
       <c r="G54" s="24">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H54" s="17">
         <f t="shared" si="11"/>
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I54" s="16">
         <f t="shared" si="12"/>
@@ -2953,11 +2953,11 @@
         <v>9</v>
       </c>
       <c r="G55" s="24">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H55" s="17">
         <f t="shared" si="11"/>
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I55" s="16">
         <f t="shared" si="12"/>
@@ -2995,11 +2995,11 @@
         <v>10</v>
       </c>
       <c r="G56" s="24">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H56" s="17">
         <f t="shared" si="11"/>
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I56" s="16">
         <f t="shared" si="12"/>
@@ -3037,11 +3037,11 @@
         <v>10</v>
       </c>
       <c r="G57" s="24">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H57" s="17">
         <f t="shared" si="11"/>
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I57" s="16">
         <f t="shared" si="12"/>
@@ -3079,11 +3079,11 @@
         <v>9</v>
       </c>
       <c r="G58" s="24">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H58" s="17">
         <f t="shared" si="11"/>
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I58" s="16">
         <f t="shared" si="12"/>
@@ -3112,7 +3112,7 @@
         <v>9</v>
       </c>
       <c r="D59" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E59" s="4">
         <v>14</v>
@@ -3121,11 +3121,11 @@
         <v>9</v>
       </c>
       <c r="G59" s="24">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H59" s="17">
         <f t="shared" si="11"/>
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I59" s="16">
         <f t="shared" si="12"/>
@@ -3163,11 +3163,11 @@
         <v>9</v>
       </c>
       <c r="G60" s="24">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H60" s="17">
         <f t="shared" si="11"/>
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I60" s="16">
         <f t="shared" si="12"/>
@@ -3205,11 +3205,11 @@
         <v>8</v>
       </c>
       <c r="G61" s="24">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H61" s="17">
         <f t="shared" si="11"/>
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I61" s="16">
         <f t="shared" si="12"/>
@@ -3247,11 +3247,11 @@
         <v>9</v>
       </c>
       <c r="G62" s="24">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H62" s="17">
         <f t="shared" si="11"/>
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I62" s="16">
         <f t="shared" si="12"/>
@@ -3289,11 +3289,11 @@
         <v>8</v>
       </c>
       <c r="G63" s="24">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H63" s="17">
         <f t="shared" si="11"/>
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I63" s="16">
         <f t="shared" si="12"/>
@@ -3322,7 +3322,7 @@
         <v>12</v>
       </c>
       <c r="D64" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E64" s="4">
         <v>11</v>
@@ -3331,11 +3331,11 @@
         <v>8</v>
       </c>
       <c r="G64" s="24">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H64" s="17">
         <f t="shared" si="11"/>
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I64" s="16">
         <f t="shared" si="12"/>
@@ -3373,11 +3373,11 @@
         <v>8</v>
       </c>
       <c r="G65" s="24">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H65" s="17">
         <f t="shared" si="11"/>
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I65" s="16">
         <f t="shared" si="12"/>
@@ -3415,11 +3415,11 @@
         <v>8</v>
       </c>
       <c r="G66" s="24">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H66" s="17">
         <f t="shared" si="11"/>
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I66" s="16">
         <f t="shared" si="12"/>
@@ -3457,11 +3457,11 @@
         <v>8</v>
       </c>
       <c r="G67" s="24">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H67" s="17">
         <f t="shared" si="11"/>
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I67" s="16">
         <f t="shared" si="12"/>
@@ -3499,11 +3499,11 @@
         <v>8</v>
       </c>
       <c r="G68" s="24">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H68" s="17">
         <f t="shared" si="11"/>
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I68" s="16">
         <f t="shared" si="12"/>
@@ -3532,7 +3532,7 @@
         <v>8</v>
       </c>
       <c r="D69" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E69" s="4">
         <v>10</v>
@@ -3541,11 +3541,11 @@
         <v>7</v>
       </c>
       <c r="G69" s="24">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H69" s="17">
         <f t="shared" si="11"/>
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I69" s="16">
         <f t="shared" si="12"/>
@@ -3583,11 +3583,11 @@
         <v>6</v>
       </c>
       <c r="G70" s="24">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="H70" s="17">
         <f t="shared" si="11"/>
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I70" s="16">
         <f t="shared" si="12"/>
@@ -3625,11 +3625,11 @@
         <v>5</v>
       </c>
       <c r="G71" s="24">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H71" s="17">
         <f t="shared" si="11"/>
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I71" s="16">
         <f t="shared" si="12"/>
@@ -3667,11 +3667,11 @@
         <v>5</v>
       </c>
       <c r="G72" s="24">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H72" s="17">
         <f t="shared" ref="H72:H76" si="15">G72+E72</f>
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="I72" s="16">
         <f t="shared" ref="I72:I76" si="16">I71+J72</f>
@@ -3709,11 +3709,11 @@
         <v>5</v>
       </c>
       <c r="G73" s="24">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H73" s="17">
         <f t="shared" si="15"/>
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I73" s="16">
         <f t="shared" si="16"/>
@@ -3751,11 +3751,11 @@
         <v>6</v>
       </c>
       <c r="G74" s="24">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H74" s="17">
         <f t="shared" si="15"/>
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="I74" s="16">
         <f t="shared" si="16"/>
@@ -3793,11 +3793,11 @@
         <v>6</v>
       </c>
       <c r="G75" s="24">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H75" s="17">
         <f t="shared" si="15"/>
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I75" s="16">
         <f t="shared" si="16"/>
@@ -3835,11 +3835,11 @@
         <v>6</v>
       </c>
       <c r="G76" s="24">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H76" s="17">
         <f t="shared" si="15"/>
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I76" s="16">
         <f t="shared" si="16"/>
@@ -3861,14 +3861,14 @@
         <v>43963</v>
       </c>
       <c r="B77" s="19">
-        <f t="shared" ref="B77:B84" si="18">B76+C77</f>
+        <f t="shared" ref="B77:B78" si="18">B76+C77</f>
         <v>1916</v>
       </c>
       <c r="C77" s="13">
         <v>0</v>
       </c>
       <c r="D77" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E77" s="4">
         <v>7</v>
@@ -3877,18 +3877,18 @@
         <v>6</v>
       </c>
       <c r="G77" s="24">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H77" s="17">
-        <f t="shared" ref="H77:H85" si="19">G77+E77</f>
-        <v>39</v>
+        <f t="shared" ref="H77:H78" si="19">G77+E77</f>
+        <v>45</v>
       </c>
       <c r="I77" s="16">
-        <f t="shared" ref="I77:I85" si="20">I76+J77</f>
+        <f t="shared" ref="I77:I78" si="20">I76+J77</f>
         <v>149</v>
       </c>
       <c r="J77" s="16">
-        <f t="shared" ref="J77:J85" si="21">K77+L77</f>
+        <f t="shared" ref="J77:J78" si="21">K77+L77</f>
         <v>0</v>
       </c>
       <c r="K77" s="26">
@@ -3919,11 +3919,11 @@
         <v>5</v>
       </c>
       <c r="G78" s="24">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H78" s="17">
         <f t="shared" si="19"/>
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="I78" s="16">
         <f t="shared" si="20"/>
@@ -3945,7 +3945,7 @@
         <v>43965</v>
       </c>
       <c r="B79" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="B79:B89" si="22">B78+C79</f>
         <v>1919</v>
       </c>
       <c r="C79" s="13">
@@ -3961,18 +3961,18 @@
         <v>5</v>
       </c>
       <c r="G79" s="24">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H79" s="17">
-        <f t="shared" si="19"/>
-        <v>34</v>
+        <f t="shared" ref="H79:H90" si="23">G79+E79</f>
+        <v>40</v>
       </c>
       <c r="I79" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="I79:I90" si="24">I78+J79</f>
         <v>149</v>
       </c>
       <c r="J79" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="J79:J90" si="25">K79+L79</f>
         <v>0</v>
       </c>
       <c r="K79" s="26">
@@ -3987,14 +3987,14 @@
         <v>43966</v>
       </c>
       <c r="B80" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1928</v>
       </c>
       <c r="C80" s="13">
         <v>9</v>
       </c>
       <c r="D80" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E80" s="4">
         <v>7</v>
@@ -4003,18 +4003,18 @@
         <v>5</v>
       </c>
       <c r="G80" s="24">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H80" s="17">
-        <f t="shared" si="19"/>
-        <v>31</v>
+        <f t="shared" si="23"/>
+        <v>38</v>
       </c>
       <c r="I80" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>149</v>
       </c>
       <c r="J80" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="K80" s="26">
@@ -4029,7 +4029,7 @@
         <v>43967</v>
       </c>
       <c r="B81" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1931</v>
       </c>
       <c r="C81" s="13">
@@ -4045,18 +4045,18 @@
         <v>5</v>
       </c>
       <c r="G81" s="24">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H81" s="17">
-        <f t="shared" si="19"/>
-        <v>31</v>
+        <f t="shared" si="23"/>
+        <v>38</v>
       </c>
       <c r="I81" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>149</v>
       </c>
       <c r="J81" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="K81" s="26">
@@ -4071,7 +4071,7 @@
         <v>43968</v>
       </c>
       <c r="B82" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1931</v>
       </c>
       <c r="C82" s="13">
@@ -4087,18 +4087,18 @@
         <v>5</v>
       </c>
       <c r="G82" s="24">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H82" s="17">
-        <f t="shared" si="19"/>
-        <v>31</v>
+        <f t="shared" si="23"/>
+        <v>38</v>
       </c>
       <c r="I82" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>149</v>
       </c>
       <c r="J82" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="K82" s="26">
@@ -4113,7 +4113,7 @@
         <v>43969</v>
       </c>
       <c r="B83" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1932</v>
       </c>
       <c r="C83" s="13">
@@ -4129,18 +4129,18 @@
         <v>4</v>
       </c>
       <c r="G83" s="24">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H83" s="17">
-        <f t="shared" si="19"/>
-        <v>29</v>
+        <f t="shared" si="23"/>
+        <v>36</v>
       </c>
       <c r="I83" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>151</v>
       </c>
       <c r="J83" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>2</v>
       </c>
       <c r="K83" s="26">
@@ -4155,14 +4155,14 @@
         <v>43970</v>
       </c>
       <c r="B84" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1933</v>
       </c>
       <c r="C84" s="13">
         <v>1</v>
       </c>
       <c r="D84" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E84" s="4">
         <v>6</v>
@@ -4171,61 +4171,271 @@
         <v>4</v>
       </c>
       <c r="G84" s="24">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H84" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
+        <v>35</v>
+      </c>
+      <c r="I84" s="16">
+        <f t="shared" si="24"/>
+        <v>151</v>
+      </c>
+      <c r="J84" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="K84" s="26">
+        <v>0</v>
+      </c>
+      <c r="L84" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A85" s="1">
+        <v>43971</v>
+      </c>
+      <c r="B85" s="19">
+        <f t="shared" si="22"/>
+        <v>1933</v>
+      </c>
+      <c r="C85" s="13">
+        <v>0</v>
+      </c>
+      <c r="D85" s="13">
+        <v>0</v>
+      </c>
+      <c r="E85" s="4">
+        <v>5</v>
+      </c>
+      <c r="F85" s="3">
+        <v>4</v>
+      </c>
+      <c r="G85" s="24">
         <v>28</v>
       </c>
-      <c r="I84" s="16">
-        <f t="shared" si="20"/>
+      <c r="H85" s="17">
+        <f t="shared" si="23"/>
+        <v>33</v>
+      </c>
+      <c r="I85" s="16">
+        <f t="shared" si="24"/>
         <v>151</v>
       </c>
-      <c r="J84" s="16">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="K84" s="26">
-        <v>0</v>
-      </c>
-      <c r="L84" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A85" s="2">
-        <v>43971</v>
-      </c>
-      <c r="B85" s="20"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="14">
-        <v>0</v>
-      </c>
-      <c r="E85" s="30">
-        <v>6</v>
-      </c>
-      <c r="F85" s="31">
+      <c r="J85" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="K85" s="26">
+        <v>0</v>
+      </c>
+      <c r="L85" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A86" s="1">
+        <v>43972</v>
+      </c>
+      <c r="B86" s="19">
+        <f t="shared" si="22"/>
+        <v>1934</v>
+      </c>
+      <c r="C86" s="13">
+        <v>1</v>
+      </c>
+      <c r="D86" s="13">
+        <v>0</v>
+      </c>
+      <c r="E86" s="4">
+        <v>5</v>
+      </c>
+      <c r="F86" s="3">
         <v>4</v>
       </c>
-      <c r="G85" s="25">
-        <v>22</v>
-      </c>
-      <c r="H85" s="18">
-        <f t="shared" si="19"/>
+      <c r="G86" s="24">
         <v>28</v>
       </c>
-      <c r="I85" s="21">
-        <f t="shared" si="20"/>
+      <c r="H86" s="17">
+        <f t="shared" si="23"/>
+        <v>33</v>
+      </c>
+      <c r="I86" s="16">
+        <f t="shared" si="24"/>
         <v>151</v>
       </c>
-      <c r="J85" s="21">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="K85" s="28">
-        <v>0</v>
-      </c>
-      <c r="L85" s="29">
+      <c r="J86" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="K86" s="26">
+        <v>0</v>
+      </c>
+      <c r="L86" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A87" s="1">
+        <v>43973</v>
+      </c>
+      <c r="B87" s="19">
+        <f t="shared" si="22"/>
+        <v>1934</v>
+      </c>
+      <c r="C87" s="13">
+        <v>0</v>
+      </c>
+      <c r="D87" s="13">
+        <v>0</v>
+      </c>
+      <c r="E87" s="4">
+        <v>4</v>
+      </c>
+      <c r="F87" s="3">
+        <v>3</v>
+      </c>
+      <c r="G87" s="24">
+        <v>28</v>
+      </c>
+      <c r="H87" s="17">
+        <f t="shared" si="23"/>
+        <v>32</v>
+      </c>
+      <c r="I87" s="16">
+        <f t="shared" si="24"/>
+        <v>151</v>
+      </c>
+      <c r="J87" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="K87" s="26">
+        <v>0</v>
+      </c>
+      <c r="L87" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A88" s="1">
+        <v>43974</v>
+      </c>
+      <c r="B88" s="19">
+        <f t="shared" si="22"/>
+        <v>1934</v>
+      </c>
+      <c r="C88" s="13">
+        <v>0</v>
+      </c>
+      <c r="D88" s="13">
+        <v>0</v>
+      </c>
+      <c r="E88" s="4">
+        <v>4</v>
+      </c>
+      <c r="F88" s="3">
+        <v>3</v>
+      </c>
+      <c r="G88" s="24">
+        <v>28</v>
+      </c>
+      <c r="H88" s="17">
+        <f t="shared" si="23"/>
+        <v>32</v>
+      </c>
+      <c r="I88" s="16">
+        <f t="shared" si="24"/>
+        <v>151</v>
+      </c>
+      <c r="J88" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="K88" s="26">
+        <v>0</v>
+      </c>
+      <c r="L88" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A89" s="1">
+        <v>43975</v>
+      </c>
+      <c r="B89" s="19">
+        <f t="shared" si="22"/>
+        <v>1935</v>
+      </c>
+      <c r="C89" s="13">
+        <v>1</v>
+      </c>
+      <c r="D89" s="13">
+        <v>0</v>
+      </c>
+      <c r="E89" s="4">
+        <v>4</v>
+      </c>
+      <c r="F89" s="3">
+        <v>3</v>
+      </c>
+      <c r="G89" s="24">
+        <v>28</v>
+      </c>
+      <c r="H89" s="17">
+        <f t="shared" si="23"/>
+        <v>32</v>
+      </c>
+      <c r="I89" s="16">
+        <f t="shared" si="24"/>
+        <v>151</v>
+      </c>
+      <c r="J89" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="K89" s="26">
+        <v>0</v>
+      </c>
+      <c r="L89" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A90" s="2">
+        <v>43976</v>
+      </c>
+      <c r="B90" s="20"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14">
+        <v>0</v>
+      </c>
+      <c r="E90" s="30">
+        <v>4</v>
+      </c>
+      <c r="F90" s="31">
+        <v>3</v>
+      </c>
+      <c r="G90" s="25">
+        <v>28</v>
+      </c>
+      <c r="H90" s="18">
+        <f t="shared" si="23"/>
+        <v>32</v>
+      </c>
+      <c r="I90" s="21">
+        <f t="shared" si="24"/>
+        <v>151</v>
+      </c>
+      <c r="J90" s="21">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="K90" s="28">
+        <v>0</v>
+      </c>
+      <c r="L90" s="29">
         <v>0</v>
       </c>
     </row>

--- a/Chiffres  COVID-19 Valais.xlsx
+++ b/Chiffres  COVID-19 Valais.xlsx
@@ -96,7 +96,7 @@
     <t>Nb nouveaux décès extra-hospitaliers</t>
   </si>
   <si>
-    <t>Données COVID-19 Valais 25.05.2020</t>
+    <t>Données COVID-19 Valais 26.05.2020</t>
   </si>
 </sst>
 </file>
@@ -675,10 +675,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O90"/>
+  <dimension ref="A1:O91"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76"/>
+      <selection activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -760,7 +760,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" s="4">
         <v>0</v>
@@ -769,11 +769,11 @@
         <v>0</v>
       </c>
       <c r="G3" s="24">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ref="H3:H22" si="0">G3+E3</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I3" s="16">
         <f>J3</f>
@@ -811,11 +811,11 @@
         <v>0</v>
       </c>
       <c r="G4" s="24">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H4" s="17">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I4" s="16">
         <f>I3+J4</f>
@@ -853,11 +853,11 @@
         <v>0</v>
       </c>
       <c r="G5" s="24">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H5" s="17">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I5" s="16">
         <f t="shared" ref="I5:I16" si="3">I4+J5</f>
@@ -895,11 +895,11 @@
         <v>0</v>
       </c>
       <c r="G6" s="24">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H6" s="17">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I6" s="16">
         <f t="shared" si="3"/>
@@ -937,11 +937,11 @@
         <v>0</v>
       </c>
       <c r="G7" s="24">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H7" s="17">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I7" s="16">
         <f t="shared" si="3"/>
@@ -979,11 +979,11 @@
         <v>0</v>
       </c>
       <c r="G8" s="24">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H8" s="17">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I8" s="16">
         <f t="shared" si="3"/>
@@ -1021,11 +1021,11 @@
         <v>0</v>
       </c>
       <c r="G9" s="24">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H9" s="17">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I9" s="16">
         <f t="shared" si="3"/>
@@ -1063,11 +1063,11 @@
         <v>0</v>
       </c>
       <c r="G10" s="24">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H10" s="17">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I10" s="16">
         <f t="shared" si="3"/>
@@ -1105,11 +1105,11 @@
         <v>0</v>
       </c>
       <c r="G11" s="24">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H11" s="17">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I11" s="16">
         <f t="shared" si="3"/>
@@ -1147,11 +1147,11 @@
         <v>1</v>
       </c>
       <c r="G12" s="24">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H12" s="17">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I12" s="16">
         <f t="shared" si="3"/>
@@ -1189,11 +1189,11 @@
         <v>1</v>
       </c>
       <c r="G13" s="24">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H13" s="17">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I13" s="16">
         <f t="shared" si="3"/>
@@ -1231,11 +1231,11 @@
         <v>1</v>
       </c>
       <c r="G14" s="24">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H14" s="17">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I14" s="16">
         <f t="shared" si="3"/>
@@ -1273,11 +1273,11 @@
         <v>1</v>
       </c>
       <c r="G15" s="24">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H15" s="17">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I15" s="16">
         <f t="shared" si="3"/>
@@ -1315,11 +1315,11 @@
         <v>1</v>
       </c>
       <c r="G16" s="24">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H16" s="17">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I16" s="16">
         <f t="shared" si="3"/>
@@ -1357,11 +1357,11 @@
         <v>1</v>
       </c>
       <c r="G17" s="24">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H17" s="17">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I17" s="16">
         <f t="shared" ref="I17" si="5">I16+J17</f>
@@ -1399,11 +1399,11 @@
         <v>1</v>
       </c>
       <c r="G18" s="24">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H18" s="17">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I18" s="16">
         <f t="shared" ref="I18:I22" si="8">I17+J18</f>
@@ -1441,11 +1441,11 @@
         <v>1</v>
       </c>
       <c r="G19" s="24">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H19" s="17">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I19" s="16">
         <f t="shared" si="8"/>
@@ -1483,11 +1483,11 @@
         <v>1</v>
       </c>
       <c r="G20" s="24">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H20" s="17">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I20" s="16">
         <f t="shared" si="8"/>
@@ -1525,11 +1525,11 @@
         <v>2</v>
       </c>
       <c r="G21" s="24">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H21" s="17">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I21" s="16">
         <f t="shared" si="8"/>
@@ -1567,11 +1567,11 @@
         <v>2</v>
       </c>
       <c r="G22" s="24">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H22" s="17">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I22" s="16">
         <f t="shared" si="8"/>
@@ -1609,11 +1609,11 @@
         <v>5</v>
       </c>
       <c r="G23" s="24">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H23" s="17">
         <f t="shared" ref="H23:H71" si="11">G23+E23</f>
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I23" s="16">
         <f t="shared" ref="I23:I71" si="12">I22+J23</f>
@@ -1651,11 +1651,11 @@
         <v>5</v>
       </c>
       <c r="G24" s="24">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H24" s="17">
         <f t="shared" si="11"/>
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I24" s="16">
         <f t="shared" si="12"/>
@@ -1693,11 +1693,11 @@
         <v>6</v>
       </c>
       <c r="G25" s="24">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H25" s="17">
         <f t="shared" si="11"/>
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I25" s="16">
         <f t="shared" si="12"/>
@@ -1735,11 +1735,11 @@
         <v>7</v>
       </c>
       <c r="G26" s="24">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H26" s="17">
         <f t="shared" si="11"/>
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I26" s="16">
         <f t="shared" si="12"/>
@@ -1777,11 +1777,11 @@
         <v>9</v>
       </c>
       <c r="G27" s="24">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H27" s="17">
         <f t="shared" si="11"/>
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I27" s="16">
         <f t="shared" si="12"/>
@@ -1819,11 +1819,11 @@
         <v>12</v>
       </c>
       <c r="G28" s="24">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H28" s="17">
         <f t="shared" si="11"/>
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I28" s="16">
         <f t="shared" si="12"/>
@@ -1861,11 +1861,11 @@
         <v>14</v>
       </c>
       <c r="G29" s="24">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H29" s="17">
         <f t="shared" si="11"/>
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I29" s="16">
         <f t="shared" si="12"/>
@@ -1903,11 +1903,11 @@
         <v>17</v>
       </c>
       <c r="G30" s="24">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H30" s="17">
         <f t="shared" si="11"/>
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I30" s="16">
         <f t="shared" si="12"/>
@@ -1945,11 +1945,11 @@
         <v>16</v>
       </c>
       <c r="G31" s="24">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H31" s="17">
         <f t="shared" si="11"/>
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I31" s="16">
         <f t="shared" si="12"/>
@@ -1987,11 +1987,11 @@
         <v>19</v>
       </c>
       <c r="G32" s="24">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H32" s="17">
         <f t="shared" si="11"/>
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I32" s="16">
         <f t="shared" si="12"/>
@@ -2029,11 +2029,11 @@
         <v>21</v>
       </c>
       <c r="G33" s="24">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H33" s="17">
         <f t="shared" si="11"/>
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I33" s="16">
         <f t="shared" si="12"/>
@@ -2071,11 +2071,11 @@
         <v>23</v>
       </c>
       <c r="G34" s="24">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H34" s="17">
         <f t="shared" si="11"/>
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I34" s="16">
         <f t="shared" si="12"/>
@@ -2113,11 +2113,11 @@
         <v>23</v>
       </c>
       <c r="G35" s="24">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H35" s="17">
         <f t="shared" si="11"/>
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I35" s="16">
         <f t="shared" si="12"/>
@@ -2155,11 +2155,11 @@
         <v>25</v>
       </c>
       <c r="G36" s="24">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H36" s="17">
         <f t="shared" si="11"/>
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I36" s="16">
         <f t="shared" si="12"/>
@@ -2197,11 +2197,11 @@
         <v>24</v>
       </c>
       <c r="G37" s="24">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H37" s="17">
         <f t="shared" si="11"/>
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I37" s="16">
         <f t="shared" si="12"/>
@@ -2239,11 +2239,11 @@
         <v>23</v>
       </c>
       <c r="G38" s="24">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H38" s="17">
         <f t="shared" si="11"/>
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I38" s="16">
         <f t="shared" si="12"/>
@@ -2281,11 +2281,11 @@
         <v>23</v>
       </c>
       <c r="G39" s="24">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H39" s="17">
         <f t="shared" si="11"/>
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I39" s="16">
         <f t="shared" si="12"/>
@@ -2323,11 +2323,11 @@
         <v>23</v>
       </c>
       <c r="G40" s="24">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H40" s="17">
         <f t="shared" si="11"/>
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I40" s="16">
         <f t="shared" si="12"/>
@@ -2365,11 +2365,11 @@
         <v>22</v>
       </c>
       <c r="G41" s="24">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H41" s="17">
         <f t="shared" si="11"/>
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I41" s="16">
         <f t="shared" si="12"/>
@@ -2407,11 +2407,11 @@
         <v>20</v>
       </c>
       <c r="G42" s="24">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H42" s="17">
         <f t="shared" si="11"/>
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I42" s="16">
         <f t="shared" si="12"/>
@@ -2449,11 +2449,11 @@
         <v>20</v>
       </c>
       <c r="G43" s="24">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H43" s="17">
         <f t="shared" si="11"/>
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I43" s="16">
         <f t="shared" si="12"/>
@@ -2491,11 +2491,11 @@
         <v>19</v>
       </c>
       <c r="G44" s="24">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H44" s="17">
         <f t="shared" si="11"/>
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I44" s="16">
         <f t="shared" si="12"/>
@@ -2533,11 +2533,11 @@
         <v>18</v>
       </c>
       <c r="G45" s="24">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H45" s="17">
         <f t="shared" si="11"/>
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I45" s="16">
         <f t="shared" si="12"/>
@@ -2575,11 +2575,11 @@
         <v>15</v>
       </c>
       <c r="G46" s="24">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H46" s="17">
         <f t="shared" si="11"/>
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I46" s="16">
         <f t="shared" si="12"/>
@@ -2617,11 +2617,11 @@
         <v>14</v>
       </c>
       <c r="G47" s="24">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H47" s="17">
         <f t="shared" si="11"/>
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I47" s="16">
         <f t="shared" si="12"/>
@@ -2659,11 +2659,11 @@
         <v>12</v>
       </c>
       <c r="G48" s="24">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H48" s="17">
         <f t="shared" si="11"/>
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I48" s="16">
         <f t="shared" si="12"/>
@@ -2701,11 +2701,11 @@
         <v>11</v>
       </c>
       <c r="G49" s="24">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H49" s="17">
         <f t="shared" si="11"/>
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I49" s="16">
         <f t="shared" si="12"/>
@@ -2743,11 +2743,11 @@
         <v>12</v>
       </c>
       <c r="G50" s="24">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H50" s="17">
         <f t="shared" si="11"/>
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I50" s="16">
         <f t="shared" si="12"/>
@@ -2785,11 +2785,11 @@
         <v>12</v>
       </c>
       <c r="G51" s="24">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H51" s="17">
         <f t="shared" si="11"/>
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I51" s="16">
         <f t="shared" si="12"/>
@@ -2827,11 +2827,11 @@
         <v>10</v>
       </c>
       <c r="G52" s="24">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H52" s="17">
         <f t="shared" si="11"/>
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I52" s="16">
         <f t="shared" si="12"/>
@@ -2869,11 +2869,11 @@
         <v>10</v>
       </c>
       <c r="G53" s="24">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H53" s="17">
         <f t="shared" si="11"/>
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I53" s="16">
         <f t="shared" si="12"/>
@@ -2911,11 +2911,11 @@
         <v>9</v>
       </c>
       <c r="G54" s="24">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H54" s="17">
         <f t="shared" si="11"/>
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I54" s="16">
         <f t="shared" si="12"/>
@@ -2953,11 +2953,11 @@
         <v>9</v>
       </c>
       <c r="G55" s="24">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H55" s="17">
         <f t="shared" si="11"/>
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I55" s="16">
         <f t="shared" si="12"/>
@@ -2995,11 +2995,11 @@
         <v>10</v>
       </c>
       <c r="G56" s="24">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H56" s="17">
         <f t="shared" si="11"/>
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I56" s="16">
         <f t="shared" si="12"/>
@@ -3037,11 +3037,11 @@
         <v>10</v>
       </c>
       <c r="G57" s="24">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H57" s="17">
         <f t="shared" si="11"/>
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I57" s="16">
         <f t="shared" si="12"/>
@@ -3079,11 +3079,11 @@
         <v>9</v>
       </c>
       <c r="G58" s="24">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H58" s="17">
         <f t="shared" si="11"/>
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I58" s="16">
         <f t="shared" si="12"/>
@@ -3112,7 +3112,7 @@
         <v>9</v>
       </c>
       <c r="D59" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E59" s="4">
         <v>14</v>
@@ -3121,11 +3121,11 @@
         <v>9</v>
       </c>
       <c r="G59" s="24">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H59" s="17">
         <f t="shared" si="11"/>
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I59" s="16">
         <f t="shared" si="12"/>
@@ -3163,11 +3163,11 @@
         <v>9</v>
       </c>
       <c r="G60" s="24">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H60" s="17">
         <f t="shared" si="11"/>
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I60" s="16">
         <f t="shared" si="12"/>
@@ -3205,11 +3205,11 @@
         <v>8</v>
       </c>
       <c r="G61" s="24">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H61" s="17">
         <f t="shared" si="11"/>
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I61" s="16">
         <f t="shared" si="12"/>
@@ -3247,11 +3247,11 @@
         <v>9</v>
       </c>
       <c r="G62" s="24">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H62" s="17">
         <f t="shared" si="11"/>
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I62" s="16">
         <f t="shared" si="12"/>
@@ -3289,11 +3289,11 @@
         <v>8</v>
       </c>
       <c r="G63" s="24">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H63" s="17">
         <f t="shared" si="11"/>
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I63" s="16">
         <f t="shared" si="12"/>
@@ -3322,7 +3322,7 @@
         <v>12</v>
       </c>
       <c r="D64" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E64" s="4">
         <v>11</v>
@@ -3331,11 +3331,11 @@
         <v>8</v>
       </c>
       <c r="G64" s="24">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H64" s="17">
         <f t="shared" si="11"/>
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I64" s="16">
         <f t="shared" si="12"/>
@@ -3373,11 +3373,11 @@
         <v>8</v>
       </c>
       <c r="G65" s="24">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H65" s="17">
         <f t="shared" si="11"/>
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I65" s="16">
         <f t="shared" si="12"/>
@@ -3415,11 +3415,11 @@
         <v>8</v>
       </c>
       <c r="G66" s="24">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H66" s="17">
         <f t="shared" si="11"/>
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I66" s="16">
         <f t="shared" si="12"/>
@@ -3457,11 +3457,11 @@
         <v>8</v>
       </c>
       <c r="G67" s="24">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H67" s="17">
         <f t="shared" si="11"/>
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I67" s="16">
         <f t="shared" si="12"/>
@@ -3499,11 +3499,11 @@
         <v>8</v>
       </c>
       <c r="G68" s="24">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H68" s="17">
         <f t="shared" si="11"/>
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I68" s="16">
         <f t="shared" si="12"/>
@@ -3532,7 +3532,7 @@
         <v>8</v>
       </c>
       <c r="D69" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E69" s="4">
         <v>10</v>
@@ -3541,11 +3541,11 @@
         <v>7</v>
       </c>
       <c r="G69" s="24">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H69" s="17">
         <f t="shared" si="11"/>
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I69" s="16">
         <f t="shared" si="12"/>
@@ -3583,11 +3583,11 @@
         <v>6</v>
       </c>
       <c r="G70" s="24">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H70" s="17">
         <f t="shared" si="11"/>
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I70" s="16">
         <f t="shared" si="12"/>
@@ -3625,11 +3625,11 @@
         <v>5</v>
       </c>
       <c r="G71" s="24">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H71" s="17">
         <f t="shared" si="11"/>
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I71" s="16">
         <f t="shared" si="12"/>
@@ -3667,11 +3667,11 @@
         <v>5</v>
       </c>
       <c r="G72" s="24">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H72" s="17">
         <f t="shared" ref="H72:H76" si="15">G72+E72</f>
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I72" s="16">
         <f t="shared" ref="I72:I76" si="16">I71+J72</f>
@@ -3709,11 +3709,11 @@
         <v>5</v>
       </c>
       <c r="G73" s="24">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H73" s="17">
         <f t="shared" si="15"/>
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I73" s="16">
         <f t="shared" si="16"/>
@@ -3751,11 +3751,11 @@
         <v>6</v>
       </c>
       <c r="G74" s="24">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H74" s="17">
         <f t="shared" si="15"/>
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I74" s="16">
         <f t="shared" si="16"/>
@@ -3793,11 +3793,11 @@
         <v>6</v>
       </c>
       <c r="G75" s="24">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H75" s="17">
         <f t="shared" si="15"/>
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I75" s="16">
         <f t="shared" si="16"/>
@@ -3835,11 +3835,11 @@
         <v>6</v>
       </c>
       <c r="G76" s="24">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H76" s="17">
         <f t="shared" si="15"/>
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I76" s="16">
         <f t="shared" si="16"/>
@@ -3868,7 +3868,7 @@
         <v>0</v>
       </c>
       <c r="D77" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E77" s="4">
         <v>7</v>
@@ -3877,11 +3877,11 @@
         <v>6</v>
       </c>
       <c r="G77" s="24">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H77" s="17">
         <f t="shared" ref="H77:H78" si="19">G77+E77</f>
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I77" s="16">
         <f t="shared" ref="I77:I78" si="20">I76+J77</f>
@@ -3919,11 +3919,11 @@
         <v>5</v>
       </c>
       <c r="G78" s="24">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H78" s="17">
         <f t="shared" si="19"/>
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I78" s="16">
         <f t="shared" si="20"/>
@@ -3961,18 +3961,18 @@
         <v>5</v>
       </c>
       <c r="G79" s="24">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H79" s="17">
-        <f t="shared" ref="H79:H90" si="23">G79+E79</f>
-        <v>40</v>
+        <f t="shared" ref="H79:H89" si="23">G79+E79</f>
+        <v>35</v>
       </c>
       <c r="I79" s="16">
-        <f t="shared" ref="I79:I90" si="24">I78+J79</f>
+        <f t="shared" ref="I79:I89" si="24">I78+J79</f>
         <v>149</v>
       </c>
       <c r="J79" s="16">
-        <f t="shared" ref="J79:J90" si="25">K79+L79</f>
+        <f t="shared" ref="J79:J89" si="25">K79+L79</f>
         <v>0</v>
       </c>
       <c r="K79" s="26">
@@ -3994,7 +3994,7 @@
         <v>9</v>
       </c>
       <c r="D80" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E80" s="4">
         <v>7</v>
@@ -4003,11 +4003,11 @@
         <v>5</v>
       </c>
       <c r="G80" s="24">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H80" s="17">
         <f t="shared" si="23"/>
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="I80" s="16">
         <f t="shared" si="24"/>
@@ -4045,11 +4045,11 @@
         <v>5</v>
       </c>
       <c r="G81" s="24">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H81" s="17">
         <f t="shared" si="23"/>
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="I81" s="16">
         <f t="shared" si="24"/>
@@ -4087,11 +4087,11 @@
         <v>5</v>
       </c>
       <c r="G82" s="24">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H82" s="17">
         <f t="shared" si="23"/>
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="I82" s="16">
         <f t="shared" si="24"/>
@@ -4129,11 +4129,11 @@
         <v>4</v>
       </c>
       <c r="G83" s="24">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H83" s="17">
         <f t="shared" si="23"/>
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I83" s="16">
         <f t="shared" si="24"/>
@@ -4162,7 +4162,7 @@
         <v>1</v>
       </c>
       <c r="D84" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E84" s="4">
         <v>6</v>
@@ -4171,11 +4171,11 @@
         <v>4</v>
       </c>
       <c r="G84" s="24">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H84" s="17">
         <f t="shared" si="23"/>
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I84" s="16">
         <f t="shared" si="24"/>
@@ -4213,11 +4213,11 @@
         <v>4</v>
       </c>
       <c r="G85" s="24">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H85" s="17">
         <f t="shared" si="23"/>
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="I85" s="16">
         <f t="shared" si="24"/>
@@ -4255,11 +4255,11 @@
         <v>4</v>
       </c>
       <c r="G86" s="24">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H86" s="17">
         <f t="shared" si="23"/>
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="I86" s="16">
         <f t="shared" si="24"/>
@@ -4297,11 +4297,11 @@
         <v>3</v>
       </c>
       <c r="G87" s="24">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H87" s="17">
         <f t="shared" si="23"/>
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I87" s="16">
         <f t="shared" si="24"/>
@@ -4339,11 +4339,11 @@
         <v>3</v>
       </c>
       <c r="G88" s="24">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H88" s="17">
         <f t="shared" si="23"/>
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I88" s="16">
         <f t="shared" si="24"/>
@@ -4381,11 +4381,11 @@
         <v>3</v>
       </c>
       <c r="G89" s="24">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H89" s="17">
         <f t="shared" si="23"/>
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I89" s="16">
         <f t="shared" si="24"/>
@@ -4403,39 +4403,81 @@
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A90" s="2">
+      <c r="A90" s="1">
         <v>43976</v>
       </c>
-      <c r="B90" s="20"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="14">
-        <v>0</v>
-      </c>
-      <c r="E90" s="30">
+      <c r="B90" s="19">
+        <f t="shared" ref="B90" si="26">B89+C90</f>
+        <v>1936</v>
+      </c>
+      <c r="C90" s="13">
+        <v>1</v>
+      </c>
+      <c r="D90" s="13">
+        <v>0</v>
+      </c>
+      <c r="E90" s="4">
         <v>4</v>
       </c>
-      <c r="F90" s="31">
+      <c r="F90" s="3">
         <v>3</v>
       </c>
-      <c r="G90" s="25">
-        <v>28</v>
-      </c>
-      <c r="H90" s="18">
-        <f t="shared" si="23"/>
-        <v>32</v>
-      </c>
-      <c r="I90" s="21">
-        <f t="shared" si="24"/>
+      <c r="G90" s="24">
+        <v>20</v>
+      </c>
+      <c r="H90" s="17">
+        <f t="shared" ref="H90:H91" si="27">G90+E90</f>
+        <v>24</v>
+      </c>
+      <c r="I90" s="16">
+        <f t="shared" ref="I90:I91" si="28">I89+J90</f>
         <v>151</v>
       </c>
-      <c r="J90" s="21">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="K90" s="28">
-        <v>0</v>
-      </c>
-      <c r="L90" s="29">
+      <c r="J90" s="16">
+        <f t="shared" ref="J90:J91" si="29">K90+L90</f>
+        <v>0</v>
+      </c>
+      <c r="K90" s="26">
+        <v>0</v>
+      </c>
+      <c r="L90" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A91" s="2">
+        <v>43977</v>
+      </c>
+      <c r="B91" s="20"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14">
+        <v>0</v>
+      </c>
+      <c r="E91" s="30">
+        <v>4</v>
+      </c>
+      <c r="F91" s="31">
+        <v>3</v>
+      </c>
+      <c r="G91" s="25">
+        <v>20</v>
+      </c>
+      <c r="H91" s="18">
+        <f t="shared" si="27"/>
+        <v>24</v>
+      </c>
+      <c r="I91" s="21">
+        <f t="shared" si="28"/>
+        <v>151</v>
+      </c>
+      <c r="J91" s="21">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="K91" s="28">
+        <v>0</v>
+      </c>
+      <c r="L91" s="29">
         <v>0</v>
       </c>
     </row>

--- a/Chiffres  COVID-19 Valais.xlsx
+++ b/Chiffres  COVID-19 Valais.xlsx
@@ -96,7 +96,7 @@
     <t>Nb nouveaux décès extra-hospitaliers</t>
   </si>
   <si>
-    <t>Données COVID-19 Valais 26.05.2020</t>
+    <t>Données COVID-19 Valais 27.05.2020</t>
   </si>
 </sst>
 </file>
@@ -675,10 +675,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O91"/>
+  <dimension ref="A1:O92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="A92" sqref="A92"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3945,7 +3945,7 @@
         <v>43965</v>
       </c>
       <c r="B79" s="19">
-        <f t="shared" ref="B79:B89" si="22">B78+C79</f>
+        <f t="shared" ref="B79:B88" si="22">B78+C79</f>
         <v>1919</v>
       </c>
       <c r="C79" s="13">
@@ -3964,15 +3964,15 @@
         <v>28</v>
       </c>
       <c r="H79" s="17">
-        <f t="shared" ref="H79:H89" si="23">G79+E79</f>
+        <f t="shared" ref="H79:H88" si="23">G79+E79</f>
         <v>35</v>
       </c>
       <c r="I79" s="16">
-        <f t="shared" ref="I79:I89" si="24">I78+J79</f>
+        <f t="shared" ref="I79:I88" si="24">I78+J79</f>
         <v>149</v>
       </c>
       <c r="J79" s="16">
-        <f t="shared" ref="J79:J89" si="25">K79+L79</f>
+        <f t="shared" ref="J79:J88" si="25">K79+L79</f>
         <v>0</v>
       </c>
       <c r="K79" s="26">
@@ -4365,7 +4365,7 @@
         <v>43975</v>
       </c>
       <c r="B89" s="19">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="B89:B92" si="26">B88+C89</f>
         <v>1935</v>
       </c>
       <c r="C89" s="13">
@@ -4384,15 +4384,15 @@
         <v>21</v>
       </c>
       <c r="H89" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="H89:H92" si="27">G89+E89</f>
         <v>25</v>
       </c>
       <c r="I89" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="I89:I92" si="28">I88+J89</f>
         <v>151</v>
       </c>
       <c r="J89" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="J89:J92" si="29">K89+L89</f>
         <v>0</v>
       </c>
       <c r="K89" s="26">
@@ -4407,11 +4407,11 @@
         <v>43976</v>
       </c>
       <c r="B90" s="19">
-        <f t="shared" ref="B90" si="26">B89+C90</f>
-        <v>1936</v>
+        <f t="shared" si="26"/>
+        <v>1937</v>
       </c>
       <c r="C90" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D90" s="13">
         <v>0</v>
@@ -4426,58 +4426,105 @@
         <v>20</v>
       </c>
       <c r="H90" s="17">
-        <f t="shared" ref="H90:H91" si="27">G90+E90</f>
-        <v>24</v>
-      </c>
-      <c r="I90" s="16">
-        <f t="shared" ref="I90:I91" si="28">I89+J90</f>
-        <v>151</v>
-      </c>
-      <c r="J90" s="16">
-        <f t="shared" ref="J90:J91" si="29">K90+L90</f>
-        <v>0</v>
-      </c>
-      <c r="K90" s="26">
-        <v>0</v>
-      </c>
-      <c r="L90" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A91" s="2">
-        <v>43977</v>
-      </c>
-      <c r="B91" s="20"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="14">
-        <v>0</v>
-      </c>
-      <c r="E91" s="30">
-        <v>4</v>
-      </c>
-      <c r="F91" s="31">
-        <v>3</v>
-      </c>
-      <c r="G91" s="25">
-        <v>20</v>
-      </c>
-      <c r="H91" s="18">
         <f t="shared" si="27"/>
         <v>24</v>
       </c>
-      <c r="I91" s="21">
+      <c r="I90" s="16">
         <f t="shared" si="28"/>
         <v>151</v>
       </c>
-      <c r="J91" s="21">
+      <c r="J90" s="16">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="K91" s="28">
-        <v>0</v>
-      </c>
-      <c r="L91" s="29">
+      <c r="K90" s="26">
+        <v>0</v>
+      </c>
+      <c r="L90" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A91" s="1">
+        <v>43977</v>
+      </c>
+      <c r="B91" s="19">
+        <f t="shared" si="26"/>
+        <v>1940</v>
+      </c>
+      <c r="C91" s="13">
+        <v>3</v>
+      </c>
+      <c r="D91" s="13">
+        <v>0</v>
+      </c>
+      <c r="E91" s="4">
+        <v>3</v>
+      </c>
+      <c r="F91" s="3">
+        <v>3</v>
+      </c>
+      <c r="G91" s="24">
+        <v>20</v>
+      </c>
+      <c r="H91" s="17">
+        <f t="shared" si="27"/>
+        <v>23</v>
+      </c>
+      <c r="I91" s="16">
+        <f t="shared" si="28"/>
+        <v>151</v>
+      </c>
+      <c r="J91" s="16">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="K91" s="26">
+        <v>0</v>
+      </c>
+      <c r="L91" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A92" s="2">
+        <v>43978</v>
+      </c>
+      <c r="B92" s="20">
+        <f t="shared" si="26"/>
+        <v>1941</v>
+      </c>
+      <c r="C92" s="14">
+        <v>1</v>
+      </c>
+      <c r="D92" s="14">
+        <v>0</v>
+      </c>
+      <c r="E92" s="30">
+        <v>3</v>
+      </c>
+      <c r="F92" s="31">
+        <v>3</v>
+      </c>
+      <c r="G92" s="25">
+        <v>20</v>
+      </c>
+      <c r="H92" s="18">
+        <f t="shared" si="27"/>
+        <v>23</v>
+      </c>
+      <c r="I92" s="21">
+        <f t="shared" si="28"/>
+        <v>151</v>
+      </c>
+      <c r="J92" s="21">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="K92" s="28">
+        <v>0</v>
+      </c>
+      <c r="L92" s="29">
         <v>0</v>
       </c>
     </row>

--- a/Chiffres  COVID-19 Valais.xlsx
+++ b/Chiffres  COVID-19 Valais.xlsx
@@ -96,7 +96,7 @@
     <t>Nb nouveaux décès extra-hospitaliers</t>
   </si>
   <si>
-    <t>Données COVID-19 Valais 27.05.2020</t>
+    <t>Données COVID-19 Valais 28.05.2020</t>
   </si>
 </sst>
 </file>
@@ -675,10 +675,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O92"/>
+  <dimension ref="A1:O93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D92"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4365,7 +4365,7 @@
         <v>43975</v>
       </c>
       <c r="B89" s="19">
-        <f t="shared" ref="B89:B92" si="26">B88+C89</f>
+        <f t="shared" ref="B89" si="26">B88+C89</f>
         <v>1935</v>
       </c>
       <c r="C89" s="13">
@@ -4384,15 +4384,15 @@
         <v>21</v>
       </c>
       <c r="H89" s="17">
-        <f t="shared" ref="H89:H92" si="27">G89+E89</f>
+        <f t="shared" ref="H89" si="27">G89+E89</f>
         <v>25</v>
       </c>
       <c r="I89" s="16">
-        <f t="shared" ref="I89:I92" si="28">I88+J89</f>
+        <f t="shared" ref="I89" si="28">I88+J89</f>
         <v>151</v>
       </c>
       <c r="J89" s="16">
-        <f t="shared" ref="J89:J92" si="29">K89+L89</f>
+        <f t="shared" ref="J89" si="29">K89+L89</f>
         <v>0</v>
       </c>
       <c r="K89" s="26">
@@ -4407,7 +4407,7 @@
         <v>43976</v>
       </c>
       <c r="B90" s="19">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="B90:B93" si="30">B89+C90</f>
         <v>1937</v>
       </c>
       <c r="C90" s="13">
@@ -4426,15 +4426,15 @@
         <v>20</v>
       </c>
       <c r="H90" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" ref="H90:H93" si="31">G90+E90</f>
         <v>24</v>
       </c>
       <c r="I90" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" ref="I90:I93" si="32">I89+J90</f>
         <v>151</v>
       </c>
       <c r="J90" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" ref="J90:J93" si="33">K90+L90</f>
         <v>0</v>
       </c>
       <c r="K90" s="26">
@@ -4449,7 +4449,7 @@
         <v>43977</v>
       </c>
       <c r="B91" s="19">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1940</v>
       </c>
       <c r="C91" s="13">
@@ -4468,15 +4468,15 @@
         <v>20</v>
       </c>
       <c r="H91" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>23</v>
       </c>
       <c r="I91" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>151</v>
       </c>
       <c r="J91" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="K91" s="26">
@@ -4487,44 +4487,86 @@
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A92" s="2">
+      <c r="A92" s="1">
         <v>43978</v>
       </c>
-      <c r="B92" s="20">
-        <f t="shared" si="26"/>
+      <c r="B92" s="19">
+        <f t="shared" si="30"/>
         <v>1941</v>
       </c>
-      <c r="C92" s="14">
-        <v>1</v>
-      </c>
-      <c r="D92" s="14">
-        <v>0</v>
-      </c>
-      <c r="E92" s="30">
+      <c r="C92" s="13">
+        <v>1</v>
+      </c>
+      <c r="D92" s="13">
+        <v>0</v>
+      </c>
+      <c r="E92" s="4">
         <v>3</v>
       </c>
-      <c r="F92" s="31">
+      <c r="F92" s="3">
         <v>3</v>
       </c>
-      <c r="G92" s="25">
+      <c r="G92" s="24">
         <v>20</v>
       </c>
-      <c r="H92" s="18">
-        <f t="shared" si="27"/>
+      <c r="H92" s="17">
+        <f t="shared" si="31"/>
         <v>23</v>
       </c>
-      <c r="I92" s="21">
-        <f t="shared" si="28"/>
+      <c r="I92" s="16">
+        <f t="shared" si="32"/>
         <v>151</v>
       </c>
-      <c r="J92" s="21">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="K92" s="28">
-        <v>0</v>
-      </c>
-      <c r="L92" s="29">
+      <c r="J92" s="16">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="K92" s="26">
+        <v>0</v>
+      </c>
+      <c r="L92" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A93" s="2">
+        <v>43979</v>
+      </c>
+      <c r="B93" s="20">
+        <f t="shared" si="30"/>
+        <v>1942</v>
+      </c>
+      <c r="C93" s="14">
+        <v>1</v>
+      </c>
+      <c r="D93" s="14">
+        <v>0</v>
+      </c>
+      <c r="E93" s="30">
+        <v>3</v>
+      </c>
+      <c r="F93" s="31">
+        <v>3</v>
+      </c>
+      <c r="G93" s="25">
+        <v>20</v>
+      </c>
+      <c r="H93" s="18">
+        <f t="shared" si="31"/>
+        <v>23</v>
+      </c>
+      <c r="I93" s="21">
+        <f t="shared" si="32"/>
+        <v>151</v>
+      </c>
+      <c r="J93" s="21">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="K93" s="28">
+        <v>0</v>
+      </c>
+      <c r="L93" s="29">
         <v>0</v>
       </c>
     </row>

--- a/Chiffres  COVID-19 Valais.xlsx
+++ b/Chiffres  COVID-19 Valais.xlsx
@@ -96,7 +96,7 @@
     <t>Nb nouveaux décès extra-hospitaliers</t>
   </si>
   <si>
-    <t>Données COVID-19 Valais 28.05.2020</t>
+    <t>Données COVID-19 Valais 29.05.2020</t>
   </si>
 </sst>
 </file>
@@ -675,10 +675,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O93"/>
+  <dimension ref="A1:O94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="D82" sqref="D82"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1147,11 +1147,11 @@
         <v>1</v>
       </c>
       <c r="G12" s="24">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H12" s="17">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I12" s="16">
         <f t="shared" si="3"/>
@@ -1189,11 +1189,11 @@
         <v>1</v>
       </c>
       <c r="G13" s="24">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H13" s="17">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I13" s="16">
         <f t="shared" si="3"/>
@@ -1231,11 +1231,11 @@
         <v>1</v>
       </c>
       <c r="G14" s="24">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H14" s="17">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I14" s="16">
         <f t="shared" si="3"/>
@@ -1273,11 +1273,11 @@
         <v>1</v>
       </c>
       <c r="G15" s="24">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H15" s="17">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I15" s="16">
         <f t="shared" si="3"/>
@@ -1315,11 +1315,11 @@
         <v>1</v>
       </c>
       <c r="G16" s="24">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H16" s="17">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I16" s="16">
         <f t="shared" si="3"/>
@@ -1357,11 +1357,11 @@
         <v>1</v>
       </c>
       <c r="G17" s="24">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H17" s="17">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I17" s="16">
         <f t="shared" ref="I17" si="5">I16+J17</f>
@@ -1399,11 +1399,11 @@
         <v>1</v>
       </c>
       <c r="G18" s="24">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H18" s="17">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I18" s="16">
         <f t="shared" ref="I18:I22" si="8">I17+J18</f>
@@ -1441,11 +1441,11 @@
         <v>1</v>
       </c>
       <c r="G19" s="24">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H19" s="17">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I19" s="16">
         <f t="shared" si="8"/>
@@ -1483,11 +1483,11 @@
         <v>1</v>
       </c>
       <c r="G20" s="24">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H20" s="17">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I20" s="16">
         <f t="shared" si="8"/>
@@ -1525,11 +1525,11 @@
         <v>2</v>
       </c>
       <c r="G21" s="24">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H21" s="17">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I21" s="16">
         <f t="shared" si="8"/>
@@ -1567,11 +1567,11 @@
         <v>2</v>
       </c>
       <c r="G22" s="24">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H22" s="17">
         <f t="shared" si="0"/>
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I22" s="16">
         <f t="shared" si="8"/>
@@ -1593,7 +1593,7 @@
         <v>43909</v>
       </c>
       <c r="B23" s="19">
-        <f t="shared" ref="B23:B71" si="10">B22+C23</f>
+        <f t="shared" ref="B23:B66" si="10">B22+C23</f>
         <v>349</v>
       </c>
       <c r="C23" s="13">
@@ -1609,18 +1609,18 @@
         <v>5</v>
       </c>
       <c r="G23" s="24">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="H23" s="17">
-        <f t="shared" ref="H23:H71" si="11">G23+E23</f>
-        <v>64</v>
+        <f t="shared" ref="H23:H66" si="11">G23+E23</f>
+        <v>69</v>
       </c>
       <c r="I23" s="16">
-        <f t="shared" ref="I23:I71" si="12">I22+J23</f>
+        <f t="shared" ref="I23:I66" si="12">I22+J23</f>
         <v>6</v>
       </c>
       <c r="J23" s="16">
-        <f t="shared" ref="J23:J71" si="13">K23+L23</f>
+        <f t="shared" ref="J23:J66" si="13">K23+L23</f>
         <v>2</v>
       </c>
       <c r="K23" s="26">
@@ -1651,11 +1651,11 @@
         <v>5</v>
       </c>
       <c r="G24" s="24">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="H24" s="17">
         <f t="shared" si="11"/>
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I24" s="16">
         <f t="shared" si="12"/>
@@ -1693,11 +1693,11 @@
         <v>6</v>
       </c>
       <c r="G25" s="24">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H25" s="17">
         <f t="shared" si="11"/>
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="I25" s="16">
         <f t="shared" si="12"/>
@@ -1735,11 +1735,11 @@
         <v>7</v>
       </c>
       <c r="G26" s="24">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H26" s="17">
         <f t="shared" si="11"/>
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="I26" s="16">
         <f t="shared" si="12"/>
@@ -1777,11 +1777,11 @@
         <v>9</v>
       </c>
       <c r="G27" s="24">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="H27" s="17">
         <f t="shared" si="11"/>
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="I27" s="16">
         <f t="shared" si="12"/>
@@ -1819,11 +1819,11 @@
         <v>12</v>
       </c>
       <c r="G28" s="24">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="H28" s="17">
         <f t="shared" si="11"/>
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="I28" s="16">
         <f t="shared" si="12"/>
@@ -1861,11 +1861,11 @@
         <v>14</v>
       </c>
       <c r="G29" s="24">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="H29" s="17">
         <f t="shared" si="11"/>
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="I29" s="16">
         <f t="shared" si="12"/>
@@ -1903,11 +1903,11 @@
         <v>17</v>
       </c>
       <c r="G30" s="24">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="H30" s="17">
         <f t="shared" si="11"/>
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="I30" s="16">
         <f t="shared" si="12"/>
@@ -1945,11 +1945,11 @@
         <v>16</v>
       </c>
       <c r="G31" s="24">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="H31" s="17">
         <f t="shared" si="11"/>
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="I31" s="16">
         <f t="shared" si="12"/>
@@ -1987,11 +1987,11 @@
         <v>19</v>
       </c>
       <c r="G32" s="24">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="H32" s="17">
         <f t="shared" si="11"/>
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="I32" s="16">
         <f t="shared" si="12"/>
@@ -2029,11 +2029,11 @@
         <v>21</v>
       </c>
       <c r="G33" s="24">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="H33" s="17">
         <f t="shared" si="11"/>
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="I33" s="16">
         <f t="shared" si="12"/>
@@ -2071,11 +2071,11 @@
         <v>23</v>
       </c>
       <c r="G34" s="24">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="H34" s="17">
         <f t="shared" si="11"/>
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="I34" s="16">
         <f t="shared" si="12"/>
@@ -2113,11 +2113,11 @@
         <v>23</v>
       </c>
       <c r="G35" s="24">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="H35" s="17">
         <f t="shared" si="11"/>
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="I35" s="16">
         <f t="shared" si="12"/>
@@ -2155,11 +2155,11 @@
         <v>25</v>
       </c>
       <c r="G36" s="24">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="H36" s="17">
         <f t="shared" si="11"/>
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="I36" s="16">
         <f t="shared" si="12"/>
@@ -2197,11 +2197,11 @@
         <v>24</v>
       </c>
       <c r="G37" s="24">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="H37" s="17">
         <f t="shared" si="11"/>
-        <v>147</v>
+        <v>175</v>
       </c>
       <c r="I37" s="16">
         <f t="shared" si="12"/>
@@ -2239,11 +2239,11 @@
         <v>23</v>
       </c>
       <c r="G38" s="24">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="H38" s="17">
         <f t="shared" si="11"/>
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="I38" s="16">
         <f t="shared" si="12"/>
@@ -2281,11 +2281,11 @@
         <v>23</v>
       </c>
       <c r="G39" s="24">
-        <v>122</v>
+        <v>150</v>
       </c>
       <c r="H39" s="17">
         <f t="shared" si="11"/>
-        <v>150</v>
+        <v>178</v>
       </c>
       <c r="I39" s="16">
         <f t="shared" si="12"/>
@@ -2323,11 +2323,11 @@
         <v>23</v>
       </c>
       <c r="G40" s="24">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="H40" s="17">
         <f t="shared" si="11"/>
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="I40" s="16">
         <f t="shared" si="12"/>
@@ -2365,11 +2365,11 @@
         <v>22</v>
       </c>
       <c r="G41" s="24">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="H41" s="17">
         <f t="shared" si="11"/>
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="I41" s="16">
         <f t="shared" si="12"/>
@@ -2407,11 +2407,11 @@
         <v>20</v>
       </c>
       <c r="G42" s="24">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="H42" s="17">
         <f t="shared" si="11"/>
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="I42" s="16">
         <f t="shared" si="12"/>
@@ -2449,11 +2449,11 @@
         <v>20</v>
       </c>
       <c r="G43" s="24">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="H43" s="17">
         <f t="shared" si="11"/>
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="I43" s="16">
         <f t="shared" si="12"/>
@@ -2491,11 +2491,11 @@
         <v>19</v>
       </c>
       <c r="G44" s="24">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="H44" s="17">
         <f t="shared" si="11"/>
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="I44" s="16">
         <f t="shared" si="12"/>
@@ -2533,11 +2533,11 @@
         <v>18</v>
       </c>
       <c r="G45" s="24">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="H45" s="17">
         <f t="shared" si="11"/>
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="I45" s="16">
         <f t="shared" si="12"/>
@@ -2575,11 +2575,11 @@
         <v>15</v>
       </c>
       <c r="G46" s="24">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="H46" s="17">
         <f t="shared" si="11"/>
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="I46" s="16">
         <f t="shared" si="12"/>
@@ -2617,11 +2617,11 @@
         <v>14</v>
       </c>
       <c r="G47" s="24">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="H47" s="17">
         <f t="shared" si="11"/>
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="I47" s="16">
         <f t="shared" si="12"/>
@@ -2659,11 +2659,11 @@
         <v>12</v>
       </c>
       <c r="G48" s="24">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="H48" s="17">
         <f t="shared" si="11"/>
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="I48" s="16">
         <f t="shared" si="12"/>
@@ -2701,11 +2701,11 @@
         <v>11</v>
       </c>
       <c r="G49" s="24">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="H49" s="17">
         <f t="shared" si="11"/>
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="I49" s="16">
         <f t="shared" si="12"/>
@@ -2743,11 +2743,11 @@
         <v>12</v>
       </c>
       <c r="G50" s="24">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="H50" s="17">
         <f t="shared" si="11"/>
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="I50" s="16">
         <f t="shared" si="12"/>
@@ -2785,11 +2785,11 @@
         <v>12</v>
       </c>
       <c r="G51" s="24">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="H51" s="17">
         <f t="shared" si="11"/>
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="I51" s="16">
         <f t="shared" si="12"/>
@@ -2827,11 +2827,11 @@
         <v>10</v>
       </c>
       <c r="G52" s="24">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="H52" s="17">
         <f t="shared" si="11"/>
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="I52" s="16">
         <f t="shared" si="12"/>
@@ -2869,11 +2869,11 @@
         <v>10</v>
       </c>
       <c r="G53" s="24">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="H53" s="17">
         <f t="shared" si="11"/>
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="I53" s="16">
         <f t="shared" si="12"/>
@@ -2911,11 +2911,11 @@
         <v>9</v>
       </c>
       <c r="G54" s="24">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="H54" s="17">
         <f t="shared" si="11"/>
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="I54" s="16">
         <f t="shared" si="12"/>
@@ -2953,11 +2953,11 @@
         <v>9</v>
       </c>
       <c r="G55" s="24">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="H55" s="17">
         <f t="shared" si="11"/>
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="I55" s="16">
         <f t="shared" si="12"/>
@@ -2995,11 +2995,11 @@
         <v>10</v>
       </c>
       <c r="G56" s="24">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="H56" s="17">
         <f t="shared" si="11"/>
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="I56" s="16">
         <f t="shared" si="12"/>
@@ -3037,11 +3037,11 @@
         <v>10</v>
       </c>
       <c r="G57" s="24">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="H57" s="17">
         <f t="shared" si="11"/>
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="I57" s="16">
         <f t="shared" si="12"/>
@@ -3079,11 +3079,11 @@
         <v>9</v>
       </c>
       <c r="G58" s="24">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="H58" s="17">
         <f t="shared" si="11"/>
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="I58" s="16">
         <f t="shared" si="12"/>
@@ -3121,11 +3121,11 @@
         <v>9</v>
       </c>
       <c r="G59" s="24">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="H59" s="17">
         <f t="shared" si="11"/>
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="I59" s="16">
         <f t="shared" si="12"/>
@@ -3163,11 +3163,11 @@
         <v>9</v>
       </c>
       <c r="G60" s="24">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="H60" s="17">
         <f t="shared" si="11"/>
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="I60" s="16">
         <f t="shared" si="12"/>
@@ -3205,11 +3205,11 @@
         <v>8</v>
       </c>
       <c r="G61" s="24">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="H61" s="17">
         <f t="shared" si="11"/>
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="I61" s="16">
         <f t="shared" si="12"/>
@@ -3247,11 +3247,11 @@
         <v>9</v>
       </c>
       <c r="G62" s="24">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="H62" s="17">
         <f t="shared" si="11"/>
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="I62" s="16">
         <f t="shared" si="12"/>
@@ -3289,11 +3289,11 @@
         <v>8</v>
       </c>
       <c r="G63" s="24">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="H63" s="17">
         <f t="shared" si="11"/>
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="I63" s="16">
         <f t="shared" si="12"/>
@@ -3331,11 +3331,11 @@
         <v>8</v>
       </c>
       <c r="G64" s="24">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="H64" s="17">
         <f t="shared" si="11"/>
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="I64" s="16">
         <f t="shared" si="12"/>
@@ -3373,11 +3373,11 @@
         <v>8</v>
       </c>
       <c r="G65" s="24">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="H65" s="17">
         <f t="shared" si="11"/>
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="I65" s="16">
         <f t="shared" si="12"/>
@@ -3415,11 +3415,11 @@
         <v>8</v>
       </c>
       <c r="G66" s="24">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="H66" s="17">
         <f t="shared" si="11"/>
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="I66" s="16">
         <f t="shared" si="12"/>
@@ -3441,7 +3441,7 @@
         <v>43953</v>
       </c>
       <c r="B67" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="B67:B93" si="14">B66+C67</f>
         <v>1891</v>
       </c>
       <c r="C67" s="13">
@@ -3457,18 +3457,18 @@
         <v>8</v>
       </c>
       <c r="G67" s="24">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="H67" s="17">
-        <f t="shared" si="11"/>
-        <v>61</v>
+        <f t="shared" ref="H67:H94" si="15">G67+E67</f>
+        <v>71</v>
       </c>
       <c r="I67" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="I67:I94" si="16">I66+J67</f>
         <v>140</v>
       </c>
       <c r="J67" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="J67:J94" si="17">K67+L67</f>
         <v>2</v>
       </c>
       <c r="K67" s="26">
@@ -3483,7 +3483,7 @@
         <v>43954</v>
       </c>
       <c r="B68" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1893</v>
       </c>
       <c r="C68" s="13">
@@ -3499,18 +3499,18 @@
         <v>8</v>
       </c>
       <c r="G68" s="24">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="H68" s="17">
-        <f t="shared" si="11"/>
-        <v>62</v>
+        <f t="shared" si="15"/>
+        <v>72</v>
       </c>
       <c r="I68" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>142</v>
       </c>
       <c r="J68" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="K68" s="26">
@@ -3525,7 +3525,7 @@
         <v>43955</v>
       </c>
       <c r="B69" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1901</v>
       </c>
       <c r="C69" s="13">
@@ -3541,18 +3541,18 @@
         <v>7</v>
       </c>
       <c r="G69" s="24">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="H69" s="17">
-        <f t="shared" si="11"/>
-        <v>57</v>
+        <f t="shared" si="15"/>
+        <v>67</v>
       </c>
       <c r="I69" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>142</v>
       </c>
       <c r="J69" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K69" s="26">
@@ -3567,7 +3567,7 @@
         <v>43956</v>
       </c>
       <c r="B70" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1903</v>
       </c>
       <c r="C70" s="13">
@@ -3583,18 +3583,18 @@
         <v>6</v>
       </c>
       <c r="G70" s="24">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H70" s="17">
-        <f t="shared" si="11"/>
-        <v>53</v>
+        <f t="shared" si="15"/>
+        <v>61</v>
       </c>
       <c r="I70" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>146</v>
       </c>
       <c r="J70" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="K70" s="26">
@@ -3609,11 +3609,11 @@
         <v>43957</v>
       </c>
       <c r="B71" s="19">
-        <f t="shared" si="10"/>
-        <v>1905</v>
+        <f t="shared" si="14"/>
+        <v>1906</v>
       </c>
       <c r="C71" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" s="13">
         <v>0</v>
@@ -3625,18 +3625,18 @@
         <v>5</v>
       </c>
       <c r="G71" s="24">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="H71" s="17">
-        <f t="shared" si="11"/>
-        <v>50</v>
+        <f t="shared" si="15"/>
+        <v>58</v>
       </c>
       <c r="I71" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>146</v>
       </c>
       <c r="J71" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K71" s="26">
@@ -3651,8 +3651,8 @@
         <v>43958</v>
       </c>
       <c r="B72" s="19">
-        <f t="shared" ref="B72:B76" si="14">B71+C72</f>
-        <v>1907</v>
+        <f t="shared" si="14"/>
+        <v>1908</v>
       </c>
       <c r="C72" s="13">
         <v>2</v>
@@ -3667,18 +3667,18 @@
         <v>5</v>
       </c>
       <c r="G72" s="24">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H72" s="17">
-        <f t="shared" ref="H72:H76" si="15">G72+E72</f>
-        <v>45</v>
+        <f t="shared" si="15"/>
+        <v>53</v>
       </c>
       <c r="I72" s="16">
-        <f t="shared" ref="I72:I76" si="16">I71+J72</f>
+        <f t="shared" si="16"/>
         <v>146</v>
       </c>
       <c r="J72" s="16">
-        <f t="shared" ref="J72:J76" si="17">K72+L72</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K72" s="26">
@@ -3694,7 +3694,7 @@
       </c>
       <c r="B73" s="19">
         <f t="shared" si="14"/>
-        <v>1910</v>
+        <v>1911</v>
       </c>
       <c r="C73" s="13">
         <v>3</v>
@@ -3709,11 +3709,11 @@
         <v>5</v>
       </c>
       <c r="G73" s="24">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H73" s="17">
         <f t="shared" si="15"/>
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I73" s="16">
         <f t="shared" si="16"/>
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B74" s="19">
         <f t="shared" si="14"/>
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="C74" s="13">
         <v>1</v>
@@ -3751,11 +3751,11 @@
         <v>6</v>
       </c>
       <c r="G74" s="24">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H74" s="17">
         <f t="shared" si="15"/>
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="I74" s="16">
         <f t="shared" si="16"/>
@@ -3778,7 +3778,7 @@
       </c>
       <c r="B75" s="19">
         <f t="shared" si="14"/>
-        <v>1912</v>
+        <v>1913</v>
       </c>
       <c r="C75" s="13">
         <v>1</v>
@@ -3793,11 +3793,11 @@
         <v>6</v>
       </c>
       <c r="G75" s="24">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H75" s="17">
         <f t="shared" si="15"/>
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I75" s="16">
         <f t="shared" si="16"/>
@@ -3820,7 +3820,7 @@
       </c>
       <c r="B76" s="19">
         <f t="shared" si="14"/>
-        <v>1916</v>
+        <v>1917</v>
       </c>
       <c r="C76" s="13">
         <v>4</v>
@@ -3835,11 +3835,11 @@
         <v>6</v>
       </c>
       <c r="G76" s="24">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H76" s="17">
         <f t="shared" si="15"/>
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I76" s="16">
         <f t="shared" si="16"/>
@@ -3861,8 +3861,8 @@
         <v>43963</v>
       </c>
       <c r="B77" s="19">
-        <f t="shared" ref="B77:B78" si="18">B76+C77</f>
-        <v>1916</v>
+        <f t="shared" si="14"/>
+        <v>1917</v>
       </c>
       <c r="C77" s="13">
         <v>0</v>
@@ -3877,18 +3877,18 @@
         <v>6</v>
       </c>
       <c r="G77" s="24">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H77" s="17">
-        <f t="shared" ref="H77:H78" si="19">G77+E77</f>
-        <v>40</v>
+        <f t="shared" si="15"/>
+        <v>47</v>
       </c>
       <c r="I77" s="16">
-        <f t="shared" ref="I77:I78" si="20">I76+J77</f>
+        <f t="shared" si="16"/>
         <v>149</v>
       </c>
       <c r="J77" s="16">
-        <f t="shared" ref="J77:J78" si="21">K77+L77</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K77" s="26">
@@ -3903,8 +3903,8 @@
         <v>43964</v>
       </c>
       <c r="B78" s="19">
-        <f t="shared" si="18"/>
-        <v>1917</v>
+        <f t="shared" si="14"/>
+        <v>1918</v>
       </c>
       <c r="C78" s="13">
         <v>1</v>
@@ -3919,18 +3919,18 @@
         <v>5</v>
       </c>
       <c r="G78" s="24">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H78" s="17">
-        <f t="shared" si="19"/>
-        <v>37</v>
+        <f t="shared" si="15"/>
+        <v>44</v>
       </c>
       <c r="I78" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>149</v>
       </c>
       <c r="J78" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K78" s="26">
@@ -3945,8 +3945,8 @@
         <v>43965</v>
       </c>
       <c r="B79" s="19">
-        <f t="shared" ref="B79:B88" si="22">B78+C79</f>
-        <v>1919</v>
+        <f t="shared" si="14"/>
+        <v>1920</v>
       </c>
       <c r="C79" s="13">
         <v>2</v>
@@ -3961,18 +3961,18 @@
         <v>5</v>
       </c>
       <c r="G79" s="24">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H79" s="17">
-        <f t="shared" ref="H79:H88" si="23">G79+E79</f>
-        <v>35</v>
+        <f t="shared" si="15"/>
+        <v>42</v>
       </c>
       <c r="I79" s="16">
-        <f t="shared" ref="I79:I88" si="24">I78+J79</f>
+        <f t="shared" si="16"/>
         <v>149</v>
       </c>
       <c r="J79" s="16">
-        <f t="shared" ref="J79:J88" si="25">K79+L79</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K79" s="26">
@@ -3987,8 +3987,8 @@
         <v>43966</v>
       </c>
       <c r="B80" s="19">
-        <f t="shared" si="22"/>
-        <v>1928</v>
+        <f t="shared" si="14"/>
+        <v>1929</v>
       </c>
       <c r="C80" s="13">
         <v>9</v>
@@ -4003,18 +4003,18 @@
         <v>5</v>
       </c>
       <c r="G80" s="24">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H80" s="17">
-        <f t="shared" si="23"/>
-        <v>32</v>
+        <f t="shared" si="15"/>
+        <v>39</v>
       </c>
       <c r="I80" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>149</v>
       </c>
       <c r="J80" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K80" s="26">
@@ -4029,8 +4029,8 @@
         <v>43967</v>
       </c>
       <c r="B81" s="19">
-        <f t="shared" si="22"/>
-        <v>1931</v>
+        <f t="shared" si="14"/>
+        <v>1932</v>
       </c>
       <c r="C81" s="13">
         <v>3</v>
@@ -4045,18 +4045,18 @@
         <v>5</v>
       </c>
       <c r="G81" s="24">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H81" s="17">
-        <f t="shared" si="23"/>
-        <v>32</v>
+        <f t="shared" si="15"/>
+        <v>39</v>
       </c>
       <c r="I81" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>149</v>
       </c>
       <c r="J81" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K81" s="26">
@@ -4071,8 +4071,8 @@
         <v>43968</v>
       </c>
       <c r="B82" s="19">
-        <f t="shared" si="22"/>
-        <v>1931</v>
+        <f t="shared" si="14"/>
+        <v>1932</v>
       </c>
       <c r="C82" s="13">
         <v>0</v>
@@ -4087,18 +4087,18 @@
         <v>5</v>
       </c>
       <c r="G82" s="24">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H82" s="17">
-        <f t="shared" si="23"/>
-        <v>32</v>
+        <f t="shared" si="15"/>
+        <v>39</v>
       </c>
       <c r="I82" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>149</v>
       </c>
       <c r="J82" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K82" s="26">
@@ -4113,8 +4113,8 @@
         <v>43969</v>
       </c>
       <c r="B83" s="19">
-        <f t="shared" si="22"/>
-        <v>1932</v>
+        <f t="shared" si="14"/>
+        <v>1933</v>
       </c>
       <c r="C83" s="13">
         <v>1</v>
@@ -4129,18 +4129,18 @@
         <v>4</v>
       </c>
       <c r="G83" s="24">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H83" s="17">
-        <f t="shared" si="23"/>
-        <v>30</v>
+        <f t="shared" si="15"/>
+        <v>36</v>
       </c>
       <c r="I83" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>151</v>
       </c>
       <c r="J83" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="K83" s="26">
@@ -4155,8 +4155,8 @@
         <v>43970</v>
       </c>
       <c r="B84" s="19">
-        <f t="shared" si="22"/>
-        <v>1933</v>
+        <f t="shared" si="14"/>
+        <v>1934</v>
       </c>
       <c r="C84" s="13">
         <v>1</v>
@@ -4171,18 +4171,18 @@
         <v>4</v>
       </c>
       <c r="G84" s="24">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="H84" s="17">
-        <f t="shared" si="23"/>
-        <v>28</v>
+        <f t="shared" si="15"/>
+        <v>34</v>
       </c>
       <c r="I84" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>151</v>
       </c>
       <c r="J84" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K84" s="26">
@@ -4197,8 +4197,8 @@
         <v>43971</v>
       </c>
       <c r="B85" s="19">
-        <f t="shared" si="22"/>
-        <v>1933</v>
+        <f t="shared" si="14"/>
+        <v>1934</v>
       </c>
       <c r="C85" s="13">
         <v>0</v>
@@ -4213,18 +4213,18 @@
         <v>4</v>
       </c>
       <c r="G85" s="24">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H85" s="17">
-        <f t="shared" si="23"/>
-        <v>26</v>
+        <f t="shared" si="15"/>
+        <v>31</v>
       </c>
       <c r="I85" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>151</v>
       </c>
       <c r="J85" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K85" s="26">
@@ -4239,8 +4239,8 @@
         <v>43972</v>
       </c>
       <c r="B86" s="19">
-        <f t="shared" si="22"/>
-        <v>1934</v>
+        <f t="shared" si="14"/>
+        <v>1935</v>
       </c>
       <c r="C86" s="13">
         <v>1</v>
@@ -4255,18 +4255,18 @@
         <v>4</v>
       </c>
       <c r="G86" s="24">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H86" s="17">
-        <f t="shared" si="23"/>
-        <v>26</v>
+        <f t="shared" si="15"/>
+        <v>31</v>
       </c>
       <c r="I86" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>151</v>
       </c>
       <c r="J86" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K86" s="26">
@@ -4281,8 +4281,8 @@
         <v>43973</v>
       </c>
       <c r="B87" s="19">
-        <f t="shared" si="22"/>
-        <v>1934</v>
+        <f t="shared" si="14"/>
+        <v>1935</v>
       </c>
       <c r="C87" s="13">
         <v>0</v>
@@ -4297,18 +4297,18 @@
         <v>3</v>
       </c>
       <c r="G87" s="24">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H87" s="17">
-        <f t="shared" si="23"/>
-        <v>25</v>
+        <f t="shared" si="15"/>
+        <v>29</v>
       </c>
       <c r="I87" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>151</v>
       </c>
       <c r="J87" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K87" s="26">
@@ -4323,8 +4323,8 @@
         <v>43974</v>
       </c>
       <c r="B88" s="19">
-        <f t="shared" si="22"/>
-        <v>1934</v>
+        <f t="shared" si="14"/>
+        <v>1935</v>
       </c>
       <c r="C88" s="13">
         <v>0</v>
@@ -4339,18 +4339,18 @@
         <v>3</v>
       </c>
       <c r="G88" s="24">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H88" s="17">
-        <f t="shared" si="23"/>
-        <v>25</v>
+        <f t="shared" si="15"/>
+        <v>29</v>
       </c>
       <c r="I88" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>151</v>
       </c>
       <c r="J88" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K88" s="26">
@@ -4365,8 +4365,8 @@
         <v>43975</v>
       </c>
       <c r="B89" s="19">
-        <f t="shared" ref="B89" si="26">B88+C89</f>
-        <v>1935</v>
+        <f t="shared" si="14"/>
+        <v>1936</v>
       </c>
       <c r="C89" s="13">
         <v>1</v>
@@ -4381,18 +4381,18 @@
         <v>3</v>
       </c>
       <c r="G89" s="24">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H89" s="17">
-        <f t="shared" ref="H89" si="27">G89+E89</f>
-        <v>25</v>
+        <f t="shared" si="15"/>
+        <v>29</v>
       </c>
       <c r="I89" s="16">
-        <f t="shared" ref="I89" si="28">I88+J89</f>
+        <f t="shared" si="16"/>
         <v>151</v>
       </c>
       <c r="J89" s="16">
-        <f t="shared" ref="J89" si="29">K89+L89</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K89" s="26">
@@ -4407,8 +4407,8 @@
         <v>43976</v>
       </c>
       <c r="B90" s="19">
-        <f t="shared" ref="B90:B93" si="30">B89+C90</f>
-        <v>1937</v>
+        <f t="shared" si="14"/>
+        <v>1938</v>
       </c>
       <c r="C90" s="13">
         <v>2</v>
@@ -4423,18 +4423,18 @@
         <v>3</v>
       </c>
       <c r="G90" s="24">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H90" s="17">
-        <f t="shared" ref="H90:H93" si="31">G90+E90</f>
-        <v>24</v>
+        <f t="shared" si="15"/>
+        <v>28</v>
       </c>
       <c r="I90" s="16">
-        <f t="shared" ref="I90:I93" si="32">I89+J90</f>
+        <f t="shared" si="16"/>
         <v>151</v>
       </c>
       <c r="J90" s="16">
-        <f t="shared" ref="J90:J93" si="33">K90+L90</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K90" s="26">
@@ -4449,8 +4449,8 @@
         <v>43977</v>
       </c>
       <c r="B91" s="19">
-        <f t="shared" si="30"/>
-        <v>1940</v>
+        <f t="shared" si="14"/>
+        <v>1941</v>
       </c>
       <c r="C91" s="13">
         <v>3</v>
@@ -4465,18 +4465,18 @@
         <v>3</v>
       </c>
       <c r="G91" s="24">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H91" s="17">
-        <f t="shared" si="31"/>
-        <v>23</v>
+        <f t="shared" si="15"/>
+        <v>26</v>
       </c>
       <c r="I91" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="16"/>
         <v>151</v>
       </c>
       <c r="J91" s="16">
-        <f t="shared" si="33"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K91" s="26">
@@ -4491,8 +4491,8 @@
         <v>43978</v>
       </c>
       <c r="B92" s="19">
-        <f t="shared" si="30"/>
-        <v>1941</v>
+        <f t="shared" si="14"/>
+        <v>1942</v>
       </c>
       <c r="C92" s="13">
         <v>1</v>
@@ -4507,18 +4507,18 @@
         <v>3</v>
       </c>
       <c r="G92" s="24">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H92" s="17">
-        <f t="shared" si="31"/>
-        <v>23</v>
+        <f t="shared" si="15"/>
+        <v>25</v>
       </c>
       <c r="I92" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="16"/>
         <v>151</v>
       </c>
       <c r="J92" s="16">
-        <f t="shared" si="33"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K92" s="26">
@@ -4529,44 +4529,81 @@
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A93" s="2">
+      <c r="A93" s="1">
         <v>43979</v>
       </c>
-      <c r="B93" s="20">
-        <f t="shared" si="30"/>
-        <v>1942</v>
-      </c>
-      <c r="C93" s="14">
-        <v>1</v>
-      </c>
-      <c r="D93" s="14">
-        <v>0</v>
-      </c>
-      <c r="E93" s="30">
+      <c r="B93" s="19">
+        <f t="shared" si="14"/>
+        <v>1943</v>
+      </c>
+      <c r="C93" s="13">
+        <v>1</v>
+      </c>
+      <c r="D93" s="13">
+        <v>0</v>
+      </c>
+      <c r="E93" s="4">
         <v>3</v>
       </c>
-      <c r="F93" s="31">
+      <c r="F93" s="3">
         <v>3</v>
       </c>
-      <c r="G93" s="25">
-        <v>20</v>
-      </c>
-      <c r="H93" s="18">
-        <f t="shared" si="31"/>
-        <v>23</v>
-      </c>
-      <c r="I93" s="21">
-        <f t="shared" si="32"/>
+      <c r="G93" s="24">
+        <v>21</v>
+      </c>
+      <c r="H93" s="17">
+        <f t="shared" si="15"/>
+        <v>24</v>
+      </c>
+      <c r="I93" s="16">
+        <f t="shared" si="16"/>
         <v>151</v>
       </c>
-      <c r="J93" s="21">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="K93" s="28">
-        <v>0</v>
-      </c>
-      <c r="L93" s="29">
+      <c r="J93" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="K93" s="26">
+        <v>0</v>
+      </c>
+      <c r="L93" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A94" s="2">
+        <v>43980</v>
+      </c>
+      <c r="B94" s="20"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14">
+        <v>0</v>
+      </c>
+      <c r="E94" s="30">
+        <v>3</v>
+      </c>
+      <c r="F94" s="31">
+        <v>3</v>
+      </c>
+      <c r="G94" s="25">
+        <v>21</v>
+      </c>
+      <c r="H94" s="18">
+        <f t="shared" si="15"/>
+        <v>24</v>
+      </c>
+      <c r="I94" s="21">
+        <f t="shared" si="16"/>
+        <v>151</v>
+      </c>
+      <c r="J94" s="21">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="K94" s="28">
+        <v>0</v>
+      </c>
+      <c r="L94" s="29">
         <v>0</v>
       </c>
     </row>

--- a/Chiffres  COVID-19 Valais.xlsx
+++ b/Chiffres  COVID-19 Valais.xlsx
@@ -96,7 +96,7 @@
     <t>Nb nouveaux décès extra-hospitaliers</t>
   </si>
   <si>
-    <t>Données COVID-19 Valais 29.05.2020</t>
+    <t>Données COVID-19 Valais 02.06.2020</t>
   </si>
 </sst>
 </file>
@@ -675,10 +675,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O94"/>
+  <dimension ref="A1:O98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D94"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1147,11 +1147,11 @@
         <v>1</v>
       </c>
       <c r="G12" s="24">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H12" s="17">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I12" s="16">
         <f t="shared" si="3"/>
@@ -1189,11 +1189,11 @@
         <v>1</v>
       </c>
       <c r="G13" s="24">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H13" s="17">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I13" s="16">
         <f t="shared" si="3"/>
@@ -1231,11 +1231,11 @@
         <v>1</v>
       </c>
       <c r="G14" s="24">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H14" s="17">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I14" s="16">
         <f t="shared" si="3"/>
@@ -1273,11 +1273,11 @@
         <v>1</v>
       </c>
       <c r="G15" s="24">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H15" s="17">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I15" s="16">
         <f t="shared" si="3"/>
@@ -1315,11 +1315,11 @@
         <v>1</v>
       </c>
       <c r="G16" s="24">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H16" s="17">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I16" s="16">
         <f t="shared" si="3"/>
@@ -1357,11 +1357,11 @@
         <v>1</v>
       </c>
       <c r="G17" s="24">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H17" s="17">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I17" s="16">
         <f t="shared" ref="I17" si="5">I16+J17</f>
@@ -1399,11 +1399,11 @@
         <v>1</v>
       </c>
       <c r="G18" s="24">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H18" s="17">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I18" s="16">
         <f t="shared" ref="I18:I22" si="8">I17+J18</f>
@@ -1441,11 +1441,11 @@
         <v>1</v>
       </c>
       <c r="G19" s="24">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H19" s="17">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I19" s="16">
         <f t="shared" si="8"/>
@@ -1483,11 +1483,11 @@
         <v>1</v>
       </c>
       <c r="G20" s="24">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H20" s="17">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I20" s="16">
         <f t="shared" si="8"/>
@@ -1525,11 +1525,11 @@
         <v>2</v>
       </c>
       <c r="G21" s="24">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H21" s="17">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I21" s="16">
         <f t="shared" si="8"/>
@@ -1567,11 +1567,11 @@
         <v>2</v>
       </c>
       <c r="G22" s="24">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H22" s="17">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I22" s="16">
         <f t="shared" si="8"/>
@@ -1609,11 +1609,11 @@
         <v>5</v>
       </c>
       <c r="G23" s="24">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H23" s="17">
         <f t="shared" ref="H23:H66" si="11">G23+E23</f>
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="I23" s="16">
         <f t="shared" ref="I23:I66" si="12">I22+J23</f>
@@ -1651,11 +1651,11 @@
         <v>5</v>
       </c>
       <c r="G24" s="24">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="H24" s="17">
         <f t="shared" si="11"/>
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I24" s="16">
         <f t="shared" si="12"/>
@@ -1693,11 +1693,11 @@
         <v>6</v>
       </c>
       <c r="G25" s="24">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H25" s="17">
         <f t="shared" si="11"/>
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="I25" s="16">
         <f t="shared" si="12"/>
@@ -1735,11 +1735,11 @@
         <v>7</v>
       </c>
       <c r="G26" s="24">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H26" s="17">
         <f t="shared" si="11"/>
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="I26" s="16">
         <f t="shared" si="12"/>
@@ -1777,11 +1777,11 @@
         <v>9</v>
       </c>
       <c r="G27" s="24">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="H27" s="17">
         <f t="shared" si="11"/>
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="I27" s="16">
         <f t="shared" si="12"/>
@@ -1819,11 +1819,11 @@
         <v>12</v>
       </c>
       <c r="G28" s="24">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="H28" s="17">
         <f t="shared" si="11"/>
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="I28" s="16">
         <f t="shared" si="12"/>
@@ -1861,11 +1861,11 @@
         <v>14</v>
       </c>
       <c r="G29" s="24">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="H29" s="17">
         <f t="shared" si="11"/>
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="I29" s="16">
         <f t="shared" si="12"/>
@@ -1903,11 +1903,11 @@
         <v>17</v>
       </c>
       <c r="G30" s="24">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="H30" s="17">
         <f t="shared" si="11"/>
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="I30" s="16">
         <f t="shared" si="12"/>
@@ -1945,11 +1945,11 @@
         <v>16</v>
       </c>
       <c r="G31" s="24">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="H31" s="17">
         <f t="shared" si="11"/>
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="I31" s="16">
         <f t="shared" si="12"/>
@@ -1987,11 +1987,11 @@
         <v>19</v>
       </c>
       <c r="G32" s="24">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="H32" s="17">
         <f t="shared" si="11"/>
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="I32" s="16">
         <f t="shared" si="12"/>
@@ -2029,11 +2029,11 @@
         <v>21</v>
       </c>
       <c r="G33" s="24">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="H33" s="17">
         <f t="shared" si="11"/>
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="I33" s="16">
         <f t="shared" si="12"/>
@@ -2071,11 +2071,11 @@
         <v>23</v>
       </c>
       <c r="G34" s="24">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="H34" s="17">
         <f t="shared" si="11"/>
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="I34" s="16">
         <f t="shared" si="12"/>
@@ -2113,11 +2113,11 @@
         <v>23</v>
       </c>
       <c r="G35" s="24">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="H35" s="17">
         <f t="shared" si="11"/>
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="I35" s="16">
         <f t="shared" si="12"/>
@@ -2155,11 +2155,11 @@
         <v>25</v>
       </c>
       <c r="G36" s="24">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="H36" s="17">
         <f t="shared" si="11"/>
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="I36" s="16">
         <f t="shared" si="12"/>
@@ -2197,11 +2197,11 @@
         <v>24</v>
       </c>
       <c r="G37" s="24">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="H37" s="17">
         <f t="shared" si="11"/>
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="I37" s="16">
         <f t="shared" si="12"/>
@@ -2239,11 +2239,11 @@
         <v>23</v>
       </c>
       <c r="G38" s="24">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="H38" s="17">
         <f t="shared" si="11"/>
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="I38" s="16">
         <f t="shared" si="12"/>
@@ -2281,11 +2281,11 @@
         <v>23</v>
       </c>
       <c r="G39" s="24">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="H39" s="17">
         <f t="shared" si="11"/>
-        <v>178</v>
+        <v>150</v>
       </c>
       <c r="I39" s="16">
         <f t="shared" si="12"/>
@@ -2323,11 +2323,11 @@
         <v>23</v>
       </c>
       <c r="G40" s="24">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="H40" s="17">
         <f t="shared" si="11"/>
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="I40" s="16">
         <f t="shared" si="12"/>
@@ -2365,11 +2365,11 @@
         <v>22</v>
       </c>
       <c r="G41" s="24">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="H41" s="17">
         <f t="shared" si="11"/>
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="I41" s="16">
         <f t="shared" si="12"/>
@@ -2407,11 +2407,11 @@
         <v>20</v>
       </c>
       <c r="G42" s="24">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="H42" s="17">
         <f t="shared" si="11"/>
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="I42" s="16">
         <f t="shared" si="12"/>
@@ -2449,11 +2449,11 @@
         <v>20</v>
       </c>
       <c r="G43" s="24">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="H43" s="17">
         <f t="shared" si="11"/>
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="I43" s="16">
         <f t="shared" si="12"/>
@@ -2491,11 +2491,11 @@
         <v>19</v>
       </c>
       <c r="G44" s="24">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="H44" s="17">
         <f t="shared" si="11"/>
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="I44" s="16">
         <f t="shared" si="12"/>
@@ -2533,11 +2533,11 @@
         <v>18</v>
       </c>
       <c r="G45" s="24">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="H45" s="17">
         <f t="shared" si="11"/>
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="I45" s="16">
         <f t="shared" si="12"/>
@@ -2575,11 +2575,11 @@
         <v>15</v>
       </c>
       <c r="G46" s="24">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="H46" s="17">
         <f t="shared" si="11"/>
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="I46" s="16">
         <f t="shared" si="12"/>
@@ -2617,11 +2617,11 @@
         <v>14</v>
       </c>
       <c r="G47" s="24">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="H47" s="17">
         <f t="shared" si="11"/>
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="I47" s="16">
         <f t="shared" si="12"/>
@@ -2659,11 +2659,11 @@
         <v>12</v>
       </c>
       <c r="G48" s="24">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="H48" s="17">
         <f t="shared" si="11"/>
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="I48" s="16">
         <f t="shared" si="12"/>
@@ -2701,11 +2701,11 @@
         <v>11</v>
       </c>
       <c r="G49" s="24">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="H49" s="17">
         <f t="shared" si="11"/>
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="I49" s="16">
         <f t="shared" si="12"/>
@@ -2743,11 +2743,11 @@
         <v>12</v>
       </c>
       <c r="G50" s="24">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="H50" s="17">
         <f t="shared" si="11"/>
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="I50" s="16">
         <f t="shared" si="12"/>
@@ -2785,11 +2785,11 @@
         <v>12</v>
       </c>
       <c r="G51" s="24">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="H51" s="17">
         <f t="shared" si="11"/>
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="I51" s="16">
         <f t="shared" si="12"/>
@@ -2827,11 +2827,11 @@
         <v>10</v>
       </c>
       <c r="G52" s="24">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="H52" s="17">
         <f t="shared" si="11"/>
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="I52" s="16">
         <f t="shared" si="12"/>
@@ -2869,11 +2869,11 @@
         <v>10</v>
       </c>
       <c r="G53" s="24">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="H53" s="17">
         <f t="shared" si="11"/>
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="I53" s="16">
         <f t="shared" si="12"/>
@@ -2911,11 +2911,11 @@
         <v>9</v>
       </c>
       <c r="G54" s="24">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="H54" s="17">
         <f t="shared" si="11"/>
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="I54" s="16">
         <f t="shared" si="12"/>
@@ -2953,11 +2953,11 @@
         <v>9</v>
       </c>
       <c r="G55" s="24">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="H55" s="17">
         <f t="shared" si="11"/>
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="I55" s="16">
         <f t="shared" si="12"/>
@@ -2995,11 +2995,11 @@
         <v>10</v>
       </c>
       <c r="G56" s="24">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="H56" s="17">
         <f t="shared" si="11"/>
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="I56" s="16">
         <f t="shared" si="12"/>
@@ -3037,11 +3037,11 @@
         <v>10</v>
       </c>
       <c r="G57" s="24">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="H57" s="17">
         <f t="shared" si="11"/>
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="I57" s="16">
         <f t="shared" si="12"/>
@@ -3079,11 +3079,11 @@
         <v>9</v>
       </c>
       <c r="G58" s="24">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H58" s="17">
         <f t="shared" si="11"/>
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="I58" s="16">
         <f t="shared" si="12"/>
@@ -3121,11 +3121,11 @@
         <v>9</v>
       </c>
       <c r="G59" s="24">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="H59" s="17">
         <f t="shared" si="11"/>
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="I59" s="16">
         <f t="shared" si="12"/>
@@ -3163,11 +3163,11 @@
         <v>9</v>
       </c>
       <c r="G60" s="24">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="H60" s="17">
         <f t="shared" si="11"/>
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="I60" s="16">
         <f t="shared" si="12"/>
@@ -3205,11 +3205,11 @@
         <v>8</v>
       </c>
       <c r="G61" s="24">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="H61" s="17">
         <f t="shared" si="11"/>
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="I61" s="16">
         <f t="shared" si="12"/>
@@ -3247,11 +3247,11 @@
         <v>9</v>
       </c>
       <c r="G62" s="24">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="H62" s="17">
         <f t="shared" si="11"/>
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="I62" s="16">
         <f t="shared" si="12"/>
@@ -3289,11 +3289,11 @@
         <v>8</v>
       </c>
       <c r="G63" s="24">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="H63" s="17">
         <f t="shared" si="11"/>
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="I63" s="16">
         <f t="shared" si="12"/>
@@ -3331,11 +3331,11 @@
         <v>8</v>
       </c>
       <c r="G64" s="24">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="H64" s="17">
         <f t="shared" si="11"/>
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="I64" s="16">
         <f t="shared" si="12"/>
@@ -3373,11 +3373,11 @@
         <v>8</v>
       </c>
       <c r="G65" s="24">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="H65" s="17">
         <f t="shared" si="11"/>
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="I65" s="16">
         <f t="shared" si="12"/>
@@ -3415,11 +3415,11 @@
         <v>8</v>
       </c>
       <c r="G66" s="24">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="H66" s="17">
         <f t="shared" si="11"/>
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="I66" s="16">
         <f t="shared" si="12"/>
@@ -3441,7 +3441,7 @@
         <v>43953</v>
       </c>
       <c r="B67" s="19">
-        <f t="shared" ref="B67:B93" si="14">B66+C67</f>
+        <f t="shared" ref="B67:B92" si="14">B66+C67</f>
         <v>1891</v>
       </c>
       <c r="C67" s="13">
@@ -3457,18 +3457,18 @@
         <v>8</v>
       </c>
       <c r="G67" s="24">
+        <v>51</v>
+      </c>
+      <c r="H67" s="17">
+        <f t="shared" ref="H67:H92" si="15">G67+E67</f>
         <v>61</v>
       </c>
-      <c r="H67" s="17">
-        <f t="shared" ref="H67:H94" si="15">G67+E67</f>
-        <v>71</v>
-      </c>
       <c r="I67" s="16">
-        <f t="shared" ref="I67:I94" si="16">I66+J67</f>
+        <f t="shared" ref="I67:I92" si="16">I66+J67</f>
         <v>140</v>
       </c>
       <c r="J67" s="16">
-        <f t="shared" ref="J67:J94" si="17">K67+L67</f>
+        <f t="shared" ref="J67:J92" si="17">K67+L67</f>
         <v>2</v>
       </c>
       <c r="K67" s="26">
@@ -3499,11 +3499,11 @@
         <v>8</v>
       </c>
       <c r="G68" s="24">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="H68" s="17">
         <f t="shared" si="15"/>
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="I68" s="16">
         <f t="shared" si="16"/>
@@ -3541,11 +3541,11 @@
         <v>7</v>
       </c>
       <c r="G69" s="24">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="H69" s="17">
         <f t="shared" si="15"/>
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="I69" s="16">
         <f t="shared" si="16"/>
@@ -3583,11 +3583,11 @@
         <v>6</v>
       </c>
       <c r="G70" s="24">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H70" s="17">
         <f t="shared" si="15"/>
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="I70" s="16">
         <f t="shared" si="16"/>
@@ -3625,11 +3625,11 @@
         <v>5</v>
       </c>
       <c r="G71" s="24">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="H71" s="17">
         <f t="shared" si="15"/>
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="I71" s="16">
         <f t="shared" si="16"/>
@@ -3667,11 +3667,11 @@
         <v>5</v>
       </c>
       <c r="G72" s="24">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H72" s="17">
         <f t="shared" si="15"/>
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I72" s="16">
         <f t="shared" si="16"/>
@@ -3709,11 +3709,11 @@
         <v>5</v>
       </c>
       <c r="G73" s="24">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H73" s="17">
         <f t="shared" si="15"/>
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I73" s="16">
         <f t="shared" si="16"/>
@@ -3751,11 +3751,11 @@
         <v>6</v>
       </c>
       <c r="G74" s="24">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H74" s="17">
         <f t="shared" si="15"/>
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I74" s="16">
         <f t="shared" si="16"/>
@@ -3793,11 +3793,11 @@
         <v>6</v>
       </c>
       <c r="G75" s="24">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H75" s="17">
         <f t="shared" si="15"/>
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="I75" s="16">
         <f t="shared" si="16"/>
@@ -3835,11 +3835,11 @@
         <v>6</v>
       </c>
       <c r="G76" s="24">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H76" s="17">
         <f t="shared" si="15"/>
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="I76" s="16">
         <f t="shared" si="16"/>
@@ -3877,11 +3877,11 @@
         <v>6</v>
       </c>
       <c r="G77" s="24">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H77" s="17">
         <f t="shared" si="15"/>
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="I77" s="16">
         <f t="shared" si="16"/>
@@ -3919,11 +3919,11 @@
         <v>5</v>
       </c>
       <c r="G78" s="24">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H78" s="17">
         <f t="shared" si="15"/>
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="I78" s="16">
         <f t="shared" si="16"/>
@@ -3961,11 +3961,11 @@
         <v>5</v>
       </c>
       <c r="G79" s="24">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="H79" s="17">
         <f t="shared" si="15"/>
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I79" s="16">
         <f t="shared" si="16"/>
@@ -4003,11 +4003,11 @@
         <v>5</v>
       </c>
       <c r="G80" s="24">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H80" s="17">
         <f t="shared" si="15"/>
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="I80" s="16">
         <f t="shared" si="16"/>
@@ -4045,11 +4045,11 @@
         <v>5</v>
       </c>
       <c r="G81" s="24">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H81" s="17">
         <f t="shared" si="15"/>
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="I81" s="16">
         <f t="shared" si="16"/>
@@ -4087,11 +4087,11 @@
         <v>5</v>
       </c>
       <c r="G82" s="24">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H82" s="17">
         <f t="shared" si="15"/>
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="I82" s="16">
         <f t="shared" si="16"/>
@@ -4129,11 +4129,11 @@
         <v>4</v>
       </c>
       <c r="G83" s="24">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H83" s="17">
         <f t="shared" si="15"/>
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I83" s="16">
         <f t="shared" si="16"/>
@@ -4171,11 +4171,11 @@
         <v>4</v>
       </c>
       <c r="G84" s="24">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H84" s="17">
         <f t="shared" si="15"/>
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I84" s="16">
         <f t="shared" si="16"/>
@@ -4213,11 +4213,11 @@
         <v>4</v>
       </c>
       <c r="G85" s="24">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H85" s="17">
         <f t="shared" si="15"/>
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I85" s="16">
         <f t="shared" si="16"/>
@@ -4255,11 +4255,11 @@
         <v>4</v>
       </c>
       <c r="G86" s="24">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H86" s="17">
         <f t="shared" si="15"/>
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I86" s="16">
         <f t="shared" si="16"/>
@@ -4297,11 +4297,11 @@
         <v>3</v>
       </c>
       <c r="G87" s="24">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H87" s="17">
         <f t="shared" si="15"/>
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I87" s="16">
         <f t="shared" si="16"/>
@@ -4339,11 +4339,11 @@
         <v>3</v>
       </c>
       <c r="G88" s="24">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H88" s="17">
         <f t="shared" si="15"/>
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I88" s="16">
         <f t="shared" si="16"/>
@@ -4381,11 +4381,11 @@
         <v>3</v>
       </c>
       <c r="G89" s="24">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H89" s="17">
         <f t="shared" si="15"/>
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I89" s="16">
         <f t="shared" si="16"/>
@@ -4423,11 +4423,11 @@
         <v>3</v>
       </c>
       <c r="G90" s="24">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H90" s="17">
         <f t="shared" si="15"/>
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I90" s="16">
         <f t="shared" si="16"/>
@@ -4465,11 +4465,11 @@
         <v>3</v>
       </c>
       <c r="G91" s="24">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H91" s="17">
         <f t="shared" si="15"/>
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I91" s="16">
         <f t="shared" si="16"/>
@@ -4507,11 +4507,11 @@
         <v>3</v>
       </c>
       <c r="G92" s="24">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H92" s="17">
         <f t="shared" si="15"/>
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I92" s="16">
         <f t="shared" si="16"/>
@@ -4533,7 +4533,7 @@
         <v>43979</v>
       </c>
       <c r="B93" s="19">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="B93:B98" si="18">B92+C93</f>
         <v>1943</v>
       </c>
       <c r="C93" s="13">
@@ -4549,18 +4549,18 @@
         <v>3</v>
       </c>
       <c r="G93" s="24">
+        <v>18</v>
+      </c>
+      <c r="H93" s="17">
+        <f t="shared" ref="H93:H98" si="19">G93+E93</f>
         <v>21</v>
       </c>
-      <c r="H93" s="17">
-        <f t="shared" si="15"/>
-        <v>24</v>
-      </c>
       <c r="I93" s="16">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="I93:I98" si="20">I92+J93</f>
         <v>151</v>
       </c>
       <c r="J93" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="J93:J98" si="21">K93+L93</f>
         <v>0</v>
       </c>
       <c r="K93" s="26">
@@ -4571,39 +4571,212 @@
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A94" s="2">
+      <c r="A94" s="1">
         <v>43980</v>
       </c>
-      <c r="B94" s="20"/>
-      <c r="C94" s="14"/>
-      <c r="D94" s="14">
-        <v>0</v>
-      </c>
-      <c r="E94" s="30">
+      <c r="B94" s="19">
+        <f t="shared" si="18"/>
+        <v>1943</v>
+      </c>
+      <c r="C94" s="13">
+        <v>0</v>
+      </c>
+      <c r="D94" s="13">
+        <v>0</v>
+      </c>
+      <c r="E94" s="4">
         <v>3</v>
       </c>
-      <c r="F94" s="31">
+      <c r="F94" s="3">
         <v>3</v>
       </c>
-      <c r="G94" s="25">
+      <c r="G94" s="24">
+        <v>17</v>
+      </c>
+      <c r="H94" s="17">
+        <f t="shared" si="19"/>
+        <v>20</v>
+      </c>
+      <c r="I94" s="16">
+        <f t="shared" si="20"/>
+        <v>151</v>
+      </c>
+      <c r="J94" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="K94" s="26">
+        <v>0</v>
+      </c>
+      <c r="L94" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A95" s="1">
+        <v>43981</v>
+      </c>
+      <c r="B95" s="19">
+        <f t="shared" si="18"/>
+        <v>1943</v>
+      </c>
+      <c r="C95" s="13">
+        <v>0</v>
+      </c>
+      <c r="D95" s="13">
+        <v>0</v>
+      </c>
+      <c r="E95" s="4">
+        <v>3</v>
+      </c>
+      <c r="F95" s="3">
+        <v>3</v>
+      </c>
+      <c r="G95" s="24">
+        <v>16</v>
+      </c>
+      <c r="H95" s="17">
+        <f t="shared" si="19"/>
+        <v>19</v>
+      </c>
+      <c r="I95" s="16">
+        <f t="shared" si="20"/>
+        <v>151</v>
+      </c>
+      <c r="J95" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="K95" s="26">
+        <v>0</v>
+      </c>
+      <c r="L95" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A96" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B96" s="19">
+        <f t="shared" si="18"/>
+        <v>1945</v>
+      </c>
+      <c r="C96" s="13">
+        <v>2</v>
+      </c>
+      <c r="D96" s="13">
+        <v>2</v>
+      </c>
+      <c r="E96" s="4">
+        <v>5</v>
+      </c>
+      <c r="F96" s="3">
+        <v>4</v>
+      </c>
+      <c r="G96" s="24">
+        <v>16</v>
+      </c>
+      <c r="H96" s="17">
+        <f t="shared" si="19"/>
         <v>21</v>
       </c>
-      <c r="H94" s="18">
-        <f t="shared" si="15"/>
-        <v>24</v>
-      </c>
-      <c r="I94" s="21">
-        <f t="shared" si="16"/>
+      <c r="I96" s="16">
+        <f t="shared" si="20"/>
         <v>151</v>
       </c>
-      <c r="J94" s="21">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="K94" s="28">
-        <v>0</v>
-      </c>
-      <c r="L94" s="29">
+      <c r="J96" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="K96" s="26">
+        <v>0</v>
+      </c>
+      <c r="L96" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A97" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B97" s="19">
+        <f t="shared" si="18"/>
+        <v>1946</v>
+      </c>
+      <c r="C97" s="13">
+        <v>1</v>
+      </c>
+      <c r="D97" s="13">
+        <v>1</v>
+      </c>
+      <c r="E97" s="4">
+        <v>4</v>
+      </c>
+      <c r="F97" s="3">
+        <v>4</v>
+      </c>
+      <c r="G97" s="24">
+        <v>17</v>
+      </c>
+      <c r="H97" s="17">
+        <f t="shared" si="19"/>
+        <v>21</v>
+      </c>
+      <c r="I97" s="16">
+        <f t="shared" si="20"/>
+        <v>151</v>
+      </c>
+      <c r="J97" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="K97" s="26">
+        <v>0</v>
+      </c>
+      <c r="L97" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A98" s="2">
+        <v>43984</v>
+      </c>
+      <c r="B98" s="20">
+        <f t="shared" si="18"/>
+        <v>1946</v>
+      </c>
+      <c r="C98" s="14">
+        <v>0</v>
+      </c>
+      <c r="D98" s="14">
+        <v>0</v>
+      </c>
+      <c r="E98" s="30">
+        <v>4</v>
+      </c>
+      <c r="F98" s="31">
+        <v>4</v>
+      </c>
+      <c r="G98" s="25">
+        <v>17</v>
+      </c>
+      <c r="H98" s="18">
+        <f t="shared" si="19"/>
+        <v>21</v>
+      </c>
+      <c r="I98" s="21">
+        <f t="shared" si="20"/>
+        <v>151</v>
+      </c>
+      <c r="J98" s="21">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="K98" s="28">
+        <v>0</v>
+      </c>
+      <c r="L98" s="29">
         <v>0</v>
       </c>
     </row>

--- a/Chiffres  COVID-19 Valais.xlsx
+++ b/Chiffres  COVID-19 Valais.xlsx
@@ -96,7 +96,7 @@
     <t>Nb nouveaux décès extra-hospitaliers</t>
   </si>
   <si>
-    <t>Données COVID-19 Valais 02.06.2020</t>
+    <t>Données COVID-19 Valais 03.06.2020</t>
   </si>
 </sst>
 </file>
@@ -675,10 +675,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O98"/>
+  <dimension ref="A1:O99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3441,7 +3441,7 @@
         <v>43953</v>
       </c>
       <c r="B67" s="19">
-        <f t="shared" ref="B67:B92" si="14">B66+C67</f>
+        <f t="shared" ref="B67:B91" si="14">B66+C67</f>
         <v>1891</v>
       </c>
       <c r="C67" s="13">
@@ -3460,15 +3460,15 @@
         <v>51</v>
       </c>
       <c r="H67" s="17">
-        <f t="shared" ref="H67:H92" si="15">G67+E67</f>
+        <f t="shared" ref="H67:H91" si="15">G67+E67</f>
         <v>61</v>
       </c>
       <c r="I67" s="16">
-        <f t="shared" ref="I67:I92" si="16">I66+J67</f>
+        <f t="shared" ref="I67:I91" si="16">I66+J67</f>
         <v>140</v>
       </c>
       <c r="J67" s="16">
-        <f t="shared" ref="J67:J92" si="17">K67+L67</f>
+        <f t="shared" ref="J67:J91" si="17">K67+L67</f>
         <v>2</v>
       </c>
       <c r="K67" s="26">
@@ -4491,7 +4491,7 @@
         <v>43978</v>
       </c>
       <c r="B92" s="19">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="B92:B99" si="18">B91+C92</f>
         <v>1942</v>
       </c>
       <c r="C92" s="13">
@@ -4510,15 +4510,15 @@
         <v>19</v>
       </c>
       <c r="H92" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="H92:H99" si="19">G92+E92</f>
         <v>22</v>
       </c>
       <c r="I92" s="16">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="I92:I99" si="20">I91+J92</f>
         <v>151</v>
       </c>
       <c r="J92" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="J92:J99" si="21">K92+L92</f>
         <v>0</v>
       </c>
       <c r="K92" s="26">
@@ -4533,7 +4533,7 @@
         <v>43979</v>
       </c>
       <c r="B93" s="19">
-        <f t="shared" ref="B93:B98" si="18">B92+C93</f>
+        <f t="shared" si="18"/>
         <v>1943</v>
       </c>
       <c r="C93" s="13">
@@ -4552,15 +4552,15 @@
         <v>18</v>
       </c>
       <c r="H93" s="17">
-        <f t="shared" ref="H93:H98" si="19">G93+E93</f>
+        <f t="shared" si="19"/>
         <v>21</v>
       </c>
       <c r="I93" s="16">
-        <f t="shared" ref="I93:I98" si="20">I92+J93</f>
+        <f t="shared" si="20"/>
         <v>151</v>
       </c>
       <c r="J93" s="16">
-        <f t="shared" ref="J93:J98" si="21">K93+L93</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K93" s="26">
@@ -4739,44 +4739,86 @@
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A98" s="2">
+      <c r="A98" s="1">
         <v>43984</v>
       </c>
-      <c r="B98" s="20">
+      <c r="B98" s="19">
         <f t="shared" si="18"/>
-        <v>1946</v>
-      </c>
-      <c r="C98" s="14">
-        <v>0</v>
-      </c>
-      <c r="D98" s="14">
-        <v>0</v>
-      </c>
-      <c r="E98" s="30">
+        <v>1947</v>
+      </c>
+      <c r="C98" s="13">
+        <v>1</v>
+      </c>
+      <c r="D98" s="13">
+        <v>0</v>
+      </c>
+      <c r="E98" s="4">
         <v>4</v>
       </c>
-      <c r="F98" s="31">
+      <c r="F98" s="3">
         <v>4</v>
       </c>
-      <c r="G98" s="25">
+      <c r="G98" s="24">
         <v>17</v>
       </c>
-      <c r="H98" s="18">
+      <c r="H98" s="17">
         <f t="shared" si="19"/>
         <v>21</v>
       </c>
-      <c r="I98" s="21">
+      <c r="I98" s="16">
         <f t="shared" si="20"/>
         <v>151</v>
       </c>
-      <c r="J98" s="21">
+      <c r="J98" s="16">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="K98" s="28">
-        <v>0</v>
-      </c>
-      <c r="L98" s="29">
+      <c r="K98" s="26">
+        <v>0</v>
+      </c>
+      <c r="L98" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A99" s="2">
+        <v>43985</v>
+      </c>
+      <c r="B99" s="20">
+        <f t="shared" si="18"/>
+        <v>1947</v>
+      </c>
+      <c r="C99" s="14">
+        <v>0</v>
+      </c>
+      <c r="D99" s="14">
+        <v>0</v>
+      </c>
+      <c r="E99" s="30">
+        <v>4</v>
+      </c>
+      <c r="F99" s="31">
+        <v>4</v>
+      </c>
+      <c r="G99" s="25">
+        <v>17</v>
+      </c>
+      <c r="H99" s="18">
+        <f t="shared" si="19"/>
+        <v>21</v>
+      </c>
+      <c r="I99" s="21">
+        <f t="shared" si="20"/>
+        <v>151</v>
+      </c>
+      <c r="J99" s="21">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="K99" s="28">
+        <v>0</v>
+      </c>
+      <c r="L99" s="29">
         <v>0</v>
       </c>
     </row>

--- a/Chiffres  COVID-19 Valais.xlsx
+++ b/Chiffres  COVID-19 Valais.xlsx
@@ -96,7 +96,7 @@
     <t>Nb nouveaux décès extra-hospitaliers</t>
   </si>
   <si>
-    <t>Données COVID-19 Valais 03.06.2020</t>
+    <t>Données COVID-19 Valais 04.06.2020</t>
   </si>
 </sst>
 </file>
@@ -675,10 +675,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O99"/>
+  <dimension ref="A1:O100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -772,7 +772,7 @@
         <v>6</v>
       </c>
       <c r="H3" s="17">
-        <f t="shared" ref="H3:H22" si="0">G3+E3</f>
+        <f t="shared" ref="H3:H34" si="0">G3+E3</f>
         <v>6</v>
       </c>
       <c r="I3" s="16">
@@ -1612,15 +1612,15 @@
         <v>59</v>
       </c>
       <c r="H23" s="17">
-        <f t="shared" ref="H23:H66" si="11">G23+E23</f>
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="I23" s="16">
-        <f t="shared" ref="I23:I66" si="12">I22+J23</f>
+        <f t="shared" ref="I23:I66" si="11">I22+J23</f>
         <v>6</v>
       </c>
       <c r="J23" s="16">
-        <f t="shared" ref="J23:J66" si="13">K23+L23</f>
+        <f t="shared" ref="J23:J66" si="12">K23+L23</f>
         <v>2</v>
       </c>
       <c r="K23" s="26">
@@ -1654,15 +1654,15 @@
         <v>67</v>
       </c>
       <c r="H24" s="17">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="I24" s="16">
         <f t="shared" si="11"/>
-        <v>73</v>
-      </c>
-      <c r="I24" s="16">
+        <v>7</v>
+      </c>
+      <c r="J24" s="16">
         <f t="shared" si="12"/>
-        <v>7</v>
-      </c>
-      <c r="J24" s="16">
-        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="K24" s="26">
@@ -1696,15 +1696,15 @@
         <v>75</v>
       </c>
       <c r="H25" s="17">
+        <f t="shared" si="0"/>
+        <v>83</v>
+      </c>
+      <c r="I25" s="16">
         <f t="shared" si="11"/>
-        <v>83</v>
-      </c>
-      <c r="I25" s="16">
+        <v>10</v>
+      </c>
+      <c r="J25" s="16">
         <f t="shared" si="12"/>
-        <v>10</v>
-      </c>
-      <c r="J25" s="16">
-        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="K25" s="26">
@@ -1738,15 +1738,15 @@
         <v>81</v>
       </c>
       <c r="H26" s="17">
+        <f t="shared" si="0"/>
+        <v>92</v>
+      </c>
+      <c r="I26" s="16">
         <f t="shared" si="11"/>
-        <v>92</v>
-      </c>
-      <c r="I26" s="16">
+        <v>11</v>
+      </c>
+      <c r="J26" s="16">
         <f t="shared" si="12"/>
-        <v>11</v>
-      </c>
-      <c r="J26" s="16">
-        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="K26" s="26">
@@ -1780,15 +1780,15 @@
         <v>92</v>
       </c>
       <c r="H27" s="17">
+        <f t="shared" si="0"/>
+        <v>104</v>
+      </c>
+      <c r="I27" s="16">
         <f t="shared" si="11"/>
-        <v>104</v>
-      </c>
-      <c r="I27" s="16">
+        <v>13</v>
+      </c>
+      <c r="J27" s="16">
         <f t="shared" si="12"/>
-        <v>13</v>
-      </c>
-      <c r="J27" s="16">
-        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="K27" s="26">
@@ -1822,15 +1822,15 @@
         <v>105</v>
       </c>
       <c r="H28" s="17">
+        <f t="shared" si="0"/>
+        <v>118</v>
+      </c>
+      <c r="I28" s="16">
         <f t="shared" si="11"/>
-        <v>118</v>
-      </c>
-      <c r="I28" s="16">
+        <v>14</v>
+      </c>
+      <c r="J28" s="16">
         <f t="shared" si="12"/>
-        <v>14</v>
-      </c>
-      <c r="J28" s="16">
-        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="K28" s="26">
@@ -1864,15 +1864,15 @@
         <v>104</v>
       </c>
       <c r="H29" s="17">
+        <f t="shared" si="0"/>
+        <v>119</v>
+      </c>
+      <c r="I29" s="16">
         <f t="shared" si="11"/>
-        <v>119</v>
-      </c>
-      <c r="I29" s="16">
+        <v>15</v>
+      </c>
+      <c r="J29" s="16">
         <f t="shared" si="12"/>
-        <v>15</v>
-      </c>
-      <c r="J29" s="16">
-        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="K29" s="26">
@@ -1906,15 +1906,15 @@
         <v>110</v>
       </c>
       <c r="H30" s="17">
+        <f t="shared" si="0"/>
+        <v>129</v>
+      </c>
+      <c r="I30" s="16">
         <f t="shared" si="11"/>
-        <v>129</v>
-      </c>
-      <c r="I30" s="16">
+        <v>17</v>
+      </c>
+      <c r="J30" s="16">
         <f t="shared" si="12"/>
-        <v>17</v>
-      </c>
-      <c r="J30" s="16">
-        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="K30" s="26">
@@ -1948,15 +1948,15 @@
         <v>118</v>
       </c>
       <c r="H31" s="17">
+        <f t="shared" si="0"/>
+        <v>138</v>
+      </c>
+      <c r="I31" s="16">
         <f t="shared" si="11"/>
-        <v>138</v>
-      </c>
-      <c r="I31" s="16">
+        <v>21</v>
+      </c>
+      <c r="J31" s="16">
         <f t="shared" si="12"/>
-        <v>21</v>
-      </c>
-      <c r="J31" s="16">
-        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="K31" s="26">
@@ -1990,15 +1990,15 @@
         <v>122</v>
       </c>
       <c r="H32" s="17">
+        <f t="shared" si="0"/>
+        <v>143</v>
+      </c>
+      <c r="I32" s="16">
         <f t="shared" si="11"/>
-        <v>143</v>
-      </c>
-      <c r="I32" s="16">
+        <v>25</v>
+      </c>
+      <c r="J32" s="16">
         <f t="shared" si="12"/>
-        <v>25</v>
-      </c>
-      <c r="J32" s="16">
-        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="K32" s="26">
@@ -2032,15 +2032,15 @@
         <v>131</v>
       </c>
       <c r="H33" s="17">
+        <f t="shared" si="0"/>
+        <v>153</v>
+      </c>
+      <c r="I33" s="16">
         <f t="shared" si="11"/>
-        <v>153</v>
-      </c>
-      <c r="I33" s="16">
+        <v>31</v>
+      </c>
+      <c r="J33" s="16">
         <f t="shared" si="12"/>
-        <v>31</v>
-      </c>
-      <c r="J33" s="16">
-        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="K33" s="26">
@@ -2074,15 +2074,15 @@
         <v>129</v>
       </c>
       <c r="H34" s="17">
+        <f t="shared" si="0"/>
+        <v>154</v>
+      </c>
+      <c r="I34" s="16">
         <f t="shared" si="11"/>
-        <v>154</v>
-      </c>
-      <c r="I34" s="16">
+        <v>35</v>
+      </c>
+      <c r="J34" s="16">
         <f t="shared" si="12"/>
-        <v>35</v>
-      </c>
-      <c r="J34" s="16">
-        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="K34" s="26">
@@ -2116,15 +2116,15 @@
         <v>129</v>
       </c>
       <c r="H35" s="17">
+        <f t="shared" ref="H35:H66" si="13">G35+E35</f>
+        <v>153</v>
+      </c>
+      <c r="I35" s="16">
         <f t="shared" si="11"/>
-        <v>153</v>
-      </c>
-      <c r="I35" s="16">
+        <v>37</v>
+      </c>
+      <c r="J35" s="16">
         <f t="shared" si="12"/>
-        <v>37</v>
-      </c>
-      <c r="J35" s="16">
-        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="K35" s="26">
@@ -2158,15 +2158,15 @@
         <v>121</v>
       </c>
       <c r="H36" s="17">
+        <f t="shared" si="13"/>
+        <v>147</v>
+      </c>
+      <c r="I36" s="16">
         <f t="shared" si="11"/>
-        <v>147</v>
-      </c>
-      <c r="I36" s="16">
+        <v>40</v>
+      </c>
+      <c r="J36" s="16">
         <f t="shared" si="12"/>
-        <v>40</v>
-      </c>
-      <c r="J36" s="16">
-        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="K36" s="26">
@@ -2200,15 +2200,15 @@
         <v>119</v>
       </c>
       <c r="H37" s="17">
+        <f t="shared" si="13"/>
+        <v>147</v>
+      </c>
+      <c r="I37" s="16">
         <f t="shared" si="11"/>
-        <v>147</v>
-      </c>
-      <c r="I37" s="16">
+        <v>47</v>
+      </c>
+      <c r="J37" s="16">
         <f t="shared" si="12"/>
-        <v>47</v>
-      </c>
-      <c r="J37" s="16">
-        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="K37" s="26">
@@ -2242,15 +2242,15 @@
         <v>121</v>
       </c>
       <c r="H38" s="17">
+        <f t="shared" si="13"/>
+        <v>147</v>
+      </c>
+      <c r="I38" s="16">
         <f t="shared" si="11"/>
-        <v>147</v>
-      </c>
-      <c r="I38" s="16">
+        <v>51</v>
+      </c>
+      <c r="J38" s="16">
         <f t="shared" si="12"/>
-        <v>51</v>
-      </c>
-      <c r="J38" s="16">
-        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="K38" s="26">
@@ -2284,15 +2284,15 @@
         <v>122</v>
       </c>
       <c r="H39" s="17">
+        <f t="shared" si="13"/>
+        <v>150</v>
+      </c>
+      <c r="I39" s="16">
         <f t="shared" si="11"/>
-        <v>150</v>
-      </c>
-      <c r="I39" s="16">
+        <v>53</v>
+      </c>
+      <c r="J39" s="16">
         <f t="shared" si="12"/>
-        <v>53</v>
-      </c>
-      <c r="J39" s="16">
-        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="K39" s="26">
@@ -2326,15 +2326,15 @@
         <v>121</v>
       </c>
       <c r="H40" s="17">
+        <f t="shared" si="13"/>
+        <v>147</v>
+      </c>
+      <c r="I40" s="16">
         <f t="shared" si="11"/>
-        <v>147</v>
-      </c>
-      <c r="I40" s="16">
+        <v>57</v>
+      </c>
+      <c r="J40" s="16">
         <f t="shared" si="12"/>
-        <v>57</v>
-      </c>
-      <c r="J40" s="16">
-        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="K40" s="26">
@@ -2368,15 +2368,15 @@
         <v>108</v>
       </c>
       <c r="H41" s="17">
+        <f t="shared" si="13"/>
+        <v>134</v>
+      </c>
+      <c r="I41" s="16">
         <f t="shared" si="11"/>
-        <v>134</v>
-      </c>
-      <c r="I41" s="16">
+        <v>60</v>
+      </c>
+      <c r="J41" s="16">
         <f t="shared" si="12"/>
-        <v>60</v>
-      </c>
-      <c r="J41" s="16">
-        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="K41" s="26">
@@ -2410,15 +2410,15 @@
         <v>106</v>
       </c>
       <c r="H42" s="17">
+        <f t="shared" si="13"/>
+        <v>131</v>
+      </c>
+      <c r="I42" s="16">
         <f t="shared" si="11"/>
-        <v>131</v>
-      </c>
-      <c r="I42" s="16">
+        <v>68</v>
+      </c>
+      <c r="J42" s="16">
         <f t="shared" si="12"/>
-        <v>68</v>
-      </c>
-      <c r="J42" s="16">
-        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="K42" s="26">
@@ -2452,15 +2452,15 @@
         <v>98</v>
       </c>
       <c r="H43" s="17">
+        <f t="shared" si="13"/>
+        <v>124</v>
+      </c>
+      <c r="I43" s="16">
         <f t="shared" si="11"/>
-        <v>124</v>
-      </c>
-      <c r="I43" s="16">
+        <v>71</v>
+      </c>
+      <c r="J43" s="16">
         <f t="shared" si="12"/>
-        <v>71</v>
-      </c>
-      <c r="J43" s="16">
-        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="K43" s="26">
@@ -2494,15 +2494,15 @@
         <v>96</v>
       </c>
       <c r="H44" s="17">
+        <f t="shared" si="13"/>
+        <v>120</v>
+      </c>
+      <c r="I44" s="16">
         <f t="shared" si="11"/>
-        <v>120</v>
-      </c>
-      <c r="I44" s="16">
+        <v>77</v>
+      </c>
+      <c r="J44" s="16">
         <f t="shared" si="12"/>
-        <v>77</v>
-      </c>
-      <c r="J44" s="16">
-        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="K44" s="26">
@@ -2536,15 +2536,15 @@
         <v>94</v>
       </c>
       <c r="H45" s="17">
+        <f t="shared" si="13"/>
+        <v>118</v>
+      </c>
+      <c r="I45" s="16">
         <f t="shared" si="11"/>
-        <v>118</v>
-      </c>
-      <c r="I45" s="16">
+        <v>83</v>
+      </c>
+      <c r="J45" s="16">
         <f t="shared" si="12"/>
-        <v>83</v>
-      </c>
-      <c r="J45" s="16">
-        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="K45" s="26">
@@ -2578,15 +2578,15 @@
         <v>95</v>
       </c>
       <c r="H46" s="17">
+        <f t="shared" si="13"/>
+        <v>115</v>
+      </c>
+      <c r="I46" s="16">
         <f t="shared" si="11"/>
-        <v>115</v>
-      </c>
-      <c r="I46" s="16">
+        <v>85</v>
+      </c>
+      <c r="J46" s="16">
         <f t="shared" si="12"/>
-        <v>85</v>
-      </c>
-      <c r="J46" s="16">
-        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="K46" s="26">
@@ -2620,15 +2620,15 @@
         <v>91</v>
       </c>
       <c r="H47" s="17">
+        <f t="shared" si="13"/>
+        <v>113</v>
+      </c>
+      <c r="I47" s="16">
         <f t="shared" si="11"/>
-        <v>113</v>
-      </c>
-      <c r="I47" s="16">
+        <v>91</v>
+      </c>
+      <c r="J47" s="16">
         <f t="shared" si="12"/>
-        <v>91</v>
-      </c>
-      <c r="J47" s="16">
-        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="K47" s="26">
@@ -2662,15 +2662,15 @@
         <v>88</v>
       </c>
       <c r="H48" s="17">
+        <f t="shared" si="13"/>
+        <v>109</v>
+      </c>
+      <c r="I48" s="16">
         <f t="shared" si="11"/>
-        <v>109</v>
-      </c>
-      <c r="I48" s="16">
+        <v>93</v>
+      </c>
+      <c r="J48" s="16">
         <f t="shared" si="12"/>
-        <v>93</v>
-      </c>
-      <c r="J48" s="16">
-        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="K48" s="26">
@@ -2704,15 +2704,15 @@
         <v>83</v>
       </c>
       <c r="H49" s="17">
+        <f t="shared" si="13"/>
+        <v>103</v>
+      </c>
+      <c r="I49" s="16">
         <f t="shared" si="11"/>
-        <v>103</v>
-      </c>
-      <c r="I49" s="16">
+        <v>94</v>
+      </c>
+      <c r="J49" s="16">
         <f t="shared" si="12"/>
-        <v>94</v>
-      </c>
-      <c r="J49" s="16">
-        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="K49" s="26">
@@ -2746,15 +2746,15 @@
         <v>77</v>
       </c>
       <c r="H50" s="17">
+        <f t="shared" si="13"/>
+        <v>97</v>
+      </c>
+      <c r="I50" s="16">
         <f t="shared" si="11"/>
-        <v>97</v>
-      </c>
-      <c r="I50" s="16">
+        <v>94</v>
+      </c>
+      <c r="J50" s="16">
         <f t="shared" si="12"/>
-        <v>94</v>
-      </c>
-      <c r="J50" s="16">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K50" s="26">
@@ -2788,15 +2788,15 @@
         <v>78</v>
       </c>
       <c r="H51" s="17">
+        <f t="shared" si="13"/>
+        <v>95</v>
+      </c>
+      <c r="I51" s="16">
         <f t="shared" si="11"/>
         <v>95</v>
       </c>
-      <c r="I51" s="16">
+      <c r="J51" s="16">
         <f t="shared" si="12"/>
-        <v>95</v>
-      </c>
-      <c r="J51" s="16">
-        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="K51" s="26">
@@ -2830,15 +2830,15 @@
         <v>72</v>
       </c>
       <c r="H52" s="17">
+        <f t="shared" si="13"/>
+        <v>88</v>
+      </c>
+      <c r="I52" s="16">
         <f t="shared" si="11"/>
-        <v>88</v>
-      </c>
-      <c r="I52" s="16">
+        <v>99</v>
+      </c>
+      <c r="J52" s="16">
         <f t="shared" si="12"/>
-        <v>99</v>
-      </c>
-      <c r="J52" s="16">
-        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="K52" s="26">
@@ -2872,15 +2872,15 @@
         <v>69</v>
       </c>
       <c r="H53" s="17">
+        <f t="shared" si="13"/>
+        <v>87</v>
+      </c>
+      <c r="I53" s="16">
         <f t="shared" si="11"/>
-        <v>87</v>
-      </c>
-      <c r="I53" s="16">
+        <v>104</v>
+      </c>
+      <c r="J53" s="16">
         <f t="shared" si="12"/>
-        <v>104</v>
-      </c>
-      <c r="J53" s="16">
-        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="K53" s="26">
@@ -2914,15 +2914,15 @@
         <v>69</v>
       </c>
       <c r="H54" s="17">
+        <f t="shared" si="13"/>
+        <v>85</v>
+      </c>
+      <c r="I54" s="16">
         <f t="shared" si="11"/>
-        <v>85</v>
-      </c>
-      <c r="I54" s="16">
+        <v>107</v>
+      </c>
+      <c r="J54" s="16">
         <f t="shared" si="12"/>
-        <v>107</v>
-      </c>
-      <c r="J54" s="16">
-        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="K54" s="26">
@@ -2956,15 +2956,15 @@
         <v>67</v>
       </c>
       <c r="H55" s="17">
+        <f t="shared" si="13"/>
+        <v>82</v>
+      </c>
+      <c r="I55" s="16">
         <f t="shared" si="11"/>
-        <v>82</v>
-      </c>
-      <c r="I55" s="16">
+        <v>110</v>
+      </c>
+      <c r="J55" s="16">
         <f t="shared" si="12"/>
-        <v>110</v>
-      </c>
-      <c r="J55" s="16">
-        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="K55" s="26">
@@ -2998,15 +2998,15 @@
         <v>65</v>
       </c>
       <c r="H56" s="17">
+        <f t="shared" si="13"/>
+        <v>79</v>
+      </c>
+      <c r="I56" s="16">
         <f t="shared" si="11"/>
-        <v>79</v>
-      </c>
-      <c r="I56" s="16">
+        <v>115</v>
+      </c>
+      <c r="J56" s="16">
         <f t="shared" si="12"/>
-        <v>115</v>
-      </c>
-      <c r="J56" s="16">
-        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="K56" s="26">
@@ -3040,15 +3040,15 @@
         <v>67</v>
       </c>
       <c r="H57" s="17">
+        <f t="shared" si="13"/>
+        <v>80</v>
+      </c>
+      <c r="I57" s="16">
         <f t="shared" si="11"/>
-        <v>80</v>
-      </c>
-      <c r="I57" s="16">
+        <v>118</v>
+      </c>
+      <c r="J57" s="16">
         <f t="shared" si="12"/>
-        <v>118</v>
-      </c>
-      <c r="J57" s="16">
-        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="K57" s="26">
@@ -3082,15 +3082,15 @@
         <v>63</v>
       </c>
       <c r="H58" s="17">
+        <f t="shared" si="13"/>
+        <v>76</v>
+      </c>
+      <c r="I58" s="16">
         <f t="shared" si="11"/>
-        <v>76</v>
-      </c>
-      <c r="I58" s="16">
+        <v>123</v>
+      </c>
+      <c r="J58" s="16">
         <f t="shared" si="12"/>
-        <v>123</v>
-      </c>
-      <c r="J58" s="16">
-        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="K58" s="26">
@@ -3124,15 +3124,15 @@
         <v>59</v>
       </c>
       <c r="H59" s="17">
+        <f t="shared" si="13"/>
+        <v>73</v>
+      </c>
+      <c r="I59" s="16">
         <f t="shared" si="11"/>
-        <v>73</v>
-      </c>
-      <c r="I59" s="16">
+        <v>127</v>
+      </c>
+      <c r="J59" s="16">
         <f t="shared" si="12"/>
-        <v>127</v>
-      </c>
-      <c r="J59" s="16">
-        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="K59" s="26">
@@ -3166,15 +3166,15 @@
         <v>61</v>
       </c>
       <c r="H60" s="17">
+        <f t="shared" si="13"/>
+        <v>75</v>
+      </c>
+      <c r="I60" s="16">
         <f t="shared" si="11"/>
-        <v>75</v>
-      </c>
-      <c r="I60" s="16">
+        <v>129</v>
+      </c>
+      <c r="J60" s="16">
         <f t="shared" si="12"/>
-        <v>129</v>
-      </c>
-      <c r="J60" s="16">
-        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="K60" s="26">
@@ -3208,15 +3208,15 @@
         <v>62</v>
       </c>
       <c r="H61" s="17">
+        <f t="shared" si="13"/>
+        <v>77</v>
+      </c>
+      <c r="I61" s="16">
         <f t="shared" si="11"/>
-        <v>77</v>
-      </c>
-      <c r="I61" s="16">
+        <v>131</v>
+      </c>
+      <c r="J61" s="16">
         <f t="shared" si="12"/>
-        <v>131</v>
-      </c>
-      <c r="J61" s="16">
-        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="K61" s="26">
@@ -3250,15 +3250,15 @@
         <v>54</v>
       </c>
       <c r="H62" s="17">
+        <f t="shared" si="13"/>
+        <v>68</v>
+      </c>
+      <c r="I62" s="16">
         <f t="shared" si="11"/>
-        <v>68</v>
-      </c>
-      <c r="I62" s="16">
+        <v>132</v>
+      </c>
+      <c r="J62" s="16">
         <f t="shared" si="12"/>
-        <v>132</v>
-      </c>
-      <c r="J62" s="16">
-        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="K62" s="26">
@@ -3292,15 +3292,15 @@
         <v>51</v>
       </c>
       <c r="H63" s="17">
+        <f t="shared" si="13"/>
+        <v>64</v>
+      </c>
+      <c r="I63" s="16">
         <f t="shared" si="11"/>
-        <v>64</v>
-      </c>
-      <c r="I63" s="16">
+        <v>135</v>
+      </c>
+      <c r="J63" s="16">
         <f t="shared" si="12"/>
-        <v>135</v>
-      </c>
-      <c r="J63" s="16">
-        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="K63" s="26">
@@ -3334,15 +3334,15 @@
         <v>52</v>
       </c>
       <c r="H64" s="17">
+        <f t="shared" si="13"/>
+        <v>63</v>
+      </c>
+      <c r="I64" s="16">
         <f t="shared" si="11"/>
-        <v>63</v>
-      </c>
-      <c r="I64" s="16">
+        <v>136</v>
+      </c>
+      <c r="J64" s="16">
         <f t="shared" si="12"/>
-        <v>136</v>
-      </c>
-      <c r="J64" s="16">
-        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="K64" s="26">
@@ -3376,15 +3376,15 @@
         <v>53</v>
       </c>
       <c r="H65" s="17">
+        <f t="shared" si="13"/>
+        <v>63</v>
+      </c>
+      <c r="I65" s="16">
         <f t="shared" si="11"/>
-        <v>63</v>
-      </c>
-      <c r="I65" s="16">
+        <v>138</v>
+      </c>
+      <c r="J65" s="16">
         <f t="shared" si="12"/>
-        <v>138</v>
-      </c>
-      <c r="J65" s="16">
-        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="K65" s="26">
@@ -3418,15 +3418,15 @@
         <v>51</v>
       </c>
       <c r="H66" s="17">
+        <f t="shared" si="13"/>
+        <v>61</v>
+      </c>
+      <c r="I66" s="16">
         <f t="shared" si="11"/>
-        <v>61</v>
-      </c>
-      <c r="I66" s="16">
+        <v>138</v>
+      </c>
+      <c r="J66" s="16">
         <f t="shared" si="12"/>
-        <v>138</v>
-      </c>
-      <c r="J66" s="16">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K66" s="26">
@@ -3460,7 +3460,7 @@
         <v>51</v>
       </c>
       <c r="H67" s="17">
-        <f t="shared" ref="H67:H91" si="15">G67+E67</f>
+        <f t="shared" ref="H67:H98" si="15">G67+E67</f>
         <v>61</v>
       </c>
       <c r="I67" s="16">
@@ -3703,13 +3703,13 @@
         <v>1</v>
       </c>
       <c r="E73" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F73" s="3">
         <v>5</v>
       </c>
       <c r="G73" s="24">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H73" s="17">
         <f t="shared" si="15"/>
@@ -3745,13 +3745,13 @@
         <v>0</v>
       </c>
       <c r="E74" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F74" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G74" s="24">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H74" s="17">
         <f t="shared" si="15"/>
@@ -3787,13 +3787,13 @@
         <v>1</v>
       </c>
       <c r="E75" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F75" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G75" s="24">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H75" s="17">
         <f t="shared" si="15"/>
@@ -3829,13 +3829,13 @@
         <v>1</v>
       </c>
       <c r="E76" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F76" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G76" s="24">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H76" s="17">
         <f t="shared" si="15"/>
@@ -3871,13 +3871,13 @@
         <v>0</v>
       </c>
       <c r="E77" s="4">
+        <v>8</v>
+      </c>
+      <c r="F77" s="3">
         <v>7</v>
       </c>
-      <c r="F77" s="3">
-        <v>6</v>
-      </c>
       <c r="G77" s="24">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H77" s="17">
         <f t="shared" si="15"/>
@@ -3913,13 +3913,13 @@
         <v>0</v>
       </c>
       <c r="E78" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F78" s="3">
         <v>5</v>
       </c>
       <c r="G78" s="24">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H78" s="17">
         <f t="shared" si="15"/>
@@ -3955,13 +3955,13 @@
         <v>0</v>
       </c>
       <c r="E79" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F79" s="3">
         <v>5</v>
       </c>
       <c r="G79" s="24">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H79" s="17">
         <f t="shared" si="15"/>
@@ -3997,13 +3997,13 @@
         <v>0</v>
       </c>
       <c r="E80" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F80" s="3">
         <v>5</v>
       </c>
       <c r="G80" s="24">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H80" s="17">
         <f t="shared" si="15"/>
@@ -4039,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="E81" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F81" s="3">
         <v>5</v>
       </c>
       <c r="G81" s="24">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H81" s="17">
         <f t="shared" si="15"/>
@@ -4081,13 +4081,13 @@
         <v>0</v>
       </c>
       <c r="E82" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F82" s="3">
         <v>5</v>
       </c>
       <c r="G82" s="24">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H82" s="17">
         <f t="shared" si="15"/>
@@ -4123,13 +4123,13 @@
         <v>1</v>
       </c>
       <c r="E83" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F83" s="3">
         <v>4</v>
       </c>
       <c r="G83" s="24">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H83" s="17">
         <f t="shared" si="15"/>
@@ -4165,13 +4165,13 @@
         <v>0</v>
       </c>
       <c r="E84" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F84" s="3">
         <v>4</v>
       </c>
       <c r="G84" s="24">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H84" s="17">
         <f t="shared" si="15"/>
@@ -4207,13 +4207,13 @@
         <v>0</v>
       </c>
       <c r="E85" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F85" s="3">
         <v>4</v>
       </c>
       <c r="G85" s="24">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H85" s="17">
         <f t="shared" si="15"/>
@@ -4249,13 +4249,13 @@
         <v>0</v>
       </c>
       <c r="E86" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F86" s="3">
         <v>4</v>
       </c>
       <c r="G86" s="24">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H86" s="17">
         <f t="shared" si="15"/>
@@ -4291,13 +4291,13 @@
         <v>0</v>
       </c>
       <c r="E87" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F87" s="3">
         <v>3</v>
       </c>
       <c r="G87" s="24">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H87" s="17">
         <f t="shared" si="15"/>
@@ -4333,13 +4333,13 @@
         <v>0</v>
       </c>
       <c r="E88" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F88" s="3">
         <v>3</v>
       </c>
       <c r="G88" s="24">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H88" s="17">
         <f t="shared" si="15"/>
@@ -4375,13 +4375,13 @@
         <v>0</v>
       </c>
       <c r="E89" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F89" s="3">
         <v>3</v>
       </c>
       <c r="G89" s="24">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H89" s="17">
         <f t="shared" si="15"/>
@@ -4417,13 +4417,13 @@
         <v>0</v>
       </c>
       <c r="E90" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F90" s="3">
         <v>3</v>
       </c>
       <c r="G90" s="24">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H90" s="17">
         <f t="shared" si="15"/>
@@ -4459,13 +4459,13 @@
         <v>0</v>
       </c>
       <c r="E91" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F91" s="3">
         <v>3</v>
       </c>
       <c r="G91" s="24">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H91" s="17">
         <f t="shared" si="15"/>
@@ -4491,7 +4491,7 @@
         <v>43978</v>
       </c>
       <c r="B92" s="19">
-        <f t="shared" ref="B92:B99" si="18">B91+C92</f>
+        <f t="shared" ref="B92:B100" si="18">B91+C92</f>
         <v>1942</v>
       </c>
       <c r="C92" s="13">
@@ -4501,24 +4501,24 @@
         <v>0</v>
       </c>
       <c r="E92" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F92" s="3">
         <v>3</v>
       </c>
       <c r="G92" s="24">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H92" s="17">
-        <f t="shared" ref="H92:H99" si="19">G92+E92</f>
+        <f t="shared" si="15"/>
         <v>22</v>
       </c>
       <c r="I92" s="16">
-        <f t="shared" ref="I92:I99" si="20">I91+J92</f>
+        <f t="shared" ref="I92:I100" si="19">I91+J92</f>
         <v>151</v>
       </c>
       <c r="J92" s="16">
-        <f t="shared" ref="J92:J99" si="21">K92+L92</f>
+        <f t="shared" ref="J92:J100" si="20">K92+L92</f>
         <v>0</v>
       </c>
       <c r="K92" s="26">
@@ -4543,24 +4543,24 @@
         <v>0</v>
       </c>
       <c r="E93" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F93" s="3">
         <v>3</v>
       </c>
       <c r="G93" s="24">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H93" s="17">
+        <f t="shared" si="15"/>
+        <v>21</v>
+      </c>
+      <c r="I93" s="16">
         <f t="shared" si="19"/>
-        <v>21</v>
-      </c>
-      <c r="I93" s="16">
+        <v>151</v>
+      </c>
+      <c r="J93" s="16">
         <f t="shared" si="20"/>
-        <v>151</v>
-      </c>
-      <c r="J93" s="16">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K93" s="26">
@@ -4585,24 +4585,24 @@
         <v>0</v>
       </c>
       <c r="E94" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F94" s="3">
         <v>3</v>
       </c>
       <c r="G94" s="24">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H94" s="17">
+        <f t="shared" si="15"/>
+        <v>20</v>
+      </c>
+      <c r="I94" s="16">
         <f t="shared" si="19"/>
-        <v>20</v>
-      </c>
-      <c r="I94" s="16">
+        <v>151</v>
+      </c>
+      <c r="J94" s="16">
         <f t="shared" si="20"/>
-        <v>151</v>
-      </c>
-      <c r="J94" s="16">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K94" s="26">
@@ -4627,24 +4627,24 @@
         <v>0</v>
       </c>
       <c r="E95" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F95" s="3">
         <v>3</v>
       </c>
       <c r="G95" s="24">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H95" s="17">
+        <f t="shared" si="15"/>
+        <v>19</v>
+      </c>
+      <c r="I95" s="16">
         <f t="shared" si="19"/>
-        <v>19</v>
-      </c>
-      <c r="I95" s="16">
+        <v>151</v>
+      </c>
+      <c r="J95" s="16">
         <f t="shared" si="20"/>
-        <v>151</v>
-      </c>
-      <c r="J95" s="16">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K95" s="26">
@@ -4669,24 +4669,24 @@
         <v>2</v>
       </c>
       <c r="E96" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F96" s="3">
         <v>4</v>
       </c>
       <c r="G96" s="24">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H96" s="17">
+        <f t="shared" si="15"/>
+        <v>21</v>
+      </c>
+      <c r="I96" s="16">
         <f t="shared" si="19"/>
-        <v>21</v>
-      </c>
-      <c r="I96" s="16">
+        <v>151</v>
+      </c>
+      <c r="J96" s="16">
         <f t="shared" si="20"/>
-        <v>151</v>
-      </c>
-      <c r="J96" s="16">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K96" s="26">
@@ -4711,24 +4711,24 @@
         <v>1</v>
       </c>
       <c r="E97" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F97" s="3">
         <v>4</v>
       </c>
       <c r="G97" s="24">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H97" s="17">
+        <f t="shared" si="15"/>
+        <v>21</v>
+      </c>
+      <c r="I97" s="16">
         <f t="shared" si="19"/>
-        <v>21</v>
-      </c>
-      <c r="I97" s="16">
+        <v>151</v>
+      </c>
+      <c r="J97" s="16">
         <f t="shared" si="20"/>
-        <v>151</v>
-      </c>
-      <c r="J97" s="16">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K97" s="26">
@@ -4753,24 +4753,24 @@
         <v>0</v>
       </c>
       <c r="E98" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F98" s="3">
         <v>4</v>
       </c>
       <c r="G98" s="24">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H98" s="17">
+        <f t="shared" si="15"/>
+        <v>21</v>
+      </c>
+      <c r="I98" s="16">
         <f t="shared" si="19"/>
-        <v>21</v>
-      </c>
-      <c r="I98" s="16">
+        <v>151</v>
+      </c>
+      <c r="J98" s="16">
         <f t="shared" si="20"/>
-        <v>151</v>
-      </c>
-      <c r="J98" s="16">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K98" s="26">
@@ -4781,44 +4781,86 @@
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A99" s="2">
+      <c r="A99" s="1">
         <v>43985</v>
       </c>
-      <c r="B99" s="20">
+      <c r="B99" s="19">
         <f t="shared" si="18"/>
         <v>1947</v>
       </c>
-      <c r="C99" s="14">
-        <v>0</v>
-      </c>
-      <c r="D99" s="14">
-        <v>0</v>
-      </c>
-      <c r="E99" s="30">
+      <c r="C99" s="13">
+        <v>0</v>
+      </c>
+      <c r="D99" s="13">
+        <v>0</v>
+      </c>
+      <c r="E99" s="4">
+        <v>5</v>
+      </c>
+      <c r="F99" s="3">
         <v>4</v>
       </c>
-      <c r="F99" s="31">
+      <c r="G99" s="24">
+        <v>16</v>
+      </c>
+      <c r="H99" s="17">
+        <f t="shared" ref="H99:H130" si="21">G99+E99</f>
+        <v>21</v>
+      </c>
+      <c r="I99" s="16">
+        <f t="shared" si="19"/>
+        <v>151</v>
+      </c>
+      <c r="J99" s="16">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K99" s="26">
+        <v>0</v>
+      </c>
+      <c r="L99" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A100" s="2">
+        <v>43986</v>
+      </c>
+      <c r="B100" s="20">
+        <f t="shared" si="18"/>
+        <v>1948</v>
+      </c>
+      <c r="C100" s="14">
+        <v>1</v>
+      </c>
+      <c r="D100" s="14">
+        <v>1</v>
+      </c>
+      <c r="E100" s="30">
+        <v>5</v>
+      </c>
+      <c r="F100" s="31">
         <v>4</v>
       </c>
-      <c r="G99" s="25">
+      <c r="G100" s="25">
         <v>17</v>
       </c>
-      <c r="H99" s="18">
+      <c r="H100" s="18">
+        <f t="shared" si="21"/>
+        <v>22</v>
+      </c>
+      <c r="I100" s="21">
         <f t="shared" si="19"/>
-        <v>21</v>
-      </c>
-      <c r="I99" s="21">
+        <v>151</v>
+      </c>
+      <c r="J100" s="21">
         <f t="shared" si="20"/>
-        <v>151</v>
-      </c>
-      <c r="J99" s="21">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="K99" s="28">
-        <v>0</v>
-      </c>
-      <c r="L99" s="29">
+        <v>0</v>
+      </c>
+      <c r="K100" s="28">
+        <v>0</v>
+      </c>
+      <c r="L100" s="29">
         <v>0</v>
       </c>
     </row>

--- a/Chiffres  COVID-19 Valais.xlsx
+++ b/Chiffres  COVID-19 Valais.xlsx
@@ -96,7 +96,7 @@
     <t>Nb nouveaux décès extra-hospitaliers</t>
   </si>
   <si>
-    <t>Données COVID-19 Valais 04.06.2020</t>
+    <t>Données COVID-19 Valais 05.06.2020</t>
   </si>
 </sst>
 </file>
@@ -675,23 +675,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O100"/>
+  <dimension ref="A1:O101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D100"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="11.453125" style="15"/>
-    <col min="4" max="4" width="10.81640625" style="15"/>
-    <col min="8" max="8" width="16.1796875" customWidth="1"/>
-    <col min="10" max="10" width="14.54296875" customWidth="1"/>
-    <col min="11" max="11" width="13.54296875" customWidth="1"/>
-    <col min="12" max="12" width="15.7265625" style="6" customWidth="1"/>
+    <col min="2" max="3" width="11.42578125" style="15"/>
+    <col min="4" max="4" width="10.85546875" style="15"/>
+    <col min="8" max="8" width="16.140625" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>12</v>
       </c>
@@ -707,7 +707,7 @@
       <c r="K1" s="33"/>
       <c r="L1" s="34"/>
     </row>
-    <row r="2" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -748,7 +748,7 @@
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43889</v>
       </c>
@@ -790,7 +790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43890</v>
       </c>
@@ -802,7 +802,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="13">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E4" s="4">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43891</v>
       </c>
@@ -844,7 +844,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="13">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E5" s="4">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43892</v>
       </c>
@@ -886,7 +886,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="13">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E6" s="4">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43893</v>
       </c>
@@ -928,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="13">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E7" s="4">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43894</v>
       </c>
@@ -970,7 +970,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="13">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E8" s="4">
         <v>0</v>
@@ -1000,7 +1000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43895</v>
       </c>
@@ -1012,7 +1012,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="13">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E9" s="4">
         <v>0</v>
@@ -1042,7 +1042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43896</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="13">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E10" s="4">
         <v>0</v>
@@ -1084,7 +1084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43897</v>
       </c>
@@ -1096,7 +1096,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="13">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E11" s="4">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43898</v>
       </c>
@@ -1138,7 +1138,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="13">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E12" s="4">
         <v>1</v>
@@ -1168,7 +1168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43899</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>5</v>
       </c>
       <c r="D13" s="13">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E13" s="4">
         <v>1</v>
@@ -1210,7 +1210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43900</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>5</v>
       </c>
       <c r="D14" s="13">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E14" s="4">
         <v>1</v>
@@ -1252,7 +1252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43901</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>8</v>
       </c>
       <c r="D15" s="13">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E15" s="4">
         <v>1</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43902</v>
       </c>
@@ -1306,7 +1306,7 @@
         <v>23</v>
       </c>
       <c r="D16" s="13">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="E16" s="4">
         <v>1</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43903</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>23</v>
       </c>
       <c r="D17" s="13">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="E17" s="4">
         <v>1</v>
@@ -1378,7 +1378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43904</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v>22</v>
       </c>
       <c r="D18" s="13">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="E18" s="4">
         <v>1</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43905</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>17</v>
       </c>
       <c r="D19" s="13">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="E19" s="4">
         <v>1</v>
@@ -1462,7 +1462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43906</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>57</v>
       </c>
       <c r="D20" s="13">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="E20" s="4">
         <v>2</v>
@@ -1504,7 +1504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43907</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>53</v>
       </c>
       <c r="D21" s="13">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="E21" s="4">
         <v>2</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43908</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>87</v>
       </c>
       <c r="D22" s="13">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="E22" s="4">
         <v>2</v>
@@ -1588,7 +1588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43909</v>
       </c>
@@ -1600,7 +1600,7 @@
         <v>37</v>
       </c>
       <c r="D23" s="13">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="E23" s="4">
         <v>5</v>
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43910</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>87</v>
       </c>
       <c r="D24" s="13">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="E24" s="4">
         <v>6</v>
@@ -1672,7 +1672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43911</v>
       </c>
@@ -1684,7 +1684,7 @@
         <v>62</v>
       </c>
       <c r="D25" s="13">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="E25" s="4">
         <v>8</v>
@@ -1714,7 +1714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43912</v>
       </c>
@@ -1726,7 +1726,7 @@
         <v>37</v>
       </c>
       <c r="D26" s="13">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="E26" s="4">
         <v>11</v>
@@ -1756,7 +1756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43913</v>
       </c>
@@ -1768,7 +1768,7 @@
         <v>93</v>
       </c>
       <c r="D27" s="13">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="E27" s="4">
         <v>12</v>
@@ -1798,7 +1798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43914</v>
       </c>
@@ -1810,7 +1810,7 @@
         <v>100</v>
       </c>
       <c r="D28" s="13">
-        <v>16</v>
+        <v>118</v>
       </c>
       <c r="E28" s="4">
         <v>13</v>
@@ -1840,7 +1840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43915</v>
       </c>
@@ -1852,7 +1852,7 @@
         <v>65</v>
       </c>
       <c r="D29" s="13">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="E29" s="4">
         <v>15</v>
@@ -1882,7 +1882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43916</v>
       </c>
@@ -1894,7 +1894,7 @@
         <v>81</v>
       </c>
       <c r="D30" s="13">
-        <v>18</v>
+        <v>129</v>
       </c>
       <c r="E30" s="4">
         <v>19</v>
@@ -1924,7 +1924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43917</v>
       </c>
@@ -1936,7 +1936,7 @@
         <v>94</v>
       </c>
       <c r="D31" s="13">
-        <v>20</v>
+        <v>138</v>
       </c>
       <c r="E31" s="4">
         <v>20</v>
@@ -1966,7 +1966,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43918</v>
       </c>
@@ -1978,7 +1978,7 @@
         <v>49</v>
       </c>
       <c r="D32" s="13">
-        <v>10</v>
+        <v>143</v>
       </c>
       <c r="E32" s="4">
         <v>21</v>
@@ -2008,7 +2008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43919</v>
       </c>
@@ -2020,7 +2020,7 @@
         <v>38</v>
       </c>
       <c r="D33" s="13">
-        <v>13</v>
+        <v>153</v>
       </c>
       <c r="E33" s="4">
         <v>22</v>
@@ -2050,7 +2050,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>43920</v>
       </c>
@@ -2062,7 +2062,7 @@
         <v>89</v>
       </c>
       <c r="D34" s="13">
-        <v>20</v>
+        <v>154</v>
       </c>
       <c r="E34" s="4">
         <v>25</v>
@@ -2092,7 +2092,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>43921</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>67</v>
       </c>
       <c r="D35" s="13">
-        <v>11</v>
+        <v>153</v>
       </c>
       <c r="E35" s="4">
         <v>24</v>
@@ -2134,7 +2134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>43922</v>
       </c>
@@ -2146,7 +2146,7 @@
         <v>71</v>
       </c>
       <c r="D36" s="13">
-        <v>11</v>
+        <v>147</v>
       </c>
       <c r="E36" s="4">
         <v>26</v>
@@ -2176,7 +2176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>43923</v>
       </c>
@@ -2188,7 +2188,7 @@
         <v>52</v>
       </c>
       <c r="D37" s="13">
-        <v>12</v>
+        <v>147</v>
       </c>
       <c r="E37" s="4">
         <v>28</v>
@@ -2218,7 +2218,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>43924</v>
       </c>
@@ -2230,7 +2230,7 @@
         <v>49</v>
       </c>
       <c r="D38" s="13">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="E38" s="4">
         <v>26</v>
@@ -2260,7 +2260,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>43925</v>
       </c>
@@ -2272,7 +2272,7 @@
         <v>33</v>
       </c>
       <c r="D39" s="13">
-        <v>6</v>
+        <v>150</v>
       </c>
       <c r="E39" s="4">
         <v>28</v>
@@ -2302,7 +2302,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>43926</v>
       </c>
@@ -2314,7 +2314,7 @@
         <v>15</v>
       </c>
       <c r="D40" s="13">
-        <v>4</v>
+        <v>147</v>
       </c>
       <c r="E40" s="4">
         <v>26</v>
@@ -2344,7 +2344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>43927</v>
       </c>
@@ -2356,7 +2356,7 @@
         <v>66</v>
       </c>
       <c r="D41" s="13">
-        <v>7</v>
+        <v>134</v>
       </c>
       <c r="E41" s="4">
         <v>26</v>
@@ -2386,7 +2386,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>43928</v>
       </c>
@@ -2398,7 +2398,7 @@
         <v>39</v>
       </c>
       <c r="D42" s="13">
-        <v>7</v>
+        <v>131</v>
       </c>
       <c r="E42" s="4">
         <v>25</v>
@@ -2428,7 +2428,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43929</v>
       </c>
@@ -2440,7 +2440,7 @@
         <v>34</v>
       </c>
       <c r="D43" s="13">
-        <v>5</v>
+        <v>124</v>
       </c>
       <c r="E43" s="4">
         <v>26</v>
@@ -2470,7 +2470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43930</v>
       </c>
@@ -2482,7 +2482,7 @@
         <v>28</v>
       </c>
       <c r="D44" s="13">
-        <v>4</v>
+        <v>120</v>
       </c>
       <c r="E44" s="4">
         <v>24</v>
@@ -2512,7 +2512,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43931</v>
       </c>
@@ -2524,7 +2524,7 @@
         <v>29</v>
       </c>
       <c r="D45" s="13">
-        <v>5</v>
+        <v>118</v>
       </c>
       <c r="E45" s="4">
         <v>24</v>
@@ -2554,7 +2554,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43932</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>26</v>
       </c>
       <c r="D46" s="13">
-        <v>2</v>
+        <v>115</v>
       </c>
       <c r="E46" s="4">
         <v>20</v>
@@ -2596,7 +2596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>43933</v>
       </c>
@@ -2608,7 +2608,7 @@
         <v>13</v>
       </c>
       <c r="D47" s="13">
-        <v>3</v>
+        <v>113</v>
       </c>
       <c r="E47" s="4">
         <v>22</v>
@@ -2638,7 +2638,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>43934</v>
       </c>
@@ -2650,7 +2650,7 @@
         <v>14</v>
       </c>
       <c r="D48" s="13">
-        <v>1</v>
+        <v>109</v>
       </c>
       <c r="E48" s="4">
         <v>21</v>
@@ -2680,7 +2680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>43935</v>
       </c>
@@ -2692,7 +2692,7 @@
         <v>27</v>
       </c>
       <c r="D49" s="13">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="E49" s="4">
         <v>20</v>
@@ -2722,7 +2722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>43936</v>
       </c>
@@ -2734,7 +2734,7 @@
         <v>16</v>
       </c>
       <c r="D50" s="13">
-        <v>2</v>
+        <v>97</v>
       </c>
       <c r="E50" s="4">
         <v>20</v>
@@ -2764,7 +2764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>43937</v>
       </c>
@@ -2776,7 +2776,7 @@
         <v>17</v>
       </c>
       <c r="D51" s="13">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="E51" s="4">
         <v>17</v>
@@ -2806,7 +2806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>43938</v>
       </c>
@@ -2818,7 +2818,7 @@
         <v>20</v>
       </c>
       <c r="D52" s="13">
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="E52" s="4">
         <v>16</v>
@@ -2848,7 +2848,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>43939</v>
       </c>
@@ -2860,7 +2860,7 @@
         <v>9</v>
       </c>
       <c r="D53" s="13">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="E53" s="4">
         <v>18</v>
@@ -2890,7 +2890,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>43940</v>
       </c>
@@ -2902,7 +2902,7 @@
         <v>7</v>
       </c>
       <c r="D54" s="13">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="E54" s="4">
         <v>16</v>
@@ -2932,7 +2932,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>43941</v>
       </c>
@@ -2944,7 +2944,7 @@
         <v>17</v>
       </c>
       <c r="D55" s="13">
-        <v>3</v>
+        <v>82</v>
       </c>
       <c r="E55" s="4">
         <v>15</v>
@@ -2974,7 +2974,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>43942</v>
       </c>
@@ -2986,7 +2986,7 @@
         <v>7</v>
       </c>
       <c r="D56" s="13">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="E56" s="4">
         <v>14</v>
@@ -3016,7 +3016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>43943</v>
       </c>
@@ -3028,7 +3028,7 @@
         <v>6</v>
       </c>
       <c r="D57" s="13">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="E57" s="4">
         <v>13</v>
@@ -3058,7 +3058,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>43944</v>
       </c>
@@ -3070,7 +3070,7 @@
         <v>16</v>
       </c>
       <c r="D58" s="13">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="E58" s="4">
         <v>13</v>
@@ -3100,7 +3100,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>43945</v>
       </c>
@@ -3112,7 +3112,7 @@
         <v>9</v>
       </c>
       <c r="D59" s="13">
-        <v>2</v>
+        <v>73</v>
       </c>
       <c r="E59" s="4">
         <v>14</v>
@@ -3142,7 +3142,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>43946</v>
       </c>
@@ -3154,7 +3154,7 @@
         <v>5</v>
       </c>
       <c r="D60" s="13">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="E60" s="4">
         <v>14</v>
@@ -3184,7 +3184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>43947</v>
       </c>
@@ -3196,7 +3196,7 @@
         <v>2</v>
       </c>
       <c r="D61" s="13">
-        <v>2</v>
+        <v>77</v>
       </c>
       <c r="E61" s="4">
         <v>15</v>
@@ -3226,7 +3226,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>43948</v>
       </c>
@@ -3238,7 +3238,7 @@
         <v>15</v>
       </c>
       <c r="D62" s="13">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="E62" s="4">
         <v>14</v>
@@ -3268,7 +3268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>43949</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>11</v>
       </c>
       <c r="D63" s="13">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="E63" s="4">
         <v>13</v>
@@ -3310,7 +3310,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>43950</v>
       </c>
@@ -3322,7 +3322,7 @@
         <v>12</v>
       </c>
       <c r="D64" s="13">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="E64" s="4">
         <v>11</v>
@@ -3352,7 +3352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>43951</v>
       </c>
@@ -3364,7 +3364,7 @@
         <v>7</v>
       </c>
       <c r="D65" s="13">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="E65" s="4">
         <v>10</v>
@@ -3394,7 +3394,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>43952</v>
       </c>
@@ -3406,7 +3406,7 @@
         <v>5</v>
       </c>
       <c r="D66" s="13">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="E66" s="4">
         <v>10</v>
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>43953</v>
       </c>
@@ -3448,7 +3448,7 @@
         <v>3</v>
       </c>
       <c r="D67" s="13">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="E67" s="4">
         <v>10</v>
@@ -3460,7 +3460,7 @@
         <v>51</v>
       </c>
       <c r="H67" s="17">
-        <f t="shared" ref="H67:H98" si="15">G67+E67</f>
+        <f t="shared" ref="H67:H96" si="15">G67+E67</f>
         <v>61</v>
       </c>
       <c r="I67" s="16">
@@ -3478,7 +3478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>43954</v>
       </c>
@@ -3490,7 +3490,7 @@
         <v>2</v>
       </c>
       <c r="D68" s="13">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="E68" s="4">
         <v>10</v>
@@ -3520,7 +3520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>43955</v>
       </c>
@@ -3532,7 +3532,7 @@
         <v>8</v>
       </c>
       <c r="D69" s="13">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="E69" s="4">
         <v>10</v>
@@ -3562,7 +3562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>43956</v>
       </c>
@@ -3574,7 +3574,7 @@
         <v>2</v>
       </c>
       <c r="D70" s="13">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="E70" s="4">
         <v>8</v>
@@ -3604,7 +3604,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>43957</v>
       </c>
@@ -3616,7 +3616,7 @@
         <v>3</v>
       </c>
       <c r="D71" s="13">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E71" s="4">
         <v>8</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>43958</v>
       </c>
@@ -3658,7 +3658,7 @@
         <v>2</v>
       </c>
       <c r="D72" s="13">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="E72" s="4">
         <v>8</v>
@@ -3688,7 +3688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>43959</v>
       </c>
@@ -3700,7 +3700,7 @@
         <v>3</v>
       </c>
       <c r="D73" s="13">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="E73" s="4">
         <v>9</v>
@@ -3730,7 +3730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>43960</v>
       </c>
@@ -3742,7 +3742,7 @@
         <v>1</v>
       </c>
       <c r="D74" s="13">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="E74" s="4">
         <v>10</v>
@@ -3772,7 +3772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>43961</v>
       </c>
@@ -3784,7 +3784,7 @@
         <v>1</v>
       </c>
       <c r="D75" s="13">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="E75" s="4">
         <v>10</v>
@@ -3814,7 +3814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>43962</v>
       </c>
@@ -3826,7 +3826,7 @@
         <v>4</v>
       </c>
       <c r="D76" s="13">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="E76" s="4">
         <v>10</v>
@@ -3856,7 +3856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>43963</v>
       </c>
@@ -3868,7 +3868,7 @@
         <v>0</v>
       </c>
       <c r="D77" s="13">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E77" s="4">
         <v>8</v>
@@ -3898,7 +3898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>43964</v>
       </c>
@@ -3910,7 +3910,7 @@
         <v>1</v>
       </c>
       <c r="D78" s="13">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="E78" s="4">
         <v>8</v>
@@ -3940,7 +3940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>43965</v>
       </c>
@@ -3952,7 +3952,7 @@
         <v>2</v>
       </c>
       <c r="D79" s="13">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="E79" s="4">
         <v>8</v>
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>43966</v>
       </c>
@@ -3994,7 +3994,7 @@
         <v>9</v>
       </c>
       <c r="D80" s="13">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="E80" s="4">
         <v>8</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>43967</v>
       </c>
@@ -4036,7 +4036,7 @@
         <v>3</v>
       </c>
       <c r="D81" s="13">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="E81" s="4">
         <v>8</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>43968</v>
       </c>
@@ -4078,7 +4078,7 @@
         <v>0</v>
       </c>
       <c r="D82" s="13">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="E82" s="4">
         <v>8</v>
@@ -4108,7 +4108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>43969</v>
       </c>
@@ -4120,7 +4120,7 @@
         <v>1</v>
       </c>
       <c r="D83" s="13">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="E83" s="4">
         <v>7</v>
@@ -4150,7 +4150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>43970</v>
       </c>
@@ -4162,7 +4162,7 @@
         <v>1</v>
       </c>
       <c r="D84" s="13">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="E84" s="4">
         <v>7</v>
@@ -4192,7 +4192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>43971</v>
       </c>
@@ -4204,7 +4204,7 @@
         <v>0</v>
       </c>
       <c r="D85" s="13">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="E85" s="4">
         <v>6</v>
@@ -4234,7 +4234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>43972</v>
       </c>
@@ -4246,7 +4246,7 @@
         <v>1</v>
       </c>
       <c r="D86" s="13">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="E86" s="4">
         <v>6</v>
@@ -4276,7 +4276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>43973</v>
       </c>
@@ -4288,7 +4288,7 @@
         <v>0</v>
       </c>
       <c r="D87" s="13">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E87" s="4">
         <v>5</v>
@@ -4318,7 +4318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>43974</v>
       </c>
@@ -4330,7 +4330,7 @@
         <v>0</v>
       </c>
       <c r="D88" s="13">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E88" s="4">
         <v>5</v>
@@ -4360,7 +4360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>43975</v>
       </c>
@@ -4372,7 +4372,7 @@
         <v>1</v>
       </c>
       <c r="D89" s="13">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E89" s="4">
         <v>5</v>
@@ -4402,7 +4402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>43976</v>
       </c>
@@ -4414,7 +4414,7 @@
         <v>2</v>
       </c>
       <c r="D90" s="13">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E90" s="4">
         <v>5</v>
@@ -4444,7 +4444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>43977</v>
       </c>
@@ -4456,7 +4456,7 @@
         <v>3</v>
       </c>
       <c r="D91" s="13">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E91" s="4">
         <v>4</v>
@@ -4486,19 +4486,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>43978</v>
       </c>
       <c r="B92" s="19">
-        <f t="shared" ref="B92:B100" si="18">B91+C92</f>
+        <f t="shared" ref="B92:B96" si="18">B91+C92</f>
         <v>1942</v>
       </c>
       <c r="C92" s="13">
         <v>1</v>
       </c>
       <c r="D92" s="13">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E92" s="4">
         <v>4</v>
@@ -4514,11 +4514,11 @@
         <v>22</v>
       </c>
       <c r="I92" s="16">
-        <f t="shared" ref="I92:I100" si="19">I91+J92</f>
+        <f t="shared" ref="I92:I96" si="19">I91+J92</f>
         <v>151</v>
       </c>
       <c r="J92" s="16">
-        <f t="shared" ref="J92:J100" si="20">K92+L92</f>
+        <f t="shared" ref="J92:J96" si="20">K92+L92</f>
         <v>0</v>
       </c>
       <c r="K92" s="26">
@@ -4528,7 +4528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>43979</v>
       </c>
@@ -4540,7 +4540,7 @@
         <v>1</v>
       </c>
       <c r="D93" s="13">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E93" s="4">
         <v>4</v>
@@ -4570,7 +4570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>43980</v>
       </c>
@@ -4582,7 +4582,7 @@
         <v>0</v>
       </c>
       <c r="D94" s="13">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E94" s="4">
         <v>4</v>
@@ -4612,7 +4612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>43981</v>
       </c>
@@ -4624,7 +4624,7 @@
         <v>0</v>
       </c>
       <c r="D95" s="13">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E95" s="4">
         <v>4</v>
@@ -4654,7 +4654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>43982</v>
       </c>
@@ -4666,7 +4666,7 @@
         <v>2</v>
       </c>
       <c r="D96" s="13">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E96" s="4">
         <v>6</v>
@@ -4696,19 +4696,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>43983</v>
       </c>
       <c r="B97" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="B97:B101" si="21">B96+C97</f>
         <v>1946</v>
       </c>
       <c r="C97" s="13">
         <v>1</v>
       </c>
       <c r="D97" s="13">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="E97" s="4">
         <v>5</v>
@@ -4720,15 +4720,15 @@
         <v>16</v>
       </c>
       <c r="H97" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="H97:H101" si="22">G97+E97</f>
         <v>21</v>
       </c>
       <c r="I97" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="I97:I101" si="23">I96+J97</f>
         <v>151</v>
       </c>
       <c r="J97" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="J97:J101" si="24">K97+L97</f>
         <v>0</v>
       </c>
       <c r="K97" s="26">
@@ -4738,19 +4738,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>43984</v>
       </c>
       <c r="B98" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1947</v>
       </c>
       <c r="C98" s="13">
         <v>1</v>
       </c>
       <c r="D98" s="13">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E98" s="4">
         <v>5</v>
@@ -4762,15 +4762,15 @@
         <v>16</v>
       </c>
       <c r="H98" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>21</v>
       </c>
       <c r="I98" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>151</v>
       </c>
       <c r="J98" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="K98" s="26">
@@ -4780,19 +4780,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>43985</v>
       </c>
       <c r="B99" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1947</v>
       </c>
       <c r="C99" s="13">
         <v>0</v>
       </c>
       <c r="D99" s="13">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E99" s="4">
         <v>5</v>
@@ -4801,66 +4801,108 @@
         <v>4</v>
       </c>
       <c r="G99" s="24">
+        <v>15</v>
+      </c>
+      <c r="H99" s="17">
+        <f t="shared" si="22"/>
+        <v>20</v>
+      </c>
+      <c r="I99" s="16">
+        <f t="shared" si="23"/>
+        <v>151</v>
+      </c>
+      <c r="J99" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="K99" s="26">
+        <v>0</v>
+      </c>
+      <c r="L99" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>43986</v>
+      </c>
+      <c r="B100" s="19">
+        <f t="shared" si="21"/>
+        <v>1948</v>
+      </c>
+      <c r="C100" s="13">
+        <v>1</v>
+      </c>
+      <c r="D100" s="13">
+        <v>21</v>
+      </c>
+      <c r="E100" s="4">
+        <v>5</v>
+      </c>
+      <c r="F100" s="3">
+        <v>4</v>
+      </c>
+      <c r="G100" s="24">
         <v>16</v>
       </c>
-      <c r="H99" s="17">
-        <f t="shared" ref="H99:H130" si="21">G99+E99</f>
+      <c r="H100" s="17">
+        <f t="shared" si="22"/>
         <v>21</v>
       </c>
-      <c r="I99" s="16">
-        <f t="shared" si="19"/>
+      <c r="I100" s="16">
+        <f t="shared" si="23"/>
         <v>151</v>
       </c>
-      <c r="J99" s="16">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="K99" s="26">
-        <v>0</v>
-      </c>
-      <c r="L99" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A100" s="2">
-        <v>43986</v>
-      </c>
-      <c r="B100" s="20">
-        <f t="shared" si="18"/>
+      <c r="J100" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="K100" s="26">
+        <v>0</v>
+      </c>
+      <c r="L100" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101" s="2">
+        <v>43987</v>
+      </c>
+      <c r="B101" s="20">
+        <f t="shared" si="21"/>
         <v>1948</v>
       </c>
-      <c r="C100" s="14">
-        <v>1</v>
-      </c>
-      <c r="D100" s="14">
-        <v>1</v>
-      </c>
-      <c r="E100" s="30">
+      <c r="C101" s="14">
+        <v>0</v>
+      </c>
+      <c r="D101" s="14">
+        <v>21</v>
+      </c>
+      <c r="E101" s="30">
         <v>5</v>
       </c>
-      <c r="F100" s="31">
+      <c r="F101" s="31">
         <v>4</v>
       </c>
-      <c r="G100" s="25">
-        <v>17</v>
-      </c>
-      <c r="H100" s="18">
-        <f t="shared" si="21"/>
-        <v>22</v>
-      </c>
-      <c r="I100" s="21">
-        <f t="shared" si="19"/>
+      <c r="G101" s="25">
+        <v>16</v>
+      </c>
+      <c r="H101" s="18">
+        <f t="shared" si="22"/>
+        <v>21</v>
+      </c>
+      <c r="I101" s="21">
+        <f t="shared" si="23"/>
         <v>151</v>
       </c>
-      <c r="J100" s="21">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="K100" s="28">
-        <v>0</v>
-      </c>
-      <c r="L100" s="29">
+      <c r="J101" s="21">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="K101" s="28">
+        <v>0</v>
+      </c>
+      <c r="L101" s="29">
         <v>0</v>
       </c>
     </row>

--- a/Chiffres  COVID-19 Valais.xlsx
+++ b/Chiffres  COVID-19 Valais.xlsx
@@ -96,7 +96,7 @@
     <t>Nb nouveaux décès extra-hospitaliers</t>
   </si>
   <si>
-    <t>Données COVID-19 Valais 05.06.2020</t>
+    <t>Données COVID-19 Valais 08.06.2020</t>
   </si>
 </sst>
 </file>
@@ -675,10 +675,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O101"/>
+  <dimension ref="A1:O104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -802,7 +802,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="13">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E4" s="4">
         <v>0</v>
@@ -844,7 +844,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="13">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E5" s="4">
         <v>0</v>
@@ -886,7 +886,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="13">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E6" s="4">
         <v>0</v>
@@ -928,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="13">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E7" s="4">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="13">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E8" s="4">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="13">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E9" s="4">
         <v>0</v>
@@ -1054,7 +1054,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="13">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E10" s="4">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="13">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E11" s="4">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="13">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E12" s="4">
         <v>1</v>
@@ -1180,7 +1180,7 @@
         <v>5</v>
       </c>
       <c r="D13" s="13">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E13" s="4">
         <v>1</v>
@@ -1222,7 +1222,7 @@
         <v>5</v>
       </c>
       <c r="D14" s="13">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E14" s="4">
         <v>1</v>
@@ -1264,7 +1264,7 @@
         <v>8</v>
       </c>
       <c r="D15" s="13">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="E15" s="4">
         <v>1</v>
@@ -1306,7 +1306,7 @@
         <v>23</v>
       </c>
       <c r="D16" s="13">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="E16" s="4">
         <v>1</v>
@@ -1348,7 +1348,7 @@
         <v>23</v>
       </c>
       <c r="D17" s="13">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="E17" s="4">
         <v>1</v>
@@ -1390,7 +1390,7 @@
         <v>22</v>
       </c>
       <c r="D18" s="13">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="E18" s="4">
         <v>1</v>
@@ -1432,7 +1432,7 @@
         <v>17</v>
       </c>
       <c r="D19" s="13">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="E19" s="4">
         <v>1</v>
@@ -1474,7 +1474,7 @@
         <v>57</v>
       </c>
       <c r="D20" s="13">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="E20" s="4">
         <v>2</v>
@@ -1516,7 +1516,7 @@
         <v>53</v>
       </c>
       <c r="D21" s="13">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="E21" s="4">
         <v>2</v>
@@ -1558,7 +1558,7 @@
         <v>87</v>
       </c>
       <c r="D22" s="13">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="E22" s="4">
         <v>2</v>
@@ -1600,7 +1600,7 @@
         <v>37</v>
       </c>
       <c r="D23" s="13">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="E23" s="4">
         <v>5</v>
@@ -1642,7 +1642,7 @@
         <v>87</v>
       </c>
       <c r="D24" s="13">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="E24" s="4">
         <v>6</v>
@@ -1684,7 +1684,7 @@
         <v>62</v>
       </c>
       <c r="D25" s="13">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="E25" s="4">
         <v>8</v>
@@ -1726,7 +1726,7 @@
         <v>37</v>
       </c>
       <c r="D26" s="13">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="E26" s="4">
         <v>11</v>
@@ -1768,7 +1768,7 @@
         <v>93</v>
       </c>
       <c r="D27" s="13">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="E27" s="4">
         <v>12</v>
@@ -1810,7 +1810,7 @@
         <v>100</v>
       </c>
       <c r="D28" s="13">
-        <v>118</v>
+        <v>16</v>
       </c>
       <c r="E28" s="4">
         <v>13</v>
@@ -1852,7 +1852,7 @@
         <v>65</v>
       </c>
       <c r="D29" s="13">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="E29" s="4">
         <v>15</v>
@@ -1894,7 +1894,7 @@
         <v>81</v>
       </c>
       <c r="D30" s="13">
-        <v>129</v>
+        <v>18</v>
       </c>
       <c r="E30" s="4">
         <v>19</v>
@@ -1936,7 +1936,7 @@
         <v>94</v>
       </c>
       <c r="D31" s="13">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c r="E31" s="4">
         <v>20</v>
@@ -1978,7 +1978,7 @@
         <v>49</v>
       </c>
       <c r="D32" s="13">
-        <v>143</v>
+        <v>10</v>
       </c>
       <c r="E32" s="4">
         <v>21</v>
@@ -2020,7 +2020,7 @@
         <v>38</v>
       </c>
       <c r="D33" s="13">
-        <v>153</v>
+        <v>13</v>
       </c>
       <c r="E33" s="4">
         <v>22</v>
@@ -2062,7 +2062,7 @@
         <v>89</v>
       </c>
       <c r="D34" s="13">
-        <v>154</v>
+        <v>20</v>
       </c>
       <c r="E34" s="4">
         <v>25</v>
@@ -2104,7 +2104,7 @@
         <v>67</v>
       </c>
       <c r="D35" s="13">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="E35" s="4">
         <v>24</v>
@@ -2146,7 +2146,7 @@
         <v>71</v>
       </c>
       <c r="D36" s="13">
-        <v>147</v>
+        <v>11</v>
       </c>
       <c r="E36" s="4">
         <v>26</v>
@@ -2188,7 +2188,7 @@
         <v>52</v>
       </c>
       <c r="D37" s="13">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="E37" s="4">
         <v>28</v>
@@ -2230,7 +2230,7 @@
         <v>49</v>
       </c>
       <c r="D38" s="13">
-        <v>147</v>
+        <v>6</v>
       </c>
       <c r="E38" s="4">
         <v>26</v>
@@ -2272,7 +2272,7 @@
         <v>33</v>
       </c>
       <c r="D39" s="13">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="E39" s="4">
         <v>28</v>
@@ -2314,7 +2314,7 @@
         <v>15</v>
       </c>
       <c r="D40" s="13">
-        <v>147</v>
+        <v>4</v>
       </c>
       <c r="E40" s="4">
         <v>26</v>
@@ -2356,7 +2356,7 @@
         <v>66</v>
       </c>
       <c r="D41" s="13">
-        <v>134</v>
+        <v>7</v>
       </c>
       <c r="E41" s="4">
         <v>26</v>
@@ -2398,7 +2398,7 @@
         <v>39</v>
       </c>
       <c r="D42" s="13">
-        <v>131</v>
+        <v>7</v>
       </c>
       <c r="E42" s="4">
         <v>25</v>
@@ -2407,11 +2407,11 @@
         <v>20</v>
       </c>
       <c r="G42" s="24">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H42" s="17">
         <f t="shared" si="13"/>
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I42" s="16">
         <f t="shared" si="11"/>
@@ -2440,7 +2440,7 @@
         <v>34</v>
       </c>
       <c r="D43" s="13">
-        <v>124</v>
+        <v>5</v>
       </c>
       <c r="E43" s="4">
         <v>26</v>
@@ -2449,11 +2449,11 @@
         <v>20</v>
       </c>
       <c r="G43" s="24">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H43" s="17">
         <f t="shared" si="13"/>
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I43" s="16">
         <f t="shared" si="11"/>
@@ -2482,7 +2482,7 @@
         <v>28</v>
       </c>
       <c r="D44" s="13">
-        <v>120</v>
+        <v>4</v>
       </c>
       <c r="E44" s="4">
         <v>24</v>
@@ -2491,11 +2491,11 @@
         <v>19</v>
       </c>
       <c r="G44" s="24">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H44" s="17">
         <f t="shared" si="13"/>
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I44" s="16">
         <f t="shared" si="11"/>
@@ -2524,7 +2524,7 @@
         <v>29</v>
       </c>
       <c r="D45" s="13">
-        <v>118</v>
+        <v>5</v>
       </c>
       <c r="E45" s="4">
         <v>24</v>
@@ -2533,11 +2533,11 @@
         <v>18</v>
       </c>
       <c r="G45" s="24">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H45" s="17">
         <f t="shared" si="13"/>
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I45" s="16">
         <f t="shared" si="11"/>
@@ -2566,7 +2566,7 @@
         <v>26</v>
       </c>
       <c r="D46" s="13">
-        <v>115</v>
+        <v>2</v>
       </c>
       <c r="E46" s="4">
         <v>20</v>
@@ -2575,11 +2575,11 @@
         <v>15</v>
       </c>
       <c r="G46" s="24">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H46" s="17">
         <f t="shared" si="13"/>
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I46" s="16">
         <f t="shared" si="11"/>
@@ -2608,7 +2608,7 @@
         <v>13</v>
       </c>
       <c r="D47" s="13">
-        <v>113</v>
+        <v>3</v>
       </c>
       <c r="E47" s="4">
         <v>22</v>
@@ -2617,11 +2617,11 @@
         <v>14</v>
       </c>
       <c r="G47" s="24">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H47" s="17">
         <f t="shared" si="13"/>
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I47" s="16">
         <f t="shared" si="11"/>
@@ -2650,7 +2650,7 @@
         <v>14</v>
       </c>
       <c r="D48" s="13">
-        <v>109</v>
+        <v>1</v>
       </c>
       <c r="E48" s="4">
         <v>21</v>
@@ -2659,11 +2659,11 @@
         <v>12</v>
       </c>
       <c r="G48" s="24">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H48" s="17">
         <f t="shared" si="13"/>
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I48" s="16">
         <f t="shared" si="11"/>
@@ -2692,7 +2692,7 @@
         <v>27</v>
       </c>
       <c r="D49" s="13">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="E49" s="4">
         <v>20</v>
@@ -2701,11 +2701,11 @@
         <v>11</v>
       </c>
       <c r="G49" s="24">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H49" s="17">
         <f t="shared" si="13"/>
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I49" s="16">
         <f t="shared" si="11"/>
@@ -2734,7 +2734,7 @@
         <v>16</v>
       </c>
       <c r="D50" s="13">
-        <v>97</v>
+        <v>2</v>
       </c>
       <c r="E50" s="4">
         <v>20</v>
@@ -2743,11 +2743,11 @@
         <v>12</v>
       </c>
       <c r="G50" s="24">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H50" s="17">
         <f t="shared" si="13"/>
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I50" s="16">
         <f t="shared" si="11"/>
@@ -2776,7 +2776,7 @@
         <v>17</v>
       </c>
       <c r="D51" s="13">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="E51" s="4">
         <v>17</v>
@@ -2785,11 +2785,11 @@
         <v>12</v>
       </c>
       <c r="G51" s="24">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H51" s="17">
         <f t="shared" si="13"/>
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I51" s="16">
         <f t="shared" si="11"/>
@@ -2818,7 +2818,7 @@
         <v>20</v>
       </c>
       <c r="D52" s="13">
-        <v>88</v>
+        <v>1</v>
       </c>
       <c r="E52" s="4">
         <v>16</v>
@@ -2827,11 +2827,11 @@
         <v>10</v>
       </c>
       <c r="G52" s="24">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H52" s="17">
         <f t="shared" si="13"/>
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I52" s="16">
         <f t="shared" si="11"/>
@@ -2860,7 +2860,7 @@
         <v>9</v>
       </c>
       <c r="D53" s="13">
-        <v>87</v>
+        <v>1</v>
       </c>
       <c r="E53" s="4">
         <v>18</v>
@@ -2869,11 +2869,11 @@
         <v>10</v>
       </c>
       <c r="G53" s="24">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H53" s="17">
         <f t="shared" si="13"/>
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I53" s="16">
         <f t="shared" si="11"/>
@@ -2902,7 +2902,7 @@
         <v>7</v>
       </c>
       <c r="D54" s="13">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="E54" s="4">
         <v>16</v>
@@ -2911,11 +2911,11 @@
         <v>9</v>
       </c>
       <c r="G54" s="24">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H54" s="17">
         <f t="shared" si="13"/>
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I54" s="16">
         <f t="shared" si="11"/>
@@ -2944,7 +2944,7 @@
         <v>17</v>
       </c>
       <c r="D55" s="13">
-        <v>82</v>
+        <v>3</v>
       </c>
       <c r="E55" s="4">
         <v>15</v>
@@ -2953,11 +2953,11 @@
         <v>9</v>
       </c>
       <c r="G55" s="24">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H55" s="17">
         <f t="shared" si="13"/>
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I55" s="16">
         <f t="shared" si="11"/>
@@ -2986,7 +2986,7 @@
         <v>7</v>
       </c>
       <c r="D56" s="13">
-        <v>79</v>
+        <v>2</v>
       </c>
       <c r="E56" s="4">
         <v>14</v>
@@ -2995,11 +2995,11 @@
         <v>10</v>
       </c>
       <c r="G56" s="24">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H56" s="17">
         <f t="shared" si="13"/>
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I56" s="16">
         <f t="shared" si="11"/>
@@ -3028,7 +3028,7 @@
         <v>6</v>
       </c>
       <c r="D57" s="13">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="E57" s="4">
         <v>13</v>
@@ -3037,11 +3037,11 @@
         <v>10</v>
       </c>
       <c r="G57" s="24">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H57" s="17">
         <f t="shared" si="13"/>
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I57" s="16">
         <f t="shared" si="11"/>
@@ -3070,7 +3070,7 @@
         <v>16</v>
       </c>
       <c r="D58" s="13">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="E58" s="4">
         <v>13</v>
@@ -3079,11 +3079,11 @@
         <v>9</v>
       </c>
       <c r="G58" s="24">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H58" s="17">
         <f t="shared" si="13"/>
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I58" s="16">
         <f t="shared" si="11"/>
@@ -3112,7 +3112,7 @@
         <v>9</v>
       </c>
       <c r="D59" s="13">
-        <v>73</v>
+        <v>2</v>
       </c>
       <c r="E59" s="4">
         <v>14</v>
@@ -3121,11 +3121,11 @@
         <v>9</v>
       </c>
       <c r="G59" s="24">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H59" s="17">
         <f t="shared" si="13"/>
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I59" s="16">
         <f t="shared" si="11"/>
@@ -3154,7 +3154,7 @@
         <v>5</v>
       </c>
       <c r="D60" s="13">
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="E60" s="4">
         <v>14</v>
@@ -3163,11 +3163,11 @@
         <v>9</v>
       </c>
       <c r="G60" s="24">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H60" s="17">
         <f t="shared" si="13"/>
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I60" s="16">
         <f t="shared" si="11"/>
@@ -3196,7 +3196,7 @@
         <v>2</v>
       </c>
       <c r="D61" s="13">
-        <v>77</v>
+        <v>2</v>
       </c>
       <c r="E61" s="4">
         <v>15</v>
@@ -3205,11 +3205,11 @@
         <v>8</v>
       </c>
       <c r="G61" s="24">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H61" s="17">
         <f t="shared" si="13"/>
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I61" s="16">
         <f t="shared" si="11"/>
@@ -3238,7 +3238,7 @@
         <v>15</v>
       </c>
       <c r="D62" s="13">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="E62" s="4">
         <v>14</v>
@@ -3247,11 +3247,11 @@
         <v>9</v>
       </c>
       <c r="G62" s="24">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H62" s="17">
         <f t="shared" si="13"/>
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I62" s="16">
         <f t="shared" si="11"/>
@@ -3280,7 +3280,7 @@
         <v>11</v>
       </c>
       <c r="D63" s="13">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="E63" s="4">
         <v>13</v>
@@ -3289,11 +3289,11 @@
         <v>8</v>
       </c>
       <c r="G63" s="24">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H63" s="17">
         <f t="shared" si="13"/>
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I63" s="16">
         <f t="shared" si="11"/>
@@ -3322,7 +3322,7 @@
         <v>12</v>
       </c>
       <c r="D64" s="13">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="E64" s="4">
         <v>11</v>
@@ -3331,11 +3331,11 @@
         <v>8</v>
       </c>
       <c r="G64" s="24">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H64" s="17">
         <f t="shared" si="13"/>
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I64" s="16">
         <f t="shared" si="11"/>
@@ -3364,7 +3364,7 @@
         <v>7</v>
       </c>
       <c r="D65" s="13">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="E65" s="4">
         <v>10</v>
@@ -3373,11 +3373,11 @@
         <v>8</v>
       </c>
       <c r="G65" s="24">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H65" s="17">
         <f t="shared" si="13"/>
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I65" s="16">
         <f t="shared" si="11"/>
@@ -3406,7 +3406,7 @@
         <v>5</v>
       </c>
       <c r="D66" s="13">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="E66" s="4">
         <v>10</v>
@@ -3415,11 +3415,11 @@
         <v>8</v>
       </c>
       <c r="G66" s="24">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H66" s="17">
         <f t="shared" si="13"/>
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I66" s="16">
         <f t="shared" si="11"/>
@@ -3448,7 +3448,7 @@
         <v>3</v>
       </c>
       <c r="D67" s="13">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="E67" s="4">
         <v>10</v>
@@ -3457,11 +3457,11 @@
         <v>8</v>
       </c>
       <c r="G67" s="24">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H67" s="17">
-        <f t="shared" ref="H67:H96" si="15">G67+E67</f>
-        <v>61</v>
+        <f t="shared" ref="H67:H94" si="15">G67+E67</f>
+        <v>57</v>
       </c>
       <c r="I67" s="16">
         <f t="shared" ref="I67:I91" si="16">I66+J67</f>
@@ -3490,7 +3490,7 @@
         <v>2</v>
       </c>
       <c r="D68" s="13">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="E68" s="4">
         <v>10</v>
@@ -3499,11 +3499,11 @@
         <v>8</v>
       </c>
       <c r="G68" s="24">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H68" s="17">
         <f t="shared" si="15"/>
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I68" s="16">
         <f t="shared" si="16"/>
@@ -3532,7 +3532,7 @@
         <v>8</v>
       </c>
       <c r="D69" s="13">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="E69" s="4">
         <v>10</v>
@@ -3541,11 +3541,11 @@
         <v>7</v>
       </c>
       <c r="G69" s="24">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H69" s="17">
         <f t="shared" si="15"/>
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I69" s="16">
         <f t="shared" si="16"/>
@@ -3574,7 +3574,7 @@
         <v>2</v>
       </c>
       <c r="D70" s="13">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="E70" s="4">
         <v>8</v>
@@ -3583,11 +3583,11 @@
         <v>6</v>
       </c>
       <c r="G70" s="24">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H70" s="17">
         <f t="shared" si="15"/>
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I70" s="16">
         <f t="shared" si="16"/>
@@ -3616,7 +3616,7 @@
         <v>3</v>
       </c>
       <c r="D71" s="13">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E71" s="4">
         <v>8</v>
@@ -3625,11 +3625,11 @@
         <v>5</v>
       </c>
       <c r="G71" s="24">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H71" s="17">
         <f t="shared" si="15"/>
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I71" s="16">
         <f t="shared" si="16"/>
@@ -3658,7 +3658,7 @@
         <v>2</v>
       </c>
       <c r="D72" s="13">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="E72" s="4">
         <v>8</v>
@@ -3667,11 +3667,11 @@
         <v>5</v>
       </c>
       <c r="G72" s="24">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H72" s="17">
         <f t="shared" si="15"/>
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I72" s="16">
         <f t="shared" si="16"/>
@@ -3700,7 +3700,7 @@
         <v>3</v>
       </c>
       <c r="D73" s="13">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="E73" s="4">
         <v>9</v>
@@ -3709,11 +3709,11 @@
         <v>5</v>
       </c>
       <c r="G73" s="24">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H73" s="17">
         <f t="shared" si="15"/>
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I73" s="16">
         <f t="shared" si="16"/>
@@ -3742,7 +3742,7 @@
         <v>1</v>
       </c>
       <c r="D74" s="13">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="E74" s="4">
         <v>10</v>
@@ -3751,11 +3751,11 @@
         <v>7</v>
       </c>
       <c r="G74" s="24">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H74" s="17">
         <f t="shared" si="15"/>
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I74" s="16">
         <f t="shared" si="16"/>
@@ -3784,7 +3784,7 @@
         <v>1</v>
       </c>
       <c r="D75" s="13">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="E75" s="4">
         <v>10</v>
@@ -3793,11 +3793,11 @@
         <v>7</v>
       </c>
       <c r="G75" s="24">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H75" s="17">
         <f t="shared" si="15"/>
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I75" s="16">
         <f t="shared" si="16"/>
@@ -3826,7 +3826,7 @@
         <v>4</v>
       </c>
       <c r="D76" s="13">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="E76" s="4">
         <v>10</v>
@@ -3835,11 +3835,11 @@
         <v>7</v>
       </c>
       <c r="G76" s="24">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H76" s="17">
         <f t="shared" si="15"/>
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I76" s="16">
         <f t="shared" si="16"/>
@@ -3868,7 +3868,7 @@
         <v>0</v>
       </c>
       <c r="D77" s="13">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E77" s="4">
         <v>8</v>
@@ -3877,11 +3877,11 @@
         <v>7</v>
       </c>
       <c r="G77" s="24">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H77" s="17">
         <f t="shared" si="15"/>
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I77" s="16">
         <f t="shared" si="16"/>
@@ -3910,7 +3910,7 @@
         <v>1</v>
       </c>
       <c r="D78" s="13">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="E78" s="4">
         <v>8</v>
@@ -3919,11 +3919,11 @@
         <v>5</v>
       </c>
       <c r="G78" s="24">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H78" s="17">
         <f t="shared" si="15"/>
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I78" s="16">
         <f t="shared" si="16"/>
@@ -3952,7 +3952,7 @@
         <v>2</v>
       </c>
       <c r="D79" s="13">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="E79" s="4">
         <v>8</v>
@@ -3961,11 +3961,11 @@
         <v>5</v>
       </c>
       <c r="G79" s="24">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H79" s="17">
         <f t="shared" si="15"/>
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I79" s="16">
         <f t="shared" si="16"/>
@@ -3994,7 +3994,7 @@
         <v>9</v>
       </c>
       <c r="D80" s="13">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="E80" s="4">
         <v>8</v>
@@ -4003,11 +4003,11 @@
         <v>5</v>
       </c>
       <c r="G80" s="24">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H80" s="17">
         <f t="shared" si="15"/>
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I80" s="16">
         <f t="shared" si="16"/>
@@ -4036,7 +4036,7 @@
         <v>3</v>
       </c>
       <c r="D81" s="13">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="E81" s="4">
         <v>8</v>
@@ -4045,11 +4045,11 @@
         <v>5</v>
       </c>
       <c r="G81" s="24">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H81" s="17">
         <f t="shared" si="15"/>
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I81" s="16">
         <f t="shared" si="16"/>
@@ -4078,7 +4078,7 @@
         <v>0</v>
       </c>
       <c r="D82" s="13">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="E82" s="4">
         <v>8</v>
@@ -4087,11 +4087,11 @@
         <v>5</v>
       </c>
       <c r="G82" s="24">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H82" s="17">
         <f t="shared" si="15"/>
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I82" s="16">
         <f t="shared" si="16"/>
@@ -4120,7 +4120,7 @@
         <v>1</v>
       </c>
       <c r="D83" s="13">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="E83" s="4">
         <v>7</v>
@@ -4129,11 +4129,11 @@
         <v>4</v>
       </c>
       <c r="G83" s="24">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H83" s="17">
         <f t="shared" si="15"/>
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I83" s="16">
         <f t="shared" si="16"/>
@@ -4162,7 +4162,7 @@
         <v>1</v>
       </c>
       <c r="D84" s="13">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E84" s="4">
         <v>7</v>
@@ -4171,11 +4171,11 @@
         <v>4</v>
       </c>
       <c r="G84" s="24">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H84" s="17">
         <f t="shared" si="15"/>
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I84" s="16">
         <f t="shared" si="16"/>
@@ -4204,7 +4204,7 @@
         <v>0</v>
       </c>
       <c r="D85" s="13">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="E85" s="4">
         <v>6</v>
@@ -4213,11 +4213,11 @@
         <v>4</v>
       </c>
       <c r="G85" s="24">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H85" s="17">
         <f t="shared" si="15"/>
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I85" s="16">
         <f t="shared" si="16"/>
@@ -4246,7 +4246,7 @@
         <v>1</v>
       </c>
       <c r="D86" s="13">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="E86" s="4">
         <v>6</v>
@@ -4255,11 +4255,11 @@
         <v>4</v>
       </c>
       <c r="G86" s="24">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H86" s="17">
         <f t="shared" si="15"/>
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I86" s="16">
         <f t="shared" si="16"/>
@@ -4288,7 +4288,7 @@
         <v>0</v>
       </c>
       <c r="D87" s="13">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E87" s="4">
         <v>5</v>
@@ -4297,11 +4297,11 @@
         <v>3</v>
       </c>
       <c r="G87" s="24">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H87" s="17">
         <f t="shared" si="15"/>
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I87" s="16">
         <f t="shared" si="16"/>
@@ -4330,7 +4330,7 @@
         <v>0</v>
       </c>
       <c r="D88" s="13">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E88" s="4">
         <v>5</v>
@@ -4339,11 +4339,11 @@
         <v>3</v>
       </c>
       <c r="G88" s="24">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H88" s="17">
         <f t="shared" si="15"/>
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I88" s="16">
         <f t="shared" si="16"/>
@@ -4372,7 +4372,7 @@
         <v>1</v>
       </c>
       <c r="D89" s="13">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E89" s="4">
         <v>5</v>
@@ -4381,11 +4381,11 @@
         <v>3</v>
       </c>
       <c r="G89" s="24">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H89" s="17">
         <f t="shared" si="15"/>
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I89" s="16">
         <f t="shared" si="16"/>
@@ -4414,7 +4414,7 @@
         <v>2</v>
       </c>
       <c r="D90" s="13">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E90" s="4">
         <v>5</v>
@@ -4423,11 +4423,11 @@
         <v>3</v>
       </c>
       <c r="G90" s="24">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H90" s="17">
         <f t="shared" si="15"/>
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I90" s="16">
         <f t="shared" si="16"/>
@@ -4456,7 +4456,7 @@
         <v>3</v>
       </c>
       <c r="D91" s="13">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E91" s="4">
         <v>4</v>
@@ -4465,11 +4465,11 @@
         <v>3</v>
       </c>
       <c r="G91" s="24">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H91" s="17">
         <f t="shared" si="15"/>
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I91" s="16">
         <f t="shared" si="16"/>
@@ -4491,14 +4491,14 @@
         <v>43978</v>
       </c>
       <c r="B92" s="19">
-        <f t="shared" ref="B92:B96" si="18">B91+C92</f>
+        <f t="shared" ref="B92:B94" si="18">B91+C92</f>
         <v>1942</v>
       </c>
       <c r="C92" s="13">
         <v>1</v>
       </c>
       <c r="D92" s="13">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E92" s="4">
         <v>4</v>
@@ -4507,18 +4507,18 @@
         <v>3</v>
       </c>
       <c r="G92" s="24">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H92" s="17">
         <f t="shared" si="15"/>
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I92" s="16">
-        <f t="shared" ref="I92:I96" si="19">I91+J92</f>
+        <f t="shared" ref="I92:I94" si="19">I91+J92</f>
         <v>151</v>
       </c>
       <c r="J92" s="16">
-        <f t="shared" ref="J92:J96" si="20">K92+L92</f>
+        <f t="shared" ref="J92:J94" si="20">K92+L92</f>
         <v>0</v>
       </c>
       <c r="K92" s="26">
@@ -4540,7 +4540,7 @@
         <v>1</v>
       </c>
       <c r="D93" s="13">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E93" s="4">
         <v>4</v>
@@ -4549,11 +4549,11 @@
         <v>3</v>
       </c>
       <c r="G93" s="24">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H93" s="17">
         <f t="shared" si="15"/>
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I93" s="16">
         <f t="shared" si="19"/>
@@ -4582,7 +4582,7 @@
         <v>0</v>
       </c>
       <c r="D94" s="13">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E94" s="4">
         <v>4</v>
@@ -4591,11 +4591,11 @@
         <v>3</v>
       </c>
       <c r="G94" s="24">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H94" s="17">
         <f t="shared" si="15"/>
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I94" s="16">
         <f t="shared" si="19"/>
@@ -4617,14 +4617,14 @@
         <v>43981</v>
       </c>
       <c r="B95" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="B95:B104" si="21">B94+C95</f>
         <v>1943</v>
       </c>
       <c r="C95" s="13">
         <v>0</v>
       </c>
       <c r="D95" s="13">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E95" s="4">
         <v>4</v>
@@ -4633,18 +4633,18 @@
         <v>3</v>
       </c>
       <c r="G95" s="24">
+        <v>11</v>
+      </c>
+      <c r="H95" s="17">
+        <f t="shared" ref="H95:H104" si="22">G95+E95</f>
         <v>15</v>
       </c>
-      <c r="H95" s="17">
-        <f t="shared" si="15"/>
-        <v>19</v>
-      </c>
       <c r="I95" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="I95:I104" si="23">I94+J95</f>
         <v>151</v>
       </c>
       <c r="J95" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="J95:J104" si="24">K95+L95</f>
         <v>0</v>
       </c>
       <c r="K95" s="26">
@@ -4659,34 +4659,34 @@
         <v>43982</v>
       </c>
       <c r="B96" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1945</v>
       </c>
       <c r="C96" s="13">
         <v>2</v>
       </c>
       <c r="D96" s="13">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="E96" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F96" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G96" s="24">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H96" s="17">
-        <f t="shared" si="15"/>
-        <v>21</v>
+        <f t="shared" si="22"/>
+        <v>16</v>
       </c>
       <c r="I96" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>151</v>
       </c>
       <c r="J96" s="16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="K96" s="26">
@@ -4701,34 +4701,34 @@
         <v>43983</v>
       </c>
       <c r="B97" s="19">
-        <f t="shared" ref="B97:B101" si="21">B96+C97</f>
-        <v>1946</v>
+        <f t="shared" si="21"/>
+        <v>1947</v>
       </c>
       <c r="C97" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D97" s="13">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="E97" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F97" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G97" s="24">
+        <v>12</v>
+      </c>
+      <c r="H97" s="17">
+        <f t="shared" si="22"/>
         <v>16</v>
       </c>
-      <c r="H97" s="17">
-        <f t="shared" ref="H97:H101" si="22">G97+E97</f>
-        <v>21</v>
-      </c>
       <c r="I97" s="16">
-        <f t="shared" ref="I97:I101" si="23">I96+J97</f>
+        <f t="shared" si="23"/>
         <v>151</v>
       </c>
       <c r="J97" s="16">
-        <f t="shared" ref="J97:J101" si="24">K97+L97</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="K97" s="26">
@@ -4744,26 +4744,26 @@
       </c>
       <c r="B98" s="19">
         <f t="shared" si="21"/>
-        <v>1947</v>
+        <v>1948</v>
       </c>
       <c r="C98" s="13">
         <v>1</v>
       </c>
       <c r="D98" s="13">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E98" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F98" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G98" s="24">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H98" s="17">
         <f t="shared" si="22"/>
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I98" s="16">
         <f t="shared" si="23"/>
@@ -4786,26 +4786,26 @@
       </c>
       <c r="B99" s="19">
         <f t="shared" si="21"/>
-        <v>1947</v>
+        <v>1948</v>
       </c>
       <c r="C99" s="13">
         <v>0</v>
       </c>
       <c r="D99" s="13">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E99" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F99" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G99" s="24">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H99" s="17">
         <f t="shared" si="22"/>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I99" s="16">
         <f t="shared" si="23"/>
@@ -4828,26 +4828,26 @@
       </c>
       <c r="B100" s="19">
         <f t="shared" si="21"/>
-        <v>1948</v>
+        <v>1950</v>
       </c>
       <c r="C100" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D100" s="13">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="E100" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F100" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G100" s="24">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H100" s="17">
         <f t="shared" si="22"/>
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I100" s="16">
         <f t="shared" si="23"/>
@@ -4865,44 +4865,170 @@
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A101" s="2">
+      <c r="A101" s="1">
         <v>43987</v>
       </c>
-      <c r="B101" s="20">
+      <c r="B101" s="19">
         <f t="shared" si="21"/>
-        <v>1948</v>
-      </c>
-      <c r="C101" s="14">
-        <v>0</v>
-      </c>
-      <c r="D101" s="14">
-        <v>21</v>
-      </c>
-      <c r="E101" s="30">
-        <v>5</v>
-      </c>
-      <c r="F101" s="31">
+        <v>1953</v>
+      </c>
+      <c r="C101" s="13">
+        <v>3</v>
+      </c>
+      <c r="D101" s="13">
+        <v>0</v>
+      </c>
+      <c r="E101" s="4">
         <v>4</v>
       </c>
-      <c r="G101" s="25">
+      <c r="F101" s="3">
+        <v>3</v>
+      </c>
+      <c r="G101" s="24">
+        <v>12</v>
+      </c>
+      <c r="H101" s="17">
+        <f t="shared" si="22"/>
         <v>16</v>
       </c>
-      <c r="H101" s="18">
-        <f t="shared" si="22"/>
-        <v>21</v>
-      </c>
-      <c r="I101" s="21">
+      <c r="I101" s="16">
         <f t="shared" si="23"/>
         <v>151</v>
       </c>
-      <c r="J101" s="21">
+      <c r="J101" s="16">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K101" s="28">
-        <v>0</v>
-      </c>
-      <c r="L101" s="29">
+      <c r="K101" s="26">
+        <v>0</v>
+      </c>
+      <c r="L101" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>43988</v>
+      </c>
+      <c r="B102" s="19">
+        <f t="shared" si="21"/>
+        <v>1953</v>
+      </c>
+      <c r="C102" s="13">
+        <v>0</v>
+      </c>
+      <c r="D102" s="13">
+        <v>0</v>
+      </c>
+      <c r="E102" s="4">
+        <v>4</v>
+      </c>
+      <c r="F102" s="3">
+        <v>3</v>
+      </c>
+      <c r="G102" s="24">
+        <v>12</v>
+      </c>
+      <c r="H102" s="17">
+        <f t="shared" si="22"/>
+        <v>16</v>
+      </c>
+      <c r="I102" s="16">
+        <f t="shared" si="23"/>
+        <v>151</v>
+      </c>
+      <c r="J102" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="K102" s="26">
+        <v>0</v>
+      </c>
+      <c r="L102" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>43989</v>
+      </c>
+      <c r="B103" s="19">
+        <f t="shared" si="21"/>
+        <v>1956</v>
+      </c>
+      <c r="C103" s="13">
+        <v>3</v>
+      </c>
+      <c r="D103" s="13">
+        <v>0</v>
+      </c>
+      <c r="E103" s="4">
+        <v>4</v>
+      </c>
+      <c r="F103" s="3">
+        <v>3</v>
+      </c>
+      <c r="G103" s="24">
+        <v>12</v>
+      </c>
+      <c r="H103" s="17">
+        <f t="shared" si="22"/>
+        <v>16</v>
+      </c>
+      <c r="I103" s="16">
+        <f t="shared" si="23"/>
+        <v>151</v>
+      </c>
+      <c r="J103" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="K103" s="26">
+        <v>0</v>
+      </c>
+      <c r="L103" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104" s="2">
+        <v>43990</v>
+      </c>
+      <c r="B104" s="20">
+        <f t="shared" si="21"/>
+        <v>1957</v>
+      </c>
+      <c r="C104" s="14">
+        <v>1</v>
+      </c>
+      <c r="D104" s="14">
+        <v>0</v>
+      </c>
+      <c r="E104" s="30">
+        <v>4</v>
+      </c>
+      <c r="F104" s="31">
+        <v>3</v>
+      </c>
+      <c r="G104" s="25">
+        <v>12</v>
+      </c>
+      <c r="H104" s="18">
+        <f t="shared" si="22"/>
+        <v>16</v>
+      </c>
+      <c r="I104" s="21">
+        <f t="shared" si="23"/>
+        <v>151</v>
+      </c>
+      <c r="J104" s="21">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="K104" s="28">
+        <v>0</v>
+      </c>
+      <c r="L104" s="29">
         <v>0</v>
       </c>
     </row>

--- a/Chiffres  COVID-19 Valais.xlsx
+++ b/Chiffres  COVID-19 Valais.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -78,9 +78,6 @@
     <t>Nb nouveaux cas positifs</t>
   </si>
   <si>
-    <t>Patients COVID-19 aux SI total</t>
-  </si>
-  <si>
     <t>Cumul décès COVID-19</t>
   </si>
   <si>
@@ -96,7 +93,13 @@
     <t>Nb nouveaux décès extra-hospitaliers</t>
   </si>
   <si>
-    <t>Données COVID-19 Valais 08.06.2020</t>
+    <t>Patients COVID-19 aux SI total (y.c. intubés)</t>
+  </si>
+  <si>
+    <t>Données COVID-19 Valais 09.06.2020</t>
+  </si>
+  <si>
+    <t>Nb de nouvelles sorties</t>
   </si>
 </sst>
 </file>
@@ -290,7 +293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -303,9 +306,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -381,6 +381,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -675,91 +684,92 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O104"/>
+  <dimension ref="A1:M105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:T1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="11.42578125" style="15"/>
-    <col min="4" max="4" width="10.85546875" style="15"/>
-    <col min="8" max="8" width="16.140625" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="6" customWidth="1"/>
+    <col min="2" max="3" width="11.42578125" style="14"/>
+    <col min="4" max="4" width="10.85546875" style="14"/>
+    <col min="8" max="9" width="16.140625" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="34"/>
-    </row>
-    <row r="2" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="36"/>
+    </row>
+    <row r="2" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="23" t="s">
+      <c r="M2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43889</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B3" s="18">
         <f>C3</f>
         <v>1</v>
       </c>
-      <c r="C3" s="13">
-        <v>1</v>
-      </c>
-      <c r="D3" s="13">
+      <c r="C3" s="12">
+        <v>1</v>
+      </c>
+      <c r="D3" s="12">
         <v>6</v>
       </c>
       <c r="E3" s="4">
@@ -768,40 +778,43 @@
       <c r="F3" s="3">
         <v>0</v>
       </c>
-      <c r="G3" s="24">
+      <c r="G3" s="23">
         <v>6</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3" s="16">
         <f t="shared" ref="H3:H34" si="0">G3+E3</f>
         <v>6</v>
       </c>
-      <c r="I3" s="16">
-        <f>J3</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="16">
-        <f>K3+L3</f>
-        <v>0</v>
-      </c>
-      <c r="K3" s="26">
-        <v>0</v>
-      </c>
-      <c r="L3" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I3" s="32">
+        <v>0</v>
+      </c>
+      <c r="J3" s="15">
+        <f>K3</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="15">
+        <f>L3+M3</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="25">
+        <v>0</v>
+      </c>
+      <c r="M3" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43890</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="18">
         <f t="shared" ref="B4:B16" si="1">B3+C4</f>
         <v>1</v>
       </c>
-      <c r="C4" s="13">
-        <v>0</v>
-      </c>
-      <c r="D4" s="13">
+      <c r="C4" s="12">
+        <v>0</v>
+      </c>
+      <c r="D4" s="12">
         <v>0</v>
       </c>
       <c r="E4" s="4">
@@ -810,40 +823,43 @@
       <c r="F4" s="3">
         <v>0</v>
       </c>
-      <c r="G4" s="24">
+      <c r="G4" s="23">
         <v>6</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="16">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="I4" s="16">
-        <f>I3+J4</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="16">
-        <f t="shared" ref="J4:J16" si="2">K4+L4</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="26">
-        <v>0</v>
-      </c>
-      <c r="L4" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I4" s="32">
+        <v>0</v>
+      </c>
+      <c r="J4" s="15">
+        <f>J3+K4</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="15">
+        <f t="shared" ref="K4:K16" si="2">L4+M4</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="25">
+        <v>0</v>
+      </c>
+      <c r="M4" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43891</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="18">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="C5" s="13">
-        <v>1</v>
-      </c>
-      <c r="D5" s="13">
+      <c r="C5" s="12">
+        <v>1</v>
+      </c>
+      <c r="D5" s="12">
         <v>1</v>
       </c>
       <c r="E5" s="4">
@@ -852,40 +868,43 @@
       <c r="F5" s="3">
         <v>0</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G5" s="23">
         <v>7</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="16">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="I5" s="16">
-        <f t="shared" ref="I5:I16" si="3">I4+J5</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="16">
+      <c r="I5" s="32">
+        <v>0</v>
+      </c>
+      <c r="J5" s="15">
+        <f t="shared" ref="J5:J16" si="3">J4+K5</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K5" s="26">
-        <v>0</v>
-      </c>
-      <c r="L5" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L5" s="25">
+        <v>0</v>
+      </c>
+      <c r="M5" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43892</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="18">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="C6" s="13">
-        <v>1</v>
-      </c>
-      <c r="D6" s="13">
+      <c r="C6" s="12">
+        <v>1</v>
+      </c>
+      <c r="D6" s="12">
         <v>3</v>
       </c>
       <c r="E6" s="4">
@@ -894,40 +913,43 @@
       <c r="F6" s="3">
         <v>0</v>
       </c>
-      <c r="G6" s="24">
+      <c r="G6" s="23">
         <v>10</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="16">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="32">
+        <v>0</v>
+      </c>
+      <c r="J6" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J6" s="16">
+      <c r="K6" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K6" s="26">
-        <v>0</v>
-      </c>
-      <c r="L6" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L6" s="25">
+        <v>0</v>
+      </c>
+      <c r="M6" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43893</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="18">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="C7" s="13">
-        <v>0</v>
-      </c>
-      <c r="D7" s="13">
+      <c r="C7" s="12">
+        <v>0</v>
+      </c>
+      <c r="D7" s="12">
         <v>2</v>
       </c>
       <c r="E7" s="4">
@@ -936,40 +958,43 @@
       <c r="F7" s="3">
         <v>0</v>
       </c>
-      <c r="G7" s="24">
+      <c r="G7" s="23">
         <v>12</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="16">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7" s="32">
+        <v>0</v>
+      </c>
+      <c r="J7" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J7" s="16">
+      <c r="K7" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K7" s="26">
-        <v>0</v>
-      </c>
-      <c r="L7" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L7" s="25">
+        <v>0</v>
+      </c>
+      <c r="M7" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43894</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="18">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C8" s="13">
-        <v>1</v>
-      </c>
-      <c r="D8" s="13">
+      <c r="C8" s="12">
+        <v>1</v>
+      </c>
+      <c r="D8" s="12">
         <v>1</v>
       </c>
       <c r="E8" s="4">
@@ -978,40 +1003,43 @@
       <c r="F8" s="3">
         <v>0</v>
       </c>
-      <c r="G8" s="24">
+      <c r="G8" s="23">
         <v>13</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="16">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I8" s="32">
+        <v>0</v>
+      </c>
+      <c r="J8" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J8" s="16">
+      <c r="K8" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K8" s="26">
-        <v>0</v>
-      </c>
-      <c r="L8" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L8" s="25">
+        <v>0</v>
+      </c>
+      <c r="M8" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43895</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="18">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C9" s="13">
-        <v>1</v>
-      </c>
-      <c r="D9" s="13">
+      <c r="C9" s="12">
+        <v>1</v>
+      </c>
+      <c r="D9" s="12">
         <v>0</v>
       </c>
       <c r="E9" s="4">
@@ -1020,40 +1048,43 @@
       <c r="F9" s="3">
         <v>0</v>
       </c>
-      <c r="G9" s="24">
+      <c r="G9" s="23">
         <v>11</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="16">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I9" s="32">
+        <v>2</v>
+      </c>
+      <c r="J9" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J9" s="16">
+      <c r="K9" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K9" s="26">
-        <v>0</v>
-      </c>
-      <c r="L9" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L9" s="25">
+        <v>0</v>
+      </c>
+      <c r="M9" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43896</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="18">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C10" s="13">
-        <v>1</v>
-      </c>
-      <c r="D10" s="13">
+      <c r="C10" s="12">
+        <v>1</v>
+      </c>
+      <c r="D10" s="12">
         <v>1</v>
       </c>
       <c r="E10" s="4">
@@ -1062,40 +1093,43 @@
       <c r="F10" s="3">
         <v>0</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="23">
         <v>12</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="16">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I10" s="32">
+        <v>0</v>
+      </c>
+      <c r="J10" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J10" s="16">
+      <c r="K10" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K10" s="26">
-        <v>0</v>
-      </c>
-      <c r="L10" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L10" s="25">
+        <v>0</v>
+      </c>
+      <c r="M10" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43897</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="18">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C11" s="13">
-        <v>1</v>
-      </c>
-      <c r="D11" s="13">
+      <c r="C11" s="12">
+        <v>1</v>
+      </c>
+      <c r="D11" s="12">
         <v>0</v>
       </c>
       <c r="E11" s="4">
@@ -1104,40 +1138,43 @@
       <c r="F11" s="3">
         <v>0</v>
       </c>
-      <c r="G11" s="24">
+      <c r="G11" s="23">
         <v>12</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="16">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="I11" s="16">
+      <c r="I11" s="32">
+        <v>0</v>
+      </c>
+      <c r="J11" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J11" s="16">
+      <c r="K11" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K11" s="26">
-        <v>0</v>
-      </c>
-      <c r="L11" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L11" s="25">
+        <v>0</v>
+      </c>
+      <c r="M11" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43898</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="18">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="12">
         <v>5</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="12">
         <v>4</v>
       </c>
       <c r="E12" s="4">
@@ -1146,40 +1183,43 @@
       <c r="F12" s="3">
         <v>1</v>
       </c>
-      <c r="G12" s="24">
+      <c r="G12" s="23">
         <v>15</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="16">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="I12" s="16">
+      <c r="I12" s="32">
+        <v>0</v>
+      </c>
+      <c r="J12" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J12" s="16">
+      <c r="K12" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K12" s="26">
-        <v>0</v>
-      </c>
-      <c r="L12" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L12" s="25">
+        <v>0</v>
+      </c>
+      <c r="M12" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43899</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="18">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="12">
         <v>5</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="12">
         <v>1</v>
       </c>
       <c r="E13" s="4">
@@ -1188,40 +1228,43 @@
       <c r="F13" s="3">
         <v>1</v>
       </c>
-      <c r="G13" s="24">
+      <c r="G13" s="23">
         <v>16</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="16">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="I13" s="16">
+      <c r="I13" s="32">
+        <v>0</v>
+      </c>
+      <c r="J13" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J13" s="16">
+      <c r="K13" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K13" s="26">
-        <v>0</v>
-      </c>
-      <c r="L13" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L13" s="25">
+        <v>0</v>
+      </c>
+      <c r="M13" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43900</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="18">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="12">
         <v>5</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="12">
         <v>3</v>
       </c>
       <c r="E14" s="4">
@@ -1230,40 +1273,43 @@
       <c r="F14" s="3">
         <v>1</v>
       </c>
-      <c r="G14" s="24">
+      <c r="G14" s="23">
         <v>19</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H14" s="16">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="I14" s="16">
+      <c r="I14" s="32">
+        <v>0</v>
+      </c>
+      <c r="J14" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J14" s="16">
+      <c r="K14" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K14" s="26">
-        <v>0</v>
-      </c>
-      <c r="L14" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L14" s="25">
+        <v>0</v>
+      </c>
+      <c r="M14" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43901</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="18">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="12">
         <v>8</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="12">
         <v>2</v>
       </c>
       <c r="E15" s="4">
@@ -1272,40 +1318,43 @@
       <c r="F15" s="3">
         <v>1</v>
       </c>
-      <c r="G15" s="24">
+      <c r="G15" s="23">
         <v>20</v>
       </c>
-      <c r="H15" s="17">
+      <c r="H15" s="16">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="I15" s="16">
+      <c r="I15" s="32">
+        <v>1</v>
+      </c>
+      <c r="J15" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J15" s="16">
+      <c r="K15" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K15" s="26">
-        <v>0</v>
-      </c>
-      <c r="L15" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L15" s="25">
+        <v>0</v>
+      </c>
+      <c r="M15" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43902</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B16" s="18">
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="12">
         <v>23</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="12">
         <v>7</v>
       </c>
       <c r="E16" s="4">
@@ -1314,40 +1363,43 @@
       <c r="F16" s="3">
         <v>1</v>
       </c>
-      <c r="G16" s="24">
+      <c r="G16" s="23">
         <v>27</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H16" s="16">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="I16" s="16">
+      <c r="I16" s="32">
+        <v>0</v>
+      </c>
+      <c r="J16" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J16" s="16">
+      <c r="K16" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K16" s="26">
-        <v>0</v>
-      </c>
-      <c r="L16" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L16" s="25">
+        <v>0</v>
+      </c>
+      <c r="M16" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43903</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17" s="18">
         <f t="shared" ref="B17" si="4">B16+C17</f>
         <v>76</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="12">
         <v>23</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="12">
         <v>4</v>
       </c>
       <c r="E17" s="4">
@@ -1356,40 +1408,43 @@
       <c r="F17" s="3">
         <v>1</v>
       </c>
-      <c r="G17" s="24">
+      <c r="G17" s="23">
         <v>29</v>
       </c>
-      <c r="H17" s="17">
+      <c r="H17" s="16">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="I17" s="16">
-        <f t="shared" ref="I17" si="5">I16+J17</f>
-        <v>1</v>
-      </c>
-      <c r="J17" s="16">
-        <f t="shared" ref="J17" si="6">K17+L17</f>
-        <v>1</v>
-      </c>
-      <c r="K17" s="26">
-        <v>0</v>
-      </c>
-      <c r="L17" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I17" s="32">
+        <v>2</v>
+      </c>
+      <c r="J17" s="15">
+        <f t="shared" ref="J17" si="5">J16+K17</f>
+        <v>1</v>
+      </c>
+      <c r="K17" s="15">
+        <f t="shared" ref="K17" si="6">L17+M17</f>
+        <v>1</v>
+      </c>
+      <c r="L17" s="25">
+        <v>0</v>
+      </c>
+      <c r="M17" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43904</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="18">
         <f t="shared" ref="B18:B22" si="7">B17+C18</f>
         <v>98</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="12">
         <v>22</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="12">
         <v>5</v>
       </c>
       <c r="E18" s="4">
@@ -1398,40 +1453,43 @@
       <c r="F18" s="3">
         <v>1</v>
       </c>
-      <c r="G18" s="24">
+      <c r="G18" s="23">
         <v>33</v>
       </c>
-      <c r="H18" s="17">
+      <c r="H18" s="16">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="I18" s="16">
-        <f t="shared" ref="I18:I22" si="8">I17+J18</f>
-        <v>1</v>
-      </c>
-      <c r="J18" s="16">
-        <f t="shared" ref="J18:J22" si="9">K18+L18</f>
-        <v>0</v>
-      </c>
-      <c r="K18" s="26">
-        <v>0</v>
-      </c>
-      <c r="L18" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I18" s="32">
+        <v>1</v>
+      </c>
+      <c r="J18" s="15">
+        <f t="shared" ref="J18:J22" si="8">J17+K18</f>
+        <v>1</v>
+      </c>
+      <c r="K18" s="15">
+        <f t="shared" ref="K18:K22" si="9">L18+M18</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="25">
+        <v>0</v>
+      </c>
+      <c r="M18" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43905</v>
       </c>
-      <c r="B19" s="19">
+      <c r="B19" s="18">
         <f t="shared" si="7"/>
         <v>115</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="12">
         <v>17</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="12">
         <v>3</v>
       </c>
       <c r="E19" s="4">
@@ -1440,40 +1498,43 @@
       <c r="F19" s="3">
         <v>1</v>
       </c>
-      <c r="G19" s="24">
+      <c r="G19" s="23">
         <v>35</v>
       </c>
-      <c r="H19" s="17">
+      <c r="H19" s="16">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="I19" s="16">
+      <c r="I19" s="32">
+        <v>0</v>
+      </c>
+      <c r="J19" s="15">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="J19" s="16">
+      <c r="K19" s="15">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="K19" s="26">
-        <v>1</v>
-      </c>
-      <c r="L19" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L19" s="25">
+        <v>1</v>
+      </c>
+      <c r="M19" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43906</v>
       </c>
-      <c r="B20" s="19">
+      <c r="B20" s="18">
         <f t="shared" si="7"/>
         <v>172</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="12">
         <v>57</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="12">
         <v>9</v>
       </c>
       <c r="E20" s="4">
@@ -1482,40 +1543,43 @@
       <c r="F20" s="3">
         <v>1</v>
       </c>
-      <c r="G20" s="24">
+      <c r="G20" s="23">
         <v>40</v>
       </c>
-      <c r="H20" s="17">
+      <c r="H20" s="16">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="I20" s="16">
+      <c r="I20" s="32">
+        <v>2</v>
+      </c>
+      <c r="J20" s="15">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="J20" s="16">
+      <c r="K20" s="15">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="K20" s="26">
-        <v>1</v>
-      </c>
-      <c r="L20" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L20" s="25">
+        <v>1</v>
+      </c>
+      <c r="M20" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43907</v>
       </c>
-      <c r="B21" s="19">
+      <c r="B21" s="18">
         <f t="shared" si="7"/>
         <v>225</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="12">
         <v>53</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="12">
         <v>8</v>
       </c>
       <c r="E21" s="4">
@@ -1524,40 +1588,43 @@
       <c r="F21" s="3">
         <v>2</v>
       </c>
-      <c r="G21" s="24">
+      <c r="G21" s="23">
         <v>45</v>
       </c>
-      <c r="H21" s="17">
+      <c r="H21" s="16">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="I21" s="16">
+      <c r="I21" s="32">
+        <v>3</v>
+      </c>
+      <c r="J21" s="15">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="J21" s="16">
+      <c r="K21" s="15">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K21" s="26">
-        <v>0</v>
-      </c>
-      <c r="L21" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L21" s="25">
+        <v>0</v>
+      </c>
+      <c r="M21" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43908</v>
       </c>
-      <c r="B22" s="19">
+      <c r="B22" s="18">
         <f t="shared" si="7"/>
         <v>312</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22" s="12">
         <v>87</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="12">
         <v>12</v>
       </c>
       <c r="E22" s="4">
@@ -1566,40 +1633,43 @@
       <c r="F22" s="3">
         <v>2</v>
       </c>
-      <c r="G22" s="24">
+      <c r="G22" s="23">
         <v>57</v>
       </c>
-      <c r="H22" s="17">
+      <c r="H22" s="16">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="I22" s="16">
+      <c r="I22" s="32">
+        <v>0</v>
+      </c>
+      <c r="J22" s="15">
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="J22" s="16">
+      <c r="K22" s="15">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="K22" s="26">
-        <v>0</v>
-      </c>
-      <c r="L22" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L22" s="25">
+        <v>0</v>
+      </c>
+      <c r="M22" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43909</v>
       </c>
-      <c r="B23" s="19">
+      <c r="B23" s="18">
         <f t="shared" ref="B23:B66" si="10">B22+C23</f>
         <v>349</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="12">
         <v>37</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D23" s="12">
         <v>8</v>
       </c>
       <c r="E23" s="4">
@@ -1608,40 +1678,43 @@
       <c r="F23" s="3">
         <v>5</v>
       </c>
-      <c r="G23" s="24">
+      <c r="G23" s="23">
         <v>59</v>
       </c>
-      <c r="H23" s="17">
+      <c r="H23" s="16">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="I23" s="16">
-        <f t="shared" ref="I23:I66" si="11">I22+J23</f>
+      <c r="I23" s="32">
+        <v>1</v>
+      </c>
+      <c r="J23" s="15">
+        <f t="shared" ref="J23:J66" si="11">J22+K23</f>
         <v>6</v>
       </c>
-      <c r="J23" s="16">
-        <f t="shared" ref="J23:J66" si="12">K23+L23</f>
-        <v>2</v>
-      </c>
-      <c r="K23" s="26">
-        <v>2</v>
-      </c>
-      <c r="L23" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K23" s="15">
+        <f t="shared" ref="K23:K66" si="12">L23+M23</f>
+        <v>2</v>
+      </c>
+      <c r="L23" s="25">
+        <v>2</v>
+      </c>
+      <c r="M23" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43910</v>
       </c>
-      <c r="B24" s="19">
+      <c r="B24" s="18">
         <f t="shared" si="10"/>
         <v>436</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C24" s="12">
         <v>87</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D24" s="12">
         <v>12</v>
       </c>
       <c r="E24" s="4">
@@ -1650,40 +1723,43 @@
       <c r="F24" s="3">
         <v>5</v>
       </c>
-      <c r="G24" s="24">
+      <c r="G24" s="23">
         <v>67</v>
       </c>
-      <c r="H24" s="17">
+      <c r="H24" s="16">
         <f t="shared" si="0"/>
         <v>73</v>
       </c>
-      <c r="I24" s="16">
+      <c r="I24" s="32">
+        <v>3</v>
+      </c>
+      <c r="J24" s="15">
         <f t="shared" si="11"/>
         <v>7</v>
       </c>
-      <c r="J24" s="16">
+      <c r="K24" s="15">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="K24" s="26">
-        <v>0</v>
-      </c>
-      <c r="L24" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L24" s="25">
+        <v>0</v>
+      </c>
+      <c r="M24" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43911</v>
       </c>
-      <c r="B25" s="19">
+      <c r="B25" s="18">
         <f t="shared" si="10"/>
         <v>498</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C25" s="12">
         <v>62</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D25" s="12">
         <v>15</v>
       </c>
       <c r="E25" s="4">
@@ -1692,40 +1768,43 @@
       <c r="F25" s="3">
         <v>6</v>
       </c>
-      <c r="G25" s="24">
+      <c r="G25" s="23">
         <v>75</v>
       </c>
-      <c r="H25" s="17">
+      <c r="H25" s="16">
         <f t="shared" si="0"/>
         <v>83</v>
       </c>
-      <c r="I25" s="16">
+      <c r="I25" s="32">
+        <v>2</v>
+      </c>
+      <c r="J25" s="15">
         <f t="shared" si="11"/>
         <v>10</v>
       </c>
-      <c r="J25" s="16">
+      <c r="K25" s="15">
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="K25" s="26">
-        <v>3</v>
-      </c>
-      <c r="L25" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L25" s="25">
+        <v>3</v>
+      </c>
+      <c r="M25" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43912</v>
       </c>
-      <c r="B26" s="19">
+      <c r="B26" s="18">
         <f t="shared" si="10"/>
         <v>535</v>
       </c>
-      <c r="C26" s="13">
+      <c r="C26" s="12">
         <v>37</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D26" s="12">
         <v>11</v>
       </c>
       <c r="E26" s="4">
@@ -1734,40 +1813,43 @@
       <c r="F26" s="3">
         <v>7</v>
       </c>
-      <c r="G26" s="24">
+      <c r="G26" s="23">
         <v>81</v>
       </c>
-      <c r="H26" s="17">
+      <c r="H26" s="16">
         <f t="shared" si="0"/>
         <v>92</v>
       </c>
-      <c r="I26" s="16">
+      <c r="I26" s="32">
+        <v>2</v>
+      </c>
+      <c r="J26" s="15">
         <f t="shared" si="11"/>
         <v>11</v>
       </c>
-      <c r="J26" s="16">
+      <c r="K26" s="15">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="K26" s="26">
-        <v>0</v>
-      </c>
-      <c r="L26" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L26" s="25">
+        <v>0</v>
+      </c>
+      <c r="M26" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43913</v>
       </c>
-      <c r="B27" s="19">
+      <c r="B27" s="18">
         <f t="shared" si="10"/>
         <v>628</v>
       </c>
-      <c r="C27" s="13">
+      <c r="C27" s="12">
         <v>93</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D27" s="12">
         <v>18</v>
       </c>
       <c r="E27" s="4">
@@ -1776,40 +1858,43 @@
       <c r="F27" s="3">
         <v>9</v>
       </c>
-      <c r="G27" s="24">
+      <c r="G27" s="23">
         <v>92</v>
       </c>
-      <c r="H27" s="17">
+      <c r="H27" s="16">
         <f t="shared" si="0"/>
         <v>104</v>
       </c>
-      <c r="I27" s="16">
+      <c r="I27" s="32">
+        <v>5</v>
+      </c>
+      <c r="J27" s="15">
         <f t="shared" si="11"/>
         <v>13</v>
       </c>
-      <c r="J27" s="16">
+      <c r="K27" s="15">
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="K27" s="26">
-        <v>1</v>
-      </c>
-      <c r="L27" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L27" s="25">
+        <v>1</v>
+      </c>
+      <c r="M27" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43914</v>
       </c>
-      <c r="B28" s="19">
+      <c r="B28" s="18">
         <f t="shared" si="10"/>
         <v>728</v>
       </c>
-      <c r="C28" s="13">
+      <c r="C28" s="12">
         <v>100</v>
       </c>
-      <c r="D28" s="13">
+      <c r="D28" s="12">
         <v>16</v>
       </c>
       <c r="E28" s="4">
@@ -1818,40 +1903,43 @@
       <c r="F28" s="3">
         <v>12</v>
       </c>
-      <c r="G28" s="24">
+      <c r="G28" s="23">
         <v>105</v>
       </c>
-      <c r="H28" s="17">
+      <c r="H28" s="16">
         <f t="shared" si="0"/>
         <v>118</v>
       </c>
-      <c r="I28" s="16">
+      <c r="I28" s="32">
+        <v>1</v>
+      </c>
+      <c r="J28" s="15">
         <f t="shared" si="11"/>
         <v>14</v>
       </c>
-      <c r="J28" s="16">
+      <c r="K28" s="15">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="K28" s="26">
-        <v>1</v>
-      </c>
-      <c r="L28" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L28" s="25">
+        <v>1</v>
+      </c>
+      <c r="M28" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43915</v>
       </c>
-      <c r="B29" s="19">
+      <c r="B29" s="18">
         <f t="shared" si="10"/>
         <v>793</v>
       </c>
-      <c r="C29" s="13">
+      <c r="C29" s="12">
         <v>65</v>
       </c>
-      <c r="D29" s="13">
+      <c r="D29" s="12">
         <v>12</v>
       </c>
       <c r="E29" s="4">
@@ -1860,40 +1948,43 @@
       <c r="F29" s="3">
         <v>14</v>
       </c>
-      <c r="G29" s="24">
+      <c r="G29" s="23">
         <v>104</v>
       </c>
-      <c r="H29" s="17">
+      <c r="H29" s="16">
         <f t="shared" si="0"/>
         <v>119</v>
       </c>
-      <c r="I29" s="16">
+      <c r="I29" s="32">
+        <v>10</v>
+      </c>
+      <c r="J29" s="15">
         <f t="shared" si="11"/>
         <v>15</v>
       </c>
-      <c r="J29" s="16">
+      <c r="K29" s="15">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="K29" s="26">
-        <v>1</v>
-      </c>
-      <c r="L29" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L29" s="25">
+        <v>1</v>
+      </c>
+      <c r="M29" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43916</v>
       </c>
-      <c r="B30" s="19">
+      <c r="B30" s="18">
         <f t="shared" si="10"/>
         <v>874</v>
       </c>
-      <c r="C30" s="13">
+      <c r="C30" s="12">
         <v>81</v>
       </c>
-      <c r="D30" s="13">
+      <c r="D30" s="12">
         <v>18</v>
       </c>
       <c r="E30" s="4">
@@ -1902,40 +1993,43 @@
       <c r="F30" s="3">
         <v>17</v>
       </c>
-      <c r="G30" s="24">
+      <c r="G30" s="23">
         <v>110</v>
       </c>
-      <c r="H30" s="17">
+      <c r="H30" s="16">
         <f t="shared" si="0"/>
         <v>129</v>
       </c>
-      <c r="I30" s="16">
+      <c r="I30" s="32">
+        <v>6</v>
+      </c>
+      <c r="J30" s="15">
         <f t="shared" si="11"/>
         <v>17</v>
       </c>
-      <c r="J30" s="16">
+      <c r="K30" s="15">
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="K30" s="26">
-        <v>2</v>
-      </c>
-      <c r="L30" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L30" s="25">
+        <v>2</v>
+      </c>
+      <c r="M30" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43917</v>
       </c>
-      <c r="B31" s="19">
+      <c r="B31" s="18">
         <f t="shared" si="10"/>
         <v>968</v>
       </c>
-      <c r="C31" s="13">
+      <c r="C31" s="12">
         <v>94</v>
       </c>
-      <c r="D31" s="13">
+      <c r="D31" s="12">
         <v>20</v>
       </c>
       <c r="E31" s="4">
@@ -1944,40 +2038,43 @@
       <c r="F31" s="3">
         <v>16</v>
       </c>
-      <c r="G31" s="24">
+      <c r="G31" s="23">
         <v>118</v>
       </c>
-      <c r="H31" s="17">
+      <c r="H31" s="16">
         <f t="shared" si="0"/>
         <v>138</v>
       </c>
-      <c r="I31" s="16">
+      <c r="I31" s="32">
+        <v>9</v>
+      </c>
+      <c r="J31" s="15">
         <f t="shared" si="11"/>
         <v>21</v>
       </c>
-      <c r="J31" s="16">
+      <c r="K31" s="15">
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="K31" s="26">
-        <v>2</v>
-      </c>
-      <c r="L31" s="27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L31" s="25">
+        <v>2</v>
+      </c>
+      <c r="M31" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43918</v>
       </c>
-      <c r="B32" s="19">
+      <c r="B32" s="18">
         <f t="shared" si="10"/>
         <v>1017</v>
       </c>
-      <c r="C32" s="13">
+      <c r="C32" s="12">
         <v>49</v>
       </c>
-      <c r="D32" s="13">
+      <c r="D32" s="12">
         <v>10</v>
       </c>
       <c r="E32" s="4">
@@ -1986,40 +2083,43 @@
       <c r="F32" s="3">
         <v>19</v>
       </c>
-      <c r="G32" s="24">
+      <c r="G32" s="23">
         <v>122</v>
       </c>
-      <c r="H32" s="17">
+      <c r="H32" s="16">
         <f t="shared" si="0"/>
         <v>143</v>
       </c>
-      <c r="I32" s="16">
+      <c r="I32" s="32">
+        <v>3</v>
+      </c>
+      <c r="J32" s="15">
         <f t="shared" si="11"/>
         <v>25</v>
       </c>
-      <c r="J32" s="16">
+      <c r="K32" s="15">
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="K32" s="26">
-        <v>2</v>
-      </c>
-      <c r="L32" s="27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L32" s="25">
+        <v>2</v>
+      </c>
+      <c r="M32" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43919</v>
       </c>
-      <c r="B33" s="19">
+      <c r="B33" s="18">
         <f t="shared" si="10"/>
         <v>1055</v>
       </c>
-      <c r="C33" s="13">
+      <c r="C33" s="12">
         <v>38</v>
       </c>
-      <c r="D33" s="13">
+      <c r="D33" s="12">
         <v>13</v>
       </c>
       <c r="E33" s="4">
@@ -2028,40 +2128,43 @@
       <c r="F33" s="3">
         <v>21</v>
       </c>
-      <c r="G33" s="24">
+      <c r="G33" s="23">
         <v>131</v>
       </c>
-      <c r="H33" s="17">
+      <c r="H33" s="16">
         <f t="shared" si="0"/>
         <v>153</v>
       </c>
-      <c r="I33" s="16">
+      <c r="I33" s="32">
+        <v>1</v>
+      </c>
+      <c r="J33" s="15">
         <f t="shared" si="11"/>
         <v>31</v>
       </c>
-      <c r="J33" s="16">
+      <c r="K33" s="15">
         <f t="shared" si="12"/>
         <v>6</v>
       </c>
-      <c r="K33" s="26">
-        <v>2</v>
-      </c>
-      <c r="L33" s="27">
+      <c r="L33" s="25">
+        <v>2</v>
+      </c>
+      <c r="M33" s="26">
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>43920</v>
       </c>
-      <c r="B34" s="19">
+      <c r="B34" s="18">
         <f t="shared" si="10"/>
         <v>1144</v>
       </c>
-      <c r="C34" s="13">
+      <c r="C34" s="12">
         <v>89</v>
       </c>
-      <c r="D34" s="13">
+      <c r="D34" s="12">
         <v>20</v>
       </c>
       <c r="E34" s="4">
@@ -2070,40 +2173,43 @@
       <c r="F34" s="3">
         <v>23</v>
       </c>
-      <c r="G34" s="24">
+      <c r="G34" s="23">
         <v>129</v>
       </c>
-      <c r="H34" s="17">
+      <c r="H34" s="16">
         <f t="shared" si="0"/>
         <v>154</v>
       </c>
-      <c r="I34" s="16">
+      <c r="I34" s="32">
+        <v>17</v>
+      </c>
+      <c r="J34" s="15">
         <f t="shared" si="11"/>
         <v>35</v>
       </c>
-      <c r="J34" s="16">
+      <c r="K34" s="15">
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="K34" s="26">
-        <v>2</v>
-      </c>
-      <c r="L34" s="27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L34" s="25">
+        <v>2</v>
+      </c>
+      <c r="M34" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>43921</v>
       </c>
-      <c r="B35" s="19">
+      <c r="B35" s="18">
         <f t="shared" si="10"/>
         <v>1211</v>
       </c>
-      <c r="C35" s="13">
+      <c r="C35" s="12">
         <v>67</v>
       </c>
-      <c r="D35" s="13">
+      <c r="D35" s="12">
         <v>11</v>
       </c>
       <c r="E35" s="4">
@@ -2112,40 +2218,43 @@
       <c r="F35" s="3">
         <v>23</v>
       </c>
-      <c r="G35" s="24">
+      <c r="G35" s="23">
         <v>129</v>
       </c>
-      <c r="H35" s="17">
+      <c r="H35" s="16">
         <f t="shared" ref="H35:H66" si="13">G35+E35</f>
         <v>153</v>
       </c>
-      <c r="I35" s="16">
+      <c r="I35" s="32">
+        <v>10</v>
+      </c>
+      <c r="J35" s="15">
         <f t="shared" si="11"/>
         <v>37</v>
       </c>
-      <c r="J35" s="16">
+      <c r="K35" s="15">
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="K35" s="26">
-        <v>2</v>
-      </c>
-      <c r="L35" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L35" s="25">
+        <v>2</v>
+      </c>
+      <c r="M35" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>43922</v>
       </c>
-      <c r="B36" s="19">
+      <c r="B36" s="18">
         <f t="shared" si="10"/>
         <v>1282</v>
       </c>
-      <c r="C36" s="13">
+      <c r="C36" s="12">
         <v>71</v>
       </c>
-      <c r="D36" s="13">
+      <c r="D36" s="12">
         <v>11</v>
       </c>
       <c r="E36" s="4">
@@ -2154,40 +2263,43 @@
       <c r="F36" s="3">
         <v>25</v>
       </c>
-      <c r="G36" s="24">
+      <c r="G36" s="23">
         <v>121</v>
       </c>
-      <c r="H36" s="17">
+      <c r="H36" s="16">
         <f t="shared" si="13"/>
         <v>147</v>
       </c>
-      <c r="I36" s="16">
+      <c r="I36" s="32">
+        <v>15</v>
+      </c>
+      <c r="J36" s="15">
         <f t="shared" si="11"/>
         <v>40</v>
       </c>
-      <c r="J36" s="16">
+      <c r="K36" s="15">
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="K36" s="26">
-        <v>2</v>
-      </c>
-      <c r="L36" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L36" s="25">
+        <v>2</v>
+      </c>
+      <c r="M36" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>43923</v>
       </c>
-      <c r="B37" s="19">
+      <c r="B37" s="18">
         <f t="shared" si="10"/>
         <v>1334</v>
       </c>
-      <c r="C37" s="13">
+      <c r="C37" s="12">
         <v>52</v>
       </c>
-      <c r="D37" s="13">
+      <c r="D37" s="12">
         <v>12</v>
       </c>
       <c r="E37" s="4">
@@ -2196,40 +2308,43 @@
       <c r="F37" s="3">
         <v>24</v>
       </c>
-      <c r="G37" s="24">
+      <c r="G37" s="23">
         <v>119</v>
       </c>
-      <c r="H37" s="17">
+      <c r="H37" s="16">
         <f t="shared" si="13"/>
         <v>147</v>
       </c>
-      <c r="I37" s="16">
+      <c r="I37" s="32">
+        <v>8</v>
+      </c>
+      <c r="J37" s="15">
         <f t="shared" si="11"/>
         <v>47</v>
       </c>
-      <c r="J37" s="16">
+      <c r="K37" s="15">
         <f t="shared" si="12"/>
         <v>7</v>
       </c>
-      <c r="K37" s="26">
+      <c r="L37" s="25">
         <v>4</v>
       </c>
-      <c r="L37" s="27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M37" s="26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>43924</v>
       </c>
-      <c r="B38" s="19">
+      <c r="B38" s="18">
         <f t="shared" si="10"/>
-        <v>1383</v>
-      </c>
-      <c r="C38" s="13">
-        <v>49</v>
-      </c>
-      <c r="D38" s="13">
+        <v>1385</v>
+      </c>
+      <c r="C38" s="12">
+        <v>51</v>
+      </c>
+      <c r="D38" s="12">
         <v>6</v>
       </c>
       <c r="E38" s="4">
@@ -2238,40 +2353,43 @@
       <c r="F38" s="3">
         <v>23</v>
       </c>
-      <c r="G38" s="24">
+      <c r="G38" s="23">
         <v>121</v>
       </c>
-      <c r="H38" s="17">
+      <c r="H38" s="16">
         <f t="shared" si="13"/>
         <v>147</v>
       </c>
-      <c r="I38" s="16">
+      <c r="I38" s="32">
+        <v>5</v>
+      </c>
+      <c r="J38" s="15">
         <f t="shared" si="11"/>
         <v>51</v>
       </c>
-      <c r="J38" s="16">
+      <c r="K38" s="15">
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="K38" s="26">
-        <v>1</v>
-      </c>
-      <c r="L38" s="27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L38" s="25">
+        <v>1</v>
+      </c>
+      <c r="M38" s="26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>43925</v>
       </c>
-      <c r="B39" s="19">
+      <c r="B39" s="18">
         <f t="shared" si="10"/>
-        <v>1416</v>
-      </c>
-      <c r="C39" s="13">
+        <v>1418</v>
+      </c>
+      <c r="C39" s="12">
         <v>33</v>
       </c>
-      <c r="D39" s="13">
+      <c r="D39" s="12">
         <v>6</v>
       </c>
       <c r="E39" s="4">
@@ -2280,40 +2398,43 @@
       <c r="F39" s="3">
         <v>23</v>
       </c>
-      <c r="G39" s="24">
+      <c r="G39" s="23">
         <v>122</v>
       </c>
-      <c r="H39" s="17">
+      <c r="H39" s="16">
         <f t="shared" si="13"/>
         <v>150</v>
       </c>
-      <c r="I39" s="16">
+      <c r="I39" s="32">
+        <v>3</v>
+      </c>
+      <c r="J39" s="15">
         <f t="shared" si="11"/>
         <v>53</v>
       </c>
-      <c r="J39" s="16">
+      <c r="K39" s="15">
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="K39" s="26">
-        <v>0</v>
-      </c>
-      <c r="L39" s="27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L39" s="25">
+        <v>0</v>
+      </c>
+      <c r="M39" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>43926</v>
       </c>
-      <c r="B40" s="19">
+      <c r="B40" s="18">
         <f t="shared" si="10"/>
-        <v>1431</v>
-      </c>
-      <c r="C40" s="13">
+        <v>1433</v>
+      </c>
+      <c r="C40" s="12">
         <v>15</v>
       </c>
-      <c r="D40" s="13">
+      <c r="D40" s="12">
         <v>4</v>
       </c>
       <c r="E40" s="4">
@@ -2322,40 +2443,43 @@
       <c r="F40" s="3">
         <v>23</v>
       </c>
-      <c r="G40" s="24">
+      <c r="G40" s="23">
         <v>121</v>
       </c>
-      <c r="H40" s="17">
+      <c r="H40" s="16">
         <f t="shared" si="13"/>
         <v>147</v>
       </c>
-      <c r="I40" s="16">
+      <c r="I40" s="32">
+        <v>3</v>
+      </c>
+      <c r="J40" s="15">
         <f t="shared" si="11"/>
         <v>57</v>
       </c>
-      <c r="J40" s="16">
+      <c r="K40" s="15">
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="K40" s="26">
+      <c r="L40" s="25">
         <v>4</v>
       </c>
-      <c r="L40" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M40" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>43927</v>
       </c>
-      <c r="B41" s="19">
+      <c r="B41" s="18">
         <f t="shared" si="10"/>
-        <v>1497</v>
-      </c>
-      <c r="C41" s="13">
+        <v>1499</v>
+      </c>
+      <c r="C41" s="12">
         <v>66</v>
       </c>
-      <c r="D41" s="13">
+      <c r="D41" s="12">
         <v>7</v>
       </c>
       <c r="E41" s="4">
@@ -2364,40 +2488,43 @@
       <c r="F41" s="3">
         <v>22</v>
       </c>
-      <c r="G41" s="24">
+      <c r="G41" s="23">
         <v>108</v>
       </c>
-      <c r="H41" s="17">
+      <c r="H41" s="16">
         <f t="shared" si="13"/>
         <v>134</v>
       </c>
-      <c r="I41" s="16">
+      <c r="I41" s="32">
+        <v>19</v>
+      </c>
+      <c r="J41" s="15">
         <f t="shared" si="11"/>
         <v>60</v>
       </c>
-      <c r="J41" s="16">
+      <c r="K41" s="15">
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="K41" s="26">
-        <v>1</v>
-      </c>
-      <c r="L41" s="27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L41" s="25">
+        <v>1</v>
+      </c>
+      <c r="M41" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>43928</v>
       </c>
-      <c r="B42" s="19">
+      <c r="B42" s="18">
         <f t="shared" si="10"/>
-        <v>1536</v>
-      </c>
-      <c r="C42" s="13">
+        <v>1538</v>
+      </c>
+      <c r="C42" s="12">
         <v>39</v>
       </c>
-      <c r="D42" s="13">
+      <c r="D42" s="12">
         <v>7</v>
       </c>
       <c r="E42" s="4">
@@ -2406,40 +2533,43 @@
       <c r="F42" s="3">
         <v>20</v>
       </c>
-      <c r="G42" s="24">
+      <c r="G42" s="23">
         <v>105</v>
       </c>
-      <c r="H42" s="17">
+      <c r="H42" s="16">
         <f t="shared" si="13"/>
         <v>130</v>
       </c>
-      <c r="I42" s="16">
+      <c r="I42" s="32">
+        <v>9</v>
+      </c>
+      <c r="J42" s="15">
         <f t="shared" si="11"/>
         <v>68</v>
       </c>
-      <c r="J42" s="16">
+      <c r="K42" s="15">
         <f t="shared" si="12"/>
         <v>8</v>
       </c>
-      <c r="K42" s="26">
-        <v>2</v>
-      </c>
-      <c r="L42" s="27">
+      <c r="L42" s="25">
+        <v>2</v>
+      </c>
+      <c r="M42" s="26">
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43929</v>
       </c>
-      <c r="B43" s="19">
+      <c r="B43" s="18">
         <f t="shared" si="10"/>
-        <v>1570</v>
-      </c>
-      <c r="C43" s="13">
-        <v>34</v>
-      </c>
-      <c r="D43" s="13">
+        <v>1573</v>
+      </c>
+      <c r="C43" s="12">
+        <v>35</v>
+      </c>
+      <c r="D43" s="12">
         <v>5</v>
       </c>
       <c r="E43" s="4">
@@ -2448,40 +2578,43 @@
       <c r="F43" s="3">
         <v>20</v>
       </c>
-      <c r="G43" s="24">
+      <c r="G43" s="23">
         <v>97</v>
       </c>
-      <c r="H43" s="17">
+      <c r="H43" s="16">
         <f t="shared" si="13"/>
         <v>123</v>
       </c>
-      <c r="I43" s="16">
+      <c r="I43" s="32">
+        <v>9</v>
+      </c>
+      <c r="J43" s="15">
         <f t="shared" si="11"/>
         <v>71</v>
       </c>
-      <c r="J43" s="16">
+      <c r="K43" s="15">
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="K43" s="26">
-        <v>3</v>
-      </c>
-      <c r="L43" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L43" s="25">
+        <v>3</v>
+      </c>
+      <c r="M43" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43930</v>
       </c>
-      <c r="B44" s="19">
+      <c r="B44" s="18">
         <f t="shared" si="10"/>
-        <v>1598</v>
-      </c>
-      <c r="C44" s="13">
-        <v>28</v>
-      </c>
-      <c r="D44" s="13">
+        <v>1602</v>
+      </c>
+      <c r="C44" s="12">
+        <v>29</v>
+      </c>
+      <c r="D44" s="12">
         <v>4</v>
       </c>
       <c r="E44" s="4">
@@ -2490,40 +2623,43 @@
       <c r="F44" s="3">
         <v>19</v>
       </c>
-      <c r="G44" s="24">
+      <c r="G44" s="23">
         <v>94</v>
       </c>
-      <c r="H44" s="17">
+      <c r="H44" s="16">
         <f t="shared" si="13"/>
         <v>118</v>
       </c>
-      <c r="I44" s="16">
+      <c r="I44" s="32">
+        <v>8</v>
+      </c>
+      <c r="J44" s="15">
         <f t="shared" si="11"/>
         <v>77</v>
       </c>
-      <c r="J44" s="16">
+      <c r="K44" s="15">
         <f t="shared" si="12"/>
         <v>6</v>
       </c>
-      <c r="K44" s="26">
-        <v>1</v>
-      </c>
-      <c r="L44" s="27">
+      <c r="L44" s="25">
+        <v>1</v>
+      </c>
+      <c r="M44" s="26">
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43931</v>
       </c>
-      <c r="B45" s="19">
+      <c r="B45" s="18">
         <f t="shared" si="10"/>
-        <v>1627</v>
-      </c>
-      <c r="C45" s="13">
+        <v>1631</v>
+      </c>
+      <c r="C45" s="12">
         <v>29</v>
       </c>
-      <c r="D45" s="13">
+      <c r="D45" s="12">
         <v>5</v>
       </c>
       <c r="E45" s="4">
@@ -2532,40 +2668,43 @@
       <c r="F45" s="3">
         <v>18</v>
       </c>
-      <c r="G45" s="24">
+      <c r="G45" s="23">
         <v>92</v>
       </c>
-      <c r="H45" s="17">
+      <c r="H45" s="16">
         <f t="shared" si="13"/>
         <v>116</v>
       </c>
-      <c r="I45" s="16">
+      <c r="I45" s="32">
+        <v>6</v>
+      </c>
+      <c r="J45" s="15">
         <f t="shared" si="11"/>
         <v>83</v>
       </c>
-      <c r="J45" s="16">
+      <c r="K45" s="15">
         <f t="shared" si="12"/>
         <v>6</v>
       </c>
-      <c r="K45" s="26">
-        <v>1</v>
-      </c>
-      <c r="L45" s="27">
+      <c r="L45" s="25">
+        <v>1</v>
+      </c>
+      <c r="M45" s="26">
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43932</v>
       </c>
-      <c r="B46" s="19">
+      <c r="B46" s="18">
         <f t="shared" si="10"/>
-        <v>1653</v>
-      </c>
-      <c r="C46" s="13">
+        <v>1657</v>
+      </c>
+      <c r="C46" s="12">
         <v>26</v>
       </c>
-      <c r="D46" s="13">
+      <c r="D46" s="12">
         <v>2</v>
       </c>
       <c r="E46" s="4">
@@ -2574,40 +2713,43 @@
       <c r="F46" s="3">
         <v>15</v>
       </c>
-      <c r="G46" s="24">
+      <c r="G46" s="23">
         <v>93</v>
       </c>
-      <c r="H46" s="17">
+      <c r="H46" s="16">
         <f t="shared" si="13"/>
         <v>113</v>
       </c>
-      <c r="I46" s="16">
+      <c r="I46" s="32">
+        <v>3</v>
+      </c>
+      <c r="J46" s="15">
         <f t="shared" si="11"/>
         <v>85</v>
       </c>
-      <c r="J46" s="16">
+      <c r="K46" s="15">
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="K46" s="26">
-        <v>2</v>
-      </c>
-      <c r="L46" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L46" s="25">
+        <v>2</v>
+      </c>
+      <c r="M46" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>43933</v>
       </c>
-      <c r="B47" s="19">
+      <c r="B47" s="18">
         <f t="shared" si="10"/>
-        <v>1666</v>
-      </c>
-      <c r="C47" s="13">
+        <v>1670</v>
+      </c>
+      <c r="C47" s="12">
         <v>13</v>
       </c>
-      <c r="D47" s="13">
+      <c r="D47" s="12">
         <v>3</v>
       </c>
       <c r="E47" s="4">
@@ -2616,40 +2758,43 @@
       <c r="F47" s="3">
         <v>14</v>
       </c>
-      <c r="G47" s="24">
+      <c r="G47" s="23">
         <v>89</v>
       </c>
-      <c r="H47" s="17">
+      <c r="H47" s="16">
         <f t="shared" si="13"/>
         <v>111</v>
       </c>
-      <c r="I47" s="16">
+      <c r="I47" s="32">
+        <v>4</v>
+      </c>
+      <c r="J47" s="15">
         <f t="shared" si="11"/>
         <v>91</v>
       </c>
-      <c r="J47" s="16">
+      <c r="K47" s="15">
         <f t="shared" si="12"/>
         <v>6</v>
       </c>
-      <c r="K47" s="26">
-        <v>1</v>
-      </c>
-      <c r="L47" s="27">
+      <c r="L47" s="25">
+        <v>1</v>
+      </c>
+      <c r="M47" s="26">
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>43934</v>
       </c>
-      <c r="B48" s="19">
+      <c r="B48" s="18">
         <f t="shared" si="10"/>
-        <v>1680</v>
-      </c>
-      <c r="C48" s="13">
+        <v>1684</v>
+      </c>
+      <c r="C48" s="12">
         <v>14</v>
       </c>
-      <c r="D48" s="13">
+      <c r="D48" s="12">
         <v>1</v>
       </c>
       <c r="E48" s="4">
@@ -2658,40 +2803,43 @@
       <c r="F48" s="3">
         <v>12</v>
       </c>
-      <c r="G48" s="24">
+      <c r="G48" s="23">
         <v>86</v>
       </c>
-      <c r="H48" s="17">
+      <c r="H48" s="16">
         <f t="shared" si="13"/>
         <v>107</v>
       </c>
-      <c r="I48" s="16">
+      <c r="I48" s="32">
+        <v>3</v>
+      </c>
+      <c r="J48" s="15">
         <f t="shared" si="11"/>
         <v>93</v>
       </c>
-      <c r="J48" s="16">
+      <c r="K48" s="15">
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="K48" s="26">
-        <v>2</v>
-      </c>
-      <c r="L48" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L48" s="25">
+        <v>2</v>
+      </c>
+      <c r="M48" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>43935</v>
       </c>
-      <c r="B49" s="19">
+      <c r="B49" s="18">
         <f t="shared" si="10"/>
-        <v>1707</v>
-      </c>
-      <c r="C49" s="13">
+        <v>1711</v>
+      </c>
+      <c r="C49" s="12">
         <v>27</v>
       </c>
-      <c r="D49" s="13">
+      <c r="D49" s="12">
         <v>4</v>
       </c>
       <c r="E49" s="4">
@@ -2700,40 +2848,43 @@
       <c r="F49" s="3">
         <v>11</v>
       </c>
-      <c r="G49" s="24">
+      <c r="G49" s="23">
         <v>80</v>
       </c>
-      <c r="H49" s="17">
+      <c r="H49" s="16">
         <f t="shared" si="13"/>
         <v>100</v>
       </c>
-      <c r="I49" s="16">
+      <c r="I49" s="32">
+        <v>11</v>
+      </c>
+      <c r="J49" s="15">
         <f t="shared" si="11"/>
         <v>94</v>
       </c>
-      <c r="J49" s="16">
+      <c r="K49" s="15">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="K49" s="26">
-        <v>0</v>
-      </c>
-      <c r="L49" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L49" s="25">
+        <v>0</v>
+      </c>
+      <c r="M49" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>43936</v>
       </c>
-      <c r="B50" s="19">
+      <c r="B50" s="18">
         <f t="shared" si="10"/>
-        <v>1723</v>
-      </c>
-      <c r="C50" s="13">
+        <v>1727</v>
+      </c>
+      <c r="C50" s="12">
         <v>16</v>
       </c>
-      <c r="D50" s="13">
+      <c r="D50" s="12">
         <v>2</v>
       </c>
       <c r="E50" s="4">
@@ -2742,40 +2893,43 @@
       <c r="F50" s="3">
         <v>12</v>
       </c>
-      <c r="G50" s="24">
+      <c r="G50" s="23">
         <v>74</v>
       </c>
-      <c r="H50" s="17">
+      <c r="H50" s="16">
         <f t="shared" si="13"/>
         <v>94</v>
       </c>
-      <c r="I50" s="16">
+      <c r="I50" s="32">
+        <v>8</v>
+      </c>
+      <c r="J50" s="15">
         <f t="shared" si="11"/>
         <v>94</v>
       </c>
-      <c r="J50" s="16">
+      <c r="K50" s="15">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K50" s="26">
-        <v>0</v>
-      </c>
-      <c r="L50" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L50" s="25">
+        <v>0</v>
+      </c>
+      <c r="M50" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>43937</v>
       </c>
-      <c r="B51" s="19">
+      <c r="B51" s="18">
         <f t="shared" si="10"/>
-        <v>1740</v>
-      </c>
-      <c r="C51" s="13">
+        <v>1744</v>
+      </c>
+      <c r="C51" s="12">
         <v>17</v>
       </c>
-      <c r="D51" s="13">
+      <c r="D51" s="12">
         <v>1</v>
       </c>
       <c r="E51" s="4">
@@ -2784,40 +2938,43 @@
       <c r="F51" s="3">
         <v>12</v>
       </c>
-      <c r="G51" s="24">
+      <c r="G51" s="23">
         <v>75</v>
       </c>
-      <c r="H51" s="17">
+      <c r="H51" s="16">
         <f t="shared" si="13"/>
         <v>92</v>
       </c>
-      <c r="I51" s="16">
+      <c r="I51" s="32">
+        <v>3</v>
+      </c>
+      <c r="J51" s="15">
         <f t="shared" si="11"/>
         <v>95</v>
       </c>
-      <c r="J51" s="16">
+      <c r="K51" s="15">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="K51" s="26">
-        <v>0</v>
-      </c>
-      <c r="L51" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L51" s="25">
+        <v>0</v>
+      </c>
+      <c r="M51" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>43938</v>
       </c>
-      <c r="B52" s="19">
+      <c r="B52" s="18">
         <f t="shared" si="10"/>
-        <v>1760</v>
-      </c>
-      <c r="C52" s="13">
+        <v>1764</v>
+      </c>
+      <c r="C52" s="12">
         <v>20</v>
       </c>
-      <c r="D52" s="13">
+      <c r="D52" s="12">
         <v>1</v>
       </c>
       <c r="E52" s="4">
@@ -2826,40 +2983,43 @@
       <c r="F52" s="3">
         <v>10</v>
       </c>
-      <c r="G52" s="24">
+      <c r="G52" s="23">
         <v>69</v>
       </c>
-      <c r="H52" s="17">
+      <c r="H52" s="16">
         <f t="shared" si="13"/>
         <v>85</v>
       </c>
-      <c r="I52" s="16">
+      <c r="I52" s="32">
+        <v>6</v>
+      </c>
+      <c r="J52" s="15">
         <f t="shared" si="11"/>
         <v>99</v>
       </c>
-      <c r="J52" s="16">
+      <c r="K52" s="15">
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="K52" s="26">
-        <v>2</v>
-      </c>
-      <c r="L52" s="27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L52" s="25">
+        <v>2</v>
+      </c>
+      <c r="M52" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>43939</v>
       </c>
-      <c r="B53" s="19">
+      <c r="B53" s="18">
         <f t="shared" si="10"/>
-        <v>1769</v>
-      </c>
-      <c r="C53" s="13">
+        <v>1773</v>
+      </c>
+      <c r="C53" s="12">
         <v>9</v>
       </c>
-      <c r="D53" s="13">
+      <c r="D53" s="12">
         <v>1</v>
       </c>
       <c r="E53" s="4">
@@ -2868,40 +3028,43 @@
       <c r="F53" s="3">
         <v>10</v>
       </c>
-      <c r="G53" s="24">
+      <c r="G53" s="23">
         <v>66</v>
       </c>
-      <c r="H53" s="17">
+      <c r="H53" s="16">
         <f t="shared" si="13"/>
         <v>84</v>
       </c>
-      <c r="I53" s="16">
+      <c r="I53" s="32">
+        <v>0</v>
+      </c>
+      <c r="J53" s="15">
         <f t="shared" si="11"/>
         <v>104</v>
       </c>
-      <c r="J53" s="16">
+      <c r="K53" s="15">
         <f t="shared" si="12"/>
         <v>5</v>
       </c>
-      <c r="K53" s="26">
-        <v>2</v>
-      </c>
-      <c r="L53" s="27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L53" s="25">
+        <v>2</v>
+      </c>
+      <c r="M53" s="26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>43940</v>
       </c>
-      <c r="B54" s="19">
+      <c r="B54" s="18">
         <f t="shared" si="10"/>
-        <v>1776</v>
-      </c>
-      <c r="C54" s="13">
+        <v>1780</v>
+      </c>
+      <c r="C54" s="12">
         <v>7</v>
       </c>
-      <c r="D54" s="13">
+      <c r="D54" s="12">
         <v>0</v>
       </c>
       <c r="E54" s="4">
@@ -2910,40 +3073,43 @@
       <c r="F54" s="3">
         <v>9</v>
       </c>
-      <c r="G54" s="24">
+      <c r="G54" s="23">
         <v>66</v>
       </c>
-      <c r="H54" s="17">
+      <c r="H54" s="16">
         <f t="shared" si="13"/>
         <v>82</v>
       </c>
-      <c r="I54" s="16">
+      <c r="I54" s="32">
+        <v>1</v>
+      </c>
+      <c r="J54" s="15">
         <f t="shared" si="11"/>
         <v>107</v>
       </c>
-      <c r="J54" s="16">
+      <c r="K54" s="15">
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="K54" s="26">
-        <v>1</v>
-      </c>
-      <c r="L54" s="27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L54" s="25">
+        <v>1</v>
+      </c>
+      <c r="M54" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>43941</v>
       </c>
-      <c r="B55" s="19">
+      <c r="B55" s="18">
         <f t="shared" si="10"/>
-        <v>1793</v>
-      </c>
-      <c r="C55" s="13">
+        <v>1797</v>
+      </c>
+      <c r="C55" s="12">
         <v>17</v>
       </c>
-      <c r="D55" s="13">
+      <c r="D55" s="12">
         <v>3</v>
       </c>
       <c r="E55" s="4">
@@ -2952,40 +3118,43 @@
       <c r="F55" s="3">
         <v>9</v>
       </c>
-      <c r="G55" s="24">
+      <c r="G55" s="23">
         <v>63</v>
       </c>
-      <c r="H55" s="17">
+      <c r="H55" s="16">
         <f t="shared" si="13"/>
         <v>78</v>
       </c>
-      <c r="I55" s="16">
+      <c r="I55" s="32">
+        <v>6</v>
+      </c>
+      <c r="J55" s="15">
         <f t="shared" si="11"/>
         <v>110</v>
       </c>
-      <c r="J55" s="16">
+      <c r="K55" s="15">
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="K55" s="26">
-        <v>1</v>
-      </c>
-      <c r="L55" s="27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L55" s="25">
+        <v>1</v>
+      </c>
+      <c r="M55" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>43942</v>
       </c>
-      <c r="B56" s="19">
+      <c r="B56" s="18">
         <f t="shared" si="10"/>
-        <v>1800</v>
-      </c>
-      <c r="C56" s="13">
+        <v>1804</v>
+      </c>
+      <c r="C56" s="12">
         <v>7</v>
       </c>
-      <c r="D56" s="13">
+      <c r="D56" s="12">
         <v>2</v>
       </c>
       <c r="E56" s="4">
@@ -2994,250 +3163,268 @@
       <c r="F56" s="3">
         <v>10</v>
       </c>
-      <c r="G56" s="24">
-        <v>61</v>
-      </c>
-      <c r="H56" s="17">
+      <c r="G56" s="23">
+        <v>60</v>
+      </c>
+      <c r="H56" s="16">
+        <f t="shared" si="13"/>
+        <v>74</v>
+      </c>
+      <c r="I56" s="32">
+        <v>2</v>
+      </c>
+      <c r="J56" s="15">
+        <f t="shared" si="11"/>
+        <v>115</v>
+      </c>
+      <c r="K56" s="15">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="L56" s="25">
+        <v>4</v>
+      </c>
+      <c r="M56" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B57" s="18">
+        <f t="shared" si="10"/>
+        <v>1810</v>
+      </c>
+      <c r="C57" s="12">
+        <v>6</v>
+      </c>
+      <c r="D57" s="12">
+        <v>4</v>
+      </c>
+      <c r="E57" s="4">
+        <v>13</v>
+      </c>
+      <c r="F57" s="3">
+        <v>10</v>
+      </c>
+      <c r="G57" s="23">
+        <v>62</v>
+      </c>
+      <c r="H57" s="16">
         <f t="shared" si="13"/>
         <v>75</v>
       </c>
-      <c r="I56" s="16">
+      <c r="I57" s="32">
+        <v>3</v>
+      </c>
+      <c r="J57" s="15">
         <f t="shared" si="11"/>
-        <v>115</v>
-      </c>
-      <c r="J56" s="16">
+        <v>118</v>
+      </c>
+      <c r="K57" s="15">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="L57" s="25">
+        <v>0</v>
+      </c>
+      <c r="M57" s="26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B58" s="18">
+        <f t="shared" si="10"/>
+        <v>1826</v>
+      </c>
+      <c r="C58" s="12">
+        <v>16</v>
+      </c>
+      <c r="D58" s="12">
+        <v>0</v>
+      </c>
+      <c r="E58" s="4">
+        <v>13</v>
+      </c>
+      <c r="F58" s="3">
+        <v>9</v>
+      </c>
+      <c r="G58" s="23">
+        <v>58</v>
+      </c>
+      <c r="H58" s="16">
+        <f t="shared" si="13"/>
+        <v>71</v>
+      </c>
+      <c r="I58" s="32">
+        <v>3</v>
+      </c>
+      <c r="J58" s="15">
+        <f t="shared" si="11"/>
+        <v>123</v>
+      </c>
+      <c r="K58" s="15">
         <f t="shared" si="12"/>
         <v>5</v>
       </c>
-      <c r="K56" s="26">
+      <c r="L58" s="25">
+        <v>1</v>
+      </c>
+      <c r="M58" s="26">
         <v>4</v>
       </c>
-      <c r="L56" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <v>43943</v>
-      </c>
-      <c r="B57" s="19">
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>43945</v>
+      </c>
+      <c r="B59" s="18">
         <f t="shared" si="10"/>
-        <v>1806</v>
-      </c>
-      <c r="C57" s="13">
-        <v>6</v>
-      </c>
-      <c r="D57" s="13">
+        <v>1835</v>
+      </c>
+      <c r="C59" s="12">
+        <v>9</v>
+      </c>
+      <c r="D59" s="12">
+        <v>2</v>
+      </c>
+      <c r="E59" s="4">
+        <v>14</v>
+      </c>
+      <c r="F59" s="3">
+        <v>9</v>
+      </c>
+      <c r="G59" s="23">
+        <v>54</v>
+      </c>
+      <c r="H59" s="16">
+        <f t="shared" si="13"/>
+        <v>68</v>
+      </c>
+      <c r="I59" s="32">
         <v>4</v>
       </c>
-      <c r="E57" s="4">
-        <v>13</v>
-      </c>
-      <c r="F57" s="3">
-        <v>10</v>
-      </c>
-      <c r="G57" s="24">
-        <v>63</v>
-      </c>
-      <c r="H57" s="17">
+      <c r="J59" s="15">
+        <f t="shared" si="11"/>
+        <v>127</v>
+      </c>
+      <c r="K59" s="15">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="L59" s="25">
+        <v>1</v>
+      </c>
+      <c r="M59" s="26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B60" s="18">
+        <f t="shared" si="10"/>
+        <v>1840</v>
+      </c>
+      <c r="C60" s="12">
+        <v>5</v>
+      </c>
+      <c r="D60" s="12">
+        <v>4</v>
+      </c>
+      <c r="E60" s="4">
+        <v>14</v>
+      </c>
+      <c r="F60" s="3">
+        <v>9</v>
+      </c>
+      <c r="G60" s="23">
+        <v>56</v>
+      </c>
+      <c r="H60" s="16">
         <f t="shared" si="13"/>
-        <v>76</v>
-      </c>
-      <c r="I57" s="16">
+        <v>70</v>
+      </c>
+      <c r="I60" s="32">
+        <v>1</v>
+      </c>
+      <c r="J60" s="15">
         <f t="shared" si="11"/>
-        <v>118</v>
-      </c>
-      <c r="J57" s="16">
+        <v>129</v>
+      </c>
+      <c r="K60" s="15">
         <f t="shared" si="12"/>
-        <v>3</v>
-      </c>
-      <c r="K57" s="26">
-        <v>0</v>
-      </c>
-      <c r="L57" s="27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
-        <v>43944</v>
-      </c>
-      <c r="B58" s="19">
+        <v>2</v>
+      </c>
+      <c r="L60" s="25">
+        <v>1</v>
+      </c>
+      <c r="M60" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B61" s="18">
         <f t="shared" si="10"/>
-        <v>1822</v>
-      </c>
-      <c r="C58" s="13">
-        <v>16</v>
-      </c>
-      <c r="D58" s="13">
-        <v>0</v>
-      </c>
-      <c r="E58" s="4">
-        <v>13</v>
-      </c>
-      <c r="F58" s="3">
-        <v>9</v>
-      </c>
-      <c r="G58" s="24">
-        <v>59</v>
-      </c>
-      <c r="H58" s="17">
+        <v>1842</v>
+      </c>
+      <c r="C61" s="12">
+        <v>2</v>
+      </c>
+      <c r="D61" s="12">
+        <v>2</v>
+      </c>
+      <c r="E61" s="4">
+        <v>15</v>
+      </c>
+      <c r="F61" s="3">
+        <v>8</v>
+      </c>
+      <c r="G61" s="23">
+        <v>57</v>
+      </c>
+      <c r="H61" s="16">
         <f t="shared" si="13"/>
         <v>72</v>
       </c>
-      <c r="I58" s="16">
-        <f t="shared" si="11"/>
-        <v>123</v>
-      </c>
-      <c r="J58" s="16">
-        <f t="shared" si="12"/>
-        <v>5</v>
-      </c>
-      <c r="K58" s="26">
-        <v>1</v>
-      </c>
-      <c r="L58" s="27">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <v>43945</v>
-      </c>
-      <c r="B59" s="19">
-        <f t="shared" si="10"/>
-        <v>1831</v>
-      </c>
-      <c r="C59" s="13">
-        <v>9</v>
-      </c>
-      <c r="D59" s="13">
-        <v>2</v>
-      </c>
-      <c r="E59" s="4">
-        <v>14</v>
-      </c>
-      <c r="F59" s="3">
-        <v>9</v>
-      </c>
-      <c r="G59" s="24">
-        <v>55</v>
-      </c>
-      <c r="H59" s="17">
-        <f t="shared" si="13"/>
-        <v>69</v>
-      </c>
-      <c r="I59" s="16">
-        <f t="shared" si="11"/>
-        <v>127</v>
-      </c>
-      <c r="J59" s="16">
-        <f t="shared" si="12"/>
-        <v>4</v>
-      </c>
-      <c r="K59" s="26">
-        <v>1</v>
-      </c>
-      <c r="L59" s="27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
-        <v>43946</v>
-      </c>
-      <c r="B60" s="19">
-        <f t="shared" si="10"/>
-        <v>1836</v>
-      </c>
-      <c r="C60" s="13">
-        <v>5</v>
-      </c>
-      <c r="D60" s="13">
-        <v>4</v>
-      </c>
-      <c r="E60" s="4">
-        <v>14</v>
-      </c>
-      <c r="F60" s="3">
-        <v>9</v>
-      </c>
-      <c r="G60" s="24">
-        <v>57</v>
-      </c>
-      <c r="H60" s="17">
-        <f t="shared" si="13"/>
-        <v>71</v>
-      </c>
-      <c r="I60" s="16">
-        <f t="shared" si="11"/>
-        <v>129</v>
-      </c>
-      <c r="J60" s="16">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="K60" s="26">
-        <v>1</v>
-      </c>
-      <c r="L60" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
-        <v>43947</v>
-      </c>
-      <c r="B61" s="19">
-        <f t="shared" si="10"/>
-        <v>1838</v>
-      </c>
-      <c r="C61" s="13">
-        <v>2</v>
-      </c>
-      <c r="D61" s="13">
-        <v>2</v>
-      </c>
-      <c r="E61" s="4">
-        <v>15</v>
-      </c>
-      <c r="F61" s="3">
-        <v>8</v>
-      </c>
-      <c r="G61" s="24">
-        <v>58</v>
-      </c>
-      <c r="H61" s="17">
-        <f t="shared" si="13"/>
-        <v>73</v>
-      </c>
-      <c r="I61" s="16">
+      <c r="I61" s="32">
+        <v>0</v>
+      </c>
+      <c r="J61" s="15">
         <f t="shared" si="11"/>
         <v>131</v>
       </c>
-      <c r="J61" s="16">
+      <c r="K61" s="15">
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="K61" s="26">
-        <v>0</v>
-      </c>
-      <c r="L61" s="27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L61" s="25">
+        <v>0</v>
+      </c>
+      <c r="M61" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>43948</v>
       </c>
-      <c r="B62" s="19">
+      <c r="B62" s="18">
         <f t="shared" si="10"/>
-        <v>1853</v>
-      </c>
-      <c r="C62" s="13">
+        <v>1857</v>
+      </c>
+      <c r="C62" s="12">
         <v>15</v>
       </c>
-      <c r="D62" s="13">
+      <c r="D62" s="12">
         <v>0</v>
       </c>
       <c r="E62" s="4">
@@ -3246,40 +3433,43 @@
       <c r="F62" s="3">
         <v>9</v>
       </c>
-      <c r="G62" s="24">
-        <v>50</v>
-      </c>
-      <c r="H62" s="17">
+      <c r="G62" s="23">
+        <v>49</v>
+      </c>
+      <c r="H62" s="16">
         <f t="shared" si="13"/>
-        <v>64</v>
-      </c>
-      <c r="I62" s="16">
+        <v>63</v>
+      </c>
+      <c r="I62" s="32">
+        <v>8</v>
+      </c>
+      <c r="J62" s="15">
         <f t="shared" si="11"/>
         <v>132</v>
       </c>
-      <c r="J62" s="16">
+      <c r="K62" s="15">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="K62" s="26">
-        <v>1</v>
-      </c>
-      <c r="L62" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L62" s="25">
+        <v>1</v>
+      </c>
+      <c r="M62" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>43949</v>
       </c>
-      <c r="B63" s="19">
+      <c r="B63" s="18">
         <f t="shared" si="10"/>
-        <v>1864</v>
-      </c>
-      <c r="C63" s="13">
+        <v>1868</v>
+      </c>
+      <c r="C63" s="12">
         <v>11</v>
       </c>
-      <c r="D63" s="13">
+      <c r="D63" s="12">
         <v>1</v>
       </c>
       <c r="E63" s="4">
@@ -3288,40 +3478,43 @@
       <c r="F63" s="3">
         <v>8</v>
       </c>
-      <c r="G63" s="24">
-        <v>47</v>
-      </c>
-      <c r="H63" s="17">
+      <c r="G63" s="23">
+        <v>46</v>
+      </c>
+      <c r="H63" s="16">
         <f t="shared" si="13"/>
-        <v>60</v>
-      </c>
-      <c r="I63" s="16">
+        <v>59</v>
+      </c>
+      <c r="I63" s="32">
+        <v>4</v>
+      </c>
+      <c r="J63" s="15">
         <f t="shared" si="11"/>
         <v>135</v>
       </c>
-      <c r="J63" s="16">
+      <c r="K63" s="15">
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="K63" s="26">
-        <v>1</v>
-      </c>
-      <c r="L63" s="27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L63" s="25">
+        <v>1</v>
+      </c>
+      <c r="M63" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>43950</v>
       </c>
-      <c r="B64" s="19">
+      <c r="B64" s="18">
         <f t="shared" si="10"/>
-        <v>1876</v>
-      </c>
-      <c r="C64" s="13">
+        <v>1880</v>
+      </c>
+      <c r="C64" s="12">
         <v>12</v>
       </c>
-      <c r="D64" s="13">
+      <c r="D64" s="12">
         <v>1</v>
       </c>
       <c r="E64" s="4">
@@ -3330,40 +3523,43 @@
       <c r="F64" s="3">
         <v>8</v>
       </c>
-      <c r="G64" s="24">
-        <v>48</v>
-      </c>
-      <c r="H64" s="17">
+      <c r="G64" s="23">
+        <v>47</v>
+      </c>
+      <c r="H64" s="16">
         <f t="shared" si="13"/>
-        <v>59</v>
-      </c>
-      <c r="I64" s="16">
+        <v>58</v>
+      </c>
+      <c r="I64" s="32">
+        <v>2</v>
+      </c>
+      <c r="J64" s="15">
         <f t="shared" si="11"/>
         <v>136</v>
       </c>
-      <c r="J64" s="16">
+      <c r="K64" s="15">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="K64" s="26">
-        <v>0</v>
-      </c>
-      <c r="L64" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L64" s="25">
+        <v>0</v>
+      </c>
+      <c r="M64" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>43951</v>
       </c>
-      <c r="B65" s="19">
+      <c r="B65" s="18">
         <f t="shared" si="10"/>
-        <v>1883</v>
-      </c>
-      <c r="C65" s="13">
+        <v>1887</v>
+      </c>
+      <c r="C65" s="12">
         <v>7</v>
       </c>
-      <c r="D65" s="13">
+      <c r="D65" s="12">
         <v>1</v>
       </c>
       <c r="E65" s="4">
@@ -3372,40 +3568,43 @@
       <c r="F65" s="3">
         <v>8</v>
       </c>
-      <c r="G65" s="24">
-        <v>49</v>
-      </c>
-      <c r="H65" s="17">
+      <c r="G65" s="23">
+        <v>48</v>
+      </c>
+      <c r="H65" s="16">
         <f t="shared" si="13"/>
-        <v>59</v>
-      </c>
-      <c r="I65" s="16">
+        <v>58</v>
+      </c>
+      <c r="I65" s="32">
+        <v>1</v>
+      </c>
+      <c r="J65" s="15">
         <f t="shared" si="11"/>
         <v>138</v>
       </c>
-      <c r="J65" s="16">
+      <c r="K65" s="15">
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="K65" s="26">
-        <v>0</v>
-      </c>
-      <c r="L65" s="27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L65" s="25">
+        <v>0</v>
+      </c>
+      <c r="M65" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>43952</v>
       </c>
-      <c r="B66" s="19">
+      <c r="B66" s="18">
         <f t="shared" si="10"/>
-        <v>1888</v>
-      </c>
-      <c r="C66" s="13">
+        <v>1892</v>
+      </c>
+      <c r="C66" s="12">
         <v>5</v>
       </c>
-      <c r="D66" s="13">
+      <c r="D66" s="12">
         <v>0</v>
       </c>
       <c r="E66" s="4">
@@ -3414,40 +3613,43 @@
       <c r="F66" s="3">
         <v>8</v>
       </c>
-      <c r="G66" s="24">
-        <v>47</v>
-      </c>
-      <c r="H66" s="17">
+      <c r="G66" s="23">
+        <v>46</v>
+      </c>
+      <c r="H66" s="16">
         <f t="shared" si="13"/>
-        <v>57</v>
-      </c>
-      <c r="I66" s="16">
+        <v>56</v>
+      </c>
+      <c r="I66" s="32">
+        <v>2</v>
+      </c>
+      <c r="J66" s="15">
         <f t="shared" si="11"/>
         <v>138</v>
       </c>
-      <c r="J66" s="16">
+      <c r="K66" s="15">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K66" s="26">
-        <v>0</v>
-      </c>
-      <c r="L66" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L66" s="25">
+        <v>0</v>
+      </c>
+      <c r="M66" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>43953</v>
       </c>
-      <c r="B67" s="19">
+      <c r="B67" s="18">
         <f t="shared" ref="B67:B91" si="14">B66+C67</f>
-        <v>1891</v>
-      </c>
-      <c r="C67" s="13">
-        <v>3</v>
-      </c>
-      <c r="D67" s="13">
+        <v>1895</v>
+      </c>
+      <c r="C67" s="12">
+        <v>3</v>
+      </c>
+      <c r="D67" s="12">
         <v>1</v>
       </c>
       <c r="E67" s="4">
@@ -3456,40 +3658,43 @@
       <c r="F67" s="3">
         <v>8</v>
       </c>
-      <c r="G67" s="24">
-        <v>47</v>
-      </c>
-      <c r="H67" s="17">
+      <c r="G67" s="23">
+        <v>46</v>
+      </c>
+      <c r="H67" s="16">
         <f t="shared" ref="H67:H94" si="15">G67+E67</f>
-        <v>57</v>
-      </c>
-      <c r="I67" s="16">
-        <f t="shared" ref="I67:I91" si="16">I66+J67</f>
+        <v>56</v>
+      </c>
+      <c r="I67" s="32">
+        <v>0</v>
+      </c>
+      <c r="J67" s="15">
+        <f t="shared" ref="J67:J91" si="16">J66+K67</f>
         <v>140</v>
       </c>
-      <c r="J67" s="16">
-        <f t="shared" ref="J67:J91" si="17">K67+L67</f>
-        <v>2</v>
-      </c>
-      <c r="K67" s="26">
-        <v>1</v>
-      </c>
-      <c r="L67" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K67" s="15">
+        <f t="shared" ref="K67:K91" si="17">L67+M67</f>
+        <v>2</v>
+      </c>
+      <c r="L67" s="25">
+        <v>1</v>
+      </c>
+      <c r="M67" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>43954</v>
       </c>
-      <c r="B68" s="19">
+      <c r="B68" s="18">
         <f t="shared" si="14"/>
-        <v>1893</v>
-      </c>
-      <c r="C68" s="13">
-        <v>2</v>
-      </c>
-      <c r="D68" s="13">
+        <v>1897</v>
+      </c>
+      <c r="C68" s="12">
+        <v>2</v>
+      </c>
+      <c r="D68" s="12">
         <v>2</v>
       </c>
       <c r="E68" s="4">
@@ -3498,40 +3703,43 @@
       <c r="F68" s="3">
         <v>8</v>
       </c>
-      <c r="G68" s="24">
-        <v>48</v>
-      </c>
-      <c r="H68" s="17">
+      <c r="G68" s="23">
+        <v>47</v>
+      </c>
+      <c r="H68" s="16">
         <f t="shared" si="15"/>
-        <v>58</v>
-      </c>
-      <c r="I68" s="16">
+        <v>57</v>
+      </c>
+      <c r="I68" s="32">
+        <v>0</v>
+      </c>
+      <c r="J68" s="15">
         <f t="shared" si="16"/>
         <v>142</v>
       </c>
-      <c r="J68" s="16">
+      <c r="K68" s="15">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
-      <c r="K68" s="26">
-        <v>1</v>
-      </c>
-      <c r="L68" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L68" s="25">
+        <v>1</v>
+      </c>
+      <c r="M68" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>43955</v>
       </c>
-      <c r="B69" s="19">
+      <c r="B69" s="18">
         <f t="shared" si="14"/>
-        <v>1901</v>
-      </c>
-      <c r="C69" s="13">
+        <v>1905</v>
+      </c>
+      <c r="C69" s="12">
         <v>8</v>
       </c>
-      <c r="D69" s="13">
+      <c r="D69" s="12">
         <v>0</v>
       </c>
       <c r="E69" s="4">
@@ -3540,40 +3748,43 @@
       <c r="F69" s="3">
         <v>7</v>
       </c>
-      <c r="G69" s="24">
-        <v>43</v>
-      </c>
-      <c r="H69" s="17">
+      <c r="G69" s="23">
+        <v>42</v>
+      </c>
+      <c r="H69" s="16">
         <f t="shared" si="15"/>
-        <v>53</v>
-      </c>
-      <c r="I69" s="16">
+        <v>52</v>
+      </c>
+      <c r="I69" s="32">
+        <v>5</v>
+      </c>
+      <c r="J69" s="15">
         <f t="shared" si="16"/>
         <v>142</v>
       </c>
-      <c r="J69" s="16">
+      <c r="K69" s="15">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K69" s="26">
-        <v>0</v>
-      </c>
-      <c r="L69" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L69" s="25">
+        <v>0</v>
+      </c>
+      <c r="M69" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>43956</v>
       </c>
-      <c r="B70" s="19">
+      <c r="B70" s="18">
         <f t="shared" si="14"/>
-        <v>1903</v>
-      </c>
-      <c r="C70" s="13">
-        <v>2</v>
-      </c>
-      <c r="D70" s="13">
+        <v>1907</v>
+      </c>
+      <c r="C70" s="12">
+        <v>2</v>
+      </c>
+      <c r="D70" s="12">
         <v>0</v>
       </c>
       <c r="E70" s="4">
@@ -3582,40 +3793,43 @@
       <c r="F70" s="3">
         <v>6</v>
       </c>
-      <c r="G70" s="24">
-        <v>41</v>
-      </c>
-      <c r="H70" s="17">
+      <c r="G70" s="23">
+        <v>40</v>
+      </c>
+      <c r="H70" s="16">
         <f t="shared" si="15"/>
-        <v>49</v>
-      </c>
-      <c r="I70" s="16">
+        <v>48</v>
+      </c>
+      <c r="I70" s="32">
+        <v>2</v>
+      </c>
+      <c r="J70" s="15">
         <f t="shared" si="16"/>
         <v>146</v>
       </c>
-      <c r="J70" s="16">
+      <c r="K70" s="15">
         <f t="shared" si="17"/>
         <v>4</v>
       </c>
-      <c r="K70" s="26">
-        <v>2</v>
-      </c>
-      <c r="L70" s="27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L70" s="25">
+        <v>2</v>
+      </c>
+      <c r="M70" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>43957</v>
       </c>
-      <c r="B71" s="19">
+      <c r="B71" s="18">
         <f t="shared" si="14"/>
-        <v>1906</v>
-      </c>
-      <c r="C71" s="13">
-        <v>3</v>
-      </c>
-      <c r="D71" s="13">
+        <v>1910</v>
+      </c>
+      <c r="C71" s="12">
+        <v>3</v>
+      </c>
+      <c r="D71" s="12">
         <v>0</v>
       </c>
       <c r="E71" s="4">
@@ -3624,40 +3838,43 @@
       <c r="F71" s="3">
         <v>5</v>
       </c>
-      <c r="G71" s="24">
-        <v>38</v>
-      </c>
-      <c r="H71" s="17">
+      <c r="G71" s="23">
+        <v>37</v>
+      </c>
+      <c r="H71" s="16">
         <f t="shared" si="15"/>
-        <v>46</v>
-      </c>
-      <c r="I71" s="16">
+        <v>45</v>
+      </c>
+      <c r="I71" s="32">
+        <v>3</v>
+      </c>
+      <c r="J71" s="15">
         <f t="shared" si="16"/>
         <v>146</v>
       </c>
-      <c r="J71" s="16">
+      <c r="K71" s="15">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K71" s="26">
-        <v>0</v>
-      </c>
-      <c r="L71" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L71" s="25">
+        <v>0</v>
+      </c>
+      <c r="M71" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>43958</v>
       </c>
-      <c r="B72" s="19">
+      <c r="B72" s="18">
         <f t="shared" si="14"/>
-        <v>1908</v>
-      </c>
-      <c r="C72" s="13">
-        <v>2</v>
-      </c>
-      <c r="D72" s="13">
+        <v>1912</v>
+      </c>
+      <c r="C72" s="12">
+        <v>2</v>
+      </c>
+      <c r="D72" s="12">
         <v>0</v>
       </c>
       <c r="E72" s="4">
@@ -3666,40 +3883,43 @@
       <c r="F72" s="3">
         <v>5</v>
       </c>
-      <c r="G72" s="24">
-        <v>33</v>
-      </c>
-      <c r="H72" s="17">
+      <c r="G72" s="23">
+        <v>32</v>
+      </c>
+      <c r="H72" s="16">
         <f t="shared" si="15"/>
-        <v>41</v>
-      </c>
-      <c r="I72" s="16">
+        <v>40</v>
+      </c>
+      <c r="I72" s="32">
+        <v>5</v>
+      </c>
+      <c r="J72" s="15">
         <f t="shared" si="16"/>
         <v>146</v>
       </c>
-      <c r="J72" s="16">
+      <c r="K72" s="15">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K72" s="26">
-        <v>0</v>
-      </c>
-      <c r="L72" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L72" s="25">
+        <v>0</v>
+      </c>
+      <c r="M72" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>43959</v>
       </c>
-      <c r="B73" s="19">
+      <c r="B73" s="18">
         <f t="shared" si="14"/>
-        <v>1911</v>
-      </c>
-      <c r="C73" s="13">
-        <v>3</v>
-      </c>
-      <c r="D73" s="13">
+        <v>1915</v>
+      </c>
+      <c r="C73" s="12">
+        <v>3</v>
+      </c>
+      <c r="D73" s="12">
         <v>1</v>
       </c>
       <c r="E73" s="4">
@@ -3708,40 +3928,43 @@
       <c r="F73" s="3">
         <v>5</v>
       </c>
-      <c r="G73" s="24">
-        <v>30</v>
-      </c>
-      <c r="H73" s="17">
+      <c r="G73" s="23">
+        <v>29</v>
+      </c>
+      <c r="H73" s="16">
         <f t="shared" si="15"/>
-        <v>39</v>
-      </c>
-      <c r="I73" s="16">
+        <v>38</v>
+      </c>
+      <c r="I73" s="32">
+        <v>2</v>
+      </c>
+      <c r="J73" s="15">
         <f t="shared" si="16"/>
         <v>148</v>
       </c>
-      <c r="J73" s="16">
+      <c r="K73" s="15">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
-      <c r="K73" s="26">
-        <v>1</v>
-      </c>
-      <c r="L73" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L73" s="25">
+        <v>1</v>
+      </c>
+      <c r="M73" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>43960</v>
       </c>
-      <c r="B74" s="19">
+      <c r="B74" s="18">
         <f t="shared" si="14"/>
-        <v>1912</v>
-      </c>
-      <c r="C74" s="13">
-        <v>1</v>
-      </c>
-      <c r="D74" s="13">
+        <v>1916</v>
+      </c>
+      <c r="C74" s="12">
+        <v>1</v>
+      </c>
+      <c r="D74" s="12">
         <v>0</v>
       </c>
       <c r="E74" s="4">
@@ -3750,82 +3973,88 @@
       <c r="F74" s="3">
         <v>7</v>
       </c>
-      <c r="G74" s="24">
+      <c r="G74" s="23">
+        <v>27</v>
+      </c>
+      <c r="H74" s="16">
+        <f t="shared" si="15"/>
+        <v>37</v>
+      </c>
+      <c r="I74" s="32">
+        <v>1</v>
+      </c>
+      <c r="J74" s="15">
+        <f t="shared" si="16"/>
+        <v>148</v>
+      </c>
+      <c r="K74" s="15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="L74" s="25">
+        <v>0</v>
+      </c>
+      <c r="M74" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B75" s="18">
+        <f t="shared" si="14"/>
+        <v>1917</v>
+      </c>
+      <c r="C75" s="12">
+        <v>1</v>
+      </c>
+      <c r="D75" s="12">
+        <v>1</v>
+      </c>
+      <c r="E75" s="4">
+        <v>10</v>
+      </c>
+      <c r="F75" s="3">
+        <v>7</v>
+      </c>
+      <c r="G75" s="23">
         <v>28</v>
       </c>
-      <c r="H74" s="17">
+      <c r="H75" s="16">
         <f t="shared" si="15"/>
         <v>38</v>
       </c>
-      <c r="I74" s="16">
+      <c r="I75" s="32">
+        <v>0</v>
+      </c>
+      <c r="J75" s="15">
         <f t="shared" si="16"/>
         <v>148</v>
       </c>
-      <c r="J74" s="16">
+      <c r="K75" s="15">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K74" s="26">
-        <v>0</v>
-      </c>
-      <c r="L74" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
-        <v>43961</v>
-      </c>
-      <c r="B75" s="19">
-        <f t="shared" si="14"/>
-        <v>1913</v>
-      </c>
-      <c r="C75" s="13">
-        <v>1</v>
-      </c>
-      <c r="D75" s="13">
-        <v>1</v>
-      </c>
-      <c r="E75" s="4">
-        <v>10</v>
-      </c>
-      <c r="F75" s="3">
-        <v>7</v>
-      </c>
-      <c r="G75" s="24">
-        <v>29</v>
-      </c>
-      <c r="H75" s="17">
-        <f t="shared" si="15"/>
-        <v>39</v>
-      </c>
-      <c r="I75" s="16">
-        <f t="shared" si="16"/>
-        <v>148</v>
-      </c>
-      <c r="J75" s="16">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="K75" s="26">
-        <v>0</v>
-      </c>
-      <c r="L75" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L75" s="25">
+        <v>0</v>
+      </c>
+      <c r="M75" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>43962</v>
       </c>
-      <c r="B76" s="19">
+      <c r="B76" s="18">
         <f t="shared" si="14"/>
-        <v>1917</v>
-      </c>
-      <c r="C76" s="13">
+        <v>1921</v>
+      </c>
+      <c r="C76" s="12">
         <v>4</v>
       </c>
-      <c r="D76" s="13">
+      <c r="D76" s="12">
         <v>1</v>
       </c>
       <c r="E76" s="4">
@@ -3834,40 +4063,43 @@
       <c r="F76" s="3">
         <v>7</v>
       </c>
-      <c r="G76" s="24">
-        <v>29</v>
-      </c>
-      <c r="H76" s="17">
+      <c r="G76" s="23">
+        <v>28</v>
+      </c>
+      <c r="H76" s="16">
         <f t="shared" si="15"/>
-        <v>39</v>
-      </c>
-      <c r="I76" s="16">
+        <v>38</v>
+      </c>
+      <c r="I76" s="32">
+        <v>0</v>
+      </c>
+      <c r="J76" s="15">
         <f t="shared" si="16"/>
         <v>149</v>
       </c>
-      <c r="J76" s="16">
+      <c r="K76" s="15">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="K76" s="26">
-        <v>1</v>
-      </c>
-      <c r="L76" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L76" s="25">
+        <v>1</v>
+      </c>
+      <c r="M76" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>43963</v>
       </c>
-      <c r="B77" s="19">
+      <c r="B77" s="18">
         <f t="shared" si="14"/>
-        <v>1917</v>
-      </c>
-      <c r="C77" s="13">
-        <v>0</v>
-      </c>
-      <c r="D77" s="13">
+        <v>1921</v>
+      </c>
+      <c r="C77" s="12">
+        <v>0</v>
+      </c>
+      <c r="D77" s="12">
         <v>0</v>
       </c>
       <c r="E77" s="4">
@@ -3876,40 +4108,43 @@
       <c r="F77" s="3">
         <v>7</v>
       </c>
-      <c r="G77" s="24">
-        <v>28</v>
-      </c>
-      <c r="H77" s="17">
+      <c r="G77" s="23">
+        <v>27</v>
+      </c>
+      <c r="H77" s="16">
         <f t="shared" si="15"/>
-        <v>36</v>
-      </c>
-      <c r="I77" s="16">
+        <v>35</v>
+      </c>
+      <c r="I77" s="32">
+        <v>3</v>
+      </c>
+      <c r="J77" s="15">
         <f t="shared" si="16"/>
         <v>149</v>
       </c>
-      <c r="J77" s="16">
+      <c r="K77" s="15">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K77" s="26">
-        <v>0</v>
-      </c>
-      <c r="L77" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L77" s="25">
+        <v>0</v>
+      </c>
+      <c r="M77" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>43964</v>
       </c>
-      <c r="B78" s="19">
+      <c r="B78" s="18">
         <f t="shared" si="14"/>
-        <v>1918</v>
-      </c>
-      <c r="C78" s="13">
-        <v>1</v>
-      </c>
-      <c r="D78" s="13">
+        <v>1922</v>
+      </c>
+      <c r="C78" s="12">
+        <v>1</v>
+      </c>
+      <c r="D78" s="12">
         <v>0</v>
       </c>
       <c r="E78" s="4">
@@ -3918,40 +4153,43 @@
       <c r="F78" s="3">
         <v>5</v>
       </c>
-      <c r="G78" s="24">
-        <v>25</v>
-      </c>
-      <c r="H78" s="17">
+      <c r="G78" s="23">
+        <v>24</v>
+      </c>
+      <c r="H78" s="16">
         <f t="shared" si="15"/>
-        <v>33</v>
-      </c>
-      <c r="I78" s="16">
+        <v>32</v>
+      </c>
+      <c r="I78" s="32">
+        <v>3</v>
+      </c>
+      <c r="J78" s="15">
         <f t="shared" si="16"/>
         <v>149</v>
       </c>
-      <c r="J78" s="16">
+      <c r="K78" s="15">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K78" s="26">
-        <v>0</v>
-      </c>
-      <c r="L78" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L78" s="25">
+        <v>0</v>
+      </c>
+      <c r="M78" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>43965</v>
       </c>
-      <c r="B79" s="19">
+      <c r="B79" s="18">
         <f t="shared" si="14"/>
-        <v>1920</v>
-      </c>
-      <c r="C79" s="13">
-        <v>2</v>
-      </c>
-      <c r="D79" s="13">
+        <v>1924</v>
+      </c>
+      <c r="C79" s="12">
+        <v>2</v>
+      </c>
+      <c r="D79" s="12">
         <v>0</v>
       </c>
       <c r="E79" s="4">
@@ -3960,40 +4198,43 @@
       <c r="F79" s="3">
         <v>5</v>
       </c>
-      <c r="G79" s="24">
-        <v>23</v>
-      </c>
-      <c r="H79" s="17">
+      <c r="G79" s="23">
+        <v>22</v>
+      </c>
+      <c r="H79" s="16">
         <f t="shared" si="15"/>
-        <v>31</v>
-      </c>
-      <c r="I79" s="16">
+        <v>30</v>
+      </c>
+      <c r="I79" s="32">
+        <v>2</v>
+      </c>
+      <c r="J79" s="15">
         <f t="shared" si="16"/>
         <v>149</v>
       </c>
-      <c r="J79" s="16">
+      <c r="K79" s="15">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K79" s="26">
-        <v>0</v>
-      </c>
-      <c r="L79" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L79" s="25">
+        <v>0</v>
+      </c>
+      <c r="M79" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>43966</v>
       </c>
-      <c r="B80" s="19">
+      <c r="B80" s="18">
         <f t="shared" si="14"/>
-        <v>1929</v>
-      </c>
-      <c r="C80" s="13">
+        <v>1933</v>
+      </c>
+      <c r="C80" s="12">
         <v>9</v>
       </c>
-      <c r="D80" s="13">
+      <c r="D80" s="12">
         <v>0</v>
       </c>
       <c r="E80" s="4">
@@ -4002,40 +4243,43 @@
       <c r="F80" s="3">
         <v>5</v>
       </c>
-      <c r="G80" s="24">
-        <v>20</v>
-      </c>
-      <c r="H80" s="17">
+      <c r="G80" s="23">
+        <v>19</v>
+      </c>
+      <c r="H80" s="16">
         <f t="shared" si="15"/>
-        <v>28</v>
-      </c>
-      <c r="I80" s="16">
+        <v>27</v>
+      </c>
+      <c r="I80" s="32">
+        <v>3</v>
+      </c>
+      <c r="J80" s="15">
         <f t="shared" si="16"/>
         <v>149</v>
       </c>
-      <c r="J80" s="16">
+      <c r="K80" s="15">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K80" s="26">
-        <v>0</v>
-      </c>
-      <c r="L80" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L80" s="25">
+        <v>0</v>
+      </c>
+      <c r="M80" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>43967</v>
       </c>
-      <c r="B81" s="19">
+      <c r="B81" s="18">
         <f t="shared" si="14"/>
-        <v>1932</v>
-      </c>
-      <c r="C81" s="13">
-        <v>3</v>
-      </c>
-      <c r="D81" s="13">
+        <v>1936</v>
+      </c>
+      <c r="C81" s="12">
+        <v>3</v>
+      </c>
+      <c r="D81" s="12">
         <v>0</v>
       </c>
       <c r="E81" s="4">
@@ -4044,40 +4288,43 @@
       <c r="F81" s="3">
         <v>5</v>
       </c>
-      <c r="G81" s="24">
-        <v>20</v>
-      </c>
-      <c r="H81" s="17">
+      <c r="G81" s="23">
+        <v>19</v>
+      </c>
+      <c r="H81" s="16">
         <f t="shared" si="15"/>
-        <v>28</v>
-      </c>
-      <c r="I81" s="16">
+        <v>27</v>
+      </c>
+      <c r="I81" s="32">
+        <v>0</v>
+      </c>
+      <c r="J81" s="15">
         <f t="shared" si="16"/>
         <v>149</v>
       </c>
-      <c r="J81" s="16">
+      <c r="K81" s="15">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K81" s="26">
-        <v>0</v>
-      </c>
-      <c r="L81" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L81" s="25">
+        <v>0</v>
+      </c>
+      <c r="M81" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>43968</v>
       </c>
-      <c r="B82" s="19">
+      <c r="B82" s="18">
         <f t="shared" si="14"/>
-        <v>1932</v>
-      </c>
-      <c r="C82" s="13">
-        <v>0</v>
-      </c>
-      <c r="D82" s="13">
+        <v>1936</v>
+      </c>
+      <c r="C82" s="12">
+        <v>0</v>
+      </c>
+      <c r="D82" s="12">
         <v>0</v>
       </c>
       <c r="E82" s="4">
@@ -4086,40 +4333,43 @@
       <c r="F82" s="3">
         <v>5</v>
       </c>
-      <c r="G82" s="24">
-        <v>20</v>
-      </c>
-      <c r="H82" s="17">
+      <c r="G82" s="23">
+        <v>19</v>
+      </c>
+      <c r="H82" s="16">
         <f t="shared" si="15"/>
-        <v>28</v>
-      </c>
-      <c r="I82" s="16">
+        <v>27</v>
+      </c>
+      <c r="I82" s="32">
+        <v>0</v>
+      </c>
+      <c r="J82" s="15">
         <f t="shared" si="16"/>
         <v>149</v>
       </c>
-      <c r="J82" s="16">
+      <c r="K82" s="15">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K82" s="26">
-        <v>0</v>
-      </c>
-      <c r="L82" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L82" s="25">
+        <v>0</v>
+      </c>
+      <c r="M82" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>43969</v>
       </c>
-      <c r="B83" s="19">
+      <c r="B83" s="18">
         <f t="shared" si="14"/>
-        <v>1933</v>
-      </c>
-      <c r="C83" s="13">
-        <v>1</v>
-      </c>
-      <c r="D83" s="13">
+        <v>1937</v>
+      </c>
+      <c r="C83" s="12">
+        <v>1</v>
+      </c>
+      <c r="D83" s="12">
         <v>1</v>
       </c>
       <c r="E83" s="4">
@@ -4128,40 +4378,43 @@
       <c r="F83" s="3">
         <v>4</v>
       </c>
-      <c r="G83" s="24">
-        <v>19</v>
-      </c>
-      <c r="H83" s="17">
+      <c r="G83" s="23">
+        <v>18</v>
+      </c>
+      <c r="H83" s="16">
         <f t="shared" si="15"/>
-        <v>26</v>
-      </c>
-      <c r="I83" s="16">
+        <v>25</v>
+      </c>
+      <c r="I83" s="32">
+        <v>2</v>
+      </c>
+      <c r="J83" s="15">
         <f t="shared" si="16"/>
         <v>151</v>
       </c>
-      <c r="J83" s="16">
+      <c r="K83" s="15">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
-      <c r="K83" s="26">
-        <v>1</v>
-      </c>
-      <c r="L83" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L83" s="25">
+        <v>1</v>
+      </c>
+      <c r="M83" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>43970</v>
       </c>
-      <c r="B84" s="19">
+      <c r="B84" s="18">
         <f t="shared" si="14"/>
-        <v>1934</v>
-      </c>
-      <c r="C84" s="13">
-        <v>1</v>
-      </c>
-      <c r="D84" s="13">
+        <v>1938</v>
+      </c>
+      <c r="C84" s="12">
+        <v>1</v>
+      </c>
+      <c r="D84" s="12">
         <v>0</v>
       </c>
       <c r="E84" s="4">
@@ -4170,40 +4423,43 @@
       <c r="F84" s="3">
         <v>4</v>
       </c>
-      <c r="G84" s="24">
-        <v>17</v>
-      </c>
-      <c r="H84" s="17">
+      <c r="G84" s="23">
+        <v>16</v>
+      </c>
+      <c r="H84" s="16">
         <f t="shared" si="15"/>
-        <v>24</v>
-      </c>
-      <c r="I84" s="16">
+        <v>23</v>
+      </c>
+      <c r="I84" s="32">
+        <v>2</v>
+      </c>
+      <c r="J84" s="15">
         <f t="shared" si="16"/>
         <v>151</v>
       </c>
-      <c r="J84" s="16">
+      <c r="K84" s="15">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K84" s="26">
-        <v>0</v>
-      </c>
-      <c r="L84" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L84" s="25">
+        <v>0</v>
+      </c>
+      <c r="M84" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>43971</v>
       </c>
-      <c r="B85" s="19">
+      <c r="B85" s="18">
         <f t="shared" si="14"/>
-        <v>1934</v>
-      </c>
-      <c r="C85" s="13">
-        <v>0</v>
-      </c>
-      <c r="D85" s="13">
+        <v>1938</v>
+      </c>
+      <c r="C85" s="12">
+        <v>0</v>
+      </c>
+      <c r="D85" s="12">
         <v>0</v>
       </c>
       <c r="E85" s="4">
@@ -4212,40 +4468,43 @@
       <c r="F85" s="3">
         <v>4</v>
       </c>
-      <c r="G85" s="24">
-        <v>16</v>
-      </c>
-      <c r="H85" s="17">
+      <c r="G85" s="23">
+        <v>15</v>
+      </c>
+      <c r="H85" s="16">
         <f t="shared" si="15"/>
-        <v>22</v>
-      </c>
-      <c r="I85" s="16">
+        <v>21</v>
+      </c>
+      <c r="I85" s="32">
+        <v>2</v>
+      </c>
+      <c r="J85" s="15">
         <f t="shared" si="16"/>
         <v>151</v>
       </c>
-      <c r="J85" s="16">
+      <c r="K85" s="15">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K85" s="26">
-        <v>0</v>
-      </c>
-      <c r="L85" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L85" s="25">
+        <v>0</v>
+      </c>
+      <c r="M85" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>43972</v>
       </c>
-      <c r="B86" s="19">
+      <c r="B86" s="18">
         <f t="shared" si="14"/>
-        <v>1935</v>
-      </c>
-      <c r="C86" s="13">
-        <v>1</v>
-      </c>
-      <c r="D86" s="13">
+        <v>1939</v>
+      </c>
+      <c r="C86" s="12">
+        <v>1</v>
+      </c>
+      <c r="D86" s="12">
         <v>0</v>
       </c>
       <c r="E86" s="4">
@@ -4254,40 +4513,43 @@
       <c r="F86" s="3">
         <v>4</v>
       </c>
-      <c r="G86" s="24">
-        <v>16</v>
-      </c>
-      <c r="H86" s="17">
+      <c r="G86" s="23">
+        <v>15</v>
+      </c>
+      <c r="H86" s="16">
         <f t="shared" si="15"/>
-        <v>22</v>
-      </c>
-      <c r="I86" s="16">
+        <v>21</v>
+      </c>
+      <c r="I86" s="32">
+        <v>0</v>
+      </c>
+      <c r="J86" s="15">
         <f t="shared" si="16"/>
         <v>151</v>
       </c>
-      <c r="J86" s="16">
+      <c r="K86" s="15">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K86" s="26">
-        <v>0</v>
-      </c>
-      <c r="L86" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L86" s="25">
+        <v>0</v>
+      </c>
+      <c r="M86" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>43973</v>
       </c>
-      <c r="B87" s="19">
+      <c r="B87" s="18">
         <f t="shared" si="14"/>
-        <v>1935</v>
-      </c>
-      <c r="C87" s="13">
-        <v>0</v>
-      </c>
-      <c r="D87" s="13">
+        <v>1939</v>
+      </c>
+      <c r="C87" s="12">
+        <v>0</v>
+      </c>
+      <c r="D87" s="12">
         <v>0</v>
       </c>
       <c r="E87" s="4">
@@ -4296,40 +4558,43 @@
       <c r="F87" s="3">
         <v>3</v>
       </c>
-      <c r="G87" s="24">
-        <v>16</v>
-      </c>
-      <c r="H87" s="17">
+      <c r="G87" s="23">
+        <v>15</v>
+      </c>
+      <c r="H87" s="16">
         <f t="shared" si="15"/>
-        <v>21</v>
-      </c>
-      <c r="I87" s="16">
+        <v>20</v>
+      </c>
+      <c r="I87" s="32">
+        <v>1</v>
+      </c>
+      <c r="J87" s="15">
         <f t="shared" si="16"/>
         <v>151</v>
       </c>
-      <c r="J87" s="16">
+      <c r="K87" s="15">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K87" s="26">
-        <v>0</v>
-      </c>
-      <c r="L87" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L87" s="25">
+        <v>0</v>
+      </c>
+      <c r="M87" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>43974</v>
       </c>
-      <c r="B88" s="19">
+      <c r="B88" s="18">
         <f t="shared" si="14"/>
-        <v>1935</v>
-      </c>
-      <c r="C88" s="13">
-        <v>0</v>
-      </c>
-      <c r="D88" s="13">
+        <v>1939</v>
+      </c>
+      <c r="C88" s="12">
+        <v>0</v>
+      </c>
+      <c r="D88" s="12">
         <v>0</v>
       </c>
       <c r="E88" s="4">
@@ -4338,40 +4603,43 @@
       <c r="F88" s="3">
         <v>3</v>
       </c>
-      <c r="G88" s="24">
-        <v>16</v>
-      </c>
-      <c r="H88" s="17">
+      <c r="G88" s="23">
+        <v>15</v>
+      </c>
+      <c r="H88" s="16">
         <f t="shared" si="15"/>
-        <v>21</v>
-      </c>
-      <c r="I88" s="16">
+        <v>20</v>
+      </c>
+      <c r="I88" s="32">
+        <v>0</v>
+      </c>
+      <c r="J88" s="15">
         <f t="shared" si="16"/>
         <v>151</v>
       </c>
-      <c r="J88" s="16">
+      <c r="K88" s="15">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K88" s="26">
-        <v>0</v>
-      </c>
-      <c r="L88" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L88" s="25">
+        <v>0</v>
+      </c>
+      <c r="M88" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>43975</v>
       </c>
-      <c r="B89" s="19">
+      <c r="B89" s="18">
         <f t="shared" si="14"/>
-        <v>1936</v>
-      </c>
-      <c r="C89" s="13">
-        <v>1</v>
-      </c>
-      <c r="D89" s="13">
+        <v>1940</v>
+      </c>
+      <c r="C89" s="12">
+        <v>1</v>
+      </c>
+      <c r="D89" s="12">
         <v>0</v>
       </c>
       <c r="E89" s="4">
@@ -4380,40 +4648,43 @@
       <c r="F89" s="3">
         <v>3</v>
       </c>
-      <c r="G89" s="24">
-        <v>16</v>
-      </c>
-      <c r="H89" s="17">
+      <c r="G89" s="23">
+        <v>15</v>
+      </c>
+      <c r="H89" s="16">
         <f t="shared" si="15"/>
-        <v>21</v>
-      </c>
-      <c r="I89" s="16">
+        <v>20</v>
+      </c>
+      <c r="I89" s="32">
+        <v>0</v>
+      </c>
+      <c r="J89" s="15">
         <f t="shared" si="16"/>
         <v>151</v>
       </c>
-      <c r="J89" s="16">
+      <c r="K89" s="15">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K89" s="26">
-        <v>0</v>
-      </c>
-      <c r="L89" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L89" s="25">
+        <v>0</v>
+      </c>
+      <c r="M89" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>43976</v>
       </c>
-      <c r="B90" s="19">
+      <c r="B90" s="18">
         <f t="shared" si="14"/>
-        <v>1938</v>
-      </c>
-      <c r="C90" s="13">
-        <v>2</v>
-      </c>
-      <c r="D90" s="13">
+        <v>1942</v>
+      </c>
+      <c r="C90" s="12">
+        <v>2</v>
+      </c>
+      <c r="D90" s="12">
         <v>0</v>
       </c>
       <c r="E90" s="4">
@@ -4422,40 +4693,43 @@
       <c r="F90" s="3">
         <v>3</v>
       </c>
-      <c r="G90" s="24">
-        <v>15</v>
-      </c>
-      <c r="H90" s="17">
+      <c r="G90" s="23">
+        <v>14</v>
+      </c>
+      <c r="H90" s="16">
         <f t="shared" si="15"/>
-        <v>20</v>
-      </c>
-      <c r="I90" s="16">
+        <v>19</v>
+      </c>
+      <c r="I90" s="32">
+        <v>1</v>
+      </c>
+      <c r="J90" s="15">
         <f t="shared" si="16"/>
         <v>151</v>
       </c>
-      <c r="J90" s="16">
+      <c r="K90" s="15">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K90" s="26">
-        <v>0</v>
-      </c>
-      <c r="L90" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L90" s="25">
+        <v>0</v>
+      </c>
+      <c r="M90" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>43977</v>
       </c>
-      <c r="B91" s="19">
+      <c r="B91" s="18">
         <f t="shared" si="14"/>
-        <v>1941</v>
-      </c>
-      <c r="C91" s="13">
-        <v>3</v>
-      </c>
-      <c r="D91" s="13">
+        <v>1945</v>
+      </c>
+      <c r="C91" s="12">
+        <v>3</v>
+      </c>
+      <c r="D91" s="12">
         <v>0</v>
       </c>
       <c r="E91" s="4">
@@ -4464,40 +4738,43 @@
       <c r="F91" s="3">
         <v>3</v>
       </c>
-      <c r="G91" s="24">
-        <v>15</v>
-      </c>
-      <c r="H91" s="17">
+      <c r="G91" s="23">
+        <v>14</v>
+      </c>
+      <c r="H91" s="16">
         <f t="shared" si="15"/>
-        <v>19</v>
-      </c>
-      <c r="I91" s="16">
+        <v>18</v>
+      </c>
+      <c r="I91" s="32">
+        <v>1</v>
+      </c>
+      <c r="J91" s="15">
         <f t="shared" si="16"/>
         <v>151</v>
       </c>
-      <c r="J91" s="16">
+      <c r="K91" s="15">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K91" s="26">
-        <v>0</v>
-      </c>
-      <c r="L91" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L91" s="25">
+        <v>0</v>
+      </c>
+      <c r="M91" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>43978</v>
       </c>
-      <c r="B92" s="19">
+      <c r="B92" s="18">
         <f t="shared" ref="B92:B94" si="18">B91+C92</f>
-        <v>1942</v>
-      </c>
-      <c r="C92" s="13">
-        <v>1</v>
-      </c>
-      <c r="D92" s="13">
+        <v>1946</v>
+      </c>
+      <c r="C92" s="12">
+        <v>1</v>
+      </c>
+      <c r="D92" s="12">
         <v>0</v>
       </c>
       <c r="E92" s="4">
@@ -4506,40 +4783,43 @@
       <c r="F92" s="3">
         <v>3</v>
       </c>
-      <c r="G92" s="24">
-        <v>14</v>
-      </c>
-      <c r="H92" s="17">
+      <c r="G92" s="23">
+        <v>13</v>
+      </c>
+      <c r="H92" s="16">
         <f t="shared" si="15"/>
-        <v>18</v>
-      </c>
-      <c r="I92" s="16">
-        <f t="shared" ref="I92:I94" si="19">I91+J92</f>
+        <v>17</v>
+      </c>
+      <c r="I92" s="32">
+        <v>1</v>
+      </c>
+      <c r="J92" s="15">
+        <f t="shared" ref="J92:J94" si="19">J91+K92</f>
         <v>151</v>
       </c>
-      <c r="J92" s="16">
-        <f t="shared" ref="J92:J94" si="20">K92+L92</f>
-        <v>0</v>
-      </c>
-      <c r="K92" s="26">
-        <v>0</v>
-      </c>
-      <c r="L92" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K92" s="15">
+        <f t="shared" ref="K92:K94" si="20">L92+M92</f>
+        <v>0</v>
+      </c>
+      <c r="L92" s="25">
+        <v>0</v>
+      </c>
+      <c r="M92" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>43979</v>
       </c>
-      <c r="B93" s="19">
+      <c r="B93" s="18">
         <f t="shared" si="18"/>
-        <v>1943</v>
-      </c>
-      <c r="C93" s="13">
-        <v>1</v>
-      </c>
-      <c r="D93" s="13">
+        <v>1947</v>
+      </c>
+      <c r="C93" s="12">
+        <v>1</v>
+      </c>
+      <c r="D93" s="12">
         <v>0</v>
       </c>
       <c r="E93" s="4">
@@ -4548,40 +4828,43 @@
       <c r="F93" s="3">
         <v>3</v>
       </c>
-      <c r="G93" s="24">
-        <v>13</v>
-      </c>
-      <c r="H93" s="17">
+      <c r="G93" s="23">
+        <v>12</v>
+      </c>
+      <c r="H93" s="16">
         <f t="shared" si="15"/>
-        <v>17</v>
-      </c>
-      <c r="I93" s="16">
+        <v>16</v>
+      </c>
+      <c r="I93" s="32">
+        <v>1</v>
+      </c>
+      <c r="J93" s="15">
         <f t="shared" si="19"/>
         <v>151</v>
       </c>
-      <c r="J93" s="16">
+      <c r="K93" s="15">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="K93" s="26">
-        <v>0</v>
-      </c>
-      <c r="L93" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L93" s="25">
+        <v>0</v>
+      </c>
+      <c r="M93" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>43980</v>
       </c>
-      <c r="B94" s="19">
+      <c r="B94" s="18">
         <f t="shared" si="18"/>
-        <v>1943</v>
-      </c>
-      <c r="C94" s="13">
-        <v>0</v>
-      </c>
-      <c r="D94" s="13">
+        <v>1947</v>
+      </c>
+      <c r="C94" s="12">
+        <v>0</v>
+      </c>
+      <c r="D94" s="12">
         <v>0</v>
       </c>
       <c r="E94" s="4">
@@ -4590,40 +4873,43 @@
       <c r="F94" s="3">
         <v>3</v>
       </c>
-      <c r="G94" s="24">
-        <v>12</v>
-      </c>
-      <c r="H94" s="17">
+      <c r="G94" s="23">
+        <v>11</v>
+      </c>
+      <c r="H94" s="16">
         <f t="shared" si="15"/>
-        <v>16</v>
-      </c>
-      <c r="I94" s="16">
+        <v>15</v>
+      </c>
+      <c r="I94" s="32">
+        <v>1</v>
+      </c>
+      <c r="J94" s="15">
         <f t="shared" si="19"/>
         <v>151</v>
       </c>
-      <c r="J94" s="16">
+      <c r="K94" s="15">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="K94" s="26">
-        <v>0</v>
-      </c>
-      <c r="L94" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L94" s="25">
+        <v>0</v>
+      </c>
+      <c r="M94" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>43981</v>
       </c>
-      <c r="B95" s="19">
-        <f t="shared" ref="B95:B104" si="21">B94+C95</f>
-        <v>1943</v>
-      </c>
-      <c r="C95" s="13">
-        <v>0</v>
-      </c>
-      <c r="D95" s="13">
+      <c r="B95" s="18">
+        <f t="shared" ref="B95:B103" si="21">B94+C95</f>
+        <v>1947</v>
+      </c>
+      <c r="C95" s="12">
+        <v>0</v>
+      </c>
+      <c r="D95" s="12">
         <v>0</v>
       </c>
       <c r="E95" s="4">
@@ -4632,40 +4918,43 @@
       <c r="F95" s="3">
         <v>3</v>
       </c>
-      <c r="G95" s="24">
-        <v>11</v>
-      </c>
-      <c r="H95" s="17">
-        <f t="shared" ref="H95:H104" si="22">G95+E95</f>
-        <v>15</v>
-      </c>
-      <c r="I95" s="16">
-        <f t="shared" ref="I95:I104" si="23">I94+J95</f>
+      <c r="G95" s="23">
+        <v>10</v>
+      </c>
+      <c r="H95" s="16">
+        <f t="shared" ref="H95:H103" si="22">G95+E95</f>
+        <v>14</v>
+      </c>
+      <c r="I95" s="32">
+        <v>1</v>
+      </c>
+      <c r="J95" s="15">
+        <f t="shared" ref="J95:J103" si="23">J94+K95</f>
         <v>151</v>
       </c>
-      <c r="J95" s="16">
-        <f t="shared" ref="J95:J104" si="24">K95+L95</f>
-        <v>0</v>
-      </c>
-      <c r="K95" s="26">
-        <v>0</v>
-      </c>
-      <c r="L95" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K95" s="15">
+        <f t="shared" ref="K95:K103" si="24">L95+M95</f>
+        <v>0</v>
+      </c>
+      <c r="L95" s="25">
+        <v>0</v>
+      </c>
+      <c r="M95" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>43982</v>
       </c>
-      <c r="B96" s="19">
+      <c r="B96" s="18">
         <f t="shared" si="21"/>
-        <v>1945</v>
-      </c>
-      <c r="C96" s="13">
-        <v>2</v>
-      </c>
-      <c r="D96" s="13">
+        <v>1949</v>
+      </c>
+      <c r="C96" s="12">
+        <v>2</v>
+      </c>
+      <c r="D96" s="12">
         <v>2</v>
       </c>
       <c r="E96" s="4">
@@ -4674,40 +4963,43 @@
       <c r="F96" s="3">
         <v>3</v>
       </c>
-      <c r="G96" s="24">
-        <v>11</v>
-      </c>
-      <c r="H96" s="17">
+      <c r="G96" s="23">
+        <v>10</v>
+      </c>
+      <c r="H96" s="16">
         <f t="shared" si="22"/>
-        <v>16</v>
-      </c>
-      <c r="I96" s="16">
+        <v>15</v>
+      </c>
+      <c r="I96" s="32">
+        <v>1</v>
+      </c>
+      <c r="J96" s="15">
         <f t="shared" si="23"/>
         <v>151</v>
       </c>
-      <c r="J96" s="16">
+      <c r="K96" s="15">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K96" s="26">
-        <v>0</v>
-      </c>
-      <c r="L96" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L96" s="25">
+        <v>0</v>
+      </c>
+      <c r="M96" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>43983</v>
       </c>
-      <c r="B97" s="19">
+      <c r="B97" s="18">
         <f t="shared" si="21"/>
-        <v>1947</v>
-      </c>
-      <c r="C97" s="13">
-        <v>2</v>
-      </c>
-      <c r="D97" s="13">
+        <v>1951</v>
+      </c>
+      <c r="C97" s="12">
+        <v>2</v>
+      </c>
+      <c r="D97" s="12">
         <v>1</v>
       </c>
       <c r="E97" s="4">
@@ -4716,40 +5008,43 @@
       <c r="F97" s="3">
         <v>3</v>
       </c>
-      <c r="G97" s="24">
-        <v>12</v>
-      </c>
-      <c r="H97" s="17">
+      <c r="G97" s="23">
+        <v>11</v>
+      </c>
+      <c r="H97" s="16">
         <f t="shared" si="22"/>
-        <v>16</v>
-      </c>
-      <c r="I97" s="16">
+        <v>15</v>
+      </c>
+      <c r="I97" s="32">
+        <v>1</v>
+      </c>
+      <c r="J97" s="15">
         <f t="shared" si="23"/>
         <v>151</v>
       </c>
-      <c r="J97" s="16">
+      <c r="K97" s="15">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K97" s="26">
-        <v>0</v>
-      </c>
-      <c r="L97" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L97" s="25">
+        <v>0</v>
+      </c>
+      <c r="M97" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>43984</v>
       </c>
-      <c r="B98" s="19">
+      <c r="B98" s="18">
         <f t="shared" si="21"/>
-        <v>1948</v>
-      </c>
-      <c r="C98" s="13">
-        <v>1</v>
-      </c>
-      <c r="D98" s="13">
+        <v>1952</v>
+      </c>
+      <c r="C98" s="12">
+        <v>1</v>
+      </c>
+      <c r="D98" s="12">
         <v>0</v>
       </c>
       <c r="E98" s="4">
@@ -4758,40 +5053,43 @@
       <c r="F98" s="3">
         <v>3</v>
       </c>
-      <c r="G98" s="24">
-        <v>12</v>
-      </c>
-      <c r="H98" s="17">
+      <c r="G98" s="23">
+        <v>11</v>
+      </c>
+      <c r="H98" s="16">
         <f t="shared" si="22"/>
-        <v>16</v>
-      </c>
-      <c r="I98" s="16">
+        <v>15</v>
+      </c>
+      <c r="I98" s="32">
+        <v>0</v>
+      </c>
+      <c r="J98" s="15">
         <f t="shared" si="23"/>
         <v>151</v>
       </c>
-      <c r="J98" s="16">
+      <c r="K98" s="15">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K98" s="26">
-        <v>0</v>
-      </c>
-      <c r="L98" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L98" s="25">
+        <v>0</v>
+      </c>
+      <c r="M98" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>43985</v>
       </c>
-      <c r="B99" s="19">
+      <c r="B99" s="18">
         <f t="shared" si="21"/>
-        <v>1948</v>
-      </c>
-      <c r="C99" s="13">
-        <v>0</v>
-      </c>
-      <c r="D99" s="13">
+        <v>1952</v>
+      </c>
+      <c r="C99" s="12">
+        <v>0</v>
+      </c>
+      <c r="D99" s="12">
         <v>0</v>
       </c>
       <c r="E99" s="4">
@@ -4800,241 +5098,304 @@
       <c r="F99" s="3">
         <v>3</v>
       </c>
-      <c r="G99" s="24">
+      <c r="G99" s="23">
+        <v>10</v>
+      </c>
+      <c r="H99" s="16">
+        <f t="shared" si="22"/>
+        <v>14</v>
+      </c>
+      <c r="I99" s="32">
+        <v>1</v>
+      </c>
+      <c r="J99" s="15">
+        <f t="shared" si="23"/>
+        <v>151</v>
+      </c>
+      <c r="K99" s="15">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="L99" s="25">
+        <v>0</v>
+      </c>
+      <c r="M99" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>43986</v>
+      </c>
+      <c r="B100" s="18">
+        <f t="shared" si="21"/>
+        <v>1954</v>
+      </c>
+      <c r="C100" s="12">
+        <v>2</v>
+      </c>
+      <c r="D100" s="12">
+        <v>1</v>
+      </c>
+      <c r="E100" s="4">
+        <v>4</v>
+      </c>
+      <c r="F100" s="3">
+        <v>3</v>
+      </c>
+      <c r="G100" s="23">
         <v>11</v>
       </c>
-      <c r="H99" s="17">
+      <c r="H100" s="16">
         <f t="shared" si="22"/>
         <v>15</v>
       </c>
-      <c r="I99" s="16">
+      <c r="I100" s="32">
+        <v>0</v>
+      </c>
+      <c r="J100" s="15">
         <f t="shared" si="23"/>
         <v>151</v>
       </c>
-      <c r="J99" s="16">
+      <c r="K100" s="15">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K99" s="26">
-        <v>0</v>
-      </c>
-      <c r="L99" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A100" s="1">
-        <v>43986</v>
-      </c>
-      <c r="B100" s="19">
+      <c r="L100" s="25">
+        <v>0</v>
+      </c>
+      <c r="M100" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>43987</v>
+      </c>
+      <c r="B101" s="18">
         <f t="shared" si="21"/>
-        <v>1950</v>
-      </c>
-      <c r="C100" s="13">
-        <v>2</v>
-      </c>
-      <c r="D100" s="13">
-        <v>1</v>
-      </c>
-      <c r="E100" s="4">
+        <v>1957</v>
+      </c>
+      <c r="C101" s="12">
+        <v>3</v>
+      </c>
+      <c r="D101" s="12">
+        <v>0</v>
+      </c>
+      <c r="E101" s="4">
         <v>4</v>
       </c>
-      <c r="F100" s="3">
-        <v>3</v>
-      </c>
-      <c r="G100" s="24">
-        <v>12</v>
-      </c>
-      <c r="H100" s="17">
+      <c r="F101" s="3">
+        <v>3</v>
+      </c>
+      <c r="G101" s="23">
+        <v>11</v>
+      </c>
+      <c r="H101" s="16">
         <f t="shared" si="22"/>
-        <v>16</v>
-      </c>
-      <c r="I100" s="16">
+        <v>15</v>
+      </c>
+      <c r="I101" s="32">
+        <v>0</v>
+      </c>
+      <c r="J101" s="15">
         <f t="shared" si="23"/>
         <v>151</v>
       </c>
-      <c r="J100" s="16">
+      <c r="K101" s="15">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K100" s="26">
-        <v>0</v>
-      </c>
-      <c r="L100" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A101" s="1">
-        <v>43987</v>
-      </c>
-      <c r="B101" s="19">
+      <c r="L101" s="25">
+        <v>0</v>
+      </c>
+      <c r="M101" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>43988</v>
+      </c>
+      <c r="B102" s="18">
         <f t="shared" si="21"/>
-        <v>1953</v>
-      </c>
-      <c r="C101" s="13">
-        <v>3</v>
-      </c>
-      <c r="D101" s="13">
-        <v>0</v>
-      </c>
-      <c r="E101" s="4">
+        <v>1957</v>
+      </c>
+      <c r="C102" s="12">
+        <v>0</v>
+      </c>
+      <c r="D102" s="12">
+        <v>0</v>
+      </c>
+      <c r="E102" s="4">
         <v>4</v>
       </c>
-      <c r="F101" s="3">
-        <v>3</v>
-      </c>
-      <c r="G101" s="24">
-        <v>12</v>
-      </c>
-      <c r="H101" s="17">
+      <c r="F102" s="3">
+        <v>3</v>
+      </c>
+      <c r="G102" s="23">
+        <v>11</v>
+      </c>
+      <c r="H102" s="16">
         <f t="shared" si="22"/>
-        <v>16</v>
-      </c>
-      <c r="I101" s="16">
+        <v>15</v>
+      </c>
+      <c r="I102" s="32">
+        <v>0</v>
+      </c>
+      <c r="J102" s="15">
         <f t="shared" si="23"/>
         <v>151</v>
       </c>
-      <c r="J101" s="16">
+      <c r="K102" s="15">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K101" s="26">
-        <v>0</v>
-      </c>
-      <c r="L101" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A102" s="1">
-        <v>43988</v>
-      </c>
-      <c r="B102" s="19">
+      <c r="L102" s="25">
+        <v>0</v>
+      </c>
+      <c r="M102" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>43989</v>
+      </c>
+      <c r="B103" s="18">
         <f t="shared" si="21"/>
-        <v>1953</v>
-      </c>
-      <c r="C102" s="13">
-        <v>0</v>
-      </c>
-      <c r="D102" s="13">
-        <v>0</v>
-      </c>
-      <c r="E102" s="4">
+        <v>1960</v>
+      </c>
+      <c r="C103" s="12">
+        <v>3</v>
+      </c>
+      <c r="D103" s="12">
+        <v>0</v>
+      </c>
+      <c r="E103" s="4">
         <v>4</v>
       </c>
-      <c r="F102" s="3">
-        <v>3</v>
-      </c>
-      <c r="G102" s="24">
-        <v>12</v>
-      </c>
-      <c r="H102" s="17">
+      <c r="F103" s="3">
+        <v>3</v>
+      </c>
+      <c r="G103" s="23">
+        <v>11</v>
+      </c>
+      <c r="H103" s="16">
         <f t="shared" si="22"/>
-        <v>16</v>
-      </c>
-      <c r="I102" s="16">
+        <v>15</v>
+      </c>
+      <c r="I103" s="32">
+        <v>0</v>
+      </c>
+      <c r="J103" s="15">
         <f t="shared" si="23"/>
         <v>151</v>
       </c>
-      <c r="J102" s="16">
+      <c r="K103" s="15">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K102" s="26">
-        <v>0</v>
-      </c>
-      <c r="L102" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A103" s="1">
-        <v>43989</v>
-      </c>
-      <c r="B103" s="19">
-        <f t="shared" si="21"/>
-        <v>1956</v>
-      </c>
-      <c r="C103" s="13">
-        <v>3</v>
-      </c>
-      <c r="D103" s="13">
-        <v>0</v>
-      </c>
-      <c r="E103" s="4">
+      <c r="L103" s="25">
+        <v>0</v>
+      </c>
+      <c r="M103" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>43990</v>
+      </c>
+      <c r="B104" s="18">
+        <f t="shared" ref="B104:B105" si="25">B103+C104</f>
+        <v>1965</v>
+      </c>
+      <c r="C104" s="12">
+        <v>5</v>
+      </c>
+      <c r="D104" s="12">
+        <v>0</v>
+      </c>
+      <c r="E104" s="4">
         <v>4</v>
       </c>
-      <c r="F103" s="3">
-        <v>3</v>
-      </c>
-      <c r="G103" s="24">
-        <v>12</v>
-      </c>
-      <c r="H103" s="17">
-        <f t="shared" si="22"/>
-        <v>16</v>
-      </c>
-      <c r="I103" s="16">
-        <f t="shared" si="23"/>
+      <c r="F104" s="3">
+        <v>3</v>
+      </c>
+      <c r="G104" s="23">
+        <v>11</v>
+      </c>
+      <c r="H104" s="16">
+        <f t="shared" ref="H104:H105" si="26">G104+E104</f>
+        <v>15</v>
+      </c>
+      <c r="I104" s="32">
+        <v>0</v>
+      </c>
+      <c r="J104" s="15">
+        <f t="shared" ref="J104:J105" si="27">J103+K104</f>
         <v>151</v>
       </c>
-      <c r="J103" s="16">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="K103" s="26">
-        <v>0</v>
-      </c>
-      <c r="L103" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A104" s="2">
-        <v>43990</v>
-      </c>
-      <c r="B104" s="20">
-        <f t="shared" si="21"/>
-        <v>1957</v>
-      </c>
-      <c r="C104" s="14">
-        <v>1</v>
-      </c>
-      <c r="D104" s="14">
-        <v>0</v>
-      </c>
-      <c r="E104" s="30">
+      <c r="K104" s="15">
+        <f t="shared" ref="K104:K105" si="28">L104+M104</f>
+        <v>0</v>
+      </c>
+      <c r="L104" s="25">
+        <v>0</v>
+      </c>
+      <c r="M104" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A105" s="2">
+        <v>43991</v>
+      </c>
+      <c r="B105" s="19">
+        <f t="shared" si="25"/>
+        <v>1965</v>
+      </c>
+      <c r="C105" s="13">
+        <v>0</v>
+      </c>
+      <c r="D105" s="13">
+        <v>0</v>
+      </c>
+      <c r="E105" s="29">
         <v>4</v>
       </c>
-      <c r="F104" s="31">
-        <v>3</v>
-      </c>
-      <c r="G104" s="25">
-        <v>12</v>
-      </c>
-      <c r="H104" s="18">
-        <f t="shared" si="22"/>
-        <v>16</v>
-      </c>
-      <c r="I104" s="21">
-        <f t="shared" si="23"/>
+      <c r="F105" s="30">
+        <v>3</v>
+      </c>
+      <c r="G105" s="24">
+        <v>11</v>
+      </c>
+      <c r="H105" s="17">
+        <f t="shared" si="26"/>
+        <v>15</v>
+      </c>
+      <c r="I105" s="33">
+        <v>0</v>
+      </c>
+      <c r="J105" s="20">
+        <f t="shared" si="27"/>
         <v>151</v>
       </c>
-      <c r="J104" s="21">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="K104" s="28">
-        <v>0</v>
-      </c>
-      <c r="L104" s="29">
+      <c r="K105" s="20">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="L105" s="27">
+        <v>0</v>
+      </c>
+      <c r="M105" s="28">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="74" orientation="landscape" r:id="rId1"/>

--- a/Chiffres  COVID-19 Valais.xlsx
+++ b/Chiffres  COVID-19 Valais.xlsx
@@ -96,10 +96,10 @@
     <t>Patients COVID-19 aux SI total (y.c. intubés)</t>
   </si>
   <si>
-    <t>Données COVID-19 Valais 09.06.2020</t>
+    <t>Nb de nouvelles sorties</t>
   </si>
   <si>
-    <t>Nb de nouvelles sorties</t>
+    <t>Données COVID-19 Valais 10.06.2020</t>
   </si>
 </sst>
 </file>
@@ -684,25 +684,25 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M105"/>
+  <dimension ref="A1:M106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:T1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="A106" sqref="A106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="3" width="11.42578125" style="14"/>
-    <col min="4" max="4" width="10.85546875" style="14"/>
-    <col min="8" max="9" width="16.140625" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" style="5" customWidth="1"/>
+    <col min="2" max="3" width="11.453125" style="14"/>
+    <col min="4" max="4" width="10.81640625" style="14"/>
+    <col min="8" max="9" width="16.1796875" customWidth="1"/>
+    <col min="11" max="11" width="14.54296875" customWidth="1"/>
+    <col min="12" max="12" width="13.54296875" customWidth="1"/>
+    <col min="13" max="13" width="15.7265625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B1" s="35"/>
       <c r="C1" s="35"/>
@@ -717,7 +717,7 @@
       <c r="L1" s="35"/>
       <c r="M1" s="36"/>
     </row>
-    <row r="2" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -743,7 +743,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>6</v>
@@ -758,7 +758,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>43889</v>
       </c>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>43890</v>
       </c>
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>43891</v>
       </c>
@@ -893,7 +893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>43892</v>
       </c>
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>43893</v>
       </c>
@@ -983,7 +983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>43894</v>
       </c>
@@ -1028,7 +1028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>43895</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>43896</v>
       </c>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>43897</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>43898</v>
       </c>
@@ -1208,7 +1208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>43899</v>
       </c>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>43900</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>43901</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>43902</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>43903</v>
       </c>
@@ -1433,7 +1433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>43904</v>
       </c>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>43905</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>43906</v>
       </c>
@@ -1568,7 +1568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>43907</v>
       </c>
@@ -1613,7 +1613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>43908</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>43909</v>
       </c>
@@ -1703,7 +1703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>43910</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>43911</v>
       </c>
@@ -1793,7 +1793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>43912</v>
       </c>
@@ -1838,7 +1838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>43913</v>
       </c>
@@ -1883,7 +1883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>43914</v>
       </c>
@@ -1928,7 +1928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>43915</v>
       </c>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>43916</v>
       </c>
@@ -2018,7 +2018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>43917</v>
       </c>
@@ -2063,7 +2063,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>43918</v>
       </c>
@@ -2108,7 +2108,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>43919</v>
       </c>
@@ -2153,7 +2153,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>43920</v>
       </c>
@@ -2198,7 +2198,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>43921</v>
       </c>
@@ -2243,7 +2243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>43922</v>
       </c>
@@ -2288,7 +2288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>43923</v>
       </c>
@@ -2333,7 +2333,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>43924</v>
       </c>
@@ -2378,7 +2378,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>43925</v>
       </c>
@@ -2423,7 +2423,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>43926</v>
       </c>
@@ -2468,7 +2468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>43927</v>
       </c>
@@ -2513,7 +2513,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>43928</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>43929</v>
       </c>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>43930</v>
       </c>
@@ -2648,7 +2648,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>43931</v>
       </c>
@@ -2693,7 +2693,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>43932</v>
       </c>
@@ -2738,7 +2738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>43933</v>
       </c>
@@ -2783,7 +2783,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>43934</v>
       </c>
@@ -2828,7 +2828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>43935</v>
       </c>
@@ -2873,7 +2873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>43936</v>
       </c>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>43937</v>
       </c>
@@ -2963,7 +2963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>43938</v>
       </c>
@@ -3008,7 +3008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>43939</v>
       </c>
@@ -3053,7 +3053,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>43940</v>
       </c>
@@ -3098,7 +3098,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>43941</v>
       </c>
@@ -3143,7 +3143,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>43942</v>
       </c>
@@ -3188,7 +3188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>43943</v>
       </c>
@@ -3233,7 +3233,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>43944</v>
       </c>
@@ -3278,7 +3278,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>43945</v>
       </c>
@@ -3323,7 +3323,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>43946</v>
       </c>
@@ -3368,7 +3368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>43947</v>
       </c>
@@ -3413,7 +3413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>43948</v>
       </c>
@@ -3458,7 +3458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>43949</v>
       </c>
@@ -3503,7 +3503,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>43950</v>
       </c>
@@ -3548,7 +3548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>43951</v>
       </c>
@@ -3593,7 +3593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>43952</v>
       </c>
@@ -3638,12 +3638,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>43953</v>
       </c>
       <c r="B67" s="18">
-        <f t="shared" ref="B67:B91" si="14">B66+C67</f>
+        <f t="shared" ref="B67:B87" si="14">B66+C67</f>
         <v>1895</v>
       </c>
       <c r="C67" s="12">
@@ -3662,18 +3662,18 @@
         <v>46</v>
       </c>
       <c r="H67" s="16">
-        <f t="shared" ref="H67:H94" si="15">G67+E67</f>
+        <f t="shared" ref="H67:H87" si="15">G67+E67</f>
         <v>56</v>
       </c>
       <c r="I67" s="32">
         <v>0</v>
       </c>
       <c r="J67" s="15">
-        <f t="shared" ref="J67:J91" si="16">J66+K67</f>
+        <f t="shared" ref="J67:J87" si="16">J66+K67</f>
         <v>140</v>
       </c>
       <c r="K67" s="15">
-        <f t="shared" ref="K67:K91" si="17">L67+M67</f>
+        <f t="shared" ref="K67:K87" si="17">L67+M67</f>
         <v>2</v>
       </c>
       <c r="L67" s="25">
@@ -3683,7 +3683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>43954</v>
       </c>
@@ -3728,7 +3728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>43955</v>
       </c>
@@ -3773,7 +3773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>43956</v>
       </c>
@@ -3818,7 +3818,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>43957</v>
       </c>
@@ -3863,7 +3863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>43958</v>
       </c>
@@ -3908,7 +3908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>43959</v>
       </c>
@@ -3953,7 +3953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>43960</v>
       </c>
@@ -3998,7 +3998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>43961</v>
       </c>
@@ -4043,7 +4043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>43962</v>
       </c>
@@ -4075,20 +4075,20 @@
       </c>
       <c r="J76" s="15">
         <f t="shared" si="16"/>
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K76" s="15">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L76" s="25">
         <v>1</v>
       </c>
       <c r="M76" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>43963</v>
       </c>
@@ -4120,7 +4120,7 @@
       </c>
       <c r="J77" s="15">
         <f t="shared" si="16"/>
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K77" s="15">
         <f t="shared" si="17"/>
@@ -4133,7 +4133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>43964</v>
       </c>
@@ -4165,7 +4165,7 @@
       </c>
       <c r="J78" s="15">
         <f t="shared" si="16"/>
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K78" s="15">
         <f t="shared" si="17"/>
@@ -4178,7 +4178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>43965</v>
       </c>
@@ -4210,7 +4210,7 @@
       </c>
       <c r="J79" s="15">
         <f t="shared" si="16"/>
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K79" s="15">
         <f t="shared" si="17"/>
@@ -4223,7 +4223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>43966</v>
       </c>
@@ -4255,7 +4255,7 @@
       </c>
       <c r="J80" s="15">
         <f t="shared" si="16"/>
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K80" s="15">
         <f t="shared" si="17"/>
@@ -4268,7 +4268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>43967</v>
       </c>
@@ -4300,7 +4300,7 @@
       </c>
       <c r="J81" s="15">
         <f t="shared" si="16"/>
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K81" s="15">
         <f t="shared" si="17"/>
@@ -4313,7 +4313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>43968</v>
       </c>
@@ -4345,7 +4345,7 @@
       </c>
       <c r="J82" s="15">
         <f t="shared" si="16"/>
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K82" s="15">
         <f t="shared" si="17"/>
@@ -4358,7 +4358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>43969</v>
       </c>
@@ -4390,7 +4390,7 @@
       </c>
       <c r="J83" s="15">
         <f t="shared" si="16"/>
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K83" s="15">
         <f t="shared" si="17"/>
@@ -4403,7 +4403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>43970</v>
       </c>
@@ -4435,7 +4435,7 @@
       </c>
       <c r="J84" s="15">
         <f t="shared" si="16"/>
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K84" s="15">
         <f t="shared" si="17"/>
@@ -4448,7 +4448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>43971</v>
       </c>
@@ -4480,7 +4480,7 @@
       </c>
       <c r="J85" s="15">
         <f t="shared" si="16"/>
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K85" s="15">
         <f t="shared" si="17"/>
@@ -4493,7 +4493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>43972</v>
       </c>
@@ -4525,7 +4525,7 @@
       </c>
       <c r="J86" s="15">
         <f t="shared" si="16"/>
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K86" s="15">
         <f t="shared" si="17"/>
@@ -4538,7 +4538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>43973</v>
       </c>
@@ -4570,7 +4570,7 @@
       </c>
       <c r="J87" s="15">
         <f t="shared" si="16"/>
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K87" s="15">
         <f t="shared" si="17"/>
@@ -4583,12 +4583,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>43974</v>
       </c>
       <c r="B88" s="18">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="B88:B106" si="18">B87+C88</f>
         <v>1939</v>
       </c>
       <c r="C88" s="12">
@@ -4607,18 +4607,18 @@
         <v>15</v>
       </c>
       <c r="H88" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="H88:H106" si="19">G88+E88</f>
         <v>20</v>
       </c>
       <c r="I88" s="32">
         <v>0</v>
       </c>
       <c r="J88" s="15">
-        <f t="shared" si="16"/>
-        <v>151</v>
+        <f t="shared" ref="J88:J106" si="20">J87+K88</f>
+        <v>152</v>
       </c>
       <c r="K88" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="K88:K106" si="21">L88+M88</f>
         <v>0</v>
       </c>
       <c r="L88" s="25">
@@ -4628,12 +4628,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>43975</v>
       </c>
       <c r="B89" s="18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1940</v>
       </c>
       <c r="C89" s="12">
@@ -4652,18 +4652,18 @@
         <v>15</v>
       </c>
       <c r="H89" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>20</v>
       </c>
       <c r="I89" s="32">
         <v>0</v>
       </c>
       <c r="J89" s="15">
-        <f t="shared" si="16"/>
-        <v>151</v>
+        <f t="shared" si="20"/>
+        <v>152</v>
       </c>
       <c r="K89" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L89" s="25">
@@ -4673,12 +4673,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>43976</v>
       </c>
       <c r="B90" s="18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1942</v>
       </c>
       <c r="C90" s="12">
@@ -4697,18 +4697,18 @@
         <v>14</v>
       </c>
       <c r="H90" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>19</v>
       </c>
       <c r="I90" s="32">
         <v>1</v>
       </c>
       <c r="J90" s="15">
-        <f t="shared" si="16"/>
-        <v>151</v>
+        <f t="shared" si="20"/>
+        <v>152</v>
       </c>
       <c r="K90" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L90" s="25">
@@ -4718,12 +4718,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>43977</v>
       </c>
       <c r="B91" s="18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1945</v>
       </c>
       <c r="C91" s="12">
@@ -4742,18 +4742,18 @@
         <v>14</v>
       </c>
       <c r="H91" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>18</v>
       </c>
       <c r="I91" s="32">
         <v>1</v>
       </c>
       <c r="J91" s="15">
-        <f t="shared" si="16"/>
-        <v>151</v>
+        <f t="shared" si="20"/>
+        <v>152</v>
       </c>
       <c r="K91" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L91" s="25">
@@ -4763,12 +4763,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>43978</v>
       </c>
       <c r="B92" s="18">
-        <f t="shared" ref="B92:B94" si="18">B91+C92</f>
+        <f t="shared" si="18"/>
         <v>1946</v>
       </c>
       <c r="C92" s="12">
@@ -4787,18 +4787,18 @@
         <v>13</v>
       </c>
       <c r="H92" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>17</v>
       </c>
       <c r="I92" s="32">
         <v>1</v>
       </c>
       <c r="J92" s="15">
-        <f t="shared" ref="J92:J94" si="19">J91+K92</f>
-        <v>151</v>
+        <f t="shared" si="20"/>
+        <v>152</v>
       </c>
       <c r="K92" s="15">
-        <f t="shared" ref="K92:K94" si="20">L92+M92</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L92" s="25">
@@ -4808,7 +4808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>43979</v>
       </c>
@@ -4832,18 +4832,18 @@
         <v>12</v>
       </c>
       <c r="H93" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>16</v>
       </c>
       <c r="I93" s="32">
         <v>1</v>
       </c>
       <c r="J93" s="15">
-        <f t="shared" si="19"/>
-        <v>151</v>
+        <f t="shared" si="20"/>
+        <v>152</v>
       </c>
       <c r="K93" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L93" s="25">
@@ -4853,7 +4853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>43980</v>
       </c>
@@ -4877,18 +4877,18 @@
         <v>11</v>
       </c>
       <c r="H94" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>15</v>
       </c>
       <c r="I94" s="32">
         <v>1</v>
       </c>
       <c r="J94" s="15">
-        <f t="shared" si="19"/>
-        <v>151</v>
+        <f t="shared" si="20"/>
+        <v>152</v>
       </c>
       <c r="K94" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L94" s="25">
@@ -4898,12 +4898,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>43981</v>
       </c>
       <c r="B95" s="18">
-        <f t="shared" ref="B95:B103" si="21">B94+C95</f>
+        <f t="shared" si="18"/>
         <v>1947</v>
       </c>
       <c r="C95" s="12">
@@ -4922,18 +4922,18 @@
         <v>10</v>
       </c>
       <c r="H95" s="16">
-        <f t="shared" ref="H95:H103" si="22">G95+E95</f>
+        <f t="shared" si="19"/>
         <v>14</v>
       </c>
       <c r="I95" s="32">
         <v>1</v>
       </c>
       <c r="J95" s="15">
-        <f t="shared" ref="J95:J103" si="23">J94+K95</f>
-        <v>151</v>
+        <f t="shared" si="20"/>
+        <v>152</v>
       </c>
       <c r="K95" s="15">
-        <f t="shared" ref="K95:K103" si="24">L95+M95</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L95" s="25">
@@ -4943,12 +4943,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>43982</v>
       </c>
       <c r="B96" s="18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>1949</v>
       </c>
       <c r="C96" s="12">
@@ -4967,18 +4967,18 @@
         <v>10</v>
       </c>
       <c r="H96" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>15</v>
       </c>
       <c r="I96" s="32">
         <v>1</v>
       </c>
       <c r="J96" s="15">
-        <f t="shared" si="23"/>
-        <v>151</v>
+        <f t="shared" si="20"/>
+        <v>152</v>
       </c>
       <c r="K96" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L96" s="25">
@@ -4988,12 +4988,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>43983</v>
       </c>
       <c r="B97" s="18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>1951</v>
       </c>
       <c r="C97" s="12">
@@ -5012,18 +5012,18 @@
         <v>11</v>
       </c>
       <c r="H97" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>15</v>
       </c>
       <c r="I97" s="32">
         <v>1</v>
       </c>
       <c r="J97" s="15">
-        <f t="shared" si="23"/>
-        <v>151</v>
+        <f t="shared" si="20"/>
+        <v>152</v>
       </c>
       <c r="K97" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L97" s="25">
@@ -5033,12 +5033,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>43984</v>
       </c>
       <c r="B98" s="18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>1952</v>
       </c>
       <c r="C98" s="12">
@@ -5057,18 +5057,18 @@
         <v>11</v>
       </c>
       <c r="H98" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>15</v>
       </c>
       <c r="I98" s="32">
         <v>0</v>
       </c>
       <c r="J98" s="15">
-        <f t="shared" si="23"/>
-        <v>151</v>
+        <f t="shared" si="20"/>
+        <v>152</v>
       </c>
       <c r="K98" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L98" s="25">
@@ -5078,12 +5078,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>43985</v>
       </c>
       <c r="B99" s="18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>1952</v>
       </c>
       <c r="C99" s="12">
@@ -5102,18 +5102,18 @@
         <v>10</v>
       </c>
       <c r="H99" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>14</v>
       </c>
       <c r="I99" s="32">
         <v>1</v>
       </c>
       <c r="J99" s="15">
-        <f t="shared" si="23"/>
-        <v>151</v>
+        <f t="shared" si="20"/>
+        <v>152</v>
       </c>
       <c r="K99" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L99" s="25">
@@ -5123,12 +5123,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>43986</v>
       </c>
       <c r="B100" s="18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>1954</v>
       </c>
       <c r="C100" s="12">
@@ -5147,18 +5147,18 @@
         <v>11</v>
       </c>
       <c r="H100" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>15</v>
       </c>
       <c r="I100" s="32">
         <v>0</v>
       </c>
       <c r="J100" s="15">
-        <f t="shared" si="23"/>
-        <v>151</v>
+        <f t="shared" si="20"/>
+        <v>152</v>
       </c>
       <c r="K100" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L100" s="25">
@@ -5168,12 +5168,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>43987</v>
       </c>
       <c r="B101" s="18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>1957</v>
       </c>
       <c r="C101" s="12">
@@ -5192,18 +5192,18 @@
         <v>11</v>
       </c>
       <c r="H101" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>15</v>
       </c>
       <c r="I101" s="32">
         <v>0</v>
       </c>
       <c r="J101" s="15">
-        <f t="shared" si="23"/>
-        <v>151</v>
+        <f t="shared" si="20"/>
+        <v>152</v>
       </c>
       <c r="K101" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L101" s="25">
@@ -5213,12 +5213,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>43988</v>
       </c>
       <c r="B102" s="18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>1957</v>
       </c>
       <c r="C102" s="12">
@@ -5237,18 +5237,18 @@
         <v>11</v>
       </c>
       <c r="H102" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>15</v>
       </c>
       <c r="I102" s="32">
         <v>0</v>
       </c>
       <c r="J102" s="15">
-        <f t="shared" si="23"/>
-        <v>151</v>
+        <f t="shared" si="20"/>
+        <v>152</v>
       </c>
       <c r="K102" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L102" s="25">
@@ -5258,12 +5258,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>43989</v>
       </c>
       <c r="B103" s="18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>1960</v>
       </c>
       <c r="C103" s="12">
@@ -5282,18 +5282,18 @@
         <v>11</v>
       </c>
       <c r="H103" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>15</v>
       </c>
       <c r="I103" s="32">
         <v>0</v>
       </c>
       <c r="J103" s="15">
-        <f t="shared" si="23"/>
-        <v>151</v>
+        <f t="shared" si="20"/>
+        <v>152</v>
       </c>
       <c r="K103" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L103" s="25">
@@ -5303,12 +5303,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>43990</v>
       </c>
       <c r="B104" s="18">
-        <f t="shared" ref="B104:B105" si="25">B103+C104</f>
+        <f t="shared" si="18"/>
         <v>1965</v>
       </c>
       <c r="C104" s="12">
@@ -5327,18 +5327,18 @@
         <v>11</v>
       </c>
       <c r="H104" s="16">
-        <f t="shared" ref="H104:H105" si="26">G104+E104</f>
+        <f t="shared" si="19"/>
         <v>15</v>
       </c>
       <c r="I104" s="32">
         <v>0</v>
       </c>
       <c r="J104" s="15">
-        <f t="shared" ref="J104:J105" si="27">J103+K104</f>
-        <v>151</v>
+        <f t="shared" si="20"/>
+        <v>152</v>
       </c>
       <c r="K104" s="15">
-        <f t="shared" ref="K104:K105" si="28">L104+M104</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L104" s="25">
@@ -5348,48 +5348,91 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A105" s="2">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A105" s="1">
         <v>43991</v>
       </c>
-      <c r="B105" s="19">
-        <f t="shared" si="25"/>
-        <v>1965</v>
-      </c>
-      <c r="C105" s="13">
-        <v>0</v>
-      </c>
-      <c r="D105" s="13">
-        <v>0</v>
-      </c>
-      <c r="E105" s="29">
+      <c r="B105" s="18">
+        <f t="shared" si="18"/>
+        <v>1966</v>
+      </c>
+      <c r="C105" s="12">
+        <v>1</v>
+      </c>
+      <c r="D105" s="12">
+        <v>0</v>
+      </c>
+      <c r="E105" s="4">
         <v>4</v>
       </c>
-      <c r="F105" s="30">
-        <v>3</v>
-      </c>
-      <c r="G105" s="24">
+      <c r="F105" s="3">
+        <v>3</v>
+      </c>
+      <c r="G105" s="23">
         <v>11</v>
       </c>
-      <c r="H105" s="17">
-        <f t="shared" si="26"/>
+      <c r="H105" s="16">
+        <f t="shared" si="19"/>
         <v>15</v>
       </c>
-      <c r="I105" s="33">
-        <v>0</v>
-      </c>
-      <c r="J105" s="20">
-        <f t="shared" si="27"/>
-        <v>151</v>
-      </c>
-      <c r="K105" s="20">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="L105" s="27">
-        <v>0</v>
-      </c>
-      <c r="M105" s="28">
+      <c r="I105" s="32">
+        <v>0</v>
+      </c>
+      <c r="J105" s="15">
+        <f t="shared" si="20"/>
+        <v>152</v>
+      </c>
+      <c r="K105" s="15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="L105" s="25">
+        <v>0</v>
+      </c>
+      <c r="M105" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A106" s="2"/>
+      <c r="B106" s="19">
+        <f t="shared" si="18"/>
+        <v>1966</v>
+      </c>
+      <c r="C106" s="13">
+        <v>0</v>
+      </c>
+      <c r="D106" s="13">
+        <v>0</v>
+      </c>
+      <c r="E106" s="29">
+        <v>4</v>
+      </c>
+      <c r="F106" s="30">
+        <v>3</v>
+      </c>
+      <c r="G106" s="24">
+        <v>11</v>
+      </c>
+      <c r="H106" s="17">
+        <f t="shared" si="19"/>
+        <v>15</v>
+      </c>
+      <c r="I106" s="33">
+        <v>0</v>
+      </c>
+      <c r="J106" s="20">
+        <f t="shared" si="20"/>
+        <v>152</v>
+      </c>
+      <c r="K106" s="20">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="L106" s="27">
+        <v>0</v>
+      </c>
+      <c r="M106" s="28">
         <v>0</v>
       </c>
     </row>

--- a/Chiffres  COVID-19 Valais.xlsx
+++ b/Chiffres  COVID-19 Valais.xlsx
@@ -99,7 +99,7 @@
     <t>Nb de nouvelles sorties</t>
   </si>
   <si>
-    <t>Données COVID-19 Valais 10.06.2020</t>
+    <t>Données COVID-19 Valais 15.06.2020</t>
   </si>
 </sst>
 </file>
@@ -684,10 +684,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M106"/>
+  <dimension ref="A1:M111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="A106" sqref="A106"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="M112" sqref="M112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4588,7 +4588,7 @@
         <v>43974</v>
       </c>
       <c r="B88" s="18">
-        <f t="shared" ref="B88:B106" si="18">B87+C88</f>
+        <f t="shared" ref="B88:B103" si="18">B87+C88</f>
         <v>1939</v>
       </c>
       <c r="C88" s="12">
@@ -4607,18 +4607,18 @@
         <v>15</v>
       </c>
       <c r="H88" s="16">
-        <f t="shared" ref="H88:H106" si="19">G88+E88</f>
+        <f t="shared" ref="H88:H103" si="19">G88+E88</f>
         <v>20</v>
       </c>
       <c r="I88" s="32">
         <v>0</v>
       </c>
       <c r="J88" s="15">
-        <f t="shared" ref="J88:J106" si="20">J87+K88</f>
+        <f t="shared" ref="J88:J103" si="20">J87+K88</f>
         <v>152</v>
       </c>
       <c r="K88" s="15">
-        <f t="shared" ref="K88:K106" si="21">L88+M88</f>
+        <f t="shared" ref="K88:K103" si="21">L88+M88</f>
         <v>0</v>
       </c>
       <c r="L88" s="25">
@@ -4994,10 +4994,10 @@
       </c>
       <c r="B97" s="18">
         <f t="shared" si="18"/>
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="C97" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D97" s="12">
         <v>1</v>
@@ -5039,7 +5039,7 @@
       </c>
       <c r="B98" s="18">
         <f t="shared" si="18"/>
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="C98" s="12">
         <v>1</v>
@@ -5084,7 +5084,7 @@
       </c>
       <c r="B99" s="18">
         <f t="shared" si="18"/>
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="C99" s="12">
         <v>0</v>
@@ -5129,7 +5129,7 @@
       </c>
       <c r="B100" s="18">
         <f t="shared" si="18"/>
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="C100" s="12">
         <v>2</v>
@@ -5174,7 +5174,7 @@
       </c>
       <c r="B101" s="18">
         <f t="shared" si="18"/>
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="C101" s="12">
         <v>3</v>
@@ -5219,7 +5219,7 @@
       </c>
       <c r="B102" s="18">
         <f t="shared" si="18"/>
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="C102" s="12">
         <v>0</v>
@@ -5264,7 +5264,7 @@
       </c>
       <c r="B103" s="18">
         <f t="shared" si="18"/>
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="C103" s="12">
         <v>3</v>
@@ -5308,8 +5308,8 @@
         <v>43990</v>
       </c>
       <c r="B104" s="18">
-        <f t="shared" si="18"/>
-        <v>1965</v>
+        <f t="shared" ref="B104:B111" si="22">B103+C104</f>
+        <v>1964</v>
       </c>
       <c r="C104" s="12">
         <v>5</v>
@@ -5327,18 +5327,18 @@
         <v>11</v>
       </c>
       <c r="H104" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="H104:H111" si="23">G104+E104</f>
         <v>15</v>
       </c>
       <c r="I104" s="32">
         <v>0</v>
       </c>
       <c r="J104" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="J104:J111" si="24">J103+K104</f>
         <v>152</v>
       </c>
       <c r="K104" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="K104:K111" si="25">L104+M104</f>
         <v>0</v>
       </c>
       <c r="L104" s="25">
@@ -5353,8 +5353,8 @@
         <v>43991</v>
       </c>
       <c r="B105" s="18">
-        <f t="shared" si="18"/>
-        <v>1966</v>
+        <f t="shared" si="22"/>
+        <v>1965</v>
       </c>
       <c r="C105" s="12">
         <v>1</v>
@@ -5372,18 +5372,18 @@
         <v>11</v>
       </c>
       <c r="H105" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>15</v>
       </c>
       <c r="I105" s="32">
         <v>0</v>
       </c>
       <c r="J105" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>152</v>
       </c>
       <c r="K105" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="L105" s="25">
@@ -5394,45 +5394,272 @@
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A106" s="2"/>
-      <c r="B106" s="19">
-        <f t="shared" si="18"/>
-        <v>1966</v>
-      </c>
-      <c r="C106" s="13">
-        <v>0</v>
-      </c>
-      <c r="D106" s="13">
-        <v>0</v>
-      </c>
-      <c r="E106" s="29">
+      <c r="A106" s="1">
+        <v>43992</v>
+      </c>
+      <c r="B106" s="18">
+        <f t="shared" si="22"/>
+        <v>1969</v>
+      </c>
+      <c r="C106" s="12">
         <v>4</v>
       </c>
-      <c r="F106" s="30">
-        <v>3</v>
-      </c>
-      <c r="G106" s="24">
+      <c r="D106" s="12">
+        <v>0</v>
+      </c>
+      <c r="E106" s="4">
+        <v>4</v>
+      </c>
+      <c r="F106" s="3">
+        <v>3</v>
+      </c>
+      <c r="G106" s="23">
         <v>11</v>
       </c>
-      <c r="H106" s="17">
-        <f t="shared" si="19"/>
+      <c r="H106" s="16">
+        <f t="shared" si="23"/>
         <v>15</v>
       </c>
-      <c r="I106" s="33">
-        <v>0</v>
-      </c>
-      <c r="J106" s="20">
-        <f t="shared" si="20"/>
+      <c r="I106" s="32">
+        <v>0</v>
+      </c>
+      <c r="J106" s="15">
+        <f t="shared" si="24"/>
         <v>152</v>
       </c>
-      <c r="K106" s="20">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="L106" s="27">
-        <v>0</v>
-      </c>
-      <c r="M106" s="28">
+      <c r="K106" s="15">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="L106" s="25">
+        <v>0</v>
+      </c>
+      <c r="M106" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A107" s="1">
+        <v>43993</v>
+      </c>
+      <c r="B107" s="18">
+        <f t="shared" si="22"/>
+        <v>1973</v>
+      </c>
+      <c r="C107" s="12">
+        <v>4</v>
+      </c>
+      <c r="D107" s="12">
+        <v>0</v>
+      </c>
+      <c r="E107" s="4">
+        <v>4</v>
+      </c>
+      <c r="F107" s="3">
+        <v>3</v>
+      </c>
+      <c r="G107" s="23">
+        <v>11</v>
+      </c>
+      <c r="H107" s="16">
+        <f t="shared" si="23"/>
+        <v>15</v>
+      </c>
+      <c r="I107" s="32">
+        <v>0</v>
+      </c>
+      <c r="J107" s="15">
+        <f t="shared" si="24"/>
+        <v>152</v>
+      </c>
+      <c r="K107" s="15">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="L107" s="25">
+        <v>0</v>
+      </c>
+      <c r="M107" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A108" s="1">
+        <v>43994</v>
+      </c>
+      <c r="B108" s="18">
+        <f t="shared" si="22"/>
+        <v>1977</v>
+      </c>
+      <c r="C108" s="12">
+        <v>4</v>
+      </c>
+      <c r="D108" s="12">
+        <v>0</v>
+      </c>
+      <c r="E108" s="4">
+        <v>4</v>
+      </c>
+      <c r="F108" s="3">
+        <v>3</v>
+      </c>
+      <c r="G108" s="23">
+        <v>11</v>
+      </c>
+      <c r="H108" s="16">
+        <f t="shared" si="23"/>
+        <v>15</v>
+      </c>
+      <c r="I108" s="32">
+        <v>0</v>
+      </c>
+      <c r="J108" s="15">
+        <f t="shared" si="24"/>
+        <v>153</v>
+      </c>
+      <c r="K108" s="15">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="L108" s="25">
+        <v>0</v>
+      </c>
+      <c r="M108" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A109" s="1">
+        <v>43995</v>
+      </c>
+      <c r="B109" s="18">
+        <f t="shared" si="22"/>
+        <v>1977</v>
+      </c>
+      <c r="C109" s="12">
+        <v>0</v>
+      </c>
+      <c r="D109" s="12">
+        <v>0</v>
+      </c>
+      <c r="E109" s="4">
+        <v>4</v>
+      </c>
+      <c r="F109" s="3">
+        <v>3</v>
+      </c>
+      <c r="G109" s="23">
+        <v>10</v>
+      </c>
+      <c r="H109" s="16">
+        <f t="shared" si="23"/>
+        <v>14</v>
+      </c>
+      <c r="I109" s="32">
+        <v>1</v>
+      </c>
+      <c r="J109" s="15">
+        <f t="shared" si="24"/>
+        <v>153</v>
+      </c>
+      <c r="K109" s="15">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="L109" s="25">
+        <v>0</v>
+      </c>
+      <c r="M109" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A110" s="1">
+        <v>43996</v>
+      </c>
+      <c r="B110" s="18">
+        <f t="shared" si="22"/>
+        <v>1977</v>
+      </c>
+      <c r="C110" s="12">
+        <v>0</v>
+      </c>
+      <c r="D110" s="12">
+        <v>0</v>
+      </c>
+      <c r="E110" s="4">
+        <v>4</v>
+      </c>
+      <c r="F110" s="3">
+        <v>3</v>
+      </c>
+      <c r="G110" s="23">
+        <v>10</v>
+      </c>
+      <c r="H110" s="16">
+        <f t="shared" si="23"/>
+        <v>14</v>
+      </c>
+      <c r="I110" s="32">
+        <v>0</v>
+      </c>
+      <c r="J110" s="15">
+        <f t="shared" si="24"/>
+        <v>153</v>
+      </c>
+      <c r="K110" s="15">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="L110" s="25">
+        <v>0</v>
+      </c>
+      <c r="M110" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A111" s="2">
+        <v>43997</v>
+      </c>
+      <c r="B111" s="19">
+        <f t="shared" si="22"/>
+        <v>1977</v>
+      </c>
+      <c r="C111" s="13">
+        <v>0</v>
+      </c>
+      <c r="D111" s="13">
+        <v>0</v>
+      </c>
+      <c r="E111" s="29">
+        <v>4</v>
+      </c>
+      <c r="F111" s="30">
+        <v>3</v>
+      </c>
+      <c r="G111" s="24">
+        <v>10</v>
+      </c>
+      <c r="H111" s="17">
+        <f t="shared" si="23"/>
+        <v>14</v>
+      </c>
+      <c r="I111" s="33">
+        <v>0</v>
+      </c>
+      <c r="J111" s="20">
+        <f t="shared" si="24"/>
+        <v>153</v>
+      </c>
+      <c r="K111" s="20">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="L111" s="27">
+        <v>0</v>
+      </c>
+      <c r="M111" s="28">
         <v>0</v>
       </c>
     </row>

--- a/Chiffres  COVID-19 Valais.xlsx
+++ b/Chiffres  COVID-19 Valais.xlsx
@@ -99,14 +99,14 @@
     <t>Nb de nouvelles sorties</t>
   </si>
   <si>
-    <t>Données COVID-19 Valais 15.06.2020</t>
+    <t>Données COVID-19 Valais 16.06.2020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,6 +134,14 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -293,7 +301,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -391,6 +399,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -684,40 +695,41 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M111"/>
+  <dimension ref="A1:O112"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="M112" sqref="M112"/>
+      <selection activeCell="I3" sqref="I3:I112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="11.453125" style="14"/>
-    <col min="4" max="4" width="10.81640625" style="14"/>
-    <col min="8" max="9" width="16.1796875" customWidth="1"/>
-    <col min="11" max="11" width="14.54296875" customWidth="1"/>
-    <col min="12" max="12" width="13.54296875" customWidth="1"/>
-    <col min="13" max="13" width="15.7265625" style="5" customWidth="1"/>
+    <col min="2" max="3" width="11.42578125" style="14"/>
+    <col min="4" max="4" width="10.85546875" style="14"/>
+    <col min="8" max="9" width="16.140625" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" style="5" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="36"/>
-    </row>
-    <row r="2" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="37"/>
+    </row>
+    <row r="2" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -757,8 +769,9 @@
       <c r="M2" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O2" s="34"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43889</v>
       </c>
@@ -803,7 +816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43890</v>
       </c>
@@ -848,7 +861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43891</v>
       </c>
@@ -893,7 +906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43892</v>
       </c>
@@ -938,7 +951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43893</v>
       </c>
@@ -983,7 +996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43894</v>
       </c>
@@ -1028,7 +1041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43895</v>
       </c>
@@ -1073,7 +1086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43896</v>
       </c>
@@ -1118,7 +1131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43897</v>
       </c>
@@ -1163,7 +1176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43898</v>
       </c>
@@ -1208,7 +1221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43899</v>
       </c>
@@ -1253,7 +1266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43900</v>
       </c>
@@ -1298,7 +1311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43901</v>
       </c>
@@ -1343,7 +1356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43902</v>
       </c>
@@ -1388,7 +1401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43903</v>
       </c>
@@ -1433,7 +1446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43904</v>
       </c>
@@ -1478,7 +1491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43905</v>
       </c>
@@ -1523,7 +1536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43906</v>
       </c>
@@ -1568,7 +1581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43907</v>
       </c>
@@ -1613,7 +1626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43908</v>
       </c>
@@ -1658,7 +1671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43909</v>
       </c>
@@ -1703,7 +1716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43910</v>
       </c>
@@ -1748,7 +1761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43911</v>
       </c>
@@ -1793,7 +1806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43912</v>
       </c>
@@ -1838,7 +1851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43913</v>
       </c>
@@ -1883,7 +1896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43914</v>
       </c>
@@ -1928,7 +1941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43915</v>
       </c>
@@ -1973,7 +1986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43916</v>
       </c>
@@ -2018,7 +2031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43917</v>
       </c>
@@ -2063,7 +2076,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43918</v>
       </c>
@@ -2108,7 +2121,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43919</v>
       </c>
@@ -2153,7 +2166,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>43920</v>
       </c>
@@ -2198,7 +2211,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>43921</v>
       </c>
@@ -2243,7 +2256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>43922</v>
       </c>
@@ -2288,7 +2301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>43923</v>
       </c>
@@ -2333,7 +2346,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>43924</v>
       </c>
@@ -2378,7 +2391,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>43925</v>
       </c>
@@ -2423,7 +2436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>43926</v>
       </c>
@@ -2468,7 +2481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>43927</v>
       </c>
@@ -2513,7 +2526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>43928</v>
       </c>
@@ -2558,7 +2571,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43929</v>
       </c>
@@ -2603,7 +2616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43930</v>
       </c>
@@ -2648,7 +2661,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43931</v>
       </c>
@@ -2693,7 +2706,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43932</v>
       </c>
@@ -2738,7 +2751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>43933</v>
       </c>
@@ -2783,7 +2796,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>43934</v>
       </c>
@@ -2828,7 +2841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>43935</v>
       </c>
@@ -2873,7 +2886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>43936</v>
       </c>
@@ -2918,7 +2931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>43937</v>
       </c>
@@ -2963,7 +2976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>43938</v>
       </c>
@@ -3008,7 +3021,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>43939</v>
       </c>
@@ -3053,7 +3066,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>43940</v>
       </c>
@@ -3098,7 +3111,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>43941</v>
       </c>
@@ -3143,7 +3156,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>43942</v>
       </c>
@@ -3188,7 +3201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>43943</v>
       </c>
@@ -3233,7 +3246,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>43944</v>
       </c>
@@ -3278,7 +3291,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>43945</v>
       </c>
@@ -3323,7 +3336,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>43946</v>
       </c>
@@ -3368,7 +3381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>43947</v>
       </c>
@@ -3413,7 +3426,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>43948</v>
       </c>
@@ -3458,7 +3471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>43949</v>
       </c>
@@ -3503,7 +3516,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>43950</v>
       </c>
@@ -3548,7 +3561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>43951</v>
       </c>
@@ -3593,7 +3606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>43952</v>
       </c>
@@ -3638,12 +3651,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>43953</v>
       </c>
       <c r="B67" s="18">
-        <f t="shared" ref="B67:B87" si="14">B66+C67</f>
+        <f t="shared" ref="B67:B73" si="14">B66+C67</f>
         <v>1895</v>
       </c>
       <c r="C67" s="12">
@@ -3662,18 +3675,18 @@
         <v>46</v>
       </c>
       <c r="H67" s="16">
-        <f t="shared" ref="H67:H87" si="15">G67+E67</f>
+        <f t="shared" ref="H67:H73" si="15">G67+E67</f>
         <v>56</v>
       </c>
       <c r="I67" s="32">
         <v>0</v>
       </c>
       <c r="J67" s="15">
-        <f t="shared" ref="J67:J87" si="16">J66+K67</f>
+        <f t="shared" ref="J67:J73" si="16">J66+K67</f>
         <v>140</v>
       </c>
       <c r="K67" s="15">
-        <f t="shared" ref="K67:K87" si="17">L67+M67</f>
+        <f t="shared" ref="K67:K73" si="17">L67+M67</f>
         <v>2</v>
       </c>
       <c r="L67" s="25">
@@ -3683,7 +3696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>43954</v>
       </c>
@@ -3728,7 +3741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>43955</v>
       </c>
@@ -3773,7 +3786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>43956</v>
       </c>
@@ -3818,7 +3831,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>43957</v>
       </c>
@@ -3863,7 +3876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>43958</v>
       </c>
@@ -3908,7 +3921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>43959</v>
       </c>
@@ -3953,12 +3966,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>43960</v>
       </c>
       <c r="B74" s="18">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="B74:B112" si="18">B73+C74</f>
         <v>1916</v>
       </c>
       <c r="C74" s="12">
@@ -3977,18 +3990,18 @@
         <v>27</v>
       </c>
       <c r="H74" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="H74:H112" si="19">G74+E74</f>
         <v>37</v>
       </c>
       <c r="I74" s="32">
         <v>1</v>
       </c>
       <c r="J74" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="J74:J112" si="20">J73+K74</f>
         <v>148</v>
       </c>
       <c r="K74" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="K74:K112" si="21">L74+M74</f>
         <v>0</v>
       </c>
       <c r="L74" s="25">
@@ -3998,12 +4011,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>43961</v>
       </c>
       <c r="B75" s="18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1917</v>
       </c>
       <c r="C75" s="12">
@@ -4022,18 +4035,18 @@
         <v>28</v>
       </c>
       <c r="H75" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>38</v>
       </c>
       <c r="I75" s="32">
         <v>0</v>
       </c>
       <c r="J75" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>148</v>
       </c>
       <c r="K75" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L75" s="25">
@@ -4043,12 +4056,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>43962</v>
       </c>
       <c r="B76" s="18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1921</v>
       </c>
       <c r="C76" s="12">
@@ -4067,18 +4080,18 @@
         <v>28</v>
       </c>
       <c r="H76" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>38</v>
       </c>
       <c r="I76" s="32">
         <v>0</v>
       </c>
       <c r="J76" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>150</v>
       </c>
       <c r="K76" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="L76" s="25">
@@ -4088,12 +4101,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>43963</v>
       </c>
       <c r="B77" s="18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1921</v>
       </c>
       <c r="C77" s="12">
@@ -4112,18 +4125,18 @@
         <v>27</v>
       </c>
       <c r="H77" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>35</v>
       </c>
       <c r="I77" s="32">
         <v>3</v>
       </c>
       <c r="J77" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>150</v>
       </c>
       <c r="K77" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L77" s="25">
@@ -4133,12 +4146,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>43964</v>
       </c>
       <c r="B78" s="18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1922</v>
       </c>
       <c r="C78" s="12">
@@ -4157,18 +4170,18 @@
         <v>24</v>
       </c>
       <c r="H78" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>32</v>
       </c>
       <c r="I78" s="32">
         <v>3</v>
       </c>
       <c r="J78" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>150</v>
       </c>
       <c r="K78" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L78" s="25">
@@ -4178,12 +4191,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>43965</v>
       </c>
       <c r="B79" s="18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1924</v>
       </c>
       <c r="C79" s="12">
@@ -4202,18 +4215,18 @@
         <v>22</v>
       </c>
       <c r="H79" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>30</v>
       </c>
       <c r="I79" s="32">
         <v>2</v>
       </c>
       <c r="J79" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>150</v>
       </c>
       <c r="K79" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L79" s="25">
@@ -4223,12 +4236,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>43966</v>
       </c>
       <c r="B80" s="18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1933</v>
       </c>
       <c r="C80" s="12">
@@ -4247,18 +4260,18 @@
         <v>19</v>
       </c>
       <c r="H80" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>27</v>
       </c>
       <c r="I80" s="32">
         <v>3</v>
       </c>
       <c r="J80" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>150</v>
       </c>
       <c r="K80" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L80" s="25">
@@ -4268,12 +4281,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>43967</v>
       </c>
       <c r="B81" s="18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1936</v>
       </c>
       <c r="C81" s="12">
@@ -4292,18 +4305,18 @@
         <v>19</v>
       </c>
       <c r="H81" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>27</v>
       </c>
       <c r="I81" s="32">
         <v>0</v>
       </c>
       <c r="J81" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>150</v>
       </c>
       <c r="K81" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L81" s="25">
@@ -4313,12 +4326,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>43968</v>
       </c>
       <c r="B82" s="18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1936</v>
       </c>
       <c r="C82" s="12">
@@ -4337,18 +4350,18 @@
         <v>19</v>
       </c>
       <c r="H82" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>27</v>
       </c>
       <c r="I82" s="32">
         <v>0</v>
       </c>
       <c r="J82" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>150</v>
       </c>
       <c r="K82" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L82" s="25">
@@ -4358,12 +4371,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>43969</v>
       </c>
       <c r="B83" s="18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1937</v>
       </c>
       <c r="C83" s="12">
@@ -4382,18 +4395,18 @@
         <v>18</v>
       </c>
       <c r="H83" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>25</v>
       </c>
       <c r="I83" s="32">
         <v>2</v>
       </c>
       <c r="J83" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>152</v>
       </c>
       <c r="K83" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="L83" s="25">
@@ -4403,12 +4416,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>43970</v>
       </c>
       <c r="B84" s="18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1938</v>
       </c>
       <c r="C84" s="12">
@@ -4427,18 +4440,18 @@
         <v>16</v>
       </c>
       <c r="H84" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>23</v>
       </c>
       <c r="I84" s="32">
         <v>2</v>
       </c>
       <c r="J84" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>152</v>
       </c>
       <c r="K84" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L84" s="25">
@@ -4448,12 +4461,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>43971</v>
       </c>
       <c r="B85" s="18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1938</v>
       </c>
       <c r="C85" s="12">
@@ -4472,18 +4485,18 @@
         <v>15</v>
       </c>
       <c r="H85" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>21</v>
       </c>
       <c r="I85" s="32">
         <v>2</v>
       </c>
       <c r="J85" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>152</v>
       </c>
       <c r="K85" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L85" s="25">
@@ -4493,12 +4506,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>43972</v>
       </c>
       <c r="B86" s="18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1939</v>
       </c>
       <c r="C86" s="12">
@@ -4517,18 +4530,18 @@
         <v>15</v>
       </c>
       <c r="H86" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>21</v>
       </c>
       <c r="I86" s="32">
         <v>0</v>
       </c>
       <c r="J86" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>152</v>
       </c>
       <c r="K86" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L86" s="25">
@@ -4538,12 +4551,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>43973</v>
       </c>
       <c r="B87" s="18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1939</v>
       </c>
       <c r="C87" s="12">
@@ -4562,18 +4575,18 @@
         <v>15</v>
       </c>
       <c r="H87" s="16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>20</v>
       </c>
       <c r="I87" s="32">
         <v>1</v>
       </c>
       <c r="J87" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>152</v>
       </c>
       <c r="K87" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L87" s="25">
@@ -4583,12 +4596,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>43974</v>
       </c>
       <c r="B88" s="18">
-        <f t="shared" ref="B88:B103" si="18">B87+C88</f>
+        <f t="shared" si="18"/>
         <v>1939</v>
       </c>
       <c r="C88" s="12">
@@ -4607,18 +4620,18 @@
         <v>15</v>
       </c>
       <c r="H88" s="16">
-        <f t="shared" ref="H88:H103" si="19">G88+E88</f>
+        <f t="shared" si="19"/>
         <v>20</v>
       </c>
       <c r="I88" s="32">
         <v>0</v>
       </c>
       <c r="J88" s="15">
-        <f t="shared" ref="J88:J103" si="20">J87+K88</f>
+        <f t="shared" si="20"/>
         <v>152</v>
       </c>
       <c r="K88" s="15">
-        <f t="shared" ref="K88:K103" si="21">L88+M88</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L88" s="25">
@@ -4628,7 +4641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>43975</v>
       </c>
@@ -4673,7 +4686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>43976</v>
       </c>
@@ -4718,7 +4731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>43977</v>
       </c>
@@ -4763,7 +4776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>43978</v>
       </c>
@@ -4808,7 +4821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>43979</v>
       </c>
@@ -4820,7 +4833,7 @@
         <v>1</v>
       </c>
       <c r="D93" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E93" s="4">
         <v>4</v>
@@ -4829,11 +4842,11 @@
         <v>3</v>
       </c>
       <c r="G93" s="23">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H93" s="16">
         <f t="shared" si="19"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I93" s="32">
         <v>1</v>
@@ -4853,7 +4866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>43980</v>
       </c>
@@ -4874,11 +4887,11 @@
         <v>3</v>
       </c>
       <c r="G94" s="23">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H94" s="16">
         <f t="shared" si="19"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I94" s="32">
         <v>1</v>
@@ -4898,7 +4911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>43981</v>
       </c>
@@ -4919,11 +4932,11 @@
         <v>3</v>
       </c>
       <c r="G95" s="23">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H95" s="16">
         <f t="shared" si="19"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I95" s="32">
         <v>1</v>
@@ -4943,7 +4956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>43982</v>
       </c>
@@ -4964,11 +4977,11 @@
         <v>3</v>
       </c>
       <c r="G96" s="23">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H96" s="16">
         <f t="shared" si="19"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I96" s="32">
         <v>1</v>
@@ -4988,7 +5001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>43983</v>
       </c>
@@ -5009,11 +5022,11 @@
         <v>3</v>
       </c>
       <c r="G97" s="23">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H97" s="16">
         <f t="shared" si="19"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I97" s="32">
         <v>1</v>
@@ -5033,7 +5046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>43984</v>
       </c>
@@ -5054,11 +5067,11 @@
         <v>3</v>
       </c>
       <c r="G98" s="23">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H98" s="16">
         <f t="shared" si="19"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I98" s="32">
         <v>0</v>
@@ -5078,7 +5091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>43985</v>
       </c>
@@ -5099,11 +5112,11 @@
         <v>3</v>
       </c>
       <c r="G99" s="23">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H99" s="16">
         <f t="shared" si="19"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I99" s="32">
         <v>1</v>
@@ -5123,7 +5136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>43986</v>
       </c>
@@ -5144,11 +5157,11 @@
         <v>3</v>
       </c>
       <c r="G100" s="23">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H100" s="16">
         <f t="shared" si="19"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I100" s="32">
         <v>0</v>
@@ -5168,7 +5181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>43987</v>
       </c>
@@ -5189,11 +5202,11 @@
         <v>3</v>
       </c>
       <c r="G101" s="23">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H101" s="16">
         <f t="shared" si="19"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I101" s="32">
         <v>0</v>
@@ -5213,7 +5226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>43988</v>
       </c>
@@ -5234,11 +5247,11 @@
         <v>3</v>
       </c>
       <c r="G102" s="23">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H102" s="16">
         <f t="shared" si="19"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I102" s="32">
         <v>0</v>
@@ -5258,7 +5271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>43989</v>
       </c>
@@ -5279,11 +5292,11 @@
         <v>3</v>
       </c>
       <c r="G103" s="23">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H103" s="16">
         <f t="shared" si="19"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I103" s="32">
         <v>0</v>
@@ -5303,12 +5316,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>43990</v>
       </c>
       <c r="B104" s="18">
-        <f t="shared" ref="B104:B111" si="22">B103+C104</f>
+        <f t="shared" si="18"/>
         <v>1964</v>
       </c>
       <c r="C104" s="12">
@@ -5324,21 +5337,21 @@
         <v>3</v>
       </c>
       <c r="G104" s="23">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H104" s="16">
-        <f t="shared" ref="H104:H111" si="23">G104+E104</f>
-        <v>15</v>
+        <f t="shared" si="19"/>
+        <v>16</v>
       </c>
       <c r="I104" s="32">
         <v>0</v>
       </c>
       <c r="J104" s="15">
-        <f t="shared" ref="J104:J111" si="24">J103+K104</f>
+        <f t="shared" si="20"/>
         <v>152</v>
       </c>
       <c r="K104" s="15">
-        <f t="shared" ref="K104:K111" si="25">L104+M104</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L104" s="25">
@@ -5348,12 +5361,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>43991</v>
       </c>
       <c r="B105" s="18">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>1965</v>
       </c>
       <c r="C105" s="12">
@@ -5369,21 +5382,21 @@
         <v>3</v>
       </c>
       <c r="G105" s="23">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H105" s="16">
-        <f t="shared" si="23"/>
-        <v>15</v>
+        <f t="shared" si="19"/>
+        <v>16</v>
       </c>
       <c r="I105" s="32">
         <v>0</v>
       </c>
       <c r="J105" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="20"/>
         <v>152</v>
       </c>
       <c r="K105" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L105" s="25">
@@ -5393,12 +5406,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>43992</v>
       </c>
       <c r="B106" s="18">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>1969</v>
       </c>
       <c r="C106" s="12">
@@ -5414,21 +5427,21 @@
         <v>3</v>
       </c>
       <c r="G106" s="23">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H106" s="16">
-        <f t="shared" si="23"/>
-        <v>15</v>
+        <f t="shared" si="19"/>
+        <v>16</v>
       </c>
       <c r="I106" s="32">
         <v>0</v>
       </c>
       <c r="J106" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="20"/>
         <v>152</v>
       </c>
       <c r="K106" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L106" s="25">
@@ -5438,12 +5451,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>43993</v>
       </c>
       <c r="B107" s="18">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>1973</v>
       </c>
       <c r="C107" s="12">
@@ -5459,21 +5472,21 @@
         <v>3</v>
       </c>
       <c r="G107" s="23">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H107" s="16">
-        <f t="shared" si="23"/>
-        <v>15</v>
+        <f t="shared" si="19"/>
+        <v>16</v>
       </c>
       <c r="I107" s="32">
         <v>0</v>
       </c>
       <c r="J107" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="20"/>
         <v>152</v>
       </c>
       <c r="K107" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L107" s="25">
@@ -5483,12 +5496,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>43994</v>
       </c>
       <c r="B108" s="18">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>1977</v>
       </c>
       <c r="C108" s="12">
@@ -5504,21 +5517,21 @@
         <v>3</v>
       </c>
       <c r="G108" s="23">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H108" s="16">
-        <f t="shared" si="23"/>
-        <v>15</v>
+        <f t="shared" si="19"/>
+        <v>16</v>
       </c>
       <c r="I108" s="32">
         <v>0</v>
       </c>
       <c r="J108" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="20"/>
         <v>153</v>
       </c>
       <c r="K108" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="L108" s="25">
@@ -5528,12 +5541,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>43995</v>
       </c>
       <c r="B109" s="18">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>1977</v>
       </c>
       <c r="C109" s="12">
@@ -5549,21 +5562,21 @@
         <v>3</v>
       </c>
       <c r="G109" s="23">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H109" s="16">
-        <f t="shared" si="23"/>
-        <v>14</v>
+        <f t="shared" si="19"/>
+        <v>15</v>
       </c>
       <c r="I109" s="32">
         <v>1</v>
       </c>
       <c r="J109" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="20"/>
         <v>153</v>
       </c>
       <c r="K109" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L109" s="25">
@@ -5573,12 +5586,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>43996</v>
       </c>
       <c r="B110" s="18">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>1977</v>
       </c>
       <c r="C110" s="12">
@@ -5594,21 +5607,21 @@
         <v>3</v>
       </c>
       <c r="G110" s="23">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H110" s="16">
-        <f t="shared" si="23"/>
-        <v>14</v>
+        <f t="shared" si="19"/>
+        <v>15</v>
       </c>
       <c r="I110" s="32">
         <v>0</v>
       </c>
       <c r="J110" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="20"/>
         <v>153</v>
       </c>
       <c r="K110" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L110" s="25">
@@ -5618,48 +5631,93 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A111" s="2">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
         <v>43997</v>
       </c>
-      <c r="B111" s="19">
-        <f t="shared" si="22"/>
-        <v>1977</v>
-      </c>
-      <c r="C111" s="13">
-        <v>0</v>
-      </c>
-      <c r="D111" s="13">
-        <v>0</v>
-      </c>
-      <c r="E111" s="29">
+      <c r="B111" s="18">
+        <f t="shared" si="18"/>
+        <v>1981</v>
+      </c>
+      <c r="C111" s="12">
         <v>4</v>
       </c>
-      <c r="F111" s="30">
-        <v>3</v>
-      </c>
-      <c r="G111" s="24">
-        <v>10</v>
-      </c>
-      <c r="H111" s="17">
-        <f t="shared" si="23"/>
-        <v>14</v>
-      </c>
-      <c r="I111" s="33">
-        <v>0</v>
-      </c>
-      <c r="J111" s="20">
-        <f t="shared" si="24"/>
+      <c r="D111" s="12">
+        <v>0</v>
+      </c>
+      <c r="E111" s="4">
+        <v>4</v>
+      </c>
+      <c r="F111" s="3">
+        <v>3</v>
+      </c>
+      <c r="G111" s="23">
+        <v>11</v>
+      </c>
+      <c r="H111" s="16">
+        <f t="shared" si="19"/>
+        <v>15</v>
+      </c>
+      <c r="I111" s="32">
+        <v>0</v>
+      </c>
+      <c r="J111" s="15">
+        <f t="shared" si="20"/>
         <v>153</v>
       </c>
-      <c r="K111" s="20">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="L111" s="27">
-        <v>0</v>
-      </c>
-      <c r="M111" s="28">
+      <c r="K111" s="15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="L111" s="25">
+        <v>0</v>
+      </c>
+      <c r="M111" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A112" s="2">
+        <v>43998</v>
+      </c>
+      <c r="B112" s="19">
+        <f t="shared" si="18"/>
+        <v>1982</v>
+      </c>
+      <c r="C112" s="13">
+        <v>1</v>
+      </c>
+      <c r="D112" s="13">
+        <v>0</v>
+      </c>
+      <c r="E112" s="29">
+        <v>4</v>
+      </c>
+      <c r="F112" s="30">
+        <v>3</v>
+      </c>
+      <c r="G112" s="24">
+        <v>11</v>
+      </c>
+      <c r="H112" s="17">
+        <f t="shared" si="19"/>
+        <v>15</v>
+      </c>
+      <c r="I112" s="33">
+        <v>0</v>
+      </c>
+      <c r="J112" s="20">
+        <f t="shared" si="20"/>
+        <v>153</v>
+      </c>
+      <c r="K112" s="20">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="L112" s="27">
+        <v>0</v>
+      </c>
+      <c r="M112" s="28">
         <v>0</v>
       </c>
     </row>

--- a/Chiffres  COVID-19 Valais.xlsx
+++ b/Chiffres  COVID-19 Valais.xlsx
@@ -99,7 +99,7 @@
     <t>Nb de nouvelles sorties</t>
   </si>
   <si>
-    <t>Données COVID-19 Valais 16.06.2020</t>
+    <t>Données COVID-19 Valais 17.06.2020</t>
   </si>
 </sst>
 </file>
@@ -695,24 +695,24 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O112"/>
+  <dimension ref="A1:O113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:I112"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="I113" sqref="I113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="3" width="11.42578125" style="14"/>
-    <col min="4" max="4" width="10.85546875" style="14"/>
-    <col min="8" max="9" width="16.140625" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" style="5" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" style="5"/>
+    <col min="2" max="3" width="11.453125" style="14"/>
+    <col min="4" max="4" width="10.81640625" style="14"/>
+    <col min="8" max="9" width="16.1796875" customWidth="1"/>
+    <col min="11" max="11" width="14.54296875" customWidth="1"/>
+    <col min="12" max="12" width="13.54296875" customWidth="1"/>
+    <col min="13" max="13" width="15.7265625" style="5" customWidth="1"/>
+    <col min="15" max="15" width="11.453125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="35" t="s">
         <v>13</v>
       </c>
@@ -729,7 +729,7 @@
       <c r="L1" s="36"/>
       <c r="M1" s="37"/>
     </row>
-    <row r="2" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -771,7 +771,7 @@
       </c>
       <c r="O2" s="34"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>43889</v>
       </c>
@@ -816,7 +816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>43890</v>
       </c>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>43891</v>
       </c>
@@ -906,7 +906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>43892</v>
       </c>
@@ -951,7 +951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>43893</v>
       </c>
@@ -996,7 +996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>43894</v>
       </c>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>43895</v>
       </c>
@@ -1086,7 +1086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>43896</v>
       </c>
@@ -1131,7 +1131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>43897</v>
       </c>
@@ -1176,7 +1176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>43898</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>43899</v>
       </c>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>43900</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>43901</v>
       </c>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>43902</v>
       </c>
@@ -1401,7 +1401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>43903</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>43904</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>43905</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>43906</v>
       </c>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>43907</v>
       </c>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>43908</v>
       </c>
@@ -1671,7 +1671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>43909</v>
       </c>
@@ -1716,7 +1716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>43910</v>
       </c>
@@ -1761,7 +1761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>43911</v>
       </c>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>43912</v>
       </c>
@@ -1851,7 +1851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>43913</v>
       </c>
@@ -1896,7 +1896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>43914</v>
       </c>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>43915</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>43916</v>
       </c>
@@ -2031,7 +2031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>43917</v>
       </c>
@@ -2076,7 +2076,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>43918</v>
       </c>
@@ -2121,7 +2121,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>43919</v>
       </c>
@@ -2166,7 +2166,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>43920</v>
       </c>
@@ -2211,7 +2211,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>43921</v>
       </c>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>43922</v>
       </c>
@@ -2301,7 +2301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>43923</v>
       </c>
@@ -2346,7 +2346,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>43924</v>
       </c>
@@ -2391,7 +2391,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>43925</v>
       </c>
@@ -2436,7 +2436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>43926</v>
       </c>
@@ -2481,7 +2481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>43927</v>
       </c>
@@ -2526,7 +2526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>43928</v>
       </c>
@@ -2571,7 +2571,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>43929</v>
       </c>
@@ -2616,7 +2616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>43930</v>
       </c>
@@ -2661,7 +2661,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>43931</v>
       </c>
@@ -2706,7 +2706,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>43932</v>
       </c>
@@ -2751,7 +2751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>43933</v>
       </c>
@@ -2796,7 +2796,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>43934</v>
       </c>
@@ -2841,7 +2841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>43935</v>
       </c>
@@ -2886,7 +2886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>43936</v>
       </c>
@@ -2931,7 +2931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>43937</v>
       </c>
@@ -2976,7 +2976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>43938</v>
       </c>
@@ -3021,7 +3021,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>43939</v>
       </c>
@@ -3066,7 +3066,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>43940</v>
       </c>
@@ -3111,7 +3111,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>43941</v>
       </c>
@@ -3156,7 +3156,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>43942</v>
       </c>
@@ -3201,7 +3201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>43943</v>
       </c>
@@ -3246,7 +3246,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>43944</v>
       </c>
@@ -3291,7 +3291,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>43945</v>
       </c>
@@ -3336,7 +3336,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>43946</v>
       </c>
@@ -3381,7 +3381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>43947</v>
       </c>
@@ -3426,7 +3426,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>43948</v>
       </c>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>43949</v>
       </c>
@@ -3516,7 +3516,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>43950</v>
       </c>
@@ -3561,7 +3561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>43951</v>
       </c>
@@ -3606,7 +3606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>43952</v>
       </c>
@@ -3651,7 +3651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>43953</v>
       </c>
@@ -3696,7 +3696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>43954</v>
       </c>
@@ -3741,7 +3741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>43955</v>
       </c>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>43956</v>
       </c>
@@ -3831,7 +3831,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>43957</v>
       </c>
@@ -3876,7 +3876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>43958</v>
       </c>
@@ -3921,7 +3921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>43959</v>
       </c>
@@ -3966,12 +3966,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>43960</v>
       </c>
       <c r="B74" s="18">
-        <f t="shared" ref="B74:B112" si="18">B73+C74</f>
+        <f t="shared" ref="B74:B81" si="18">B73+C74</f>
         <v>1916</v>
       </c>
       <c r="C74" s="12">
@@ -3990,18 +3990,18 @@
         <v>27</v>
       </c>
       <c r="H74" s="16">
-        <f t="shared" ref="H74:H112" si="19">G74+E74</f>
+        <f t="shared" ref="H74:H81" si="19">G74+E74</f>
         <v>37</v>
       </c>
       <c r="I74" s="32">
         <v>1</v>
       </c>
       <c r="J74" s="15">
-        <f t="shared" ref="J74:J112" si="20">J73+K74</f>
+        <f t="shared" ref="J74:J81" si="20">J73+K74</f>
         <v>148</v>
       </c>
       <c r="K74" s="15">
-        <f t="shared" ref="K74:K112" si="21">L74+M74</f>
+        <f t="shared" ref="K74:K81" si="21">L74+M74</f>
         <v>0</v>
       </c>
       <c r="L74" s="25">
@@ -4011,7 +4011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>43961</v>
       </c>
@@ -4056,7 +4056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>43962</v>
       </c>
@@ -4101,7 +4101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>43963</v>
       </c>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>43964</v>
       </c>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>43965</v>
       </c>
@@ -4236,7 +4236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>43966</v>
       </c>
@@ -4281,7 +4281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>43967</v>
       </c>
@@ -4326,12 +4326,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>43968</v>
       </c>
       <c r="B82" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="B82:B113" si="22">B81+C82</f>
         <v>1936</v>
       </c>
       <c r="C82" s="12">
@@ -4350,18 +4350,18 @@
         <v>19</v>
       </c>
       <c r="H82" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="H82:H113" si="23">G82+E82</f>
         <v>27</v>
       </c>
       <c r="I82" s="32">
         <v>0</v>
       </c>
       <c r="J82" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="J82:J113" si="24">J81+K82</f>
         <v>150</v>
       </c>
       <c r="K82" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="K82:K113" si="25">L82+M82</f>
         <v>0</v>
       </c>
       <c r="L82" s="25">
@@ -4371,12 +4371,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>43969</v>
       </c>
       <c r="B83" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1937</v>
       </c>
       <c r="C83" s="12">
@@ -4395,18 +4395,18 @@
         <v>18</v>
       </c>
       <c r="H83" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>25</v>
       </c>
       <c r="I83" s="32">
         <v>2</v>
       </c>
       <c r="J83" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>152</v>
       </c>
       <c r="K83" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>2</v>
       </c>
       <c r="L83" s="25">
@@ -4416,12 +4416,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>43970</v>
       </c>
       <c r="B84" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1938</v>
       </c>
       <c r="C84" s="12">
@@ -4440,18 +4440,18 @@
         <v>16</v>
       </c>
       <c r="H84" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>23</v>
       </c>
       <c r="I84" s="32">
         <v>2</v>
       </c>
       <c r="J84" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>152</v>
       </c>
       <c r="K84" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="L84" s="25">
@@ -4461,12 +4461,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>43971</v>
       </c>
       <c r="B85" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1938</v>
       </c>
       <c r="C85" s="12">
@@ -4485,18 +4485,18 @@
         <v>15</v>
       </c>
       <c r="H85" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>21</v>
       </c>
       <c r="I85" s="32">
         <v>2</v>
       </c>
       <c r="J85" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>152</v>
       </c>
       <c r="K85" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="L85" s="25">
@@ -4506,12 +4506,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>43972</v>
       </c>
       <c r="B86" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1939</v>
       </c>
       <c r="C86" s="12">
@@ -4530,18 +4530,18 @@
         <v>15</v>
       </c>
       <c r="H86" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>21</v>
       </c>
       <c r="I86" s="32">
         <v>0</v>
       </c>
       <c r="J86" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>152</v>
       </c>
       <c r="K86" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="L86" s="25">
@@ -4551,12 +4551,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>43973</v>
       </c>
       <c r="B87" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1939</v>
       </c>
       <c r="C87" s="12">
@@ -4575,18 +4575,18 @@
         <v>15</v>
       </c>
       <c r="H87" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>20</v>
       </c>
       <c r="I87" s="32">
         <v>1</v>
       </c>
       <c r="J87" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>152</v>
       </c>
       <c r="K87" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="L87" s="25">
@@ -4596,12 +4596,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>43974</v>
       </c>
       <c r="B88" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1939</v>
       </c>
       <c r="C88" s="12">
@@ -4620,18 +4620,18 @@
         <v>15</v>
       </c>
       <c r="H88" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>20</v>
       </c>
       <c r="I88" s="32">
         <v>0</v>
       </c>
       <c r="J88" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>152</v>
       </c>
       <c r="K88" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="L88" s="25">
@@ -4641,12 +4641,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>43975</v>
       </c>
       <c r="B89" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1940</v>
       </c>
       <c r="C89" s="12">
@@ -4665,18 +4665,18 @@
         <v>15</v>
       </c>
       <c r="H89" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>20</v>
       </c>
       <c r="I89" s="32">
         <v>0</v>
       </c>
       <c r="J89" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>152</v>
       </c>
       <c r="K89" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="L89" s="25">
@@ -4686,12 +4686,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>43976</v>
       </c>
       <c r="B90" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1942</v>
       </c>
       <c r="C90" s="12">
@@ -4710,18 +4710,18 @@
         <v>14</v>
       </c>
       <c r="H90" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>19</v>
       </c>
       <c r="I90" s="32">
         <v>1</v>
       </c>
       <c r="J90" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>152</v>
       </c>
       <c r="K90" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="L90" s="25">
@@ -4731,12 +4731,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>43977</v>
       </c>
       <c r="B91" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1945</v>
       </c>
       <c r="C91" s="12">
@@ -4755,18 +4755,18 @@
         <v>14</v>
       </c>
       <c r="H91" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>18</v>
       </c>
       <c r="I91" s="32">
         <v>1</v>
       </c>
       <c r="J91" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>152</v>
       </c>
       <c r="K91" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="L91" s="25">
@@ -4776,12 +4776,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>43978</v>
       </c>
       <c r="B92" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1946</v>
       </c>
       <c r="C92" s="12">
@@ -4800,18 +4800,18 @@
         <v>13</v>
       </c>
       <c r="H92" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>17</v>
       </c>
       <c r="I92" s="32">
         <v>1</v>
       </c>
       <c r="J92" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>152</v>
       </c>
       <c r="K92" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="L92" s="25">
@@ -4821,12 +4821,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>43979</v>
       </c>
       <c r="B93" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1947</v>
       </c>
       <c r="C93" s="12">
@@ -4845,18 +4845,18 @@
         <v>13</v>
       </c>
       <c r="H93" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>17</v>
       </c>
       <c r="I93" s="32">
         <v>1</v>
       </c>
       <c r="J93" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>152</v>
       </c>
       <c r="K93" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="L93" s="25">
@@ -4866,12 +4866,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>43980</v>
       </c>
       <c r="B94" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1947</v>
       </c>
       <c r="C94" s="12">
@@ -4890,18 +4890,18 @@
         <v>12</v>
       </c>
       <c r="H94" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>16</v>
       </c>
       <c r="I94" s="32">
         <v>1</v>
       </c>
       <c r="J94" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>152</v>
       </c>
       <c r="K94" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="L94" s="25">
@@ -4911,12 +4911,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>43981</v>
       </c>
       <c r="B95" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1947</v>
       </c>
       <c r="C95" s="12">
@@ -4935,18 +4935,18 @@
         <v>11</v>
       </c>
       <c r="H95" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>15</v>
       </c>
       <c r="I95" s="32">
         <v>1</v>
       </c>
       <c r="J95" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>152</v>
       </c>
       <c r="K95" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="L95" s="25">
@@ -4956,12 +4956,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>43982</v>
       </c>
       <c r="B96" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1949</v>
       </c>
       <c r="C96" s="12">
@@ -4980,18 +4980,18 @@
         <v>11</v>
       </c>
       <c r="H96" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>16</v>
       </c>
       <c r="I96" s="32">
         <v>1</v>
       </c>
       <c r="J96" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>152</v>
       </c>
       <c r="K96" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="L96" s="25">
@@ -5001,12 +5001,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>43983</v>
       </c>
       <c r="B97" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1950</v>
       </c>
       <c r="C97" s="12">
@@ -5025,18 +5025,18 @@
         <v>12</v>
       </c>
       <c r="H97" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>16</v>
       </c>
       <c r="I97" s="32">
         <v>1</v>
       </c>
       <c r="J97" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>152</v>
       </c>
       <c r="K97" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="L97" s="25">
@@ -5046,12 +5046,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>43984</v>
       </c>
       <c r="B98" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1951</v>
       </c>
       <c r="C98" s="12">
@@ -5070,18 +5070,18 @@
         <v>12</v>
       </c>
       <c r="H98" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>16</v>
       </c>
       <c r="I98" s="32">
         <v>0</v>
       </c>
       <c r="J98" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>152</v>
       </c>
       <c r="K98" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="L98" s="25">
@@ -5091,12 +5091,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>43985</v>
       </c>
       <c r="B99" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1951</v>
       </c>
       <c r="C99" s="12">
@@ -5115,18 +5115,18 @@
         <v>11</v>
       </c>
       <c r="H99" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>15</v>
       </c>
       <c r="I99" s="32">
         <v>1</v>
       </c>
       <c r="J99" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>152</v>
       </c>
       <c r="K99" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="L99" s="25">
@@ -5136,12 +5136,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>43986</v>
       </c>
       <c r="B100" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1953</v>
       </c>
       <c r="C100" s="12">
@@ -5160,18 +5160,18 @@
         <v>12</v>
       </c>
       <c r="H100" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>16</v>
       </c>
       <c r="I100" s="32">
         <v>0</v>
       </c>
       <c r="J100" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>152</v>
       </c>
       <c r="K100" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="L100" s="25">
@@ -5181,12 +5181,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>43987</v>
       </c>
       <c r="B101" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1956</v>
       </c>
       <c r="C101" s="12">
@@ -5205,18 +5205,18 @@
         <v>12</v>
       </c>
       <c r="H101" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>16</v>
       </c>
       <c r="I101" s="32">
         <v>0</v>
       </c>
       <c r="J101" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>152</v>
       </c>
       <c r="K101" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="L101" s="25">
@@ -5226,12 +5226,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>43988</v>
       </c>
       <c r="B102" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1956</v>
       </c>
       <c r="C102" s="12">
@@ -5250,18 +5250,18 @@
         <v>12</v>
       </c>
       <c r="H102" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>16</v>
       </c>
       <c r="I102" s="32">
         <v>0</v>
       </c>
       <c r="J102" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>152</v>
       </c>
       <c r="K102" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="L102" s="25">
@@ -5271,12 +5271,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>43989</v>
       </c>
       <c r="B103" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1959</v>
       </c>
       <c r="C103" s="12">
@@ -5295,18 +5295,18 @@
         <v>12</v>
       </c>
       <c r="H103" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>16</v>
       </c>
       <c r="I103" s="32">
         <v>0</v>
       </c>
       <c r="J103" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>152</v>
       </c>
       <c r="K103" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="L103" s="25">
@@ -5316,12 +5316,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>43990</v>
       </c>
       <c r="B104" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1964</v>
       </c>
       <c r="C104" s="12">
@@ -5340,18 +5340,18 @@
         <v>12</v>
       </c>
       <c r="H104" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>16</v>
       </c>
       <c r="I104" s="32">
         <v>0</v>
       </c>
       <c r="J104" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>152</v>
       </c>
       <c r="K104" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="L104" s="25">
@@ -5361,12 +5361,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>43991</v>
       </c>
       <c r="B105" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1965</v>
       </c>
       <c r="C105" s="12">
@@ -5385,18 +5385,18 @@
         <v>12</v>
       </c>
       <c r="H105" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>16</v>
       </c>
       <c r="I105" s="32">
         <v>0</v>
       </c>
       <c r="J105" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>152</v>
       </c>
       <c r="K105" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="L105" s="25">
@@ -5406,12 +5406,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>43992</v>
       </c>
       <c r="B106" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1969</v>
       </c>
       <c r="C106" s="12">
@@ -5430,18 +5430,18 @@
         <v>12</v>
       </c>
       <c r="H106" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>16</v>
       </c>
       <c r="I106" s="32">
         <v>0</v>
       </c>
       <c r="J106" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>152</v>
       </c>
       <c r="K106" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="L106" s="25">
@@ -5451,12 +5451,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>43993</v>
       </c>
       <c r="B107" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1973</v>
       </c>
       <c r="C107" s="12">
@@ -5475,18 +5475,18 @@
         <v>12</v>
       </c>
       <c r="H107" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>16</v>
       </c>
       <c r="I107" s="32">
         <v>0</v>
       </c>
       <c r="J107" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>152</v>
       </c>
       <c r="K107" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="L107" s="25">
@@ -5496,12 +5496,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>43994</v>
       </c>
       <c r="B108" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1977</v>
       </c>
       <c r="C108" s="12">
@@ -5520,18 +5520,18 @@
         <v>12</v>
       </c>
       <c r="H108" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>16</v>
       </c>
       <c r="I108" s="32">
         <v>0</v>
       </c>
       <c r="J108" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>153</v>
       </c>
       <c r="K108" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="L108" s="25">
@@ -5541,12 +5541,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>43995</v>
       </c>
       <c r="B109" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1977</v>
       </c>
       <c r="C109" s="12">
@@ -5565,18 +5565,18 @@
         <v>11</v>
       </c>
       <c r="H109" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>15</v>
       </c>
       <c r="I109" s="32">
         <v>1</v>
       </c>
       <c r="J109" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>153</v>
       </c>
       <c r="K109" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="L109" s="25">
@@ -5586,12 +5586,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>43996</v>
       </c>
       <c r="B110" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1977</v>
       </c>
       <c r="C110" s="12">
@@ -5610,18 +5610,18 @@
         <v>11</v>
       </c>
       <c r="H110" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>15</v>
       </c>
       <c r="I110" s="32">
         <v>0</v>
       </c>
       <c r="J110" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>153</v>
       </c>
       <c r="K110" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="L110" s="25">
@@ -5631,12 +5631,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>43997</v>
       </c>
       <c r="B111" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1981</v>
       </c>
       <c r="C111" s="12">
@@ -5655,18 +5655,18 @@
         <v>11</v>
       </c>
       <c r="H111" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>15</v>
       </c>
       <c r="I111" s="32">
         <v>0</v>
       </c>
       <c r="J111" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>153</v>
       </c>
       <c r="K111" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="L111" s="25">
@@ -5676,48 +5676,93 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A112" s="2">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A112" s="1">
         <v>43998</v>
       </c>
-      <c r="B112" s="19">
-        <f t="shared" si="18"/>
-        <v>1982</v>
-      </c>
-      <c r="C112" s="13">
-        <v>1</v>
-      </c>
-      <c r="D112" s="13">
-        <v>0</v>
-      </c>
-      <c r="E112" s="29">
+      <c r="B112" s="18">
+        <f t="shared" si="22"/>
+        <v>1984</v>
+      </c>
+      <c r="C112" s="12">
+        <v>3</v>
+      </c>
+      <c r="D112" s="12">
+        <v>0</v>
+      </c>
+      <c r="E112" s="4">
         <v>4</v>
       </c>
-      <c r="F112" s="30">
-        <v>3</v>
-      </c>
-      <c r="G112" s="24">
+      <c r="F112" s="3">
+        <v>3</v>
+      </c>
+      <c r="G112" s="23">
         <v>11</v>
       </c>
-      <c r="H112" s="17">
-        <f t="shared" si="19"/>
+      <c r="H112" s="16">
+        <f t="shared" si="23"/>
         <v>15</v>
       </c>
-      <c r="I112" s="33">
-        <v>0</v>
-      </c>
-      <c r="J112" s="20">
-        <f t="shared" si="20"/>
+      <c r="I112" s="32">
+        <v>0</v>
+      </c>
+      <c r="J112" s="15">
+        <f t="shared" si="24"/>
         <v>153</v>
       </c>
-      <c r="K112" s="20">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="L112" s="27">
-        <v>0</v>
-      </c>
-      <c r="M112" s="28">
+      <c r="K112" s="15">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="L112" s="25">
+        <v>0</v>
+      </c>
+      <c r="M112" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A113" s="2">
+        <v>43999</v>
+      </c>
+      <c r="B113" s="19">
+        <f t="shared" si="22"/>
+        <v>1985</v>
+      </c>
+      <c r="C113" s="13">
+        <v>1</v>
+      </c>
+      <c r="D113" s="13">
+        <v>0</v>
+      </c>
+      <c r="E113" s="29">
+        <v>4</v>
+      </c>
+      <c r="F113" s="30">
+        <v>3</v>
+      </c>
+      <c r="G113" s="24">
+        <v>11</v>
+      </c>
+      <c r="H113" s="17">
+        <f t="shared" si="23"/>
+        <v>15</v>
+      </c>
+      <c r="I113" s="33">
+        <v>0</v>
+      </c>
+      <c r="J113" s="20">
+        <f t="shared" si="24"/>
+        <v>153</v>
+      </c>
+      <c r="K113" s="20">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="L113" s="27">
+        <v>0</v>
+      </c>
+      <c r="M113" s="28">
         <v>0</v>
       </c>
     </row>

--- a/Chiffres  COVID-19 Valais.xlsx
+++ b/Chiffres  COVID-19 Valais.xlsx
@@ -99,7 +99,7 @@
     <t>Nb de nouvelles sorties</t>
   </si>
   <si>
-    <t>Données COVID-19 Valais 17.06.2020</t>
+    <t>Données COVID-19 Valais 18.06.2020</t>
   </si>
 </sst>
 </file>
@@ -695,10 +695,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O113"/>
+  <dimension ref="A1:O114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="I113" sqref="I113"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1676,7 +1676,7 @@
         <v>43909</v>
       </c>
       <c r="B23" s="18">
-        <f t="shared" ref="B23:B66" si="10">B22+C23</f>
+        <f t="shared" ref="B23:B41" si="10">B22+C23</f>
         <v>349</v>
       </c>
       <c r="C23" s="12">
@@ -1702,11 +1702,11 @@
         <v>1</v>
       </c>
       <c r="J23" s="15">
-        <f t="shared" ref="J23:J66" si="11">J22+K23</f>
+        <f t="shared" ref="J23:J41" si="11">J22+K23</f>
         <v>6</v>
       </c>
       <c r="K23" s="15">
-        <f t="shared" ref="K23:K66" si="12">L23+M23</f>
+        <f t="shared" ref="K23:K41" si="12">L23+M23</f>
         <v>2</v>
       </c>
       <c r="L23" s="25">
@@ -2235,7 +2235,7 @@
         <v>129</v>
       </c>
       <c r="H35" s="16">
-        <f t="shared" ref="H35:H66" si="13">G35+E35</f>
+        <f t="shared" ref="H35:H41" si="13">G35+E35</f>
         <v>153</v>
       </c>
       <c r="I35" s="32">
@@ -2531,7 +2531,7 @@
         <v>43928</v>
       </c>
       <c r="B42" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="B42:B105" si="14">B41+C42</f>
         <v>1538</v>
       </c>
       <c r="C42" s="12">
@@ -2550,18 +2550,18 @@
         <v>105</v>
       </c>
       <c r="H42" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="H42:H105" si="15">G42+E42</f>
         <v>130</v>
       </c>
       <c r="I42" s="32">
         <v>9</v>
       </c>
       <c r="J42" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="J42:J105" si="16">J41+K42</f>
         <v>68</v>
       </c>
       <c r="K42" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="K42:K105" si="17">L42+M42</f>
         <v>8</v>
       </c>
       <c r="L42" s="25">
@@ -2576,7 +2576,7 @@
         <v>43929</v>
       </c>
       <c r="B43" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1573</v>
       </c>
       <c r="C43" s="12">
@@ -2595,18 +2595,18 @@
         <v>97</v>
       </c>
       <c r="H43" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>123</v>
       </c>
       <c r="I43" s="32">
         <v>9</v>
       </c>
       <c r="J43" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>71</v>
       </c>
       <c r="K43" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="L43" s="25">
@@ -2621,7 +2621,7 @@
         <v>43930</v>
       </c>
       <c r="B44" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1602</v>
       </c>
       <c r="C44" s="12">
@@ -2640,18 +2640,18 @@
         <v>94</v>
       </c>
       <c r="H44" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>118</v>
       </c>
       <c r="I44" s="32">
         <v>8</v>
       </c>
       <c r="J44" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>77</v>
       </c>
       <c r="K44" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>6</v>
       </c>
       <c r="L44" s="25">
@@ -2666,7 +2666,7 @@
         <v>43931</v>
       </c>
       <c r="B45" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1631</v>
       </c>
       <c r="C45" s="12">
@@ -2685,18 +2685,18 @@
         <v>92</v>
       </c>
       <c r="H45" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>116</v>
       </c>
       <c r="I45" s="32">
         <v>6</v>
       </c>
       <c r="J45" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>83</v>
       </c>
       <c r="K45" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>6</v>
       </c>
       <c r="L45" s="25">
@@ -2711,7 +2711,7 @@
         <v>43932</v>
       </c>
       <c r="B46" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1657</v>
       </c>
       <c r="C46" s="12">
@@ -2730,18 +2730,18 @@
         <v>93</v>
       </c>
       <c r="H46" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>113</v>
       </c>
       <c r="I46" s="32">
         <v>3</v>
       </c>
       <c r="J46" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>85</v>
       </c>
       <c r="K46" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="L46" s="25">
@@ -2756,7 +2756,7 @@
         <v>43933</v>
       </c>
       <c r="B47" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1670</v>
       </c>
       <c r="C47" s="12">
@@ -2775,18 +2775,18 @@
         <v>89</v>
       </c>
       <c r="H47" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>111</v>
       </c>
       <c r="I47" s="32">
         <v>4</v>
       </c>
       <c r="J47" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>91</v>
       </c>
       <c r="K47" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>6</v>
       </c>
       <c r="L47" s="25">
@@ -2801,7 +2801,7 @@
         <v>43934</v>
       </c>
       <c r="B48" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1684</v>
       </c>
       <c r="C48" s="12">
@@ -2820,18 +2820,18 @@
         <v>86</v>
       </c>
       <c r="H48" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>107</v>
       </c>
       <c r="I48" s="32">
         <v>3</v>
       </c>
       <c r="J48" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>93</v>
       </c>
       <c r="K48" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="L48" s="25">
@@ -2846,7 +2846,7 @@
         <v>43935</v>
       </c>
       <c r="B49" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1711</v>
       </c>
       <c r="C49" s="12">
@@ -2865,18 +2865,18 @@
         <v>80</v>
       </c>
       <c r="H49" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
       <c r="I49" s="32">
         <v>11</v>
       </c>
       <c r="J49" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>94</v>
       </c>
       <c r="K49" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="L49" s="25">
@@ -2891,7 +2891,7 @@
         <v>43936</v>
       </c>
       <c r="B50" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1727</v>
       </c>
       <c r="C50" s="12">
@@ -2910,18 +2910,18 @@
         <v>74</v>
       </c>
       <c r="H50" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>94</v>
       </c>
       <c r="I50" s="32">
         <v>8</v>
       </c>
       <c r="J50" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>94</v>
       </c>
       <c r="K50" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L50" s="25">
@@ -2936,7 +2936,7 @@
         <v>43937</v>
       </c>
       <c r="B51" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1744</v>
       </c>
       <c r="C51" s="12">
@@ -2955,18 +2955,18 @@
         <v>75</v>
       </c>
       <c r="H51" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>92</v>
       </c>
       <c r="I51" s="32">
         <v>3</v>
       </c>
       <c r="J51" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>95</v>
       </c>
       <c r="K51" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="L51" s="25">
@@ -2981,7 +2981,7 @@
         <v>43938</v>
       </c>
       <c r="B52" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1764</v>
       </c>
       <c r="C52" s="12">
@@ -3000,18 +3000,18 @@
         <v>69</v>
       </c>
       <c r="H52" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>85</v>
       </c>
       <c r="I52" s="32">
         <v>6</v>
       </c>
       <c r="J52" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>99</v>
       </c>
       <c r="K52" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="L52" s="25">
@@ -3026,7 +3026,7 @@
         <v>43939</v>
       </c>
       <c r="B53" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1773</v>
       </c>
       <c r="C53" s="12">
@@ -3045,18 +3045,18 @@
         <v>66</v>
       </c>
       <c r="H53" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>84</v>
       </c>
       <c r="I53" s="32">
         <v>0</v>
       </c>
       <c r="J53" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>104</v>
       </c>
       <c r="K53" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="L53" s="25">
@@ -3071,7 +3071,7 @@
         <v>43940</v>
       </c>
       <c r="B54" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1780</v>
       </c>
       <c r="C54" s="12">
@@ -3090,18 +3090,18 @@
         <v>66</v>
       </c>
       <c r="H54" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>82</v>
       </c>
       <c r="I54" s="32">
         <v>1</v>
       </c>
       <c r="J54" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>107</v>
       </c>
       <c r="K54" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="L54" s="25">
@@ -3116,7 +3116,7 @@
         <v>43941</v>
       </c>
       <c r="B55" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1797</v>
       </c>
       <c r="C55" s="12">
@@ -3135,18 +3135,18 @@
         <v>63</v>
       </c>
       <c r="H55" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>78</v>
       </c>
       <c r="I55" s="32">
         <v>6</v>
       </c>
       <c r="J55" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>110</v>
       </c>
       <c r="K55" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="L55" s="25">
@@ -3161,7 +3161,7 @@
         <v>43942</v>
       </c>
       <c r="B56" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1804</v>
       </c>
       <c r="C56" s="12">
@@ -3180,18 +3180,18 @@
         <v>60</v>
       </c>
       <c r="H56" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>74</v>
       </c>
       <c r="I56" s="32">
         <v>2</v>
       </c>
       <c r="J56" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>115</v>
       </c>
       <c r="K56" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="L56" s="25">
@@ -3206,7 +3206,7 @@
         <v>43943</v>
       </c>
       <c r="B57" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1810</v>
       </c>
       <c r="C57" s="12">
@@ -3225,18 +3225,18 @@
         <v>62</v>
       </c>
       <c r="H57" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>75</v>
       </c>
       <c r="I57" s="32">
         <v>3</v>
       </c>
       <c r="J57" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>118</v>
       </c>
       <c r="K57" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="L57" s="25">
@@ -3251,7 +3251,7 @@
         <v>43944</v>
       </c>
       <c r="B58" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1826</v>
       </c>
       <c r="C58" s="12">
@@ -3270,18 +3270,18 @@
         <v>58</v>
       </c>
       <c r="H58" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>71</v>
       </c>
       <c r="I58" s="32">
         <v>3</v>
       </c>
       <c r="J58" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>123</v>
       </c>
       <c r="K58" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="L58" s="25">
@@ -3296,7 +3296,7 @@
         <v>43945</v>
       </c>
       <c r="B59" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1835</v>
       </c>
       <c r="C59" s="12">
@@ -3315,18 +3315,18 @@
         <v>54</v>
       </c>
       <c r="H59" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>68</v>
       </c>
       <c r="I59" s="32">
         <v>4</v>
       </c>
       <c r="J59" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>127</v>
       </c>
       <c r="K59" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="L59" s="25">
@@ -3341,7 +3341,7 @@
         <v>43946</v>
       </c>
       <c r="B60" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1840</v>
       </c>
       <c r="C60" s="12">
@@ -3360,18 +3360,18 @@
         <v>56</v>
       </c>
       <c r="H60" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>70</v>
       </c>
       <c r="I60" s="32">
         <v>1</v>
       </c>
       <c r="J60" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>129</v>
       </c>
       <c r="K60" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="L60" s="25">
@@ -3386,7 +3386,7 @@
         <v>43947</v>
       </c>
       <c r="B61" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1842</v>
       </c>
       <c r="C61" s="12">
@@ -3405,18 +3405,18 @@
         <v>57</v>
       </c>
       <c r="H61" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>72</v>
       </c>
       <c r="I61" s="32">
         <v>0</v>
       </c>
       <c r="J61" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>131</v>
       </c>
       <c r="K61" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="L61" s="25">
@@ -3431,7 +3431,7 @@
         <v>43948</v>
       </c>
       <c r="B62" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1857</v>
       </c>
       <c r="C62" s="12">
@@ -3450,18 +3450,18 @@
         <v>49</v>
       </c>
       <c r="H62" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>63</v>
       </c>
       <c r="I62" s="32">
         <v>8</v>
       </c>
       <c r="J62" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>132</v>
       </c>
       <c r="K62" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="L62" s="25">
@@ -3476,7 +3476,7 @@
         <v>43949</v>
       </c>
       <c r="B63" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1868</v>
       </c>
       <c r="C63" s="12">
@@ -3495,18 +3495,18 @@
         <v>46</v>
       </c>
       <c r="H63" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>59</v>
       </c>
       <c r="I63" s="32">
         <v>4</v>
       </c>
       <c r="J63" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>135</v>
       </c>
       <c r="K63" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="L63" s="25">
@@ -3521,7 +3521,7 @@
         <v>43950</v>
       </c>
       <c r="B64" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1880</v>
       </c>
       <c r="C64" s="12">
@@ -3540,18 +3540,18 @@
         <v>47</v>
       </c>
       <c r="H64" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>58</v>
       </c>
       <c r="I64" s="32">
         <v>2</v>
       </c>
       <c r="J64" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>136</v>
       </c>
       <c r="K64" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="L64" s="25">
@@ -3566,7 +3566,7 @@
         <v>43951</v>
       </c>
       <c r="B65" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1887</v>
       </c>
       <c r="C65" s="12">
@@ -3585,18 +3585,18 @@
         <v>48</v>
       </c>
       <c r="H65" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>58</v>
       </c>
       <c r="I65" s="32">
         <v>1</v>
       </c>
       <c r="J65" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>138</v>
       </c>
       <c r="K65" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="L65" s="25">
@@ -3611,7 +3611,7 @@
         <v>43952</v>
       </c>
       <c r="B66" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1892</v>
       </c>
       <c r="C66" s="12">
@@ -3630,18 +3630,18 @@
         <v>46</v>
       </c>
       <c r="H66" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>56</v>
       </c>
       <c r="I66" s="32">
         <v>2</v>
       </c>
       <c r="J66" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>138</v>
       </c>
       <c r="K66" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L66" s="25">
@@ -3656,7 +3656,7 @@
         <v>43953</v>
       </c>
       <c r="B67" s="18">
-        <f t="shared" ref="B67:B73" si="14">B66+C67</f>
+        <f t="shared" si="14"/>
         <v>1895</v>
       </c>
       <c r="C67" s="12">
@@ -3675,18 +3675,18 @@
         <v>46</v>
       </c>
       <c r="H67" s="16">
-        <f t="shared" ref="H67:H73" si="15">G67+E67</f>
+        <f t="shared" si="15"/>
         <v>56</v>
       </c>
       <c r="I67" s="32">
         <v>0</v>
       </c>
       <c r="J67" s="15">
-        <f t="shared" ref="J67:J73" si="16">J66+K67</f>
+        <f t="shared" si="16"/>
         <v>140</v>
       </c>
       <c r="K67" s="15">
-        <f t="shared" ref="K67:K73" si="17">L67+M67</f>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="L67" s="25">
@@ -3971,7 +3971,7 @@
         <v>43960</v>
       </c>
       <c r="B74" s="18">
-        <f t="shared" ref="B74:B81" si="18">B73+C74</f>
+        <f t="shared" si="14"/>
         <v>1916</v>
       </c>
       <c r="C74" s="12">
@@ -3990,18 +3990,18 @@
         <v>27</v>
       </c>
       <c r="H74" s="16">
-        <f t="shared" ref="H74:H81" si="19">G74+E74</f>
+        <f t="shared" si="15"/>
         <v>37</v>
       </c>
       <c r="I74" s="32">
         <v>1</v>
       </c>
       <c r="J74" s="15">
-        <f t="shared" ref="J74:J81" si="20">J73+K74</f>
+        <f t="shared" si="16"/>
         <v>148</v>
       </c>
       <c r="K74" s="15">
-        <f t="shared" ref="K74:K81" si="21">L74+M74</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L74" s="25">
@@ -4016,7 +4016,7 @@
         <v>43961</v>
       </c>
       <c r="B75" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>1917</v>
       </c>
       <c r="C75" s="12">
@@ -4035,18 +4035,18 @@
         <v>28</v>
       </c>
       <c r="H75" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>38</v>
       </c>
       <c r="I75" s="32">
         <v>0</v>
       </c>
       <c r="J75" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>148</v>
       </c>
       <c r="K75" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L75" s="25">
@@ -4061,7 +4061,7 @@
         <v>43962</v>
       </c>
       <c r="B76" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>1921</v>
       </c>
       <c r="C76" s="12">
@@ -4080,18 +4080,18 @@
         <v>28</v>
       </c>
       <c r="H76" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>38</v>
       </c>
       <c r="I76" s="32">
         <v>0</v>
       </c>
       <c r="J76" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>150</v>
       </c>
       <c r="K76" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="L76" s="25">
@@ -4106,7 +4106,7 @@
         <v>43963</v>
       </c>
       <c r="B77" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>1921</v>
       </c>
       <c r="C77" s="12">
@@ -4125,18 +4125,18 @@
         <v>27</v>
       </c>
       <c r="H77" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>35</v>
       </c>
       <c r="I77" s="32">
         <v>3</v>
       </c>
       <c r="J77" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>150</v>
       </c>
       <c r="K77" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L77" s="25">
@@ -4151,7 +4151,7 @@
         <v>43964</v>
       </c>
       <c r="B78" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>1922</v>
       </c>
       <c r="C78" s="12">
@@ -4170,18 +4170,18 @@
         <v>24</v>
       </c>
       <c r="H78" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>32</v>
       </c>
       <c r="I78" s="32">
         <v>3</v>
       </c>
       <c r="J78" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>150</v>
       </c>
       <c r="K78" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L78" s="25">
@@ -4196,7 +4196,7 @@
         <v>43965</v>
       </c>
       <c r="B79" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>1924</v>
       </c>
       <c r="C79" s="12">
@@ -4215,18 +4215,18 @@
         <v>22</v>
       </c>
       <c r="H79" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>30</v>
       </c>
       <c r="I79" s="32">
         <v>2</v>
       </c>
       <c r="J79" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>150</v>
       </c>
       <c r="K79" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L79" s="25">
@@ -4241,7 +4241,7 @@
         <v>43966</v>
       </c>
       <c r="B80" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>1933</v>
       </c>
       <c r="C80" s="12">
@@ -4260,18 +4260,18 @@
         <v>19</v>
       </c>
       <c r="H80" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>27</v>
       </c>
       <c r="I80" s="32">
         <v>3</v>
       </c>
       <c r="J80" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>150</v>
       </c>
       <c r="K80" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L80" s="25">
@@ -4286,7 +4286,7 @@
         <v>43967</v>
       </c>
       <c r="B81" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>1936</v>
       </c>
       <c r="C81" s="12">
@@ -4305,18 +4305,18 @@
         <v>19</v>
       </c>
       <c r="H81" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>27</v>
       </c>
       <c r="I81" s="32">
         <v>0</v>
       </c>
       <c r="J81" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>150</v>
       </c>
       <c r="K81" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L81" s="25">
@@ -4331,7 +4331,7 @@
         <v>43968</v>
       </c>
       <c r="B82" s="18">
-        <f t="shared" ref="B82:B113" si="22">B81+C82</f>
+        <f t="shared" si="14"/>
         <v>1936</v>
       </c>
       <c r="C82" s="12">
@@ -4350,18 +4350,18 @@
         <v>19</v>
       </c>
       <c r="H82" s="16">
-        <f t="shared" ref="H82:H113" si="23">G82+E82</f>
+        <f t="shared" si="15"/>
         <v>27</v>
       </c>
       <c r="I82" s="32">
         <v>0</v>
       </c>
       <c r="J82" s="15">
-        <f t="shared" ref="J82:J113" si="24">J81+K82</f>
+        <f t="shared" si="16"/>
         <v>150</v>
       </c>
       <c r="K82" s="15">
-        <f t="shared" ref="K82:K113" si="25">L82+M82</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L82" s="25">
@@ -4376,7 +4376,7 @@
         <v>43969</v>
       </c>
       <c r="B83" s="18">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>1937</v>
       </c>
       <c r="C83" s="12">
@@ -4395,18 +4395,18 @@
         <v>18</v>
       </c>
       <c r="H83" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="15"/>
         <v>25</v>
       </c>
       <c r="I83" s="32">
         <v>2</v>
       </c>
       <c r="J83" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>152</v>
       </c>
       <c r="K83" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="L83" s="25">
@@ -4421,7 +4421,7 @@
         <v>43970</v>
       </c>
       <c r="B84" s="18">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>1938</v>
       </c>
       <c r="C84" s="12">
@@ -4440,18 +4440,18 @@
         <v>16</v>
       </c>
       <c r="H84" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="15"/>
         <v>23</v>
       </c>
       <c r="I84" s="32">
         <v>2</v>
       </c>
       <c r="J84" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>152</v>
       </c>
       <c r="K84" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L84" s="25">
@@ -4466,7 +4466,7 @@
         <v>43971</v>
       </c>
       <c r="B85" s="18">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>1938</v>
       </c>
       <c r="C85" s="12">
@@ -4485,18 +4485,18 @@
         <v>15</v>
       </c>
       <c r="H85" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="15"/>
         <v>21</v>
       </c>
       <c r="I85" s="32">
         <v>2</v>
       </c>
       <c r="J85" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>152</v>
       </c>
       <c r="K85" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L85" s="25">
@@ -4511,7 +4511,7 @@
         <v>43972</v>
       </c>
       <c r="B86" s="18">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>1939</v>
       </c>
       <c r="C86" s="12">
@@ -4530,18 +4530,18 @@
         <v>15</v>
       </c>
       <c r="H86" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="15"/>
         <v>21</v>
       </c>
       <c r="I86" s="32">
         <v>0</v>
       </c>
       <c r="J86" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>152</v>
       </c>
       <c r="K86" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L86" s="25">
@@ -4556,7 +4556,7 @@
         <v>43973</v>
       </c>
       <c r="B87" s="18">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>1939</v>
       </c>
       <c r="C87" s="12">
@@ -4575,18 +4575,18 @@
         <v>15</v>
       </c>
       <c r="H87" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="15"/>
         <v>20</v>
       </c>
       <c r="I87" s="32">
         <v>1</v>
       </c>
       <c r="J87" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>152</v>
       </c>
       <c r="K87" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L87" s="25">
@@ -4601,7 +4601,7 @@
         <v>43974</v>
       </c>
       <c r="B88" s="18">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>1939</v>
       </c>
       <c r="C88" s="12">
@@ -4620,18 +4620,18 @@
         <v>15</v>
       </c>
       <c r="H88" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="15"/>
         <v>20</v>
       </c>
       <c r="I88" s="32">
         <v>0</v>
       </c>
       <c r="J88" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>152</v>
       </c>
       <c r="K88" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L88" s="25">
@@ -4646,7 +4646,7 @@
         <v>43975</v>
       </c>
       <c r="B89" s="18">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>1940</v>
       </c>
       <c r="C89" s="12">
@@ -4665,18 +4665,18 @@
         <v>15</v>
       </c>
       <c r="H89" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="15"/>
         <v>20</v>
       </c>
       <c r="I89" s="32">
         <v>0</v>
       </c>
       <c r="J89" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>152</v>
       </c>
       <c r="K89" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L89" s="25">
@@ -4691,7 +4691,7 @@
         <v>43976</v>
       </c>
       <c r="B90" s="18">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>1942</v>
       </c>
       <c r="C90" s="12">
@@ -4710,18 +4710,18 @@
         <v>14</v>
       </c>
       <c r="H90" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="15"/>
         <v>19</v>
       </c>
       <c r="I90" s="32">
         <v>1</v>
       </c>
       <c r="J90" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>152</v>
       </c>
       <c r="K90" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L90" s="25">
@@ -4736,7 +4736,7 @@
         <v>43977</v>
       </c>
       <c r="B91" s="18">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>1945</v>
       </c>
       <c r="C91" s="12">
@@ -4755,18 +4755,18 @@
         <v>14</v>
       </c>
       <c r="H91" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="15"/>
         <v>18</v>
       </c>
       <c r="I91" s="32">
         <v>1</v>
       </c>
       <c r="J91" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>152</v>
       </c>
       <c r="K91" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L91" s="25">
@@ -4781,7 +4781,7 @@
         <v>43978</v>
       </c>
       <c r="B92" s="18">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>1946</v>
       </c>
       <c r="C92" s="12">
@@ -4800,18 +4800,18 @@
         <v>13</v>
       </c>
       <c r="H92" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="15"/>
         <v>17</v>
       </c>
       <c r="I92" s="32">
         <v>1</v>
       </c>
       <c r="J92" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>152</v>
       </c>
       <c r="K92" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L92" s="25">
@@ -4826,7 +4826,7 @@
         <v>43979</v>
       </c>
       <c r="B93" s="18">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>1947</v>
       </c>
       <c r="C93" s="12">
@@ -4845,18 +4845,18 @@
         <v>13</v>
       </c>
       <c r="H93" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="15"/>
         <v>17</v>
       </c>
       <c r="I93" s="32">
         <v>1</v>
       </c>
       <c r="J93" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>152</v>
       </c>
       <c r="K93" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L93" s="25">
@@ -4871,7 +4871,7 @@
         <v>43980</v>
       </c>
       <c r="B94" s="18">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>1947</v>
       </c>
       <c r="C94" s="12">
@@ -4890,18 +4890,18 @@
         <v>12</v>
       </c>
       <c r="H94" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="15"/>
         <v>16</v>
       </c>
       <c r="I94" s="32">
         <v>1</v>
       </c>
       <c r="J94" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>152</v>
       </c>
       <c r="K94" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L94" s="25">
@@ -4916,7 +4916,7 @@
         <v>43981</v>
       </c>
       <c r="B95" s="18">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>1947</v>
       </c>
       <c r="C95" s="12">
@@ -4935,18 +4935,18 @@
         <v>11</v>
       </c>
       <c r="H95" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="15"/>
         <v>15</v>
       </c>
       <c r="I95" s="32">
         <v>1</v>
       </c>
       <c r="J95" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>152</v>
       </c>
       <c r="K95" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L95" s="25">
@@ -4961,7 +4961,7 @@
         <v>43982</v>
       </c>
       <c r="B96" s="18">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>1949</v>
       </c>
       <c r="C96" s="12">
@@ -4980,18 +4980,18 @@
         <v>11</v>
       </c>
       <c r="H96" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="15"/>
         <v>16</v>
       </c>
       <c r="I96" s="32">
         <v>1</v>
       </c>
       <c r="J96" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>152</v>
       </c>
       <c r="K96" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L96" s="25">
@@ -5006,7 +5006,7 @@
         <v>43983</v>
       </c>
       <c r="B97" s="18">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>1950</v>
       </c>
       <c r="C97" s="12">
@@ -5025,18 +5025,18 @@
         <v>12</v>
       </c>
       <c r="H97" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="15"/>
         <v>16</v>
       </c>
       <c r="I97" s="32">
         <v>1</v>
       </c>
       <c r="J97" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>152</v>
       </c>
       <c r="K97" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L97" s="25">
@@ -5051,7 +5051,7 @@
         <v>43984</v>
       </c>
       <c r="B98" s="18">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>1951</v>
       </c>
       <c r="C98" s="12">
@@ -5070,18 +5070,18 @@
         <v>12</v>
       </c>
       <c r="H98" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="15"/>
         <v>16</v>
       </c>
       <c r="I98" s="32">
         <v>0</v>
       </c>
       <c r="J98" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>152</v>
       </c>
       <c r="K98" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L98" s="25">
@@ -5096,7 +5096,7 @@
         <v>43985</v>
       </c>
       <c r="B99" s="18">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>1951</v>
       </c>
       <c r="C99" s="12">
@@ -5115,18 +5115,18 @@
         <v>11</v>
       </c>
       <c r="H99" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="15"/>
         <v>15</v>
       </c>
       <c r="I99" s="32">
         <v>1</v>
       </c>
       <c r="J99" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>152</v>
       </c>
       <c r="K99" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L99" s="25">
@@ -5141,7 +5141,7 @@
         <v>43986</v>
       </c>
       <c r="B100" s="18">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>1953</v>
       </c>
       <c r="C100" s="12">
@@ -5160,18 +5160,18 @@
         <v>12</v>
       </c>
       <c r="H100" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="15"/>
         <v>16</v>
       </c>
       <c r="I100" s="32">
         <v>0</v>
       </c>
       <c r="J100" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>152</v>
       </c>
       <c r="K100" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L100" s="25">
@@ -5186,7 +5186,7 @@
         <v>43987</v>
       </c>
       <c r="B101" s="18">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>1956</v>
       </c>
       <c r="C101" s="12">
@@ -5205,18 +5205,18 @@
         <v>12</v>
       </c>
       <c r="H101" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="15"/>
         <v>16</v>
       </c>
       <c r="I101" s="32">
         <v>0</v>
       </c>
       <c r="J101" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>152</v>
       </c>
       <c r="K101" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L101" s="25">
@@ -5231,7 +5231,7 @@
         <v>43988</v>
       </c>
       <c r="B102" s="18">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>1956</v>
       </c>
       <c r="C102" s="12">
@@ -5250,18 +5250,18 @@
         <v>12</v>
       </c>
       <c r="H102" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="15"/>
         <v>16</v>
       </c>
       <c r="I102" s="32">
         <v>0</v>
       </c>
       <c r="J102" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>152</v>
       </c>
       <c r="K102" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L102" s="25">
@@ -5276,7 +5276,7 @@
         <v>43989</v>
       </c>
       <c r="B103" s="18">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>1959</v>
       </c>
       <c r="C103" s="12">
@@ -5295,18 +5295,18 @@
         <v>12</v>
       </c>
       <c r="H103" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="15"/>
         <v>16</v>
       </c>
       <c r="I103" s="32">
         <v>0</v>
       </c>
       <c r="J103" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>152</v>
       </c>
       <c r="K103" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L103" s="25">
@@ -5321,7 +5321,7 @@
         <v>43990</v>
       </c>
       <c r="B104" s="18">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>1964</v>
       </c>
       <c r="C104" s="12">
@@ -5340,18 +5340,18 @@
         <v>12</v>
       </c>
       <c r="H104" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="15"/>
         <v>16</v>
       </c>
       <c r="I104" s="32">
         <v>0</v>
       </c>
       <c r="J104" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>152</v>
       </c>
       <c r="K104" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L104" s="25">
@@ -5366,7 +5366,7 @@
         <v>43991</v>
       </c>
       <c r="B105" s="18">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>1965</v>
       </c>
       <c r="C105" s="12">
@@ -5385,18 +5385,18 @@
         <v>12</v>
       </c>
       <c r="H105" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="15"/>
         <v>16</v>
       </c>
       <c r="I105" s="32">
         <v>0</v>
       </c>
       <c r="J105" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>152</v>
       </c>
       <c r="K105" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L105" s="25">
@@ -5411,7 +5411,7 @@
         <v>43992</v>
       </c>
       <c r="B106" s="18">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="B106:B114" si="18">B105+C106</f>
         <v>1969</v>
       </c>
       <c r="C106" s="12">
@@ -5430,18 +5430,18 @@
         <v>12</v>
       </c>
       <c r="H106" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="H106:H114" si="19">G106+E106</f>
         <v>16</v>
       </c>
       <c r="I106" s="32">
         <v>0</v>
       </c>
       <c r="J106" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="J106:J114" si="20">J105+K106</f>
         <v>152</v>
       </c>
       <c r="K106" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="K106:K114" si="21">L106+M106</f>
         <v>0</v>
       </c>
       <c r="L106" s="25">
@@ -5456,7 +5456,7 @@
         <v>43993</v>
       </c>
       <c r="B107" s="18">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>1973</v>
       </c>
       <c r="C107" s="12">
@@ -5475,18 +5475,18 @@
         <v>12</v>
       </c>
       <c r="H107" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>16</v>
       </c>
       <c r="I107" s="32">
         <v>0</v>
       </c>
       <c r="J107" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="20"/>
         <v>152</v>
       </c>
       <c r="K107" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L107" s="25">
@@ -5501,7 +5501,7 @@
         <v>43994</v>
       </c>
       <c r="B108" s="18">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>1977</v>
       </c>
       <c r="C108" s="12">
@@ -5520,18 +5520,18 @@
         <v>12</v>
       </c>
       <c r="H108" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>16</v>
       </c>
       <c r="I108" s="32">
         <v>0</v>
       </c>
       <c r="J108" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="20"/>
         <v>153</v>
       </c>
       <c r="K108" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="L108" s="25">
@@ -5546,7 +5546,7 @@
         <v>43995</v>
       </c>
       <c r="B109" s="18">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>1977</v>
       </c>
       <c r="C109" s="12">
@@ -5565,18 +5565,18 @@
         <v>11</v>
       </c>
       <c r="H109" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>15</v>
       </c>
       <c r="I109" s="32">
         <v>1</v>
       </c>
       <c r="J109" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="20"/>
         <v>153</v>
       </c>
       <c r="K109" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L109" s="25">
@@ -5591,7 +5591,7 @@
         <v>43996</v>
       </c>
       <c r="B110" s="18">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>1977</v>
       </c>
       <c r="C110" s="12">
@@ -5610,18 +5610,18 @@
         <v>11</v>
       </c>
       <c r="H110" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>15</v>
       </c>
       <c r="I110" s="32">
         <v>0</v>
       </c>
       <c r="J110" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="20"/>
         <v>153</v>
       </c>
       <c r="K110" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L110" s="25">
@@ -5636,7 +5636,7 @@
         <v>43997</v>
       </c>
       <c r="B111" s="18">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>1981</v>
       </c>
       <c r="C111" s="12">
@@ -5655,18 +5655,18 @@
         <v>11</v>
       </c>
       <c r="H111" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>15</v>
       </c>
       <c r="I111" s="32">
         <v>0</v>
       </c>
       <c r="J111" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="20"/>
         <v>153</v>
       </c>
       <c r="K111" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L111" s="25">
@@ -5681,7 +5681,7 @@
         <v>43998</v>
       </c>
       <c r="B112" s="18">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>1984</v>
       </c>
       <c r="C112" s="12">
@@ -5700,18 +5700,18 @@
         <v>11</v>
       </c>
       <c r="H112" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>15</v>
       </c>
       <c r="I112" s="32">
         <v>0</v>
       </c>
       <c r="J112" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="20"/>
         <v>153</v>
       </c>
       <c r="K112" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L112" s="25">
@@ -5722,47 +5722,92 @@
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A113" s="2">
+      <c r="A113" s="1">
         <v>43999</v>
       </c>
-      <c r="B113" s="19">
-        <f t="shared" si="22"/>
+      <c r="B113" s="18">
+        <f t="shared" si="18"/>
         <v>1985</v>
       </c>
-      <c r="C113" s="13">
-        <v>1</v>
-      </c>
-      <c r="D113" s="13">
-        <v>0</v>
-      </c>
-      <c r="E113" s="29">
+      <c r="C113" s="12">
+        <v>1</v>
+      </c>
+      <c r="D113" s="12">
+        <v>0</v>
+      </c>
+      <c r="E113" s="4">
         <v>4</v>
       </c>
-      <c r="F113" s="30">
-        <v>3</v>
-      </c>
-      <c r="G113" s="24">
+      <c r="F113" s="3">
+        <v>3</v>
+      </c>
+      <c r="G113" s="23">
         <v>11</v>
       </c>
-      <c r="H113" s="17">
-        <f t="shared" si="23"/>
+      <c r="H113" s="16">
+        <f t="shared" si="19"/>
         <v>15</v>
       </c>
-      <c r="I113" s="33">
-        <v>0</v>
-      </c>
-      <c r="J113" s="20">
-        <f t="shared" si="24"/>
+      <c r="I113" s="32">
+        <v>0</v>
+      </c>
+      <c r="J113" s="15">
+        <f t="shared" si="20"/>
         <v>153</v>
       </c>
-      <c r="K113" s="20">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="L113" s="27">
-        <v>0</v>
-      </c>
-      <c r="M113" s="28">
+      <c r="K113" s="15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="L113" s="25">
+        <v>0</v>
+      </c>
+      <c r="M113" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A114" s="2">
+        <v>44000</v>
+      </c>
+      <c r="B114" s="19">
+        <f t="shared" si="18"/>
+        <v>1985</v>
+      </c>
+      <c r="C114" s="13">
+        <v>0</v>
+      </c>
+      <c r="D114" s="13">
+        <v>0</v>
+      </c>
+      <c r="E114" s="29">
+        <v>4</v>
+      </c>
+      <c r="F114" s="30">
+        <v>3</v>
+      </c>
+      <c r="G114" s="24">
+        <v>11</v>
+      </c>
+      <c r="H114" s="17">
+        <f t="shared" si="19"/>
+        <v>15</v>
+      </c>
+      <c r="I114" s="33">
+        <v>0</v>
+      </c>
+      <c r="J114" s="20">
+        <f t="shared" si="20"/>
+        <v>153</v>
+      </c>
+      <c r="K114" s="20">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="L114" s="27">
+        <v>0</v>
+      </c>
+      <c r="M114" s="28">
         <v>0</v>
       </c>
     </row>

--- a/Chiffres  COVID-19 Valais.xlsx
+++ b/Chiffres  COVID-19 Valais.xlsx
@@ -99,14 +99,14 @@
     <t>Nb de nouvelles sorties</t>
   </si>
   <si>
-    <t>Données COVID-19 Valais 18.06.2020</t>
+    <t>Données COVID-19 Valais 19.06.2020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,14 +134,6 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -315,6 +307,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -399,9 +394,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -695,21 +687,20 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O114"/>
+  <dimension ref="A1:O115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="3" width="11.453125" style="14"/>
-    <col min="4" max="4" width="10.81640625" style="14"/>
+    <col min="2" max="3" width="11.453125" style="15"/>
+    <col min="4" max="4" width="10.81640625" style="15"/>
     <col min="8" max="9" width="16.1796875" customWidth="1"/>
     <col min="11" max="11" width="14.54296875" customWidth="1"/>
     <col min="12" max="12" width="13.54296875" customWidth="1"/>
-    <col min="13" max="13" width="15.7265625" style="5" customWidth="1"/>
-    <col min="15" max="15" width="11.453125" style="5"/>
+    <col min="13" max="13" width="15.7265625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
@@ -730,59 +721,60 @@
       <c r="M1" s="37"/>
     </row>
     <row r="2" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="11" t="s">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="8" t="s">
+      <c r="F2" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="22" t="s">
+      <c r="L2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="34"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>43889</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="19">
         <f>C3</f>
         <v>1</v>
       </c>
-      <c r="C3" s="12">
-        <v>1</v>
-      </c>
-      <c r="D3" s="12">
+      <c r="C3" s="13">
+        <v>1</v>
+      </c>
+      <c r="D3" s="13">
         <v>6</v>
       </c>
       <c r="E3" s="4">
@@ -791,28 +783,28 @@
       <c r="F3" s="3">
         <v>0</v>
       </c>
-      <c r="G3" s="23">
+      <c r="G3" s="24">
         <v>6</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="17">
         <f t="shared" ref="H3:H34" si="0">G3+E3</f>
         <v>6</v>
       </c>
-      <c r="I3" s="32">
-        <v>0</v>
-      </c>
-      <c r="J3" s="15">
+      <c r="I3" s="33">
+        <v>0</v>
+      </c>
+      <c r="J3" s="16">
         <f>K3</f>
         <v>0</v>
       </c>
-      <c r="K3" s="15">
+      <c r="K3" s="16">
         <f>L3+M3</f>
         <v>0</v>
       </c>
-      <c r="L3" s="25">
-        <v>0</v>
-      </c>
-      <c r="M3" s="26">
+      <c r="L3" s="26">
+        <v>0</v>
+      </c>
+      <c r="M3" s="27">
         <v>0</v>
       </c>
     </row>
@@ -820,14 +812,14 @@
       <c r="A4" s="1">
         <v>43890</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="19">
         <f t="shared" ref="B4:B16" si="1">B3+C4</f>
         <v>1</v>
       </c>
-      <c r="C4" s="12">
-        <v>0</v>
-      </c>
-      <c r="D4" s="12">
+      <c r="C4" s="13">
+        <v>0</v>
+      </c>
+      <c r="D4" s="13">
         <v>0</v>
       </c>
       <c r="E4" s="4">
@@ -836,28 +828,28 @@
       <c r="F4" s="3">
         <v>0</v>
       </c>
-      <c r="G4" s="23">
+      <c r="G4" s="24">
         <v>6</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="17">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="I4" s="32">
-        <v>0</v>
-      </c>
-      <c r="J4" s="15">
+      <c r="I4" s="33">
+        <v>0</v>
+      </c>
+      <c r="J4" s="16">
         <f>J3+K4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="15">
+      <c r="K4" s="16">
         <f t="shared" ref="K4:K16" si="2">L4+M4</f>
         <v>0</v>
       </c>
-      <c r="L4" s="25">
-        <v>0</v>
-      </c>
-      <c r="M4" s="26">
+      <c r="L4" s="26">
+        <v>0</v>
+      </c>
+      <c r="M4" s="27">
         <v>0</v>
       </c>
     </row>
@@ -865,14 +857,14 @@
       <c r="A5" s="1">
         <v>43891</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="19">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="C5" s="12">
-        <v>1</v>
-      </c>
-      <c r="D5" s="12">
+      <c r="C5" s="13">
+        <v>1</v>
+      </c>
+      <c r="D5" s="13">
         <v>1</v>
       </c>
       <c r="E5" s="4">
@@ -881,28 +873,28 @@
       <c r="F5" s="3">
         <v>0</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="24">
         <v>7</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="17">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="I5" s="32">
-        <v>0</v>
-      </c>
-      <c r="J5" s="15">
+      <c r="I5" s="33">
+        <v>0</v>
+      </c>
+      <c r="J5" s="16">
         <f t="shared" ref="J5:J16" si="3">J4+K5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L5" s="25">
-        <v>0</v>
-      </c>
-      <c r="M5" s="26">
+      <c r="L5" s="26">
+        <v>0</v>
+      </c>
+      <c r="M5" s="27">
         <v>0</v>
       </c>
     </row>
@@ -910,14 +902,14 @@
       <c r="A6" s="1">
         <v>43892</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="19">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="C6" s="12">
-        <v>1</v>
-      </c>
-      <c r="D6" s="12">
+      <c r="C6" s="13">
+        <v>1</v>
+      </c>
+      <c r="D6" s="13">
         <v>3</v>
       </c>
       <c r="E6" s="4">
@@ -926,28 +918,28 @@
       <c r="F6" s="3">
         <v>0</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="24">
         <v>10</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="17">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I6" s="32">
-        <v>0</v>
-      </c>
-      <c r="J6" s="15">
+      <c r="I6" s="33">
+        <v>0</v>
+      </c>
+      <c r="J6" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L6" s="25">
-        <v>0</v>
-      </c>
-      <c r="M6" s="26">
+      <c r="L6" s="26">
+        <v>0</v>
+      </c>
+      <c r="M6" s="27">
         <v>0</v>
       </c>
     </row>
@@ -955,14 +947,14 @@
       <c r="A7" s="1">
         <v>43893</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="19">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="C7" s="12">
-        <v>0</v>
-      </c>
-      <c r="D7" s="12">
+      <c r="C7" s="13">
+        <v>0</v>
+      </c>
+      <c r="D7" s="13">
         <v>2</v>
       </c>
       <c r="E7" s="4">
@@ -971,28 +963,28 @@
       <c r="F7" s="3">
         <v>0</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7" s="24">
         <v>12</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="17">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="I7" s="32">
-        <v>0</v>
-      </c>
-      <c r="J7" s="15">
+      <c r="I7" s="33">
+        <v>0</v>
+      </c>
+      <c r="J7" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K7" s="15">
+      <c r="K7" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L7" s="25">
-        <v>0</v>
-      </c>
-      <c r="M7" s="26">
+      <c r="L7" s="26">
+        <v>0</v>
+      </c>
+      <c r="M7" s="27">
         <v>0</v>
       </c>
     </row>
@@ -1000,14 +992,14 @@
       <c r="A8" s="1">
         <v>43894</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="19">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C8" s="12">
-        <v>1</v>
-      </c>
-      <c r="D8" s="12">
+      <c r="C8" s="13">
+        <v>1</v>
+      </c>
+      <c r="D8" s="13">
         <v>1</v>
       </c>
       <c r="E8" s="4">
@@ -1016,28 +1008,28 @@
       <c r="F8" s="3">
         <v>0</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G8" s="24">
         <v>13</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="17">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="I8" s="32">
-        <v>0</v>
-      </c>
-      <c r="J8" s="15">
+      <c r="I8" s="33">
+        <v>0</v>
+      </c>
+      <c r="J8" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K8" s="15">
+      <c r="K8" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L8" s="25">
-        <v>0</v>
-      </c>
-      <c r="M8" s="26">
+      <c r="L8" s="26">
+        <v>0</v>
+      </c>
+      <c r="M8" s="27">
         <v>0</v>
       </c>
     </row>
@@ -1045,14 +1037,14 @@
       <c r="A9" s="1">
         <v>43895</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="19">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C9" s="12">
-        <v>1</v>
-      </c>
-      <c r="D9" s="12">
+      <c r="C9" s="13">
+        <v>1</v>
+      </c>
+      <c r="D9" s="13">
         <v>0</v>
       </c>
       <c r="E9" s="4">
@@ -1061,28 +1053,28 @@
       <c r="F9" s="3">
         <v>0</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G9" s="24">
         <v>11</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="17">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="I9" s="32">
-        <v>2</v>
-      </c>
-      <c r="J9" s="15">
+      <c r="I9" s="33">
+        <v>2</v>
+      </c>
+      <c r="J9" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K9" s="15">
+      <c r="K9" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L9" s="25">
-        <v>0</v>
-      </c>
-      <c r="M9" s="26">
+      <c r="L9" s="26">
+        <v>0</v>
+      </c>
+      <c r="M9" s="27">
         <v>0</v>
       </c>
     </row>
@@ -1090,14 +1082,14 @@
       <c r="A10" s="1">
         <v>43896</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="19">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C10" s="12">
-        <v>1</v>
-      </c>
-      <c r="D10" s="12">
+      <c r="C10" s="13">
+        <v>1</v>
+      </c>
+      <c r="D10" s="13">
         <v>1</v>
       </c>
       <c r="E10" s="4">
@@ -1106,28 +1098,28 @@
       <c r="F10" s="3">
         <v>0</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10" s="24">
         <v>12</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10" s="17">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="I10" s="32">
-        <v>0</v>
-      </c>
-      <c r="J10" s="15">
+      <c r="I10" s="33">
+        <v>0</v>
+      </c>
+      <c r="J10" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K10" s="15">
+      <c r="K10" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L10" s="25">
-        <v>0</v>
-      </c>
-      <c r="M10" s="26">
+      <c r="L10" s="26">
+        <v>0</v>
+      </c>
+      <c r="M10" s="27">
         <v>0</v>
       </c>
     </row>
@@ -1135,14 +1127,14 @@
       <c r="A11" s="1">
         <v>43897</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="19">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C11" s="12">
-        <v>1</v>
-      </c>
-      <c r="D11" s="12">
+      <c r="C11" s="13">
+        <v>1</v>
+      </c>
+      <c r="D11" s="13">
         <v>0</v>
       </c>
       <c r="E11" s="4">
@@ -1151,28 +1143,28 @@
       <c r="F11" s="3">
         <v>0</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11" s="24">
         <v>12</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H11" s="17">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="I11" s="32">
-        <v>0</v>
-      </c>
-      <c r="J11" s="15">
+      <c r="I11" s="33">
+        <v>0</v>
+      </c>
+      <c r="J11" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K11" s="15">
+      <c r="K11" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L11" s="25">
-        <v>0</v>
-      </c>
-      <c r="M11" s="26">
+      <c r="L11" s="26">
+        <v>0</v>
+      </c>
+      <c r="M11" s="27">
         <v>0</v>
       </c>
     </row>
@@ -1180,14 +1172,14 @@
       <c r="A12" s="1">
         <v>43898</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="19">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="13">
         <v>5</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="13">
         <v>4</v>
       </c>
       <c r="E12" s="4">
@@ -1196,28 +1188,28 @@
       <c r="F12" s="3">
         <v>1</v>
       </c>
-      <c r="G12" s="23">
+      <c r="G12" s="24">
         <v>15</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H12" s="17">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="I12" s="32">
-        <v>0</v>
-      </c>
-      <c r="J12" s="15">
+      <c r="I12" s="33">
+        <v>0</v>
+      </c>
+      <c r="J12" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K12" s="15">
+      <c r="K12" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L12" s="25">
-        <v>0</v>
-      </c>
-      <c r="M12" s="26">
+      <c r="L12" s="26">
+        <v>0</v>
+      </c>
+      <c r="M12" s="27">
         <v>0</v>
       </c>
     </row>
@@ -1225,14 +1217,14 @@
       <c r="A13" s="1">
         <v>43899</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="19">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="13">
         <v>5</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="13">
         <v>1</v>
       </c>
       <c r="E13" s="4">
@@ -1241,28 +1233,28 @@
       <c r="F13" s="3">
         <v>1</v>
       </c>
-      <c r="G13" s="23">
+      <c r="G13" s="24">
         <v>16</v>
       </c>
-      <c r="H13" s="16">
+      <c r="H13" s="17">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="I13" s="32">
-        <v>0</v>
-      </c>
-      <c r="J13" s="15">
+      <c r="I13" s="33">
+        <v>0</v>
+      </c>
+      <c r="J13" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K13" s="15">
+      <c r="K13" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L13" s="25">
-        <v>0</v>
-      </c>
-      <c r="M13" s="26">
+      <c r="L13" s="26">
+        <v>0</v>
+      </c>
+      <c r="M13" s="27">
         <v>0</v>
       </c>
     </row>
@@ -1270,14 +1262,14 @@
       <c r="A14" s="1">
         <v>43900</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="19">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="13">
         <v>5</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="13">
         <v>3</v>
       </c>
       <c r="E14" s="4">
@@ -1286,28 +1278,28 @@
       <c r="F14" s="3">
         <v>1</v>
       </c>
-      <c r="G14" s="23">
+      <c r="G14" s="24">
         <v>19</v>
       </c>
-      <c r="H14" s="16">
+      <c r="H14" s="17">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="I14" s="32">
-        <v>0</v>
-      </c>
-      <c r="J14" s="15">
+      <c r="I14" s="33">
+        <v>0</v>
+      </c>
+      <c r="J14" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K14" s="15">
+      <c r="K14" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L14" s="25">
-        <v>0</v>
-      </c>
-      <c r="M14" s="26">
+      <c r="L14" s="26">
+        <v>0</v>
+      </c>
+      <c r="M14" s="27">
         <v>0</v>
       </c>
     </row>
@@ -1315,14 +1307,14 @@
       <c r="A15" s="1">
         <v>43901</v>
       </c>
-      <c r="B15" s="18">
+      <c r="B15" s="19">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="13">
         <v>8</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="13">
         <v>2</v>
       </c>
       <c r="E15" s="4">
@@ -1331,28 +1323,28 @@
       <c r="F15" s="3">
         <v>1</v>
       </c>
-      <c r="G15" s="23">
+      <c r="G15" s="24">
         <v>20</v>
       </c>
-      <c r="H15" s="16">
+      <c r="H15" s="17">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="I15" s="32">
-        <v>1</v>
-      </c>
-      <c r="J15" s="15">
+      <c r="I15" s="33">
+        <v>1</v>
+      </c>
+      <c r="J15" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K15" s="15">
+      <c r="K15" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L15" s="25">
-        <v>0</v>
-      </c>
-      <c r="M15" s="26">
+      <c r="L15" s="26">
+        <v>0</v>
+      </c>
+      <c r="M15" s="27">
         <v>0</v>
       </c>
     </row>
@@ -1360,14 +1352,14 @@
       <c r="A16" s="1">
         <v>43902</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B16" s="19">
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="13">
         <v>23</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="13">
         <v>7</v>
       </c>
       <c r="E16" s="4">
@@ -1376,28 +1368,28 @@
       <c r="F16" s="3">
         <v>1</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="24">
         <v>27</v>
       </c>
-      <c r="H16" s="16">
+      <c r="H16" s="17">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="I16" s="32">
-        <v>0</v>
-      </c>
-      <c r="J16" s="15">
+      <c r="I16" s="33">
+        <v>0</v>
+      </c>
+      <c r="J16" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K16" s="15">
+      <c r="K16" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L16" s="25">
-        <v>0</v>
-      </c>
-      <c r="M16" s="26">
+      <c r="L16" s="26">
+        <v>0</v>
+      </c>
+      <c r="M16" s="27">
         <v>0</v>
       </c>
     </row>
@@ -1405,14 +1397,14 @@
       <c r="A17" s="1">
         <v>43903</v>
       </c>
-      <c r="B17" s="18">
+      <c r="B17" s="19">
         <f t="shared" ref="B17" si="4">B16+C17</f>
         <v>76</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="13">
         <v>23</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="13">
         <v>4</v>
       </c>
       <c r="E17" s="4">
@@ -1421,28 +1413,28 @@
       <c r="F17" s="3">
         <v>1</v>
       </c>
-      <c r="G17" s="23">
+      <c r="G17" s="24">
         <v>29</v>
       </c>
-      <c r="H17" s="16">
+      <c r="H17" s="17">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="I17" s="32">
-        <v>2</v>
-      </c>
-      <c r="J17" s="15">
+      <c r="I17" s="33">
+        <v>2</v>
+      </c>
+      <c r="J17" s="16">
         <f t="shared" ref="J17" si="5">J16+K17</f>
         <v>1</v>
       </c>
-      <c r="K17" s="15">
+      <c r="K17" s="16">
         <f t="shared" ref="K17" si="6">L17+M17</f>
         <v>1</v>
       </c>
-      <c r="L17" s="25">
-        <v>0</v>
-      </c>
-      <c r="M17" s="26">
+      <c r="L17" s="26">
+        <v>0</v>
+      </c>
+      <c r="M17" s="27">
         <v>1</v>
       </c>
     </row>
@@ -1450,14 +1442,14 @@
       <c r="A18" s="1">
         <v>43904</v>
       </c>
-      <c r="B18" s="18">
+      <c r="B18" s="19">
         <f t="shared" ref="B18:B22" si="7">B17+C18</f>
         <v>98</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="13">
         <v>22</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="13">
         <v>5</v>
       </c>
       <c r="E18" s="4">
@@ -1466,28 +1458,28 @@
       <c r="F18" s="3">
         <v>1</v>
       </c>
-      <c r="G18" s="23">
+      <c r="G18" s="24">
         <v>33</v>
       </c>
-      <c r="H18" s="16">
+      <c r="H18" s="17">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="I18" s="32">
-        <v>1</v>
-      </c>
-      <c r="J18" s="15">
+      <c r="I18" s="33">
+        <v>1</v>
+      </c>
+      <c r="J18" s="16">
         <f t="shared" ref="J18:J22" si="8">J17+K18</f>
         <v>1</v>
       </c>
-      <c r="K18" s="15">
+      <c r="K18" s="16">
         <f t="shared" ref="K18:K22" si="9">L18+M18</f>
         <v>0</v>
       </c>
-      <c r="L18" s="25">
-        <v>0</v>
-      </c>
-      <c r="M18" s="26">
+      <c r="L18" s="26">
+        <v>0</v>
+      </c>
+      <c r="M18" s="27">
         <v>0</v>
       </c>
     </row>
@@ -1495,14 +1487,14 @@
       <c r="A19" s="1">
         <v>43905</v>
       </c>
-      <c r="B19" s="18">
+      <c r="B19" s="19">
         <f t="shared" si="7"/>
         <v>115</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="13">
         <v>17</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="13">
         <v>3</v>
       </c>
       <c r="E19" s="4">
@@ -1511,28 +1503,28 @@
       <c r="F19" s="3">
         <v>1</v>
       </c>
-      <c r="G19" s="23">
+      <c r="G19" s="24">
         <v>35</v>
       </c>
-      <c r="H19" s="16">
+      <c r="H19" s="17">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="I19" s="32">
-        <v>0</v>
-      </c>
-      <c r="J19" s="15">
+      <c r="I19" s="33">
+        <v>0</v>
+      </c>
+      <c r="J19" s="16">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="K19" s="15">
+      <c r="K19" s="16">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="L19" s="25">
-        <v>1</v>
-      </c>
-      <c r="M19" s="26">
+      <c r="L19" s="26">
+        <v>1</v>
+      </c>
+      <c r="M19" s="27">
         <v>0</v>
       </c>
     </row>
@@ -1540,14 +1532,14 @@
       <c r="A20" s="1">
         <v>43906</v>
       </c>
-      <c r="B20" s="18">
+      <c r="B20" s="19">
         <f t="shared" si="7"/>
         <v>172</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="13">
         <v>57</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="13">
         <v>9</v>
       </c>
       <c r="E20" s="4">
@@ -1556,28 +1548,28 @@
       <c r="F20" s="3">
         <v>1</v>
       </c>
-      <c r="G20" s="23">
+      <c r="G20" s="24">
         <v>40</v>
       </c>
-      <c r="H20" s="16">
+      <c r="H20" s="17">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="I20" s="32">
-        <v>2</v>
-      </c>
-      <c r="J20" s="15">
+      <c r="I20" s="33">
+        <v>2</v>
+      </c>
+      <c r="J20" s="16">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="K20" s="15">
+      <c r="K20" s="16">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="L20" s="25">
-        <v>1</v>
-      </c>
-      <c r="M20" s="26">
+      <c r="L20" s="26">
+        <v>1</v>
+      </c>
+      <c r="M20" s="27">
         <v>0</v>
       </c>
     </row>
@@ -1585,14 +1577,14 @@
       <c r="A21" s="1">
         <v>43907</v>
       </c>
-      <c r="B21" s="18">
+      <c r="B21" s="19">
         <f t="shared" si="7"/>
         <v>225</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="13">
         <v>53</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="13">
         <v>8</v>
       </c>
       <c r="E21" s="4">
@@ -1601,28 +1593,28 @@
       <c r="F21" s="3">
         <v>2</v>
       </c>
-      <c r="G21" s="23">
+      <c r="G21" s="24">
         <v>45</v>
       </c>
-      <c r="H21" s="16">
+      <c r="H21" s="17">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="I21" s="32">
-        <v>3</v>
-      </c>
-      <c r="J21" s="15">
+      <c r="I21" s="33">
+        <v>3</v>
+      </c>
+      <c r="J21" s="16">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="K21" s="15">
+      <c r="K21" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L21" s="25">
-        <v>0</v>
-      </c>
-      <c r="M21" s="26">
+      <c r="L21" s="26">
+        <v>0</v>
+      </c>
+      <c r="M21" s="27">
         <v>0</v>
       </c>
     </row>
@@ -1630,14 +1622,14 @@
       <c r="A22" s="1">
         <v>43908</v>
       </c>
-      <c r="B22" s="18">
+      <c r="B22" s="19">
         <f t="shared" si="7"/>
         <v>312</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="13">
         <v>87</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="13">
         <v>12</v>
       </c>
       <c r="E22" s="4">
@@ -1646,28 +1638,28 @@
       <c r="F22" s="3">
         <v>2</v>
       </c>
-      <c r="G22" s="23">
+      <c r="G22" s="24">
         <v>57</v>
       </c>
-      <c r="H22" s="16">
+      <c r="H22" s="17">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="I22" s="32">
-        <v>0</v>
-      </c>
-      <c r="J22" s="15">
+      <c r="I22" s="33">
+        <v>0</v>
+      </c>
+      <c r="J22" s="16">
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="K22" s="15">
+      <c r="K22" s="16">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="L22" s="25">
-        <v>0</v>
-      </c>
-      <c r="M22" s="26">
+      <c r="L22" s="26">
+        <v>0</v>
+      </c>
+      <c r="M22" s="27">
         <v>1</v>
       </c>
     </row>
@@ -1675,14 +1667,14 @@
       <c r="A23" s="1">
         <v>43909</v>
       </c>
-      <c r="B23" s="18">
-        <f t="shared" ref="B23:B41" si="10">B22+C23</f>
+      <c r="B23" s="19">
+        <f t="shared" ref="B23:B66" si="10">B22+C23</f>
         <v>349</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="13">
         <v>37</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="13">
         <v>8</v>
       </c>
       <c r="E23" s="4">
@@ -1691,28 +1683,28 @@
       <c r="F23" s="3">
         <v>5</v>
       </c>
-      <c r="G23" s="23">
+      <c r="G23" s="24">
         <v>59</v>
       </c>
-      <c r="H23" s="16">
+      <c r="H23" s="17">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="I23" s="32">
-        <v>1</v>
-      </c>
-      <c r="J23" s="15">
-        <f t="shared" ref="J23:J41" si="11">J22+K23</f>
+      <c r="I23" s="33">
+        <v>1</v>
+      </c>
+      <c r="J23" s="16">
+        <f t="shared" ref="J23:J66" si="11">J22+K23</f>
         <v>6</v>
       </c>
-      <c r="K23" s="15">
-        <f t="shared" ref="K23:K41" si="12">L23+M23</f>
-        <v>2</v>
-      </c>
-      <c r="L23" s="25">
-        <v>2</v>
-      </c>
-      <c r="M23" s="26">
+      <c r="K23" s="16">
+        <f t="shared" ref="K23:K66" si="12">L23+M23</f>
+        <v>2</v>
+      </c>
+      <c r="L23" s="26">
+        <v>2</v>
+      </c>
+      <c r="M23" s="27">
         <v>0</v>
       </c>
     </row>
@@ -1720,14 +1712,14 @@
       <c r="A24" s="1">
         <v>43910</v>
       </c>
-      <c r="B24" s="18">
+      <c r="B24" s="19">
         <f t="shared" si="10"/>
         <v>436</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="13">
         <v>87</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="13">
         <v>12</v>
       </c>
       <c r="E24" s="4">
@@ -1736,28 +1728,28 @@
       <c r="F24" s="3">
         <v>5</v>
       </c>
-      <c r="G24" s="23">
+      <c r="G24" s="24">
         <v>67</v>
       </c>
-      <c r="H24" s="16">
+      <c r="H24" s="17">
         <f t="shared" si="0"/>
         <v>73</v>
       </c>
-      <c r="I24" s="32">
-        <v>3</v>
-      </c>
-      <c r="J24" s="15">
+      <c r="I24" s="33">
+        <v>3</v>
+      </c>
+      <c r="J24" s="16">
         <f t="shared" si="11"/>
         <v>7</v>
       </c>
-      <c r="K24" s="15">
+      <c r="K24" s="16">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="L24" s="25">
-        <v>0</v>
-      </c>
-      <c r="M24" s="26">
+      <c r="L24" s="26">
+        <v>0</v>
+      </c>
+      <c r="M24" s="27">
         <v>1</v>
       </c>
     </row>
@@ -1765,14 +1757,14 @@
       <c r="A25" s="1">
         <v>43911</v>
       </c>
-      <c r="B25" s="18">
+      <c r="B25" s="19">
         <f t="shared" si="10"/>
         <v>498</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="13">
         <v>62</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="13">
         <v>15</v>
       </c>
       <c r="E25" s="4">
@@ -1781,28 +1773,28 @@
       <c r="F25" s="3">
         <v>6</v>
       </c>
-      <c r="G25" s="23">
+      <c r="G25" s="24">
         <v>75</v>
       </c>
-      <c r="H25" s="16">
+      <c r="H25" s="17">
         <f t="shared" si="0"/>
         <v>83</v>
       </c>
-      <c r="I25" s="32">
-        <v>2</v>
-      </c>
-      <c r="J25" s="15">
+      <c r="I25" s="33">
+        <v>2</v>
+      </c>
+      <c r="J25" s="16">
         <f t="shared" si="11"/>
         <v>10</v>
       </c>
-      <c r="K25" s="15">
+      <c r="K25" s="16">
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="L25" s="25">
-        <v>3</v>
-      </c>
-      <c r="M25" s="26">
+      <c r="L25" s="26">
+        <v>3</v>
+      </c>
+      <c r="M25" s="27">
         <v>0</v>
       </c>
     </row>
@@ -1810,14 +1802,14 @@
       <c r="A26" s="1">
         <v>43912</v>
       </c>
-      <c r="B26" s="18">
+      <c r="B26" s="19">
         <f t="shared" si="10"/>
         <v>535</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="13">
         <v>37</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D26" s="13">
         <v>11</v>
       </c>
       <c r="E26" s="4">
@@ -1826,28 +1818,28 @@
       <c r="F26" s="3">
         <v>7</v>
       </c>
-      <c r="G26" s="23">
+      <c r="G26" s="24">
         <v>81</v>
       </c>
-      <c r="H26" s="16">
+      <c r="H26" s="17">
         <f t="shared" si="0"/>
         <v>92</v>
       </c>
-      <c r="I26" s="32">
-        <v>2</v>
-      </c>
-      <c r="J26" s="15">
+      <c r="I26" s="33">
+        <v>2</v>
+      </c>
+      <c r="J26" s="16">
         <f t="shared" si="11"/>
         <v>11</v>
       </c>
-      <c r="K26" s="15">
+      <c r="K26" s="16">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="L26" s="25">
-        <v>0</v>
-      </c>
-      <c r="M26" s="26">
+      <c r="L26" s="26">
+        <v>0</v>
+      </c>
+      <c r="M26" s="27">
         <v>1</v>
       </c>
     </row>
@@ -1855,14 +1847,14 @@
       <c r="A27" s="1">
         <v>43913</v>
       </c>
-      <c r="B27" s="18">
+      <c r="B27" s="19">
         <f t="shared" si="10"/>
         <v>628</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="13">
         <v>93</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="13">
         <v>18</v>
       </c>
       <c r="E27" s="4">
@@ -1871,28 +1863,28 @@
       <c r="F27" s="3">
         <v>9</v>
       </c>
-      <c r="G27" s="23">
+      <c r="G27" s="24">
         <v>92</v>
       </c>
-      <c r="H27" s="16">
+      <c r="H27" s="17">
         <f t="shared" si="0"/>
         <v>104</v>
       </c>
-      <c r="I27" s="32">
+      <c r="I27" s="33">
         <v>5</v>
       </c>
-      <c r="J27" s="15">
+      <c r="J27" s="16">
         <f t="shared" si="11"/>
         <v>13</v>
       </c>
-      <c r="K27" s="15">
+      <c r="K27" s="16">
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="L27" s="25">
-        <v>1</v>
-      </c>
-      <c r="M27" s="26">
+      <c r="L27" s="26">
+        <v>1</v>
+      </c>
+      <c r="M27" s="27">
         <v>1</v>
       </c>
     </row>
@@ -1900,14 +1892,14 @@
       <c r="A28" s="1">
         <v>43914</v>
       </c>
-      <c r="B28" s="18">
+      <c r="B28" s="19">
         <f t="shared" si="10"/>
         <v>728</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C28" s="13">
         <v>100</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="13">
         <v>16</v>
       </c>
       <c r="E28" s="4">
@@ -1916,28 +1908,28 @@
       <c r="F28" s="3">
         <v>12</v>
       </c>
-      <c r="G28" s="23">
+      <c r="G28" s="24">
         <v>105</v>
       </c>
-      <c r="H28" s="16">
+      <c r="H28" s="17">
         <f t="shared" si="0"/>
         <v>118</v>
       </c>
-      <c r="I28" s="32">
-        <v>1</v>
-      </c>
-      <c r="J28" s="15">
+      <c r="I28" s="33">
+        <v>1</v>
+      </c>
+      <c r="J28" s="16">
         <f t="shared" si="11"/>
         <v>14</v>
       </c>
-      <c r="K28" s="15">
+      <c r="K28" s="16">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="L28" s="25">
-        <v>1</v>
-      </c>
-      <c r="M28" s="26">
+      <c r="L28" s="26">
+        <v>1</v>
+      </c>
+      <c r="M28" s="27">
         <v>0</v>
       </c>
     </row>
@@ -1945,14 +1937,14 @@
       <c r="A29" s="1">
         <v>43915</v>
       </c>
-      <c r="B29" s="18">
+      <c r="B29" s="19">
         <f t="shared" si="10"/>
         <v>793</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C29" s="13">
         <v>65</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D29" s="13">
         <v>12</v>
       </c>
       <c r="E29" s="4">
@@ -1961,28 +1953,28 @@
       <c r="F29" s="3">
         <v>14</v>
       </c>
-      <c r="G29" s="23">
+      <c r="G29" s="24">
         <v>104</v>
       </c>
-      <c r="H29" s="16">
+      <c r="H29" s="17">
         <f t="shared" si="0"/>
         <v>119</v>
       </c>
-      <c r="I29" s="32">
+      <c r="I29" s="33">
         <v>10</v>
       </c>
-      <c r="J29" s="15">
+      <c r="J29" s="16">
         <f t="shared" si="11"/>
         <v>15</v>
       </c>
-      <c r="K29" s="15">
+      <c r="K29" s="16">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="L29" s="25">
-        <v>1</v>
-      </c>
-      <c r="M29" s="26">
+      <c r="L29" s="26">
+        <v>1</v>
+      </c>
+      <c r="M29" s="27">
         <v>0</v>
       </c>
     </row>
@@ -1990,14 +1982,14 @@
       <c r="A30" s="1">
         <v>43916</v>
       </c>
-      <c r="B30" s="18">
+      <c r="B30" s="19">
         <f t="shared" si="10"/>
         <v>874</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C30" s="13">
         <v>81</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D30" s="13">
         <v>18</v>
       </c>
       <c r="E30" s="4">
@@ -2006,28 +1998,28 @@
       <c r="F30" s="3">
         <v>17</v>
       </c>
-      <c r="G30" s="23">
+      <c r="G30" s="24">
         <v>110</v>
       </c>
-      <c r="H30" s="16">
+      <c r="H30" s="17">
         <f t="shared" si="0"/>
         <v>129</v>
       </c>
-      <c r="I30" s="32">
+      <c r="I30" s="33">
         <v>6</v>
       </c>
-      <c r="J30" s="15">
+      <c r="J30" s="16">
         <f t="shared" si="11"/>
         <v>17</v>
       </c>
-      <c r="K30" s="15">
+      <c r="K30" s="16">
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="L30" s="25">
-        <v>2</v>
-      </c>
-      <c r="M30" s="26">
+      <c r="L30" s="26">
+        <v>2</v>
+      </c>
+      <c r="M30" s="27">
         <v>0</v>
       </c>
     </row>
@@ -2035,14 +2027,14 @@
       <c r="A31" s="1">
         <v>43917</v>
       </c>
-      <c r="B31" s="18">
+      <c r="B31" s="19">
         <f t="shared" si="10"/>
         <v>968</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="13">
         <v>94</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D31" s="13">
         <v>20</v>
       </c>
       <c r="E31" s="4">
@@ -2051,28 +2043,28 @@
       <c r="F31" s="3">
         <v>16</v>
       </c>
-      <c r="G31" s="23">
+      <c r="G31" s="24">
         <v>118</v>
       </c>
-      <c r="H31" s="16">
+      <c r="H31" s="17">
         <f t="shared" si="0"/>
         <v>138</v>
       </c>
-      <c r="I31" s="32">
+      <c r="I31" s="33">
         <v>9</v>
       </c>
-      <c r="J31" s="15">
+      <c r="J31" s="16">
         <f t="shared" si="11"/>
         <v>21</v>
       </c>
-      <c r="K31" s="15">
+      <c r="K31" s="16">
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="L31" s="25">
-        <v>2</v>
-      </c>
-      <c r="M31" s="26">
+      <c r="L31" s="26">
+        <v>2</v>
+      </c>
+      <c r="M31" s="27">
         <v>2</v>
       </c>
     </row>
@@ -2080,14 +2072,14 @@
       <c r="A32" s="1">
         <v>43918</v>
       </c>
-      <c r="B32" s="18">
+      <c r="B32" s="19">
         <f t="shared" si="10"/>
         <v>1017</v>
       </c>
-      <c r="C32" s="12">
+      <c r="C32" s="13">
         <v>49</v>
       </c>
-      <c r="D32" s="12">
+      <c r="D32" s="13">
         <v>10</v>
       </c>
       <c r="E32" s="4">
@@ -2096,28 +2088,28 @@
       <c r="F32" s="3">
         <v>19</v>
       </c>
-      <c r="G32" s="23">
+      <c r="G32" s="24">
         <v>122</v>
       </c>
-      <c r="H32" s="16">
+      <c r="H32" s="17">
         <f t="shared" si="0"/>
         <v>143</v>
       </c>
-      <c r="I32" s="32">
-        <v>3</v>
-      </c>
-      <c r="J32" s="15">
+      <c r="I32" s="33">
+        <v>3</v>
+      </c>
+      <c r="J32" s="16">
         <f t="shared" si="11"/>
         <v>25</v>
       </c>
-      <c r="K32" s="15">
+      <c r="K32" s="16">
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="L32" s="25">
-        <v>2</v>
-      </c>
-      <c r="M32" s="26">
+      <c r="L32" s="26">
+        <v>2</v>
+      </c>
+      <c r="M32" s="27">
         <v>2</v>
       </c>
     </row>
@@ -2125,14 +2117,14 @@
       <c r="A33" s="1">
         <v>43919</v>
       </c>
-      <c r="B33" s="18">
+      <c r="B33" s="19">
         <f t="shared" si="10"/>
         <v>1055</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C33" s="13">
         <v>38</v>
       </c>
-      <c r="D33" s="12">
+      <c r="D33" s="13">
         <v>13</v>
       </c>
       <c r="E33" s="4">
@@ -2141,28 +2133,28 @@
       <c r="F33" s="3">
         <v>21</v>
       </c>
-      <c r="G33" s="23">
+      <c r="G33" s="24">
         <v>131</v>
       </c>
-      <c r="H33" s="16">
+      <c r="H33" s="17">
         <f t="shared" si="0"/>
         <v>153</v>
       </c>
-      <c r="I33" s="32">
-        <v>1</v>
-      </c>
-      <c r="J33" s="15">
+      <c r="I33" s="33">
+        <v>1</v>
+      </c>
+      <c r="J33" s="16">
         <f t="shared" si="11"/>
         <v>31</v>
       </c>
-      <c r="K33" s="15">
+      <c r="K33" s="16">
         <f t="shared" si="12"/>
         <v>6</v>
       </c>
-      <c r="L33" s="25">
-        <v>2</v>
-      </c>
-      <c r="M33" s="26">
+      <c r="L33" s="26">
+        <v>2</v>
+      </c>
+      <c r="M33" s="27">
         <v>4</v>
       </c>
     </row>
@@ -2170,14 +2162,14 @@
       <c r="A34" s="1">
         <v>43920</v>
       </c>
-      <c r="B34" s="18">
+      <c r="B34" s="19">
         <f t="shared" si="10"/>
         <v>1144</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="13">
         <v>89</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D34" s="13">
         <v>20</v>
       </c>
       <c r="E34" s="4">
@@ -2186,28 +2178,28 @@
       <c r="F34" s="3">
         <v>23</v>
       </c>
-      <c r="G34" s="23">
+      <c r="G34" s="24">
         <v>129</v>
       </c>
-      <c r="H34" s="16">
+      <c r="H34" s="17">
         <f t="shared" si="0"/>
         <v>154</v>
       </c>
-      <c r="I34" s="32">
+      <c r="I34" s="33">
         <v>17</v>
       </c>
-      <c r="J34" s="15">
+      <c r="J34" s="16">
         <f t="shared" si="11"/>
         <v>35</v>
       </c>
-      <c r="K34" s="15">
+      <c r="K34" s="16">
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="L34" s="25">
-        <v>2</v>
-      </c>
-      <c r="M34" s="26">
+      <c r="L34" s="26">
+        <v>2</v>
+      </c>
+      <c r="M34" s="27">
         <v>2</v>
       </c>
     </row>
@@ -2215,14 +2207,14 @@
       <c r="A35" s="1">
         <v>43921</v>
       </c>
-      <c r="B35" s="18">
+      <c r="B35" s="19">
         <f t="shared" si="10"/>
         <v>1211</v>
       </c>
-      <c r="C35" s="12">
+      <c r="C35" s="13">
         <v>67</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D35" s="13">
         <v>11</v>
       </c>
       <c r="E35" s="4">
@@ -2231,28 +2223,28 @@
       <c r="F35" s="3">
         <v>23</v>
       </c>
-      <c r="G35" s="23">
+      <c r="G35" s="24">
         <v>129</v>
       </c>
-      <c r="H35" s="16">
-        <f t="shared" ref="H35:H41" si="13">G35+E35</f>
+      <c r="H35" s="17">
+        <f t="shared" ref="H35:H66" si="13">G35+E35</f>
         <v>153</v>
       </c>
-      <c r="I35" s="32">
+      <c r="I35" s="33">
         <v>10</v>
       </c>
-      <c r="J35" s="15">
+      <c r="J35" s="16">
         <f t="shared" si="11"/>
         <v>37</v>
       </c>
-      <c r="K35" s="15">
+      <c r="K35" s="16">
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="L35" s="25">
-        <v>2</v>
-      </c>
-      <c r="M35" s="26">
+      <c r="L35" s="26">
+        <v>2</v>
+      </c>
+      <c r="M35" s="27">
         <v>0</v>
       </c>
     </row>
@@ -2260,14 +2252,14 @@
       <c r="A36" s="1">
         <v>43922</v>
       </c>
-      <c r="B36" s="18">
+      <c r="B36" s="19">
         <f t="shared" si="10"/>
         <v>1282</v>
       </c>
-      <c r="C36" s="12">
+      <c r="C36" s="13">
         <v>71</v>
       </c>
-      <c r="D36" s="12">
+      <c r="D36" s="13">
         <v>11</v>
       </c>
       <c r="E36" s="4">
@@ -2276,28 +2268,28 @@
       <c r="F36" s="3">
         <v>25</v>
       </c>
-      <c r="G36" s="23">
+      <c r="G36" s="24">
         <v>121</v>
       </c>
-      <c r="H36" s="16">
+      <c r="H36" s="17">
         <f t="shared" si="13"/>
         <v>147</v>
       </c>
-      <c r="I36" s="32">
+      <c r="I36" s="33">
         <v>15</v>
       </c>
-      <c r="J36" s="15">
+      <c r="J36" s="16">
         <f t="shared" si="11"/>
         <v>40</v>
       </c>
-      <c r="K36" s="15">
+      <c r="K36" s="16">
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="L36" s="25">
-        <v>2</v>
-      </c>
-      <c r="M36" s="26">
+      <c r="L36" s="26">
+        <v>2</v>
+      </c>
+      <c r="M36" s="27">
         <v>1</v>
       </c>
     </row>
@@ -2305,14 +2297,14 @@
       <c r="A37" s="1">
         <v>43923</v>
       </c>
-      <c r="B37" s="18">
+      <c r="B37" s="19">
         <f t="shared" si="10"/>
         <v>1334</v>
       </c>
-      <c r="C37" s="12">
+      <c r="C37" s="13">
         <v>52</v>
       </c>
-      <c r="D37" s="12">
+      <c r="D37" s="13">
         <v>12</v>
       </c>
       <c r="E37" s="4">
@@ -2321,28 +2313,28 @@
       <c r="F37" s="3">
         <v>24</v>
       </c>
-      <c r="G37" s="23">
+      <c r="G37" s="24">
         <v>119</v>
       </c>
-      <c r="H37" s="16">
+      <c r="H37" s="17">
         <f t="shared" si="13"/>
         <v>147</v>
       </c>
-      <c r="I37" s="32">
+      <c r="I37" s="33">
         <v>8</v>
       </c>
-      <c r="J37" s="15">
+      <c r="J37" s="16">
         <f t="shared" si="11"/>
         <v>47</v>
       </c>
-      <c r="K37" s="15">
+      <c r="K37" s="16">
         <f t="shared" si="12"/>
         <v>7</v>
       </c>
-      <c r="L37" s="25">
-        <v>4</v>
-      </c>
-      <c r="M37" s="26">
+      <c r="L37" s="26">
+        <v>4</v>
+      </c>
+      <c r="M37" s="27">
         <v>3</v>
       </c>
     </row>
@@ -2350,14 +2342,14 @@
       <c r="A38" s="1">
         <v>43924</v>
       </c>
-      <c r="B38" s="18">
+      <c r="B38" s="19">
         <f t="shared" si="10"/>
         <v>1385</v>
       </c>
-      <c r="C38" s="12">
+      <c r="C38" s="13">
         <v>51</v>
       </c>
-      <c r="D38" s="12">
+      <c r="D38" s="13">
         <v>6</v>
       </c>
       <c r="E38" s="4">
@@ -2366,28 +2358,28 @@
       <c r="F38" s="3">
         <v>23</v>
       </c>
-      <c r="G38" s="23">
+      <c r="G38" s="24">
         <v>121</v>
       </c>
-      <c r="H38" s="16">
+      <c r="H38" s="17">
         <f t="shared" si="13"/>
         <v>147</v>
       </c>
-      <c r="I38" s="32">
+      <c r="I38" s="33">
         <v>5</v>
       </c>
-      <c r="J38" s="15">
+      <c r="J38" s="16">
         <f t="shared" si="11"/>
         <v>51</v>
       </c>
-      <c r="K38" s="15">
+      <c r="K38" s="16">
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="L38" s="25">
-        <v>1</v>
-      </c>
-      <c r="M38" s="26">
+      <c r="L38" s="26">
+        <v>1</v>
+      </c>
+      <c r="M38" s="27">
         <v>3</v>
       </c>
     </row>
@@ -2395,14 +2387,14 @@
       <c r="A39" s="1">
         <v>43925</v>
       </c>
-      <c r="B39" s="18">
+      <c r="B39" s="19">
         <f t="shared" si="10"/>
         <v>1418</v>
       </c>
-      <c r="C39" s="12">
+      <c r="C39" s="13">
         <v>33</v>
       </c>
-      <c r="D39" s="12">
+      <c r="D39" s="13">
         <v>6</v>
       </c>
       <c r="E39" s="4">
@@ -2411,28 +2403,28 @@
       <c r="F39" s="3">
         <v>23</v>
       </c>
-      <c r="G39" s="23">
+      <c r="G39" s="24">
         <v>122</v>
       </c>
-      <c r="H39" s="16">
+      <c r="H39" s="17">
         <f t="shared" si="13"/>
         <v>150</v>
       </c>
-      <c r="I39" s="32">
-        <v>3</v>
-      </c>
-      <c r="J39" s="15">
+      <c r="I39" s="33">
+        <v>3</v>
+      </c>
+      <c r="J39" s="16">
         <f t="shared" si="11"/>
         <v>53</v>
       </c>
-      <c r="K39" s="15">
+      <c r="K39" s="16">
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="L39" s="25">
-        <v>0</v>
-      </c>
-      <c r="M39" s="26">
+      <c r="L39" s="26">
+        <v>0</v>
+      </c>
+      <c r="M39" s="27">
         <v>2</v>
       </c>
     </row>
@@ -2440,14 +2432,14 @@
       <c r="A40" s="1">
         <v>43926</v>
       </c>
-      <c r="B40" s="18">
+      <c r="B40" s="19">
         <f t="shared" si="10"/>
         <v>1433</v>
       </c>
-      <c r="C40" s="12">
+      <c r="C40" s="13">
         <v>15</v>
       </c>
-      <c r="D40" s="12">
+      <c r="D40" s="13">
         <v>4</v>
       </c>
       <c r="E40" s="4">
@@ -2456,28 +2448,28 @@
       <c r="F40" s="3">
         <v>23</v>
       </c>
-      <c r="G40" s="23">
+      <c r="G40" s="24">
         <v>121</v>
       </c>
-      <c r="H40" s="16">
+      <c r="H40" s="17">
         <f t="shared" si="13"/>
         <v>147</v>
       </c>
-      <c r="I40" s="32">
-        <v>3</v>
-      </c>
-      <c r="J40" s="15">
+      <c r="I40" s="33">
+        <v>3</v>
+      </c>
+      <c r="J40" s="16">
         <f t="shared" si="11"/>
         <v>57</v>
       </c>
-      <c r="K40" s="15">
+      <c r="K40" s="16">
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="L40" s="25">
-        <v>4</v>
-      </c>
-      <c r="M40" s="26">
+      <c r="L40" s="26">
+        <v>4</v>
+      </c>
+      <c r="M40" s="27">
         <v>0</v>
       </c>
     </row>
@@ -2485,14 +2477,14 @@
       <c r="A41" s="1">
         <v>43927</v>
       </c>
-      <c r="B41" s="18">
+      <c r="B41" s="19">
         <f t="shared" si="10"/>
         <v>1499</v>
       </c>
-      <c r="C41" s="12">
+      <c r="C41" s="13">
         <v>66</v>
       </c>
-      <c r="D41" s="12">
+      <c r="D41" s="13">
         <v>7</v>
       </c>
       <c r="E41" s="4">
@@ -2501,28 +2493,28 @@
       <c r="F41" s="3">
         <v>22</v>
       </c>
-      <c r="G41" s="23">
+      <c r="G41" s="24">
         <v>108</v>
       </c>
-      <c r="H41" s="16">
+      <c r="H41" s="17">
         <f t="shared" si="13"/>
         <v>134</v>
       </c>
-      <c r="I41" s="32">
+      <c r="I41" s="33">
         <v>19</v>
       </c>
-      <c r="J41" s="15">
+      <c r="J41" s="16">
         <f t="shared" si="11"/>
         <v>60</v>
       </c>
-      <c r="K41" s="15">
+      <c r="K41" s="16">
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="L41" s="25">
-        <v>1</v>
-      </c>
-      <c r="M41" s="26">
+      <c r="L41" s="26">
+        <v>1</v>
+      </c>
+      <c r="M41" s="27">
         <v>2</v>
       </c>
     </row>
@@ -2530,14 +2522,14 @@
       <c r="A42" s="1">
         <v>43928</v>
       </c>
-      <c r="B42" s="18">
-        <f t="shared" ref="B42:B105" si="14">B41+C42</f>
+      <c r="B42" s="19">
+        <f t="shared" si="10"/>
         <v>1538</v>
       </c>
-      <c r="C42" s="12">
+      <c r="C42" s="13">
         <v>39</v>
       </c>
-      <c r="D42" s="12">
+      <c r="D42" s="13">
         <v>7</v>
       </c>
       <c r="E42" s="4">
@@ -2546,28 +2538,28 @@
       <c r="F42" s="3">
         <v>20</v>
       </c>
-      <c r="G42" s="23">
+      <c r="G42" s="24">
         <v>105</v>
       </c>
-      <c r="H42" s="16">
-        <f t="shared" ref="H42:H105" si="15">G42+E42</f>
+      <c r="H42" s="17">
+        <f t="shared" si="13"/>
         <v>130</v>
       </c>
-      <c r="I42" s="32">
+      <c r="I42" s="33">
         <v>9</v>
       </c>
-      <c r="J42" s="15">
-        <f t="shared" ref="J42:J105" si="16">J41+K42</f>
+      <c r="J42" s="16">
+        <f t="shared" si="11"/>
         <v>68</v>
       </c>
-      <c r="K42" s="15">
-        <f t="shared" ref="K42:K105" si="17">L42+M42</f>
+      <c r="K42" s="16">
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
-      <c r="L42" s="25">
-        <v>2</v>
-      </c>
-      <c r="M42" s="26">
+      <c r="L42" s="26">
+        <v>2</v>
+      </c>
+      <c r="M42" s="27">
         <v>6</v>
       </c>
     </row>
@@ -2575,14 +2567,14 @@
       <c r="A43" s="1">
         <v>43929</v>
       </c>
-      <c r="B43" s="18">
-        <f t="shared" si="14"/>
+      <c r="B43" s="19">
+        <f t="shared" si="10"/>
         <v>1573</v>
       </c>
-      <c r="C43" s="12">
+      <c r="C43" s="13">
         <v>35</v>
       </c>
-      <c r="D43" s="12">
+      <c r="D43" s="13">
         <v>5</v>
       </c>
       <c r="E43" s="4">
@@ -2591,28 +2583,28 @@
       <c r="F43" s="3">
         <v>20</v>
       </c>
-      <c r="G43" s="23">
+      <c r="G43" s="24">
         <v>97</v>
       </c>
-      <c r="H43" s="16">
-        <f t="shared" si="15"/>
+      <c r="H43" s="17">
+        <f t="shared" si="13"/>
         <v>123</v>
       </c>
-      <c r="I43" s="32">
+      <c r="I43" s="33">
         <v>9</v>
       </c>
-      <c r="J43" s="15">
-        <f t="shared" si="16"/>
+      <c r="J43" s="16">
+        <f t="shared" si="11"/>
         <v>71</v>
       </c>
-      <c r="K43" s="15">
-        <f t="shared" si="17"/>
-        <v>3</v>
-      </c>
-      <c r="L43" s="25">
-        <v>3</v>
-      </c>
-      <c r="M43" s="26">
+      <c r="K43" s="16">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="L43" s="26">
+        <v>3</v>
+      </c>
+      <c r="M43" s="27">
         <v>0</v>
       </c>
     </row>
@@ -2620,14 +2612,14 @@
       <c r="A44" s="1">
         <v>43930</v>
       </c>
-      <c r="B44" s="18">
-        <f t="shared" si="14"/>
+      <c r="B44" s="19">
+        <f t="shared" si="10"/>
         <v>1602</v>
       </c>
-      <c r="C44" s="12">
+      <c r="C44" s="13">
         <v>29</v>
       </c>
-      <c r="D44" s="12">
+      <c r="D44" s="13">
         <v>4</v>
       </c>
       <c r="E44" s="4">
@@ -2636,28 +2628,28 @@
       <c r="F44" s="3">
         <v>19</v>
       </c>
-      <c r="G44" s="23">
+      <c r="G44" s="24">
         <v>94</v>
       </c>
-      <c r="H44" s="16">
-        <f t="shared" si="15"/>
+      <c r="H44" s="17">
+        <f t="shared" si="13"/>
         <v>118</v>
       </c>
-      <c r="I44" s="32">
+      <c r="I44" s="33">
         <v>8</v>
       </c>
-      <c r="J44" s="15">
-        <f t="shared" si="16"/>
+      <c r="J44" s="16">
+        <f t="shared" si="11"/>
         <v>77</v>
       </c>
-      <c r="K44" s="15">
-        <f t="shared" si="17"/>
+      <c r="K44" s="16">
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
-      <c r="L44" s="25">
-        <v>1</v>
-      </c>
-      <c r="M44" s="26">
+      <c r="L44" s="26">
+        <v>1</v>
+      </c>
+      <c r="M44" s="27">
         <v>5</v>
       </c>
     </row>
@@ -2665,14 +2657,14 @@
       <c r="A45" s="1">
         <v>43931</v>
       </c>
-      <c r="B45" s="18">
-        <f t="shared" si="14"/>
+      <c r="B45" s="19">
+        <f t="shared" si="10"/>
         <v>1631</v>
       </c>
-      <c r="C45" s="12">
+      <c r="C45" s="13">
         <v>29</v>
       </c>
-      <c r="D45" s="12">
+      <c r="D45" s="13">
         <v>5</v>
       </c>
       <c r="E45" s="4">
@@ -2681,28 +2673,28 @@
       <c r="F45" s="3">
         <v>18</v>
       </c>
-      <c r="G45" s="23">
+      <c r="G45" s="24">
         <v>92</v>
       </c>
-      <c r="H45" s="16">
-        <f t="shared" si="15"/>
+      <c r="H45" s="17">
+        <f t="shared" si="13"/>
         <v>116</v>
       </c>
-      <c r="I45" s="32">
+      <c r="I45" s="33">
         <v>6</v>
       </c>
-      <c r="J45" s="15">
-        <f t="shared" si="16"/>
+      <c r="J45" s="16">
+        <f t="shared" si="11"/>
         <v>83</v>
       </c>
-      <c r="K45" s="15">
-        <f t="shared" si="17"/>
+      <c r="K45" s="16">
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
-      <c r="L45" s="25">
-        <v>1</v>
-      </c>
-      <c r="M45" s="26">
+      <c r="L45" s="26">
+        <v>1</v>
+      </c>
+      <c r="M45" s="27">
         <v>5</v>
       </c>
     </row>
@@ -2710,14 +2702,14 @@
       <c r="A46" s="1">
         <v>43932</v>
       </c>
-      <c r="B46" s="18">
-        <f t="shared" si="14"/>
+      <c r="B46" s="19">
+        <f t="shared" si="10"/>
         <v>1657</v>
       </c>
-      <c r="C46" s="12">
+      <c r="C46" s="13">
         <v>26</v>
       </c>
-      <c r="D46" s="12">
+      <c r="D46" s="13">
         <v>2</v>
       </c>
       <c r="E46" s="4">
@@ -2726,28 +2718,28 @@
       <c r="F46" s="3">
         <v>15</v>
       </c>
-      <c r="G46" s="23">
+      <c r="G46" s="24">
         <v>93</v>
       </c>
-      <c r="H46" s="16">
-        <f t="shared" si="15"/>
+      <c r="H46" s="17">
+        <f t="shared" si="13"/>
         <v>113</v>
       </c>
-      <c r="I46" s="32">
-        <v>3</v>
-      </c>
-      <c r="J46" s="15">
-        <f t="shared" si="16"/>
+      <c r="I46" s="33">
+        <v>3</v>
+      </c>
+      <c r="J46" s="16">
+        <f t="shared" si="11"/>
         <v>85</v>
       </c>
-      <c r="K46" s="15">
-        <f t="shared" si="17"/>
-        <v>2</v>
-      </c>
-      <c r="L46" s="25">
-        <v>2</v>
-      </c>
-      <c r="M46" s="26">
+      <c r="K46" s="16">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="L46" s="26">
+        <v>2</v>
+      </c>
+      <c r="M46" s="27">
         <v>0</v>
       </c>
     </row>
@@ -2755,14 +2747,14 @@
       <c r="A47" s="1">
         <v>43933</v>
       </c>
-      <c r="B47" s="18">
-        <f t="shared" si="14"/>
+      <c r="B47" s="19">
+        <f t="shared" si="10"/>
         <v>1670</v>
       </c>
-      <c r="C47" s="12">
+      <c r="C47" s="13">
         <v>13</v>
       </c>
-      <c r="D47" s="12">
+      <c r="D47" s="13">
         <v>3</v>
       </c>
       <c r="E47" s="4">
@@ -2771,28 +2763,28 @@
       <c r="F47" s="3">
         <v>14</v>
       </c>
-      <c r="G47" s="23">
+      <c r="G47" s="24">
         <v>89</v>
       </c>
-      <c r="H47" s="16">
-        <f t="shared" si="15"/>
+      <c r="H47" s="17">
+        <f t="shared" si="13"/>
         <v>111</v>
       </c>
-      <c r="I47" s="32">
-        <v>4</v>
-      </c>
-      <c r="J47" s="15">
-        <f t="shared" si="16"/>
+      <c r="I47" s="33">
+        <v>4</v>
+      </c>
+      <c r="J47" s="16">
+        <f t="shared" si="11"/>
         <v>91</v>
       </c>
-      <c r="K47" s="15">
-        <f t="shared" si="17"/>
+      <c r="K47" s="16">
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
-      <c r="L47" s="25">
-        <v>1</v>
-      </c>
-      <c r="M47" s="26">
+      <c r="L47" s="26">
+        <v>1</v>
+      </c>
+      <c r="M47" s="27">
         <v>5</v>
       </c>
     </row>
@@ -2800,14 +2792,14 @@
       <c r="A48" s="1">
         <v>43934</v>
       </c>
-      <c r="B48" s="18">
-        <f t="shared" si="14"/>
+      <c r="B48" s="19">
+        <f t="shared" si="10"/>
         <v>1684</v>
       </c>
-      <c r="C48" s="12">
+      <c r="C48" s="13">
         <v>14</v>
       </c>
-      <c r="D48" s="12">
+      <c r="D48" s="13">
         <v>1</v>
       </c>
       <c r="E48" s="4">
@@ -2816,28 +2808,28 @@
       <c r="F48" s="3">
         <v>12</v>
       </c>
-      <c r="G48" s="23">
+      <c r="G48" s="24">
         <v>86</v>
       </c>
-      <c r="H48" s="16">
-        <f t="shared" si="15"/>
+      <c r="H48" s="17">
+        <f t="shared" si="13"/>
         <v>107</v>
       </c>
-      <c r="I48" s="32">
-        <v>3</v>
-      </c>
-      <c r="J48" s="15">
-        <f t="shared" si="16"/>
+      <c r="I48" s="33">
+        <v>3</v>
+      </c>
+      <c r="J48" s="16">
+        <f t="shared" si="11"/>
         <v>93</v>
       </c>
-      <c r="K48" s="15">
-        <f t="shared" si="17"/>
-        <v>2</v>
-      </c>
-      <c r="L48" s="25">
-        <v>2</v>
-      </c>
-      <c r="M48" s="26">
+      <c r="K48" s="16">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="L48" s="26">
+        <v>2</v>
+      </c>
+      <c r="M48" s="27">
         <v>0</v>
       </c>
     </row>
@@ -2845,14 +2837,14 @@
       <c r="A49" s="1">
         <v>43935</v>
       </c>
-      <c r="B49" s="18">
-        <f t="shared" si="14"/>
+      <c r="B49" s="19">
+        <f t="shared" si="10"/>
         <v>1711</v>
       </c>
-      <c r="C49" s="12">
+      <c r="C49" s="13">
         <v>27</v>
       </c>
-      <c r="D49" s="12">
+      <c r="D49" s="13">
         <v>4</v>
       </c>
       <c r="E49" s="4">
@@ -2861,28 +2853,28 @@
       <c r="F49" s="3">
         <v>11</v>
       </c>
-      <c r="G49" s="23">
+      <c r="G49" s="24">
         <v>80</v>
       </c>
-      <c r="H49" s="16">
-        <f t="shared" si="15"/>
+      <c r="H49" s="17">
+        <f t="shared" si="13"/>
         <v>100</v>
       </c>
-      <c r="I49" s="32">
+      <c r="I49" s="33">
         <v>11</v>
       </c>
-      <c r="J49" s="15">
-        <f t="shared" si="16"/>
+      <c r="J49" s="16">
+        <f t="shared" si="11"/>
         <v>94</v>
       </c>
-      <c r="K49" s="15">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="L49" s="25">
-        <v>0</v>
-      </c>
-      <c r="M49" s="26">
+      <c r="K49" s="16">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="L49" s="26">
+        <v>0</v>
+      </c>
+      <c r="M49" s="27">
         <v>1</v>
       </c>
     </row>
@@ -2890,14 +2882,14 @@
       <c r="A50" s="1">
         <v>43936</v>
       </c>
-      <c r="B50" s="18">
-        <f t="shared" si="14"/>
+      <c r="B50" s="19">
+        <f t="shared" si="10"/>
         <v>1727</v>
       </c>
-      <c r="C50" s="12">
+      <c r="C50" s="13">
         <v>16</v>
       </c>
-      <c r="D50" s="12">
+      <c r="D50" s="13">
         <v>2</v>
       </c>
       <c r="E50" s="4">
@@ -2906,28 +2898,28 @@
       <c r="F50" s="3">
         <v>12</v>
       </c>
-      <c r="G50" s="23">
+      <c r="G50" s="24">
         <v>74</v>
       </c>
-      <c r="H50" s="16">
-        <f t="shared" si="15"/>
+      <c r="H50" s="17">
+        <f t="shared" si="13"/>
         <v>94</v>
       </c>
-      <c r="I50" s="32">
+      <c r="I50" s="33">
         <v>8</v>
       </c>
-      <c r="J50" s="15">
-        <f t="shared" si="16"/>
+      <c r="J50" s="16">
+        <f t="shared" si="11"/>
         <v>94</v>
       </c>
-      <c r="K50" s="15">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="L50" s="25">
-        <v>0</v>
-      </c>
-      <c r="M50" s="26">
+      <c r="K50" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L50" s="26">
+        <v>0</v>
+      </c>
+      <c r="M50" s="27">
         <v>0</v>
       </c>
     </row>
@@ -2935,14 +2927,14 @@
       <c r="A51" s="1">
         <v>43937</v>
       </c>
-      <c r="B51" s="18">
-        <f t="shared" si="14"/>
+      <c r="B51" s="19">
+        <f t="shared" si="10"/>
         <v>1744</v>
       </c>
-      <c r="C51" s="12">
+      <c r="C51" s="13">
         <v>17</v>
       </c>
-      <c r="D51" s="12">
+      <c r="D51" s="13">
         <v>1</v>
       </c>
       <c r="E51" s="4">
@@ -2951,28 +2943,28 @@
       <c r="F51" s="3">
         <v>12</v>
       </c>
-      <c r="G51" s="23">
+      <c r="G51" s="24">
         <v>75</v>
       </c>
-      <c r="H51" s="16">
-        <f t="shared" si="15"/>
+      <c r="H51" s="17">
+        <f t="shared" si="13"/>
         <v>92</v>
       </c>
-      <c r="I51" s="32">
-        <v>3</v>
-      </c>
-      <c r="J51" s="15">
-        <f t="shared" si="16"/>
+      <c r="I51" s="33">
+        <v>3</v>
+      </c>
+      <c r="J51" s="16">
+        <f t="shared" si="11"/>
         <v>95</v>
       </c>
-      <c r="K51" s="15">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="L51" s="25">
-        <v>0</v>
-      </c>
-      <c r="M51" s="26">
+      <c r="K51" s="16">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="L51" s="26">
+        <v>0</v>
+      </c>
+      <c r="M51" s="27">
         <v>1</v>
       </c>
     </row>
@@ -2980,14 +2972,14 @@
       <c r="A52" s="1">
         <v>43938</v>
       </c>
-      <c r="B52" s="18">
-        <f t="shared" si="14"/>
+      <c r="B52" s="19">
+        <f t="shared" si="10"/>
         <v>1764</v>
       </c>
-      <c r="C52" s="12">
+      <c r="C52" s="13">
         <v>20</v>
       </c>
-      <c r="D52" s="12">
+      <c r="D52" s="13">
         <v>1</v>
       </c>
       <c r="E52" s="4">
@@ -2996,28 +2988,28 @@
       <c r="F52" s="3">
         <v>10</v>
       </c>
-      <c r="G52" s="23">
+      <c r="G52" s="24">
         <v>69</v>
       </c>
-      <c r="H52" s="16">
-        <f t="shared" si="15"/>
+      <c r="H52" s="17">
+        <f t="shared" si="13"/>
         <v>85</v>
       </c>
-      <c r="I52" s="32">
+      <c r="I52" s="33">
         <v>6</v>
       </c>
-      <c r="J52" s="15">
-        <f t="shared" si="16"/>
+      <c r="J52" s="16">
+        <f t="shared" si="11"/>
         <v>99</v>
       </c>
-      <c r="K52" s="15">
-        <f t="shared" si="17"/>
-        <v>4</v>
-      </c>
-      <c r="L52" s="25">
-        <v>2</v>
-      </c>
-      <c r="M52" s="26">
+      <c r="K52" s="16">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="L52" s="26">
+        <v>2</v>
+      </c>
+      <c r="M52" s="27">
         <v>2</v>
       </c>
     </row>
@@ -3025,14 +3017,14 @@
       <c r="A53" s="1">
         <v>43939</v>
       </c>
-      <c r="B53" s="18">
-        <f t="shared" si="14"/>
+      <c r="B53" s="19">
+        <f t="shared" si="10"/>
         <v>1773</v>
       </c>
-      <c r="C53" s="12">
+      <c r="C53" s="13">
         <v>9</v>
       </c>
-      <c r="D53" s="12">
+      <c r="D53" s="13">
         <v>1</v>
       </c>
       <c r="E53" s="4">
@@ -3041,28 +3033,28 @@
       <c r="F53" s="3">
         <v>10</v>
       </c>
-      <c r="G53" s="23">
+      <c r="G53" s="24">
         <v>66</v>
       </c>
-      <c r="H53" s="16">
-        <f t="shared" si="15"/>
+      <c r="H53" s="17">
+        <f t="shared" si="13"/>
         <v>84</v>
       </c>
-      <c r="I53" s="32">
-        <v>0</v>
-      </c>
-      <c r="J53" s="15">
-        <f t="shared" si="16"/>
+      <c r="I53" s="33">
+        <v>0</v>
+      </c>
+      <c r="J53" s="16">
+        <f t="shared" si="11"/>
         <v>104</v>
       </c>
-      <c r="K53" s="15">
-        <f t="shared" si="17"/>
+      <c r="K53" s="16">
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
-      <c r="L53" s="25">
-        <v>2</v>
-      </c>
-      <c r="M53" s="26">
+      <c r="L53" s="26">
+        <v>2</v>
+      </c>
+      <c r="M53" s="27">
         <v>3</v>
       </c>
     </row>
@@ -3070,14 +3062,14 @@
       <c r="A54" s="1">
         <v>43940</v>
       </c>
-      <c r="B54" s="18">
-        <f t="shared" si="14"/>
+      <c r="B54" s="19">
+        <f t="shared" si="10"/>
         <v>1780</v>
       </c>
-      <c r="C54" s="12">
+      <c r="C54" s="13">
         <v>7</v>
       </c>
-      <c r="D54" s="12">
+      <c r="D54" s="13">
         <v>0</v>
       </c>
       <c r="E54" s="4">
@@ -3086,28 +3078,28 @@
       <c r="F54" s="3">
         <v>9</v>
       </c>
-      <c r="G54" s="23">
+      <c r="G54" s="24">
         <v>66</v>
       </c>
-      <c r="H54" s="16">
-        <f t="shared" si="15"/>
+      <c r="H54" s="17">
+        <f t="shared" si="13"/>
         <v>82</v>
       </c>
-      <c r="I54" s="32">
-        <v>1</v>
-      </c>
-      <c r="J54" s="15">
-        <f t="shared" si="16"/>
+      <c r="I54" s="33">
+        <v>1</v>
+      </c>
+      <c r="J54" s="16">
+        <f t="shared" si="11"/>
         <v>107</v>
       </c>
-      <c r="K54" s="15">
-        <f t="shared" si="17"/>
-        <v>3</v>
-      </c>
-      <c r="L54" s="25">
-        <v>1</v>
-      </c>
-      <c r="M54" s="26">
+      <c r="K54" s="16">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="L54" s="26">
+        <v>1</v>
+      </c>
+      <c r="M54" s="27">
         <v>2</v>
       </c>
     </row>
@@ -3115,14 +3107,14 @@
       <c r="A55" s="1">
         <v>43941</v>
       </c>
-      <c r="B55" s="18">
-        <f t="shared" si="14"/>
+      <c r="B55" s="19">
+        <f t="shared" si="10"/>
         <v>1797</v>
       </c>
-      <c r="C55" s="12">
+      <c r="C55" s="13">
         <v>17</v>
       </c>
-      <c r="D55" s="12">
+      <c r="D55" s="13">
         <v>3</v>
       </c>
       <c r="E55" s="4">
@@ -3131,28 +3123,28 @@
       <c r="F55" s="3">
         <v>9</v>
       </c>
-      <c r="G55" s="23">
+      <c r="G55" s="24">
         <v>63</v>
       </c>
-      <c r="H55" s="16">
-        <f t="shared" si="15"/>
+      <c r="H55" s="17">
+        <f t="shared" si="13"/>
         <v>78</v>
       </c>
-      <c r="I55" s="32">
+      <c r="I55" s="33">
         <v>6</v>
       </c>
-      <c r="J55" s="15">
-        <f t="shared" si="16"/>
+      <c r="J55" s="16">
+        <f t="shared" si="11"/>
         <v>110</v>
       </c>
-      <c r="K55" s="15">
-        <f t="shared" si="17"/>
-        <v>3</v>
-      </c>
-      <c r="L55" s="25">
-        <v>1</v>
-      </c>
-      <c r="M55" s="26">
+      <c r="K55" s="16">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="L55" s="26">
+        <v>1</v>
+      </c>
+      <c r="M55" s="27">
         <v>2</v>
       </c>
     </row>
@@ -3160,14 +3152,14 @@
       <c r="A56" s="1">
         <v>43942</v>
       </c>
-      <c r="B56" s="18">
-        <f t="shared" si="14"/>
+      <c r="B56" s="19">
+        <f t="shared" si="10"/>
         <v>1804</v>
       </c>
-      <c r="C56" s="12">
+      <c r="C56" s="13">
         <v>7</v>
       </c>
-      <c r="D56" s="12">
+      <c r="D56" s="13">
         <v>2</v>
       </c>
       <c r="E56" s="4">
@@ -3176,28 +3168,28 @@
       <c r="F56" s="3">
         <v>10</v>
       </c>
-      <c r="G56" s="23">
+      <c r="G56" s="24">
         <v>60</v>
       </c>
-      <c r="H56" s="16">
-        <f t="shared" si="15"/>
+      <c r="H56" s="17">
+        <f t="shared" si="13"/>
         <v>74</v>
       </c>
-      <c r="I56" s="32">
-        <v>2</v>
-      </c>
-      <c r="J56" s="15">
-        <f t="shared" si="16"/>
+      <c r="I56" s="33">
+        <v>2</v>
+      </c>
+      <c r="J56" s="16">
+        <f t="shared" si="11"/>
         <v>115</v>
       </c>
-      <c r="K56" s="15">
-        <f t="shared" si="17"/>
+      <c r="K56" s="16">
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
-      <c r="L56" s="25">
-        <v>4</v>
-      </c>
-      <c r="M56" s="26">
+      <c r="L56" s="26">
+        <v>4</v>
+      </c>
+      <c r="M56" s="27">
         <v>1</v>
       </c>
     </row>
@@ -3205,14 +3197,14 @@
       <c r="A57" s="1">
         <v>43943</v>
       </c>
-      <c r="B57" s="18">
-        <f t="shared" si="14"/>
+      <c r="B57" s="19">
+        <f t="shared" si="10"/>
         <v>1810</v>
       </c>
-      <c r="C57" s="12">
+      <c r="C57" s="13">
         <v>6</v>
       </c>
-      <c r="D57" s="12">
+      <c r="D57" s="13">
         <v>4</v>
       </c>
       <c r="E57" s="4">
@@ -3221,28 +3213,28 @@
       <c r="F57" s="3">
         <v>10</v>
       </c>
-      <c r="G57" s="23">
+      <c r="G57" s="24">
         <v>62</v>
       </c>
-      <c r="H57" s="16">
-        <f t="shared" si="15"/>
+      <c r="H57" s="17">
+        <f t="shared" si="13"/>
         <v>75</v>
       </c>
-      <c r="I57" s="32">
-        <v>3</v>
-      </c>
-      <c r="J57" s="15">
-        <f t="shared" si="16"/>
+      <c r="I57" s="33">
+        <v>3</v>
+      </c>
+      <c r="J57" s="16">
+        <f t="shared" si="11"/>
         <v>118</v>
       </c>
-      <c r="K57" s="15">
-        <f t="shared" si="17"/>
-        <v>3</v>
-      </c>
-      <c r="L57" s="25">
-        <v>0</v>
-      </c>
-      <c r="M57" s="26">
+      <c r="K57" s="16">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="L57" s="26">
+        <v>0</v>
+      </c>
+      <c r="M57" s="27">
         <v>3</v>
       </c>
     </row>
@@ -3250,14 +3242,14 @@
       <c r="A58" s="1">
         <v>43944</v>
       </c>
-      <c r="B58" s="18">
-        <f t="shared" si="14"/>
+      <c r="B58" s="19">
+        <f t="shared" si="10"/>
         <v>1826</v>
       </c>
-      <c r="C58" s="12">
+      <c r="C58" s="13">
         <v>16</v>
       </c>
-      <c r="D58" s="12">
+      <c r="D58" s="13">
         <v>0</v>
       </c>
       <c r="E58" s="4">
@@ -3266,28 +3258,28 @@
       <c r="F58" s="3">
         <v>9</v>
       </c>
-      <c r="G58" s="23">
+      <c r="G58" s="24">
         <v>58</v>
       </c>
-      <c r="H58" s="16">
-        <f t="shared" si="15"/>
+      <c r="H58" s="17">
+        <f t="shared" si="13"/>
         <v>71</v>
       </c>
-      <c r="I58" s="32">
-        <v>3</v>
-      </c>
-      <c r="J58" s="15">
-        <f t="shared" si="16"/>
+      <c r="I58" s="33">
+        <v>3</v>
+      </c>
+      <c r="J58" s="16">
+        <f t="shared" si="11"/>
         <v>123</v>
       </c>
-      <c r="K58" s="15">
-        <f t="shared" si="17"/>
+      <c r="K58" s="16">
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
-      <c r="L58" s="25">
-        <v>1</v>
-      </c>
-      <c r="M58" s="26">
+      <c r="L58" s="26">
+        <v>1</v>
+      </c>
+      <c r="M58" s="27">
         <v>4</v>
       </c>
     </row>
@@ -3295,14 +3287,14 @@
       <c r="A59" s="1">
         <v>43945</v>
       </c>
-      <c r="B59" s="18">
-        <f t="shared" si="14"/>
+      <c r="B59" s="19">
+        <f t="shared" si="10"/>
         <v>1835</v>
       </c>
-      <c r="C59" s="12">
+      <c r="C59" s="13">
         <v>9</v>
       </c>
-      <c r="D59" s="12">
+      <c r="D59" s="13">
         <v>2</v>
       </c>
       <c r="E59" s="4">
@@ -3311,28 +3303,28 @@
       <c r="F59" s="3">
         <v>9</v>
       </c>
-      <c r="G59" s="23">
+      <c r="G59" s="24">
         <v>54</v>
       </c>
-      <c r="H59" s="16">
-        <f t="shared" si="15"/>
+      <c r="H59" s="17">
+        <f t="shared" si="13"/>
         <v>68</v>
       </c>
-      <c r="I59" s="32">
-        <v>4</v>
-      </c>
-      <c r="J59" s="15">
-        <f t="shared" si="16"/>
+      <c r="I59" s="33">
+        <v>4</v>
+      </c>
+      <c r="J59" s="16">
+        <f t="shared" si="11"/>
         <v>127</v>
       </c>
-      <c r="K59" s="15">
-        <f t="shared" si="17"/>
-        <v>4</v>
-      </c>
-      <c r="L59" s="25">
-        <v>1</v>
-      </c>
-      <c r="M59" s="26">
+      <c r="K59" s="16">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="L59" s="26">
+        <v>1</v>
+      </c>
+      <c r="M59" s="27">
         <v>3</v>
       </c>
     </row>
@@ -3340,14 +3332,14 @@
       <c r="A60" s="1">
         <v>43946</v>
       </c>
-      <c r="B60" s="18">
-        <f t="shared" si="14"/>
+      <c r="B60" s="19">
+        <f t="shared" si="10"/>
         <v>1840</v>
       </c>
-      <c r="C60" s="12">
+      <c r="C60" s="13">
         <v>5</v>
       </c>
-      <c r="D60" s="12">
+      <c r="D60" s="13">
         <v>4</v>
       </c>
       <c r="E60" s="4">
@@ -3356,28 +3348,28 @@
       <c r="F60" s="3">
         <v>9</v>
       </c>
-      <c r="G60" s="23">
+      <c r="G60" s="24">
         <v>56</v>
       </c>
-      <c r="H60" s="16">
-        <f t="shared" si="15"/>
+      <c r="H60" s="17">
+        <f t="shared" si="13"/>
         <v>70</v>
       </c>
-      <c r="I60" s="32">
-        <v>1</v>
-      </c>
-      <c r="J60" s="15">
-        <f t="shared" si="16"/>
+      <c r="I60" s="33">
+        <v>1</v>
+      </c>
+      <c r="J60" s="16">
+        <f t="shared" si="11"/>
         <v>129</v>
       </c>
-      <c r="K60" s="15">
-        <f t="shared" si="17"/>
-        <v>2</v>
-      </c>
-      <c r="L60" s="25">
-        <v>1</v>
-      </c>
-      <c r="M60" s="26">
+      <c r="K60" s="16">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="L60" s="26">
+        <v>1</v>
+      </c>
+      <c r="M60" s="27">
         <v>1</v>
       </c>
     </row>
@@ -3385,14 +3377,14 @@
       <c r="A61" s="1">
         <v>43947</v>
       </c>
-      <c r="B61" s="18">
-        <f t="shared" si="14"/>
+      <c r="B61" s="19">
+        <f t="shared" si="10"/>
         <v>1842</v>
       </c>
-      <c r="C61" s="12">
-        <v>2</v>
-      </c>
-      <c r="D61" s="12">
+      <c r="C61" s="13">
+        <v>2</v>
+      </c>
+      <c r="D61" s="13">
         <v>2</v>
       </c>
       <c r="E61" s="4">
@@ -3401,28 +3393,28 @@
       <c r="F61" s="3">
         <v>8</v>
       </c>
-      <c r="G61" s="23">
+      <c r="G61" s="24">
         <v>57</v>
       </c>
-      <c r="H61" s="16">
-        <f t="shared" si="15"/>
+      <c r="H61" s="17">
+        <f t="shared" si="13"/>
         <v>72</v>
       </c>
-      <c r="I61" s="32">
-        <v>0</v>
-      </c>
-      <c r="J61" s="15">
-        <f t="shared" si="16"/>
+      <c r="I61" s="33">
+        <v>0</v>
+      </c>
+      <c r="J61" s="16">
+        <f t="shared" si="11"/>
         <v>131</v>
       </c>
-      <c r="K61" s="15">
-        <f t="shared" si="17"/>
-        <v>2</v>
-      </c>
-      <c r="L61" s="25">
-        <v>0</v>
-      </c>
-      <c r="M61" s="26">
+      <c r="K61" s="16">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="L61" s="26">
+        <v>0</v>
+      </c>
+      <c r="M61" s="27">
         <v>2</v>
       </c>
     </row>
@@ -3430,14 +3422,14 @@
       <c r="A62" s="1">
         <v>43948</v>
       </c>
-      <c r="B62" s="18">
-        <f t="shared" si="14"/>
+      <c r="B62" s="19">
+        <f t="shared" si="10"/>
         <v>1857</v>
       </c>
-      <c r="C62" s="12">
+      <c r="C62" s="13">
         <v>15</v>
       </c>
-      <c r="D62" s="12">
+      <c r="D62" s="13">
         <v>0</v>
       </c>
       <c r="E62" s="4">
@@ -3446,28 +3438,28 @@
       <c r="F62" s="3">
         <v>9</v>
       </c>
-      <c r="G62" s="23">
+      <c r="G62" s="24">
         <v>49</v>
       </c>
-      <c r="H62" s="16">
-        <f t="shared" si="15"/>
+      <c r="H62" s="17">
+        <f t="shared" si="13"/>
         <v>63</v>
       </c>
-      <c r="I62" s="32">
+      <c r="I62" s="33">
         <v>8</v>
       </c>
-      <c r="J62" s="15">
-        <f t="shared" si="16"/>
+      <c r="J62" s="16">
+        <f t="shared" si="11"/>
         <v>132</v>
       </c>
-      <c r="K62" s="15">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="L62" s="25">
-        <v>1</v>
-      </c>
-      <c r="M62" s="26">
+      <c r="K62" s="16">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="L62" s="26">
+        <v>1</v>
+      </c>
+      <c r="M62" s="27">
         <v>0</v>
       </c>
     </row>
@@ -3475,14 +3467,14 @@
       <c r="A63" s="1">
         <v>43949</v>
       </c>
-      <c r="B63" s="18">
-        <f t="shared" si="14"/>
+      <c r="B63" s="19">
+        <f t="shared" si="10"/>
         <v>1868</v>
       </c>
-      <c r="C63" s="12">
+      <c r="C63" s="13">
         <v>11</v>
       </c>
-      <c r="D63" s="12">
+      <c r="D63" s="13">
         <v>1</v>
       </c>
       <c r="E63" s="4">
@@ -3491,28 +3483,28 @@
       <c r="F63" s="3">
         <v>8</v>
       </c>
-      <c r="G63" s="23">
+      <c r="G63" s="24">
         <v>46</v>
       </c>
-      <c r="H63" s="16">
-        <f t="shared" si="15"/>
+      <c r="H63" s="17">
+        <f t="shared" si="13"/>
         <v>59</v>
       </c>
-      <c r="I63" s="32">
-        <v>4</v>
-      </c>
-      <c r="J63" s="15">
-        <f t="shared" si="16"/>
+      <c r="I63" s="33">
+        <v>4</v>
+      </c>
+      <c r="J63" s="16">
+        <f t="shared" si="11"/>
         <v>135</v>
       </c>
-      <c r="K63" s="15">
-        <f t="shared" si="17"/>
-        <v>3</v>
-      </c>
-      <c r="L63" s="25">
-        <v>1</v>
-      </c>
-      <c r="M63" s="26">
+      <c r="K63" s="16">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="L63" s="26">
+        <v>1</v>
+      </c>
+      <c r="M63" s="27">
         <v>2</v>
       </c>
     </row>
@@ -3520,14 +3512,14 @@
       <c r="A64" s="1">
         <v>43950</v>
       </c>
-      <c r="B64" s="18">
-        <f t="shared" si="14"/>
+      <c r="B64" s="19">
+        <f t="shared" si="10"/>
         <v>1880</v>
       </c>
-      <c r="C64" s="12">
+      <c r="C64" s="13">
         <v>12</v>
       </c>
-      <c r="D64" s="12">
+      <c r="D64" s="13">
         <v>1</v>
       </c>
       <c r="E64" s="4">
@@ -3536,28 +3528,28 @@
       <c r="F64" s="3">
         <v>8</v>
       </c>
-      <c r="G64" s="23">
+      <c r="G64" s="24">
         <v>47</v>
       </c>
-      <c r="H64" s="16">
-        <f t="shared" si="15"/>
+      <c r="H64" s="17">
+        <f t="shared" si="13"/>
         <v>58</v>
       </c>
-      <c r="I64" s="32">
-        <v>2</v>
-      </c>
-      <c r="J64" s="15">
-        <f t="shared" si="16"/>
+      <c r="I64" s="33">
+        <v>2</v>
+      </c>
+      <c r="J64" s="16">
+        <f t="shared" si="11"/>
         <v>136</v>
       </c>
-      <c r="K64" s="15">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="L64" s="25">
-        <v>0</v>
-      </c>
-      <c r="M64" s="26">
+      <c r="K64" s="16">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="L64" s="26">
+        <v>0</v>
+      </c>
+      <c r="M64" s="27">
         <v>1</v>
       </c>
     </row>
@@ -3565,14 +3557,14 @@
       <c r="A65" s="1">
         <v>43951</v>
       </c>
-      <c r="B65" s="18">
-        <f t="shared" si="14"/>
+      <c r="B65" s="19">
+        <f t="shared" si="10"/>
         <v>1887</v>
       </c>
-      <c r="C65" s="12">
+      <c r="C65" s="13">
         <v>7</v>
       </c>
-      <c r="D65" s="12">
+      <c r="D65" s="13">
         <v>1</v>
       </c>
       <c r="E65" s="4">
@@ -3581,28 +3573,28 @@
       <c r="F65" s="3">
         <v>8</v>
       </c>
-      <c r="G65" s="23">
+      <c r="G65" s="24">
         <v>48</v>
       </c>
-      <c r="H65" s="16">
-        <f t="shared" si="15"/>
+      <c r="H65" s="17">
+        <f t="shared" si="13"/>
         <v>58</v>
       </c>
-      <c r="I65" s="32">
-        <v>1</v>
-      </c>
-      <c r="J65" s="15">
-        <f t="shared" si="16"/>
+      <c r="I65" s="33">
+        <v>1</v>
+      </c>
+      <c r="J65" s="16">
+        <f t="shared" si="11"/>
         <v>138</v>
       </c>
-      <c r="K65" s="15">
-        <f t="shared" si="17"/>
-        <v>2</v>
-      </c>
-      <c r="L65" s="25">
-        <v>0</v>
-      </c>
-      <c r="M65" s="26">
+      <c r="K65" s="16">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="L65" s="26">
+        <v>0</v>
+      </c>
+      <c r="M65" s="27">
         <v>2</v>
       </c>
     </row>
@@ -3610,14 +3602,14 @@
       <c r="A66" s="1">
         <v>43952</v>
       </c>
-      <c r="B66" s="18">
-        <f t="shared" si="14"/>
+      <c r="B66" s="19">
+        <f t="shared" si="10"/>
         <v>1892</v>
       </c>
-      <c r="C66" s="12">
+      <c r="C66" s="13">
         <v>5</v>
       </c>
-      <c r="D66" s="12">
+      <c r="D66" s="13">
         <v>0</v>
       </c>
       <c r="E66" s="4">
@@ -3626,28 +3618,28 @@
       <c r="F66" s="3">
         <v>8</v>
       </c>
-      <c r="G66" s="23">
+      <c r="G66" s="24">
         <v>46</v>
       </c>
-      <c r="H66" s="16">
-        <f t="shared" si="15"/>
+      <c r="H66" s="17">
+        <f t="shared" si="13"/>
         <v>56</v>
       </c>
-      <c r="I66" s="32">
-        <v>2</v>
-      </c>
-      <c r="J66" s="15">
-        <f t="shared" si="16"/>
+      <c r="I66" s="33">
+        <v>2</v>
+      </c>
+      <c r="J66" s="16">
+        <f t="shared" si="11"/>
         <v>138</v>
       </c>
-      <c r="K66" s="15">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="L66" s="25">
-        <v>0</v>
-      </c>
-      <c r="M66" s="26">
+      <c r="K66" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L66" s="26">
+        <v>0</v>
+      </c>
+      <c r="M66" s="27">
         <v>0</v>
       </c>
     </row>
@@ -3655,14 +3647,14 @@
       <c r="A67" s="1">
         <v>43953</v>
       </c>
-      <c r="B67" s="18">
-        <f t="shared" si="14"/>
+      <c r="B67" s="19">
+        <f t="shared" ref="B67:B87" si="14">B66+C67</f>
         <v>1895</v>
       </c>
-      <c r="C67" s="12">
-        <v>3</v>
-      </c>
-      <c r="D67" s="12">
+      <c r="C67" s="13">
+        <v>3</v>
+      </c>
+      <c r="D67" s="13">
         <v>1</v>
       </c>
       <c r="E67" s="4">
@@ -3671,28 +3663,28 @@
       <c r="F67" s="3">
         <v>8</v>
       </c>
-      <c r="G67" s="23">
+      <c r="G67" s="24">
         <v>46</v>
       </c>
-      <c r="H67" s="16">
-        <f t="shared" si="15"/>
+      <c r="H67" s="17">
+        <f t="shared" ref="H67:H87" si="15">G67+E67</f>
         <v>56</v>
       </c>
-      <c r="I67" s="32">
-        <v>0</v>
-      </c>
-      <c r="J67" s="15">
-        <f t="shared" si="16"/>
+      <c r="I67" s="33">
+        <v>0</v>
+      </c>
+      <c r="J67" s="16">
+        <f t="shared" ref="J67:J87" si="16">J66+K67</f>
         <v>140</v>
       </c>
-      <c r="K67" s="15">
-        <f t="shared" si="17"/>
-        <v>2</v>
-      </c>
-      <c r="L67" s="25">
-        <v>1</v>
-      </c>
-      <c r="M67" s="26">
+      <c r="K67" s="16">
+        <f t="shared" ref="K67:K87" si="17">L67+M67</f>
+        <v>2</v>
+      </c>
+      <c r="L67" s="26">
+        <v>1</v>
+      </c>
+      <c r="M67" s="27">
         <v>1</v>
       </c>
     </row>
@@ -3700,14 +3692,14 @@
       <c r="A68" s="1">
         <v>43954</v>
       </c>
-      <c r="B68" s="18">
+      <c r="B68" s="19">
         <f t="shared" si="14"/>
         <v>1897</v>
       </c>
-      <c r="C68" s="12">
-        <v>2</v>
-      </c>
-      <c r="D68" s="12">
+      <c r="C68" s="13">
+        <v>2</v>
+      </c>
+      <c r="D68" s="13">
         <v>2</v>
       </c>
       <c r="E68" s="4">
@@ -3716,28 +3708,28 @@
       <c r="F68" s="3">
         <v>8</v>
       </c>
-      <c r="G68" s="23">
+      <c r="G68" s="24">
         <v>47</v>
       </c>
-      <c r="H68" s="16">
+      <c r="H68" s="17">
         <f t="shared" si="15"/>
         <v>57</v>
       </c>
-      <c r="I68" s="32">
-        <v>0</v>
-      </c>
-      <c r="J68" s="15">
+      <c r="I68" s="33">
+        <v>0</v>
+      </c>
+      <c r="J68" s="16">
         <f t="shared" si="16"/>
         <v>142</v>
       </c>
-      <c r="K68" s="15">
+      <c r="K68" s="16">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
-      <c r="L68" s="25">
-        <v>1</v>
-      </c>
-      <c r="M68" s="26">
+      <c r="L68" s="26">
+        <v>1</v>
+      </c>
+      <c r="M68" s="27">
         <v>1</v>
       </c>
     </row>
@@ -3745,14 +3737,14 @@
       <c r="A69" s="1">
         <v>43955</v>
       </c>
-      <c r="B69" s="18">
+      <c r="B69" s="19">
         <f t="shared" si="14"/>
         <v>1905</v>
       </c>
-      <c r="C69" s="12">
+      <c r="C69" s="13">
         <v>8</v>
       </c>
-      <c r="D69" s="12">
+      <c r="D69" s="13">
         <v>0</v>
       </c>
       <c r="E69" s="4">
@@ -3761,28 +3753,28 @@
       <c r="F69" s="3">
         <v>7</v>
       </c>
-      <c r="G69" s="23">
+      <c r="G69" s="24">
         <v>42</v>
       </c>
-      <c r="H69" s="16">
+      <c r="H69" s="17">
         <f t="shared" si="15"/>
         <v>52</v>
       </c>
-      <c r="I69" s="32">
+      <c r="I69" s="33">
         <v>5</v>
       </c>
-      <c r="J69" s="15">
+      <c r="J69" s="16">
         <f t="shared" si="16"/>
         <v>142</v>
       </c>
-      <c r="K69" s="15">
+      <c r="K69" s="16">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="L69" s="25">
-        <v>0</v>
-      </c>
-      <c r="M69" s="26">
+      <c r="L69" s="26">
+        <v>0</v>
+      </c>
+      <c r="M69" s="27">
         <v>0</v>
       </c>
     </row>
@@ -3790,14 +3782,14 @@
       <c r="A70" s="1">
         <v>43956</v>
       </c>
-      <c r="B70" s="18">
+      <c r="B70" s="19">
         <f t="shared" si="14"/>
         <v>1907</v>
       </c>
-      <c r="C70" s="12">
-        <v>2</v>
-      </c>
-      <c r="D70" s="12">
+      <c r="C70" s="13">
+        <v>2</v>
+      </c>
+      <c r="D70" s="13">
         <v>0</v>
       </c>
       <c r="E70" s="4">
@@ -3806,28 +3798,28 @@
       <c r="F70" s="3">
         <v>6</v>
       </c>
-      <c r="G70" s="23">
+      <c r="G70" s="24">
         <v>40</v>
       </c>
-      <c r="H70" s="16">
+      <c r="H70" s="17">
         <f t="shared" si="15"/>
         <v>48</v>
       </c>
-      <c r="I70" s="32">
-        <v>2</v>
-      </c>
-      <c r="J70" s="15">
+      <c r="I70" s="33">
+        <v>2</v>
+      </c>
+      <c r="J70" s="16">
         <f t="shared" si="16"/>
         <v>146</v>
       </c>
-      <c r="K70" s="15">
+      <c r="K70" s="16">
         <f t="shared" si="17"/>
         <v>4</v>
       </c>
-      <c r="L70" s="25">
-        <v>2</v>
-      </c>
-      <c r="M70" s="26">
+      <c r="L70" s="26">
+        <v>2</v>
+      </c>
+      <c r="M70" s="27">
         <v>2</v>
       </c>
     </row>
@@ -3835,14 +3827,14 @@
       <c r="A71" s="1">
         <v>43957</v>
       </c>
-      <c r="B71" s="18">
+      <c r="B71" s="19">
         <f t="shared" si="14"/>
         <v>1910</v>
       </c>
-      <c r="C71" s="12">
-        <v>3</v>
-      </c>
-      <c r="D71" s="12">
+      <c r="C71" s="13">
+        <v>3</v>
+      </c>
+      <c r="D71" s="13">
         <v>0</v>
       </c>
       <c r="E71" s="4">
@@ -3851,28 +3843,28 @@
       <c r="F71" s="3">
         <v>5</v>
       </c>
-      <c r="G71" s="23">
+      <c r="G71" s="24">
         <v>37</v>
       </c>
-      <c r="H71" s="16">
+      <c r="H71" s="17">
         <f t="shared" si="15"/>
         <v>45</v>
       </c>
-      <c r="I71" s="32">
-        <v>3</v>
-      </c>
-      <c r="J71" s="15">
+      <c r="I71" s="33">
+        <v>3</v>
+      </c>
+      <c r="J71" s="16">
         <f t="shared" si="16"/>
         <v>146</v>
       </c>
-      <c r="K71" s="15">
+      <c r="K71" s="16">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="L71" s="25">
-        <v>0</v>
-      </c>
-      <c r="M71" s="26">
+      <c r="L71" s="26">
+        <v>0</v>
+      </c>
+      <c r="M71" s="27">
         <v>0</v>
       </c>
     </row>
@@ -3880,14 +3872,14 @@
       <c r="A72" s="1">
         <v>43958</v>
       </c>
-      <c r="B72" s="18">
+      <c r="B72" s="19">
         <f t="shared" si="14"/>
         <v>1912</v>
       </c>
-      <c r="C72" s="12">
-        <v>2</v>
-      </c>
-      <c r="D72" s="12">
+      <c r="C72" s="13">
+        <v>2</v>
+      </c>
+      <c r="D72" s="13">
         <v>0</v>
       </c>
       <c r="E72" s="4">
@@ -3896,28 +3888,28 @@
       <c r="F72" s="3">
         <v>5</v>
       </c>
-      <c r="G72" s="23">
+      <c r="G72" s="24">
         <v>32</v>
       </c>
-      <c r="H72" s="16">
+      <c r="H72" s="17">
         <f t="shared" si="15"/>
         <v>40</v>
       </c>
-      <c r="I72" s="32">
+      <c r="I72" s="33">
         <v>5</v>
       </c>
-      <c r="J72" s="15">
+      <c r="J72" s="16">
         <f t="shared" si="16"/>
         <v>146</v>
       </c>
-      <c r="K72" s="15">
+      <c r="K72" s="16">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="L72" s="25">
-        <v>0</v>
-      </c>
-      <c r="M72" s="26">
+      <c r="L72" s="26">
+        <v>0</v>
+      </c>
+      <c r="M72" s="27">
         <v>0</v>
       </c>
     </row>
@@ -3925,14 +3917,14 @@
       <c r="A73" s="1">
         <v>43959</v>
       </c>
-      <c r="B73" s="18">
+      <c r="B73" s="19">
         <f t="shared" si="14"/>
         <v>1915</v>
       </c>
-      <c r="C73" s="12">
-        <v>3</v>
-      </c>
-      <c r="D73" s="12">
+      <c r="C73" s="13">
+        <v>3</v>
+      </c>
+      <c r="D73" s="13">
         <v>1</v>
       </c>
       <c r="E73" s="4">
@@ -3941,28 +3933,28 @@
       <c r="F73" s="3">
         <v>5</v>
       </c>
-      <c r="G73" s="23">
+      <c r="G73" s="24">
         <v>29</v>
       </c>
-      <c r="H73" s="16">
+      <c r="H73" s="17">
         <f t="shared" si="15"/>
         <v>38</v>
       </c>
-      <c r="I73" s="32">
-        <v>2</v>
-      </c>
-      <c r="J73" s="15">
+      <c r="I73" s="33">
+        <v>2</v>
+      </c>
+      <c r="J73" s="16">
         <f t="shared" si="16"/>
         <v>148</v>
       </c>
-      <c r="K73" s="15">
+      <c r="K73" s="16">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
-      <c r="L73" s="25">
-        <v>1</v>
-      </c>
-      <c r="M73" s="26">
+      <c r="L73" s="26">
+        <v>1</v>
+      </c>
+      <c r="M73" s="27">
         <v>1</v>
       </c>
     </row>
@@ -3970,14 +3962,14 @@
       <c r="A74" s="1">
         <v>43960</v>
       </c>
-      <c r="B74" s="18">
+      <c r="B74" s="19">
         <f t="shared" si="14"/>
         <v>1916</v>
       </c>
-      <c r="C74" s="12">
-        <v>1</v>
-      </c>
-      <c r="D74" s="12">
+      <c r="C74" s="13">
+        <v>1</v>
+      </c>
+      <c r="D74" s="13">
         <v>0</v>
       </c>
       <c r="E74" s="4">
@@ -3986,28 +3978,28 @@
       <c r="F74" s="3">
         <v>7</v>
       </c>
-      <c r="G74" s="23">
+      <c r="G74" s="24">
         <v>27</v>
       </c>
-      <c r="H74" s="16">
+      <c r="H74" s="17">
         <f t="shared" si="15"/>
         <v>37</v>
       </c>
-      <c r="I74" s="32">
-        <v>1</v>
-      </c>
-      <c r="J74" s="15">
+      <c r="I74" s="33">
+        <v>1</v>
+      </c>
+      <c r="J74" s="16">
         <f t="shared" si="16"/>
         <v>148</v>
       </c>
-      <c r="K74" s="15">
+      <c r="K74" s="16">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="L74" s="25">
-        <v>0</v>
-      </c>
-      <c r="M74" s="26">
+      <c r="L74" s="26">
+        <v>0</v>
+      </c>
+      <c r="M74" s="27">
         <v>0</v>
       </c>
     </row>
@@ -4015,14 +4007,14 @@
       <c r="A75" s="1">
         <v>43961</v>
       </c>
-      <c r="B75" s="18">
+      <c r="B75" s="19">
         <f t="shared" si="14"/>
         <v>1917</v>
       </c>
-      <c r="C75" s="12">
-        <v>1</v>
-      </c>
-      <c r="D75" s="12">
+      <c r="C75" s="13">
+        <v>1</v>
+      </c>
+      <c r="D75" s="13">
         <v>1</v>
       </c>
       <c r="E75" s="4">
@@ -4031,28 +4023,28 @@
       <c r="F75" s="3">
         <v>7</v>
       </c>
-      <c r="G75" s="23">
+      <c r="G75" s="24">
         <v>28</v>
       </c>
-      <c r="H75" s="16">
+      <c r="H75" s="17">
         <f t="shared" si="15"/>
         <v>38</v>
       </c>
-      <c r="I75" s="32">
-        <v>0</v>
-      </c>
-      <c r="J75" s="15">
+      <c r="I75" s="33">
+        <v>0</v>
+      </c>
+      <c r="J75" s="16">
         <f t="shared" si="16"/>
         <v>148</v>
       </c>
-      <c r="K75" s="15">
+      <c r="K75" s="16">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="L75" s="25">
-        <v>0</v>
-      </c>
-      <c r="M75" s="26">
+      <c r="L75" s="26">
+        <v>0</v>
+      </c>
+      <c r="M75" s="27">
         <v>0</v>
       </c>
     </row>
@@ -4060,14 +4052,14 @@
       <c r="A76" s="1">
         <v>43962</v>
       </c>
-      <c r="B76" s="18">
+      <c r="B76" s="19">
         <f t="shared" si="14"/>
         <v>1921</v>
       </c>
-      <c r="C76" s="12">
-        <v>4</v>
-      </c>
-      <c r="D76" s="12">
+      <c r="C76" s="13">
+        <v>4</v>
+      </c>
+      <c r="D76" s="13">
         <v>1</v>
       </c>
       <c r="E76" s="4">
@@ -4076,28 +4068,28 @@
       <c r="F76" s="3">
         <v>7</v>
       </c>
-      <c r="G76" s="23">
+      <c r="G76" s="24">
         <v>28</v>
       </c>
-      <c r="H76" s="16">
+      <c r="H76" s="17">
         <f t="shared" si="15"/>
         <v>38</v>
       </c>
-      <c r="I76" s="32">
-        <v>0</v>
-      </c>
-      <c r="J76" s="15">
+      <c r="I76" s="33">
+        <v>0</v>
+      </c>
+      <c r="J76" s="16">
         <f t="shared" si="16"/>
         <v>150</v>
       </c>
-      <c r="K76" s="15">
+      <c r="K76" s="16">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
-      <c r="L76" s="25">
-        <v>1</v>
-      </c>
-      <c r="M76" s="26">
+      <c r="L76" s="26">
+        <v>1</v>
+      </c>
+      <c r="M76" s="27">
         <v>1</v>
       </c>
     </row>
@@ -4105,14 +4097,14 @@
       <c r="A77" s="1">
         <v>43963</v>
       </c>
-      <c r="B77" s="18">
+      <c r="B77" s="19">
         <f t="shared" si="14"/>
         <v>1921</v>
       </c>
-      <c r="C77" s="12">
-        <v>0</v>
-      </c>
-      <c r="D77" s="12">
+      <c r="C77" s="13">
+        <v>0</v>
+      </c>
+      <c r="D77" s="13">
         <v>0</v>
       </c>
       <c r="E77" s="4">
@@ -4121,28 +4113,28 @@
       <c r="F77" s="3">
         <v>7</v>
       </c>
-      <c r="G77" s="23">
+      <c r="G77" s="24">
         <v>27</v>
       </c>
-      <c r="H77" s="16">
+      <c r="H77" s="17">
         <f t="shared" si="15"/>
         <v>35</v>
       </c>
-      <c r="I77" s="32">
-        <v>3</v>
-      </c>
-      <c r="J77" s="15">
+      <c r="I77" s="33">
+        <v>3</v>
+      </c>
+      <c r="J77" s="16">
         <f t="shared" si="16"/>
         <v>150</v>
       </c>
-      <c r="K77" s="15">
+      <c r="K77" s="16">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="L77" s="25">
-        <v>0</v>
-      </c>
-      <c r="M77" s="26">
+      <c r="L77" s="26">
+        <v>0</v>
+      </c>
+      <c r="M77" s="27">
         <v>0</v>
       </c>
     </row>
@@ -4150,14 +4142,14 @@
       <c r="A78" s="1">
         <v>43964</v>
       </c>
-      <c r="B78" s="18">
+      <c r="B78" s="19">
         <f t="shared" si="14"/>
         <v>1922</v>
       </c>
-      <c r="C78" s="12">
-        <v>1</v>
-      </c>
-      <c r="D78" s="12">
+      <c r="C78" s="13">
+        <v>1</v>
+      </c>
+      <c r="D78" s="13">
         <v>0</v>
       </c>
       <c r="E78" s="4">
@@ -4166,28 +4158,28 @@
       <c r="F78" s="3">
         <v>5</v>
       </c>
-      <c r="G78" s="23">
+      <c r="G78" s="24">
         <v>24</v>
       </c>
-      <c r="H78" s="16">
+      <c r="H78" s="17">
         <f t="shared" si="15"/>
         <v>32</v>
       </c>
-      <c r="I78" s="32">
-        <v>3</v>
-      </c>
-      <c r="J78" s="15">
+      <c r="I78" s="33">
+        <v>3</v>
+      </c>
+      <c r="J78" s="16">
         <f t="shared" si="16"/>
         <v>150</v>
       </c>
-      <c r="K78" s="15">
+      <c r="K78" s="16">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="L78" s="25">
-        <v>0</v>
-      </c>
-      <c r="M78" s="26">
+      <c r="L78" s="26">
+        <v>0</v>
+      </c>
+      <c r="M78" s="27">
         <v>0</v>
       </c>
     </row>
@@ -4195,14 +4187,14 @@
       <c r="A79" s="1">
         <v>43965</v>
       </c>
-      <c r="B79" s="18">
+      <c r="B79" s="19">
         <f t="shared" si="14"/>
         <v>1924</v>
       </c>
-      <c r="C79" s="12">
-        <v>2</v>
-      </c>
-      <c r="D79" s="12">
+      <c r="C79" s="13">
+        <v>2</v>
+      </c>
+      <c r="D79" s="13">
         <v>0</v>
       </c>
       <c r="E79" s="4">
@@ -4211,28 +4203,28 @@
       <c r="F79" s="3">
         <v>5</v>
       </c>
-      <c r="G79" s="23">
+      <c r="G79" s="24">
         <v>22</v>
       </c>
-      <c r="H79" s="16">
+      <c r="H79" s="17">
         <f t="shared" si="15"/>
         <v>30</v>
       </c>
-      <c r="I79" s="32">
-        <v>2</v>
-      </c>
-      <c r="J79" s="15">
+      <c r="I79" s="33">
+        <v>2</v>
+      </c>
+      <c r="J79" s="16">
         <f t="shared" si="16"/>
         <v>150</v>
       </c>
-      <c r="K79" s="15">
+      <c r="K79" s="16">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="L79" s="25">
-        <v>0</v>
-      </c>
-      <c r="M79" s="26">
+      <c r="L79" s="26">
+        <v>0</v>
+      </c>
+      <c r="M79" s="27">
         <v>0</v>
       </c>
     </row>
@@ -4240,14 +4232,14 @@
       <c r="A80" s="1">
         <v>43966</v>
       </c>
-      <c r="B80" s="18">
+      <c r="B80" s="19">
         <f t="shared" si="14"/>
         <v>1933</v>
       </c>
-      <c r="C80" s="12">
+      <c r="C80" s="13">
         <v>9</v>
       </c>
-      <c r="D80" s="12">
+      <c r="D80" s="13">
         <v>0</v>
       </c>
       <c r="E80" s="4">
@@ -4256,28 +4248,28 @@
       <c r="F80" s="3">
         <v>5</v>
       </c>
-      <c r="G80" s="23">
+      <c r="G80" s="24">
         <v>19</v>
       </c>
-      <c r="H80" s="16">
+      <c r="H80" s="17">
         <f t="shared" si="15"/>
         <v>27</v>
       </c>
-      <c r="I80" s="32">
-        <v>3</v>
-      </c>
-      <c r="J80" s="15">
+      <c r="I80" s="33">
+        <v>3</v>
+      </c>
+      <c r="J80" s="16">
         <f t="shared" si="16"/>
         <v>150</v>
       </c>
-      <c r="K80" s="15">
+      <c r="K80" s="16">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="L80" s="25">
-        <v>0</v>
-      </c>
-      <c r="M80" s="26">
+      <c r="L80" s="26">
+        <v>0</v>
+      </c>
+      <c r="M80" s="27">
         <v>0</v>
       </c>
     </row>
@@ -4285,14 +4277,14 @@
       <c r="A81" s="1">
         <v>43967</v>
       </c>
-      <c r="B81" s="18">
+      <c r="B81" s="19">
         <f t="shared" si="14"/>
         <v>1936</v>
       </c>
-      <c r="C81" s="12">
-        <v>3</v>
-      </c>
-      <c r="D81" s="12">
+      <c r="C81" s="13">
+        <v>3</v>
+      </c>
+      <c r="D81" s="13">
         <v>0</v>
       </c>
       <c r="E81" s="4">
@@ -4301,28 +4293,28 @@
       <c r="F81" s="3">
         <v>5</v>
       </c>
-      <c r="G81" s="23">
+      <c r="G81" s="24">
         <v>19</v>
       </c>
-      <c r="H81" s="16">
+      <c r="H81" s="17">
         <f t="shared" si="15"/>
         <v>27</v>
       </c>
-      <c r="I81" s="32">
-        <v>0</v>
-      </c>
-      <c r="J81" s="15">
+      <c r="I81" s="33">
+        <v>0</v>
+      </c>
+      <c r="J81" s="16">
         <f t="shared" si="16"/>
         <v>150</v>
       </c>
-      <c r="K81" s="15">
+      <c r="K81" s="16">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="L81" s="25">
-        <v>0</v>
-      </c>
-      <c r="M81" s="26">
+      <c r="L81" s="26">
+        <v>0</v>
+      </c>
+      <c r="M81" s="27">
         <v>0</v>
       </c>
     </row>
@@ -4330,14 +4322,14 @@
       <c r="A82" s="1">
         <v>43968</v>
       </c>
-      <c r="B82" s="18">
+      <c r="B82" s="19">
         <f t="shared" si="14"/>
         <v>1936</v>
       </c>
-      <c r="C82" s="12">
-        <v>0</v>
-      </c>
-      <c r="D82" s="12">
+      <c r="C82" s="13">
+        <v>0</v>
+      </c>
+      <c r="D82" s="13">
         <v>0</v>
       </c>
       <c r="E82" s="4">
@@ -4346,28 +4338,28 @@
       <c r="F82" s="3">
         <v>5</v>
       </c>
-      <c r="G82" s="23">
+      <c r="G82" s="24">
         <v>19</v>
       </c>
-      <c r="H82" s="16">
+      <c r="H82" s="17">
         <f t="shared" si="15"/>
         <v>27</v>
       </c>
-      <c r="I82" s="32">
-        <v>0</v>
-      </c>
-      <c r="J82" s="15">
+      <c r="I82" s="33">
+        <v>0</v>
+      </c>
+      <c r="J82" s="16">
         <f t="shared" si="16"/>
         <v>150</v>
       </c>
-      <c r="K82" s="15">
+      <c r="K82" s="16">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="L82" s="25">
-        <v>0</v>
-      </c>
-      <c r="M82" s="26">
+      <c r="L82" s="26">
+        <v>0</v>
+      </c>
+      <c r="M82" s="27">
         <v>0</v>
       </c>
     </row>
@@ -4375,14 +4367,14 @@
       <c r="A83" s="1">
         <v>43969</v>
       </c>
-      <c r="B83" s="18">
+      <c r="B83" s="19">
         <f t="shared" si="14"/>
         <v>1937</v>
       </c>
-      <c r="C83" s="12">
-        <v>1</v>
-      </c>
-      <c r="D83" s="12">
+      <c r="C83" s="13">
+        <v>1</v>
+      </c>
+      <c r="D83" s="13">
         <v>1</v>
       </c>
       <c r="E83" s="4">
@@ -4391,28 +4383,28 @@
       <c r="F83" s="3">
         <v>4</v>
       </c>
-      <c r="G83" s="23">
+      <c r="G83" s="24">
         <v>18</v>
       </c>
-      <c r="H83" s="16">
+      <c r="H83" s="17">
         <f t="shared" si="15"/>
         <v>25</v>
       </c>
-      <c r="I83" s="32">
-        <v>2</v>
-      </c>
-      <c r="J83" s="15">
+      <c r="I83" s="33">
+        <v>2</v>
+      </c>
+      <c r="J83" s="16">
         <f t="shared" si="16"/>
         <v>152</v>
       </c>
-      <c r="K83" s="15">
+      <c r="K83" s="16">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
-      <c r="L83" s="25">
-        <v>1</v>
-      </c>
-      <c r="M83" s="26">
+      <c r="L83" s="26">
+        <v>1</v>
+      </c>
+      <c r="M83" s="27">
         <v>1</v>
       </c>
     </row>
@@ -4420,14 +4412,14 @@
       <c r="A84" s="1">
         <v>43970</v>
       </c>
-      <c r="B84" s="18">
+      <c r="B84" s="19">
         <f t="shared" si="14"/>
         <v>1938</v>
       </c>
-      <c r="C84" s="12">
-        <v>1</v>
-      </c>
-      <c r="D84" s="12">
+      <c r="C84" s="13">
+        <v>1</v>
+      </c>
+      <c r="D84" s="13">
         <v>0</v>
       </c>
       <c r="E84" s="4">
@@ -4436,28 +4428,28 @@
       <c r="F84" s="3">
         <v>4</v>
       </c>
-      <c r="G84" s="23">
+      <c r="G84" s="24">
         <v>16</v>
       </c>
-      <c r="H84" s="16">
+      <c r="H84" s="17">
         <f t="shared" si="15"/>
         <v>23</v>
       </c>
-      <c r="I84" s="32">
-        <v>2</v>
-      </c>
-      <c r="J84" s="15">
+      <c r="I84" s="33">
+        <v>2</v>
+      </c>
+      <c r="J84" s="16">
         <f t="shared" si="16"/>
         <v>152</v>
       </c>
-      <c r="K84" s="15">
+      <c r="K84" s="16">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="L84" s="25">
-        <v>0</v>
-      </c>
-      <c r="M84" s="26">
+      <c r="L84" s="26">
+        <v>0</v>
+      </c>
+      <c r="M84" s="27">
         <v>0</v>
       </c>
     </row>
@@ -4465,14 +4457,14 @@
       <c r="A85" s="1">
         <v>43971</v>
       </c>
-      <c r="B85" s="18">
+      <c r="B85" s="19">
         <f t="shared" si="14"/>
         <v>1938</v>
       </c>
-      <c r="C85" s="12">
-        <v>0</v>
-      </c>
-      <c r="D85" s="12">
+      <c r="C85" s="13">
+        <v>0</v>
+      </c>
+      <c r="D85" s="13">
         <v>0</v>
       </c>
       <c r="E85" s="4">
@@ -4481,28 +4473,28 @@
       <c r="F85" s="3">
         <v>4</v>
       </c>
-      <c r="G85" s="23">
+      <c r="G85" s="24">
         <v>15</v>
       </c>
-      <c r="H85" s="16">
+      <c r="H85" s="17">
         <f t="shared" si="15"/>
         <v>21</v>
       </c>
-      <c r="I85" s="32">
-        <v>2</v>
-      </c>
-      <c r="J85" s="15">
+      <c r="I85" s="33">
+        <v>2</v>
+      </c>
+      <c r="J85" s="16">
         <f t="shared" si="16"/>
         <v>152</v>
       </c>
-      <c r="K85" s="15">
+      <c r="K85" s="16">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="L85" s="25">
-        <v>0</v>
-      </c>
-      <c r="M85" s="26">
+      <c r="L85" s="26">
+        <v>0</v>
+      </c>
+      <c r="M85" s="27">
         <v>0</v>
       </c>
     </row>
@@ -4510,14 +4502,14 @@
       <c r="A86" s="1">
         <v>43972</v>
       </c>
-      <c r="B86" s="18">
+      <c r="B86" s="19">
         <f t="shared" si="14"/>
         <v>1939</v>
       </c>
-      <c r="C86" s="12">
-        <v>1</v>
-      </c>
-      <c r="D86" s="12">
+      <c r="C86" s="13">
+        <v>1</v>
+      </c>
+      <c r="D86" s="13">
         <v>0</v>
       </c>
       <c r="E86" s="4">
@@ -4526,28 +4518,28 @@
       <c r="F86" s="3">
         <v>4</v>
       </c>
-      <c r="G86" s="23">
+      <c r="G86" s="24">
         <v>15</v>
       </c>
-      <c r="H86" s="16">
+      <c r="H86" s="17">
         <f t="shared" si="15"/>
         <v>21</v>
       </c>
-      <c r="I86" s="32">
-        <v>0</v>
-      </c>
-      <c r="J86" s="15">
+      <c r="I86" s="33">
+        <v>0</v>
+      </c>
+      <c r="J86" s="16">
         <f t="shared" si="16"/>
         <v>152</v>
       </c>
-      <c r="K86" s="15">
+      <c r="K86" s="16">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="L86" s="25">
-        <v>0</v>
-      </c>
-      <c r="M86" s="26">
+      <c r="L86" s="26">
+        <v>0</v>
+      </c>
+      <c r="M86" s="27">
         <v>0</v>
       </c>
     </row>
@@ -4555,14 +4547,14 @@
       <c r="A87" s="1">
         <v>43973</v>
       </c>
-      <c r="B87" s="18">
+      <c r="B87" s="19">
         <f t="shared" si="14"/>
         <v>1939</v>
       </c>
-      <c r="C87" s="12">
-        <v>0</v>
-      </c>
-      <c r="D87" s="12">
+      <c r="C87" s="13">
+        <v>0</v>
+      </c>
+      <c r="D87" s="13">
         <v>0</v>
       </c>
       <c r="E87" s="4">
@@ -4571,28 +4563,28 @@
       <c r="F87" s="3">
         <v>3</v>
       </c>
-      <c r="G87" s="23">
+      <c r="G87" s="24">
         <v>15</v>
       </c>
-      <c r="H87" s="16">
+      <c r="H87" s="17">
         <f t="shared" si="15"/>
         <v>20</v>
       </c>
-      <c r="I87" s="32">
-        <v>1</v>
-      </c>
-      <c r="J87" s="15">
+      <c r="I87" s="33">
+        <v>1</v>
+      </c>
+      <c r="J87" s="16">
         <f t="shared" si="16"/>
         <v>152</v>
       </c>
-      <c r="K87" s="15">
+      <c r="K87" s="16">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="L87" s="25">
-        <v>0</v>
-      </c>
-      <c r="M87" s="26">
+      <c r="L87" s="26">
+        <v>0</v>
+      </c>
+      <c r="M87" s="27">
         <v>0</v>
       </c>
     </row>
@@ -4600,14 +4592,14 @@
       <c r="A88" s="1">
         <v>43974</v>
       </c>
-      <c r="B88" s="18">
-        <f t="shared" si="14"/>
+      <c r="B88" s="19">
+        <f t="shared" ref="B88:B103" si="18">B87+C88</f>
         <v>1939</v>
       </c>
-      <c r="C88" s="12">
-        <v>0</v>
-      </c>
-      <c r="D88" s="12">
+      <c r="C88" s="13">
+        <v>0</v>
+      </c>
+      <c r="D88" s="13">
         <v>0</v>
       </c>
       <c r="E88" s="4">
@@ -4616,28 +4608,28 @@
       <c r="F88" s="3">
         <v>3</v>
       </c>
-      <c r="G88" s="23">
+      <c r="G88" s="24">
         <v>15</v>
       </c>
-      <c r="H88" s="16">
-        <f t="shared" si="15"/>
+      <c r="H88" s="17">
+        <f t="shared" ref="H88:H103" si="19">G88+E88</f>
         <v>20</v>
       </c>
-      <c r="I88" s="32">
-        <v>0</v>
-      </c>
-      <c r="J88" s="15">
-        <f t="shared" si="16"/>
+      <c r="I88" s="33">
+        <v>0</v>
+      </c>
+      <c r="J88" s="16">
+        <f t="shared" ref="J88:J103" si="20">J87+K88</f>
         <v>152</v>
       </c>
-      <c r="K88" s="15">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="L88" s="25">
-        <v>0</v>
-      </c>
-      <c r="M88" s="26">
+      <c r="K88" s="16">
+        <f t="shared" ref="K88:K103" si="21">L88+M88</f>
+        <v>0</v>
+      </c>
+      <c r="L88" s="26">
+        <v>0</v>
+      </c>
+      <c r="M88" s="27">
         <v>0</v>
       </c>
     </row>
@@ -4645,14 +4637,14 @@
       <c r="A89" s="1">
         <v>43975</v>
       </c>
-      <c r="B89" s="18">
-        <f t="shared" si="14"/>
+      <c r="B89" s="19">
+        <f t="shared" si="18"/>
         <v>1940</v>
       </c>
-      <c r="C89" s="12">
-        <v>1</v>
-      </c>
-      <c r="D89" s="12">
+      <c r="C89" s="13">
+        <v>1</v>
+      </c>
+      <c r="D89" s="13">
         <v>0</v>
       </c>
       <c r="E89" s="4">
@@ -4661,28 +4653,28 @@
       <c r="F89" s="3">
         <v>3</v>
       </c>
-      <c r="G89" s="23">
+      <c r="G89" s="24">
         <v>15</v>
       </c>
-      <c r="H89" s="16">
-        <f t="shared" si="15"/>
+      <c r="H89" s="17">
+        <f t="shared" si="19"/>
         <v>20</v>
       </c>
-      <c r="I89" s="32">
-        <v>0</v>
-      </c>
-      <c r="J89" s="15">
-        <f t="shared" si="16"/>
+      <c r="I89" s="33">
+        <v>0</v>
+      </c>
+      <c r="J89" s="16">
+        <f t="shared" si="20"/>
         <v>152</v>
       </c>
-      <c r="K89" s="15">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="L89" s="25">
-        <v>0</v>
-      </c>
-      <c r="M89" s="26">
+      <c r="K89" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="L89" s="26">
+        <v>0</v>
+      </c>
+      <c r="M89" s="27">
         <v>0</v>
       </c>
     </row>
@@ -4690,14 +4682,14 @@
       <c r="A90" s="1">
         <v>43976</v>
       </c>
-      <c r="B90" s="18">
-        <f t="shared" si="14"/>
+      <c r="B90" s="19">
+        <f t="shared" si="18"/>
         <v>1942</v>
       </c>
-      <c r="C90" s="12">
-        <v>2</v>
-      </c>
-      <c r="D90" s="12">
+      <c r="C90" s="13">
+        <v>2</v>
+      </c>
+      <c r="D90" s="13">
         <v>0</v>
       </c>
       <c r="E90" s="4">
@@ -4706,28 +4698,28 @@
       <c r="F90" s="3">
         <v>3</v>
       </c>
-      <c r="G90" s="23">
+      <c r="G90" s="24">
         <v>14</v>
       </c>
-      <c r="H90" s="16">
-        <f t="shared" si="15"/>
+      <c r="H90" s="17">
+        <f t="shared" si="19"/>
         <v>19</v>
       </c>
-      <c r="I90" s="32">
-        <v>1</v>
-      </c>
-      <c r="J90" s="15">
-        <f t="shared" si="16"/>
+      <c r="I90" s="33">
+        <v>1</v>
+      </c>
+      <c r="J90" s="16">
+        <f t="shared" si="20"/>
         <v>152</v>
       </c>
-      <c r="K90" s="15">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="L90" s="25">
-        <v>0</v>
-      </c>
-      <c r="M90" s="26">
+      <c r="K90" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="L90" s="26">
+        <v>0</v>
+      </c>
+      <c r="M90" s="27">
         <v>0</v>
       </c>
     </row>
@@ -4735,14 +4727,14 @@
       <c r="A91" s="1">
         <v>43977</v>
       </c>
-      <c r="B91" s="18">
-        <f t="shared" si="14"/>
+      <c r="B91" s="19">
+        <f t="shared" si="18"/>
         <v>1945</v>
       </c>
-      <c r="C91" s="12">
-        <v>3</v>
-      </c>
-      <c r="D91" s="12">
+      <c r="C91" s="13">
+        <v>3</v>
+      </c>
+      <c r="D91" s="13">
         <v>0</v>
       </c>
       <c r="E91" s="4">
@@ -4751,28 +4743,28 @@
       <c r="F91" s="3">
         <v>3</v>
       </c>
-      <c r="G91" s="23">
+      <c r="G91" s="24">
         <v>14</v>
       </c>
-      <c r="H91" s="16">
-        <f t="shared" si="15"/>
+      <c r="H91" s="17">
+        <f t="shared" si="19"/>
         <v>18</v>
       </c>
-      <c r="I91" s="32">
-        <v>1</v>
-      </c>
-      <c r="J91" s="15">
-        <f t="shared" si="16"/>
+      <c r="I91" s="33">
+        <v>1</v>
+      </c>
+      <c r="J91" s="16">
+        <f t="shared" si="20"/>
         <v>152</v>
       </c>
-      <c r="K91" s="15">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="L91" s="25">
-        <v>0</v>
-      </c>
-      <c r="M91" s="26">
+      <c r="K91" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="L91" s="26">
+        <v>0</v>
+      </c>
+      <c r="M91" s="27">
         <v>0</v>
       </c>
     </row>
@@ -4780,14 +4772,14 @@
       <c r="A92" s="1">
         <v>43978</v>
       </c>
-      <c r="B92" s="18">
-        <f t="shared" si="14"/>
+      <c r="B92" s="19">
+        <f t="shared" si="18"/>
         <v>1946</v>
       </c>
-      <c r="C92" s="12">
-        <v>1</v>
-      </c>
-      <c r="D92" s="12">
+      <c r="C92" s="13">
+        <v>1</v>
+      </c>
+      <c r="D92" s="13">
         <v>0</v>
       </c>
       <c r="E92" s="4">
@@ -4796,28 +4788,28 @@
       <c r="F92" s="3">
         <v>3</v>
       </c>
-      <c r="G92" s="23">
+      <c r="G92" s="24">
         <v>13</v>
       </c>
-      <c r="H92" s="16">
-        <f t="shared" si="15"/>
+      <c r="H92" s="17">
+        <f t="shared" si="19"/>
         <v>17</v>
       </c>
-      <c r="I92" s="32">
-        <v>1</v>
-      </c>
-      <c r="J92" s="15">
-        <f t="shared" si="16"/>
+      <c r="I92" s="33">
+        <v>1</v>
+      </c>
+      <c r="J92" s="16">
+        <f t="shared" si="20"/>
         <v>152</v>
       </c>
-      <c r="K92" s="15">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="L92" s="25">
-        <v>0</v>
-      </c>
-      <c r="M92" s="26">
+      <c r="K92" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="L92" s="26">
+        <v>0</v>
+      </c>
+      <c r="M92" s="27">
         <v>0</v>
       </c>
     </row>
@@ -4825,14 +4817,14 @@
       <c r="A93" s="1">
         <v>43979</v>
       </c>
-      <c r="B93" s="18">
-        <f t="shared" si="14"/>
+      <c r="B93" s="19">
+        <f t="shared" si="18"/>
         <v>1947</v>
       </c>
-      <c r="C93" s="12">
-        <v>1</v>
-      </c>
-      <c r="D93" s="12">
+      <c r="C93" s="13">
+        <v>1</v>
+      </c>
+      <c r="D93" s="13">
         <v>1</v>
       </c>
       <c r="E93" s="4">
@@ -4841,28 +4833,28 @@
       <c r="F93" s="3">
         <v>3</v>
       </c>
-      <c r="G93" s="23">
+      <c r="G93" s="24">
         <v>13</v>
       </c>
-      <c r="H93" s="16">
-        <f t="shared" si="15"/>
+      <c r="H93" s="17">
+        <f t="shared" si="19"/>
         <v>17</v>
       </c>
-      <c r="I93" s="32">
-        <v>1</v>
-      </c>
-      <c r="J93" s="15">
-        <f t="shared" si="16"/>
+      <c r="I93" s="33">
+        <v>1</v>
+      </c>
+      <c r="J93" s="16">
+        <f t="shared" si="20"/>
         <v>152</v>
       </c>
-      <c r="K93" s="15">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="L93" s="25">
-        <v>0</v>
-      </c>
-      <c r="M93" s="26">
+      <c r="K93" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="L93" s="26">
+        <v>0</v>
+      </c>
+      <c r="M93" s="27">
         <v>0</v>
       </c>
     </row>
@@ -4870,14 +4862,14 @@
       <c r="A94" s="1">
         <v>43980</v>
       </c>
-      <c r="B94" s="18">
-        <f t="shared" si="14"/>
+      <c r="B94" s="19">
+        <f t="shared" si="18"/>
         <v>1947</v>
       </c>
-      <c r="C94" s="12">
-        <v>0</v>
-      </c>
-      <c r="D94" s="12">
+      <c r="C94" s="13">
+        <v>0</v>
+      </c>
+      <c r="D94" s="13">
         <v>0</v>
       </c>
       <c r="E94" s="4">
@@ -4886,28 +4878,28 @@
       <c r="F94" s="3">
         <v>3</v>
       </c>
-      <c r="G94" s="23">
+      <c r="G94" s="24">
         <v>12</v>
       </c>
-      <c r="H94" s="16">
-        <f t="shared" si="15"/>
+      <c r="H94" s="17">
+        <f t="shared" si="19"/>
         <v>16</v>
       </c>
-      <c r="I94" s="32">
-        <v>1</v>
-      </c>
-      <c r="J94" s="15">
-        <f t="shared" si="16"/>
+      <c r="I94" s="33">
+        <v>1</v>
+      </c>
+      <c r="J94" s="16">
+        <f t="shared" si="20"/>
         <v>152</v>
       </c>
-      <c r="K94" s="15">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="L94" s="25">
-        <v>0</v>
-      </c>
-      <c r="M94" s="26">
+      <c r="K94" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="L94" s="26">
+        <v>0</v>
+      </c>
+      <c r="M94" s="27">
         <v>0</v>
       </c>
     </row>
@@ -4915,14 +4907,14 @@
       <c r="A95" s="1">
         <v>43981</v>
       </c>
-      <c r="B95" s="18">
-        <f t="shared" si="14"/>
+      <c r="B95" s="19">
+        <f t="shared" si="18"/>
         <v>1947</v>
       </c>
-      <c r="C95" s="12">
-        <v>0</v>
-      </c>
-      <c r="D95" s="12">
+      <c r="C95" s="13">
+        <v>0</v>
+      </c>
+      <c r="D95" s="13">
         <v>0</v>
       </c>
       <c r="E95" s="4">
@@ -4931,28 +4923,28 @@
       <c r="F95" s="3">
         <v>3</v>
       </c>
-      <c r="G95" s="23">
+      <c r="G95" s="24">
         <v>11</v>
       </c>
-      <c r="H95" s="16">
-        <f t="shared" si="15"/>
+      <c r="H95" s="17">
+        <f t="shared" si="19"/>
         <v>15</v>
       </c>
-      <c r="I95" s="32">
-        <v>1</v>
-      </c>
-      <c r="J95" s="15">
-        <f t="shared" si="16"/>
+      <c r="I95" s="33">
+        <v>1</v>
+      </c>
+      <c r="J95" s="16">
+        <f t="shared" si="20"/>
         <v>152</v>
       </c>
-      <c r="K95" s="15">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="L95" s="25">
-        <v>0</v>
-      </c>
-      <c r="M95" s="26">
+      <c r="K95" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="L95" s="26">
+        <v>0</v>
+      </c>
+      <c r="M95" s="27">
         <v>0</v>
       </c>
     </row>
@@ -4960,14 +4952,14 @@
       <c r="A96" s="1">
         <v>43982</v>
       </c>
-      <c r="B96" s="18">
-        <f t="shared" si="14"/>
+      <c r="B96" s="19">
+        <f t="shared" si="18"/>
         <v>1949</v>
       </c>
-      <c r="C96" s="12">
-        <v>2</v>
-      </c>
-      <c r="D96" s="12">
+      <c r="C96" s="13">
+        <v>2</v>
+      </c>
+      <c r="D96" s="13">
         <v>2</v>
       </c>
       <c r="E96" s="4">
@@ -4976,28 +4968,28 @@
       <c r="F96" s="3">
         <v>3</v>
       </c>
-      <c r="G96" s="23">
+      <c r="G96" s="24">
         <v>11</v>
       </c>
-      <c r="H96" s="16">
-        <f t="shared" si="15"/>
+      <c r="H96" s="17">
+        <f t="shared" si="19"/>
         <v>16</v>
       </c>
-      <c r="I96" s="32">
-        <v>1</v>
-      </c>
-      <c r="J96" s="15">
-        <f t="shared" si="16"/>
+      <c r="I96" s="33">
+        <v>1</v>
+      </c>
+      <c r="J96" s="16">
+        <f t="shared" si="20"/>
         <v>152</v>
       </c>
-      <c r="K96" s="15">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="L96" s="25">
-        <v>0</v>
-      </c>
-      <c r="M96" s="26">
+      <c r="K96" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="L96" s="26">
+        <v>0</v>
+      </c>
+      <c r="M96" s="27">
         <v>0</v>
       </c>
     </row>
@@ -5005,14 +4997,14 @@
       <c r="A97" s="1">
         <v>43983</v>
       </c>
-      <c r="B97" s="18">
-        <f t="shared" si="14"/>
+      <c r="B97" s="19">
+        <f t="shared" si="18"/>
         <v>1950</v>
       </c>
-      <c r="C97" s="12">
-        <v>1</v>
-      </c>
-      <c r="D97" s="12">
+      <c r="C97" s="13">
+        <v>1</v>
+      </c>
+      <c r="D97" s="13">
         <v>1</v>
       </c>
       <c r="E97" s="4">
@@ -5021,28 +5013,28 @@
       <c r="F97" s="3">
         <v>3</v>
       </c>
-      <c r="G97" s="23">
+      <c r="G97" s="24">
         <v>12</v>
       </c>
-      <c r="H97" s="16">
-        <f t="shared" si="15"/>
+      <c r="H97" s="17">
+        <f t="shared" si="19"/>
         <v>16</v>
       </c>
-      <c r="I97" s="32">
-        <v>1</v>
-      </c>
-      <c r="J97" s="15">
-        <f t="shared" si="16"/>
+      <c r="I97" s="33">
+        <v>1</v>
+      </c>
+      <c r="J97" s="16">
+        <f t="shared" si="20"/>
         <v>152</v>
       </c>
-      <c r="K97" s="15">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="L97" s="25">
-        <v>0</v>
-      </c>
-      <c r="M97" s="26">
+      <c r="K97" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="L97" s="26">
+        <v>0</v>
+      </c>
+      <c r="M97" s="27">
         <v>0</v>
       </c>
     </row>
@@ -5050,14 +5042,14 @@
       <c r="A98" s="1">
         <v>43984</v>
       </c>
-      <c r="B98" s="18">
-        <f t="shared" si="14"/>
+      <c r="B98" s="19">
+        <f t="shared" si="18"/>
         <v>1951</v>
       </c>
-      <c r="C98" s="12">
-        <v>1</v>
-      </c>
-      <c r="D98" s="12">
+      <c r="C98" s="13">
+        <v>1</v>
+      </c>
+      <c r="D98" s="13">
         <v>0</v>
       </c>
       <c r="E98" s="4">
@@ -5066,28 +5058,28 @@
       <c r="F98" s="3">
         <v>3</v>
       </c>
-      <c r="G98" s="23">
+      <c r="G98" s="24">
         <v>12</v>
       </c>
-      <c r="H98" s="16">
-        <f t="shared" si="15"/>
+      <c r="H98" s="17">
+        <f t="shared" si="19"/>
         <v>16</v>
       </c>
-      <c r="I98" s="32">
-        <v>0</v>
-      </c>
-      <c r="J98" s="15">
-        <f t="shared" si="16"/>
+      <c r="I98" s="33">
+        <v>0</v>
+      </c>
+      <c r="J98" s="16">
+        <f t="shared" si="20"/>
         <v>152</v>
       </c>
-      <c r="K98" s="15">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="L98" s="25">
-        <v>0</v>
-      </c>
-      <c r="M98" s="26">
+      <c r="K98" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="L98" s="26">
+        <v>0</v>
+      </c>
+      <c r="M98" s="27">
         <v>0</v>
       </c>
     </row>
@@ -5095,14 +5087,14 @@
       <c r="A99" s="1">
         <v>43985</v>
       </c>
-      <c r="B99" s="18">
-        <f t="shared" si="14"/>
+      <c r="B99" s="19">
+        <f t="shared" si="18"/>
         <v>1951</v>
       </c>
-      <c r="C99" s="12">
-        <v>0</v>
-      </c>
-      <c r="D99" s="12">
+      <c r="C99" s="13">
+        <v>0</v>
+      </c>
+      <c r="D99" s="13">
         <v>0</v>
       </c>
       <c r="E99" s="4">
@@ -5111,28 +5103,28 @@
       <c r="F99" s="3">
         <v>3</v>
       </c>
-      <c r="G99" s="23">
+      <c r="G99" s="24">
         <v>11</v>
       </c>
-      <c r="H99" s="16">
-        <f t="shared" si="15"/>
+      <c r="H99" s="17">
+        <f t="shared" si="19"/>
         <v>15</v>
       </c>
-      <c r="I99" s="32">
-        <v>1</v>
-      </c>
-      <c r="J99" s="15">
-        <f t="shared" si="16"/>
+      <c r="I99" s="33">
+        <v>1</v>
+      </c>
+      <c r="J99" s="16">
+        <f t="shared" si="20"/>
         <v>152</v>
       </c>
-      <c r="K99" s="15">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="L99" s="25">
-        <v>0</v>
-      </c>
-      <c r="M99" s="26">
+      <c r="K99" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="L99" s="26">
+        <v>0</v>
+      </c>
+      <c r="M99" s="27">
         <v>0</v>
       </c>
     </row>
@@ -5140,14 +5132,14 @@
       <c r="A100" s="1">
         <v>43986</v>
       </c>
-      <c r="B100" s="18">
-        <f t="shared" si="14"/>
+      <c r="B100" s="19">
+        <f t="shared" si="18"/>
         <v>1953</v>
       </c>
-      <c r="C100" s="12">
-        <v>2</v>
-      </c>
-      <c r="D100" s="12">
+      <c r="C100" s="13">
+        <v>2</v>
+      </c>
+      <c r="D100" s="13">
         <v>1</v>
       </c>
       <c r="E100" s="4">
@@ -5156,28 +5148,28 @@
       <c r="F100" s="3">
         <v>3</v>
       </c>
-      <c r="G100" s="23">
+      <c r="G100" s="24">
         <v>12</v>
       </c>
-      <c r="H100" s="16">
-        <f t="shared" si="15"/>
+      <c r="H100" s="17">
+        <f t="shared" si="19"/>
         <v>16</v>
       </c>
-      <c r="I100" s="32">
-        <v>0</v>
-      </c>
-      <c r="J100" s="15">
-        <f t="shared" si="16"/>
+      <c r="I100" s="33">
+        <v>0</v>
+      </c>
+      <c r="J100" s="16">
+        <f t="shared" si="20"/>
         <v>152</v>
       </c>
-      <c r="K100" s="15">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="L100" s="25">
-        <v>0</v>
-      </c>
-      <c r="M100" s="26">
+      <c r="K100" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="L100" s="26">
+        <v>0</v>
+      </c>
+      <c r="M100" s="27">
         <v>0</v>
       </c>
     </row>
@@ -5185,14 +5177,14 @@
       <c r="A101" s="1">
         <v>43987</v>
       </c>
-      <c r="B101" s="18">
-        <f t="shared" si="14"/>
+      <c r="B101" s="19">
+        <f t="shared" si="18"/>
         <v>1956</v>
       </c>
-      <c r="C101" s="12">
-        <v>3</v>
-      </c>
-      <c r="D101" s="12">
+      <c r="C101" s="13">
+        <v>3</v>
+      </c>
+      <c r="D101" s="13">
         <v>0</v>
       </c>
       <c r="E101" s="4">
@@ -5201,28 +5193,28 @@
       <c r="F101" s="3">
         <v>3</v>
       </c>
-      <c r="G101" s="23">
+      <c r="G101" s="24">
         <v>12</v>
       </c>
-      <c r="H101" s="16">
-        <f t="shared" si="15"/>
+      <c r="H101" s="17">
+        <f t="shared" si="19"/>
         <v>16</v>
       </c>
-      <c r="I101" s="32">
-        <v>0</v>
-      </c>
-      <c r="J101" s="15">
-        <f t="shared" si="16"/>
+      <c r="I101" s="33">
+        <v>0</v>
+      </c>
+      <c r="J101" s="16">
+        <f t="shared" si="20"/>
         <v>152</v>
       </c>
-      <c r="K101" s="15">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="L101" s="25">
-        <v>0</v>
-      </c>
-      <c r="M101" s="26">
+      <c r="K101" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="L101" s="26">
+        <v>0</v>
+      </c>
+      <c r="M101" s="27">
         <v>0</v>
       </c>
     </row>
@@ -5230,14 +5222,14 @@
       <c r="A102" s="1">
         <v>43988</v>
       </c>
-      <c r="B102" s="18">
-        <f t="shared" si="14"/>
+      <c r="B102" s="19">
+        <f t="shared" si="18"/>
         <v>1956</v>
       </c>
-      <c r="C102" s="12">
-        <v>0</v>
-      </c>
-      <c r="D102" s="12">
+      <c r="C102" s="13">
+        <v>0</v>
+      </c>
+      <c r="D102" s="13">
         <v>0</v>
       </c>
       <c r="E102" s="4">
@@ -5246,28 +5238,28 @@
       <c r="F102" s="3">
         <v>3</v>
       </c>
-      <c r="G102" s="23">
+      <c r="G102" s="24">
         <v>12</v>
       </c>
-      <c r="H102" s="16">
-        <f t="shared" si="15"/>
+      <c r="H102" s="17">
+        <f t="shared" si="19"/>
         <v>16</v>
       </c>
-      <c r="I102" s="32">
-        <v>0</v>
-      </c>
-      <c r="J102" s="15">
-        <f t="shared" si="16"/>
+      <c r="I102" s="33">
+        <v>0</v>
+      </c>
+      <c r="J102" s="16">
+        <f t="shared" si="20"/>
         <v>152</v>
       </c>
-      <c r="K102" s="15">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="L102" s="25">
-        <v>0</v>
-      </c>
-      <c r="M102" s="26">
+      <c r="K102" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="L102" s="26">
+        <v>0</v>
+      </c>
+      <c r="M102" s="27">
         <v>0</v>
       </c>
     </row>
@@ -5275,14 +5267,14 @@
       <c r="A103" s="1">
         <v>43989</v>
       </c>
-      <c r="B103" s="18">
-        <f t="shared" si="14"/>
+      <c r="B103" s="19">
+        <f t="shared" si="18"/>
         <v>1959</v>
       </c>
-      <c r="C103" s="12">
-        <v>3</v>
-      </c>
-      <c r="D103" s="12">
+      <c r="C103" s="13">
+        <v>3</v>
+      </c>
+      <c r="D103" s="13">
         <v>0</v>
       </c>
       <c r="E103" s="4">
@@ -5291,28 +5283,28 @@
       <c r="F103" s="3">
         <v>3</v>
       </c>
-      <c r="G103" s="23">
+      <c r="G103" s="24">
         <v>12</v>
       </c>
-      <c r="H103" s="16">
-        <f t="shared" si="15"/>
+      <c r="H103" s="17">
+        <f t="shared" si="19"/>
         <v>16</v>
       </c>
-      <c r="I103" s="32">
-        <v>0</v>
-      </c>
-      <c r="J103" s="15">
-        <f t="shared" si="16"/>
+      <c r="I103" s="33">
+        <v>0</v>
+      </c>
+      <c r="J103" s="16">
+        <f t="shared" si="20"/>
         <v>152</v>
       </c>
-      <c r="K103" s="15">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="L103" s="25">
-        <v>0</v>
-      </c>
-      <c r="M103" s="26">
+      <c r="K103" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="L103" s="26">
+        <v>0</v>
+      </c>
+      <c r="M103" s="27">
         <v>0</v>
       </c>
     </row>
@@ -5320,14 +5312,14 @@
       <c r="A104" s="1">
         <v>43990</v>
       </c>
-      <c r="B104" s="18">
-        <f t="shared" si="14"/>
+      <c r="B104" s="19">
+        <f t="shared" ref="B104:B115" si="22">B103+C104</f>
         <v>1964</v>
       </c>
-      <c r="C104" s="12">
+      <c r="C104" s="13">
         <v>5</v>
       </c>
-      <c r="D104" s="12">
+      <c r="D104" s="13">
         <v>0</v>
       </c>
       <c r="E104" s="4">
@@ -5336,28 +5328,28 @@
       <c r="F104" s="3">
         <v>3</v>
       </c>
-      <c r="G104" s="23">
+      <c r="G104" s="24">
         <v>12</v>
       </c>
-      <c r="H104" s="16">
-        <f t="shared" si="15"/>
+      <c r="H104" s="17">
+        <f t="shared" ref="H104:H115" si="23">G104+E104</f>
         <v>16</v>
       </c>
-      <c r="I104" s="32">
-        <v>0</v>
-      </c>
-      <c r="J104" s="15">
-        <f t="shared" si="16"/>
+      <c r="I104" s="33">
+        <v>0</v>
+      </c>
+      <c r="J104" s="16">
+        <f t="shared" ref="J104:J115" si="24">J103+K104</f>
         <v>152</v>
       </c>
-      <c r="K104" s="15">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="L104" s="25">
-        <v>0</v>
-      </c>
-      <c r="M104" s="26">
+      <c r="K104" s="16">
+        <f t="shared" ref="K104:K115" si="25">L104+M104</f>
+        <v>0</v>
+      </c>
+      <c r="L104" s="26">
+        <v>0</v>
+      </c>
+      <c r="M104" s="27">
         <v>0</v>
       </c>
     </row>
@@ -5365,14 +5357,14 @@
       <c r="A105" s="1">
         <v>43991</v>
       </c>
-      <c r="B105" s="18">
-        <f t="shared" si="14"/>
+      <c r="B105" s="19">
+        <f t="shared" si="22"/>
         <v>1965</v>
       </c>
-      <c r="C105" s="12">
-        <v>1</v>
-      </c>
-      <c r="D105" s="12">
+      <c r="C105" s="13">
+        <v>1</v>
+      </c>
+      <c r="D105" s="13">
         <v>0</v>
       </c>
       <c r="E105" s="4">
@@ -5381,28 +5373,28 @@
       <c r="F105" s="3">
         <v>3</v>
       </c>
-      <c r="G105" s="23">
+      <c r="G105" s="24">
         <v>12</v>
       </c>
-      <c r="H105" s="16">
-        <f t="shared" si="15"/>
+      <c r="H105" s="17">
+        <f t="shared" si="23"/>
         <v>16</v>
       </c>
-      <c r="I105" s="32">
-        <v>0</v>
-      </c>
-      <c r="J105" s="15">
-        <f t="shared" si="16"/>
+      <c r="I105" s="33">
+        <v>0</v>
+      </c>
+      <c r="J105" s="16">
+        <f t="shared" si="24"/>
         <v>152</v>
       </c>
-      <c r="K105" s="15">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="L105" s="25">
-        <v>0</v>
-      </c>
-      <c r="M105" s="26">
+      <c r="K105" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="L105" s="26">
+        <v>0</v>
+      </c>
+      <c r="M105" s="27">
         <v>0</v>
       </c>
     </row>
@@ -5410,14 +5402,14 @@
       <c r="A106" s="1">
         <v>43992</v>
       </c>
-      <c r="B106" s="18">
-        <f t="shared" ref="B106:B114" si="18">B105+C106</f>
+      <c r="B106" s="19">
+        <f t="shared" si="22"/>
         <v>1969</v>
       </c>
-      <c r="C106" s="12">
-        <v>4</v>
-      </c>
-      <c r="D106" s="12">
+      <c r="C106" s="13">
+        <v>4</v>
+      </c>
+      <c r="D106" s="13">
         <v>0</v>
       </c>
       <c r="E106" s="4">
@@ -5426,28 +5418,28 @@
       <c r="F106" s="3">
         <v>3</v>
       </c>
-      <c r="G106" s="23">
+      <c r="G106" s="24">
         <v>12</v>
       </c>
-      <c r="H106" s="16">
-        <f t="shared" ref="H106:H114" si="19">G106+E106</f>
+      <c r="H106" s="17">
+        <f t="shared" si="23"/>
         <v>16</v>
       </c>
-      <c r="I106" s="32">
-        <v>0</v>
-      </c>
-      <c r="J106" s="15">
-        <f t="shared" ref="J106:J114" si="20">J105+K106</f>
+      <c r="I106" s="33">
+        <v>0</v>
+      </c>
+      <c r="J106" s="16">
+        <f t="shared" si="24"/>
         <v>152</v>
       </c>
-      <c r="K106" s="15">
-        <f t="shared" ref="K106:K114" si="21">L106+M106</f>
-        <v>0</v>
-      </c>
-      <c r="L106" s="25">
-        <v>0</v>
-      </c>
-      <c r="M106" s="26">
+      <c r="K106" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="L106" s="26">
+        <v>0</v>
+      </c>
+      <c r="M106" s="27">
         <v>0</v>
       </c>
     </row>
@@ -5455,14 +5447,14 @@
       <c r="A107" s="1">
         <v>43993</v>
       </c>
-      <c r="B107" s="18">
-        <f t="shared" si="18"/>
+      <c r="B107" s="19">
+        <f t="shared" si="22"/>
         <v>1973</v>
       </c>
-      <c r="C107" s="12">
-        <v>4</v>
-      </c>
-      <c r="D107" s="12">
+      <c r="C107" s="13">
+        <v>4</v>
+      </c>
+      <c r="D107" s="13">
         <v>0</v>
       </c>
       <c r="E107" s="4">
@@ -5471,28 +5463,28 @@
       <c r="F107" s="3">
         <v>3</v>
       </c>
-      <c r="G107" s="23">
+      <c r="G107" s="24">
         <v>12</v>
       </c>
-      <c r="H107" s="16">
-        <f t="shared" si="19"/>
+      <c r="H107" s="17">
+        <f t="shared" si="23"/>
         <v>16</v>
       </c>
-      <c r="I107" s="32">
-        <v>0</v>
-      </c>
-      <c r="J107" s="15">
-        <f t="shared" si="20"/>
+      <c r="I107" s="33">
+        <v>0</v>
+      </c>
+      <c r="J107" s="16">
+        <f t="shared" si="24"/>
         <v>152</v>
       </c>
-      <c r="K107" s="15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="L107" s="25">
-        <v>0</v>
-      </c>
-      <c r="M107" s="26">
+      <c r="K107" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="L107" s="26">
+        <v>0</v>
+      </c>
+      <c r="M107" s="27">
         <v>0</v>
       </c>
     </row>
@@ -5500,14 +5492,14 @@
       <c r="A108" s="1">
         <v>43994</v>
       </c>
-      <c r="B108" s="18">
-        <f t="shared" si="18"/>
+      <c r="B108" s="19">
+        <f t="shared" si="22"/>
         <v>1977</v>
       </c>
-      <c r="C108" s="12">
-        <v>4</v>
-      </c>
-      <c r="D108" s="12">
+      <c r="C108" s="13">
+        <v>4</v>
+      </c>
+      <c r="D108" s="13">
         <v>0</v>
       </c>
       <c r="E108" s="4">
@@ -5516,28 +5508,28 @@
       <c r="F108" s="3">
         <v>3</v>
       </c>
-      <c r="G108" s="23">
+      <c r="G108" s="24">
         <v>12</v>
       </c>
-      <c r="H108" s="16">
-        <f t="shared" si="19"/>
+      <c r="H108" s="17">
+        <f t="shared" si="23"/>
         <v>16</v>
       </c>
-      <c r="I108" s="32">
-        <v>0</v>
-      </c>
-      <c r="J108" s="15">
-        <f t="shared" si="20"/>
+      <c r="I108" s="33">
+        <v>0</v>
+      </c>
+      <c r="J108" s="16">
+        <f t="shared" si="24"/>
         <v>153</v>
       </c>
-      <c r="K108" s="15">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="L108" s="25">
-        <v>0</v>
-      </c>
-      <c r="M108" s="26">
+      <c r="K108" s="16">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="L108" s="26">
+        <v>0</v>
+      </c>
+      <c r="M108" s="27">
         <v>1</v>
       </c>
     </row>
@@ -5545,14 +5537,14 @@
       <c r="A109" s="1">
         <v>43995</v>
       </c>
-      <c r="B109" s="18">
-        <f t="shared" si="18"/>
+      <c r="B109" s="19">
+        <f t="shared" si="22"/>
         <v>1977</v>
       </c>
-      <c r="C109" s="12">
-        <v>0</v>
-      </c>
-      <c r="D109" s="12">
+      <c r="C109" s="13">
+        <v>0</v>
+      </c>
+      <c r="D109" s="13">
         <v>0</v>
       </c>
       <c r="E109" s="4">
@@ -5561,28 +5553,28 @@
       <c r="F109" s="3">
         <v>3</v>
       </c>
-      <c r="G109" s="23">
+      <c r="G109" s="24">
         <v>11</v>
       </c>
-      <c r="H109" s="16">
-        <f t="shared" si="19"/>
+      <c r="H109" s="17">
+        <f t="shared" si="23"/>
         <v>15</v>
       </c>
-      <c r="I109" s="32">
-        <v>1</v>
-      </c>
-      <c r="J109" s="15">
-        <f t="shared" si="20"/>
+      <c r="I109" s="33">
+        <v>1</v>
+      </c>
+      <c r="J109" s="16">
+        <f t="shared" si="24"/>
         <v>153</v>
       </c>
-      <c r="K109" s="15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="L109" s="25">
-        <v>0</v>
-      </c>
-      <c r="M109" s="26">
+      <c r="K109" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="L109" s="26">
+        <v>0</v>
+      </c>
+      <c r="M109" s="27">
         <v>0</v>
       </c>
     </row>
@@ -5590,14 +5582,14 @@
       <c r="A110" s="1">
         <v>43996</v>
       </c>
-      <c r="B110" s="18">
-        <f t="shared" si="18"/>
+      <c r="B110" s="19">
+        <f t="shared" si="22"/>
         <v>1977</v>
       </c>
-      <c r="C110" s="12">
-        <v>0</v>
-      </c>
-      <c r="D110" s="12">
+      <c r="C110" s="13">
+        <v>0</v>
+      </c>
+      <c r="D110" s="13">
         <v>0</v>
       </c>
       <c r="E110" s="4">
@@ -5606,28 +5598,28 @@
       <c r="F110" s="3">
         <v>3</v>
       </c>
-      <c r="G110" s="23">
+      <c r="G110" s="24">
         <v>11</v>
       </c>
-      <c r="H110" s="16">
-        <f t="shared" si="19"/>
+      <c r="H110" s="17">
+        <f t="shared" si="23"/>
         <v>15</v>
       </c>
-      <c r="I110" s="32">
-        <v>0</v>
-      </c>
-      <c r="J110" s="15">
-        <f t="shared" si="20"/>
+      <c r="I110" s="33">
+        <v>0</v>
+      </c>
+      <c r="J110" s="16">
+        <f t="shared" si="24"/>
         <v>153</v>
       </c>
-      <c r="K110" s="15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="L110" s="25">
-        <v>0</v>
-      </c>
-      <c r="M110" s="26">
+      <c r="K110" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="L110" s="26">
+        <v>0</v>
+      </c>
+      <c r="M110" s="27">
         <v>0</v>
       </c>
     </row>
@@ -5635,14 +5627,14 @@
       <c r="A111" s="1">
         <v>43997</v>
       </c>
-      <c r="B111" s="18">
-        <f t="shared" si="18"/>
+      <c r="B111" s="19">
+        <f t="shared" si="22"/>
         <v>1981</v>
       </c>
-      <c r="C111" s="12">
-        <v>4</v>
-      </c>
-      <c r="D111" s="12">
+      <c r="C111" s="13">
+        <v>4</v>
+      </c>
+      <c r="D111" s="13">
         <v>0</v>
       </c>
       <c r="E111" s="4">
@@ -5651,28 +5643,28 @@
       <c r="F111" s="3">
         <v>3</v>
       </c>
-      <c r="G111" s="23">
+      <c r="G111" s="24">
         <v>11</v>
       </c>
-      <c r="H111" s="16">
-        <f t="shared" si="19"/>
+      <c r="H111" s="17">
+        <f t="shared" si="23"/>
         <v>15</v>
       </c>
-      <c r="I111" s="32">
-        <v>0</v>
-      </c>
-      <c r="J111" s="15">
-        <f t="shared" si="20"/>
+      <c r="I111" s="33">
+        <v>0</v>
+      </c>
+      <c r="J111" s="16">
+        <f t="shared" si="24"/>
         <v>153</v>
       </c>
-      <c r="K111" s="15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="L111" s="25">
-        <v>0</v>
-      </c>
-      <c r="M111" s="26">
+      <c r="K111" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="L111" s="26">
+        <v>0</v>
+      </c>
+      <c r="M111" s="27">
         <v>0</v>
       </c>
     </row>
@@ -5680,14 +5672,14 @@
       <c r="A112" s="1">
         <v>43998</v>
       </c>
-      <c r="B112" s="18">
-        <f t="shared" si="18"/>
-        <v>1984</v>
-      </c>
-      <c r="C112" s="12">
-        <v>3</v>
-      </c>
-      <c r="D112" s="12">
+      <c r="B112" s="19">
+        <f t="shared" si="22"/>
+        <v>1985</v>
+      </c>
+      <c r="C112" s="13">
+        <v>4</v>
+      </c>
+      <c r="D112" s="13">
         <v>0</v>
       </c>
       <c r="E112" s="4">
@@ -5696,28 +5688,28 @@
       <c r="F112" s="3">
         <v>3</v>
       </c>
-      <c r="G112" s="23">
+      <c r="G112" s="24">
         <v>11</v>
       </c>
-      <c r="H112" s="16">
-        <f t="shared" si="19"/>
+      <c r="H112" s="17">
+        <f t="shared" si="23"/>
         <v>15</v>
       </c>
-      <c r="I112" s="32">
-        <v>0</v>
-      </c>
-      <c r="J112" s="15">
-        <f t="shared" si="20"/>
+      <c r="I112" s="33">
+        <v>0</v>
+      </c>
+      <c r="J112" s="16">
+        <f t="shared" si="24"/>
         <v>153</v>
       </c>
-      <c r="K112" s="15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="L112" s="25">
-        <v>0</v>
-      </c>
-      <c r="M112" s="26">
+      <c r="K112" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="L112" s="26">
+        <v>0</v>
+      </c>
+      <c r="M112" s="27">
         <v>0</v>
       </c>
     </row>
@@ -5725,14 +5717,14 @@
       <c r="A113" s="1">
         <v>43999</v>
       </c>
-      <c r="B113" s="18">
-        <f t="shared" si="18"/>
-        <v>1985</v>
-      </c>
-      <c r="C113" s="12">
-        <v>1</v>
-      </c>
-      <c r="D113" s="12">
+      <c r="B113" s="19">
+        <f t="shared" si="22"/>
+        <v>1986</v>
+      </c>
+      <c r="C113" s="13">
+        <v>1</v>
+      </c>
+      <c r="D113" s="13">
         <v>0</v>
       </c>
       <c r="E113" s="4">
@@ -5741,38 +5733,38 @@
       <c r="F113" s="3">
         <v>3</v>
       </c>
-      <c r="G113" s="23">
+      <c r="G113" s="24">
         <v>11</v>
       </c>
-      <c r="H113" s="16">
-        <f t="shared" si="19"/>
+      <c r="H113" s="17">
+        <f t="shared" si="23"/>
         <v>15</v>
       </c>
-      <c r="I113" s="32">
-        <v>0</v>
-      </c>
-      <c r="J113" s="15">
-        <f t="shared" si="20"/>
+      <c r="I113" s="33">
+        <v>0</v>
+      </c>
+      <c r="J113" s="16">
+        <f t="shared" si="24"/>
         <v>153</v>
       </c>
-      <c r="K113" s="15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="L113" s="25">
-        <v>0</v>
-      </c>
-      <c r="M113" s="26">
+      <c r="K113" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="L113" s="26">
+        <v>0</v>
+      </c>
+      <c r="M113" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A114" s="2">
+      <c r="A114" s="1">
         <v>44000</v>
       </c>
       <c r="B114" s="19">
-        <f t="shared" si="18"/>
-        <v>1985</v>
+        <f t="shared" si="22"/>
+        <v>1986</v>
       </c>
       <c r="C114" s="13">
         <v>0</v>
@@ -5780,34 +5772,79 @@
       <c r="D114" s="13">
         <v>0</v>
       </c>
-      <c r="E114" s="29">
-        <v>4</v>
-      </c>
-      <c r="F114" s="30">
+      <c r="E114" s="4">
+        <v>4</v>
+      </c>
+      <c r="F114" s="3">
         <v>3</v>
       </c>
       <c r="G114" s="24">
         <v>11</v>
       </c>
       <c r="H114" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>15</v>
       </c>
       <c r="I114" s="33">
         <v>0</v>
       </c>
-      <c r="J114" s="20">
-        <f t="shared" si="20"/>
+      <c r="J114" s="16">
+        <f t="shared" si="24"/>
         <v>153</v>
       </c>
-      <c r="K114" s="20">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="L114" s="27">
-        <v>0</v>
-      </c>
-      <c r="M114" s="28">
+      <c r="K114" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="L114" s="26">
+        <v>0</v>
+      </c>
+      <c r="M114" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A115" s="2">
+        <v>44001</v>
+      </c>
+      <c r="B115" s="20">
+        <f t="shared" si="22"/>
+        <v>1986</v>
+      </c>
+      <c r="C115" s="14">
+        <v>0</v>
+      </c>
+      <c r="D115" s="14">
+        <v>0</v>
+      </c>
+      <c r="E115" s="30">
+        <v>4</v>
+      </c>
+      <c r="F115" s="31">
+        <v>3</v>
+      </c>
+      <c r="G115" s="25">
+        <v>11</v>
+      </c>
+      <c r="H115" s="18">
+        <f t="shared" si="23"/>
+        <v>15</v>
+      </c>
+      <c r="I115" s="34">
+        <v>0</v>
+      </c>
+      <c r="J115" s="21">
+        <f t="shared" si="24"/>
+        <v>153</v>
+      </c>
+      <c r="K115" s="21">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="L115" s="28">
+        <v>0</v>
+      </c>
+      <c r="M115" s="29">
         <v>0</v>
       </c>
     </row>

--- a/Chiffres  COVID-19 Valais.xlsx
+++ b/Chiffres  COVID-19 Valais.xlsx
@@ -99,7 +99,7 @@
     <t>Nb de nouvelles sorties</t>
   </si>
   <si>
-    <t>Données COVID-19 Valais 19.06.2020</t>
+    <t>Données COVID-19 Valais 22.06.2020</t>
   </si>
 </sst>
 </file>
@@ -687,10 +687,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O115"/>
+  <dimension ref="A1:O118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:M1"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="A118" sqref="A118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5419,14 +5419,14 @@
         <v>3</v>
       </c>
       <c r="G106" s="24">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H106" s="17">
         <f t="shared" si="23"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I106" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" s="16">
         <f t="shared" si="24"/>
@@ -5461,14 +5461,14 @@
         <v>4</v>
       </c>
       <c r="F107" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G107" s="24">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H107" s="17">
         <f t="shared" si="23"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I107" s="33">
         <v>0</v>
@@ -5506,14 +5506,14 @@
         <v>4</v>
       </c>
       <c r="F108" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G108" s="24">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H108" s="17">
         <f t="shared" si="23"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I108" s="33">
         <v>0</v>
@@ -5548,20 +5548,20 @@
         <v>0</v>
       </c>
       <c r="E109" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F109" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G109" s="24">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H109" s="17">
         <f t="shared" si="23"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I109" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J109" s="16">
         <f t="shared" si="24"/>
@@ -5593,17 +5593,17 @@
         <v>0</v>
       </c>
       <c r="E110" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F110" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G110" s="24">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H110" s="17">
         <f t="shared" si="23"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I110" s="33">
         <v>0</v>
@@ -5638,17 +5638,17 @@
         <v>0</v>
       </c>
       <c r="E111" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F111" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G111" s="24">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H111" s="17">
         <f t="shared" si="23"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I111" s="33">
         <v>0</v>
@@ -5683,17 +5683,17 @@
         <v>0</v>
       </c>
       <c r="E112" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F112" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G112" s="24">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H112" s="17">
         <f t="shared" si="23"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I112" s="33">
         <v>0</v>
@@ -5719,26 +5719,26 @@
       </c>
       <c r="B113" s="19">
         <f t="shared" si="22"/>
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="C113" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D113" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E113" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F113" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G113" s="24">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H113" s="17">
         <f t="shared" si="23"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I113" s="33">
         <v>0</v>
@@ -5764,26 +5764,26 @@
       </c>
       <c r="B114" s="19">
         <f t="shared" si="22"/>
-        <v>1986</v>
+        <v>1988</v>
       </c>
       <c r="C114" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D114" s="13">
         <v>0</v>
       </c>
       <c r="E114" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F114" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G114" s="24">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H114" s="17">
         <f t="shared" si="23"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I114" s="33">
         <v>0</v>
@@ -5804,47 +5804,182 @@
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A115" s="2">
+      <c r="A115" s="1">
         <v>44001</v>
       </c>
-      <c r="B115" s="20">
+      <c r="B115" s="19">
         <f t="shared" si="22"/>
-        <v>1986</v>
-      </c>
-      <c r="C115" s="14">
-        <v>0</v>
-      </c>
-      <c r="D115" s="14">
-        <v>0</v>
-      </c>
-      <c r="E115" s="30">
-        <v>4</v>
-      </c>
-      <c r="F115" s="31">
-        <v>3</v>
-      </c>
-      <c r="G115" s="25">
+        <v>1997</v>
+      </c>
+      <c r="C115" s="13">
+        <v>9</v>
+      </c>
+      <c r="D115" s="13">
+        <v>0</v>
+      </c>
+      <c r="E115" s="4">
+        <v>2</v>
+      </c>
+      <c r="F115" s="3">
+        <v>1</v>
+      </c>
+      <c r="G115" s="24">
         <v>11</v>
       </c>
-      <c r="H115" s="18">
+      <c r="H115" s="17">
         <f t="shared" si="23"/>
-        <v>15</v>
-      </c>
-      <c r="I115" s="34">
-        <v>0</v>
-      </c>
-      <c r="J115" s="21">
+        <v>13</v>
+      </c>
+      <c r="I115" s="33">
+        <v>1</v>
+      </c>
+      <c r="J115" s="16">
         <f t="shared" si="24"/>
         <v>153</v>
       </c>
-      <c r="K115" s="21">
+      <c r="K115" s="16">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="L115" s="28">
-        <v>0</v>
-      </c>
-      <c r="M115" s="29">
+      <c r="L115" s="26">
+        <v>0</v>
+      </c>
+      <c r="M115" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A116" s="1">
+        <v>44002</v>
+      </c>
+      <c r="B116" s="19">
+        <f t="shared" ref="B116:B118" si="26">B115+C116</f>
+        <v>2000</v>
+      </c>
+      <c r="C116" s="13">
+        <v>3</v>
+      </c>
+      <c r="D116" s="13">
+        <v>1</v>
+      </c>
+      <c r="E116" s="4">
+        <v>2</v>
+      </c>
+      <c r="F116" s="3">
+        <v>1</v>
+      </c>
+      <c r="G116" s="24">
+        <v>12</v>
+      </c>
+      <c r="H116" s="17">
+        <f t="shared" ref="H116:H118" si="27">G116+E116</f>
+        <v>14</v>
+      </c>
+      <c r="I116" s="33">
+        <v>0</v>
+      </c>
+      <c r="J116" s="16">
+        <f t="shared" ref="J116:J118" si="28">J115+K116</f>
+        <v>153</v>
+      </c>
+      <c r="K116" s="16">
+        <f t="shared" ref="K116:K118" si="29">L116+M116</f>
+        <v>0</v>
+      </c>
+      <c r="L116" s="26">
+        <v>0</v>
+      </c>
+      <c r="M116" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A117" s="1">
+        <v>44003</v>
+      </c>
+      <c r="B117" s="19">
+        <f t="shared" si="26"/>
+        <v>2001</v>
+      </c>
+      <c r="C117" s="13">
+        <v>1</v>
+      </c>
+      <c r="D117" s="13">
+        <v>1</v>
+      </c>
+      <c r="E117" s="4">
+        <v>2</v>
+      </c>
+      <c r="F117" s="3">
+        <v>1</v>
+      </c>
+      <c r="G117" s="24">
+        <v>13</v>
+      </c>
+      <c r="H117" s="17">
+        <f t="shared" si="27"/>
+        <v>15</v>
+      </c>
+      <c r="I117" s="33">
+        <v>0</v>
+      </c>
+      <c r="J117" s="16">
+        <f t="shared" si="28"/>
+        <v>153</v>
+      </c>
+      <c r="K117" s="16">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="L117" s="26">
+        <v>0</v>
+      </c>
+      <c r="M117" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A118" s="2">
+        <v>44004</v>
+      </c>
+      <c r="B118" s="20">
+        <f t="shared" si="26"/>
+        <v>2002</v>
+      </c>
+      <c r="C118" s="14">
+        <v>1</v>
+      </c>
+      <c r="D118" s="14">
+        <v>0</v>
+      </c>
+      <c r="E118" s="30">
+        <v>2</v>
+      </c>
+      <c r="F118" s="31">
+        <v>1</v>
+      </c>
+      <c r="G118" s="25">
+        <v>13</v>
+      </c>
+      <c r="H118" s="18">
+        <f t="shared" si="27"/>
+        <v>15</v>
+      </c>
+      <c r="I118" s="34">
+        <v>0</v>
+      </c>
+      <c r="J118" s="21">
+        <f t="shared" si="28"/>
+        <v>153</v>
+      </c>
+      <c r="K118" s="21">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="L118" s="28">
+        <v>0</v>
+      </c>
+      <c r="M118" s="29">
         <v>0</v>
       </c>
     </row>

--- a/Chiffres  COVID-19 Valais.xlsx
+++ b/Chiffres  COVID-19 Valais.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Jidfs\users\B105PLS\Documents\COVID-Monitoring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LARVEN\Work Folders\Desktop\G\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -99,7 +99,7 @@
     <t>Nb de nouvelles sorties</t>
   </si>
   <si>
-    <t>Données COVID-19 Valais 22.06.2020</t>
+    <t>Données COVID-19 Valais 24.06.2020</t>
   </si>
 </sst>
 </file>
@@ -406,7 +406,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -422,7 +422,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -687,10 +687,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O118"/>
+  <dimension ref="A1:O120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="A118" sqref="A118"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5313,7 +5313,7 @@
         <v>43990</v>
       </c>
       <c r="B104" s="19">
-        <f t="shared" ref="B104:B115" si="22">B103+C104</f>
+        <f t="shared" ref="B104:B114" si="22">B103+C104</f>
         <v>1964</v>
       </c>
       <c r="C104" s="13">
@@ -5332,18 +5332,18 @@
         <v>12</v>
       </c>
       <c r="H104" s="17">
-        <f t="shared" ref="H104:H115" si="23">G104+E104</f>
+        <f t="shared" ref="H104:H114" si="23">G104+E104</f>
         <v>16</v>
       </c>
       <c r="I104" s="33">
         <v>0</v>
       </c>
       <c r="J104" s="16">
-        <f t="shared" ref="J104:J115" si="24">J103+K104</f>
+        <f t="shared" ref="J104:J114" si="24">J103+K104</f>
         <v>152</v>
       </c>
       <c r="K104" s="16">
-        <f t="shared" ref="K104:K115" si="25">L104+M104</f>
+        <f t="shared" ref="K104:K114" si="25">L104+M104</f>
         <v>0</v>
       </c>
       <c r="L104" s="26">
@@ -5689,14 +5689,14 @@
         <v>1</v>
       </c>
       <c r="G112" s="24">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H112" s="17">
         <f t="shared" si="23"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I112" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" s="16">
         <f t="shared" si="24"/>
@@ -5734,11 +5734,11 @@
         <v>1</v>
       </c>
       <c r="G113" s="24">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H113" s="17">
         <f t="shared" si="23"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I113" s="33">
         <v>0</v>
@@ -5779,11 +5779,11 @@
         <v>1</v>
       </c>
       <c r="G114" s="24">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H114" s="17">
         <f t="shared" si="23"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I114" s="33">
         <v>0</v>
@@ -5808,11 +5808,11 @@
         <v>44001</v>
       </c>
       <c r="B115" s="19">
-        <f t="shared" si="22"/>
-        <v>1997</v>
+        <f t="shared" ref="B115:B118" si="26">B114+C115</f>
+        <v>1996</v>
       </c>
       <c r="C115" s="13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D115" s="13">
         <v>0</v>
@@ -5824,21 +5824,21 @@
         <v>1</v>
       </c>
       <c r="G115" s="24">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H115" s="17">
-        <f t="shared" si="23"/>
-        <v>13</v>
+        <f t="shared" ref="H115:H118" si="27">G115+E115</f>
+        <v>12</v>
       </c>
       <c r="I115" s="33">
         <v>1</v>
       </c>
       <c r="J115" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="J115:J118" si="28">J114+K115</f>
         <v>153</v>
       </c>
       <c r="K115" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="K115:K118" si="29">L115+M115</f>
         <v>0</v>
       </c>
       <c r="L115" s="26">
@@ -5853,11 +5853,11 @@
         <v>44002</v>
       </c>
       <c r="B116" s="19">
-        <f t="shared" ref="B116:B118" si="26">B115+C116</f>
+        <f t="shared" si="26"/>
         <v>2000</v>
       </c>
       <c r="C116" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D116" s="13">
         <v>1</v>
@@ -5869,21 +5869,21 @@
         <v>1</v>
       </c>
       <c r="G116" s="24">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H116" s="17">
-        <f t="shared" ref="H116:H118" si="27">G116+E116</f>
-        <v>14</v>
+        <f t="shared" si="27"/>
+        <v>13</v>
       </c>
       <c r="I116" s="33">
         <v>0</v>
       </c>
       <c r="J116" s="16">
-        <f t="shared" ref="J116:J118" si="28">J115+K116</f>
+        <f t="shared" si="28"/>
         <v>153</v>
       </c>
       <c r="K116" s="16">
-        <f t="shared" ref="K116:K118" si="29">L116+M116</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="L116" s="26">
@@ -5914,11 +5914,11 @@
         <v>1</v>
       </c>
       <c r="G117" s="24">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H117" s="17">
         <f t="shared" si="27"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I117" s="33">
         <v>0</v>
@@ -5939,47 +5939,137 @@
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A118" s="2">
+      <c r="A118" s="1">
         <v>44004</v>
       </c>
-      <c r="B118" s="20">
+      <c r="B118" s="19">
         <f t="shared" si="26"/>
-        <v>2002</v>
-      </c>
-      <c r="C118" s="14">
-        <v>1</v>
-      </c>
-      <c r="D118" s="14">
-        <v>0</v>
-      </c>
-      <c r="E118" s="30">
-        <v>2</v>
-      </c>
-      <c r="F118" s="31">
-        <v>1</v>
-      </c>
-      <c r="G118" s="25">
+        <v>2005</v>
+      </c>
+      <c r="C118" s="13">
+        <v>4</v>
+      </c>
+      <c r="D118" s="13">
+        <v>0</v>
+      </c>
+      <c r="E118" s="4">
+        <v>2</v>
+      </c>
+      <c r="F118" s="3">
+        <v>1</v>
+      </c>
+      <c r="G118" s="24">
+        <v>11</v>
+      </c>
+      <c r="H118" s="17">
+        <f t="shared" si="27"/>
         <v>13</v>
       </c>
-      <c r="H118" s="18">
-        <f t="shared" si="27"/>
-        <v>15</v>
-      </c>
-      <c r="I118" s="34">
-        <v>0</v>
-      </c>
-      <c r="J118" s="21">
+      <c r="I118" s="33">
+        <v>1</v>
+      </c>
+      <c r="J118" s="16">
         <f t="shared" si="28"/>
         <v>153</v>
       </c>
-      <c r="K118" s="21">
+      <c r="K118" s="16">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="L118" s="28">
-        <v>0</v>
-      </c>
-      <c r="M118" s="29">
+      <c r="L118" s="26">
+        <v>0</v>
+      </c>
+      <c r="M118" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A119" s="1">
+        <v>44005</v>
+      </c>
+      <c r="B119" s="19">
+        <f t="shared" ref="B119:B120" si="30">B118+C119</f>
+        <v>2009</v>
+      </c>
+      <c r="C119" s="13">
+        <v>4</v>
+      </c>
+      <c r="D119" s="13">
+        <v>0</v>
+      </c>
+      <c r="E119" s="4">
+        <v>2</v>
+      </c>
+      <c r="F119" s="3">
+        <v>1</v>
+      </c>
+      <c r="G119" s="24">
+        <v>11</v>
+      </c>
+      <c r="H119" s="17">
+        <f t="shared" ref="H119:H120" si="31">G119+E119</f>
+        <v>13</v>
+      </c>
+      <c r="I119" s="33">
+        <v>0</v>
+      </c>
+      <c r="J119" s="16">
+        <f t="shared" ref="J119:J120" si="32">J118+K119</f>
+        <v>153</v>
+      </c>
+      <c r="K119" s="16">
+        <f t="shared" ref="K119:K120" si="33">L119+M119</f>
+        <v>0</v>
+      </c>
+      <c r="L119" s="26">
+        <v>0</v>
+      </c>
+      <c r="M119" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A120" s="2">
+        <v>44006</v>
+      </c>
+      <c r="B120" s="20">
+        <f t="shared" si="30"/>
+        <v>2009</v>
+      </c>
+      <c r="C120" s="14">
+        <v>0</v>
+      </c>
+      <c r="D120" s="14">
+        <v>0</v>
+      </c>
+      <c r="E120" s="30">
+        <v>2</v>
+      </c>
+      <c r="F120" s="31">
+        <v>1</v>
+      </c>
+      <c r="G120" s="25">
+        <v>10</v>
+      </c>
+      <c r="H120" s="18">
+        <f t="shared" si="31"/>
+        <v>12</v>
+      </c>
+      <c r="I120" s="34">
+        <v>1</v>
+      </c>
+      <c r="J120" s="21">
+        <f t="shared" si="32"/>
+        <v>153</v>
+      </c>
+      <c r="K120" s="21">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="L120" s="28">
+        <v>0</v>
+      </c>
+      <c r="M120" s="29">
         <v>0</v>
       </c>
     </row>

--- a/Chiffres  COVID-19 Valais.xlsx
+++ b/Chiffres  COVID-19 Valais.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LARVEN\Work Folders\Desktop\G\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Jidfs\users\B105PLS\Documents\COVID-Monitoring\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -99,7 +99,7 @@
     <t>Nb de nouvelles sorties</t>
   </si>
   <si>
-    <t>Données COVID-19 Valais 24.06.2020</t>
+    <t>Données COVID-19 Valais 25.06.2020</t>
   </si>
 </sst>
 </file>
@@ -406,7 +406,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -422,7 +422,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -687,10 +687,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O120"/>
+  <dimension ref="A1:N121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="A125" sqref="A125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -703,7 +703,7 @@
     <col min="13" max="13" width="15.7265625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="35" t="s">
         <v>13</v>
       </c>
@@ -720,7 +720,7 @@
       <c r="L1" s="36"/>
       <c r="M1" s="37"/>
     </row>
-    <row r="2" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -761,9 +761,8 @@
         <v>10</v>
       </c>
       <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>43889</v>
       </c>
@@ -808,7 +807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>43890</v>
       </c>
@@ -853,7 +852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>43891</v>
       </c>
@@ -898,7 +897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>43892</v>
       </c>
@@ -943,7 +942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>43893</v>
       </c>
@@ -988,7 +987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>43894</v>
       </c>
@@ -1033,7 +1032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>43895</v>
       </c>
@@ -1078,7 +1077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>43896</v>
       </c>
@@ -1123,7 +1122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>43897</v>
       </c>
@@ -1168,7 +1167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>43898</v>
       </c>
@@ -1213,7 +1212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>43899</v>
       </c>
@@ -1258,7 +1257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>43900</v>
       </c>
@@ -1303,7 +1302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>43901</v>
       </c>
@@ -1348,7 +1347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>43902</v>
       </c>
@@ -5944,10 +5943,10 @@
       </c>
       <c r="B118" s="19">
         <f t="shared" si="26"/>
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="C118" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D118" s="13">
         <v>0</v>
@@ -5988,11 +5987,11 @@
         <v>44005</v>
       </c>
       <c r="B119" s="19">
-        <f t="shared" ref="B119:B120" si="30">B118+C119</f>
-        <v>2009</v>
+        <f t="shared" ref="B119" si="30">B118+C119</f>
+        <v>2011</v>
       </c>
       <c r="C119" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D119" s="13">
         <v>0</v>
@@ -6007,18 +6006,18 @@
         <v>11</v>
       </c>
       <c r="H119" s="17">
-        <f t="shared" ref="H119:H120" si="31">G119+E119</f>
+        <f t="shared" ref="H119" si="31">G119+E119</f>
         <v>13</v>
       </c>
       <c r="I119" s="33">
         <v>0</v>
       </c>
       <c r="J119" s="16">
-        <f t="shared" ref="J119:J120" si="32">J118+K119</f>
+        <f t="shared" ref="J119" si="32">J118+K119</f>
         <v>153</v>
       </c>
       <c r="K119" s="16">
-        <f t="shared" ref="K119:K120" si="33">L119+M119</f>
+        <f t="shared" ref="K119" si="33">L119+M119</f>
         <v>0</v>
       </c>
       <c r="L119" s="26">
@@ -6029,47 +6028,92 @@
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A120" s="2">
+      <c r="A120" s="1">
         <v>44006</v>
       </c>
-      <c r="B120" s="20">
-        <f t="shared" si="30"/>
-        <v>2009</v>
-      </c>
-      <c r="C120" s="14">
-        <v>0</v>
-      </c>
-      <c r="D120" s="14">
-        <v>0</v>
-      </c>
-      <c r="E120" s="30">
-        <v>2</v>
-      </c>
-      <c r="F120" s="31">
-        <v>1</v>
-      </c>
-      <c r="G120" s="25">
-        <v>10</v>
-      </c>
-      <c r="H120" s="18">
-        <f t="shared" si="31"/>
-        <v>12</v>
-      </c>
-      <c r="I120" s="34">
-        <v>1</v>
-      </c>
-      <c r="J120" s="21">
-        <f t="shared" si="32"/>
+      <c r="B120" s="19">
+        <f t="shared" ref="B120:B121" si="34">B119+C120</f>
+        <v>2019</v>
+      </c>
+      <c r="C120" s="13">
+        <v>8</v>
+      </c>
+      <c r="D120" s="13">
+        <v>1</v>
+      </c>
+      <c r="E120" s="4">
+        <v>2</v>
+      </c>
+      <c r="F120" s="3">
+        <v>1</v>
+      </c>
+      <c r="G120" s="24">
+        <v>11</v>
+      </c>
+      <c r="H120" s="17">
+        <f t="shared" ref="H120:H121" si="35">G120+E120</f>
+        <v>13</v>
+      </c>
+      <c r="I120" s="33">
+        <v>1</v>
+      </c>
+      <c r="J120" s="16">
+        <f t="shared" ref="J120:J121" si="36">J119+K120</f>
         <v>153</v>
       </c>
-      <c r="K120" s="21">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="L120" s="28">
-        <v>0</v>
-      </c>
-      <c r="M120" s="29">
+      <c r="K120" s="16">
+        <f t="shared" ref="K120:K121" si="37">L120+M120</f>
+        <v>0</v>
+      </c>
+      <c r="L120" s="26">
+        <v>0</v>
+      </c>
+      <c r="M120" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A121" s="2">
+        <v>44007</v>
+      </c>
+      <c r="B121" s="20">
+        <f t="shared" si="34"/>
+        <v>2020</v>
+      </c>
+      <c r="C121" s="14">
+        <v>1</v>
+      </c>
+      <c r="D121" s="14">
+        <v>0</v>
+      </c>
+      <c r="E121" s="30">
+        <v>2</v>
+      </c>
+      <c r="F121" s="31">
+        <v>1</v>
+      </c>
+      <c r="G121" s="25">
+        <v>11</v>
+      </c>
+      <c r="H121" s="18">
+        <f t="shared" si="35"/>
+        <v>13</v>
+      </c>
+      <c r="I121" s="34">
+        <v>0</v>
+      </c>
+      <c r="J121" s="21">
+        <f t="shared" si="36"/>
+        <v>153</v>
+      </c>
+      <c r="K121" s="21">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="L121" s="28">
+        <v>0</v>
+      </c>
+      <c r="M121" s="29">
         <v>0</v>
       </c>
     </row>

--- a/Chiffres  COVID-19 Valais.xlsx
+++ b/Chiffres  COVID-19 Valais.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Jidfs\users\B105PLS\Documents\COVID-Monitoring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\11. Maladies transmissibles\11.2. Lutte\11.2.3. Pandémies\COVID-19\Epi\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -99,7 +99,7 @@
     <t>Nb de nouvelles sorties</t>
   </si>
   <si>
-    <t>Données COVID-19 Valais 25.06.2020</t>
+    <t>Données COVID-19 Valais 26.06.2020</t>
   </si>
 </sst>
 </file>
@@ -406,7 +406,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -422,7 +422,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -687,23 +687,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N121"/>
+  <dimension ref="A1:N122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="A125" sqref="A125"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:T1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="11.453125" style="15"/>
-    <col min="4" max="4" width="10.81640625" style="15"/>
-    <col min="8" max="9" width="16.1796875" customWidth="1"/>
-    <col min="11" max="11" width="14.54296875" customWidth="1"/>
-    <col min="12" max="12" width="13.54296875" customWidth="1"/>
-    <col min="13" max="13" width="15.7265625" style="6" customWidth="1"/>
+    <col min="2" max="3" width="11.42578125" style="15"/>
+    <col min="4" max="4" width="10.85546875" style="15"/>
+    <col min="8" max="9" width="16.140625" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
         <v>13</v>
       </c>
@@ -720,7 +720,7 @@
       <c r="L1" s="36"/>
       <c r="M1" s="37"/>
     </row>
-    <row r="2" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -762,7 +762,7 @@
       </c>
       <c r="N2" s="5"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43889</v>
       </c>
@@ -807,7 +807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43890</v>
       </c>
@@ -852,7 +852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43891</v>
       </c>
@@ -897,7 +897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43892</v>
       </c>
@@ -942,7 +942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43893</v>
       </c>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43894</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43895</v>
       </c>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43896</v>
       </c>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43897</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43898</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43899</v>
       </c>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43900</v>
       </c>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43901</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43902</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43903</v>
       </c>
@@ -1437,7 +1437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43904</v>
       </c>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43905</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43906</v>
       </c>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43907</v>
       </c>
@@ -1617,7 +1617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43908</v>
       </c>
@@ -1662,7 +1662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43909</v>
       </c>
@@ -1707,7 +1707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43910</v>
       </c>
@@ -1752,7 +1752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43911</v>
       </c>
@@ -1797,7 +1797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43912</v>
       </c>
@@ -1842,7 +1842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43913</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43914</v>
       </c>
@@ -1932,7 +1932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43915</v>
       </c>
@@ -1977,7 +1977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43916</v>
       </c>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43917</v>
       </c>
@@ -2067,7 +2067,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43918</v>
       </c>
@@ -2112,7 +2112,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43919</v>
       </c>
@@ -2157,7 +2157,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>43920</v>
       </c>
@@ -2202,7 +2202,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>43921</v>
       </c>
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>43922</v>
       </c>
@@ -2292,7 +2292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>43923</v>
       </c>
@@ -2337,7 +2337,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>43924</v>
       </c>
@@ -2382,7 +2382,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>43925</v>
       </c>
@@ -2427,7 +2427,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>43926</v>
       </c>
@@ -2472,7 +2472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>43927</v>
       </c>
@@ -2517,7 +2517,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>43928</v>
       </c>
@@ -2562,7 +2562,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43929</v>
       </c>
@@ -2607,7 +2607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43930</v>
       </c>
@@ -2652,7 +2652,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43931</v>
       </c>
@@ -2697,7 +2697,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43932</v>
       </c>
@@ -2742,7 +2742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>43933</v>
       </c>
@@ -2787,7 +2787,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>43934</v>
       </c>
@@ -2832,7 +2832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>43935</v>
       </c>
@@ -2877,7 +2877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>43936</v>
       </c>
@@ -2922,7 +2922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>43937</v>
       </c>
@@ -2967,7 +2967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>43938</v>
       </c>
@@ -3012,7 +3012,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>43939</v>
       </c>
@@ -3057,7 +3057,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>43940</v>
       </c>
@@ -3102,7 +3102,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>43941</v>
       </c>
@@ -3147,7 +3147,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>43942</v>
       </c>
@@ -3192,7 +3192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>43943</v>
       </c>
@@ -3237,7 +3237,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>43944</v>
       </c>
@@ -3282,7 +3282,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>43945</v>
       </c>
@@ -3327,7 +3327,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>43946</v>
       </c>
@@ -3372,7 +3372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>43947</v>
       </c>
@@ -3417,7 +3417,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>43948</v>
       </c>
@@ -3462,7 +3462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>43949</v>
       </c>
@@ -3507,7 +3507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>43950</v>
       </c>
@@ -3552,7 +3552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>43951</v>
       </c>
@@ -3597,7 +3597,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>43952</v>
       </c>
@@ -3642,7 +3642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>43953</v>
       </c>
@@ -3687,7 +3687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>43954</v>
       </c>
@@ -3732,7 +3732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>43955</v>
       </c>
@@ -3777,7 +3777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>43956</v>
       </c>
@@ -3822,7 +3822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>43957</v>
       </c>
@@ -3867,7 +3867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>43958</v>
       </c>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>43959</v>
       </c>
@@ -3957,7 +3957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>43960</v>
       </c>
@@ -4002,7 +4002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>43961</v>
       </c>
@@ -4047,7 +4047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>43962</v>
       </c>
@@ -4092,7 +4092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>43963</v>
       </c>
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>43964</v>
       </c>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>43965</v>
       </c>
@@ -4227,7 +4227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>43966</v>
       </c>
@@ -4272,7 +4272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>43967</v>
       </c>
@@ -4317,7 +4317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>43968</v>
       </c>
@@ -4362,7 +4362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>43969</v>
       </c>
@@ -4407,7 +4407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>43970</v>
       </c>
@@ -4452,7 +4452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>43971</v>
       </c>
@@ -4497,7 +4497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>43972</v>
       </c>
@@ -4542,7 +4542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>43973</v>
       </c>
@@ -4587,7 +4587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>43974</v>
       </c>
@@ -4632,7 +4632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>43975</v>
       </c>
@@ -4677,7 +4677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>43976</v>
       </c>
@@ -4722,7 +4722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>43977</v>
       </c>
@@ -4767,7 +4767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>43978</v>
       </c>
@@ -4812,7 +4812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>43979</v>
       </c>
@@ -4857,7 +4857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>43980</v>
       </c>
@@ -4902,7 +4902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>43981</v>
       </c>
@@ -4947,7 +4947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>43982</v>
       </c>
@@ -4992,7 +4992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>43983</v>
       </c>
@@ -5007,13 +5007,13 @@
         <v>1</v>
       </c>
       <c r="E97" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F97" s="3">
         <v>3</v>
       </c>
       <c r="G97" s="24">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H97" s="17">
         <f t="shared" si="19"/>
@@ -5037,7 +5037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>43984</v>
       </c>
@@ -5052,13 +5052,13 @@
         <v>0</v>
       </c>
       <c r="E98" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F98" s="3">
         <v>3</v>
       </c>
       <c r="G98" s="24">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H98" s="17">
         <f t="shared" si="19"/>
@@ -5082,7 +5082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>43985</v>
       </c>
@@ -5097,13 +5097,13 @@
         <v>0</v>
       </c>
       <c r="E99" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F99" s="3">
         <v>3</v>
       </c>
       <c r="G99" s="24">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H99" s="17">
         <f t="shared" si="19"/>
@@ -5127,7 +5127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>43986</v>
       </c>
@@ -5142,13 +5142,13 @@
         <v>1</v>
       </c>
       <c r="E100" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F100" s="3">
         <v>3</v>
       </c>
       <c r="G100" s="24">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H100" s="17">
         <f t="shared" si="19"/>
@@ -5172,7 +5172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>43987</v>
       </c>
@@ -5187,13 +5187,13 @@
         <v>0</v>
       </c>
       <c r="E101" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F101" s="3">
         <v>3</v>
       </c>
       <c r="G101" s="24">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H101" s="17">
         <f t="shared" si="19"/>
@@ -5217,7 +5217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>43988</v>
       </c>
@@ -5232,13 +5232,13 @@
         <v>0</v>
       </c>
       <c r="E102" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F102" s="3">
         <v>3</v>
       </c>
       <c r="G102" s="24">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H102" s="17">
         <f t="shared" si="19"/>
@@ -5262,7 +5262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>43989</v>
       </c>
@@ -5277,13 +5277,13 @@
         <v>0</v>
       </c>
       <c r="E103" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F103" s="3">
         <v>3</v>
       </c>
       <c r="G103" s="24">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H103" s="17">
         <f t="shared" si="19"/>
@@ -5307,12 +5307,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>43990</v>
       </c>
       <c r="B104" s="19">
-        <f t="shared" ref="B104:B114" si="22">B103+C104</f>
+        <f t="shared" ref="B104:B108" si="22">B103+C104</f>
         <v>1964</v>
       </c>
       <c r="C104" s="13">
@@ -5322,27 +5322,27 @@
         <v>0</v>
       </c>
       <c r="E104" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F104" s="3">
         <v>3</v>
       </c>
       <c r="G104" s="24">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H104" s="17">
-        <f t="shared" ref="H104:H114" si="23">G104+E104</f>
+        <f t="shared" ref="H104:H108" si="23">G104+E104</f>
         <v>16</v>
       </c>
       <c r="I104" s="33">
         <v>0</v>
       </c>
       <c r="J104" s="16">
-        <f t="shared" ref="J104:J114" si="24">J103+K104</f>
+        <f t="shared" ref="J104:J108" si="24">J103+K104</f>
         <v>152</v>
       </c>
       <c r="K104" s="16">
-        <f t="shared" ref="K104:K114" si="25">L104+M104</f>
+        <f t="shared" ref="K104:K108" si="25">L104+M104</f>
         <v>0</v>
       </c>
       <c r="L104" s="26">
@@ -5352,7 +5352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>43991</v>
       </c>
@@ -5367,13 +5367,13 @@
         <v>0</v>
       </c>
       <c r="E105" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F105" s="3">
         <v>3</v>
       </c>
       <c r="G105" s="24">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H105" s="17">
         <f t="shared" si="23"/>
@@ -5397,7 +5397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>43992</v>
       </c>
@@ -5412,13 +5412,13 @@
         <v>0</v>
       </c>
       <c r="E106" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F106" s="3">
         <v>3</v>
       </c>
       <c r="G106" s="24">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H106" s="17">
         <f t="shared" si="23"/>
@@ -5442,7 +5442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>43993</v>
       </c>
@@ -5457,13 +5457,13 @@
         <v>0</v>
       </c>
       <c r="E107" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F107" s="3">
         <v>2</v>
       </c>
       <c r="G107" s="24">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H107" s="17">
         <f t="shared" si="23"/>
@@ -5487,7 +5487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>43994</v>
       </c>
@@ -5502,13 +5502,13 @@
         <v>0</v>
       </c>
       <c r="E108" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F108" s="3">
         <v>1</v>
       </c>
       <c r="G108" s="24">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H108" s="17">
         <f t="shared" si="23"/>
@@ -5532,12 +5532,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>43995</v>
       </c>
       <c r="B109" s="19">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="B109:B122" si="26">B108+C109</f>
         <v>1977</v>
       </c>
       <c r="C109" s="13">
@@ -5547,27 +5547,27 @@
         <v>0</v>
       </c>
       <c r="E109" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F109" s="3">
         <v>1</v>
       </c>
       <c r="G109" s="24">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H109" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="H109:H122" si="27">G109+E109</f>
         <v>13</v>
       </c>
       <c r="I109" s="33">
         <v>2</v>
       </c>
       <c r="J109" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="J109:J122" si="28">J108+K109</f>
         <v>153</v>
       </c>
       <c r="K109" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="K109:K122" si="29">L109+M109</f>
         <v>0</v>
       </c>
       <c r="L109" s="26">
@@ -5577,12 +5577,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>43996</v>
       </c>
       <c r="B110" s="19">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1977</v>
       </c>
       <c r="C110" s="13">
@@ -5592,27 +5592,27 @@
         <v>0</v>
       </c>
       <c r="E110" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F110" s="3">
         <v>1</v>
       </c>
       <c r="G110" s="24">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H110" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>13</v>
       </c>
       <c r="I110" s="33">
         <v>0</v>
       </c>
       <c r="J110" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>153</v>
       </c>
       <c r="K110" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="L110" s="26">
@@ -5622,12 +5622,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>43997</v>
       </c>
       <c r="B111" s="19">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1981</v>
       </c>
       <c r="C111" s="13">
@@ -5637,27 +5637,27 @@
         <v>0</v>
       </c>
       <c r="E111" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F111" s="3">
         <v>1</v>
       </c>
       <c r="G111" s="24">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H111" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>13</v>
       </c>
       <c r="I111" s="33">
         <v>0</v>
       </c>
       <c r="J111" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>153</v>
       </c>
       <c r="K111" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="L111" s="26">
@@ -5667,12 +5667,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>43998</v>
       </c>
       <c r="B112" s="19">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1985</v>
       </c>
       <c r="C112" s="13">
@@ -5682,27 +5682,27 @@
         <v>0</v>
       </c>
       <c r="E112" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F112" s="3">
         <v>1</v>
       </c>
       <c r="G112" s="24">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H112" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>12</v>
       </c>
       <c r="I112" s="33">
         <v>1</v>
       </c>
       <c r="J112" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>153</v>
       </c>
       <c r="K112" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="L112" s="26">
@@ -5712,12 +5712,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>43999</v>
       </c>
       <c r="B113" s="19">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1987</v>
       </c>
       <c r="C113" s="13">
@@ -5727,27 +5727,27 @@
         <v>1</v>
       </c>
       <c r="E113" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F113" s="3">
         <v>1</v>
       </c>
       <c r="G113" s="24">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H113" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>13</v>
       </c>
       <c r="I113" s="33">
         <v>0</v>
       </c>
       <c r="J113" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>153</v>
       </c>
       <c r="K113" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="L113" s="26">
@@ -5757,12 +5757,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>44000</v>
       </c>
       <c r="B114" s="19">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1988</v>
       </c>
       <c r="C114" s="13">
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="E114" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F114" s="3">
         <v>1</v>
@@ -5781,18 +5781,18 @@
         <v>11</v>
       </c>
       <c r="H114" s="17">
-        <f t="shared" si="23"/>
-        <v>13</v>
+        <f t="shared" si="27"/>
+        <v>12</v>
       </c>
       <c r="I114" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>153</v>
       </c>
       <c r="K114" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="L114" s="26">
@@ -5802,12 +5802,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>44001</v>
       </c>
       <c r="B115" s="19">
-        <f t="shared" ref="B115:B118" si="26">B114+C115</f>
+        <f t="shared" si="26"/>
         <v>1996</v>
       </c>
       <c r="C115" s="13">
@@ -5817,7 +5817,7 @@
         <v>0</v>
       </c>
       <c r="E115" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F115" s="3">
         <v>1</v>
@@ -5826,18 +5826,18 @@
         <v>10</v>
       </c>
       <c r="H115" s="17">
-        <f t="shared" ref="H115:H118" si="27">G115+E115</f>
-        <v>12</v>
+        <f t="shared" si="27"/>
+        <v>11</v>
       </c>
       <c r="I115" s="33">
         <v>1</v>
       </c>
       <c r="J115" s="16">
-        <f t="shared" ref="J115:J118" si="28">J114+K115</f>
+        <f t="shared" si="28"/>
         <v>153</v>
       </c>
       <c r="K115" s="16">
-        <f t="shared" ref="K115:K118" si="29">L115+M115</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="L115" s="26">
@@ -5847,7 +5847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>44002</v>
       </c>
@@ -5862,7 +5862,7 @@
         <v>1</v>
       </c>
       <c r="E116" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F116" s="3">
         <v>1</v>
@@ -5872,7 +5872,7 @@
       </c>
       <c r="H116" s="17">
         <f t="shared" si="27"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I116" s="33">
         <v>0</v>
@@ -5892,7 +5892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>44003</v>
       </c>
@@ -5907,7 +5907,7 @@
         <v>1</v>
       </c>
       <c r="E117" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F117" s="3">
         <v>1</v>
@@ -5917,7 +5917,7 @@
       </c>
       <c r="H117" s="17">
         <f t="shared" si="27"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I117" s="33">
         <v>0</v>
@@ -5937,7 +5937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>44004</v>
       </c>
@@ -5952,7 +5952,7 @@
         <v>0</v>
       </c>
       <c r="E118" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F118" s="3">
         <v>1</v>
@@ -5962,7 +5962,7 @@
       </c>
       <c r="H118" s="17">
         <f t="shared" si="27"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I118" s="33">
         <v>1</v>
@@ -5982,22 +5982,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>44005</v>
       </c>
       <c r="B119" s="19">
-        <f t="shared" ref="B119" si="30">B118+C119</f>
-        <v>2011</v>
+        <f t="shared" si="26"/>
+        <v>2012</v>
       </c>
       <c r="C119" s="13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D119" s="13">
         <v>0</v>
       </c>
       <c r="E119" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F119" s="3">
         <v>1</v>
@@ -6006,18 +6006,18 @@
         <v>11</v>
       </c>
       <c r="H119" s="17">
-        <f t="shared" ref="H119" si="31">G119+E119</f>
-        <v>13</v>
+        <f t="shared" si="27"/>
+        <v>12</v>
       </c>
       <c r="I119" s="33">
         <v>0</v>
       </c>
       <c r="J119" s="16">
-        <f t="shared" ref="J119" si="32">J118+K119</f>
+        <f t="shared" si="28"/>
         <v>153</v>
       </c>
       <c r="K119" s="16">
-        <f t="shared" ref="K119" si="33">L119+M119</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="L119" s="26">
@@ -6027,22 +6027,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>44006</v>
       </c>
       <c r="B120" s="19">
-        <f t="shared" ref="B120:B121" si="34">B119+C120</f>
-        <v>2019</v>
+        <f t="shared" si="26"/>
+        <v>2022</v>
       </c>
       <c r="C120" s="13">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D120" s="13">
         <v>1</v>
       </c>
       <c r="E120" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F120" s="3">
         <v>1</v>
@@ -6051,18 +6051,18 @@
         <v>11</v>
       </c>
       <c r="H120" s="17">
-        <f t="shared" ref="H120:H121" si="35">G120+E120</f>
-        <v>13</v>
+        <f t="shared" si="27"/>
+        <v>12</v>
       </c>
       <c r="I120" s="33">
         <v>1</v>
       </c>
       <c r="J120" s="16">
-        <f t="shared" ref="J120:J121" si="36">J119+K120</f>
+        <f t="shared" si="28"/>
         <v>153</v>
       </c>
       <c r="K120" s="16">
-        <f t="shared" ref="K120:K121" si="37">L120+M120</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="L120" s="26">
@@ -6072,48 +6072,93 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A121" s="2">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
         <v>44007</v>
       </c>
-      <c r="B121" s="20">
-        <f t="shared" si="34"/>
-        <v>2020</v>
-      </c>
-      <c r="C121" s="14">
-        <v>1</v>
-      </c>
-      <c r="D121" s="14">
-        <v>0</v>
-      </c>
-      <c r="E121" s="30">
-        <v>2</v>
-      </c>
-      <c r="F121" s="31">
-        <v>1</v>
-      </c>
-      <c r="G121" s="25">
-        <v>11</v>
-      </c>
-      <c r="H121" s="18">
-        <f t="shared" si="35"/>
-        <v>13</v>
-      </c>
-      <c r="I121" s="34">
-        <v>0</v>
-      </c>
-      <c r="J121" s="21">
-        <f t="shared" si="36"/>
+      <c r="B121" s="19">
+        <f t="shared" si="26"/>
+        <v>2029</v>
+      </c>
+      <c r="C121" s="13">
+        <v>7</v>
+      </c>
+      <c r="D121" s="13">
+        <v>0</v>
+      </c>
+      <c r="E121" s="4">
+        <v>1</v>
+      </c>
+      <c r="F121" s="3">
+        <v>1</v>
+      </c>
+      <c r="G121" s="24">
+        <v>9</v>
+      </c>
+      <c r="H121" s="17">
+        <f t="shared" si="27"/>
+        <v>10</v>
+      </c>
+      <c r="I121" s="33">
+        <v>2</v>
+      </c>
+      <c r="J121" s="16">
+        <f t="shared" si="28"/>
         <v>153</v>
       </c>
-      <c r="K121" s="21">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="L121" s="28">
-        <v>0</v>
-      </c>
-      <c r="M121" s="29">
+      <c r="K121" s="16">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="L121" s="26">
+        <v>0</v>
+      </c>
+      <c r="M121" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A122" s="2">
+        <v>44008</v>
+      </c>
+      <c r="B122" s="20">
+        <f t="shared" si="26"/>
+        <v>2029</v>
+      </c>
+      <c r="C122" s="14">
+        <v>0</v>
+      </c>
+      <c r="D122" s="14">
+        <v>0</v>
+      </c>
+      <c r="E122" s="30">
+        <v>1</v>
+      </c>
+      <c r="F122" s="31">
+        <v>1</v>
+      </c>
+      <c r="G122" s="25">
+        <v>9</v>
+      </c>
+      <c r="H122" s="18">
+        <f t="shared" si="27"/>
+        <v>10</v>
+      </c>
+      <c r="I122" s="34">
+        <v>0</v>
+      </c>
+      <c r="J122" s="21">
+        <f t="shared" si="28"/>
+        <v>153</v>
+      </c>
+      <c r="K122" s="21">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="L122" s="28">
+        <v>0</v>
+      </c>
+      <c r="M122" s="29">
         <v>0</v>
       </c>
     </row>

--- a/Chiffres  COVID-19 Valais.xlsx
+++ b/Chiffres  COVID-19 Valais.xlsx
@@ -99,7 +99,7 @@
     <t>Nb de nouvelles sorties</t>
   </si>
   <si>
-    <t>Données COVID-19 Valais 06.07.2020</t>
+    <t>Données COVID-19 Valais 07.07.2020</t>
   </si>
 </sst>
 </file>
@@ -687,10 +687,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O132"/>
+  <dimension ref="A1:O133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:M1"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6123,7 +6123,7 @@
         <v>44008</v>
       </c>
       <c r="B122" s="19">
-        <f t="shared" ref="B122:B132" si="30">B121+C122</f>
+        <f t="shared" ref="B122:B130" si="30">B121+C122</f>
         <v>2041</v>
       </c>
       <c r="C122" s="13">
@@ -6142,18 +6142,18 @@
         <v>10</v>
       </c>
       <c r="H122" s="17">
-        <f t="shared" ref="H122:H132" si="31">G122+E122</f>
+        <f t="shared" ref="H122:H130" si="31">G122+E122</f>
         <v>11</v>
       </c>
       <c r="I122" s="33">
         <v>0</v>
       </c>
       <c r="J122" s="16">
-        <f t="shared" ref="J122:J132" si="32">J121+K122</f>
+        <f t="shared" ref="J122:J130" si="32">J121+K122</f>
         <v>153</v>
       </c>
       <c r="K122" s="16">
-        <f t="shared" ref="K122:K132" si="33">L122+M122</f>
+        <f t="shared" ref="K122:K130" si="33">L122+M122</f>
         <v>0</v>
       </c>
       <c r="L122" s="26">
@@ -6528,7 +6528,7 @@
         <v>44017</v>
       </c>
       <c r="B131" s="19">
-        <f t="shared" si="30"/>
+        <f t="shared" ref="B131:B133" si="34">B130+C131</f>
         <v>2073</v>
       </c>
       <c r="C131" s="13">
@@ -6547,18 +6547,18 @@
         <v>8</v>
       </c>
       <c r="H131" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" ref="H131:H133" si="35">G131+E131</f>
         <v>10</v>
       </c>
       <c r="I131" s="33">
         <v>0</v>
       </c>
       <c r="J131" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" ref="J131:J133" si="36">J130+K131</f>
         <v>153</v>
       </c>
       <c r="K131" s="16">
-        <f t="shared" si="33"/>
+        <f t="shared" ref="K131:K133" si="37">L131+M131</f>
         <v>0</v>
       </c>
       <c r="L131" s="26">
@@ -6569,47 +6569,92 @@
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A132" s="2">
+      <c r="A132" s="1">
         <v>44018</v>
       </c>
-      <c r="B132" s="20">
-        <f t="shared" si="30"/>
-        <v>2073</v>
-      </c>
-      <c r="C132" s="14">
-        <v>0</v>
-      </c>
-      <c r="D132" s="14">
-        <v>0</v>
-      </c>
-      <c r="E132" s="30">
-        <v>2</v>
-      </c>
-      <c r="F132" s="31">
-        <v>0</v>
-      </c>
-      <c r="G132" s="25">
-        <v>8</v>
-      </c>
-      <c r="H132" s="18">
-        <f t="shared" si="31"/>
+      <c r="B132" s="19">
+        <f t="shared" si="34"/>
+        <v>2074</v>
+      </c>
+      <c r="C132" s="13">
+        <v>1</v>
+      </c>
+      <c r="D132" s="13">
+        <v>1</v>
+      </c>
+      <c r="E132" s="4">
+        <v>1</v>
+      </c>
+      <c r="F132" s="3">
+        <v>0</v>
+      </c>
+      <c r="G132" s="24">
         <v>10</v>
       </c>
-      <c r="I132" s="34">
-        <v>0</v>
-      </c>
-      <c r="J132" s="21">
-        <f t="shared" si="32"/>
+      <c r="H132" s="17">
+        <f t="shared" si="35"/>
+        <v>11</v>
+      </c>
+      <c r="I132" s="33">
+        <v>0</v>
+      </c>
+      <c r="J132" s="16">
+        <f t="shared" si="36"/>
         <v>153</v>
       </c>
-      <c r="K132" s="21">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="L132" s="28">
-        <v>0</v>
-      </c>
-      <c r="M132" s="29">
+      <c r="K132" s="16">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="L132" s="26">
+        <v>0</v>
+      </c>
+      <c r="M132" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A133" s="2">
+        <v>44019</v>
+      </c>
+      <c r="B133" s="20">
+        <f t="shared" si="34"/>
+        <v>2075</v>
+      </c>
+      <c r="C133" s="14">
+        <v>1</v>
+      </c>
+      <c r="D133" s="14">
+        <v>0</v>
+      </c>
+      <c r="E133" s="30">
+        <v>1</v>
+      </c>
+      <c r="F133" s="31">
+        <v>0</v>
+      </c>
+      <c r="G133" s="25">
+        <v>10</v>
+      </c>
+      <c r="H133" s="18">
+        <f t="shared" si="35"/>
+        <v>11</v>
+      </c>
+      <c r="I133" s="34">
+        <v>0</v>
+      </c>
+      <c r="J133" s="21">
+        <f t="shared" si="36"/>
+        <v>153</v>
+      </c>
+      <c r="K133" s="21">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="L133" s="28">
+        <v>0</v>
+      </c>
+      <c r="M133" s="29">
         <v>0</v>
       </c>
     </row>

--- a/Chiffres  COVID-19 Valais.xlsx
+++ b/Chiffres  COVID-19 Valais.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -99,7 +99,10 @@
     <t>Nb de nouvelles sorties</t>
   </si>
   <si>
-    <t>Données COVID-19 Valais 07.07.2020</t>
+    <t>Données COVID-19 Valais 08.07.2020</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -687,23 +690,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O133"/>
+  <dimension ref="A1:O134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="A135" sqref="A135"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="3" width="11.42578125" style="15"/>
-    <col min="4" max="4" width="10.85546875" style="15"/>
-    <col min="8" max="9" width="16.140625" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" style="6" customWidth="1"/>
+    <col min="2" max="3" width="11.453125" style="15"/>
+    <col min="4" max="4" width="10.81640625" style="15"/>
+    <col min="8" max="9" width="16.1796875" customWidth="1"/>
+    <col min="11" max="11" width="14.54296875" customWidth="1"/>
+    <col min="12" max="12" width="13.54296875" customWidth="1"/>
+    <col min="13" max="13" width="15.7265625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="35" t="s">
         <v>13</v>
       </c>
@@ -720,7 +723,7 @@
       <c r="L1" s="36"/>
       <c r="M1" s="37"/>
     </row>
-    <row r="2" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -763,7 +766,7 @@
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>43889</v>
       </c>
@@ -808,7 +811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>43890</v>
       </c>
@@ -853,7 +856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>43891</v>
       </c>
@@ -898,7 +901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>43892</v>
       </c>
@@ -943,7 +946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>43893</v>
       </c>
@@ -988,7 +991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>43894</v>
       </c>
@@ -1033,7 +1036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>43895</v>
       </c>
@@ -1078,7 +1081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>43896</v>
       </c>
@@ -1123,7 +1126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>43897</v>
       </c>
@@ -1168,7 +1171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>43898</v>
       </c>
@@ -1213,7 +1216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>43899</v>
       </c>
@@ -1258,7 +1261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>43900</v>
       </c>
@@ -1303,7 +1306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>43901</v>
       </c>
@@ -1348,7 +1351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>43902</v>
       </c>
@@ -1393,7 +1396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>43903</v>
       </c>
@@ -1438,7 +1441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>43904</v>
       </c>
@@ -1483,7 +1486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>43905</v>
       </c>
@@ -1528,7 +1531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>43906</v>
       </c>
@@ -1573,7 +1576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>43907</v>
       </c>
@@ -1618,7 +1621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>43908</v>
       </c>
@@ -1663,7 +1666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>43909</v>
       </c>
@@ -1708,7 +1711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>43910</v>
       </c>
@@ -1753,7 +1756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>43911</v>
       </c>
@@ -1798,7 +1801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>43912</v>
       </c>
@@ -1843,7 +1846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>43913</v>
       </c>
@@ -1888,7 +1891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>43914</v>
       </c>
@@ -1933,7 +1936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>43915</v>
       </c>
@@ -1978,7 +1981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>43916</v>
       </c>
@@ -2023,7 +2026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>43917</v>
       </c>
@@ -2068,7 +2071,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>43918</v>
       </c>
@@ -2113,7 +2116,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>43919</v>
       </c>
@@ -2158,7 +2161,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>43920</v>
       </c>
@@ -2203,7 +2206,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>43921</v>
       </c>
@@ -2248,7 +2251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>43922</v>
       </c>
@@ -2293,7 +2296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>43923</v>
       </c>
@@ -2338,7 +2341,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>43924</v>
       </c>
@@ -2383,7 +2386,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>43925</v>
       </c>
@@ -2428,7 +2431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>43926</v>
       </c>
@@ -2473,7 +2476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>43927</v>
       </c>
@@ -2518,7 +2521,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>43928</v>
       </c>
@@ -2563,7 +2566,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>43929</v>
       </c>
@@ -2608,7 +2611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>43930</v>
       </c>
@@ -2653,7 +2656,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>43931</v>
       </c>
@@ -2698,7 +2701,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>43932</v>
       </c>
@@ -2743,7 +2746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>43933</v>
       </c>
@@ -2788,7 +2791,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>43934</v>
       </c>
@@ -2833,7 +2836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>43935</v>
       </c>
@@ -2878,7 +2881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>43936</v>
       </c>
@@ -2923,7 +2926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>43937</v>
       </c>
@@ -2968,7 +2971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>43938</v>
       </c>
@@ -3013,7 +3016,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>43939</v>
       </c>
@@ -3058,7 +3061,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>43940</v>
       </c>
@@ -3103,7 +3106,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>43941</v>
       </c>
@@ -3148,7 +3151,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>43942</v>
       </c>
@@ -3193,7 +3196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>43943</v>
       </c>
@@ -3238,7 +3241,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>43944</v>
       </c>
@@ -3283,7 +3286,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>43945</v>
       </c>
@@ -3328,7 +3331,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>43946</v>
       </c>
@@ -3373,7 +3376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>43947</v>
       </c>
@@ -3418,7 +3421,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>43948</v>
       </c>
@@ -3463,7 +3466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>43949</v>
       </c>
@@ -3508,7 +3511,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>43950</v>
       </c>
@@ -3553,7 +3556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>43951</v>
       </c>
@@ -3598,7 +3601,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>43952</v>
       </c>
@@ -3643,7 +3646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>43953</v>
       </c>
@@ -3688,7 +3691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>43954</v>
       </c>
@@ -3733,7 +3736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>43955</v>
       </c>
@@ -3778,7 +3781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>43956</v>
       </c>
@@ -3823,7 +3826,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>43957</v>
       </c>
@@ -3868,7 +3871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>43958</v>
       </c>
@@ -3913,7 +3916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>43959</v>
       </c>
@@ -3958,7 +3961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>43960</v>
       </c>
@@ -4003,7 +4006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>43961</v>
       </c>
@@ -4048,7 +4051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>43962</v>
       </c>
@@ -4093,7 +4096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>43963</v>
       </c>
@@ -4138,7 +4141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>43964</v>
       </c>
@@ -4183,7 +4186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>43965</v>
       </c>
@@ -4228,7 +4231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>43966</v>
       </c>
@@ -4273,7 +4276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>43967</v>
       </c>
@@ -4318,7 +4321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>43968</v>
       </c>
@@ -4363,7 +4366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>43969</v>
       </c>
@@ -4408,7 +4411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>43970</v>
       </c>
@@ -4453,7 +4456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>43971</v>
       </c>
@@ -4498,7 +4501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>43972</v>
       </c>
@@ -4543,7 +4546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>43973</v>
       </c>
@@ -4588,7 +4591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>43974</v>
       </c>
@@ -4633,7 +4636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>43975</v>
       </c>
@@ -4678,7 +4681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>43976</v>
       </c>
@@ -4723,7 +4726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>43977</v>
       </c>
@@ -4768,7 +4771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>43978</v>
       </c>
@@ -4813,7 +4816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>43979</v>
       </c>
@@ -4858,7 +4861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>43980</v>
       </c>
@@ -4903,7 +4906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>43981</v>
       </c>
@@ -4948,7 +4951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>43982</v>
       </c>
@@ -4993,7 +4996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>43983</v>
       </c>
@@ -5038,7 +5041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>43984</v>
       </c>
@@ -5083,7 +5086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>43985</v>
       </c>
@@ -5128,7 +5131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>43986</v>
       </c>
@@ -5173,7 +5176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>43987</v>
       </c>
@@ -5218,7 +5221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>43988</v>
       </c>
@@ -5263,7 +5266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>43989</v>
       </c>
@@ -5308,7 +5311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>43990</v>
       </c>
@@ -5353,7 +5356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>43991</v>
       </c>
@@ -5398,7 +5401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>43992</v>
       </c>
@@ -5443,7 +5446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>43993</v>
       </c>
@@ -5488,7 +5491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>43994</v>
       </c>
@@ -5533,7 +5536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>43995</v>
       </c>
@@ -5578,7 +5581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>43996</v>
       </c>
@@ -5623,7 +5626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>43997</v>
       </c>
@@ -5668,7 +5671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>43998</v>
       </c>
@@ -5713,7 +5716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>43999</v>
       </c>
@@ -5758,7 +5761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>44000</v>
       </c>
@@ -5803,7 +5806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>44001</v>
       </c>
@@ -5848,7 +5851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>44002</v>
       </c>
@@ -5893,7 +5896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>44003</v>
       </c>
@@ -5938,7 +5941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>44004</v>
       </c>
@@ -5983,7 +5986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>44005</v>
       </c>
@@ -6028,7 +6031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>44006</v>
       </c>
@@ -6073,7 +6076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>44007</v>
       </c>
@@ -6118,7 +6121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>44008</v>
       </c>
@@ -6163,7 +6166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>44009</v>
       </c>
@@ -6208,7 +6211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>44010</v>
       </c>
@@ -6253,7 +6256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>44011</v>
       </c>
@@ -6298,7 +6301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>44012</v>
       </c>
@@ -6343,7 +6346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>44013</v>
       </c>
@@ -6388,7 +6391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>44014</v>
       </c>
@@ -6433,7 +6436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>44015</v>
       </c>
@@ -6478,7 +6481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>44016</v>
       </c>
@@ -6523,7 +6526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>44017</v>
       </c>
@@ -6568,16 +6571,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>44018</v>
       </c>
       <c r="B132" s="19">
         <f t="shared" si="34"/>
-        <v>2074</v>
+        <v>2075</v>
       </c>
       <c r="C132" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D132" s="13">
         <v>1</v>
@@ -6613,49 +6616,94 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A133" s="2">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A133" s="1">
         <v>44019</v>
       </c>
-      <c r="B133" s="20">
+      <c r="B133" s="19">
         <f t="shared" si="34"/>
-        <v>2075</v>
-      </c>
-      <c r="C133" s="14">
-        <v>1</v>
-      </c>
-      <c r="D133" s="14">
-        <v>0</v>
-      </c>
-      <c r="E133" s="30">
-        <v>1</v>
-      </c>
-      <c r="F133" s="31">
-        <v>0</v>
-      </c>
-      <c r="G133" s="25">
+        <v>2077</v>
+      </c>
+      <c r="C133" s="13">
+        <v>2</v>
+      </c>
+      <c r="D133" s="13">
+        <v>0</v>
+      </c>
+      <c r="E133" s="4">
+        <v>1</v>
+      </c>
+      <c r="F133" s="3">
+        <v>0</v>
+      </c>
+      <c r="G133" s="24">
         <v>10</v>
       </c>
-      <c r="H133" s="18">
+      <c r="H133" s="17">
         <f t="shared" si="35"/>
         <v>11</v>
       </c>
-      <c r="I133" s="34">
-        <v>0</v>
-      </c>
-      <c r="J133" s="21">
+      <c r="I133" s="33">
+        <v>1</v>
+      </c>
+      <c r="J133" s="16">
         <f t="shared" si="36"/>
         <v>153</v>
       </c>
-      <c r="K133" s="21">
+      <c r="K133" s="16">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="L133" s="28">
-        <v>0</v>
-      </c>
-      <c r="M133" s="29">
-        <v>0</v>
+      <c r="L133" s="26">
+        <v>0</v>
+      </c>
+      <c r="M133" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A134" s="2">
+        <v>44020</v>
+      </c>
+      <c r="B134" s="20">
+        <f t="shared" ref="B134" si="38">B133+C134</f>
+        <v>2077</v>
+      </c>
+      <c r="C134" s="14">
+        <v>0</v>
+      </c>
+      <c r="D134" s="14">
+        <v>0</v>
+      </c>
+      <c r="E134" s="30">
+        <v>1</v>
+      </c>
+      <c r="F134" s="31">
+        <v>0</v>
+      </c>
+      <c r="G134" s="25">
+        <v>9</v>
+      </c>
+      <c r="H134" s="18">
+        <f t="shared" ref="H134" si="39">G134+E134</f>
+        <v>10</v>
+      </c>
+      <c r="I134" s="34">
+        <v>0</v>
+      </c>
+      <c r="J134" s="21">
+        <f t="shared" ref="J134" si="40">J133+K134</f>
+        <v>153</v>
+      </c>
+      <c r="K134" s="21">
+        <f t="shared" ref="K134" si="41">L134+M134</f>
+        <v>0</v>
+      </c>
+      <c r="L134" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="M134" s="29" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Chiffres  COVID-19 Valais.xlsx
+++ b/Chiffres  COVID-19 Valais.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -99,10 +99,7 @@
     <t>Nb de nouvelles sorties</t>
   </si>
   <si>
-    <t>Données COVID-19 Valais 08.07.2020</t>
-  </si>
-  <si>
-    <t>0</t>
+    <t>Données COVID-19 Valais 09.07.2020</t>
   </si>
 </sst>
 </file>
@@ -690,23 +687,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O134"/>
+  <dimension ref="A1:O135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="A135" sqref="A135"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="11.453125" style="15"/>
-    <col min="4" max="4" width="10.81640625" style="15"/>
-    <col min="8" max="9" width="16.1796875" customWidth="1"/>
-    <col min="11" max="11" width="14.54296875" customWidth="1"/>
-    <col min="12" max="12" width="13.54296875" customWidth="1"/>
-    <col min="13" max="13" width="15.7265625" style="6" customWidth="1"/>
+    <col min="2" max="3" width="11.42578125" style="15"/>
+    <col min="4" max="4" width="10.85546875" style="15"/>
+    <col min="8" max="9" width="16.140625" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
         <v>13</v>
       </c>
@@ -723,7 +720,7 @@
       <c r="L1" s="36"/>
       <c r="M1" s="37"/>
     </row>
-    <row r="2" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -766,7 +763,7 @@
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43889</v>
       </c>
@@ -811,7 +808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43890</v>
       </c>
@@ -856,7 +853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43891</v>
       </c>
@@ -901,7 +898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43892</v>
       </c>
@@ -946,7 +943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43893</v>
       </c>
@@ -991,7 +988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43894</v>
       </c>
@@ -1036,7 +1033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43895</v>
       </c>
@@ -1081,7 +1078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43896</v>
       </c>
@@ -1126,7 +1123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43897</v>
       </c>
@@ -1171,7 +1168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43898</v>
       </c>
@@ -1216,7 +1213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43899</v>
       </c>
@@ -1261,7 +1258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43900</v>
       </c>
@@ -1306,7 +1303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43901</v>
       </c>
@@ -1351,7 +1348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43902</v>
       </c>
@@ -1396,7 +1393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43903</v>
       </c>
@@ -1441,7 +1438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43904</v>
       </c>
@@ -1486,7 +1483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43905</v>
       </c>
@@ -1531,7 +1528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43906</v>
       </c>
@@ -1576,7 +1573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43907</v>
       </c>
@@ -1621,7 +1618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43908</v>
       </c>
@@ -1666,7 +1663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43909</v>
       </c>
@@ -1711,7 +1708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43910</v>
       </c>
@@ -1756,7 +1753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43911</v>
       </c>
@@ -1801,7 +1798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43912</v>
       </c>
@@ -1846,7 +1843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43913</v>
       </c>
@@ -1891,7 +1888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43914</v>
       </c>
@@ -1936,7 +1933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43915</v>
       </c>
@@ -1981,7 +1978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43916</v>
       </c>
@@ -2026,7 +2023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43917</v>
       </c>
@@ -2071,7 +2068,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43918</v>
       </c>
@@ -2116,7 +2113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43919</v>
       </c>
@@ -2161,7 +2158,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>43920</v>
       </c>
@@ -2206,7 +2203,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>43921</v>
       </c>
@@ -2251,7 +2248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>43922</v>
       </c>
@@ -2296,7 +2293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>43923</v>
       </c>
@@ -2341,7 +2338,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>43924</v>
       </c>
@@ -2386,7 +2383,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>43925</v>
       </c>
@@ -2431,7 +2428,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>43926</v>
       </c>
@@ -2476,7 +2473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>43927</v>
       </c>
@@ -2521,7 +2518,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>43928</v>
       </c>
@@ -2566,7 +2563,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43929</v>
       </c>
@@ -2611,7 +2608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43930</v>
       </c>
@@ -2656,7 +2653,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43931</v>
       </c>
@@ -2701,7 +2698,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43932</v>
       </c>
@@ -2746,7 +2743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>43933</v>
       </c>
@@ -2791,7 +2788,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>43934</v>
       </c>
@@ -2836,7 +2833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>43935</v>
       </c>
@@ -2881,7 +2878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>43936</v>
       </c>
@@ -2926,7 +2923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>43937</v>
       </c>
@@ -2971,7 +2968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>43938</v>
       </c>
@@ -3016,7 +3013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>43939</v>
       </c>
@@ -3061,7 +3058,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>43940</v>
       </c>
@@ -3106,7 +3103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>43941</v>
       </c>
@@ -3151,7 +3148,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>43942</v>
       </c>
@@ -3196,7 +3193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>43943</v>
       </c>
@@ -3241,7 +3238,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>43944</v>
       </c>
@@ -3286,7 +3283,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>43945</v>
       </c>
@@ -3331,7 +3328,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>43946</v>
       </c>
@@ -3376,7 +3373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>43947</v>
       </c>
@@ -3421,7 +3418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>43948</v>
       </c>
@@ -3466,7 +3463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>43949</v>
       </c>
@@ -3511,7 +3508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>43950</v>
       </c>
@@ -3556,7 +3553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>43951</v>
       </c>
@@ -3601,7 +3598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>43952</v>
       </c>
@@ -3646,7 +3643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>43953</v>
       </c>
@@ -3691,7 +3688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>43954</v>
       </c>
@@ -3736,7 +3733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>43955</v>
       </c>
@@ -3781,7 +3778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>43956</v>
       </c>
@@ -3826,7 +3823,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>43957</v>
       </c>
@@ -3871,7 +3868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>43958</v>
       </c>
@@ -3916,7 +3913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>43959</v>
       </c>
@@ -3961,7 +3958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>43960</v>
       </c>
@@ -4006,7 +4003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>43961</v>
       </c>
@@ -4051,7 +4048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>43962</v>
       </c>
@@ -4096,7 +4093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>43963</v>
       </c>
@@ -4141,7 +4138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>43964</v>
       </c>
@@ -4186,7 +4183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>43965</v>
       </c>
@@ -4231,7 +4228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>43966</v>
       </c>
@@ -4276,7 +4273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>43967</v>
       </c>
@@ -4321,7 +4318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>43968</v>
       </c>
@@ -4366,7 +4363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>43969</v>
       </c>
@@ -4411,7 +4408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>43970</v>
       </c>
@@ -4456,7 +4453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>43971</v>
       </c>
@@ -4501,7 +4498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>43972</v>
       </c>
@@ -4546,7 +4543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>43973</v>
       </c>
@@ -4591,7 +4588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>43974</v>
       </c>
@@ -4636,7 +4633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>43975</v>
       </c>
@@ -4681,7 +4678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>43976</v>
       </c>
@@ -4726,7 +4723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>43977</v>
       </c>
@@ -4771,7 +4768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>43978</v>
       </c>
@@ -4816,7 +4813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>43979</v>
       </c>
@@ -4861,7 +4858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>43980</v>
       </c>
@@ -4906,7 +4903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>43981</v>
       </c>
@@ -4951,7 +4948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>43982</v>
       </c>
@@ -4996,7 +4993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>43983</v>
       </c>
@@ -5041,7 +5038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>43984</v>
       </c>
@@ -5086,7 +5083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>43985</v>
       </c>
@@ -5131,7 +5128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>43986</v>
       </c>
@@ -5176,7 +5173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>43987</v>
       </c>
@@ -5221,7 +5218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>43988</v>
       </c>
@@ -5266,7 +5263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>43989</v>
       </c>
@@ -5311,7 +5308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>43990</v>
       </c>
@@ -5356,7 +5353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>43991</v>
       </c>
@@ -5401,7 +5398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>43992</v>
       </c>
@@ -5446,7 +5443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>43993</v>
       </c>
@@ -5491,7 +5488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>43994</v>
       </c>
@@ -5536,7 +5533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>43995</v>
       </c>
@@ -5581,7 +5578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>43996</v>
       </c>
@@ -5626,7 +5623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>43997</v>
       </c>
@@ -5671,7 +5668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>43998</v>
       </c>
@@ -5716,7 +5713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>43999</v>
       </c>
@@ -5761,7 +5758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>44000</v>
       </c>
@@ -5806,7 +5803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>44001</v>
       </c>
@@ -5851,7 +5848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>44002</v>
       </c>
@@ -5896,7 +5893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>44003</v>
       </c>
@@ -5941,7 +5938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>44004</v>
       </c>
@@ -5986,7 +5983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>44005</v>
       </c>
@@ -6031,7 +6028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>44006</v>
       </c>
@@ -6076,7 +6073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>44007</v>
       </c>
@@ -6121,7 +6118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>44008</v>
       </c>
@@ -6166,7 +6163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>44009</v>
       </c>
@@ -6211,7 +6208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>44010</v>
       </c>
@@ -6256,7 +6253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>44011</v>
       </c>
@@ -6301,7 +6298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>44012</v>
       </c>
@@ -6346,7 +6343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>44013</v>
       </c>
@@ -6391,7 +6388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>44014</v>
       </c>
@@ -6436,7 +6433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>44015</v>
       </c>
@@ -6481,7 +6478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>44016</v>
       </c>
@@ -6526,12 +6523,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>44017</v>
       </c>
       <c r="B131" s="19">
-        <f t="shared" ref="B131:B133" si="34">B130+C131</f>
+        <f t="shared" ref="B131:B132" si="34">B130+C131</f>
         <v>2073</v>
       </c>
       <c r="C131" s="13">
@@ -6550,18 +6547,18 @@
         <v>8</v>
       </c>
       <c r="H131" s="17">
-        <f t="shared" ref="H131:H133" si="35">G131+E131</f>
+        <f t="shared" ref="H131:H132" si="35">G131+E131</f>
         <v>10</v>
       </c>
       <c r="I131" s="33">
         <v>0</v>
       </c>
       <c r="J131" s="16">
-        <f t="shared" ref="J131:J133" si="36">J130+K131</f>
+        <f t="shared" ref="J131:J132" si="36">J130+K131</f>
         <v>153</v>
       </c>
       <c r="K131" s="16">
-        <f t="shared" ref="K131:K133" si="37">L131+M131</f>
+        <f t="shared" ref="K131:K132" si="37">L131+M131</f>
         <v>0</v>
       </c>
       <c r="L131" s="26">
@@ -6571,7 +6568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>44018</v>
       </c>
@@ -6616,19 +6613,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>44019</v>
       </c>
       <c r="B133" s="19">
-        <f t="shared" si="34"/>
-        <v>2077</v>
+        <f t="shared" ref="B133:B135" si="38">B132+C133</f>
+        <v>2078</v>
       </c>
       <c r="C133" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D133" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E133" s="4">
         <v>1</v>
@@ -6637,21 +6634,21 @@
         <v>0</v>
       </c>
       <c r="G133" s="24">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H133" s="17">
-        <f t="shared" si="35"/>
-        <v>11</v>
+        <f t="shared" ref="H133:H135" si="39">G133+E133</f>
+        <v>9</v>
       </c>
       <c r="I133" s="33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J133" s="16">
-        <f t="shared" si="36"/>
+        <f t="shared" ref="J133:J135" si="40">J132+K133</f>
         <v>153</v>
       </c>
       <c r="K133" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" ref="K133:K135" si="41">L133+M133</f>
         <v>0</v>
       </c>
       <c r="L133" s="26">
@@ -6661,49 +6658,94 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A134" s="2">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
         <v>44020</v>
       </c>
-      <c r="B134" s="20">
-        <f t="shared" ref="B134" si="38">B133+C134</f>
-        <v>2077</v>
-      </c>
-      <c r="C134" s="14">
-        <v>0</v>
-      </c>
-      <c r="D134" s="14">
-        <v>0</v>
-      </c>
-      <c r="E134" s="30">
-        <v>1</v>
-      </c>
-      <c r="F134" s="31">
-        <v>0</v>
-      </c>
-      <c r="G134" s="25">
+      <c r="B134" s="19">
+        <f t="shared" si="38"/>
+        <v>2078</v>
+      </c>
+      <c r="C134" s="13">
+        <v>0</v>
+      </c>
+      <c r="D134" s="13">
+        <v>0</v>
+      </c>
+      <c r="E134" s="4">
+        <v>1</v>
+      </c>
+      <c r="F134" s="3">
+        <v>0</v>
+      </c>
+      <c r="G134" s="24">
+        <v>8</v>
+      </c>
+      <c r="H134" s="17">
+        <f t="shared" si="39"/>
         <v>9</v>
       </c>
-      <c r="H134" s="18">
-        <f t="shared" ref="H134" si="39">G134+E134</f>
-        <v>10</v>
-      </c>
-      <c r="I134" s="34">
-        <v>0</v>
-      </c>
-      <c r="J134" s="21">
-        <f t="shared" ref="J134" si="40">J133+K134</f>
+      <c r="I134" s="33">
+        <v>0</v>
+      </c>
+      <c r="J134" s="16">
+        <f t="shared" si="40"/>
         <v>153</v>
       </c>
-      <c r="K134" s="21">
-        <f t="shared" ref="K134" si="41">L134+M134</f>
-        <v>0</v>
-      </c>
-      <c r="L134" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="M134" s="29" t="s">
-        <v>14</v>
+      <c r="K134" s="16">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="L134" s="26">
+        <v>0</v>
+      </c>
+      <c r="M134" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A135" s="2">
+        <v>44021</v>
+      </c>
+      <c r="B135" s="20">
+        <f t="shared" si="38"/>
+        <v>2078</v>
+      </c>
+      <c r="C135" s="14">
+        <v>0</v>
+      </c>
+      <c r="D135" s="14">
+        <v>0</v>
+      </c>
+      <c r="E135" s="30">
+        <v>1</v>
+      </c>
+      <c r="F135" s="31">
+        <v>0</v>
+      </c>
+      <c r="G135" s="25">
+        <v>8</v>
+      </c>
+      <c r="H135" s="18">
+        <f t="shared" si="39"/>
+        <v>9</v>
+      </c>
+      <c r="I135" s="34">
+        <v>0</v>
+      </c>
+      <c r="J135" s="21">
+        <f t="shared" si="40"/>
+        <v>153</v>
+      </c>
+      <c r="K135" s="21">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="L135" s="28">
+        <v>0</v>
+      </c>
+      <c r="M135" s="29">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Chiffres  COVID-19 Valais.xlsx
+++ b/Chiffres  COVID-19 Valais.xlsx
@@ -99,7 +99,7 @@
     <t>Nb de nouvelles sorties</t>
   </si>
   <si>
-    <t>Données COVID-19 Valais 09.07.2020</t>
+    <t>Données COVID-19 Valais 10.07.2020</t>
   </si>
 </sst>
 </file>
@@ -687,7 +687,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O135"/>
+  <dimension ref="A1:O136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:M1"/>
@@ -6618,7 +6618,7 @@
         <v>44019</v>
       </c>
       <c r="B133" s="19">
-        <f t="shared" ref="B133:B135" si="38">B132+C133</f>
+        <f t="shared" ref="B133" si="38">B132+C133</f>
         <v>2078</v>
       </c>
       <c r="C133" s="13">
@@ -6637,18 +6637,18 @@
         <v>8</v>
       </c>
       <c r="H133" s="17">
-        <f t="shared" ref="H133:H135" si="39">G133+E133</f>
+        <f t="shared" ref="H133" si="39">G133+E133</f>
         <v>9</v>
       </c>
       <c r="I133" s="33">
         <v>3</v>
       </c>
       <c r="J133" s="16">
-        <f t="shared" ref="J133:J135" si="40">J132+K133</f>
+        <f t="shared" ref="J133" si="40">J132+K133</f>
         <v>153</v>
       </c>
       <c r="K133" s="16">
-        <f t="shared" ref="K133:K135" si="41">L133+M133</f>
+        <f t="shared" ref="K133" si="41">L133+M133</f>
         <v>0</v>
       </c>
       <c r="L133" s="26">
@@ -6663,7 +6663,7 @@
         <v>44020</v>
       </c>
       <c r="B134" s="19">
-        <f t="shared" si="38"/>
+        <f t="shared" ref="B134:B136" si="42">B133+C134</f>
         <v>2078</v>
       </c>
       <c r="C134" s="13">
@@ -6682,18 +6682,18 @@
         <v>8</v>
       </c>
       <c r="H134" s="17">
-        <f t="shared" si="39"/>
+        <f t="shared" ref="H134:H136" si="43">G134+E134</f>
         <v>9</v>
       </c>
       <c r="I134" s="33">
         <v>0</v>
       </c>
       <c r="J134" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" ref="J134:J136" si="44">J133+K134</f>
         <v>153</v>
       </c>
       <c r="K134" s="16">
-        <f t="shared" si="41"/>
+        <f t="shared" ref="K134:K136" si="45">L134+M134</f>
         <v>0</v>
       </c>
       <c r="L134" s="26">
@@ -6704,47 +6704,92 @@
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A135" s="2">
+      <c r="A135" s="1">
         <v>44021</v>
       </c>
-      <c r="B135" s="20">
-        <f t="shared" si="38"/>
-        <v>2078</v>
-      </c>
-      <c r="C135" s="14">
-        <v>0</v>
-      </c>
-      <c r="D135" s="14">
-        <v>0</v>
-      </c>
-      <c r="E135" s="30">
-        <v>1</v>
-      </c>
-      <c r="F135" s="31">
-        <v>0</v>
-      </c>
-      <c r="G135" s="25">
-        <v>8</v>
-      </c>
-      <c r="H135" s="18">
-        <f t="shared" si="39"/>
+      <c r="B135" s="19">
+        <f t="shared" si="42"/>
+        <v>2080</v>
+      </c>
+      <c r="C135" s="13">
+        <v>2</v>
+      </c>
+      <c r="D135" s="13">
+        <v>1</v>
+      </c>
+      <c r="E135" s="4">
+        <v>1</v>
+      </c>
+      <c r="F135" s="3">
+        <v>0</v>
+      </c>
+      <c r="G135" s="24">
         <v>9</v>
       </c>
-      <c r="I135" s="34">
-        <v>0</v>
-      </c>
-      <c r="J135" s="21">
-        <f t="shared" si="40"/>
+      <c r="H135" s="17">
+        <f t="shared" si="43"/>
+        <v>10</v>
+      </c>
+      <c r="I135" s="33">
+        <v>0</v>
+      </c>
+      <c r="J135" s="16">
+        <f t="shared" si="44"/>
         <v>153</v>
       </c>
-      <c r="K135" s="21">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="L135" s="28">
-        <v>0</v>
-      </c>
-      <c r="M135" s="29">
+      <c r="K135" s="16">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="L135" s="26">
+        <v>0</v>
+      </c>
+      <c r="M135" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A136" s="2">
+        <v>44022</v>
+      </c>
+      <c r="B136" s="20">
+        <f t="shared" si="42"/>
+        <v>2080</v>
+      </c>
+      <c r="C136" s="14">
+        <v>0</v>
+      </c>
+      <c r="D136" s="14">
+        <v>0</v>
+      </c>
+      <c r="E136" s="30">
+        <v>1</v>
+      </c>
+      <c r="F136" s="31">
+        <v>0</v>
+      </c>
+      <c r="G136" s="25">
+        <v>9</v>
+      </c>
+      <c r="H136" s="18">
+        <f t="shared" si="43"/>
+        <v>10</v>
+      </c>
+      <c r="I136" s="34">
+        <v>0</v>
+      </c>
+      <c r="J136" s="21">
+        <f t="shared" si="44"/>
+        <v>153</v>
+      </c>
+      <c r="K136" s="21">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="L136" s="28">
+        <v>0</v>
+      </c>
+      <c r="M136" s="29">
         <v>0</v>
       </c>
     </row>

--- a/Chiffres  COVID-19 Valais.xlsx
+++ b/Chiffres  COVID-19 Valais.xlsx
@@ -99,7 +99,7 @@
     <t>Nb de nouvelles sorties</t>
   </si>
   <si>
-    <t>Données COVID-19 Valais 10.07.2020</t>
+    <t>Données COVID-19 Valais 13.07.2020</t>
   </si>
 </sst>
 </file>
@@ -687,23 +687,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O136"/>
+  <dimension ref="A1:O139"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:M1"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="A139" sqref="A139"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="3" width="11.42578125" style="15"/>
-    <col min="4" max="4" width="10.85546875" style="15"/>
-    <col min="8" max="9" width="16.140625" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" style="6" customWidth="1"/>
+    <col min="2" max="3" width="11.453125" style="15"/>
+    <col min="4" max="4" width="10.81640625" style="15"/>
+    <col min="8" max="9" width="16.1796875" customWidth="1"/>
+    <col min="11" max="11" width="14.54296875" customWidth="1"/>
+    <col min="12" max="12" width="13.54296875" customWidth="1"/>
+    <col min="13" max="13" width="15.7265625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="35" t="s">
         <v>13</v>
       </c>
@@ -720,7 +720,7 @@
       <c r="L1" s="36"/>
       <c r="M1" s="37"/>
     </row>
-    <row r="2" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -763,7 +763,7 @@
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>43889</v>
       </c>
@@ -808,7 +808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>43890</v>
       </c>
@@ -853,7 +853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>43891</v>
       </c>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>43892</v>
       </c>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>43893</v>
       </c>
@@ -988,7 +988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>43894</v>
       </c>
@@ -1033,7 +1033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>43895</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>43896</v>
       </c>
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>43897</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>43898</v>
       </c>
@@ -1213,7 +1213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>43899</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>43900</v>
       </c>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>43901</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>43902</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>43903</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>43904</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>43905</v>
       </c>
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>43906</v>
       </c>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>43907</v>
       </c>
@@ -1618,7 +1618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>43908</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>43909</v>
       </c>
@@ -1708,7 +1708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>43910</v>
       </c>
@@ -1753,7 +1753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>43911</v>
       </c>
@@ -1798,7 +1798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>43912</v>
       </c>
@@ -1843,7 +1843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>43913</v>
       </c>
@@ -1888,7 +1888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>43914</v>
       </c>
@@ -1933,7 +1933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>43915</v>
       </c>
@@ -1978,7 +1978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>43916</v>
       </c>
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>43917</v>
       </c>
@@ -2068,7 +2068,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>43918</v>
       </c>
@@ -2113,7 +2113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>43919</v>
       </c>
@@ -2158,7 +2158,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>43920</v>
       </c>
@@ -2203,7 +2203,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>43921</v>
       </c>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>43922</v>
       </c>
@@ -2293,7 +2293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>43923</v>
       </c>
@@ -2338,7 +2338,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>43924</v>
       </c>
@@ -2383,7 +2383,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>43925</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>43926</v>
       </c>
@@ -2473,7 +2473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>43927</v>
       </c>
@@ -2518,7 +2518,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>43928</v>
       </c>
@@ -2563,7 +2563,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>43929</v>
       </c>
@@ -2608,7 +2608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>43930</v>
       </c>
@@ -2653,7 +2653,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>43931</v>
       </c>
@@ -2698,7 +2698,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>43932</v>
       </c>
@@ -2743,7 +2743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>43933</v>
       </c>
@@ -2788,7 +2788,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>43934</v>
       </c>
@@ -2833,7 +2833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>43935</v>
       </c>
@@ -2878,7 +2878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>43936</v>
       </c>
@@ -2923,7 +2923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>43937</v>
       </c>
@@ -2968,7 +2968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>43938</v>
       </c>
@@ -3013,7 +3013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>43939</v>
       </c>
@@ -3058,7 +3058,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>43940</v>
       </c>
@@ -3103,7 +3103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>43941</v>
       </c>
@@ -3148,7 +3148,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>43942</v>
       </c>
@@ -3193,7 +3193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>43943</v>
       </c>
@@ -3238,7 +3238,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>43944</v>
       </c>
@@ -3283,7 +3283,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>43945</v>
       </c>
@@ -3328,7 +3328,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>43946</v>
       </c>
@@ -3373,7 +3373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>43947</v>
       </c>
@@ -3418,7 +3418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>43948</v>
       </c>
@@ -3463,7 +3463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>43949</v>
       </c>
@@ -3508,7 +3508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>43950</v>
       </c>
@@ -3553,7 +3553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>43951</v>
       </c>
@@ -3598,7 +3598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>43952</v>
       </c>
@@ -3643,7 +3643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>43953</v>
       </c>
@@ -3688,7 +3688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>43954</v>
       </c>
@@ -3733,7 +3733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>43955</v>
       </c>
@@ -3778,7 +3778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>43956</v>
       </c>
@@ -3823,7 +3823,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>43957</v>
       </c>
@@ -3868,7 +3868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>43958</v>
       </c>
@@ -3913,7 +3913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>43959</v>
       </c>
@@ -3958,7 +3958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>43960</v>
       </c>
@@ -4003,7 +4003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>43961</v>
       </c>
@@ -4048,7 +4048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>43962</v>
       </c>
@@ -4093,7 +4093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>43963</v>
       </c>
@@ -4138,7 +4138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>43964</v>
       </c>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>43965</v>
       </c>
@@ -4228,7 +4228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>43966</v>
       </c>
@@ -4273,7 +4273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>43967</v>
       </c>
@@ -4318,7 +4318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>43968</v>
       </c>
@@ -4363,7 +4363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>43969</v>
       </c>
@@ -4408,7 +4408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>43970</v>
       </c>
@@ -4453,7 +4453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>43971</v>
       </c>
@@ -4498,7 +4498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>43972</v>
       </c>
@@ -4543,7 +4543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>43973</v>
       </c>
@@ -4588,7 +4588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>43974</v>
       </c>
@@ -4633,7 +4633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>43975</v>
       </c>
@@ -4678,7 +4678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>43976</v>
       </c>
@@ -4723,7 +4723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>43977</v>
       </c>
@@ -4768,7 +4768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>43978</v>
       </c>
@@ -4813,7 +4813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>43979</v>
       </c>
@@ -4858,7 +4858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>43980</v>
       </c>
@@ -4903,7 +4903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>43981</v>
       </c>
@@ -4948,7 +4948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>43982</v>
       </c>
@@ -4993,7 +4993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>43983</v>
       </c>
@@ -5038,7 +5038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>43984</v>
       </c>
@@ -5083,7 +5083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>43985</v>
       </c>
@@ -5128,7 +5128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>43986</v>
       </c>
@@ -5173,7 +5173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>43987</v>
       </c>
@@ -5218,7 +5218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>43988</v>
       </c>
@@ -5263,7 +5263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>43989</v>
       </c>
@@ -5308,7 +5308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>43990</v>
       </c>
@@ -5353,7 +5353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>43991</v>
       </c>
@@ -5398,7 +5398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>43992</v>
       </c>
@@ -5443,7 +5443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>43993</v>
       </c>
@@ -5488,7 +5488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>43994</v>
       </c>
@@ -5533,7 +5533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>43995</v>
       </c>
@@ -5578,7 +5578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>43996</v>
       </c>
@@ -5623,7 +5623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>43997</v>
       </c>
@@ -5668,7 +5668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>43998</v>
       </c>
@@ -5713,7 +5713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>43999</v>
       </c>
@@ -5758,7 +5758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>44000</v>
       </c>
@@ -5803,7 +5803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>44001</v>
       </c>
@@ -5848,7 +5848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>44002</v>
       </c>
@@ -5893,7 +5893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>44003</v>
       </c>
@@ -5938,7 +5938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>44004</v>
       </c>
@@ -5983,7 +5983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>44005</v>
       </c>
@@ -6028,7 +6028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>44006</v>
       </c>
@@ -6073,7 +6073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>44007</v>
       </c>
@@ -6118,7 +6118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>44008</v>
       </c>
@@ -6163,7 +6163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>44009</v>
       </c>
@@ -6208,7 +6208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>44010</v>
       </c>
@@ -6253,7 +6253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>44011</v>
       </c>
@@ -6298,7 +6298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>44012</v>
       </c>
@@ -6343,7 +6343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>44013</v>
       </c>
@@ -6388,7 +6388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>44014</v>
       </c>
@@ -6433,7 +6433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>44015</v>
       </c>
@@ -6478,7 +6478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>44016</v>
       </c>
@@ -6523,7 +6523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>44017</v>
       </c>
@@ -6568,7 +6568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>44018</v>
       </c>
@@ -6613,7 +6613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>44019</v>
       </c>
@@ -6658,12 +6658,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>44020</v>
       </c>
       <c r="B134" s="19">
-        <f t="shared" ref="B134:B136" si="42">B133+C134</f>
+        <f t="shared" ref="B134" si="42">B133+C134</f>
         <v>2078</v>
       </c>
       <c r="C134" s="13">
@@ -6682,18 +6682,18 @@
         <v>8</v>
       </c>
       <c r="H134" s="17">
-        <f t="shared" ref="H134:H136" si="43">G134+E134</f>
+        <f t="shared" ref="H134" si="43">G134+E134</f>
         <v>9</v>
       </c>
       <c r="I134" s="33">
         <v>0</v>
       </c>
       <c r="J134" s="16">
-        <f t="shared" ref="J134:J136" si="44">J133+K134</f>
+        <f t="shared" ref="J134" si="44">J133+K134</f>
         <v>153</v>
       </c>
       <c r="K134" s="16">
-        <f t="shared" ref="K134:K136" si="45">L134+M134</f>
+        <f t="shared" ref="K134" si="45">L134+M134</f>
         <v>0</v>
       </c>
       <c r="L134" s="26">
@@ -6703,12 +6703,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>44021</v>
       </c>
       <c r="B135" s="19">
-        <f t="shared" si="42"/>
+        <f t="shared" ref="B135:B139" si="46">B134+C135</f>
         <v>2080</v>
       </c>
       <c r="C135" s="13">
@@ -6727,18 +6727,18 @@
         <v>9</v>
       </c>
       <c r="H135" s="17">
-        <f t="shared" si="43"/>
+        <f t="shared" ref="H135:H139" si="47">G135+E135</f>
         <v>10</v>
       </c>
       <c r="I135" s="33">
         <v>0</v>
       </c>
       <c r="J135" s="16">
-        <f t="shared" si="44"/>
+        <f t="shared" ref="J135:J139" si="48">J134+K135</f>
         <v>153</v>
       </c>
       <c r="K135" s="16">
-        <f t="shared" si="45"/>
+        <f t="shared" ref="K135:K139" si="49">L135+M135</f>
         <v>0</v>
       </c>
       <c r="L135" s="26">
@@ -6748,48 +6748,183 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A136" s="2">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A136" s="1">
         <v>44022</v>
       </c>
-      <c r="B136" s="20">
-        <f t="shared" si="42"/>
-        <v>2080</v>
-      </c>
-      <c r="C136" s="14">
-        <v>0</v>
-      </c>
-      <c r="D136" s="14">
-        <v>0</v>
-      </c>
-      <c r="E136" s="30">
-        <v>1</v>
-      </c>
-      <c r="F136" s="31">
-        <v>0</v>
-      </c>
-      <c r="G136" s="25">
+      <c r="B136" s="19">
+        <f t="shared" si="46"/>
+        <v>2084</v>
+      </c>
+      <c r="C136" s="13">
+        <v>4</v>
+      </c>
+      <c r="D136" s="13">
+        <v>1</v>
+      </c>
+      <c r="E136" s="4">
+        <v>1</v>
+      </c>
+      <c r="F136" s="3">
+        <v>0</v>
+      </c>
+      <c r="G136" s="24">
         <v>9</v>
       </c>
-      <c r="H136" s="18">
-        <f t="shared" si="43"/>
+      <c r="H136" s="17">
+        <f t="shared" si="47"/>
         <v>10</v>
       </c>
-      <c r="I136" s="34">
-        <v>0</v>
-      </c>
-      <c r="J136" s="21">
-        <f t="shared" si="44"/>
+      <c r="I136" s="33">
+        <v>1</v>
+      </c>
+      <c r="J136" s="16">
+        <f t="shared" si="48"/>
         <v>153</v>
       </c>
-      <c r="K136" s="21">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="L136" s="28">
-        <v>0</v>
-      </c>
-      <c r="M136" s="29">
+      <c r="K136" s="16">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="L136" s="26">
+        <v>0</v>
+      </c>
+      <c r="M136" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A137" s="1">
+        <v>44023</v>
+      </c>
+      <c r="B137" s="19">
+        <f t="shared" si="46"/>
+        <v>2088</v>
+      </c>
+      <c r="C137" s="13">
+        <v>4</v>
+      </c>
+      <c r="D137" s="13">
+        <v>0</v>
+      </c>
+      <c r="E137" s="4">
+        <v>1</v>
+      </c>
+      <c r="F137" s="3">
+        <v>0</v>
+      </c>
+      <c r="G137" s="24">
+        <v>9</v>
+      </c>
+      <c r="H137" s="17">
+        <f t="shared" si="47"/>
+        <v>10</v>
+      </c>
+      <c r="I137" s="33">
+        <v>0</v>
+      </c>
+      <c r="J137" s="16">
+        <f t="shared" si="48"/>
+        <v>153</v>
+      </c>
+      <c r="K137" s="16">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="L137" s="26">
+        <v>0</v>
+      </c>
+      <c r="M137" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A138" s="1">
+        <v>44024</v>
+      </c>
+      <c r="B138" s="19">
+        <f t="shared" si="46"/>
+        <v>2091</v>
+      </c>
+      <c r="C138" s="13">
+        <v>3</v>
+      </c>
+      <c r="D138" s="13">
+        <v>0</v>
+      </c>
+      <c r="E138" s="4">
+        <v>1</v>
+      </c>
+      <c r="F138" s="3">
+        <v>0</v>
+      </c>
+      <c r="G138" s="24">
+        <v>9</v>
+      </c>
+      <c r="H138" s="17">
+        <f t="shared" si="47"/>
+        <v>10</v>
+      </c>
+      <c r="I138" s="33">
+        <v>0</v>
+      </c>
+      <c r="J138" s="16">
+        <f t="shared" si="48"/>
+        <v>153</v>
+      </c>
+      <c r="K138" s="16">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="L138" s="26">
+        <v>0</v>
+      </c>
+      <c r="M138" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A139" s="2">
+        <v>44025</v>
+      </c>
+      <c r="B139" s="20">
+        <f t="shared" si="46"/>
+        <v>2091</v>
+      </c>
+      <c r="C139" s="14">
+        <v>0</v>
+      </c>
+      <c r="D139" s="14">
+        <v>0</v>
+      </c>
+      <c r="E139" s="30">
+        <v>1</v>
+      </c>
+      <c r="F139" s="31">
+        <v>0</v>
+      </c>
+      <c r="G139" s="25">
+        <v>9</v>
+      </c>
+      <c r="H139" s="18">
+        <f t="shared" si="47"/>
+        <v>10</v>
+      </c>
+      <c r="I139" s="34">
+        <v>0</v>
+      </c>
+      <c r="J139" s="21">
+        <f t="shared" si="48"/>
+        <v>153</v>
+      </c>
+      <c r="K139" s="21">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="L139" s="28">
+        <v>0</v>
+      </c>
+      <c r="M139" s="29">
         <v>0</v>
       </c>
     </row>

--- a/Chiffres  COVID-19 Valais.xlsx
+++ b/Chiffres  COVID-19 Valais.xlsx
@@ -99,7 +99,7 @@
     <t>Nb de nouvelles sorties</t>
   </si>
   <si>
-    <t>Données COVID-19 Valais 13.07.2020</t>
+    <t>Données COVID-19 Valais 14.07.2020</t>
   </si>
 </sst>
 </file>
@@ -687,23 +687,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O139"/>
+  <dimension ref="A1:O140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="A139" sqref="A139"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="11.453125" style="15"/>
-    <col min="4" max="4" width="10.81640625" style="15"/>
-    <col min="8" max="9" width="16.1796875" customWidth="1"/>
-    <col min="11" max="11" width="14.54296875" customWidth="1"/>
-    <col min="12" max="12" width="13.54296875" customWidth="1"/>
-    <col min="13" max="13" width="15.7265625" style="6" customWidth="1"/>
+    <col min="2" max="3" width="11.42578125" style="15"/>
+    <col min="4" max="4" width="10.85546875" style="15"/>
+    <col min="8" max="9" width="16.140625" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
         <v>13</v>
       </c>
@@ -720,7 +720,7 @@
       <c r="L1" s="36"/>
       <c r="M1" s="37"/>
     </row>
-    <row r="2" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -763,7 +763,7 @@
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43889</v>
       </c>
@@ -808,7 +808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43890</v>
       </c>
@@ -853,7 +853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43891</v>
       </c>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43892</v>
       </c>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43893</v>
       </c>
@@ -988,7 +988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43894</v>
       </c>
@@ -1033,7 +1033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43895</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43896</v>
       </c>
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43897</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43898</v>
       </c>
@@ -1213,7 +1213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43899</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43900</v>
       </c>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43901</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43902</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43903</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43904</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43905</v>
       </c>
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43906</v>
       </c>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43907</v>
       </c>
@@ -1618,7 +1618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43908</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43909</v>
       </c>
@@ -1708,7 +1708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43910</v>
       </c>
@@ -1753,7 +1753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43911</v>
       </c>
@@ -1798,7 +1798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43912</v>
       </c>
@@ -1843,7 +1843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43913</v>
       </c>
@@ -1888,7 +1888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43914</v>
       </c>
@@ -1933,7 +1933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43915</v>
       </c>
@@ -1978,7 +1978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43916</v>
       </c>
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43917</v>
       </c>
@@ -2068,7 +2068,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43918</v>
       </c>
@@ -2113,7 +2113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43919</v>
       </c>
@@ -2158,7 +2158,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>43920</v>
       </c>
@@ -2203,7 +2203,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>43921</v>
       </c>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>43922</v>
       </c>
@@ -2293,7 +2293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>43923</v>
       </c>
@@ -2338,7 +2338,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>43924</v>
       </c>
@@ -2383,7 +2383,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>43925</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>43926</v>
       </c>
@@ -2473,7 +2473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>43927</v>
       </c>
@@ -2518,7 +2518,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>43928</v>
       </c>
@@ -2563,7 +2563,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43929</v>
       </c>
@@ -2608,7 +2608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43930</v>
       </c>
@@ -2653,7 +2653,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43931</v>
       </c>
@@ -2698,7 +2698,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43932</v>
       </c>
@@ -2743,7 +2743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>43933</v>
       </c>
@@ -2788,7 +2788,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>43934</v>
       </c>
@@ -2833,7 +2833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>43935</v>
       </c>
@@ -2878,7 +2878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>43936</v>
       </c>
@@ -2923,7 +2923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>43937</v>
       </c>
@@ -2968,7 +2968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>43938</v>
       </c>
@@ -3013,7 +3013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>43939</v>
       </c>
@@ -3058,7 +3058,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>43940</v>
       </c>
@@ -3103,7 +3103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>43941</v>
       </c>
@@ -3148,7 +3148,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>43942</v>
       </c>
@@ -3193,7 +3193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>43943</v>
       </c>
@@ -3238,7 +3238,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>43944</v>
       </c>
@@ -3283,7 +3283,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>43945</v>
       </c>
@@ -3328,7 +3328,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>43946</v>
       </c>
@@ -3373,7 +3373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>43947</v>
       </c>
@@ -3418,7 +3418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>43948</v>
       </c>
@@ -3463,7 +3463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>43949</v>
       </c>
@@ -3508,7 +3508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>43950</v>
       </c>
@@ -3553,7 +3553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>43951</v>
       </c>
@@ -3598,7 +3598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>43952</v>
       </c>
@@ -3643,7 +3643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>43953</v>
       </c>
@@ -3688,7 +3688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>43954</v>
       </c>
@@ -3733,7 +3733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>43955</v>
       </c>
@@ -3778,7 +3778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>43956</v>
       </c>
@@ -3823,7 +3823,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>43957</v>
       </c>
@@ -3868,7 +3868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>43958</v>
       </c>
@@ -3913,7 +3913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>43959</v>
       </c>
@@ -3958,7 +3958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>43960</v>
       </c>
@@ -4003,7 +4003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>43961</v>
       </c>
@@ -4048,7 +4048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>43962</v>
       </c>
@@ -4093,7 +4093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>43963</v>
       </c>
@@ -4138,7 +4138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>43964</v>
       </c>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>43965</v>
       </c>
@@ -4228,7 +4228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>43966</v>
       </c>
@@ -4273,7 +4273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>43967</v>
       </c>
@@ -4318,7 +4318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>43968</v>
       </c>
@@ -4363,7 +4363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>43969</v>
       </c>
@@ -4408,7 +4408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>43970</v>
       </c>
@@ -4453,7 +4453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>43971</v>
       </c>
@@ -4498,7 +4498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>43972</v>
       </c>
@@ -4543,7 +4543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>43973</v>
       </c>
@@ -4588,7 +4588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>43974</v>
       </c>
@@ -4633,7 +4633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>43975</v>
       </c>
@@ -4678,7 +4678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>43976</v>
       </c>
@@ -4723,7 +4723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>43977</v>
       </c>
@@ -4768,7 +4768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>43978</v>
       </c>
@@ -4813,7 +4813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>43979</v>
       </c>
@@ -4858,7 +4858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>43980</v>
       </c>
@@ -4903,7 +4903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>43981</v>
       </c>
@@ -4948,7 +4948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>43982</v>
       </c>
@@ -4993,7 +4993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>43983</v>
       </c>
@@ -5038,7 +5038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>43984</v>
       </c>
@@ -5083,7 +5083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>43985</v>
       </c>
@@ -5128,7 +5128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>43986</v>
       </c>
@@ -5173,7 +5173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>43987</v>
       </c>
@@ -5218,7 +5218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>43988</v>
       </c>
@@ -5263,7 +5263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>43989</v>
       </c>
@@ -5308,7 +5308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>43990</v>
       </c>
@@ -5353,7 +5353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>43991</v>
       </c>
@@ -5398,7 +5398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>43992</v>
       </c>
@@ -5443,7 +5443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>43993</v>
       </c>
@@ -5488,7 +5488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>43994</v>
       </c>
@@ -5533,7 +5533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>43995</v>
       </c>
@@ -5578,7 +5578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>43996</v>
       </c>
@@ -5623,7 +5623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>43997</v>
       </c>
@@ -5668,7 +5668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>43998</v>
       </c>
@@ -5713,7 +5713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>43999</v>
       </c>
@@ -5758,7 +5758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>44000</v>
       </c>
@@ -5803,7 +5803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>44001</v>
       </c>
@@ -5848,7 +5848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>44002</v>
       </c>
@@ -5893,7 +5893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>44003</v>
       </c>
@@ -5938,7 +5938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>44004</v>
       </c>
@@ -5983,7 +5983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>44005</v>
       </c>
@@ -6028,7 +6028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>44006</v>
       </c>
@@ -6073,7 +6073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>44007</v>
       </c>
@@ -6118,7 +6118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>44008</v>
       </c>
@@ -6163,7 +6163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>44009</v>
       </c>
@@ -6208,7 +6208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>44010</v>
       </c>
@@ -6253,7 +6253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>44011</v>
       </c>
@@ -6298,7 +6298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>44012</v>
       </c>
@@ -6343,7 +6343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>44013</v>
       </c>
@@ -6364,14 +6364,14 @@
         <v>0</v>
       </c>
       <c r="G127" s="24">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H127" s="17">
         <f t="shared" si="31"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I127" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" s="16">
         <f t="shared" si="32"/>
@@ -6388,7 +6388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>44014</v>
       </c>
@@ -6409,11 +6409,11 @@
         <v>0</v>
       </c>
       <c r="G128" s="24">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H128" s="17">
         <f t="shared" si="31"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I128" s="33">
         <v>0</v>
@@ -6433,7 +6433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>44015</v>
       </c>
@@ -6454,11 +6454,11 @@
         <v>0</v>
       </c>
       <c r="G129" s="24">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H129" s="17">
         <f t="shared" si="31"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I129" s="33">
         <v>1</v>
@@ -6478,7 +6478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>44016</v>
       </c>
@@ -6499,11 +6499,11 @@
         <v>0</v>
       </c>
       <c r="G130" s="24">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H130" s="17">
         <f t="shared" si="31"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I130" s="33">
         <v>1</v>
@@ -6523,7 +6523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>44017</v>
       </c>
@@ -6544,11 +6544,11 @@
         <v>0</v>
       </c>
       <c r="G131" s="24">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H131" s="17">
         <f t="shared" ref="H131:H132" si="35">G131+E131</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I131" s="33">
         <v>0</v>
@@ -6568,7 +6568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>44018</v>
       </c>
@@ -6589,11 +6589,11 @@
         <v>0</v>
       </c>
       <c r="G132" s="24">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H132" s="17">
         <f t="shared" si="35"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I132" s="33">
         <v>0</v>
@@ -6613,7 +6613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>44019</v>
       </c>
@@ -6634,11 +6634,11 @@
         <v>0</v>
       </c>
       <c r="G133" s="24">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H133" s="17">
         <f t="shared" ref="H133" si="39">G133+E133</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I133" s="33">
         <v>3</v>
@@ -6658,7 +6658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>44020</v>
       </c>
@@ -6679,11 +6679,11 @@
         <v>0</v>
       </c>
       <c r="G134" s="24">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H134" s="17">
         <f t="shared" ref="H134" si="43">G134+E134</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I134" s="33">
         <v>0</v>
@@ -6703,12 +6703,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>44021</v>
       </c>
       <c r="B135" s="19">
-        <f t="shared" ref="B135:B139" si="46">B134+C135</f>
+        <f t="shared" ref="B135:B138" si="46">B134+C135</f>
         <v>2080</v>
       </c>
       <c r="C135" s="13">
@@ -6724,21 +6724,21 @@
         <v>0</v>
       </c>
       <c r="G135" s="24">
+        <v>8</v>
+      </c>
+      <c r="H135" s="17">
+        <f t="shared" ref="H135:H138" si="47">G135+E135</f>
         <v>9</v>
       </c>
-      <c r="H135" s="17">
-        <f t="shared" ref="H135:H139" si="47">G135+E135</f>
-        <v>10</v>
-      </c>
       <c r="I135" s="33">
         <v>0</v>
       </c>
       <c r="J135" s="16">
-        <f t="shared" ref="J135:J139" si="48">J134+K135</f>
+        <f t="shared" ref="J135:J138" si="48">J134+K135</f>
         <v>153</v>
       </c>
       <c r="K135" s="16">
-        <f t="shared" ref="K135:K139" si="49">L135+M135</f>
+        <f t="shared" ref="K135:K138" si="49">L135+M135</f>
         <v>0</v>
       </c>
       <c r="L135" s="26">
@@ -6748,35 +6748,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>44022</v>
       </c>
       <c r="B136" s="19">
         <f t="shared" si="46"/>
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="C136" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D136" s="13">
         <v>1</v>
       </c>
       <c r="E136" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F136" s="3">
         <v>0</v>
       </c>
       <c r="G136" s="24">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H136" s="17">
         <f t="shared" si="47"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I136" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J136" s="16">
         <f t="shared" si="48"/>
@@ -6793,7 +6793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>44023</v>
       </c>
@@ -6802,23 +6802,23 @@
         <v>2088</v>
       </c>
       <c r="C137" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D137" s="13">
         <v>0</v>
       </c>
       <c r="E137" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F137" s="3">
         <v>0</v>
       </c>
       <c r="G137" s="24">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H137" s="17">
         <f t="shared" si="47"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I137" s="33">
         <v>0</v>
@@ -6838,7 +6838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>44024</v>
       </c>
@@ -6853,17 +6853,17 @@
         <v>0</v>
       </c>
       <c r="E138" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F138" s="3">
         <v>0</v>
       </c>
       <c r="G138" s="24">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H138" s="17">
         <f t="shared" si="47"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I138" s="33">
         <v>0</v>
@@ -6883,48 +6883,93 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A139" s="2">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
         <v>44025</v>
       </c>
-      <c r="B139" s="20">
-        <f t="shared" si="46"/>
-        <v>2091</v>
-      </c>
-      <c r="C139" s="14">
-        <v>0</v>
-      </c>
-      <c r="D139" s="14">
-        <v>0</v>
-      </c>
-      <c r="E139" s="30">
-        <v>1</v>
-      </c>
-      <c r="F139" s="31">
-        <v>0</v>
-      </c>
-      <c r="G139" s="25">
-        <v>9</v>
-      </c>
-      <c r="H139" s="18">
-        <f t="shared" si="47"/>
-        <v>10</v>
-      </c>
-      <c r="I139" s="34">
-        <v>0</v>
-      </c>
-      <c r="J139" s="21">
-        <f t="shared" si="48"/>
+      <c r="B139" s="19">
+        <f t="shared" ref="B139:B140" si="50">B138+C139</f>
+        <v>2092</v>
+      </c>
+      <c r="C139" s="13">
+        <v>1</v>
+      </c>
+      <c r="D139" s="13">
+        <v>0</v>
+      </c>
+      <c r="E139" s="4">
+        <v>2</v>
+      </c>
+      <c r="F139" s="3">
+        <v>0</v>
+      </c>
+      <c r="G139" s="24">
+        <v>5</v>
+      </c>
+      <c r="H139" s="17">
+        <f t="shared" ref="H139:H140" si="51">G139+E139</f>
+        <v>7</v>
+      </c>
+      <c r="I139" s="33">
+        <v>1</v>
+      </c>
+      <c r="J139" s="16">
+        <f t="shared" ref="J139:J140" si="52">J138+K139</f>
         <v>153</v>
       </c>
-      <c r="K139" s="21">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="L139" s="28">
-        <v>0</v>
-      </c>
-      <c r="M139" s="29">
+      <c r="K139" s="16">
+        <f t="shared" ref="K139:K140" si="53">L139+M139</f>
+        <v>0</v>
+      </c>
+      <c r="L139" s="26">
+        <v>0</v>
+      </c>
+      <c r="M139" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A140" s="2">
+        <v>44026</v>
+      </c>
+      <c r="B140" s="20">
+        <f t="shared" si="50"/>
+        <v>2092</v>
+      </c>
+      <c r="C140" s="14">
+        <v>0</v>
+      </c>
+      <c r="D140" s="14">
+        <v>0</v>
+      </c>
+      <c r="E140" s="30">
+        <v>2</v>
+      </c>
+      <c r="F140" s="31">
+        <v>0</v>
+      </c>
+      <c r="G140" s="25">
+        <v>5</v>
+      </c>
+      <c r="H140" s="18">
+        <f t="shared" si="51"/>
+        <v>7</v>
+      </c>
+      <c r="I140" s="34">
+        <v>0</v>
+      </c>
+      <c r="J140" s="21">
+        <f t="shared" si="52"/>
+        <v>153</v>
+      </c>
+      <c r="K140" s="21">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="L140" s="28">
+        <v>0</v>
+      </c>
+      <c r="M140" s="29">
         <v>0</v>
       </c>
     </row>

--- a/Chiffres  COVID-19 Valais.xlsx
+++ b/Chiffres  COVID-19 Valais.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -99,7 +99,10 @@
     <t>Nb de nouvelles sorties</t>
   </si>
   <si>
-    <t>Données COVID-19 Valais 14.07.2020</t>
+    <t>Données COVID-19 Valais 15.07.2020</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -687,23 +690,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O140"/>
+  <dimension ref="A1:O141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:M1"/>
+    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="A141" sqref="A141"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="3" width="11.42578125" style="15"/>
-    <col min="4" max="4" width="10.85546875" style="15"/>
-    <col min="8" max="9" width="16.140625" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" style="6" customWidth="1"/>
+    <col min="2" max="3" width="11.453125" style="15"/>
+    <col min="4" max="4" width="10.81640625" style="15"/>
+    <col min="8" max="9" width="16.1796875" customWidth="1"/>
+    <col min="11" max="11" width="14.54296875" customWidth="1"/>
+    <col min="12" max="12" width="13.54296875" customWidth="1"/>
+    <col min="13" max="13" width="15.7265625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="35" t="s">
         <v>13</v>
       </c>
@@ -720,7 +723,7 @@
       <c r="L1" s="36"/>
       <c r="M1" s="37"/>
     </row>
-    <row r="2" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -763,7 +766,7 @@
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>43889</v>
       </c>
@@ -808,7 +811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>43890</v>
       </c>
@@ -853,7 +856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>43891</v>
       </c>
@@ -898,7 +901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>43892</v>
       </c>
@@ -943,7 +946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>43893</v>
       </c>
@@ -988,7 +991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>43894</v>
       </c>
@@ -1033,7 +1036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>43895</v>
       </c>
@@ -1078,7 +1081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>43896</v>
       </c>
@@ -1123,7 +1126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>43897</v>
       </c>
@@ -1168,7 +1171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>43898</v>
       </c>
@@ -1213,7 +1216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>43899</v>
       </c>
@@ -1258,7 +1261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>43900</v>
       </c>
@@ -1303,7 +1306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>43901</v>
       </c>
@@ -1348,7 +1351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>43902</v>
       </c>
@@ -1393,7 +1396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>43903</v>
       </c>
@@ -1438,7 +1441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>43904</v>
       </c>
@@ -1483,7 +1486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>43905</v>
       </c>
@@ -1528,7 +1531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>43906</v>
       </c>
@@ -1573,7 +1576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>43907</v>
       </c>
@@ -1618,7 +1621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>43908</v>
       </c>
@@ -1663,7 +1666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>43909</v>
       </c>
@@ -1708,7 +1711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>43910</v>
       </c>
@@ -1753,7 +1756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>43911</v>
       </c>
@@ -1798,7 +1801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>43912</v>
       </c>
@@ -1843,7 +1846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>43913</v>
       </c>
@@ -1888,7 +1891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>43914</v>
       </c>
@@ -1933,7 +1936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>43915</v>
       </c>
@@ -1978,7 +1981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>43916</v>
       </c>
@@ -2023,7 +2026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>43917</v>
       </c>
@@ -2068,7 +2071,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>43918</v>
       </c>
@@ -2113,7 +2116,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>43919</v>
       </c>
@@ -2158,7 +2161,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>43920</v>
       </c>
@@ -2203,7 +2206,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>43921</v>
       </c>
@@ -2248,7 +2251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>43922</v>
       </c>
@@ -2293,7 +2296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>43923</v>
       </c>
@@ -2338,7 +2341,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>43924</v>
       </c>
@@ -2383,7 +2386,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>43925</v>
       </c>
@@ -2428,7 +2431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>43926</v>
       </c>
@@ -2473,7 +2476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>43927</v>
       </c>
@@ -2518,7 +2521,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>43928</v>
       </c>
@@ -2563,7 +2566,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>43929</v>
       </c>
@@ -2608,7 +2611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>43930</v>
       </c>
@@ -2653,7 +2656,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>43931</v>
       </c>
@@ -2698,7 +2701,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>43932</v>
       </c>
@@ -2743,7 +2746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>43933</v>
       </c>
@@ -2788,7 +2791,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>43934</v>
       </c>
@@ -2833,7 +2836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>43935</v>
       </c>
@@ -2878,7 +2881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>43936</v>
       </c>
@@ -2923,7 +2926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>43937</v>
       </c>
@@ -2968,7 +2971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>43938</v>
       </c>
@@ -3013,7 +3016,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>43939</v>
       </c>
@@ -3058,7 +3061,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>43940</v>
       </c>
@@ -3103,7 +3106,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>43941</v>
       </c>
@@ -3148,7 +3151,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>43942</v>
       </c>
@@ -3193,7 +3196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>43943</v>
       </c>
@@ -3238,7 +3241,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>43944</v>
       </c>
@@ -3283,7 +3286,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>43945</v>
       </c>
@@ -3328,7 +3331,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>43946</v>
       </c>
@@ -3373,7 +3376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>43947</v>
       </c>
@@ -3418,7 +3421,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>43948</v>
       </c>
@@ -3463,7 +3466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>43949</v>
       </c>
@@ -3508,7 +3511,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>43950</v>
       </c>
@@ -3553,7 +3556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>43951</v>
       </c>
@@ -3598,7 +3601,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>43952</v>
       </c>
@@ -3643,7 +3646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>43953</v>
       </c>
@@ -3688,7 +3691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>43954</v>
       </c>
@@ -3733,7 +3736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>43955</v>
       </c>
@@ -3778,7 +3781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>43956</v>
       </c>
@@ -3823,7 +3826,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>43957</v>
       </c>
@@ -3868,7 +3871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>43958</v>
       </c>
@@ -3913,7 +3916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>43959</v>
       </c>
@@ -3958,7 +3961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>43960</v>
       </c>
@@ -4003,7 +4006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>43961</v>
       </c>
@@ -4048,7 +4051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>43962</v>
       </c>
@@ -4093,7 +4096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>43963</v>
       </c>
@@ -4138,7 +4141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>43964</v>
       </c>
@@ -4183,7 +4186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>43965</v>
       </c>
@@ -4228,7 +4231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>43966</v>
       </c>
@@ -4273,7 +4276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>43967</v>
       </c>
@@ -4318,7 +4321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>43968</v>
       </c>
@@ -4363,7 +4366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>43969</v>
       </c>
@@ -4408,7 +4411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>43970</v>
       </c>
@@ -4453,7 +4456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>43971</v>
       </c>
@@ -4498,7 +4501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>43972</v>
       </c>
@@ -4543,7 +4546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>43973</v>
       </c>
@@ -4588,7 +4591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>43974</v>
       </c>
@@ -4633,7 +4636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>43975</v>
       </c>
@@ -4678,7 +4681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>43976</v>
       </c>
@@ -4723,7 +4726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>43977</v>
       </c>
@@ -4768,7 +4771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>43978</v>
       </c>
@@ -4813,7 +4816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>43979</v>
       </c>
@@ -4858,7 +4861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>43980</v>
       </c>
@@ -4903,7 +4906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>43981</v>
       </c>
@@ -4948,7 +4951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>43982</v>
       </c>
@@ -4993,7 +4996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>43983</v>
       </c>
@@ -5038,7 +5041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>43984</v>
       </c>
@@ -5083,7 +5086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>43985</v>
       </c>
@@ -5128,7 +5131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>43986</v>
       </c>
@@ -5173,7 +5176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>43987</v>
       </c>
@@ -5218,7 +5221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>43988</v>
       </c>
@@ -5263,7 +5266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>43989</v>
       </c>
@@ -5308,7 +5311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>43990</v>
       </c>
@@ -5353,7 +5356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>43991</v>
       </c>
@@ -5398,7 +5401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>43992</v>
       </c>
@@ -5443,7 +5446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>43993</v>
       </c>
@@ -5488,7 +5491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>43994</v>
       </c>
@@ -5533,7 +5536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>43995</v>
       </c>
@@ -5578,7 +5581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>43996</v>
       </c>
@@ -5623,7 +5626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>43997</v>
       </c>
@@ -5668,7 +5671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>43998</v>
       </c>
@@ -5713,7 +5716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>43999</v>
       </c>
@@ -5758,7 +5761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>44000</v>
       </c>
@@ -5803,7 +5806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>44001</v>
       </c>
@@ -5848,7 +5851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>44002</v>
       </c>
@@ -5893,7 +5896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>44003</v>
       </c>
@@ -5938,7 +5941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>44004</v>
       </c>
@@ -5983,7 +5986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>44005</v>
       </c>
@@ -6028,7 +6031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>44006</v>
       </c>
@@ -6073,7 +6076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>44007</v>
       </c>
@@ -6118,7 +6121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>44008</v>
       </c>
@@ -6163,7 +6166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>44009</v>
       </c>
@@ -6208,7 +6211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>44010</v>
       </c>
@@ -6253,7 +6256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>44011</v>
       </c>
@@ -6298,7 +6301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>44012</v>
       </c>
@@ -6343,7 +6346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>44013</v>
       </c>
@@ -6388,7 +6391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>44014</v>
       </c>
@@ -6433,7 +6436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>44015</v>
       </c>
@@ -6478,7 +6481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>44016</v>
       </c>
@@ -6523,7 +6526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>44017</v>
       </c>
@@ -6568,7 +6571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>44018</v>
       </c>
@@ -6613,7 +6616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>44019</v>
       </c>
@@ -6658,7 +6661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>44020</v>
       </c>
@@ -6703,7 +6706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>44021</v>
       </c>
@@ -6748,7 +6751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>44022</v>
       </c>
@@ -6793,7 +6796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>44023</v>
       </c>
@@ -6838,7 +6841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>44024</v>
       </c>
@@ -6883,16 +6886,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>44025</v>
       </c>
       <c r="B139" s="19">
-        <f t="shared" ref="B139:B140" si="50">B138+C139</f>
-        <v>2092</v>
+        <f t="shared" ref="B139" si="50">B138+C139</f>
+        <v>2094</v>
       </c>
       <c r="C139" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D139" s="13">
         <v>0</v>
@@ -6907,18 +6910,18 @@
         <v>5</v>
       </c>
       <c r="H139" s="17">
-        <f t="shared" ref="H139:H140" si="51">G139+E139</f>
+        <f t="shared" ref="H139" si="51">G139+E139</f>
         <v>7</v>
       </c>
       <c r="I139" s="33">
         <v>1</v>
       </c>
       <c r="J139" s="16">
-        <f t="shared" ref="J139:J140" si="52">J138+K139</f>
+        <f t="shared" ref="J139" si="52">J138+K139</f>
         <v>153</v>
       </c>
       <c r="K139" s="16">
-        <f t="shared" ref="K139:K140" si="53">L139+M139</f>
+        <f t="shared" ref="K139" si="53">L139+M139</f>
         <v>0</v>
       </c>
       <c r="L139" s="26">
@@ -6928,49 +6931,94 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A140" s="2">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A140" s="1">
         <v>44026</v>
       </c>
-      <c r="B140" s="20">
-        <f t="shared" si="50"/>
-        <v>2092</v>
-      </c>
-      <c r="C140" s="14">
-        <v>0</v>
-      </c>
-      <c r="D140" s="14">
-        <v>0</v>
-      </c>
-      <c r="E140" s="30">
-        <v>2</v>
-      </c>
-      <c r="F140" s="31">
-        <v>0</v>
-      </c>
-      <c r="G140" s="25">
+      <c r="B140" s="19">
+        <f t="shared" ref="B140:B141" si="54">B139+C140</f>
+        <v>2097</v>
+      </c>
+      <c r="C140" s="13">
+        <v>3</v>
+      </c>
+      <c r="D140" s="13">
+        <v>0</v>
+      </c>
+      <c r="E140" s="4">
+        <v>2</v>
+      </c>
+      <c r="F140" s="3">
+        <v>0</v>
+      </c>
+      <c r="G140" s="24">
         <v>5</v>
       </c>
-      <c r="H140" s="18">
-        <f t="shared" si="51"/>
+      <c r="H140" s="17">
+        <f t="shared" ref="H140:H141" si="55">G140+E140</f>
         <v>7</v>
       </c>
-      <c r="I140" s="34">
-        <v>0</v>
-      </c>
-      <c r="J140" s="21">
-        <f t="shared" si="52"/>
+      <c r="I140" s="33">
+        <v>2</v>
+      </c>
+      <c r="J140" s="16">
+        <f t="shared" ref="J140:J141" si="56">J139+K140</f>
         <v>153</v>
       </c>
-      <c r="K140" s="21">
-        <f t="shared" si="53"/>
-        <v>0</v>
-      </c>
-      <c r="L140" s="28">
-        <v>0</v>
-      </c>
-      <c r="M140" s="29">
-        <v>0</v>
+      <c r="K140" s="16">
+        <f t="shared" ref="K140:K141" si="57">L140+M140</f>
+        <v>0</v>
+      </c>
+      <c r="L140" s="26">
+        <v>0</v>
+      </c>
+      <c r="M140" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A141" s="2">
+        <v>44027</v>
+      </c>
+      <c r="B141" s="20">
+        <f t="shared" si="54"/>
+        <v>2097</v>
+      </c>
+      <c r="C141" s="14">
+        <v>0</v>
+      </c>
+      <c r="D141" s="14">
+        <v>0</v>
+      </c>
+      <c r="E141" s="30">
+        <v>2</v>
+      </c>
+      <c r="F141" s="31">
+        <v>0</v>
+      </c>
+      <c r="G141" s="25">
+        <v>5</v>
+      </c>
+      <c r="H141" s="18">
+        <f t="shared" si="55"/>
+        <v>7</v>
+      </c>
+      <c r="I141" s="34">
+        <v>0</v>
+      </c>
+      <c r="J141" s="21">
+        <f t="shared" si="56"/>
+        <v>153</v>
+      </c>
+      <c r="K141" s="21">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="L141" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="M141" s="29" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Chiffres  COVID-19 Valais.xlsx
+++ b/Chiffres  COVID-19 Valais.xlsx
@@ -99,10 +99,10 @@
     <t>Nb de nouvelles sorties</t>
   </si>
   <si>
-    <t>Données COVID-19 Valais 15.07.2020</t>
+    <t>0</t>
   </si>
   <si>
-    <t>0</t>
+    <t>Données COVID-19 Valais 16.07.2020</t>
   </si>
 </sst>
 </file>
@@ -690,25 +690,25 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O141"/>
+  <dimension ref="A1:O142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="A141" sqref="A141"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="11.453125" style="15"/>
-    <col min="4" max="4" width="10.81640625" style="15"/>
-    <col min="8" max="9" width="16.1796875" customWidth="1"/>
-    <col min="11" max="11" width="14.54296875" customWidth="1"/>
-    <col min="12" max="12" width="13.54296875" customWidth="1"/>
-    <col min="13" max="13" width="15.7265625" style="6" customWidth="1"/>
+    <col min="2" max="3" width="11.42578125" style="15"/>
+    <col min="4" max="4" width="10.85546875" style="15"/>
+    <col min="8" max="9" width="16.140625" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B1" s="36"/>
       <c r="C1" s="36"/>
@@ -723,7 +723,7 @@
       <c r="L1" s="36"/>
       <c r="M1" s="37"/>
     </row>
-    <row r="2" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -766,7 +766,7 @@
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43889</v>
       </c>
@@ -811,7 +811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43890</v>
       </c>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43891</v>
       </c>
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43892</v>
       </c>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43893</v>
       </c>
@@ -991,7 +991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43894</v>
       </c>
@@ -1036,7 +1036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43895</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43896</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43897</v>
       </c>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43898</v>
       </c>
@@ -1216,7 +1216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43899</v>
       </c>
@@ -1261,7 +1261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43900</v>
       </c>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43901</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43902</v>
       </c>
@@ -1396,7 +1396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43903</v>
       </c>
@@ -1441,7 +1441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43904</v>
       </c>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43905</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43906</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43907</v>
       </c>
@@ -1621,7 +1621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43908</v>
       </c>
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43909</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43910</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43911</v>
       </c>
@@ -1801,7 +1801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43912</v>
       </c>
@@ -1846,7 +1846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43913</v>
       </c>
@@ -1891,7 +1891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43914</v>
       </c>
@@ -1936,7 +1936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43915</v>
       </c>
@@ -1981,7 +1981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43916</v>
       </c>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43917</v>
       </c>
@@ -2071,7 +2071,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43918</v>
       </c>
@@ -2116,7 +2116,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43919</v>
       </c>
@@ -2161,7 +2161,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>43920</v>
       </c>
@@ -2206,7 +2206,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>43921</v>
       </c>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>43922</v>
       </c>
@@ -2296,7 +2296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>43923</v>
       </c>
@@ -2341,7 +2341,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>43924</v>
       </c>
@@ -2386,7 +2386,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>43925</v>
       </c>
@@ -2431,7 +2431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>43926</v>
       </c>
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>43927</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>43928</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43929</v>
       </c>
@@ -2611,7 +2611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43930</v>
       </c>
@@ -2656,7 +2656,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43931</v>
       </c>
@@ -2701,7 +2701,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43932</v>
       </c>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>43933</v>
       </c>
@@ -2791,7 +2791,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>43934</v>
       </c>
@@ -2836,7 +2836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>43935</v>
       </c>
@@ -2881,7 +2881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>43936</v>
       </c>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>43937</v>
       </c>
@@ -2971,7 +2971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>43938</v>
       </c>
@@ -3016,7 +3016,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>43939</v>
       </c>
@@ -3061,7 +3061,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>43940</v>
       </c>
@@ -3106,7 +3106,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>43941</v>
       </c>
@@ -3151,7 +3151,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>43942</v>
       </c>
@@ -3196,7 +3196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>43943</v>
       </c>
@@ -3241,7 +3241,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>43944</v>
       </c>
@@ -3286,7 +3286,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>43945</v>
       </c>
@@ -3331,7 +3331,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>43946</v>
       </c>
@@ -3376,7 +3376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>43947</v>
       </c>
@@ -3421,7 +3421,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>43948</v>
       </c>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>43949</v>
       </c>
@@ -3511,7 +3511,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>43950</v>
       </c>
@@ -3556,7 +3556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>43951</v>
       </c>
@@ -3601,7 +3601,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>43952</v>
       </c>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>43953</v>
       </c>
@@ -3691,7 +3691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>43954</v>
       </c>
@@ -3736,7 +3736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>43955</v>
       </c>
@@ -3781,7 +3781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>43956</v>
       </c>
@@ -3826,7 +3826,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>43957</v>
       </c>
@@ -3871,7 +3871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>43958</v>
       </c>
@@ -3916,7 +3916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>43959</v>
       </c>
@@ -3961,7 +3961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>43960</v>
       </c>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>43961</v>
       </c>
@@ -4051,7 +4051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>43962</v>
       </c>
@@ -4096,7 +4096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>43963</v>
       </c>
@@ -4141,7 +4141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>43964</v>
       </c>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>43965</v>
       </c>
@@ -4231,7 +4231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>43966</v>
       </c>
@@ -4276,7 +4276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>43967</v>
       </c>
@@ -4321,7 +4321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>43968</v>
       </c>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>43969</v>
       </c>
@@ -4411,7 +4411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>43970</v>
       </c>
@@ -4456,7 +4456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>43971</v>
       </c>
@@ -4501,7 +4501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>43972</v>
       </c>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>43973</v>
       </c>
@@ -4591,7 +4591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>43974</v>
       </c>
@@ -4636,7 +4636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>43975</v>
       </c>
@@ -4681,7 +4681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>43976</v>
       </c>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>43977</v>
       </c>
@@ -4771,7 +4771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>43978</v>
       </c>
@@ -4816,7 +4816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>43979</v>
       </c>
@@ -4861,7 +4861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>43980</v>
       </c>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>43981</v>
       </c>
@@ -4951,7 +4951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>43982</v>
       </c>
@@ -4996,7 +4996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>43983</v>
       </c>
@@ -5041,7 +5041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>43984</v>
       </c>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>43985</v>
       </c>
@@ -5131,7 +5131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>43986</v>
       </c>
@@ -5176,7 +5176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>43987</v>
       </c>
@@ -5221,7 +5221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>43988</v>
       </c>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>43989</v>
       </c>
@@ -5311,7 +5311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>43990</v>
       </c>
@@ -5356,7 +5356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>43991</v>
       </c>
@@ -5401,7 +5401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>43992</v>
       </c>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>43993</v>
       </c>
@@ -5491,7 +5491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>43994</v>
       </c>
@@ -5536,7 +5536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>43995</v>
       </c>
@@ -5581,7 +5581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>43996</v>
       </c>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>43997</v>
       </c>
@@ -5671,7 +5671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>43998</v>
       </c>
@@ -5716,7 +5716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>43999</v>
       </c>
@@ -5761,7 +5761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>44000</v>
       </c>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>44001</v>
       </c>
@@ -5851,7 +5851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>44002</v>
       </c>
@@ -5896,7 +5896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>44003</v>
       </c>
@@ -5941,7 +5941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>44004</v>
       </c>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>44005</v>
       </c>
@@ -6031,7 +6031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>44006</v>
       </c>
@@ -6076,7 +6076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>44007</v>
       </c>
@@ -6121,7 +6121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>44008</v>
       </c>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>44009</v>
       </c>
@@ -6211,7 +6211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>44010</v>
       </c>
@@ -6256,7 +6256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>44011</v>
       </c>
@@ -6301,7 +6301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>44012</v>
       </c>
@@ -6346,7 +6346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>44013</v>
       </c>
@@ -6391,7 +6391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>44014</v>
       </c>
@@ -6436,7 +6436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>44015</v>
       </c>
@@ -6481,7 +6481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>44016</v>
       </c>
@@ -6526,7 +6526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>44017</v>
       </c>
@@ -6571,7 +6571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>44018</v>
       </c>
@@ -6616,7 +6616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>44019</v>
       </c>
@@ -6661,7 +6661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>44020</v>
       </c>
@@ -6706,7 +6706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>44021</v>
       </c>
@@ -6751,7 +6751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>44022</v>
       </c>
@@ -6796,7 +6796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>44023</v>
       </c>
@@ -6841,7 +6841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>44024</v>
       </c>
@@ -6886,7 +6886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>44025</v>
       </c>
@@ -6901,7 +6901,7 @@
         <v>0</v>
       </c>
       <c r="E139" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F139" s="3">
         <v>0</v>
@@ -6911,7 +6911,7 @@
       </c>
       <c r="H139" s="17">
         <f t="shared" ref="H139" si="51">G139+E139</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I139" s="33">
         <v>1</v>
@@ -6931,22 +6931,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>44026</v>
       </c>
       <c r="B140" s="19">
-        <f t="shared" ref="B140:B141" si="54">B139+C140</f>
-        <v>2097</v>
+        <f t="shared" ref="B140" si="54">B139+C140</f>
+        <v>2098</v>
       </c>
       <c r="C140" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D140" s="13">
         <v>0</v>
       </c>
       <c r="E140" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F140" s="3">
         <v>0</v>
@@ -6955,70 +6955,115 @@
         <v>5</v>
       </c>
       <c r="H140" s="17">
-        <f t="shared" ref="H140:H141" si="55">G140+E140</f>
+        <f t="shared" ref="H140" si="55">G140+E140</f>
+        <v>6</v>
+      </c>
+      <c r="I140" s="33">
+        <v>2</v>
+      </c>
+      <c r="J140" s="16">
+        <f t="shared" ref="J140" si="56">J139+K140</f>
+        <v>153</v>
+      </c>
+      <c r="K140" s="16">
+        <f t="shared" ref="K140" si="57">L140+M140</f>
+        <v>0</v>
+      </c>
+      <c r="L140" s="26">
+        <v>0</v>
+      </c>
+      <c r="M140" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>44027</v>
+      </c>
+      <c r="B141" s="19">
+        <f t="shared" ref="B141:B142" si="58">B140+C141</f>
+        <v>2100</v>
+      </c>
+      <c r="C141" s="13">
+        <v>2</v>
+      </c>
+      <c r="D141" s="13">
+        <v>0</v>
+      </c>
+      <c r="E141" s="4">
+        <v>1</v>
+      </c>
+      <c r="F141" s="3">
+        <v>0</v>
+      </c>
+      <c r="G141" s="24">
+        <v>5</v>
+      </c>
+      <c r="H141" s="17">
+        <f t="shared" ref="H141:H142" si="59">G141+E141</f>
+        <v>6</v>
+      </c>
+      <c r="I141" s="33">
+        <v>3</v>
+      </c>
+      <c r="J141" s="16">
+        <f t="shared" ref="J141:J142" si="60">J140+K141</f>
+        <v>153</v>
+      </c>
+      <c r="K141" s="16">
+        <f t="shared" ref="K141:K142" si="61">L141+M141</f>
+        <v>0</v>
+      </c>
+      <c r="L141" s="26">
+        <v>0</v>
+      </c>
+      <c r="M141" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A142" s="2">
+        <v>44028</v>
+      </c>
+      <c r="B142" s="20">
+        <f t="shared" si="58"/>
+        <v>2100</v>
+      </c>
+      <c r="C142" s="14">
+        <v>0</v>
+      </c>
+      <c r="D142" s="14">
+        <v>0</v>
+      </c>
+      <c r="E142" s="30">
+        <v>1</v>
+      </c>
+      <c r="F142" s="31">
+        <v>0</v>
+      </c>
+      <c r="G142" s="25">
+        <v>6</v>
+      </c>
+      <c r="H142" s="18">
+        <f t="shared" si="59"/>
         <v>7</v>
       </c>
-      <c r="I140" s="33">
-        <v>2</v>
-      </c>
-      <c r="J140" s="16">
-        <f t="shared" ref="J140:J141" si="56">J139+K140</f>
+      <c r="I142" s="34">
+        <v>0</v>
+      </c>
+      <c r="J142" s="21">
+        <f t="shared" si="60"/>
         <v>153</v>
       </c>
-      <c r="K140" s="16">
-        <f t="shared" ref="K140:K141" si="57">L140+M140</f>
-        <v>0</v>
-      </c>
-      <c r="L140" s="26">
-        <v>0</v>
-      </c>
-      <c r="M140" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A141" s="2">
-        <v>44027</v>
-      </c>
-      <c r="B141" s="20">
-        <f t="shared" si="54"/>
-        <v>2097</v>
-      </c>
-      <c r="C141" s="14">
-        <v>0</v>
-      </c>
-      <c r="D141" s="14">
-        <v>0</v>
-      </c>
-      <c r="E141" s="30">
-        <v>2</v>
-      </c>
-      <c r="F141" s="31">
-        <v>0</v>
-      </c>
-      <c r="G141" s="25">
-        <v>5</v>
-      </c>
-      <c r="H141" s="18">
-        <f t="shared" si="55"/>
-        <v>7</v>
-      </c>
-      <c r="I141" s="34">
-        <v>0</v>
-      </c>
-      <c r="J141" s="21">
-        <f t="shared" si="56"/>
-        <v>153</v>
-      </c>
-      <c r="K141" s="21">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="L141" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="M141" s="29" t="s">
-        <v>14</v>
+      <c r="K142" s="21">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="L142" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="M142" s="29" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Chiffres  COVID-19 Valais.xlsx
+++ b/Chiffres  COVID-19 Valais.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -99,10 +99,7 @@
     <t>Nb de nouvelles sorties</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>Données COVID-19 Valais 16.07.2020</t>
+    <t>Données COVID-19 Valais 17.07.2020</t>
   </si>
 </sst>
 </file>
@@ -690,25 +687,25 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O142"/>
+  <dimension ref="A1:O143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:M1"/>
+    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="A143" sqref="A143"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="3" width="11.42578125" style="15"/>
-    <col min="4" max="4" width="10.85546875" style="15"/>
-    <col min="8" max="9" width="16.140625" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" style="6" customWidth="1"/>
+    <col min="2" max="3" width="11.453125" style="15"/>
+    <col min="4" max="4" width="10.81640625" style="15"/>
+    <col min="8" max="9" width="16.1796875" customWidth="1"/>
+    <col min="11" max="11" width="14.54296875" customWidth="1"/>
+    <col min="12" max="12" width="13.54296875" customWidth="1"/>
+    <col min="13" max="13" width="15.7265625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="36"/>
       <c r="C1" s="36"/>
@@ -723,7 +720,7 @@
       <c r="L1" s="36"/>
       <c r="M1" s="37"/>
     </row>
-    <row r="2" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -766,7 +763,7 @@
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>43889</v>
       </c>
@@ -811,7 +808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>43890</v>
       </c>
@@ -856,7 +853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>43891</v>
       </c>
@@ -901,7 +898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>43892</v>
       </c>
@@ -946,7 +943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>43893</v>
       </c>
@@ -991,7 +988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>43894</v>
       </c>
@@ -1036,7 +1033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>43895</v>
       </c>
@@ -1081,7 +1078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>43896</v>
       </c>
@@ -1126,7 +1123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>43897</v>
       </c>
@@ -1171,7 +1168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>43898</v>
       </c>
@@ -1216,7 +1213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>43899</v>
       </c>
@@ -1261,7 +1258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>43900</v>
       </c>
@@ -1306,7 +1303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>43901</v>
       </c>
@@ -1351,7 +1348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>43902</v>
       </c>
@@ -1396,7 +1393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>43903</v>
       </c>
@@ -1441,7 +1438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>43904</v>
       </c>
@@ -1486,7 +1483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>43905</v>
       </c>
@@ -1531,7 +1528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>43906</v>
       </c>
@@ -1576,7 +1573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>43907</v>
       </c>
@@ -1621,7 +1618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>43908</v>
       </c>
@@ -1666,7 +1663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>43909</v>
       </c>
@@ -1711,7 +1708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>43910</v>
       </c>
@@ -1756,7 +1753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>43911</v>
       </c>
@@ -1801,7 +1798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>43912</v>
       </c>
@@ -1846,7 +1843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>43913</v>
       </c>
@@ -1891,7 +1888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>43914</v>
       </c>
@@ -1936,7 +1933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>43915</v>
       </c>
@@ -1981,7 +1978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>43916</v>
       </c>
@@ -2026,7 +2023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>43917</v>
       </c>
@@ -2071,7 +2068,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>43918</v>
       </c>
@@ -2116,7 +2113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>43919</v>
       </c>
@@ -2161,7 +2158,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>43920</v>
       </c>
@@ -2206,7 +2203,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>43921</v>
       </c>
@@ -2251,7 +2248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>43922</v>
       </c>
@@ -2296,7 +2293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>43923</v>
       </c>
@@ -2341,7 +2338,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>43924</v>
       </c>
@@ -2386,7 +2383,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>43925</v>
       </c>
@@ -2431,7 +2428,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>43926</v>
       </c>
@@ -2476,7 +2473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>43927</v>
       </c>
@@ -2521,7 +2518,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>43928</v>
       </c>
@@ -2566,7 +2563,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>43929</v>
       </c>
@@ -2611,7 +2608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>43930</v>
       </c>
@@ -2656,7 +2653,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>43931</v>
       </c>
@@ -2701,7 +2698,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>43932</v>
       </c>
@@ -2746,7 +2743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>43933</v>
       </c>
@@ -2791,7 +2788,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>43934</v>
       </c>
@@ -2836,7 +2833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>43935</v>
       </c>
@@ -2881,7 +2878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>43936</v>
       </c>
@@ -2926,7 +2923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>43937</v>
       </c>
@@ -2971,7 +2968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>43938</v>
       </c>
@@ -3016,7 +3013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>43939</v>
       </c>
@@ -3061,7 +3058,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>43940</v>
       </c>
@@ -3106,7 +3103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>43941</v>
       </c>
@@ -3151,7 +3148,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>43942</v>
       </c>
@@ -3196,7 +3193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>43943</v>
       </c>
@@ -3241,7 +3238,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>43944</v>
       </c>
@@ -3286,7 +3283,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>43945</v>
       </c>
@@ -3331,7 +3328,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>43946</v>
       </c>
@@ -3376,7 +3373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>43947</v>
       </c>
@@ -3421,7 +3418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>43948</v>
       </c>
@@ -3466,7 +3463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>43949</v>
       </c>
@@ -3511,7 +3508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>43950</v>
       </c>
@@ -3556,7 +3553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>43951</v>
       </c>
@@ -3601,7 +3598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>43952</v>
       </c>
@@ -3646,7 +3643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>43953</v>
       </c>
@@ -3691,7 +3688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>43954</v>
       </c>
@@ -3736,7 +3733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>43955</v>
       </c>
@@ -3781,7 +3778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>43956</v>
       </c>
@@ -3826,7 +3823,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>43957</v>
       </c>
@@ -3871,7 +3868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>43958</v>
       </c>
@@ -3916,7 +3913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>43959</v>
       </c>
@@ -3961,7 +3958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>43960</v>
       </c>
@@ -4006,7 +4003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>43961</v>
       </c>
@@ -4051,7 +4048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>43962</v>
       </c>
@@ -4096,7 +4093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>43963</v>
       </c>
@@ -4141,7 +4138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>43964</v>
       </c>
@@ -4186,7 +4183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>43965</v>
       </c>
@@ -4231,7 +4228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>43966</v>
       </c>
@@ -4276,7 +4273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>43967</v>
       </c>
@@ -4321,7 +4318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>43968</v>
       </c>
@@ -4366,7 +4363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>43969</v>
       </c>
@@ -4411,7 +4408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>43970</v>
       </c>
@@ -4456,7 +4453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>43971</v>
       </c>
@@ -4501,7 +4498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>43972</v>
       </c>
@@ -4546,7 +4543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>43973</v>
       </c>
@@ -4591,7 +4588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>43974</v>
       </c>
@@ -4636,7 +4633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>43975</v>
       </c>
@@ -4681,7 +4678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>43976</v>
       </c>
@@ -4726,7 +4723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>43977</v>
       </c>
@@ -4771,7 +4768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>43978</v>
       </c>
@@ -4816,7 +4813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>43979</v>
       </c>
@@ -4861,7 +4858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>43980</v>
       </c>
@@ -4906,7 +4903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>43981</v>
       </c>
@@ -4951,7 +4948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>43982</v>
       </c>
@@ -4996,7 +4993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>43983</v>
       </c>
@@ -5041,7 +5038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>43984</v>
       </c>
@@ -5086,7 +5083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>43985</v>
       </c>
@@ -5131,7 +5128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>43986</v>
       </c>
@@ -5176,7 +5173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>43987</v>
       </c>
@@ -5221,7 +5218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>43988</v>
       </c>
@@ -5266,7 +5263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>43989</v>
       </c>
@@ -5311,7 +5308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>43990</v>
       </c>
@@ -5356,7 +5353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>43991</v>
       </c>
@@ -5401,7 +5398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>43992</v>
       </c>
@@ -5446,7 +5443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>43993</v>
       </c>
@@ -5491,7 +5488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>43994</v>
       </c>
@@ -5536,7 +5533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>43995</v>
       </c>
@@ -5581,7 +5578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>43996</v>
       </c>
@@ -5626,7 +5623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>43997</v>
       </c>
@@ -5671,7 +5668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>43998</v>
       </c>
@@ -5716,7 +5713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>43999</v>
       </c>
@@ -5761,7 +5758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>44000</v>
       </c>
@@ -5806,7 +5803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>44001</v>
       </c>
@@ -5851,7 +5848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>44002</v>
       </c>
@@ -5896,7 +5893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>44003</v>
       </c>
@@ -5941,7 +5938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>44004</v>
       </c>
@@ -5986,7 +5983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>44005</v>
       </c>
@@ -6031,7 +6028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>44006</v>
       </c>
@@ -6076,7 +6073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>44007</v>
       </c>
@@ -6121,7 +6118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>44008</v>
       </c>
@@ -6166,7 +6163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>44009</v>
       </c>
@@ -6211,7 +6208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>44010</v>
       </c>
@@ -6256,7 +6253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>44011</v>
       </c>
@@ -6301,7 +6298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>44012</v>
       </c>
@@ -6346,7 +6343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>44013</v>
       </c>
@@ -6391,7 +6388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>44014</v>
       </c>
@@ -6436,7 +6433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>44015</v>
       </c>
@@ -6481,7 +6478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>44016</v>
       </c>
@@ -6526,7 +6523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>44017</v>
       </c>
@@ -6571,7 +6568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>44018</v>
       </c>
@@ -6616,7 +6613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>44019</v>
       </c>
@@ -6661,7 +6658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>44020</v>
       </c>
@@ -6706,12 +6703,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>44021</v>
       </c>
       <c r="B135" s="19">
-        <f t="shared" ref="B135:B138" si="46">B134+C135</f>
+        <f t="shared" ref="B135:B137" si="46">B134+C135</f>
         <v>2080</v>
       </c>
       <c r="C135" s="13">
@@ -6730,18 +6727,18 @@
         <v>8</v>
       </c>
       <c r="H135" s="17">
-        <f t="shared" ref="H135:H138" si="47">G135+E135</f>
+        <f t="shared" ref="H135:H137" si="47">G135+E135</f>
         <v>9</v>
       </c>
       <c r="I135" s="33">
         <v>0</v>
       </c>
       <c r="J135" s="16">
-        <f t="shared" ref="J135:J138" si="48">J134+K135</f>
+        <f t="shared" ref="J135:J137" si="48">J134+K135</f>
         <v>153</v>
       </c>
       <c r="K135" s="16">
-        <f t="shared" ref="K135:K138" si="49">L135+M135</f>
+        <f t="shared" ref="K135:K137" si="49">L135+M135</f>
         <v>0</v>
       </c>
       <c r="L135" s="26">
@@ -6751,7 +6748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>44022</v>
       </c>
@@ -6796,7 +6793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>44023</v>
       </c>
@@ -6841,12 +6838,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>44024</v>
       </c>
       <c r="B138" s="19">
-        <f t="shared" si="46"/>
+        <f t="shared" ref="B138:B143" si="50">B137+C138</f>
         <v>2091</v>
       </c>
       <c r="C138" s="13">
@@ -6865,18 +6862,18 @@
         <v>6</v>
       </c>
       <c r="H138" s="17">
-        <f t="shared" si="47"/>
+        <f t="shared" ref="H138:H143" si="51">G138+E138</f>
         <v>8</v>
       </c>
       <c r="I138" s="33">
         <v>0</v>
       </c>
       <c r="J138" s="16">
-        <f t="shared" si="48"/>
+        <f t="shared" ref="J138:J143" si="52">J137+K138</f>
         <v>153</v>
       </c>
       <c r="K138" s="16">
-        <f t="shared" si="49"/>
+        <f t="shared" ref="K138:K143" si="53">L138+M138</f>
         <v>0</v>
       </c>
       <c r="L138" s="26">
@@ -6886,12 +6883,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>44025</v>
       </c>
       <c r="B139" s="19">
-        <f t="shared" ref="B139" si="50">B138+C139</f>
+        <f t="shared" si="50"/>
         <v>2094</v>
       </c>
       <c r="C139" s="13">
@@ -6901,7 +6898,7 @@
         <v>0</v>
       </c>
       <c r="E139" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F139" s="3">
         <v>0</v>
@@ -6910,18 +6907,18 @@
         <v>5</v>
       </c>
       <c r="H139" s="17">
-        <f t="shared" ref="H139" si="51">G139+E139</f>
-        <v>6</v>
+        <f t="shared" si="51"/>
+        <v>7</v>
       </c>
       <c r="I139" s="33">
         <v>1</v>
       </c>
       <c r="J139" s="16">
-        <f t="shared" ref="J139" si="52">J138+K139</f>
+        <f t="shared" si="52"/>
         <v>153</v>
       </c>
       <c r="K139" s="16">
-        <f t="shared" ref="K139" si="53">L139+M139</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="L139" s="26">
@@ -6931,12 +6928,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>44026</v>
       </c>
       <c r="B140" s="19">
-        <f t="shared" ref="B140" si="54">B139+C140</f>
+        <f t="shared" si="50"/>
         <v>2098</v>
       </c>
       <c r="C140" s="13">
@@ -6952,21 +6949,21 @@
         <v>0</v>
       </c>
       <c r="G140" s="24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H140" s="17">
-        <f t="shared" ref="H140" si="55">G140+E140</f>
-        <v>6</v>
+        <f t="shared" si="51"/>
+        <v>7</v>
       </c>
       <c r="I140" s="33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J140" s="16">
-        <f t="shared" ref="J140" si="56">J139+K140</f>
+        <f t="shared" si="52"/>
         <v>153</v>
       </c>
       <c r="K140" s="16">
-        <f t="shared" ref="K140" si="57">L140+M140</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="L140" s="26">
@@ -6976,12 +6973,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>44027</v>
       </c>
       <c r="B141" s="19">
-        <f t="shared" ref="B141:B142" si="58">B140+C141</f>
+        <f t="shared" si="50"/>
         <v>2100</v>
       </c>
       <c r="C141" s="13">
@@ -6997,73 +6994,118 @@
         <v>0</v>
       </c>
       <c r="G141" s="24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H141" s="17">
-        <f t="shared" ref="H141:H142" si="59">G141+E141</f>
+        <f t="shared" si="51"/>
+        <v>7</v>
+      </c>
+      <c r="I141" s="33">
+        <v>0</v>
+      </c>
+      <c r="J141" s="16">
+        <f t="shared" si="52"/>
+        <v>153</v>
+      </c>
+      <c r="K141" s="16">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="L141" s="26">
+        <v>0</v>
+      </c>
+      <c r="M141" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A142" s="1">
+        <v>44028</v>
+      </c>
+      <c r="B142" s="19">
+        <f t="shared" si="50"/>
+        <v>2101</v>
+      </c>
+      <c r="C142" s="13">
+        <v>1</v>
+      </c>
+      <c r="D142" s="13">
+        <v>0</v>
+      </c>
+      <c r="E142" s="4">
+        <v>1</v>
+      </c>
+      <c r="F142" s="3">
+        <v>0</v>
+      </c>
+      <c r="G142" s="24">
         <v>6</v>
       </c>
-      <c r="I141" s="33">
-        <v>3</v>
-      </c>
-      <c r="J141" s="16">
-        <f t="shared" ref="J141:J142" si="60">J140+K141</f>
+      <c r="H142" s="17">
+        <f t="shared" si="51"/>
+        <v>7</v>
+      </c>
+      <c r="I142" s="33">
+        <v>0</v>
+      </c>
+      <c r="J142" s="16">
+        <f t="shared" si="52"/>
         <v>153</v>
       </c>
-      <c r="K141" s="16">
-        <f t="shared" ref="K141:K142" si="61">L141+M141</f>
-        <v>0</v>
-      </c>
-      <c r="L141" s="26">
-        <v>0</v>
-      </c>
-      <c r="M141" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A142" s="2">
-        <v>44028</v>
-      </c>
-      <c r="B142" s="20">
-        <f t="shared" si="58"/>
-        <v>2100</v>
-      </c>
-      <c r="C142" s="14">
-        <v>0</v>
-      </c>
-      <c r="D142" s="14">
-        <v>0</v>
-      </c>
-      <c r="E142" s="30">
-        <v>1</v>
-      </c>
-      <c r="F142" s="31">
-        <v>0</v>
-      </c>
-      <c r="G142" s="25">
+      <c r="K142" s="16">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="L142" s="26">
+        <v>0</v>
+      </c>
+      <c r="M142" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A143" s="2">
+        <v>44029</v>
+      </c>
+      <c r="B143" s="20">
+        <f t="shared" si="50"/>
+        <v>2101</v>
+      </c>
+      <c r="C143" s="14">
+        <v>0</v>
+      </c>
+      <c r="D143" s="14">
+        <v>0</v>
+      </c>
+      <c r="E143" s="30">
+        <v>1</v>
+      </c>
+      <c r="F143" s="31">
+        <v>0</v>
+      </c>
+      <c r="G143" s="25">
         <v>6</v>
       </c>
-      <c r="H142" s="18">
-        <f t="shared" si="59"/>
+      <c r="H143" s="18">
+        <f t="shared" si="51"/>
         <v>7</v>
       </c>
-      <c r="I142" s="34">
-        <v>0</v>
-      </c>
-      <c r="J142" s="21">
-        <f t="shared" si="60"/>
+      <c r="I143" s="34">
+        <v>0</v>
+      </c>
+      <c r="J143" s="21">
+        <f t="shared" si="52"/>
         <v>153</v>
       </c>
-      <c r="K142" s="21">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="L142" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="M142" s="29" t="s">
-        <v>13</v>
+      <c r="K143" s="21">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="L143" s="28">
+        <v>0</v>
+      </c>
+      <c r="M143" s="29">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Chiffres  COVID-19 Valais.xlsx
+++ b/Chiffres  COVID-19 Valais.xlsx
@@ -99,7 +99,7 @@
     <t>Nb de nouvelles sorties</t>
   </si>
   <si>
-    <t>Données COVID-19 Valais 17.07.2020</t>
+    <t>Données COVID-19 Valais 20.07.2020</t>
   </si>
 </sst>
 </file>
@@ -687,10 +687,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O143"/>
+  <dimension ref="A1:O146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="A143" sqref="A143"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="A148" sqref="A148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6574,10 +6574,10 @@
       </c>
       <c r="B132" s="19">
         <f t="shared" si="34"/>
-        <v>2075</v>
+        <v>2076</v>
       </c>
       <c r="C132" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D132" s="13">
         <v>1</v>
@@ -6619,7 +6619,7 @@
       </c>
       <c r="B133" s="19">
         <f t="shared" ref="B133" si="38">B132+C133</f>
-        <v>2078</v>
+        <v>2079</v>
       </c>
       <c r="C133" s="13">
         <v>3</v>
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B134" s="19">
         <f t="shared" ref="B134" si="42">B133+C134</f>
-        <v>2078</v>
+        <v>2079</v>
       </c>
       <c r="C134" s="13">
         <v>0</v>
@@ -6708,8 +6708,8 @@
         <v>44021</v>
       </c>
       <c r="B135" s="19">
-        <f t="shared" ref="B135:B137" si="46">B134+C135</f>
-        <v>2080</v>
+        <f t="shared" ref="B135:B138" si="46">B134+C135</f>
+        <v>2081</v>
       </c>
       <c r="C135" s="13">
         <v>2</v>
@@ -6727,18 +6727,18 @@
         <v>8</v>
       </c>
       <c r="H135" s="17">
-        <f t="shared" ref="H135:H137" si="47">G135+E135</f>
+        <f t="shared" ref="H135:H138" si="47">G135+E135</f>
         <v>9</v>
       </c>
       <c r="I135" s="33">
         <v>0</v>
       </c>
       <c r="J135" s="16">
-        <f t="shared" ref="J135:J137" si="48">J134+K135</f>
+        <f t="shared" ref="J135:J138" si="48">J134+K135</f>
         <v>153</v>
       </c>
       <c r="K135" s="16">
-        <f t="shared" ref="K135:K137" si="49">L135+M135</f>
+        <f t="shared" ref="K135:K138" si="49">L135+M135</f>
         <v>0</v>
       </c>
       <c r="L135" s="26">
@@ -6754,7 +6754,7 @@
       </c>
       <c r="B136" s="19">
         <f t="shared" si="46"/>
-        <v>2083</v>
+        <v>2084</v>
       </c>
       <c r="C136" s="13">
         <v>3</v>
@@ -6799,7 +6799,7 @@
       </c>
       <c r="B137" s="19">
         <f t="shared" si="46"/>
-        <v>2088</v>
+        <v>2089</v>
       </c>
       <c r="C137" s="13">
         <v>5</v>
@@ -6843,8 +6843,8 @@
         <v>44024</v>
       </c>
       <c r="B138" s="19">
-        <f t="shared" ref="B138:B143" si="50">B137+C138</f>
-        <v>2091</v>
+        <f t="shared" si="46"/>
+        <v>2092</v>
       </c>
       <c r="C138" s="13">
         <v>3</v>
@@ -6862,18 +6862,18 @@
         <v>6</v>
       </c>
       <c r="H138" s="17">
-        <f t="shared" ref="H138:H143" si="51">G138+E138</f>
+        <f t="shared" si="47"/>
         <v>8</v>
       </c>
       <c r="I138" s="33">
         <v>0</v>
       </c>
       <c r="J138" s="16">
-        <f t="shared" ref="J138:J143" si="52">J137+K138</f>
+        <f t="shared" si="48"/>
         <v>153</v>
       </c>
       <c r="K138" s="16">
-        <f t="shared" ref="K138:K143" si="53">L138+M138</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="L138" s="26">
@@ -6888,8 +6888,8 @@
         <v>44025</v>
       </c>
       <c r="B139" s="19">
-        <f t="shared" si="50"/>
-        <v>2094</v>
+        <f t="shared" ref="B139" si="50">B138+C139</f>
+        <v>2095</v>
       </c>
       <c r="C139" s="13">
         <v>3</v>
@@ -6907,18 +6907,18 @@
         <v>5</v>
       </c>
       <c r="H139" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" ref="H139" si="51">G139+E139</f>
         <v>7</v>
       </c>
       <c r="I139" s="33">
         <v>1</v>
       </c>
       <c r="J139" s="16">
-        <f t="shared" si="52"/>
+        <f t="shared" ref="J139" si="52">J138+K139</f>
         <v>153</v>
       </c>
       <c r="K139" s="16">
-        <f t="shared" si="53"/>
+        <f t="shared" ref="K139" si="53">L139+M139</f>
         <v>0</v>
       </c>
       <c r="L139" s="26">
@@ -6933,11 +6933,11 @@
         <v>44026</v>
       </c>
       <c r="B140" s="19">
-        <f t="shared" si="50"/>
-        <v>2098</v>
+        <f t="shared" ref="B140:B146" si="54">B139+C140</f>
+        <v>2100</v>
       </c>
       <c r="C140" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D140" s="13">
         <v>0</v>
@@ -6952,18 +6952,18 @@
         <v>6</v>
       </c>
       <c r="H140" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" ref="H140:H146" si="55">G140+E140</f>
         <v>7</v>
       </c>
       <c r="I140" s="33">
         <v>0</v>
       </c>
       <c r="J140" s="16">
-        <f t="shared" si="52"/>
+        <f t="shared" ref="J140:J146" si="56">J139+K140</f>
         <v>153</v>
       </c>
       <c r="K140" s="16">
-        <f t="shared" si="53"/>
+        <f t="shared" ref="K140:K146" si="57">L140+M140</f>
         <v>0</v>
       </c>
       <c r="L140" s="26">
@@ -6978,8 +6978,8 @@
         <v>44027</v>
       </c>
       <c r="B141" s="19">
-        <f t="shared" si="50"/>
-        <v>2100</v>
+        <f t="shared" si="54"/>
+        <v>2102</v>
       </c>
       <c r="C141" s="13">
         <v>2</v>
@@ -6997,18 +6997,18 @@
         <v>6</v>
       </c>
       <c r="H141" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>7</v>
       </c>
       <c r="I141" s="33">
         <v>0</v>
       </c>
       <c r="J141" s="16">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>153</v>
       </c>
       <c r="K141" s="16">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="L141" s="26">
@@ -7023,8 +7023,8 @@
         <v>44028</v>
       </c>
       <c r="B142" s="19">
-        <f t="shared" si="50"/>
-        <v>2101</v>
+        <f t="shared" si="54"/>
+        <v>2103</v>
       </c>
       <c r="C142" s="13">
         <v>1</v>
@@ -7042,18 +7042,18 @@
         <v>6</v>
       </c>
       <c r="H142" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>7</v>
       </c>
       <c r="I142" s="33">
         <v>0</v>
       </c>
       <c r="J142" s="16">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>153</v>
       </c>
       <c r="K142" s="16">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="L142" s="26">
@@ -7064,47 +7064,182 @@
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A143" s="2">
+      <c r="A143" s="1">
         <v>44029</v>
       </c>
-      <c r="B143" s="20">
-        <f t="shared" si="50"/>
-        <v>2101</v>
-      </c>
-      <c r="C143" s="14">
-        <v>0</v>
-      </c>
-      <c r="D143" s="14">
-        <v>0</v>
-      </c>
-      <c r="E143" s="30">
-        <v>1</v>
-      </c>
-      <c r="F143" s="31">
-        <v>0</v>
-      </c>
-      <c r="G143" s="25">
+      <c r="B143" s="19">
+        <f t="shared" si="54"/>
+        <v>2107</v>
+      </c>
+      <c r="C143" s="13">
+        <v>4</v>
+      </c>
+      <c r="D143" s="13">
+        <v>2</v>
+      </c>
+      <c r="E143" s="4">
+        <v>2</v>
+      </c>
+      <c r="F143" s="3">
+        <v>1</v>
+      </c>
+      <c r="G143" s="24">
         <v>6</v>
       </c>
-      <c r="H143" s="18">
-        <f t="shared" si="51"/>
+      <c r="H143" s="17">
+        <f t="shared" si="55"/>
+        <v>8</v>
+      </c>
+      <c r="I143" s="33">
+        <v>1</v>
+      </c>
+      <c r="J143" s="16">
+        <f t="shared" si="56"/>
+        <v>153</v>
+      </c>
+      <c r="K143" s="16">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="L143" s="26">
+        <v>0</v>
+      </c>
+      <c r="M143" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A144" s="1">
+        <v>44030</v>
+      </c>
+      <c r="B144" s="19">
+        <f t="shared" si="54"/>
+        <v>2107</v>
+      </c>
+      <c r="C144" s="13">
+        <v>0</v>
+      </c>
+      <c r="D144" s="13">
+        <v>0</v>
+      </c>
+      <c r="E144" s="4">
+        <v>2</v>
+      </c>
+      <c r="F144" s="3">
+        <v>1</v>
+      </c>
+      <c r="G144" s="24">
+        <v>5</v>
+      </c>
+      <c r="H144" s="17">
+        <f t="shared" si="55"/>
         <v>7</v>
       </c>
-      <c r="I143" s="34">
-        <v>0</v>
-      </c>
-      <c r="J143" s="21">
-        <f t="shared" si="52"/>
+      <c r="I144" s="33">
+        <v>1</v>
+      </c>
+      <c r="J144" s="16">
+        <f t="shared" si="56"/>
         <v>153</v>
       </c>
-      <c r="K143" s="21">
-        <f t="shared" si="53"/>
-        <v>0</v>
-      </c>
-      <c r="L143" s="28">
-        <v>0</v>
-      </c>
-      <c r="M143" s="29">
+      <c r="K144" s="16">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="L144" s="26">
+        <v>0</v>
+      </c>
+      <c r="M144" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A145" s="1">
+        <v>44031</v>
+      </c>
+      <c r="B145" s="19">
+        <f t="shared" si="54"/>
+        <v>2108</v>
+      </c>
+      <c r="C145" s="13">
+        <v>1</v>
+      </c>
+      <c r="D145" s="13">
+        <v>0</v>
+      </c>
+      <c r="E145" s="4">
+        <v>2</v>
+      </c>
+      <c r="F145" s="3">
+        <v>1</v>
+      </c>
+      <c r="G145" s="24">
+        <v>5</v>
+      </c>
+      <c r="H145" s="17">
+        <f t="shared" si="55"/>
+        <v>7</v>
+      </c>
+      <c r="I145" s="33">
+        <v>0</v>
+      </c>
+      <c r="J145" s="16">
+        <f t="shared" si="56"/>
+        <v>153</v>
+      </c>
+      <c r="K145" s="16">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="L145" s="26">
+        <v>0</v>
+      </c>
+      <c r="M145" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A146" s="2">
+        <v>44032</v>
+      </c>
+      <c r="B146" s="20">
+        <f t="shared" si="54"/>
+        <v>2108</v>
+      </c>
+      <c r="C146" s="14">
+        <v>0</v>
+      </c>
+      <c r="D146" s="14">
+        <v>0</v>
+      </c>
+      <c r="E146" s="30">
+        <v>2</v>
+      </c>
+      <c r="F146" s="31">
+        <v>1</v>
+      </c>
+      <c r="G146" s="25">
+        <v>5</v>
+      </c>
+      <c r="H146" s="18">
+        <f t="shared" si="55"/>
+        <v>7</v>
+      </c>
+      <c r="I146" s="34">
+        <v>0</v>
+      </c>
+      <c r="J146" s="21">
+        <f t="shared" si="56"/>
+        <v>153</v>
+      </c>
+      <c r="K146" s="21">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="L146" s="28">
+        <v>0</v>
+      </c>
+      <c r="M146" s="29">
         <v>0</v>
       </c>
     </row>

--- a/Chiffres  COVID-19 Valais.xlsx
+++ b/Chiffres  COVID-19 Valais.xlsx
@@ -99,7 +99,7 @@
     <t>Nb de nouvelles sorties</t>
   </si>
   <si>
-    <t>Données COVID-19 Valais 20.07.2020</t>
+    <t>Données COVID-19 Valais 21.07.2020</t>
   </si>
 </sst>
 </file>
@@ -687,10 +687,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O146"/>
+  <dimension ref="A1:O147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="A148" sqref="A148"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6933,7 +6933,7 @@
         <v>44026</v>
       </c>
       <c r="B140" s="19">
-        <f t="shared" ref="B140:B146" si="54">B139+C140</f>
+        <f t="shared" ref="B140:B145" si="54">B139+C140</f>
         <v>2100</v>
       </c>
       <c r="C140" s="13">
@@ -6952,18 +6952,18 @@
         <v>6</v>
       </c>
       <c r="H140" s="17">
-        <f t="shared" ref="H140:H146" si="55">G140+E140</f>
+        <f t="shared" ref="H140:H145" si="55">G140+E140</f>
         <v>7</v>
       </c>
       <c r="I140" s="33">
         <v>0</v>
       </c>
       <c r="J140" s="16">
-        <f t="shared" ref="J140:J146" si="56">J139+K140</f>
+        <f t="shared" ref="J140:J145" si="56">J139+K140</f>
         <v>153</v>
       </c>
       <c r="K140" s="16">
-        <f t="shared" ref="K140:K146" si="57">L140+M140</f>
+        <f t="shared" ref="K140:K145" si="57">L140+M140</f>
         <v>0</v>
       </c>
       <c r="L140" s="26">
@@ -7084,14 +7084,14 @@
         <v>1</v>
       </c>
       <c r="G143" s="24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H143" s="17">
         <f t="shared" si="55"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I143" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J143" s="16">
         <f t="shared" si="56"/>
@@ -7129,11 +7129,11 @@
         <v>1</v>
       </c>
       <c r="G144" s="24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H144" s="17">
         <f t="shared" si="55"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I144" s="33">
         <v>1</v>
@@ -7174,11 +7174,11 @@
         <v>1</v>
       </c>
       <c r="G145" s="24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H145" s="17">
         <f t="shared" si="55"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I145" s="33">
         <v>0</v>
@@ -7199,47 +7199,92 @@
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A146" s="2">
+      <c r="A146" s="1">
         <v>44032</v>
       </c>
-      <c r="B146" s="20">
-        <f t="shared" si="54"/>
-        <v>2108</v>
-      </c>
-      <c r="C146" s="14">
-        <v>0</v>
-      </c>
-      <c r="D146" s="14">
-        <v>0</v>
-      </c>
-      <c r="E146" s="30">
-        <v>2</v>
-      </c>
-      <c r="F146" s="31">
-        <v>1</v>
-      </c>
-      <c r="G146" s="25">
-        <v>5</v>
-      </c>
-      <c r="H146" s="18">
-        <f t="shared" si="55"/>
-        <v>7</v>
-      </c>
-      <c r="I146" s="34">
-        <v>0</v>
-      </c>
-      <c r="J146" s="21">
-        <f t="shared" si="56"/>
+      <c r="B146" s="19">
+        <f t="shared" ref="B146:B147" si="58">B145+C146</f>
+        <v>2110</v>
+      </c>
+      <c r="C146" s="13">
+        <v>2</v>
+      </c>
+      <c r="D146" s="13">
+        <v>0</v>
+      </c>
+      <c r="E146" s="4">
+        <v>2</v>
+      </c>
+      <c r="F146" s="3">
+        <v>1</v>
+      </c>
+      <c r="G146" s="24">
+        <v>4</v>
+      </c>
+      <c r="H146" s="17">
+        <f t="shared" ref="H146:H147" si="59">G146+E146</f>
+        <v>6</v>
+      </c>
+      <c r="I146" s="33">
+        <v>0</v>
+      </c>
+      <c r="J146" s="16">
+        <f t="shared" ref="J146" si="60">J145+K146</f>
         <v>153</v>
       </c>
-      <c r="K146" s="21">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="L146" s="28">
-        <v>0</v>
-      </c>
-      <c r="M146" s="29">
+      <c r="K146" s="16">
+        <f t="shared" ref="K146" si="61">L146+M146</f>
+        <v>0</v>
+      </c>
+      <c r="L146" s="26">
+        <v>0</v>
+      </c>
+      <c r="M146" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A147" s="2">
+        <v>44033</v>
+      </c>
+      <c r="B147" s="20">
+        <f t="shared" si="58"/>
+        <v>2110</v>
+      </c>
+      <c r="C147" s="14">
+        <v>0</v>
+      </c>
+      <c r="D147" s="14">
+        <v>0</v>
+      </c>
+      <c r="E147" s="30">
+        <v>2</v>
+      </c>
+      <c r="F147" s="31">
+        <v>1</v>
+      </c>
+      <c r="G147" s="25">
+        <v>4</v>
+      </c>
+      <c r="H147" s="18">
+        <f t="shared" si="59"/>
+        <v>6</v>
+      </c>
+      <c r="I147" s="34">
+        <v>0</v>
+      </c>
+      <c r="J147" s="21">
+        <f t="shared" ref="J147" si="62">J146+K147</f>
+        <v>153</v>
+      </c>
+      <c r="K147" s="21">
+        <f t="shared" ref="K147" si="63">L147+M147</f>
+        <v>0</v>
+      </c>
+      <c r="L147" s="28">
+        <v>0</v>
+      </c>
+      <c r="M147" s="29">
         <v>0</v>
       </c>
     </row>

--- a/Chiffres  COVID-19 Valais.xlsx
+++ b/Chiffres  COVID-19 Valais.xlsx
@@ -99,7 +99,7 @@
     <t>Nb de nouvelles sorties</t>
   </si>
   <si>
-    <t>Données COVID-19 Valais 21.07.2020</t>
+    <t>Données COVID-19 Valais 22.07.2020</t>
   </si>
 </sst>
 </file>
@@ -687,23 +687,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O147"/>
+  <dimension ref="A1:O148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:M1"/>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="A148" sqref="A148"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="11.453125" style="15"/>
-    <col min="4" max="4" width="10.81640625" style="15"/>
-    <col min="8" max="9" width="16.1796875" customWidth="1"/>
-    <col min="11" max="11" width="14.54296875" customWidth="1"/>
-    <col min="12" max="12" width="13.54296875" customWidth="1"/>
-    <col min="13" max="13" width="15.7265625" style="6" customWidth="1"/>
+    <col min="2" max="3" width="11.42578125" style="15"/>
+    <col min="4" max="4" width="10.85546875" style="15"/>
+    <col min="8" max="9" width="16.140625" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
         <v>13</v>
       </c>
@@ -720,7 +720,7 @@
       <c r="L1" s="36"/>
       <c r="M1" s="37"/>
     </row>
-    <row r="2" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -763,7 +763,7 @@
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43889</v>
       </c>
@@ -808,7 +808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43890</v>
       </c>
@@ -853,7 +853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43891</v>
       </c>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43892</v>
       </c>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43893</v>
       </c>
@@ -988,7 +988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43894</v>
       </c>
@@ -1033,7 +1033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43895</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43896</v>
       </c>
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43897</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43898</v>
       </c>
@@ -1213,7 +1213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43899</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43900</v>
       </c>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43901</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43902</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43903</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43904</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43905</v>
       </c>
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43906</v>
       </c>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43907</v>
       </c>
@@ -1618,7 +1618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43908</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43909</v>
       </c>
@@ -1708,7 +1708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43910</v>
       </c>
@@ -1753,7 +1753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43911</v>
       </c>
@@ -1798,7 +1798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43912</v>
       </c>
@@ -1843,7 +1843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43913</v>
       </c>
@@ -1888,7 +1888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43914</v>
       </c>
@@ -1933,7 +1933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43915</v>
       </c>
@@ -1978,7 +1978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43916</v>
       </c>
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43917</v>
       </c>
@@ -2068,7 +2068,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43918</v>
       </c>
@@ -2113,7 +2113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43919</v>
       </c>
@@ -2158,7 +2158,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>43920</v>
       </c>
@@ -2203,7 +2203,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>43921</v>
       </c>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>43922</v>
       </c>
@@ -2293,7 +2293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>43923</v>
       </c>
@@ -2338,7 +2338,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>43924</v>
       </c>
@@ -2383,7 +2383,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>43925</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>43926</v>
       </c>
@@ -2473,7 +2473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>43927</v>
       </c>
@@ -2518,7 +2518,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>43928</v>
       </c>
@@ -2563,7 +2563,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43929</v>
       </c>
@@ -2608,7 +2608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43930</v>
       </c>
@@ -2653,7 +2653,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43931</v>
       </c>
@@ -2698,7 +2698,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43932</v>
       </c>
@@ -2743,7 +2743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>43933</v>
       </c>
@@ -2788,7 +2788,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>43934</v>
       </c>
@@ -2833,7 +2833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>43935</v>
       </c>
@@ -2878,7 +2878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>43936</v>
       </c>
@@ -2923,7 +2923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>43937</v>
       </c>
@@ -2968,7 +2968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>43938</v>
       </c>
@@ -3013,7 +3013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>43939</v>
       </c>
@@ -3058,7 +3058,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>43940</v>
       </c>
@@ -3103,7 +3103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>43941</v>
       </c>
@@ -3148,7 +3148,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>43942</v>
       </c>
@@ -3193,7 +3193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>43943</v>
       </c>
@@ -3238,7 +3238,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>43944</v>
       </c>
@@ -3283,7 +3283,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>43945</v>
       </c>
@@ -3328,7 +3328,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>43946</v>
       </c>
@@ -3373,7 +3373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>43947</v>
       </c>
@@ -3418,7 +3418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>43948</v>
       </c>
@@ -3463,7 +3463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>43949</v>
       </c>
@@ -3508,7 +3508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>43950</v>
       </c>
@@ -3553,7 +3553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>43951</v>
       </c>
@@ -3598,7 +3598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>43952</v>
       </c>
@@ -3643,7 +3643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>43953</v>
       </c>
@@ -3688,7 +3688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>43954</v>
       </c>
@@ -3733,7 +3733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>43955</v>
       </c>
@@ -3778,7 +3778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>43956</v>
       </c>
@@ -3823,7 +3823,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>43957</v>
       </c>
@@ -3868,7 +3868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>43958</v>
       </c>
@@ -3913,7 +3913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>43959</v>
       </c>
@@ -3958,7 +3958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>43960</v>
       </c>
@@ -4003,7 +4003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>43961</v>
       </c>
@@ -4048,7 +4048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>43962</v>
       </c>
@@ -4093,7 +4093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>43963</v>
       </c>
@@ -4138,7 +4138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>43964</v>
       </c>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>43965</v>
       </c>
@@ -4228,7 +4228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>43966</v>
       </c>
@@ -4273,7 +4273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>43967</v>
       </c>
@@ -4318,7 +4318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>43968</v>
       </c>
@@ -4363,7 +4363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>43969</v>
       </c>
@@ -4408,7 +4408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>43970</v>
       </c>
@@ -4453,7 +4453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>43971</v>
       </c>
@@ -4498,7 +4498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>43972</v>
       </c>
@@ -4543,7 +4543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>43973</v>
       </c>
@@ -4588,7 +4588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>43974</v>
       </c>
@@ -4633,7 +4633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>43975</v>
       </c>
@@ -4678,7 +4678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>43976</v>
       </c>
@@ -4723,7 +4723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>43977</v>
       </c>
@@ -4768,7 +4768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>43978</v>
       </c>
@@ -4813,7 +4813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>43979</v>
       </c>
@@ -4858,7 +4858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>43980</v>
       </c>
@@ -4903,7 +4903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>43981</v>
       </c>
@@ -4948,7 +4948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>43982</v>
       </c>
@@ -4993,7 +4993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>43983</v>
       </c>
@@ -5038,7 +5038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>43984</v>
       </c>
@@ -5083,7 +5083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>43985</v>
       </c>
@@ -5128,7 +5128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>43986</v>
       </c>
@@ -5173,7 +5173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>43987</v>
       </c>
@@ -5218,7 +5218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>43988</v>
       </c>
@@ -5263,7 +5263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>43989</v>
       </c>
@@ -5308,7 +5308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>43990</v>
       </c>
@@ -5353,7 +5353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>43991</v>
       </c>
@@ -5398,7 +5398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>43992</v>
       </c>
@@ -5443,7 +5443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>43993</v>
       </c>
@@ -5488,7 +5488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>43994</v>
       </c>
@@ -5533,7 +5533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>43995</v>
       </c>
@@ -5578,7 +5578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>43996</v>
       </c>
@@ -5623,7 +5623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>43997</v>
       </c>
@@ -5668,7 +5668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>43998</v>
       </c>
@@ -5713,7 +5713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>43999</v>
       </c>
@@ -5758,7 +5758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>44000</v>
       </c>
@@ -5803,7 +5803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>44001</v>
       </c>
@@ -5848,7 +5848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>44002</v>
       </c>
@@ -5893,7 +5893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>44003</v>
       </c>
@@ -5938,7 +5938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>44004</v>
       </c>
@@ -5983,7 +5983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>44005</v>
       </c>
@@ -6028,7 +6028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>44006</v>
       </c>
@@ -6073,7 +6073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>44007</v>
       </c>
@@ -6118,7 +6118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>44008</v>
       </c>
@@ -6163,7 +6163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>44009</v>
       </c>
@@ -6208,7 +6208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>44010</v>
       </c>
@@ -6253,7 +6253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>44011</v>
       </c>
@@ -6298,7 +6298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>44012</v>
       </c>
@@ -6343,7 +6343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>44013</v>
       </c>
@@ -6388,7 +6388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>44014</v>
       </c>
@@ -6433,7 +6433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>44015</v>
       </c>
@@ -6478,7 +6478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>44016</v>
       </c>
@@ -6523,7 +6523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>44017</v>
       </c>
@@ -6568,7 +6568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>44018</v>
       </c>
@@ -6613,7 +6613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>44019</v>
       </c>
@@ -6658,7 +6658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>44020</v>
       </c>
@@ -6703,7 +6703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>44021</v>
       </c>
@@ -6748,7 +6748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>44022</v>
       </c>
@@ -6793,7 +6793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>44023</v>
       </c>
@@ -6838,7 +6838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>44024</v>
       </c>
@@ -6883,7 +6883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>44025</v>
       </c>
@@ -6928,7 +6928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>44026</v>
       </c>
@@ -6973,7 +6973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>44027</v>
       </c>
@@ -7018,7 +7018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>44028</v>
       </c>
@@ -7063,7 +7063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>44029</v>
       </c>
@@ -7108,16 +7108,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>44030</v>
       </c>
       <c r="B144" s="19">
         <f t="shared" si="54"/>
-        <v>2107</v>
+        <v>2108</v>
       </c>
       <c r="C144" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D144" s="13">
         <v>0</v>
@@ -7153,13 +7153,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>44031</v>
       </c>
       <c r="B145" s="19">
         <f t="shared" si="54"/>
-        <v>2108</v>
+        <v>2109</v>
       </c>
       <c r="C145" s="13">
         <v>1</v>
@@ -7198,16 +7198,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>44032</v>
       </c>
       <c r="B146" s="19">
-        <f t="shared" ref="B146:B147" si="58">B145+C146</f>
-        <v>2110</v>
+        <f t="shared" ref="B146" si="58">B145+C146</f>
+        <v>2112</v>
       </c>
       <c r="C146" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D146" s="13">
         <v>0</v>
@@ -7222,7 +7222,7 @@
         <v>4</v>
       </c>
       <c r="H146" s="17">
-        <f t="shared" ref="H146:H147" si="59">G146+E146</f>
+        <f t="shared" ref="H146" si="59">G146+E146</f>
         <v>6</v>
       </c>
       <c r="I146" s="33">
@@ -7243,48 +7243,93 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A147" s="2">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
         <v>44033</v>
       </c>
-      <c r="B147" s="20">
-        <f t="shared" si="58"/>
-        <v>2110</v>
-      </c>
-      <c r="C147" s="14">
-        <v>0</v>
-      </c>
-      <c r="D147" s="14">
-        <v>0</v>
-      </c>
-      <c r="E147" s="30">
-        <v>2</v>
-      </c>
-      <c r="F147" s="31">
-        <v>1</v>
-      </c>
-      <c r="G147" s="25">
+      <c r="B147" s="19">
+        <f t="shared" ref="B147:B148" si="62">B146+C147</f>
+        <v>2114</v>
+      </c>
+      <c r="C147" s="13">
+        <v>2</v>
+      </c>
+      <c r="D147" s="13">
+        <v>0</v>
+      </c>
+      <c r="E147" s="4">
+        <v>2</v>
+      </c>
+      <c r="F147" s="3">
+        <v>1</v>
+      </c>
+      <c r="G147" s="24">
         <v>4</v>
       </c>
-      <c r="H147" s="18">
-        <f t="shared" si="59"/>
+      <c r="H147" s="17">
+        <f t="shared" ref="H147:H148" si="63">G147+E147</f>
         <v>6</v>
       </c>
-      <c r="I147" s="34">
-        <v>0</v>
-      </c>
-      <c r="J147" s="21">
-        <f t="shared" ref="J147" si="62">J146+K147</f>
+      <c r="I147" s="33">
+        <v>0</v>
+      </c>
+      <c r="J147" s="16">
+        <f t="shared" ref="J147:J148" si="64">J146+K147</f>
         <v>153</v>
       </c>
-      <c r="K147" s="21">
-        <f t="shared" ref="K147" si="63">L147+M147</f>
-        <v>0</v>
-      </c>
-      <c r="L147" s="28">
-        <v>0</v>
-      </c>
-      <c r="M147" s="29">
+      <c r="K147" s="16">
+        <f t="shared" ref="K147:K148" si="65">L147+M147</f>
+        <v>0</v>
+      </c>
+      <c r="L147" s="26">
+        <v>0</v>
+      </c>
+      <c r="M147" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A148" s="2">
+        <v>44034</v>
+      </c>
+      <c r="B148" s="20">
+        <f t="shared" si="62"/>
+        <v>2116</v>
+      </c>
+      <c r="C148" s="14">
+        <v>2</v>
+      </c>
+      <c r="D148" s="14">
+        <v>0</v>
+      </c>
+      <c r="E148" s="30">
+        <v>2</v>
+      </c>
+      <c r="F148" s="31">
+        <v>1</v>
+      </c>
+      <c r="G148" s="25">
+        <v>4</v>
+      </c>
+      <c r="H148" s="18">
+        <f t="shared" si="63"/>
+        <v>6</v>
+      </c>
+      <c r="I148" s="34">
+        <v>0</v>
+      </c>
+      <c r="J148" s="21">
+        <f t="shared" si="64"/>
+        <v>153</v>
+      </c>
+      <c r="K148" s="21">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="L148" s="28">
+        <v>0</v>
+      </c>
+      <c r="M148" s="29">
         <v>0</v>
       </c>
     </row>

--- a/Chiffres  COVID-19 Valais.xlsx
+++ b/Chiffres  COVID-19 Valais.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -99,7 +99,10 @@
     <t>Nb de nouvelles sorties</t>
   </si>
   <si>
-    <t>Données COVID-19 Valais 22.07.2020</t>
+    <t>Données COVID-19 Valais 23.07.2020</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -687,23 +690,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O148"/>
+  <dimension ref="A1:O149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="A148" sqref="A148"/>
+    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="A149" sqref="A149"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="3" width="11.42578125" style="15"/>
-    <col min="4" max="4" width="10.85546875" style="15"/>
-    <col min="8" max="9" width="16.140625" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" style="6" customWidth="1"/>
+    <col min="2" max="3" width="11.453125" style="15"/>
+    <col min="4" max="4" width="10.81640625" style="15"/>
+    <col min="8" max="9" width="16.1796875" customWidth="1"/>
+    <col min="11" max="11" width="14.54296875" customWidth="1"/>
+    <col min="12" max="12" width="13.54296875" customWidth="1"/>
+    <col min="13" max="13" width="15.7265625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="35" t="s">
         <v>13</v>
       </c>
@@ -720,7 +723,7 @@
       <c r="L1" s="36"/>
       <c r="M1" s="37"/>
     </row>
-    <row r="2" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -763,7 +766,7 @@
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>43889</v>
       </c>
@@ -808,7 +811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>43890</v>
       </c>
@@ -853,7 +856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>43891</v>
       </c>
@@ -898,7 +901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>43892</v>
       </c>
@@ -943,7 +946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>43893</v>
       </c>
@@ -988,7 +991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>43894</v>
       </c>
@@ -1033,7 +1036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>43895</v>
       </c>
@@ -1078,7 +1081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>43896</v>
       </c>
@@ -1123,7 +1126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>43897</v>
       </c>
@@ -1168,7 +1171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>43898</v>
       </c>
@@ -1213,7 +1216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>43899</v>
       </c>
@@ -1258,7 +1261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>43900</v>
       </c>
@@ -1303,7 +1306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>43901</v>
       </c>
@@ -1348,7 +1351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>43902</v>
       </c>
@@ -1393,7 +1396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>43903</v>
       </c>
@@ -1438,7 +1441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>43904</v>
       </c>
@@ -1483,7 +1486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>43905</v>
       </c>
@@ -1528,7 +1531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>43906</v>
       </c>
@@ -1573,7 +1576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>43907</v>
       </c>
@@ -1618,7 +1621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>43908</v>
       </c>
@@ -1663,7 +1666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>43909</v>
       </c>
@@ -1708,7 +1711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>43910</v>
       </c>
@@ -1753,7 +1756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>43911</v>
       </c>
@@ -1798,7 +1801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>43912</v>
       </c>
@@ -1843,7 +1846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>43913</v>
       </c>
@@ -1888,7 +1891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>43914</v>
       </c>
@@ -1933,7 +1936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>43915</v>
       </c>
@@ -1978,7 +1981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>43916</v>
       </c>
@@ -2023,7 +2026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>43917</v>
       </c>
@@ -2068,7 +2071,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>43918</v>
       </c>
@@ -2113,7 +2116,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>43919</v>
       </c>
@@ -2158,7 +2161,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>43920</v>
       </c>
@@ -2203,7 +2206,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>43921</v>
       </c>
@@ -2248,7 +2251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>43922</v>
       </c>
@@ -2293,7 +2296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>43923</v>
       </c>
@@ -2338,7 +2341,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>43924</v>
       </c>
@@ -2383,7 +2386,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>43925</v>
       </c>
@@ -2428,7 +2431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>43926</v>
       </c>
@@ -2473,7 +2476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>43927</v>
       </c>
@@ -2518,7 +2521,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>43928</v>
       </c>
@@ -2563,7 +2566,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>43929</v>
       </c>
@@ -2608,7 +2611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>43930</v>
       </c>
@@ -2653,7 +2656,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>43931</v>
       </c>
@@ -2698,7 +2701,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>43932</v>
       </c>
@@ -2743,7 +2746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>43933</v>
       </c>
@@ -2788,7 +2791,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>43934</v>
       </c>
@@ -2833,7 +2836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>43935</v>
       </c>
@@ -2878,7 +2881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>43936</v>
       </c>
@@ -2923,7 +2926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>43937</v>
       </c>
@@ -2968,7 +2971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>43938</v>
       </c>
@@ -3013,7 +3016,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>43939</v>
       </c>
@@ -3058,7 +3061,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>43940</v>
       </c>
@@ -3103,7 +3106,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>43941</v>
       </c>
@@ -3148,7 +3151,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>43942</v>
       </c>
@@ -3193,7 +3196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>43943</v>
       </c>
@@ -3238,7 +3241,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>43944</v>
       </c>
@@ -3283,7 +3286,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>43945</v>
       </c>
@@ -3328,7 +3331,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>43946</v>
       </c>
@@ -3373,7 +3376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>43947</v>
       </c>
@@ -3418,7 +3421,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>43948</v>
       </c>
@@ -3463,7 +3466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>43949</v>
       </c>
@@ -3508,7 +3511,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>43950</v>
       </c>
@@ -3553,7 +3556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>43951</v>
       </c>
@@ -3598,7 +3601,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>43952</v>
       </c>
@@ -3643,7 +3646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>43953</v>
       </c>
@@ -3688,7 +3691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>43954</v>
       </c>
@@ -3733,7 +3736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>43955</v>
       </c>
@@ -3778,7 +3781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>43956</v>
       </c>
@@ -3823,7 +3826,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>43957</v>
       </c>
@@ -3868,7 +3871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>43958</v>
       </c>
@@ -3913,7 +3916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>43959</v>
       </c>
@@ -3958,7 +3961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>43960</v>
       </c>
@@ -4003,7 +4006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>43961</v>
       </c>
@@ -4048,7 +4051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>43962</v>
       </c>
@@ -4093,7 +4096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>43963</v>
       </c>
@@ -4138,7 +4141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>43964</v>
       </c>
@@ -4183,7 +4186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>43965</v>
       </c>
@@ -4228,7 +4231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>43966</v>
       </c>
@@ -4273,7 +4276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>43967</v>
       </c>
@@ -4318,7 +4321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>43968</v>
       </c>
@@ -4363,7 +4366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>43969</v>
       </c>
@@ -4408,7 +4411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>43970</v>
       </c>
@@ -4453,7 +4456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>43971</v>
       </c>
@@ -4498,7 +4501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>43972</v>
       </c>
@@ -4543,7 +4546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>43973</v>
       </c>
@@ -4588,7 +4591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>43974</v>
       </c>
@@ -4633,7 +4636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>43975</v>
       </c>
@@ -4678,7 +4681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>43976</v>
       </c>
@@ -4723,7 +4726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>43977</v>
       </c>
@@ -4768,7 +4771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>43978</v>
       </c>
@@ -4813,7 +4816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>43979</v>
       </c>
@@ -4858,7 +4861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>43980</v>
       </c>
@@ -4903,7 +4906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>43981</v>
       </c>
@@ -4948,7 +4951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>43982</v>
       </c>
@@ -4993,7 +4996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>43983</v>
       </c>
@@ -5038,7 +5041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>43984</v>
       </c>
@@ -5083,7 +5086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>43985</v>
       </c>
@@ -5128,7 +5131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>43986</v>
       </c>
@@ -5173,7 +5176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>43987</v>
       </c>
@@ -5218,7 +5221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>43988</v>
       </c>
@@ -5263,7 +5266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>43989</v>
       </c>
@@ -5308,7 +5311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>43990</v>
       </c>
@@ -5353,7 +5356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>43991</v>
       </c>
@@ -5398,7 +5401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>43992</v>
       </c>
@@ -5443,7 +5446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>43993</v>
       </c>
@@ -5488,7 +5491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>43994</v>
       </c>
@@ -5533,7 +5536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>43995</v>
       </c>
@@ -5578,7 +5581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>43996</v>
       </c>
@@ -5623,7 +5626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>43997</v>
       </c>
@@ -5668,7 +5671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>43998</v>
       </c>
@@ -5713,7 +5716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>43999</v>
       </c>
@@ -5758,7 +5761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>44000</v>
       </c>
@@ -5803,7 +5806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>44001</v>
       </c>
@@ -5848,7 +5851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>44002</v>
       </c>
@@ -5893,7 +5896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>44003</v>
       </c>
@@ -5938,7 +5941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>44004</v>
       </c>
@@ -5983,7 +5986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>44005</v>
       </c>
@@ -6028,7 +6031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>44006</v>
       </c>
@@ -6073,7 +6076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>44007</v>
       </c>
@@ -6118,7 +6121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>44008</v>
       </c>
@@ -6163,7 +6166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>44009</v>
       </c>
@@ -6208,7 +6211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>44010</v>
       </c>
@@ -6253,7 +6256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>44011</v>
       </c>
@@ -6298,7 +6301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>44012</v>
       </c>
@@ -6343,7 +6346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>44013</v>
       </c>
@@ -6388,7 +6391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>44014</v>
       </c>
@@ -6433,7 +6436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>44015</v>
       </c>
@@ -6478,7 +6481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>44016</v>
       </c>
@@ -6523,7 +6526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>44017</v>
       </c>
@@ -6568,7 +6571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>44018</v>
       </c>
@@ -6613,7 +6616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>44019</v>
       </c>
@@ -6658,7 +6661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>44020</v>
       </c>
@@ -6703,7 +6706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>44021</v>
       </c>
@@ -6748,7 +6751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>44022</v>
       </c>
@@ -6793,7 +6796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>44023</v>
       </c>
@@ -6838,7 +6841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>44024</v>
       </c>
@@ -6883,7 +6886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>44025</v>
       </c>
@@ -6928,7 +6931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>44026</v>
       </c>
@@ -6973,7 +6976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>44027</v>
       </c>
@@ -7018,7 +7021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>44028</v>
       </c>
@@ -7063,16 +7066,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>44029</v>
       </c>
       <c r="B143" s="19">
         <f t="shared" si="54"/>
-        <v>2107</v>
+        <v>2105</v>
       </c>
       <c r="C143" s="13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D143" s="13">
         <v>2</v>
@@ -7108,13 +7111,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>44030</v>
       </c>
       <c r="B144" s="19">
         <f t="shared" si="54"/>
-        <v>2108</v>
+        <v>2106</v>
       </c>
       <c r="C144" s="13">
         <v>1</v>
@@ -7153,13 +7156,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>44031</v>
       </c>
       <c r="B145" s="19">
         <f t="shared" si="54"/>
-        <v>2109</v>
+        <v>2107</v>
       </c>
       <c r="C145" s="13">
         <v>1</v>
@@ -7198,13 +7201,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>44032</v>
       </c>
       <c r="B146" s="19">
         <f t="shared" ref="B146" si="58">B145+C146</f>
-        <v>2112</v>
+        <v>2110</v>
       </c>
       <c r="C146" s="13">
         <v>3</v>
@@ -7243,13 +7246,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>44033</v>
       </c>
       <c r="B147" s="19">
-        <f t="shared" ref="B147:B148" si="62">B146+C147</f>
-        <v>2114</v>
+        <f t="shared" ref="B147" si="62">B146+C147</f>
+        <v>2112</v>
       </c>
       <c r="C147" s="13">
         <v>2</v>
@@ -7267,18 +7270,18 @@
         <v>4</v>
       </c>
       <c r="H147" s="17">
-        <f t="shared" ref="H147:H148" si="63">G147+E147</f>
+        <f t="shared" ref="H147" si="63">G147+E147</f>
         <v>6</v>
       </c>
       <c r="I147" s="33">
         <v>0</v>
       </c>
       <c r="J147" s="16">
-        <f t="shared" ref="J147:J148" si="64">J146+K147</f>
+        <f t="shared" ref="J147" si="64">J146+K147</f>
         <v>153</v>
       </c>
       <c r="K147" s="16">
-        <f t="shared" ref="K147:K148" si="65">L147+M147</f>
+        <f t="shared" ref="K147" si="65">L147+M147</f>
         <v>0</v>
       </c>
       <c r="L147" s="26">
@@ -7288,49 +7291,94 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A148" s="2">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A148" s="1">
         <v>44034</v>
       </c>
-      <c r="B148" s="20">
-        <f t="shared" si="62"/>
-        <v>2116</v>
-      </c>
-      <c r="C148" s="14">
-        <v>2</v>
-      </c>
-      <c r="D148" s="14">
-        <v>0</v>
-      </c>
-      <c r="E148" s="30">
-        <v>2</v>
-      </c>
-      <c r="F148" s="31">
-        <v>1</v>
-      </c>
-      <c r="G148" s="25">
+      <c r="B148" s="19">
+        <f t="shared" ref="B148:B149" si="66">B147+C148</f>
+        <v>2113</v>
+      </c>
+      <c r="C148" s="13">
+        <v>1</v>
+      </c>
+      <c r="D148" s="13">
+        <v>0</v>
+      </c>
+      <c r="E148" s="4">
+        <v>2</v>
+      </c>
+      <c r="F148" s="3">
+        <v>1</v>
+      </c>
+      <c r="G148" s="24">
         <v>4</v>
       </c>
-      <c r="H148" s="18">
-        <f t="shared" si="63"/>
+      <c r="H148" s="17">
+        <f t="shared" ref="H148:H149" si="67">G148+E148</f>
         <v>6</v>
       </c>
-      <c r="I148" s="34">
-        <v>0</v>
-      </c>
-      <c r="J148" s="21">
-        <f t="shared" si="64"/>
+      <c r="I148" s="33">
+        <v>0</v>
+      </c>
+      <c r="J148" s="16">
+        <f t="shared" ref="J148:J149" si="68">J147+K148</f>
         <v>153</v>
       </c>
-      <c r="K148" s="21">
-        <f t="shared" si="65"/>
-        <v>0</v>
-      </c>
-      <c r="L148" s="28">
-        <v>0</v>
-      </c>
-      <c r="M148" s="29">
-        <v>0</v>
+      <c r="K148" s="16">
+        <f t="shared" ref="K148:K149" si="69">L148+M148</f>
+        <v>0</v>
+      </c>
+      <c r="L148" s="26">
+        <v>0</v>
+      </c>
+      <c r="M148" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A149" s="2">
+        <v>44035</v>
+      </c>
+      <c r="B149" s="20">
+        <f t="shared" si="66"/>
+        <v>2113</v>
+      </c>
+      <c r="C149" s="14">
+        <v>0</v>
+      </c>
+      <c r="D149" s="14">
+        <v>0</v>
+      </c>
+      <c r="E149" s="30">
+        <v>2</v>
+      </c>
+      <c r="F149" s="31">
+        <v>1</v>
+      </c>
+      <c r="G149" s="25">
+        <v>4</v>
+      </c>
+      <c r="H149" s="18">
+        <f t="shared" si="67"/>
+        <v>6</v>
+      </c>
+      <c r="I149" s="34">
+        <v>0</v>
+      </c>
+      <c r="J149" s="21">
+        <f t="shared" si="68"/>
+        <v>153</v>
+      </c>
+      <c r="K149" s="21">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="L149" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="M149" s="29" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Chiffres  COVID-19 Valais.xlsx
+++ b/Chiffres  COVID-19 Valais.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -99,10 +99,7 @@
     <t>Nb de nouvelles sorties</t>
   </si>
   <si>
-    <t>Données COVID-19 Valais 23.07.2020</t>
-  </si>
-  <si>
-    <t>0</t>
+    <t>Données COVID-19 Valais 24.07.2020</t>
   </si>
 </sst>
 </file>
@@ -690,23 +687,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O149"/>
+  <dimension ref="A1:O150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="A149" sqref="A149"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="A150" sqref="A150"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="11.453125" style="15"/>
-    <col min="4" max="4" width="10.81640625" style="15"/>
-    <col min="8" max="9" width="16.1796875" customWidth="1"/>
-    <col min="11" max="11" width="14.54296875" customWidth="1"/>
-    <col min="12" max="12" width="13.54296875" customWidth="1"/>
-    <col min="13" max="13" width="15.7265625" style="6" customWidth="1"/>
+    <col min="2" max="3" width="11.42578125" style="15"/>
+    <col min="4" max="4" width="10.85546875" style="15"/>
+    <col min="8" max="9" width="16.140625" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
         <v>13</v>
       </c>
@@ -723,7 +720,7 @@
       <c r="L1" s="36"/>
       <c r="M1" s="37"/>
     </row>
-    <row r="2" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -766,7 +763,7 @@
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43889</v>
       </c>
@@ -811,7 +808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43890</v>
       </c>
@@ -856,7 +853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43891</v>
       </c>
@@ -901,7 +898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43892</v>
       </c>
@@ -946,7 +943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43893</v>
       </c>
@@ -991,7 +988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43894</v>
       </c>
@@ -1036,7 +1033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43895</v>
       </c>
@@ -1081,7 +1078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43896</v>
       </c>
@@ -1126,7 +1123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43897</v>
       </c>
@@ -1171,7 +1168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43898</v>
       </c>
@@ -1216,7 +1213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43899</v>
       </c>
@@ -1261,7 +1258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43900</v>
       </c>
@@ -1306,7 +1303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43901</v>
       </c>
@@ -1351,7 +1348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43902</v>
       </c>
@@ -1396,7 +1393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43903</v>
       </c>
@@ -1441,7 +1438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43904</v>
       </c>
@@ -1486,7 +1483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43905</v>
       </c>
@@ -1531,7 +1528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43906</v>
       </c>
@@ -1576,7 +1573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43907</v>
       </c>
@@ -1621,7 +1618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43908</v>
       </c>
@@ -1666,7 +1663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43909</v>
       </c>
@@ -1711,7 +1708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43910</v>
       </c>
@@ -1756,7 +1753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43911</v>
       </c>
@@ -1801,7 +1798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43912</v>
       </c>
@@ -1846,7 +1843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43913</v>
       </c>
@@ -1891,7 +1888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43914</v>
       </c>
@@ -1936,7 +1933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43915</v>
       </c>
@@ -1981,7 +1978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43916</v>
       </c>
@@ -2026,7 +2023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43917</v>
       </c>
@@ -2071,7 +2068,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43918</v>
       </c>
@@ -2116,7 +2113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43919</v>
       </c>
@@ -2161,7 +2158,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>43920</v>
       </c>
@@ -2206,7 +2203,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>43921</v>
       </c>
@@ -2251,7 +2248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>43922</v>
       </c>
@@ -2296,7 +2293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>43923</v>
       </c>
@@ -2341,7 +2338,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>43924</v>
       </c>
@@ -2386,7 +2383,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>43925</v>
       </c>
@@ -2431,7 +2428,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>43926</v>
       </c>
@@ -2476,7 +2473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>43927</v>
       </c>
@@ -2521,7 +2518,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>43928</v>
       </c>
@@ -2566,7 +2563,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43929</v>
       </c>
@@ -2611,7 +2608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43930</v>
       </c>
@@ -2656,7 +2653,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43931</v>
       </c>
@@ -2701,7 +2698,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43932</v>
       </c>
@@ -2746,7 +2743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>43933</v>
       </c>
@@ -2791,7 +2788,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>43934</v>
       </c>
@@ -2836,7 +2833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>43935</v>
       </c>
@@ -2881,7 +2878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>43936</v>
       </c>
@@ -2926,7 +2923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>43937</v>
       </c>
@@ -2971,7 +2968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>43938</v>
       </c>
@@ -3016,7 +3013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>43939</v>
       </c>
@@ -3061,7 +3058,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>43940</v>
       </c>
@@ -3106,7 +3103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>43941</v>
       </c>
@@ -3151,7 +3148,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>43942</v>
       </c>
@@ -3196,7 +3193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>43943</v>
       </c>
@@ -3241,7 +3238,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>43944</v>
       </c>
@@ -3286,7 +3283,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>43945</v>
       </c>
@@ -3331,7 +3328,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>43946</v>
       </c>
@@ -3376,7 +3373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>43947</v>
       </c>
@@ -3421,7 +3418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>43948</v>
       </c>
@@ -3466,7 +3463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>43949</v>
       </c>
@@ -3511,7 +3508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>43950</v>
       </c>
@@ -3556,7 +3553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>43951</v>
       </c>
@@ -3601,7 +3598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>43952</v>
       </c>
@@ -3646,7 +3643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>43953</v>
       </c>
@@ -3691,7 +3688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>43954</v>
       </c>
@@ -3736,7 +3733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>43955</v>
       </c>
@@ -3781,7 +3778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>43956</v>
       </c>
@@ -3826,7 +3823,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>43957</v>
       </c>
@@ -3871,7 +3868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>43958</v>
       </c>
@@ -3916,7 +3913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>43959</v>
       </c>
@@ -3961,7 +3958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>43960</v>
       </c>
@@ -4006,7 +4003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>43961</v>
       </c>
@@ -4051,7 +4048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>43962</v>
       </c>
@@ -4096,7 +4093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>43963</v>
       </c>
@@ -4141,7 +4138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>43964</v>
       </c>
@@ -4186,7 +4183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>43965</v>
       </c>
@@ -4231,7 +4228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>43966</v>
       </c>
@@ -4276,7 +4273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>43967</v>
       </c>
@@ -4321,7 +4318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>43968</v>
       </c>
@@ -4366,7 +4363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>43969</v>
       </c>
@@ -4411,7 +4408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>43970</v>
       </c>
@@ -4456,7 +4453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>43971</v>
       </c>
@@ -4501,7 +4498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>43972</v>
       </c>
@@ -4546,7 +4543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>43973</v>
       </c>
@@ -4591,7 +4588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>43974</v>
       </c>
@@ -4636,7 +4633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>43975</v>
       </c>
@@ -4681,7 +4678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>43976</v>
       </c>
@@ -4726,7 +4723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>43977</v>
       </c>
@@ -4771,7 +4768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>43978</v>
       </c>
@@ -4816,7 +4813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>43979</v>
       </c>
@@ -4861,7 +4858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>43980</v>
       </c>
@@ -4906,7 +4903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>43981</v>
       </c>
@@ -4951,7 +4948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>43982</v>
       </c>
@@ -4996,7 +4993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>43983</v>
       </c>
@@ -5041,7 +5038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>43984</v>
       </c>
@@ -5086,7 +5083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>43985</v>
       </c>
@@ -5131,7 +5128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>43986</v>
       </c>
@@ -5176,7 +5173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>43987</v>
       </c>
@@ -5221,7 +5218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>43988</v>
       </c>
@@ -5266,7 +5263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>43989</v>
       </c>
@@ -5311,7 +5308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>43990</v>
       </c>
@@ -5356,7 +5353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>43991</v>
       </c>
@@ -5401,7 +5398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>43992</v>
       </c>
@@ -5446,7 +5443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>43993</v>
       </c>
@@ -5491,7 +5488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>43994</v>
       </c>
@@ -5536,7 +5533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>43995</v>
       </c>
@@ -5581,7 +5578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>43996</v>
       </c>
@@ -5626,7 +5623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>43997</v>
       </c>
@@ -5671,7 +5668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>43998</v>
       </c>
@@ -5716,7 +5713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>43999</v>
       </c>
@@ -5761,7 +5758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>44000</v>
       </c>
@@ -5806,7 +5803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>44001</v>
       </c>
@@ -5851,7 +5848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>44002</v>
       </c>
@@ -5896,7 +5893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>44003</v>
       </c>
@@ -5941,7 +5938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>44004</v>
       </c>
@@ -5986,7 +5983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>44005</v>
       </c>
@@ -6031,7 +6028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>44006</v>
       </c>
@@ -6076,7 +6073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>44007</v>
       </c>
@@ -6121,7 +6118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>44008</v>
       </c>
@@ -6166,7 +6163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>44009</v>
       </c>
@@ -6211,7 +6208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>44010</v>
       </c>
@@ -6256,7 +6253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>44011</v>
       </c>
@@ -6301,7 +6298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>44012</v>
       </c>
@@ -6346,7 +6343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>44013</v>
       </c>
@@ -6391,7 +6388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>44014</v>
       </c>
@@ -6436,7 +6433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>44015</v>
       </c>
@@ -6481,7 +6478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>44016</v>
       </c>
@@ -6526,7 +6523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>44017</v>
       </c>
@@ -6571,7 +6568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>44018</v>
       </c>
@@ -6616,7 +6613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>44019</v>
       </c>
@@ -6661,7 +6658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>44020</v>
       </c>
@@ -6706,7 +6703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>44021</v>
       </c>
@@ -6751,7 +6748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>44022</v>
       </c>
@@ -6796,7 +6793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>44023</v>
       </c>
@@ -6841,7 +6838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>44024</v>
       </c>
@@ -6886,7 +6883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>44025</v>
       </c>
@@ -6931,7 +6928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>44026</v>
       </c>
@@ -6976,7 +6973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>44027</v>
       </c>
@@ -7021,7 +7018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>44028</v>
       </c>
@@ -7066,7 +7063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>44029</v>
       </c>
@@ -7111,7 +7108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>44030</v>
       </c>
@@ -7156,7 +7153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>44031</v>
       </c>
@@ -7201,7 +7198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>44032</v>
       </c>
@@ -7246,7 +7243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>44033</v>
       </c>
@@ -7291,16 +7288,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>44034</v>
       </c>
       <c r="B148" s="19">
-        <f t="shared" ref="B148:B149" si="66">B147+C148</f>
-        <v>2113</v>
+        <f t="shared" ref="B148:B150" si="66">B147+C148</f>
+        <v>2115</v>
       </c>
       <c r="C148" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D148" s="13">
         <v>0</v>
@@ -7315,18 +7312,18 @@
         <v>4</v>
       </c>
       <c r="H148" s="17">
-        <f t="shared" ref="H148:H149" si="67">G148+E148</f>
+        <f t="shared" ref="H148:H150" si="67">G148+E148</f>
         <v>6</v>
       </c>
       <c r="I148" s="33">
         <v>0</v>
       </c>
       <c r="J148" s="16">
-        <f t="shared" ref="J148:J149" si="68">J147+K148</f>
+        <f t="shared" ref="J148:J150" si="68">J147+K148</f>
         <v>153</v>
       </c>
       <c r="K148" s="16">
-        <f t="shared" ref="K148:K149" si="69">L148+M148</f>
+        <f t="shared" ref="K148:K150" si="69">L148+M148</f>
         <v>0</v>
       </c>
       <c r="L148" s="26">
@@ -7336,49 +7333,94 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A149" s="2">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
         <v>44035</v>
       </c>
-      <c r="B149" s="20">
+      <c r="B149" s="19">
         <f t="shared" si="66"/>
-        <v>2113</v>
-      </c>
-      <c r="C149" s="14">
-        <v>0</v>
-      </c>
-      <c r="D149" s="14">
-        <v>0</v>
-      </c>
-      <c r="E149" s="30">
-        <v>2</v>
-      </c>
-      <c r="F149" s="31">
-        <v>1</v>
-      </c>
-      <c r="G149" s="25">
+        <v>2117</v>
+      </c>
+      <c r="C149" s="13">
+        <v>2</v>
+      </c>
+      <c r="D149" s="13">
+        <v>0</v>
+      </c>
+      <c r="E149" s="4">
+        <v>2</v>
+      </c>
+      <c r="F149" s="3">
+        <v>1</v>
+      </c>
+      <c r="G149" s="24">
         <v>4</v>
       </c>
-      <c r="H149" s="18">
+      <c r="H149" s="17">
         <f t="shared" si="67"/>
         <v>6</v>
       </c>
-      <c r="I149" s="34">
-        <v>0</v>
-      </c>
-      <c r="J149" s="21">
+      <c r="I149" s="33">
+        <v>0</v>
+      </c>
+      <c r="J149" s="16">
         <f t="shared" si="68"/>
         <v>153</v>
       </c>
-      <c r="K149" s="21">
+      <c r="K149" s="16">
         <f t="shared" si="69"/>
         <v>0</v>
       </c>
-      <c r="L149" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="M149" s="29" t="s">
-        <v>14</v>
+      <c r="L149" s="26">
+        <v>0</v>
+      </c>
+      <c r="M149" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A150" s="2">
+        <v>44036</v>
+      </c>
+      <c r="B150" s="20">
+        <f t="shared" si="66"/>
+        <v>2117</v>
+      </c>
+      <c r="C150" s="14">
+        <v>0</v>
+      </c>
+      <c r="D150" s="14">
+        <v>0</v>
+      </c>
+      <c r="E150" s="30">
+        <v>2</v>
+      </c>
+      <c r="F150" s="31">
+        <v>1</v>
+      </c>
+      <c r="G150" s="25">
+        <v>4</v>
+      </c>
+      <c r="H150" s="18">
+        <f t="shared" si="67"/>
+        <v>6</v>
+      </c>
+      <c r="I150" s="34">
+        <v>0</v>
+      </c>
+      <c r="J150" s="21">
+        <f t="shared" si="68"/>
+        <v>153</v>
+      </c>
+      <c r="K150" s="21">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="L150" s="28">
+        <v>0</v>
+      </c>
+      <c r="M150" s="29">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Chiffres  COVID-19 Valais.xlsx
+++ b/Chiffres  COVID-19 Valais.xlsx
@@ -99,7 +99,7 @@
     <t>Nb de nouvelles sorties</t>
   </si>
   <si>
-    <t>Données COVID-19 Valais 24.07.2020</t>
+    <t>Données COVID-19 Valais 27.07.2020</t>
   </si>
 </sst>
 </file>
@@ -687,23 +687,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O150"/>
+  <dimension ref="A1:O153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="A150" sqref="A150"/>
+    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="A153" sqref="A153"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="3" width="11.42578125" style="15"/>
-    <col min="4" max="4" width="10.85546875" style="15"/>
-    <col min="8" max="9" width="16.140625" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" style="6" customWidth="1"/>
+    <col min="2" max="3" width="11.453125" style="15"/>
+    <col min="4" max="4" width="10.81640625" style="15"/>
+    <col min="8" max="9" width="16.1796875" customWidth="1"/>
+    <col min="11" max="11" width="14.54296875" customWidth="1"/>
+    <col min="12" max="12" width="13.54296875" customWidth="1"/>
+    <col min="13" max="13" width="15.7265625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="35" t="s">
         <v>13</v>
       </c>
@@ -720,7 +720,7 @@
       <c r="L1" s="36"/>
       <c r="M1" s="37"/>
     </row>
-    <row r="2" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -763,7 +763,7 @@
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>43889</v>
       </c>
@@ -808,7 +808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>43890</v>
       </c>
@@ -853,7 +853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>43891</v>
       </c>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>43892</v>
       </c>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>43893</v>
       </c>
@@ -988,7 +988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>43894</v>
       </c>
@@ -1033,7 +1033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>43895</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>43896</v>
       </c>
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>43897</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>43898</v>
       </c>
@@ -1213,7 +1213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>43899</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>43900</v>
       </c>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>43901</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>43902</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>43903</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>43904</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>43905</v>
       </c>
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>43906</v>
       </c>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>43907</v>
       </c>
@@ -1618,7 +1618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>43908</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>43909</v>
       </c>
@@ -1708,7 +1708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>43910</v>
       </c>
@@ -1753,7 +1753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>43911</v>
       </c>
@@ -1798,7 +1798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>43912</v>
       </c>
@@ -1843,7 +1843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>43913</v>
       </c>
@@ -1888,7 +1888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>43914</v>
       </c>
@@ -1933,7 +1933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>43915</v>
       </c>
@@ -1978,7 +1978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>43916</v>
       </c>
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>43917</v>
       </c>
@@ -2068,7 +2068,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>43918</v>
       </c>
@@ -2113,7 +2113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>43919</v>
       </c>
@@ -2158,7 +2158,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>43920</v>
       </c>
@@ -2203,7 +2203,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>43921</v>
       </c>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>43922</v>
       </c>
@@ -2293,7 +2293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>43923</v>
       </c>
@@ -2338,7 +2338,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>43924</v>
       </c>
@@ -2383,7 +2383,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>43925</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>43926</v>
       </c>
@@ -2473,7 +2473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>43927</v>
       </c>
@@ -2518,7 +2518,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>43928</v>
       </c>
@@ -2563,7 +2563,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>43929</v>
       </c>
@@ -2608,7 +2608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>43930</v>
       </c>
@@ -2653,7 +2653,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>43931</v>
       </c>
@@ -2698,7 +2698,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>43932</v>
       </c>
@@ -2743,7 +2743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>43933</v>
       </c>
@@ -2788,7 +2788,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>43934</v>
       </c>
@@ -2833,7 +2833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>43935</v>
       </c>
@@ -2878,7 +2878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>43936</v>
       </c>
@@ -2923,7 +2923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>43937</v>
       </c>
@@ -2968,7 +2968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>43938</v>
       </c>
@@ -3013,7 +3013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>43939</v>
       </c>
@@ -3058,7 +3058,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>43940</v>
       </c>
@@ -3103,7 +3103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>43941</v>
       </c>
@@ -3148,7 +3148,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>43942</v>
       </c>
@@ -3193,7 +3193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>43943</v>
       </c>
@@ -3238,7 +3238,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>43944</v>
       </c>
@@ -3283,7 +3283,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>43945</v>
       </c>
@@ -3328,7 +3328,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>43946</v>
       </c>
@@ -3373,7 +3373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>43947</v>
       </c>
@@ -3418,7 +3418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>43948</v>
       </c>
@@ -3463,7 +3463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>43949</v>
       </c>
@@ -3508,7 +3508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>43950</v>
       </c>
@@ -3553,7 +3553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>43951</v>
       </c>
@@ -3598,7 +3598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>43952</v>
       </c>
@@ -3643,7 +3643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>43953</v>
       </c>
@@ -3688,7 +3688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>43954</v>
       </c>
@@ -3733,7 +3733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>43955</v>
       </c>
@@ -3778,7 +3778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>43956</v>
       </c>
@@ -3823,7 +3823,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>43957</v>
       </c>
@@ -3868,7 +3868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>43958</v>
       </c>
@@ -3913,7 +3913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>43959</v>
       </c>
@@ -3958,7 +3958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>43960</v>
       </c>
@@ -4003,7 +4003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>43961</v>
       </c>
@@ -4048,7 +4048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>43962</v>
       </c>
@@ -4093,7 +4093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>43963</v>
       </c>
@@ -4138,7 +4138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>43964</v>
       </c>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>43965</v>
       </c>
@@ -4228,7 +4228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>43966</v>
       </c>
@@ -4273,7 +4273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>43967</v>
       </c>
@@ -4318,7 +4318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>43968</v>
       </c>
@@ -4363,7 +4363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>43969</v>
       </c>
@@ -4408,7 +4408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>43970</v>
       </c>
@@ -4453,7 +4453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>43971</v>
       </c>
@@ -4498,7 +4498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>43972</v>
       </c>
@@ -4543,7 +4543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>43973</v>
       </c>
@@ -4588,7 +4588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>43974</v>
       </c>
@@ -4633,7 +4633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>43975</v>
       </c>
@@ -4678,7 +4678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>43976</v>
       </c>
@@ -4723,7 +4723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>43977</v>
       </c>
@@ -4768,7 +4768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>43978</v>
       </c>
@@ -4813,7 +4813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>43979</v>
       </c>
@@ -4858,7 +4858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>43980</v>
       </c>
@@ -4903,7 +4903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>43981</v>
       </c>
@@ -4948,7 +4948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>43982</v>
       </c>
@@ -4993,7 +4993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>43983</v>
       </c>
@@ -5038,7 +5038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>43984</v>
       </c>
@@ -5083,7 +5083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>43985</v>
       </c>
@@ -5128,7 +5128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>43986</v>
       </c>
@@ -5173,7 +5173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>43987</v>
       </c>
@@ -5218,7 +5218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>43988</v>
       </c>
@@ -5263,7 +5263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>43989</v>
       </c>
@@ -5308,7 +5308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>43990</v>
       </c>
@@ -5353,7 +5353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>43991</v>
       </c>
@@ -5398,7 +5398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>43992</v>
       </c>
@@ -5443,7 +5443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>43993</v>
       </c>
@@ -5488,7 +5488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>43994</v>
       </c>
@@ -5533,7 +5533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>43995</v>
       </c>
@@ -5578,7 +5578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>43996</v>
       </c>
@@ -5623,7 +5623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>43997</v>
       </c>
@@ -5668,7 +5668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>43998</v>
       </c>
@@ -5713,7 +5713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>43999</v>
       </c>
@@ -5758,7 +5758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>44000</v>
       </c>
@@ -5803,7 +5803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>44001</v>
       </c>
@@ -5848,7 +5848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>44002</v>
       </c>
@@ -5893,7 +5893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>44003</v>
       </c>
@@ -5938,7 +5938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>44004</v>
       </c>
@@ -5983,7 +5983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>44005</v>
       </c>
@@ -6028,7 +6028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>44006</v>
       </c>
@@ -6073,7 +6073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>44007</v>
       </c>
@@ -6118,7 +6118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>44008</v>
       </c>
@@ -6163,7 +6163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>44009</v>
       </c>
@@ -6208,7 +6208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>44010</v>
       </c>
@@ -6253,7 +6253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>44011</v>
       </c>
@@ -6298,7 +6298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>44012</v>
       </c>
@@ -6343,7 +6343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>44013</v>
       </c>
@@ -6388,7 +6388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>44014</v>
       </c>
@@ -6433,7 +6433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>44015</v>
       </c>
@@ -6478,7 +6478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>44016</v>
       </c>
@@ -6523,7 +6523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>44017</v>
       </c>
@@ -6568,7 +6568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>44018</v>
       </c>
@@ -6613,7 +6613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>44019</v>
       </c>
@@ -6658,7 +6658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>44020</v>
       </c>
@@ -6703,7 +6703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>44021</v>
       </c>
@@ -6748,7 +6748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>44022</v>
       </c>
@@ -6793,7 +6793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>44023</v>
       </c>
@@ -6838,7 +6838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>44024</v>
       </c>
@@ -6883,7 +6883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>44025</v>
       </c>
@@ -6928,7 +6928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>44026</v>
       </c>
@@ -6973,7 +6973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>44027</v>
       </c>
@@ -7018,7 +7018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>44028</v>
       </c>
@@ -7063,7 +7063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>44029</v>
       </c>
@@ -7108,7 +7108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>44030</v>
       </c>
@@ -7153,7 +7153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>44031</v>
       </c>
@@ -7198,7 +7198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>44032</v>
       </c>
@@ -7243,7 +7243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>44033</v>
       </c>
@@ -7288,12 +7288,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>44034</v>
       </c>
       <c r="B148" s="19">
-        <f t="shared" ref="B148:B150" si="66">B147+C148</f>
+        <f t="shared" ref="B148" si="66">B147+C148</f>
         <v>2115</v>
       </c>
       <c r="C148" s="13">
@@ -7312,18 +7312,18 @@
         <v>4</v>
       </c>
       <c r="H148" s="17">
-        <f t="shared" ref="H148:H150" si="67">G148+E148</f>
+        <f t="shared" ref="H148" si="67">G148+E148</f>
         <v>6</v>
       </c>
       <c r="I148" s="33">
         <v>0</v>
       </c>
       <c r="J148" s="16">
-        <f t="shared" ref="J148:J150" si="68">J147+K148</f>
+        <f t="shared" ref="J148" si="68">J147+K148</f>
         <v>153</v>
       </c>
       <c r="K148" s="16">
-        <f t="shared" ref="K148:K150" si="69">L148+M148</f>
+        <f t="shared" ref="K148" si="69">L148+M148</f>
         <v>0</v>
       </c>
       <c r="L148" s="26">
@@ -7333,12 +7333,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>44035</v>
       </c>
       <c r="B149" s="19">
-        <f t="shared" si="66"/>
+        <f t="shared" ref="B149:B153" si="70">B148+C149</f>
         <v>2117</v>
       </c>
       <c r="C149" s="13">
@@ -7357,18 +7357,18 @@
         <v>4</v>
       </c>
       <c r="H149" s="17">
-        <f t="shared" si="67"/>
+        <f t="shared" ref="H149:H153" si="71">G149+E149</f>
         <v>6</v>
       </c>
       <c r="I149" s="33">
         <v>0</v>
       </c>
       <c r="J149" s="16">
-        <f t="shared" si="68"/>
+        <f t="shared" ref="J149:J153" si="72">J148+K149</f>
         <v>153</v>
       </c>
       <c r="K149" s="16">
-        <f t="shared" si="69"/>
+        <f t="shared" ref="K149:K153" si="73">L149+M149</f>
         <v>0</v>
       </c>
       <c r="L149" s="26">
@@ -7378,48 +7378,183 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A150" s="2">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A150" s="1">
         <v>44036</v>
       </c>
-      <c r="B150" s="20">
-        <f t="shared" si="66"/>
-        <v>2117</v>
-      </c>
-      <c r="C150" s="14">
-        <v>0</v>
-      </c>
-      <c r="D150" s="14">
-        <v>0</v>
-      </c>
-      <c r="E150" s="30">
-        <v>2</v>
-      </c>
-      <c r="F150" s="31">
-        <v>1</v>
-      </c>
-      <c r="G150" s="25">
+      <c r="B150" s="19">
+        <f t="shared" si="70"/>
+        <v>2119</v>
+      </c>
+      <c r="C150" s="13">
+        <v>2</v>
+      </c>
+      <c r="D150" s="13">
+        <v>1</v>
+      </c>
+      <c r="E150" s="4">
+        <v>2</v>
+      </c>
+      <c r="F150" s="3">
+        <v>1</v>
+      </c>
+      <c r="G150" s="24">
+        <v>5</v>
+      </c>
+      <c r="H150" s="17">
+        <f t="shared" si="71"/>
+        <v>7</v>
+      </c>
+      <c r="I150" s="33">
+        <v>0</v>
+      </c>
+      <c r="J150" s="16">
+        <f t="shared" si="72"/>
+        <v>153</v>
+      </c>
+      <c r="K150" s="16">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="L150" s="26">
+        <v>0</v>
+      </c>
+      <c r="M150" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A151" s="1">
+        <v>44037</v>
+      </c>
+      <c r="B151" s="19">
+        <f t="shared" si="70"/>
+        <v>2119</v>
+      </c>
+      <c r="C151" s="13">
+        <v>0</v>
+      </c>
+      <c r="D151" s="13">
+        <v>0</v>
+      </c>
+      <c r="E151" s="4">
+        <v>2</v>
+      </c>
+      <c r="F151" s="3">
+        <v>1</v>
+      </c>
+      <c r="G151" s="24">
         <v>4</v>
       </c>
-      <c r="H150" s="18">
-        <f t="shared" si="67"/>
+      <c r="H151" s="17">
+        <f t="shared" si="71"/>
         <v>6</v>
       </c>
-      <c r="I150" s="34">
-        <v>0</v>
-      </c>
-      <c r="J150" s="21">
-        <f t="shared" si="68"/>
+      <c r="I151" s="33">
+        <v>1</v>
+      </c>
+      <c r="J151" s="16">
+        <f t="shared" si="72"/>
         <v>153</v>
       </c>
-      <c r="K150" s="21">
-        <f t="shared" si="69"/>
-        <v>0</v>
-      </c>
-      <c r="L150" s="28">
-        <v>0</v>
-      </c>
-      <c r="M150" s="29">
+      <c r="K151" s="16">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="L151" s="26">
+        <v>0</v>
+      </c>
+      <c r="M151" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A152" s="1">
+        <v>44038</v>
+      </c>
+      <c r="B152" s="19">
+        <f t="shared" si="70"/>
+        <v>2119</v>
+      </c>
+      <c r="C152" s="13">
+        <v>0</v>
+      </c>
+      <c r="D152" s="13">
+        <v>0</v>
+      </c>
+      <c r="E152" s="4">
+        <v>2</v>
+      </c>
+      <c r="F152" s="3">
+        <v>1</v>
+      </c>
+      <c r="G152" s="24">
+        <v>4</v>
+      </c>
+      <c r="H152" s="17">
+        <f t="shared" si="71"/>
+        <v>6</v>
+      </c>
+      <c r="I152" s="33">
+        <v>0</v>
+      </c>
+      <c r="J152" s="16">
+        <f t="shared" si="72"/>
+        <v>153</v>
+      </c>
+      <c r="K152" s="16">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="L152" s="26">
+        <v>0</v>
+      </c>
+      <c r="M152" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A153" s="2">
+        <v>44039</v>
+      </c>
+      <c r="B153" s="20">
+        <f t="shared" si="70"/>
+        <v>2120</v>
+      </c>
+      <c r="C153" s="14">
+        <v>1</v>
+      </c>
+      <c r="D153" s="14">
+        <v>0</v>
+      </c>
+      <c r="E153" s="30">
+        <v>2</v>
+      </c>
+      <c r="F153" s="31">
+        <v>1</v>
+      </c>
+      <c r="G153" s="25">
+        <v>4</v>
+      </c>
+      <c r="H153" s="18">
+        <f t="shared" si="71"/>
+        <v>6</v>
+      </c>
+      <c r="I153" s="34">
+        <v>0</v>
+      </c>
+      <c r="J153" s="21">
+        <f t="shared" si="72"/>
+        <v>153</v>
+      </c>
+      <c r="K153" s="21">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="L153" s="28">
+        <v>0</v>
+      </c>
+      <c r="M153" s="29">
         <v>0</v>
       </c>
     </row>

--- a/Chiffres  COVID-19 Valais.xlsx
+++ b/Chiffres  COVID-19 Valais.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Jidfs\users\B105PLS\Documents\COVID-Monitoring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LARVEN\Work Folders\Desktop\SSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -406,7 +406,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -422,7 +422,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -689,8 +689,8 @@
   </sheetPr>
   <dimension ref="A1:O153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="A153" sqref="A153"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Chiffres  COVID-19 Valais.xlsx
+++ b/Chiffres  COVID-19 Valais.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LARVEN\Work Folders\Desktop\SSP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Jidfs\users\B105PLS\Documents\COVID-Monitoring\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -99,7 +99,10 @@
     <t>Nb de nouvelles sorties</t>
   </si>
   <si>
-    <t>Données COVID-19 Valais 27.07.2020</t>
+    <t>Données COVID-19 Valais 28.07.2020</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -406,7 +409,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -422,7 +425,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -687,10 +690,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O153"/>
+  <dimension ref="A1:O154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection sqref="A1:M1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7338,7 +7344,7 @@
         <v>44035</v>
       </c>
       <c r="B149" s="19">
-        <f t="shared" ref="B149:B153" si="70">B148+C149</f>
+        <f t="shared" ref="B149:B152" si="70">B148+C149</f>
         <v>2117</v>
       </c>
       <c r="C149" s="13">
@@ -7357,18 +7363,18 @@
         <v>4</v>
       </c>
       <c r="H149" s="17">
-        <f t="shared" ref="H149:H153" si="71">G149+E149</f>
+        <f t="shared" ref="H149:H152" si="71">G149+E149</f>
         <v>6</v>
       </c>
       <c r="I149" s="33">
         <v>0</v>
       </c>
       <c r="J149" s="16">
-        <f t="shared" ref="J149:J153" si="72">J148+K149</f>
+        <f t="shared" ref="J149:J152" si="72">J148+K149</f>
         <v>153</v>
       </c>
       <c r="K149" s="16">
-        <f t="shared" ref="K149:K153" si="73">L149+M149</f>
+        <f t="shared" ref="K149:K152" si="73">L149+M149</f>
         <v>0</v>
       </c>
       <c r="L149" s="26">
@@ -7514,48 +7520,93 @@
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A153" s="2">
+      <c r="A153" s="1">
         <v>44039</v>
       </c>
-      <c r="B153" s="20">
-        <f t="shared" si="70"/>
-        <v>2120</v>
-      </c>
-      <c r="C153" s="14">
-        <v>1</v>
-      </c>
-      <c r="D153" s="14">
-        <v>0</v>
-      </c>
-      <c r="E153" s="30">
-        <v>2</v>
-      </c>
-      <c r="F153" s="31">
-        <v>1</v>
-      </c>
-      <c r="G153" s="25">
+      <c r="B153" s="19">
+        <f t="shared" ref="B153:B154" si="74">B152+C153</f>
+        <v>2122</v>
+      </c>
+      <c r="C153" s="13">
+        <v>3</v>
+      </c>
+      <c r="D153" s="13">
+        <v>0</v>
+      </c>
+      <c r="E153" s="4">
+        <v>2</v>
+      </c>
+      <c r="F153" s="3">
+        <v>1</v>
+      </c>
+      <c r="G153" s="24">
         <v>4</v>
       </c>
-      <c r="H153" s="18">
-        <f t="shared" si="71"/>
+      <c r="H153" s="17">
+        <f t="shared" ref="H153:H154" si="75">G153+E153</f>
         <v>6</v>
       </c>
-      <c r="I153" s="34">
-        <v>0</v>
-      </c>
-      <c r="J153" s="21">
-        <f t="shared" si="72"/>
+      <c r="I153" s="33">
+        <v>0</v>
+      </c>
+      <c r="J153" s="16">
+        <f t="shared" ref="J153:J154" si="76">J152+K153</f>
         <v>153</v>
       </c>
-      <c r="K153" s="21">
-        <f t="shared" si="73"/>
-        <v>0</v>
-      </c>
-      <c r="L153" s="28">
-        <v>0</v>
-      </c>
-      <c r="M153" s="29">
-        <v>0</v>
+      <c r="K153" s="16">
+        <f t="shared" ref="K153:K154" si="77">L153+M153</f>
+        <v>0</v>
+      </c>
+      <c r="L153" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="M153" s="27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A154" s="2">
+        <v>44040</v>
+      </c>
+      <c r="B154" s="20">
+        <f t="shared" si="74"/>
+        <v>2122</v>
+      </c>
+      <c r="C154" s="14">
+        <v>0</v>
+      </c>
+      <c r="D154" s="14">
+        <v>0</v>
+      </c>
+      <c r="E154" s="30">
+        <v>2</v>
+      </c>
+      <c r="F154" s="31">
+        <v>1</v>
+      </c>
+      <c r="G154" s="25">
+        <v>4</v>
+      </c>
+      <c r="H154" s="18">
+        <f t="shared" si="75"/>
+        <v>6</v>
+      </c>
+      <c r="I154" s="34">
+        <v>0</v>
+      </c>
+      <c r="J154" s="21">
+        <f t="shared" si="76"/>
+        <v>153</v>
+      </c>
+      <c r="K154" s="21">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="L154" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="M154" s="29" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Chiffres  COVID-19 Valais.xlsx
+++ b/Chiffres  COVID-19 Valais.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -99,16 +99,19 @@
     <t>Nb de nouvelles sorties</t>
   </si>
   <si>
-    <t>Données COVID-19 Valais 28.07.2020</t>
+    <t>0</t>
   </si>
   <si>
-    <t>0</t>
+    <t>Données COVID-19 Valais 29.07.2020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0;\-0;"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -296,7 +299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -396,6 +399,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -690,7 +699,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O154"/>
+  <dimension ref="A1:O155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
@@ -699,34 +708,34 @@
       <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="11.453125" style="15"/>
-    <col min="4" max="4" width="10.81640625" style="15"/>
-    <col min="8" max="9" width="16.1796875" customWidth="1"/>
-    <col min="11" max="11" width="14.54296875" customWidth="1"/>
-    <col min="12" max="12" width="13.54296875" customWidth="1"/>
-    <col min="13" max="13" width="15.7265625" style="6" customWidth="1"/>
+    <col min="2" max="3" width="11.42578125" style="15"/>
+    <col min="4" max="4" width="10.85546875" style="15"/>
+    <col min="8" max="9" width="16.140625" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="37"/>
-    </row>
-    <row r="2" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="39"/>
+    </row>
+    <row r="2" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -769,7 +778,7 @@
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43889</v>
       </c>
@@ -814,7 +823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43890</v>
       </c>
@@ -859,7 +868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43891</v>
       </c>
@@ -904,7 +913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43892</v>
       </c>
@@ -949,7 +958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43893</v>
       </c>
@@ -994,7 +1003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43894</v>
       </c>
@@ -1039,7 +1048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43895</v>
       </c>
@@ -1084,7 +1093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43896</v>
       </c>
@@ -1129,7 +1138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43897</v>
       </c>
@@ -1174,7 +1183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43898</v>
       </c>
@@ -1219,7 +1228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43899</v>
       </c>
@@ -1264,7 +1273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43900</v>
       </c>
@@ -1309,7 +1318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43901</v>
       </c>
@@ -1354,7 +1363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43902</v>
       </c>
@@ -1399,7 +1408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43903</v>
       </c>
@@ -1444,7 +1453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43904</v>
       </c>
@@ -1489,7 +1498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43905</v>
       </c>
@@ -1534,7 +1543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43906</v>
       </c>
@@ -1579,7 +1588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43907</v>
       </c>
@@ -1624,7 +1633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43908</v>
       </c>
@@ -1669,7 +1678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43909</v>
       </c>
@@ -1714,7 +1723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43910</v>
       </c>
@@ -1759,7 +1768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43911</v>
       </c>
@@ -1804,7 +1813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43912</v>
       </c>
@@ -1849,7 +1858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43913</v>
       </c>
@@ -1894,7 +1903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43914</v>
       </c>
@@ -1939,7 +1948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43915</v>
       </c>
@@ -1984,7 +1993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43916</v>
       </c>
@@ -2029,7 +2038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43917</v>
       </c>
@@ -2074,7 +2083,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43918</v>
       </c>
@@ -2119,7 +2128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43919</v>
       </c>
@@ -2164,7 +2173,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>43920</v>
       </c>
@@ -2209,7 +2218,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>43921</v>
       </c>
@@ -2254,7 +2263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>43922</v>
       </c>
@@ -2299,7 +2308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>43923</v>
       </c>
@@ -2344,7 +2353,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>43924</v>
       </c>
@@ -2389,7 +2398,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>43925</v>
       </c>
@@ -2434,7 +2443,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>43926</v>
       </c>
@@ -2479,7 +2488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>43927</v>
       </c>
@@ -2524,7 +2533,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>43928</v>
       </c>
@@ -2569,7 +2578,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43929</v>
       </c>
@@ -2614,7 +2623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43930</v>
       </c>
@@ -2659,7 +2668,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43931</v>
       </c>
@@ -2704,7 +2713,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43932</v>
       </c>
@@ -2749,7 +2758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>43933</v>
       </c>
@@ -2794,7 +2803,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>43934</v>
       </c>
@@ -2839,7 +2848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>43935</v>
       </c>
@@ -2884,7 +2893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>43936</v>
       </c>
@@ -2929,7 +2938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>43937</v>
       </c>
@@ -2974,7 +2983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>43938</v>
       </c>
@@ -3019,7 +3028,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>43939</v>
       </c>
@@ -3064,7 +3073,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>43940</v>
       </c>
@@ -3109,7 +3118,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>43941</v>
       </c>
@@ -3154,7 +3163,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>43942</v>
       </c>
@@ -3199,7 +3208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>43943</v>
       </c>
@@ -3244,7 +3253,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>43944</v>
       </c>
@@ -3289,7 +3298,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>43945</v>
       </c>
@@ -3334,7 +3343,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>43946</v>
       </c>
@@ -3379,7 +3388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>43947</v>
       </c>
@@ -3424,7 +3433,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>43948</v>
       </c>
@@ -3469,7 +3478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>43949</v>
       </c>
@@ -3514,7 +3523,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>43950</v>
       </c>
@@ -3559,7 +3568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>43951</v>
       </c>
@@ -3604,7 +3613,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>43952</v>
       </c>
@@ -3649,7 +3658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>43953</v>
       </c>
@@ -3694,7 +3703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>43954</v>
       </c>
@@ -3739,7 +3748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>43955</v>
       </c>
@@ -3784,7 +3793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>43956</v>
       </c>
@@ -3829,7 +3838,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>43957</v>
       </c>
@@ -3874,7 +3883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>43958</v>
       </c>
@@ -3919,7 +3928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>43959</v>
       </c>
@@ -3964,7 +3973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>43960</v>
       </c>
@@ -4009,7 +4018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>43961</v>
       </c>
@@ -4054,7 +4063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>43962</v>
       </c>
@@ -4099,7 +4108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>43963</v>
       </c>
@@ -4144,7 +4153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>43964</v>
       </c>
@@ -4189,7 +4198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>43965</v>
       </c>
@@ -4234,7 +4243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>43966</v>
       </c>
@@ -4279,7 +4288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>43967</v>
       </c>
@@ -4324,7 +4333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>43968</v>
       </c>
@@ -4369,7 +4378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>43969</v>
       </c>
@@ -4414,7 +4423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>43970</v>
       </c>
@@ -4459,7 +4468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>43971</v>
       </c>
@@ -4504,7 +4513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>43972</v>
       </c>
@@ -4549,7 +4558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>43973</v>
       </c>
@@ -4594,7 +4603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>43974</v>
       </c>
@@ -4639,7 +4648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>43975</v>
       </c>
@@ -4684,7 +4693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>43976</v>
       </c>
@@ -4729,7 +4738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>43977</v>
       </c>
@@ -4774,7 +4783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>43978</v>
       </c>
@@ -4819,7 +4828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>43979</v>
       </c>
@@ -4864,7 +4873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>43980</v>
       </c>
@@ -4909,7 +4918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>43981</v>
       </c>
@@ -4954,7 +4963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>43982</v>
       </c>
@@ -4999,7 +5008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>43983</v>
       </c>
@@ -5044,7 +5053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>43984</v>
       </c>
@@ -5089,7 +5098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>43985</v>
       </c>
@@ -5134,7 +5143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>43986</v>
       </c>
@@ -5179,7 +5188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>43987</v>
       </c>
@@ -5224,7 +5233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>43988</v>
       </c>
@@ -5269,7 +5278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>43989</v>
       </c>
@@ -5314,7 +5323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>43990</v>
       </c>
@@ -5359,7 +5368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>43991</v>
       </c>
@@ -5404,7 +5413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>43992</v>
       </c>
@@ -5449,7 +5458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>43993</v>
       </c>
@@ -5494,7 +5503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>43994</v>
       </c>
@@ -5539,7 +5548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>43995</v>
       </c>
@@ -5584,7 +5593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>43996</v>
       </c>
@@ -5629,7 +5638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>43997</v>
       </c>
@@ -5674,7 +5683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>43998</v>
       </c>
@@ -5719,7 +5728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>43999</v>
       </c>
@@ -5764,7 +5773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>44000</v>
       </c>
@@ -5809,7 +5818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>44001</v>
       </c>
@@ -5854,7 +5863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>44002</v>
       </c>
@@ -5899,7 +5908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>44003</v>
       </c>
@@ -5944,7 +5953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>44004</v>
       </c>
@@ -5989,7 +5998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>44005</v>
       </c>
@@ -6034,7 +6043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>44006</v>
       </c>
@@ -6079,7 +6088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>44007</v>
       </c>
@@ -6124,7 +6133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>44008</v>
       </c>
@@ -6169,7 +6178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>44009</v>
       </c>
@@ -6214,7 +6223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>44010</v>
       </c>
@@ -6259,7 +6268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>44011</v>
       </c>
@@ -6304,7 +6313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>44012</v>
       </c>
@@ -6349,7 +6358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>44013</v>
       </c>
@@ -6394,7 +6403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>44014</v>
       </c>
@@ -6439,7 +6448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>44015</v>
       </c>
@@ -6484,7 +6493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>44016</v>
       </c>
@@ -6529,7 +6538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>44017</v>
       </c>
@@ -6574,7 +6583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>44018</v>
       </c>
@@ -6619,7 +6628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>44019</v>
       </c>
@@ -6664,7 +6673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>44020</v>
       </c>
@@ -6709,7 +6718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>44021</v>
       </c>
@@ -6754,7 +6763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>44022</v>
       </c>
@@ -6799,7 +6808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>44023</v>
       </c>
@@ -6844,7 +6853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>44024</v>
       </c>
@@ -6889,7 +6898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>44025</v>
       </c>
@@ -6934,7 +6943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>44026</v>
       </c>
@@ -6979,7 +6988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>44027</v>
       </c>
@@ -7024,7 +7033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>44028</v>
       </c>
@@ -7069,7 +7078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>44029</v>
       </c>
@@ -7114,16 +7123,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>44030</v>
       </c>
       <c r="B144" s="19">
         <f t="shared" si="54"/>
-        <v>2106</v>
-      </c>
-      <c r="C144" s="13">
-        <v>1</v>
+        <v>2105</v>
+      </c>
+      <c r="C144" s="35">
+        <v>0</v>
       </c>
       <c r="D144" s="13">
         <v>0</v>
@@ -7159,15 +7168,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>44031</v>
       </c>
       <c r="B145" s="19">
         <f t="shared" si="54"/>
-        <v>2107</v>
-      </c>
-      <c r="C145" s="13">
+        <v>2106</v>
+      </c>
+      <c r="C145" s="35">
         <v>1</v>
       </c>
       <c r="D145" s="13">
@@ -7204,15 +7213,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>44032</v>
       </c>
       <c r="B146" s="19">
         <f t="shared" ref="B146" si="58">B145+C146</f>
-        <v>2110</v>
-      </c>
-      <c r="C146" s="13">
+        <v>2109</v>
+      </c>
+      <c r="C146" s="35">
         <v>3</v>
       </c>
       <c r="D146" s="13">
@@ -7249,15 +7258,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>44033</v>
       </c>
       <c r="B147" s="19">
         <f t="shared" ref="B147" si="62">B146+C147</f>
-        <v>2112</v>
-      </c>
-      <c r="C147" s="13">
+        <v>2111</v>
+      </c>
+      <c r="C147" s="35">
         <v>2</v>
       </c>
       <c r="D147" s="13">
@@ -7294,15 +7303,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>44034</v>
       </c>
       <c r="B148" s="19">
         <f t="shared" ref="B148" si="66">B147+C148</f>
-        <v>2115</v>
-      </c>
-      <c r="C148" s="13">
+        <v>2114</v>
+      </c>
+      <c r="C148" s="35">
         <v>3</v>
       </c>
       <c r="D148" s="13">
@@ -7339,15 +7348,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>44035</v>
       </c>
       <c r="B149" s="19">
         <f t="shared" ref="B149:B152" si="70">B148+C149</f>
-        <v>2117</v>
-      </c>
-      <c r="C149" s="13">
+        <v>2116</v>
+      </c>
+      <c r="C149" s="35">
         <v>2</v>
       </c>
       <c r="D149" s="13">
@@ -7384,7 +7393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>44036</v>
       </c>
@@ -7392,8 +7401,8 @@
         <f t="shared" si="70"/>
         <v>2119</v>
       </c>
-      <c r="C150" s="13">
-        <v>2</v>
+      <c r="C150" s="35">
+        <v>3</v>
       </c>
       <c r="D150" s="13">
         <v>1</v>
@@ -7429,7 +7438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>44037</v>
       </c>
@@ -7437,7 +7446,7 @@
         <f t="shared" si="70"/>
         <v>2119</v>
       </c>
-      <c r="C151" s="13">
+      <c r="C151" s="35">
         <v>0</v>
       </c>
       <c r="D151" s="13">
@@ -7474,7 +7483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>44038</v>
       </c>
@@ -7482,7 +7491,7 @@
         <f t="shared" si="70"/>
         <v>2119</v>
       </c>
-      <c r="C152" s="13">
+      <c r="C152" s="35">
         <v>0</v>
       </c>
       <c r="D152" s="13">
@@ -7519,15 +7528,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>44039</v>
       </c>
       <c r="B153" s="19">
-        <f t="shared" ref="B153:B154" si="74">B152+C153</f>
+        <f t="shared" ref="B153" si="74">B152+C153</f>
         <v>2122</v>
       </c>
-      <c r="C153" s="13">
+      <c r="C153" s="35">
         <v>3</v>
       </c>
       <c r="D153" s="13">
@@ -7543,70 +7552,115 @@
         <v>4</v>
       </c>
       <c r="H153" s="17">
-        <f t="shared" ref="H153:H154" si="75">G153+E153</f>
+        <f t="shared" ref="H153" si="75">G153+E153</f>
         <v>6</v>
       </c>
       <c r="I153" s="33">
         <v>0</v>
       </c>
       <c r="J153" s="16">
-        <f t="shared" ref="J153:J154" si="76">J152+K153</f>
+        <f t="shared" ref="J153" si="76">J152+K153</f>
         <v>153</v>
       </c>
       <c r="K153" s="16">
-        <f t="shared" ref="K153:K154" si="77">L153+M153</f>
+        <f t="shared" ref="K153" si="77">L153+M153</f>
         <v>0</v>
       </c>
       <c r="L153" s="26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M153" s="27" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A154" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
         <v>44040</v>
       </c>
-      <c r="B154" s="20">
-        <f t="shared" si="74"/>
-        <v>2122</v>
-      </c>
-      <c r="C154" s="14">
-        <v>0</v>
-      </c>
-      <c r="D154" s="14">
-        <v>0</v>
-      </c>
-      <c r="E154" s="30">
-        <v>2</v>
-      </c>
-      <c r="F154" s="31">
-        <v>1</v>
-      </c>
-      <c r="G154" s="25">
+      <c r="B154" s="19">
+        <f t="shared" ref="B154:B155" si="78">B153+C154</f>
+        <v>2126</v>
+      </c>
+      <c r="C154" s="35">
         <v>4</v>
       </c>
-      <c r="H154" s="18">
-        <f t="shared" si="75"/>
+      <c r="D154" s="13">
+        <v>0</v>
+      </c>
+      <c r="E154" s="4">
+        <v>2</v>
+      </c>
+      <c r="F154" s="3">
+        <v>1</v>
+      </c>
+      <c r="G154" s="24">
+        <v>4</v>
+      </c>
+      <c r="H154" s="17">
+        <f t="shared" ref="H154:H155" si="79">G154+E154</f>
         <v>6</v>
       </c>
-      <c r="I154" s="34">
-        <v>0</v>
-      </c>
-      <c r="J154" s="21">
-        <f t="shared" si="76"/>
+      <c r="I154" s="33">
+        <v>0</v>
+      </c>
+      <c r="J154" s="16">
+        <f t="shared" ref="J154:J155" si="80">J153+K154</f>
         <v>153</v>
       </c>
-      <c r="K154" s="21">
-        <f t="shared" si="77"/>
-        <v>0</v>
-      </c>
-      <c r="L154" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="M154" s="29" t="s">
-        <v>14</v>
+      <c r="K154" s="16">
+        <f t="shared" ref="K154:K155" si="81">L154+M154</f>
+        <v>0</v>
+      </c>
+      <c r="L154" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="M154" s="27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A155" s="2">
+        <v>44041</v>
+      </c>
+      <c r="B155" s="20">
+        <f t="shared" si="78"/>
+        <v>2127</v>
+      </c>
+      <c r="C155" s="36">
+        <v>1</v>
+      </c>
+      <c r="D155" s="14">
+        <v>0</v>
+      </c>
+      <c r="E155" s="30">
+        <v>2</v>
+      </c>
+      <c r="F155" s="31">
+        <v>1</v>
+      </c>
+      <c r="G155" s="25">
+        <v>4</v>
+      </c>
+      <c r="H155" s="18">
+        <f t="shared" si="79"/>
+        <v>6</v>
+      </c>
+      <c r="I155" s="34">
+        <v>0</v>
+      </c>
+      <c r="J155" s="21">
+        <f t="shared" si="80"/>
+        <v>153</v>
+      </c>
+      <c r="K155" s="21">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="L155" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="M155" s="29" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Chiffres  COVID-19 Valais.xlsx
+++ b/Chiffres  COVID-19 Valais.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -102,16 +102,13 @@
     <t>0</t>
   </si>
   <si>
-    <t>Données COVID-19 Valais 29.07.2020</t>
+    <t>Données COVID-19 Valais 30.07.2020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0;\-0;"/>
-  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -299,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -401,12 +398,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -699,18 +703,19 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O155"/>
+  <dimension ref="A1:O156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B128" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="B156" sqref="B156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="11.42578125" style="15"/>
+    <col min="2" max="2" width="11.42578125" style="15"/>
+    <col min="3" max="3" width="11.42578125" style="39"/>
     <col min="4" max="4" width="10.85546875" style="15"/>
     <col min="8" max="9" width="16.140625" customWidth="1"/>
     <col min="11" max="11" width="14.5703125" customWidth="1"/>
@@ -719,21 +724,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="39"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="42"/>
     </row>
     <row r="2" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -742,7 +747,7 @@
       <c r="B2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="35" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="22" t="s">
@@ -786,7 +791,7 @@
         <f>C3</f>
         <v>1</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="36">
         <v>1</v>
       </c>
       <c r="D3" s="13">
@@ -831,7 +836,7 @@
         <f t="shared" ref="B4:B16" si="1">B3+C4</f>
         <v>1</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="36">
         <v>0</v>
       </c>
       <c r="D4" s="13">
@@ -876,7 +881,7 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="36">
         <v>1</v>
       </c>
       <c r="D5" s="13">
@@ -921,7 +926,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="36">
         <v>1</v>
       </c>
       <c r="D6" s="13">
@@ -966,7 +971,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="36">
         <v>0</v>
       </c>
       <c r="D7" s="13">
@@ -1011,7 +1016,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="36">
         <v>1</v>
       </c>
       <c r="D8" s="13">
@@ -1056,7 +1061,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="36">
         <v>1</v>
       </c>
       <c r="D9" s="13">
@@ -1101,7 +1106,7 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="36">
         <v>1</v>
       </c>
       <c r="D10" s="13">
@@ -1146,7 +1151,7 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="36">
         <v>1</v>
       </c>
       <c r="D11" s="13">
@@ -1191,7 +1196,7 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="36">
         <v>5</v>
       </c>
       <c r="D12" s="13">
@@ -1236,7 +1241,7 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="36">
         <v>5</v>
       </c>
       <c r="D13" s="13">
@@ -1281,7 +1286,7 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="36">
         <v>5</v>
       </c>
       <c r="D14" s="13">
@@ -1326,7 +1331,7 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="36">
         <v>8</v>
       </c>
       <c r="D15" s="13">
@@ -1371,7 +1376,7 @@
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="36">
         <v>23</v>
       </c>
       <c r="D16" s="13">
@@ -1416,7 +1421,7 @@
         <f t="shared" ref="B17" si="4">B16+C17</f>
         <v>76</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="36">
         <v>23</v>
       </c>
       <c r="D17" s="13">
@@ -1461,7 +1466,7 @@
         <f t="shared" ref="B18:B22" si="7">B17+C18</f>
         <v>98</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="36">
         <v>22</v>
       </c>
       <c r="D18" s="13">
@@ -1506,7 +1511,7 @@
         <f t="shared" si="7"/>
         <v>115</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="36">
         <v>17</v>
       </c>
       <c r="D19" s="13">
@@ -1551,7 +1556,7 @@
         <f t="shared" si="7"/>
         <v>172</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="36">
         <v>57</v>
       </c>
       <c r="D20" s="13">
@@ -1596,7 +1601,7 @@
         <f t="shared" si="7"/>
         <v>225</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="36">
         <v>53</v>
       </c>
       <c r="D21" s="13">
@@ -1641,7 +1646,7 @@
         <f t="shared" si="7"/>
         <v>312</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22" s="36">
         <v>87</v>
       </c>
       <c r="D22" s="13">
@@ -1686,7 +1691,7 @@
         <f t="shared" ref="B23:B66" si="10">B22+C23</f>
         <v>349</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="36">
         <v>37</v>
       </c>
       <c r="D23" s="13">
@@ -1731,7 +1736,7 @@
         <f t="shared" si="10"/>
         <v>436</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C24" s="36">
         <v>87</v>
       </c>
       <c r="D24" s="13">
@@ -1776,7 +1781,7 @@
         <f t="shared" si="10"/>
         <v>498</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C25" s="36">
         <v>62</v>
       </c>
       <c r="D25" s="13">
@@ -1821,7 +1826,7 @@
         <f t="shared" si="10"/>
         <v>535</v>
       </c>
-      <c r="C26" s="13">
+      <c r="C26" s="36">
         <v>37</v>
       </c>
       <c r="D26" s="13">
@@ -1866,7 +1871,7 @@
         <f t="shared" si="10"/>
         <v>628</v>
       </c>
-      <c r="C27" s="13">
+      <c r="C27" s="36">
         <v>93</v>
       </c>
       <c r="D27" s="13">
@@ -1911,7 +1916,7 @@
         <f t="shared" si="10"/>
         <v>728</v>
       </c>
-      <c r="C28" s="13">
+      <c r="C28" s="36">
         <v>100</v>
       </c>
       <c r="D28" s="13">
@@ -1956,7 +1961,7 @@
         <f t="shared" si="10"/>
         <v>793</v>
       </c>
-      <c r="C29" s="13">
+      <c r="C29" s="36">
         <v>65</v>
       </c>
       <c r="D29" s="13">
@@ -2001,7 +2006,7 @@
         <f t="shared" si="10"/>
         <v>874</v>
       </c>
-      <c r="C30" s="13">
+      <c r="C30" s="36">
         <v>81</v>
       </c>
       <c r="D30" s="13">
@@ -2046,7 +2051,7 @@
         <f t="shared" si="10"/>
         <v>968</v>
       </c>
-      <c r="C31" s="13">
+      <c r="C31" s="36">
         <v>94</v>
       </c>
       <c r="D31" s="13">
@@ -2091,7 +2096,7 @@
         <f t="shared" si="10"/>
         <v>1017</v>
       </c>
-      <c r="C32" s="13">
+      <c r="C32" s="36">
         <v>49</v>
       </c>
       <c r="D32" s="13">
@@ -2136,7 +2141,7 @@
         <f t="shared" si="10"/>
         <v>1055</v>
       </c>
-      <c r="C33" s="13">
+      <c r="C33" s="36">
         <v>38</v>
       </c>
       <c r="D33" s="13">
@@ -2181,7 +2186,7 @@
         <f t="shared" si="10"/>
         <v>1144</v>
       </c>
-      <c r="C34" s="13">
+      <c r="C34" s="36">
         <v>89</v>
       </c>
       <c r="D34" s="13">
@@ -2226,7 +2231,7 @@
         <f t="shared" si="10"/>
         <v>1211</v>
       </c>
-      <c r="C35" s="13">
+      <c r="C35" s="36">
         <v>67</v>
       </c>
       <c r="D35" s="13">
@@ -2271,7 +2276,7 @@
         <f t="shared" si="10"/>
         <v>1282</v>
       </c>
-      <c r="C36" s="13">
+      <c r="C36" s="36">
         <v>71</v>
       </c>
       <c r="D36" s="13">
@@ -2316,7 +2321,7 @@
         <f t="shared" si="10"/>
         <v>1334</v>
       </c>
-      <c r="C37" s="13">
+      <c r="C37" s="36">
         <v>52</v>
       </c>
       <c r="D37" s="13">
@@ -2361,7 +2366,7 @@
         <f t="shared" si="10"/>
         <v>1385</v>
       </c>
-      <c r="C38" s="13">
+      <c r="C38" s="36">
         <v>51</v>
       </c>
       <c r="D38" s="13">
@@ -2406,7 +2411,7 @@
         <f t="shared" si="10"/>
         <v>1418</v>
       </c>
-      <c r="C39" s="13">
+      <c r="C39" s="36">
         <v>33</v>
       </c>
       <c r="D39" s="13">
@@ -2451,7 +2456,7 @@
         <f t="shared" si="10"/>
         <v>1433</v>
       </c>
-      <c r="C40" s="13">
+      <c r="C40" s="36">
         <v>15</v>
       </c>
       <c r="D40" s="13">
@@ -2496,7 +2501,7 @@
         <f t="shared" si="10"/>
         <v>1499</v>
       </c>
-      <c r="C41" s="13">
+      <c r="C41" s="36">
         <v>66</v>
       </c>
       <c r="D41" s="13">
@@ -2541,7 +2546,7 @@
         <f t="shared" si="10"/>
         <v>1538</v>
       </c>
-      <c r="C42" s="13">
+      <c r="C42" s="36">
         <v>39</v>
       </c>
       <c r="D42" s="13">
@@ -2586,7 +2591,7 @@
         <f t="shared" si="10"/>
         <v>1573</v>
       </c>
-      <c r="C43" s="13">
+      <c r="C43" s="36">
         <v>35</v>
       </c>
       <c r="D43" s="13">
@@ -2631,7 +2636,7 @@
         <f t="shared" si="10"/>
         <v>1602</v>
       </c>
-      <c r="C44" s="13">
+      <c r="C44" s="36">
         <v>29</v>
       </c>
       <c r="D44" s="13">
@@ -2676,7 +2681,7 @@
         <f t="shared" si="10"/>
         <v>1631</v>
       </c>
-      <c r="C45" s="13">
+      <c r="C45" s="36">
         <v>29</v>
       </c>
       <c r="D45" s="13">
@@ -2721,7 +2726,7 @@
         <f t="shared" si="10"/>
         <v>1657</v>
       </c>
-      <c r="C46" s="13">
+      <c r="C46" s="36">
         <v>26</v>
       </c>
       <c r="D46" s="13">
@@ -2766,7 +2771,7 @@
         <f t="shared" si="10"/>
         <v>1670</v>
       </c>
-      <c r="C47" s="13">
+      <c r="C47" s="36">
         <v>13</v>
       </c>
       <c r="D47" s="13">
@@ -2811,7 +2816,7 @@
         <f t="shared" si="10"/>
         <v>1684</v>
       </c>
-      <c r="C48" s="13">
+      <c r="C48" s="36">
         <v>14</v>
       </c>
       <c r="D48" s="13">
@@ -2856,7 +2861,7 @@
         <f t="shared" si="10"/>
         <v>1711</v>
       </c>
-      <c r="C49" s="13">
+      <c r="C49" s="36">
         <v>27</v>
       </c>
       <c r="D49" s="13">
@@ -2901,7 +2906,7 @@
         <f t="shared" si="10"/>
         <v>1727</v>
       </c>
-      <c r="C50" s="13">
+      <c r="C50" s="36">
         <v>16</v>
       </c>
       <c r="D50" s="13">
@@ -2946,7 +2951,7 @@
         <f t="shared" si="10"/>
         <v>1744</v>
       </c>
-      <c r="C51" s="13">
+      <c r="C51" s="36">
         <v>17</v>
       </c>
       <c r="D51" s="13">
@@ -2991,7 +2996,7 @@
         <f t="shared" si="10"/>
         <v>1764</v>
       </c>
-      <c r="C52" s="13">
+      <c r="C52" s="36">
         <v>20</v>
       </c>
       <c r="D52" s="13">
@@ -3036,7 +3041,7 @@
         <f t="shared" si="10"/>
         <v>1773</v>
       </c>
-      <c r="C53" s="13">
+      <c r="C53" s="36">
         <v>9</v>
       </c>
       <c r="D53" s="13">
@@ -3081,7 +3086,7 @@
         <f t="shared" si="10"/>
         <v>1780</v>
       </c>
-      <c r="C54" s="13">
+      <c r="C54" s="36">
         <v>7</v>
       </c>
       <c r="D54" s="13">
@@ -3126,7 +3131,7 @@
         <f t="shared" si="10"/>
         <v>1797</v>
       </c>
-      <c r="C55" s="13">
+      <c r="C55" s="36">
         <v>17</v>
       </c>
       <c r="D55" s="13">
@@ -3171,7 +3176,7 @@
         <f t="shared" si="10"/>
         <v>1804</v>
       </c>
-      <c r="C56" s="13">
+      <c r="C56" s="36">
         <v>7</v>
       </c>
       <c r="D56" s="13">
@@ -3216,7 +3221,7 @@
         <f t="shared" si="10"/>
         <v>1810</v>
       </c>
-      <c r="C57" s="13">
+      <c r="C57" s="36">
         <v>6</v>
       </c>
       <c r="D57" s="13">
@@ -3261,7 +3266,7 @@
         <f t="shared" si="10"/>
         <v>1826</v>
       </c>
-      <c r="C58" s="13">
+      <c r="C58" s="36">
         <v>16</v>
       </c>
       <c r="D58" s="13">
@@ -3306,7 +3311,7 @@
         <f t="shared" si="10"/>
         <v>1835</v>
       </c>
-      <c r="C59" s="13">
+      <c r="C59" s="36">
         <v>9</v>
       </c>
       <c r="D59" s="13">
@@ -3351,7 +3356,7 @@
         <f t="shared" si="10"/>
         <v>1840</v>
       </c>
-      <c r="C60" s="13">
+      <c r="C60" s="36">
         <v>5</v>
       </c>
       <c r="D60" s="13">
@@ -3396,7 +3401,7 @@
         <f t="shared" si="10"/>
         <v>1842</v>
       </c>
-      <c r="C61" s="13">
+      <c r="C61" s="36">
         <v>2</v>
       </c>
       <c r="D61" s="13">
@@ -3441,7 +3446,7 @@
         <f t="shared" si="10"/>
         <v>1857</v>
       </c>
-      <c r="C62" s="13">
+      <c r="C62" s="36">
         <v>15</v>
       </c>
       <c r="D62" s="13">
@@ -3486,7 +3491,7 @@
         <f t="shared" si="10"/>
         <v>1868</v>
       </c>
-      <c r="C63" s="13">
+      <c r="C63" s="36">
         <v>11</v>
       </c>
       <c r="D63" s="13">
@@ -3531,7 +3536,7 @@
         <f t="shared" si="10"/>
         <v>1880</v>
       </c>
-      <c r="C64" s="13">
+      <c r="C64" s="36">
         <v>12</v>
       </c>
       <c r="D64" s="13">
@@ -3576,7 +3581,7 @@
         <f t="shared" si="10"/>
         <v>1887</v>
       </c>
-      <c r="C65" s="13">
+      <c r="C65" s="36">
         <v>7</v>
       </c>
       <c r="D65" s="13">
@@ -3621,7 +3626,7 @@
         <f t="shared" si="10"/>
         <v>1892</v>
       </c>
-      <c r="C66" s="13">
+      <c r="C66" s="36">
         <v>5</v>
       </c>
       <c r="D66" s="13">
@@ -3666,7 +3671,7 @@
         <f t="shared" ref="B67:B87" si="14">B66+C67</f>
         <v>1895</v>
       </c>
-      <c r="C67" s="13">
+      <c r="C67" s="36">
         <v>3</v>
       </c>
       <c r="D67" s="13">
@@ -3711,7 +3716,7 @@
         <f t="shared" si="14"/>
         <v>1897</v>
       </c>
-      <c r="C68" s="13">
+      <c r="C68" s="36">
         <v>2</v>
       </c>
       <c r="D68" s="13">
@@ -3756,7 +3761,7 @@
         <f t="shared" si="14"/>
         <v>1905</v>
       </c>
-      <c r="C69" s="13">
+      <c r="C69" s="36">
         <v>8</v>
       </c>
       <c r="D69" s="13">
@@ -3801,7 +3806,7 @@
         <f t="shared" si="14"/>
         <v>1907</v>
       </c>
-      <c r="C70" s="13">
+      <c r="C70" s="36">
         <v>2</v>
       </c>
       <c r="D70" s="13">
@@ -3846,7 +3851,7 @@
         <f t="shared" si="14"/>
         <v>1910</v>
       </c>
-      <c r="C71" s="13">
+      <c r="C71" s="36">
         <v>3</v>
       </c>
       <c r="D71" s="13">
@@ -3891,7 +3896,7 @@
         <f t="shared" si="14"/>
         <v>1912</v>
       </c>
-      <c r="C72" s="13">
+      <c r="C72" s="36">
         <v>2</v>
       </c>
       <c r="D72" s="13">
@@ -3936,7 +3941,7 @@
         <f t="shared" si="14"/>
         <v>1915</v>
       </c>
-      <c r="C73" s="13">
+      <c r="C73" s="36">
         <v>3</v>
       </c>
       <c r="D73" s="13">
@@ -3981,7 +3986,7 @@
         <f t="shared" si="14"/>
         <v>1916</v>
       </c>
-      <c r="C74" s="13">
+      <c r="C74" s="36">
         <v>1</v>
       </c>
       <c r="D74" s="13">
@@ -4026,7 +4031,7 @@
         <f t="shared" si="14"/>
         <v>1917</v>
       </c>
-      <c r="C75" s="13">
+      <c r="C75" s="36">
         <v>1</v>
       </c>
       <c r="D75" s="13">
@@ -4071,7 +4076,7 @@
         <f t="shared" si="14"/>
         <v>1921</v>
       </c>
-      <c r="C76" s="13">
+      <c r="C76" s="36">
         <v>4</v>
       </c>
       <c r="D76" s="13">
@@ -4116,7 +4121,7 @@
         <f t="shared" si="14"/>
         <v>1921</v>
       </c>
-      <c r="C77" s="13">
+      <c r="C77" s="36">
         <v>0</v>
       </c>
       <c r="D77" s="13">
@@ -4161,7 +4166,7 @@
         <f t="shared" si="14"/>
         <v>1922</v>
       </c>
-      <c r="C78" s="13">
+      <c r="C78" s="36">
         <v>1</v>
       </c>
       <c r="D78" s="13">
@@ -4206,7 +4211,7 @@
         <f t="shared" si="14"/>
         <v>1924</v>
       </c>
-      <c r="C79" s="13">
+      <c r="C79" s="36">
         <v>2</v>
       </c>
       <c r="D79" s="13">
@@ -4251,7 +4256,7 @@
         <f t="shared" si="14"/>
         <v>1933</v>
       </c>
-      <c r="C80" s="13">
+      <c r="C80" s="36">
         <v>9</v>
       </c>
       <c r="D80" s="13">
@@ -4296,7 +4301,7 @@
         <f t="shared" si="14"/>
         <v>1936</v>
       </c>
-      <c r="C81" s="13">
+      <c r="C81" s="36">
         <v>3</v>
       </c>
       <c r="D81" s="13">
@@ -4341,7 +4346,7 @@
         <f t="shared" si="14"/>
         <v>1936</v>
       </c>
-      <c r="C82" s="13">
+      <c r="C82" s="36">
         <v>0</v>
       </c>
       <c r="D82" s="13">
@@ -4386,7 +4391,7 @@
         <f t="shared" si="14"/>
         <v>1937</v>
       </c>
-      <c r="C83" s="13">
+      <c r="C83" s="36">
         <v>1</v>
       </c>
       <c r="D83" s="13">
@@ -4431,7 +4436,7 @@
         <f t="shared" si="14"/>
         <v>1938</v>
       </c>
-      <c r="C84" s="13">
+      <c r="C84" s="36">
         <v>1</v>
       </c>
       <c r="D84" s="13">
@@ -4476,7 +4481,7 @@
         <f t="shared" si="14"/>
         <v>1938</v>
       </c>
-      <c r="C85" s="13">
+      <c r="C85" s="36">
         <v>0</v>
       </c>
       <c r="D85" s="13">
@@ -4521,7 +4526,7 @@
         <f t="shared" si="14"/>
         <v>1939</v>
       </c>
-      <c r="C86" s="13">
+      <c r="C86" s="36">
         <v>1</v>
       </c>
       <c r="D86" s="13">
@@ -4566,7 +4571,7 @@
         <f t="shared" si="14"/>
         <v>1939</v>
       </c>
-      <c r="C87" s="13">
+      <c r="C87" s="36">
         <v>0</v>
       </c>
       <c r="D87" s="13">
@@ -4611,7 +4616,7 @@
         <f t="shared" ref="B88:B103" si="18">B87+C88</f>
         <v>1939</v>
       </c>
-      <c r="C88" s="13">
+      <c r="C88" s="36">
         <v>0</v>
       </c>
       <c r="D88" s="13">
@@ -4656,7 +4661,7 @@
         <f t="shared" si="18"/>
         <v>1940</v>
       </c>
-      <c r="C89" s="13">
+      <c r="C89" s="36">
         <v>1</v>
       </c>
       <c r="D89" s="13">
@@ -4701,7 +4706,7 @@
         <f t="shared" si="18"/>
         <v>1942</v>
       </c>
-      <c r="C90" s="13">
+      <c r="C90" s="36">
         <v>2</v>
       </c>
       <c r="D90" s="13">
@@ -4746,7 +4751,7 @@
         <f t="shared" si="18"/>
         <v>1945</v>
       </c>
-      <c r="C91" s="13">
+      <c r="C91" s="36">
         <v>3</v>
       </c>
       <c r="D91" s="13">
@@ -4791,7 +4796,7 @@
         <f t="shared" si="18"/>
         <v>1946</v>
       </c>
-      <c r="C92" s="13">
+      <c r="C92" s="36">
         <v>1</v>
       </c>
       <c r="D92" s="13">
@@ -4836,7 +4841,7 @@
         <f t="shared" si="18"/>
         <v>1947</v>
       </c>
-      <c r="C93" s="13">
+      <c r="C93" s="36">
         <v>1</v>
       </c>
       <c r="D93" s="13">
@@ -4881,7 +4886,7 @@
         <f t="shared" si="18"/>
         <v>1947</v>
       </c>
-      <c r="C94" s="13">
+      <c r="C94" s="36">
         <v>0</v>
       </c>
       <c r="D94" s="13">
@@ -4926,7 +4931,7 @@
         <f t="shared" si="18"/>
         <v>1947</v>
       </c>
-      <c r="C95" s="13">
+      <c r="C95" s="36">
         <v>0</v>
       </c>
       <c r="D95" s="13">
@@ -4971,7 +4976,7 @@
         <f t="shared" si="18"/>
         <v>1949</v>
       </c>
-      <c r="C96" s="13">
+      <c r="C96" s="36">
         <v>2</v>
       </c>
       <c r="D96" s="13">
@@ -5016,7 +5021,7 @@
         <f t="shared" si="18"/>
         <v>1950</v>
       </c>
-      <c r="C97" s="13">
+      <c r="C97" s="36">
         <v>1</v>
       </c>
       <c r="D97" s="13">
@@ -5061,7 +5066,7 @@
         <f t="shared" si="18"/>
         <v>1951</v>
       </c>
-      <c r="C98" s="13">
+      <c r="C98" s="36">
         <v>1</v>
       </c>
       <c r="D98" s="13">
@@ -5106,7 +5111,7 @@
         <f t="shared" si="18"/>
         <v>1951</v>
       </c>
-      <c r="C99" s="13">
+      <c r="C99" s="36">
         <v>0</v>
       </c>
       <c r="D99" s="13">
@@ -5151,7 +5156,7 @@
         <f t="shared" si="18"/>
         <v>1953</v>
       </c>
-      <c r="C100" s="13">
+      <c r="C100" s="36">
         <v>2</v>
       </c>
       <c r="D100" s="13">
@@ -5196,7 +5201,7 @@
         <f t="shared" si="18"/>
         <v>1956</v>
       </c>
-      <c r="C101" s="13">
+      <c r="C101" s="36">
         <v>3</v>
       </c>
       <c r="D101" s="13">
@@ -5241,7 +5246,7 @@
         <f t="shared" si="18"/>
         <v>1956</v>
       </c>
-      <c r="C102" s="13">
+      <c r="C102" s="36">
         <v>0</v>
       </c>
       <c r="D102" s="13">
@@ -5286,7 +5291,7 @@
         <f t="shared" si="18"/>
         <v>1959</v>
       </c>
-      <c r="C103" s="13">
+      <c r="C103" s="36">
         <v>3</v>
       </c>
       <c r="D103" s="13">
@@ -5331,7 +5336,7 @@
         <f t="shared" ref="B104:B108" si="22">B103+C104</f>
         <v>1964</v>
       </c>
-      <c r="C104" s="13">
+      <c r="C104" s="36">
         <v>5</v>
       </c>
       <c r="D104" s="13">
@@ -5376,7 +5381,7 @@
         <f t="shared" si="22"/>
         <v>1965</v>
       </c>
-      <c r="C105" s="13">
+      <c r="C105" s="36">
         <v>1</v>
       </c>
       <c r="D105" s="13">
@@ -5421,7 +5426,7 @@
         <f t="shared" si="22"/>
         <v>1969</v>
       </c>
-      <c r="C106" s="13">
+      <c r="C106" s="36">
         <v>4</v>
       </c>
       <c r="D106" s="13">
@@ -5466,7 +5471,7 @@
         <f t="shared" si="22"/>
         <v>1973</v>
       </c>
-      <c r="C107" s="13">
+      <c r="C107" s="36">
         <v>4</v>
       </c>
       <c r="D107" s="13">
@@ -5511,7 +5516,7 @@
         <f t="shared" si="22"/>
         <v>1977</v>
       </c>
-      <c r="C108" s="13">
+      <c r="C108" s="36">
         <v>4</v>
       </c>
       <c r="D108" s="13">
@@ -5556,7 +5561,7 @@
         <f t="shared" ref="B109:B121" si="26">B108+C109</f>
         <v>1977</v>
       </c>
-      <c r="C109" s="13">
+      <c r="C109" s="36">
         <v>0</v>
       </c>
       <c r="D109" s="13">
@@ -5601,7 +5606,7 @@
         <f t="shared" si="26"/>
         <v>1977</v>
       </c>
-      <c r="C110" s="13">
+      <c r="C110" s="36">
         <v>0</v>
       </c>
       <c r="D110" s="13">
@@ -5646,7 +5651,7 @@
         <f t="shared" si="26"/>
         <v>1981</v>
       </c>
-      <c r="C111" s="13">
+      <c r="C111" s="36">
         <v>4</v>
       </c>
       <c r="D111" s="13">
@@ -5691,7 +5696,7 @@
         <f t="shared" si="26"/>
         <v>1986</v>
       </c>
-      <c r="C112" s="13">
+      <c r="C112" s="36">
         <v>5</v>
       </c>
       <c r="D112" s="13">
@@ -5736,7 +5741,7 @@
         <f t="shared" si="26"/>
         <v>1988</v>
       </c>
-      <c r="C113" s="13">
+      <c r="C113" s="36">
         <v>2</v>
       </c>
       <c r="D113" s="13">
@@ -5781,7 +5786,7 @@
         <f t="shared" si="26"/>
         <v>1989</v>
       </c>
-      <c r="C114" s="13">
+      <c r="C114" s="36">
         <v>1</v>
       </c>
       <c r="D114" s="13">
@@ -5826,7 +5831,7 @@
         <f t="shared" si="26"/>
         <v>1997</v>
       </c>
-      <c r="C115" s="13">
+      <c r="C115" s="36">
         <v>8</v>
       </c>
       <c r="D115" s="13">
@@ -5871,7 +5876,7 @@
         <f t="shared" si="26"/>
         <v>2001</v>
       </c>
-      <c r="C116" s="13">
+      <c r="C116" s="36">
         <v>4</v>
       </c>
       <c r="D116" s="13">
@@ -5916,7 +5921,7 @@
         <f t="shared" si="26"/>
         <v>2002</v>
       </c>
-      <c r="C117" s="13">
+      <c r="C117" s="36">
         <v>1</v>
       </c>
       <c r="D117" s="13">
@@ -5961,7 +5966,7 @@
         <f t="shared" si="26"/>
         <v>2007</v>
       </c>
-      <c r="C118" s="13">
+      <c r="C118" s="36">
         <v>5</v>
       </c>
       <c r="D118" s="13">
@@ -6006,7 +6011,7 @@
         <f t="shared" si="26"/>
         <v>2014</v>
       </c>
-      <c r="C119" s="13">
+      <c r="C119" s="36">
         <v>7</v>
       </c>
       <c r="D119" s="13">
@@ -6051,7 +6056,7 @@
         <f t="shared" si="26"/>
         <v>2024</v>
       </c>
-      <c r="C120" s="13">
+      <c r="C120" s="36">
         <v>10</v>
       </c>
       <c r="D120" s="13">
@@ -6096,7 +6101,7 @@
         <f t="shared" si="26"/>
         <v>2031</v>
       </c>
-      <c r="C121" s="13">
+      <c r="C121" s="36">
         <v>7</v>
       </c>
       <c r="D121" s="13">
@@ -6141,7 +6146,7 @@
         <f t="shared" ref="B122:B130" si="30">B121+C122</f>
         <v>2041</v>
       </c>
-      <c r="C122" s="13">
+      <c r="C122" s="36">
         <v>10</v>
       </c>
       <c r="D122" s="13">
@@ -6186,7 +6191,7 @@
         <f t="shared" si="30"/>
         <v>2045</v>
       </c>
-      <c r="C123" s="13">
+      <c r="C123" s="36">
         <v>4</v>
       </c>
       <c r="D123" s="13">
@@ -6231,7 +6236,7 @@
         <f t="shared" si="30"/>
         <v>2046</v>
       </c>
-      <c r="C124" s="13">
+      <c r="C124" s="36">
         <v>1</v>
       </c>
       <c r="D124" s="13">
@@ -6276,7 +6281,7 @@
         <f t="shared" si="30"/>
         <v>2054</v>
       </c>
-      <c r="C125" s="13">
+      <c r="C125" s="36">
         <v>8</v>
       </c>
       <c r="D125" s="13">
@@ -6321,7 +6326,7 @@
         <f t="shared" si="30"/>
         <v>2058</v>
       </c>
-      <c r="C126" s="13">
+      <c r="C126" s="36">
         <v>4</v>
       </c>
       <c r="D126" s="13">
@@ -6366,7 +6371,7 @@
         <f t="shared" si="30"/>
         <v>2061</v>
       </c>
-      <c r="C127" s="13">
+      <c r="C127" s="36">
         <v>3</v>
       </c>
       <c r="D127" s="13">
@@ -6411,7 +6416,7 @@
         <f t="shared" si="30"/>
         <v>2064</v>
       </c>
-      <c r="C128" s="13">
+      <c r="C128" s="36">
         <v>3</v>
       </c>
       <c r="D128" s="13">
@@ -6456,7 +6461,7 @@
         <f t="shared" si="30"/>
         <v>2069</v>
       </c>
-      <c r="C129" s="13">
+      <c r="C129" s="36">
         <v>5</v>
       </c>
       <c r="D129" s="13">
@@ -6501,7 +6506,7 @@
         <f t="shared" si="30"/>
         <v>2071</v>
       </c>
-      <c r="C130" s="13">
+      <c r="C130" s="36">
         <v>2</v>
       </c>
       <c r="D130" s="13">
@@ -6546,7 +6551,7 @@
         <f t="shared" ref="B131:B132" si="34">B130+C131</f>
         <v>2073</v>
       </c>
-      <c r="C131" s="13">
+      <c r="C131" s="36">
         <v>2</v>
       </c>
       <c r="D131" s="13">
@@ -6591,7 +6596,7 @@
         <f t="shared" si="34"/>
         <v>2076</v>
       </c>
-      <c r="C132" s="13">
+      <c r="C132" s="36">
         <v>3</v>
       </c>
       <c r="D132" s="13">
@@ -6636,7 +6641,7 @@
         <f t="shared" ref="B133" si="38">B132+C133</f>
         <v>2079</v>
       </c>
-      <c r="C133" s="13">
+      <c r="C133" s="36">
         <v>3</v>
       </c>
       <c r="D133" s="13">
@@ -6681,7 +6686,7 @@
         <f t="shared" ref="B134" si="42">B133+C134</f>
         <v>2079</v>
       </c>
-      <c r="C134" s="13">
+      <c r="C134" s="36">
         <v>0</v>
       </c>
       <c r="D134" s="13">
@@ -6726,7 +6731,7 @@
         <f t="shared" ref="B135:B138" si="46">B134+C135</f>
         <v>2081</v>
       </c>
-      <c r="C135" s="13">
+      <c r="C135" s="36">
         <v>2</v>
       </c>
       <c r="D135" s="13">
@@ -6771,7 +6776,7 @@
         <f t="shared" si="46"/>
         <v>2084</v>
       </c>
-      <c r="C136" s="13">
+      <c r="C136" s="36">
         <v>3</v>
       </c>
       <c r="D136" s="13">
@@ -6816,7 +6821,7 @@
         <f t="shared" si="46"/>
         <v>2089</v>
       </c>
-      <c r="C137" s="13">
+      <c r="C137" s="36">
         <v>5</v>
       </c>
       <c r="D137" s="13">
@@ -6861,7 +6866,7 @@
         <f t="shared" si="46"/>
         <v>2092</v>
       </c>
-      <c r="C138" s="13">
+      <c r="C138" s="36">
         <v>3</v>
       </c>
       <c r="D138" s="13">
@@ -6906,7 +6911,7 @@
         <f t="shared" ref="B139" si="50">B138+C139</f>
         <v>2095</v>
       </c>
-      <c r="C139" s="13">
+      <c r="C139" s="36">
         <v>3</v>
       </c>
       <c r="D139" s="13">
@@ -6951,7 +6956,7 @@
         <f t="shared" ref="B140:B145" si="54">B139+C140</f>
         <v>2100</v>
       </c>
-      <c r="C140" s="13">
+      <c r="C140" s="36">
         <v>5</v>
       </c>
       <c r="D140" s="13">
@@ -6996,7 +7001,7 @@
         <f t="shared" si="54"/>
         <v>2102</v>
       </c>
-      <c r="C141" s="13">
+      <c r="C141" s="36">
         <v>2</v>
       </c>
       <c r="D141" s="13">
@@ -7041,7 +7046,7 @@
         <f t="shared" si="54"/>
         <v>2103</v>
       </c>
-      <c r="C142" s="13">
+      <c r="C142" s="36">
         <v>1</v>
       </c>
       <c r="D142" s="13">
@@ -7086,7 +7091,7 @@
         <f t="shared" si="54"/>
         <v>2105</v>
       </c>
-      <c r="C143" s="13">
+      <c r="C143" s="36">
         <v>2</v>
       </c>
       <c r="D143" s="13">
@@ -7131,7 +7136,7 @@
         <f t="shared" si="54"/>
         <v>2105</v>
       </c>
-      <c r="C144" s="35">
+      <c r="C144" s="37">
         <v>0</v>
       </c>
       <c r="D144" s="13">
@@ -7176,7 +7181,7 @@
         <f t="shared" si="54"/>
         <v>2106</v>
       </c>
-      <c r="C145" s="35">
+      <c r="C145" s="37">
         <v>1</v>
       </c>
       <c r="D145" s="13">
@@ -7221,7 +7226,7 @@
         <f t="shared" ref="B146" si="58">B145+C146</f>
         <v>2109</v>
       </c>
-      <c r="C146" s="35">
+      <c r="C146" s="37">
         <v>3</v>
       </c>
       <c r="D146" s="13">
@@ -7266,7 +7271,7 @@
         <f t="shared" ref="B147" si="62">B146+C147</f>
         <v>2111</v>
       </c>
-      <c r="C147" s="35">
+      <c r="C147" s="37">
         <v>2</v>
       </c>
       <c r="D147" s="13">
@@ -7311,7 +7316,7 @@
         <f t="shared" ref="B148" si="66">B147+C148</f>
         <v>2114</v>
       </c>
-      <c r="C148" s="35">
+      <c r="C148" s="37">
         <v>3</v>
       </c>
       <c r="D148" s="13">
@@ -7356,7 +7361,7 @@
         <f t="shared" ref="B149:B152" si="70">B148+C149</f>
         <v>2116</v>
       </c>
-      <c r="C149" s="35">
+      <c r="C149" s="37">
         <v>2</v>
       </c>
       <c r="D149" s="13">
@@ -7401,7 +7406,7 @@
         <f t="shared" si="70"/>
         <v>2119</v>
       </c>
-      <c r="C150" s="35">
+      <c r="C150" s="37">
         <v>3</v>
       </c>
       <c r="D150" s="13">
@@ -7446,7 +7451,7 @@
         <f t="shared" si="70"/>
         <v>2119</v>
       </c>
-      <c r="C151" s="35">
+      <c r="C151" s="37">
         <v>0</v>
       </c>
       <c r="D151" s="13">
@@ -7491,7 +7496,7 @@
         <f t="shared" si="70"/>
         <v>2119</v>
       </c>
-      <c r="C152" s="35">
+      <c r="C152" s="37">
         <v>0</v>
       </c>
       <c r="D152" s="13">
@@ -7536,7 +7541,7 @@
         <f t="shared" ref="B153" si="74">B152+C153</f>
         <v>2122</v>
       </c>
-      <c r="C153" s="35">
+      <c r="C153" s="37">
         <v>3</v>
       </c>
       <c r="D153" s="13">
@@ -7578,11 +7583,11 @@
         <v>44040</v>
       </c>
       <c r="B154" s="19">
-        <f t="shared" ref="B154:B155" si="78">B153+C154</f>
-        <v>2126</v>
-      </c>
-      <c r="C154" s="35">
-        <v>4</v>
+        <f t="shared" ref="B154" si="78">B153+C154</f>
+        <v>2127</v>
+      </c>
+      <c r="C154" s="37">
+        <v>5</v>
       </c>
       <c r="D154" s="13">
         <v>0</v>
@@ -7597,18 +7602,18 @@
         <v>4</v>
       </c>
       <c r="H154" s="17">
-        <f t="shared" ref="H154:H155" si="79">G154+E154</f>
+        <f t="shared" ref="H154" si="79">G154+E154</f>
         <v>6</v>
       </c>
       <c r="I154" s="33">
         <v>0</v>
       </c>
       <c r="J154" s="16">
-        <f t="shared" ref="J154:J155" si="80">J153+K154</f>
+        <f t="shared" ref="J154" si="80">J153+K154</f>
         <v>153</v>
       </c>
       <c r="K154" s="16">
-        <f t="shared" ref="K154:K155" si="81">L154+M154</f>
+        <f t="shared" ref="K154" si="81">L154+M154</f>
         <v>0</v>
       </c>
       <c r="L154" s="26" t="s">
@@ -7619,47 +7624,92 @@
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A155" s="2">
+      <c r="A155" s="1">
         <v>44041</v>
       </c>
-      <c r="B155" s="20">
-        <f t="shared" si="78"/>
-        <v>2127</v>
-      </c>
-      <c r="C155" s="36">
-        <v>1</v>
-      </c>
-      <c r="D155" s="14">
-        <v>0</v>
-      </c>
-      <c r="E155" s="30">
-        <v>2</v>
-      </c>
-      <c r="F155" s="31">
-        <v>1</v>
-      </c>
-      <c r="G155" s="25">
+      <c r="B155" s="19">
+        <f t="shared" ref="B155:B156" si="82">B154+C155</f>
+        <v>2136</v>
+      </c>
+      <c r="C155" s="37">
+        <v>9</v>
+      </c>
+      <c r="D155" s="13">
+        <v>0</v>
+      </c>
+      <c r="E155" s="4">
+        <v>2</v>
+      </c>
+      <c r="F155" s="3">
+        <v>1</v>
+      </c>
+      <c r="G155" s="24">
         <v>4</v>
       </c>
-      <c r="H155" s="18">
-        <f t="shared" si="79"/>
+      <c r="H155" s="17">
+        <f t="shared" ref="H155:H156" si="83">G155+E155</f>
         <v>6</v>
       </c>
-      <c r="I155" s="34">
-        <v>0</v>
-      </c>
-      <c r="J155" s="21">
-        <f t="shared" si="80"/>
+      <c r="I155" s="33">
+        <v>0</v>
+      </c>
+      <c r="J155" s="16">
+        <f t="shared" ref="J155:J156" si="84">J154+K155</f>
         <v>153</v>
       </c>
-      <c r="K155" s="21">
-        <f t="shared" si="81"/>
-        <v>0</v>
-      </c>
-      <c r="L155" s="28" t="s">
+      <c r="K155" s="16">
+        <f t="shared" ref="K155:K156" si="85">L155+M155</f>
+        <v>0</v>
+      </c>
+      <c r="L155" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="M155" s="29" t="s">
+      <c r="M155" s="27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A156" s="2">
+        <v>44042</v>
+      </c>
+      <c r="B156" s="20">
+        <f t="shared" si="82"/>
+        <v>2137</v>
+      </c>
+      <c r="C156" s="38">
+        <v>1</v>
+      </c>
+      <c r="D156" s="14">
+        <v>0</v>
+      </c>
+      <c r="E156" s="30">
+        <v>2</v>
+      </c>
+      <c r="F156" s="31">
+        <v>1</v>
+      </c>
+      <c r="G156" s="25">
+        <v>4</v>
+      </c>
+      <c r="H156" s="18">
+        <f t="shared" si="83"/>
+        <v>6</v>
+      </c>
+      <c r="I156" s="34">
+        <v>0</v>
+      </c>
+      <c r="J156" s="21">
+        <f t="shared" si="84"/>
+        <v>153</v>
+      </c>
+      <c r="K156" s="21">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="L156" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="M156" s="29" t="s">
         <v>13</v>
       </c>
     </row>

--- a/Chiffres  COVID-19 Valais.xlsx
+++ b/Chiffres  COVID-19 Valais.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -99,10 +99,7 @@
     <t>Nb de nouvelles sorties</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>Données COVID-19 Valais 31.07.2020</t>
+    <t>Données COVID-19 Valais 10.08.2020</t>
   </si>
 </sst>
 </file>
@@ -725,29 +722,29 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O157"/>
+  <dimension ref="A1:O167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B145" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B139" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B157" sqref="B157"/>
+      <selection pane="bottomRight" activeCell="B167" sqref="B167"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.453125" style="14"/>
-    <col min="3" max="3" width="11.453125" style="37"/>
-    <col min="4" max="4" width="10.81640625" style="14"/>
-    <col min="8" max="9" width="16.1796875" customWidth="1"/>
-    <col min="11" max="11" width="14.54296875" customWidth="1"/>
-    <col min="12" max="12" width="13.54296875" customWidth="1"/>
-    <col min="13" max="13" width="15.7265625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="14"/>
+    <col min="3" max="3" width="11.42578125" style="37"/>
+    <col min="4" max="4" width="10.85546875" style="14"/>
+    <col min="8" max="9" width="16.140625" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="42"/>
       <c r="C1" s="42"/>
@@ -762,7 +759,7 @@
       <c r="L1" s="42"/>
       <c r="M1" s="43"/>
     </row>
-    <row r="2" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -805,7 +802,7 @@
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43889</v>
       </c>
@@ -850,7 +847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43890</v>
       </c>
@@ -895,7 +892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43891</v>
       </c>
@@ -940,7 +937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43892</v>
       </c>
@@ -985,7 +982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43893</v>
       </c>
@@ -1030,7 +1027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43894</v>
       </c>
@@ -1075,7 +1072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43895</v>
       </c>
@@ -1120,7 +1117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43896</v>
       </c>
@@ -1165,7 +1162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43897</v>
       </c>
@@ -1210,7 +1207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43898</v>
       </c>
@@ -1255,7 +1252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43899</v>
       </c>
@@ -1300,7 +1297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43900</v>
       </c>
@@ -1345,7 +1342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43901</v>
       </c>
@@ -1390,7 +1387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43902</v>
       </c>
@@ -1435,7 +1432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43903</v>
       </c>
@@ -1480,7 +1477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43904</v>
       </c>
@@ -1525,7 +1522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43905</v>
       </c>
@@ -1570,7 +1567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43906</v>
       </c>
@@ -1615,7 +1612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43907</v>
       </c>
@@ -1660,7 +1657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43908</v>
       </c>
@@ -1705,7 +1702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43909</v>
       </c>
@@ -1750,7 +1747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43910</v>
       </c>
@@ -1795,7 +1792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43911</v>
       </c>
@@ -1840,7 +1837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43912</v>
       </c>
@@ -1885,7 +1882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43913</v>
       </c>
@@ -1930,7 +1927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43914</v>
       </c>
@@ -1975,7 +1972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43915</v>
       </c>
@@ -2020,7 +2017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43916</v>
       </c>
@@ -2065,7 +2062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43917</v>
       </c>
@@ -2110,7 +2107,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43918</v>
       </c>
@@ -2155,7 +2152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43919</v>
       </c>
@@ -2200,7 +2197,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>43920</v>
       </c>
@@ -2245,7 +2242,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>43921</v>
       </c>
@@ -2290,7 +2287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>43922</v>
       </c>
@@ -2335,7 +2332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>43923</v>
       </c>
@@ -2380,7 +2377,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>43924</v>
       </c>
@@ -2425,7 +2422,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>43925</v>
       </c>
@@ -2470,7 +2467,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>43926</v>
       </c>
@@ -2515,7 +2512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>43927</v>
       </c>
@@ -2560,7 +2557,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>43928</v>
       </c>
@@ -2605,7 +2602,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43929</v>
       </c>
@@ -2650,7 +2647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43930</v>
       </c>
@@ -2695,7 +2692,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43931</v>
       </c>
@@ -2740,7 +2737,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43932</v>
       </c>
@@ -2785,7 +2782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>43933</v>
       </c>
@@ -2830,7 +2827,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>43934</v>
       </c>
@@ -2875,7 +2872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>43935</v>
       </c>
@@ -2920,7 +2917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>43936</v>
       </c>
@@ -2965,7 +2962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>43937</v>
       </c>
@@ -3010,7 +3007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>43938</v>
       </c>
@@ -3055,7 +3052,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>43939</v>
       </c>
@@ -3100,7 +3097,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>43940</v>
       </c>
@@ -3145,7 +3142,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>43941</v>
       </c>
@@ -3190,7 +3187,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>43942</v>
       </c>
@@ -3235,7 +3232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>43943</v>
       </c>
@@ -3280,7 +3277,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>43944</v>
       </c>
@@ -3325,7 +3322,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>43945</v>
       </c>
@@ -3370,7 +3367,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>43946</v>
       </c>
@@ -3415,7 +3412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>43947</v>
       </c>
@@ -3460,7 +3457,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>43948</v>
       </c>
@@ -3505,7 +3502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>43949</v>
       </c>
@@ -3550,7 +3547,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>43950</v>
       </c>
@@ -3595,7 +3592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>43951</v>
       </c>
@@ -3640,7 +3637,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>43952</v>
       </c>
@@ -3685,7 +3682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>43953</v>
       </c>
@@ -3730,7 +3727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>43954</v>
       </c>
@@ -3775,7 +3772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>43955</v>
       </c>
@@ -3820,7 +3817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>43956</v>
       </c>
@@ -3865,7 +3862,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>43957</v>
       </c>
@@ -3910,7 +3907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>43958</v>
       </c>
@@ -3955,7 +3952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>43959</v>
       </c>
@@ -4000,7 +3997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>43960</v>
       </c>
@@ -4045,7 +4042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>43961</v>
       </c>
@@ -4090,7 +4087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>43962</v>
       </c>
@@ -4135,7 +4132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>43963</v>
       </c>
@@ -4180,7 +4177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>43964</v>
       </c>
@@ -4225,7 +4222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>43965</v>
       </c>
@@ -4270,7 +4267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>43966</v>
       </c>
@@ -4315,7 +4312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>43967</v>
       </c>
@@ -4360,7 +4357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>43968</v>
       </c>
@@ -4405,7 +4402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>43969</v>
       </c>
@@ -4450,7 +4447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>43970</v>
       </c>
@@ -4495,7 +4492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>43971</v>
       </c>
@@ -4540,7 +4537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>43972</v>
       </c>
@@ -4585,7 +4582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>43973</v>
       </c>
@@ -4630,7 +4627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>43974</v>
       </c>
@@ -4675,7 +4672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>43975</v>
       </c>
@@ -4720,7 +4717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>43976</v>
       </c>
@@ -4765,7 +4762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>43977</v>
       </c>
@@ -4810,7 +4807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>43978</v>
       </c>
@@ -4855,7 +4852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>43979</v>
       </c>
@@ -4900,7 +4897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>43980</v>
       </c>
@@ -4945,7 +4942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>43981</v>
       </c>
@@ -4990,7 +4987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>43982</v>
       </c>
@@ -5035,7 +5032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>43983</v>
       </c>
@@ -5080,7 +5077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>43984</v>
       </c>
@@ -5125,7 +5122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>43985</v>
       </c>
@@ -5170,7 +5167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>43986</v>
       </c>
@@ -5215,7 +5212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>43987</v>
       </c>
@@ -5260,7 +5257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>43988</v>
       </c>
@@ -5305,7 +5302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>43989</v>
       </c>
@@ -5350,7 +5347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>43990</v>
       </c>
@@ -5395,7 +5392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>43991</v>
       </c>
@@ -5440,7 +5437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>43992</v>
       </c>
@@ -5485,7 +5482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>43993</v>
       </c>
@@ -5530,7 +5527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>43994</v>
       </c>
@@ -5575,7 +5572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>43995</v>
       </c>
@@ -5620,7 +5617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>43996</v>
       </c>
@@ -5665,7 +5662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>43997</v>
       </c>
@@ -5710,7 +5707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>43998</v>
       </c>
@@ -5755,7 +5752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>43999</v>
       </c>
@@ -5800,7 +5797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>44000</v>
       </c>
@@ -5845,7 +5842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>44001</v>
       </c>
@@ -5890,7 +5887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>44002</v>
       </c>
@@ -5935,7 +5932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>44003</v>
       </c>
@@ -5980,7 +5977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>44004</v>
       </c>
@@ -6025,7 +6022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>44005</v>
       </c>
@@ -6070,7 +6067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>44006</v>
       </c>
@@ -6115,7 +6112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>44007</v>
       </c>
@@ -6160,7 +6157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>44008</v>
       </c>
@@ -6205,7 +6202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>44009</v>
       </c>
@@ -6250,7 +6247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>44010</v>
       </c>
@@ -6295,7 +6292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>44011</v>
       </c>
@@ -6340,7 +6337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>44012</v>
       </c>
@@ -6385,7 +6382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>44013</v>
       </c>
@@ -6430,7 +6427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>44014</v>
       </c>
@@ -6475,7 +6472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>44015</v>
       </c>
@@ -6520,7 +6517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>44016</v>
       </c>
@@ -6565,7 +6562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>44017</v>
       </c>
@@ -6610,7 +6607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>44018</v>
       </c>
@@ -6655,7 +6652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>44019</v>
       </c>
@@ -6700,7 +6697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>44020</v>
       </c>
@@ -6745,7 +6742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>44021</v>
       </c>
@@ -6790,7 +6787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>44022</v>
       </c>
@@ -6835,7 +6832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>44023</v>
       </c>
@@ -6880,7 +6877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>44024</v>
       </c>
@@ -6925,7 +6922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>44025</v>
       </c>
@@ -6970,7 +6967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>44026</v>
       </c>
@@ -7015,7 +7012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>44027</v>
       </c>
@@ -7060,7 +7057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>44028</v>
       </c>
@@ -7105,7 +7102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>44029</v>
       </c>
@@ -7150,7 +7147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>44030</v>
       </c>
@@ -7195,7 +7192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>44031</v>
       </c>
@@ -7240,7 +7237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>44032</v>
       </c>
@@ -7285,7 +7282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>44033</v>
       </c>
@@ -7330,7 +7327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>44034</v>
       </c>
@@ -7375,7 +7372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>44035</v>
       </c>
@@ -7420,7 +7417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>44036</v>
       </c>
@@ -7465,7 +7462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>44037</v>
       </c>
@@ -7510,7 +7507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>44038</v>
       </c>
@@ -7555,7 +7552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>44039</v>
       </c>
@@ -7593,19 +7590,19 @@
         <f t="shared" ref="K153" si="77">L153+M153</f>
         <v>0</v>
       </c>
-      <c r="L153" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="M153" s="26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L153" s="25">
+        <v>0</v>
+      </c>
+      <c r="M153" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>44040</v>
       </c>
       <c r="B154" s="18">
-        <f t="shared" ref="B154" si="78">B153+C154</f>
+        <f t="shared" ref="B154:B155" si="78">B153+C154</f>
         <v>2127</v>
       </c>
       <c r="C154" s="35">
@@ -7621,36 +7618,36 @@
         <v>1</v>
       </c>
       <c r="G154" s="23">
+        <v>3</v>
+      </c>
+      <c r="H154" s="16">
+        <f t="shared" ref="H154:H155" si="79">G154+E154</f>
         <v>4</v>
       </c>
-      <c r="H154" s="16">
-        <f t="shared" ref="H154" si="79">G154+E154</f>
-        <v>5</v>
-      </c>
       <c r="I154" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J154" s="15">
-        <f t="shared" ref="J154" si="80">J153+K154</f>
+        <f t="shared" ref="J154:J155" si="80">J153+K154</f>
         <v>153</v>
       </c>
       <c r="K154" s="15">
-        <f t="shared" ref="K154" si="81">L154+M154</f>
-        <v>0</v>
-      </c>
-      <c r="L154" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="M154" s="26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ref="K154:K155" si="81">L154+M154</f>
+        <v>0</v>
+      </c>
+      <c r="L154" s="25">
+        <v>0</v>
+      </c>
+      <c r="M154" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>44041</v>
       </c>
       <c r="B155" s="18">
-        <f t="shared" ref="B155" si="82">B154+C155</f>
+        <f t="shared" si="78"/>
         <v>2136</v>
       </c>
       <c r="C155" s="35">
@@ -7666,118 +7663,568 @@
         <v>1</v>
       </c>
       <c r="G155" s="23">
+        <v>3</v>
+      </c>
+      <c r="H155" s="16">
+        <f t="shared" si="79"/>
         <v>4</v>
       </c>
-      <c r="H155" s="16">
-        <f t="shared" ref="H155" si="83">G155+E155</f>
-        <v>5</v>
-      </c>
       <c r="I155" s="31">
         <v>0</v>
       </c>
       <c r="J155" s="15">
-        <f t="shared" ref="J155" si="84">J154+K155</f>
+        <f t="shared" si="80"/>
         <v>153</v>
       </c>
       <c r="K155" s="15">
-        <f t="shared" ref="K155" si="85">L155+M155</f>
-        <v>0</v>
-      </c>
-      <c r="L155" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="M155" s="26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="L155" s="25">
+        <v>0</v>
+      </c>
+      <c r="M155" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>44042</v>
       </c>
       <c r="B156" s="18">
-        <f t="shared" ref="B156:B157" si="86">B155+C156</f>
-        <v>2144</v>
+        <f t="shared" ref="B156:B162" si="82">B155+C156</f>
+        <v>2145</v>
       </c>
       <c r="C156" s="35">
+        <v>9</v>
+      </c>
+      <c r="D156" s="12">
+        <v>0</v>
+      </c>
+      <c r="E156" s="3">
+        <v>1</v>
+      </c>
+      <c r="F156" s="39">
+        <v>1</v>
+      </c>
+      <c r="G156" s="23">
+        <v>3</v>
+      </c>
+      <c r="H156" s="16">
+        <f t="shared" ref="H156:H162" si="83">G156+E156</f>
+        <v>4</v>
+      </c>
+      <c r="I156" s="31">
+        <v>0</v>
+      </c>
+      <c r="J156" s="15">
+        <f t="shared" ref="J156:J162" si="84">J155+K156</f>
+        <v>153</v>
+      </c>
+      <c r="K156" s="15">
+        <f t="shared" ref="K156:K162" si="85">L156+M156</f>
+        <v>0</v>
+      </c>
+      <c r="L156" s="25">
+        <v>0</v>
+      </c>
+      <c r="M156" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <v>44043</v>
+      </c>
+      <c r="B157" s="18">
+        <f t="shared" si="82"/>
+        <v>2148</v>
+      </c>
+      <c r="C157" s="35">
+        <v>3</v>
+      </c>
+      <c r="D157" s="12">
+        <v>0</v>
+      </c>
+      <c r="E157" s="3">
+        <v>1</v>
+      </c>
+      <c r="F157" s="39">
+        <v>1</v>
+      </c>
+      <c r="G157" s="23">
+        <v>2</v>
+      </c>
+      <c r="H157" s="16">
+        <f t="shared" si="83"/>
+        <v>3</v>
+      </c>
+      <c r="I157" s="31">
+        <v>1</v>
+      </c>
+      <c r="J157" s="15">
+        <f t="shared" si="84"/>
+        <v>153</v>
+      </c>
+      <c r="K157" s="15">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="L157" s="25">
+        <v>0</v>
+      </c>
+      <c r="M157" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>44044</v>
+      </c>
+      <c r="B158" s="18">
+        <f t="shared" si="82"/>
+        <v>2151</v>
+      </c>
+      <c r="C158" s="35">
+        <v>3</v>
+      </c>
+      <c r="D158" s="12">
+        <v>0</v>
+      </c>
+      <c r="E158" s="3">
+        <v>1</v>
+      </c>
+      <c r="F158" s="39">
+        <v>1</v>
+      </c>
+      <c r="G158" s="23">
+        <v>2</v>
+      </c>
+      <c r="H158" s="16">
+        <f t="shared" si="83"/>
+        <v>3</v>
+      </c>
+      <c r="I158" s="31">
+        <v>0</v>
+      </c>
+      <c r="J158" s="15">
+        <f t="shared" si="84"/>
+        <v>153</v>
+      </c>
+      <c r="K158" s="15">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="L158" s="25">
+        <v>0</v>
+      </c>
+      <c r="M158" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>44045</v>
+      </c>
+      <c r="B159" s="18">
+        <f t="shared" si="82"/>
+        <v>2152</v>
+      </c>
+      <c r="C159" s="35">
+        <v>1</v>
+      </c>
+      <c r="D159" s="12">
+        <v>0</v>
+      </c>
+      <c r="E159" s="3">
+        <v>1</v>
+      </c>
+      <c r="F159" s="39">
+        <v>1</v>
+      </c>
+      <c r="G159" s="23">
+        <v>2</v>
+      </c>
+      <c r="H159" s="16">
+        <f t="shared" si="83"/>
+        <v>3</v>
+      </c>
+      <c r="I159" s="31">
+        <v>0</v>
+      </c>
+      <c r="J159" s="15">
+        <f t="shared" si="84"/>
+        <v>153</v>
+      </c>
+      <c r="K159" s="15">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="L159" s="25">
+        <v>0</v>
+      </c>
+      <c r="M159" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>44046</v>
+      </c>
+      <c r="B160" s="18">
+        <f t="shared" si="82"/>
+        <v>2155</v>
+      </c>
+      <c r="C160" s="35">
+        <v>3</v>
+      </c>
+      <c r="D160" s="12">
+        <v>0</v>
+      </c>
+      <c r="E160" s="3">
+        <v>1</v>
+      </c>
+      <c r="F160" s="39">
+        <v>1</v>
+      </c>
+      <c r="G160" s="23">
+        <v>2</v>
+      </c>
+      <c r="H160" s="16">
+        <f t="shared" si="83"/>
+        <v>3</v>
+      </c>
+      <c r="I160" s="31">
+        <v>0</v>
+      </c>
+      <c r="J160" s="15">
+        <f t="shared" si="84"/>
+        <v>153</v>
+      </c>
+      <c r="K160" s="15">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="L160" s="25">
+        <v>0</v>
+      </c>
+      <c r="M160" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>44047</v>
+      </c>
+      <c r="B161" s="18">
+        <f t="shared" si="82"/>
+        <v>2163</v>
+      </c>
+      <c r="C161" s="35">
         <v>8</v>
       </c>
-      <c r="D156" s="12">
-        <v>0</v>
-      </c>
-      <c r="E156" s="3">
-        <v>1</v>
-      </c>
-      <c r="F156" s="39">
-        <v>1</v>
-      </c>
-      <c r="G156" s="23">
+      <c r="D161" s="12">
+        <v>0</v>
+      </c>
+      <c r="E161" s="3">
+        <v>1</v>
+      </c>
+      <c r="F161" s="39">
+        <v>1</v>
+      </c>
+      <c r="G161" s="23">
+        <v>2</v>
+      </c>
+      <c r="H161" s="16">
+        <f t="shared" si="83"/>
+        <v>3</v>
+      </c>
+      <c r="I161" s="31">
+        <v>0</v>
+      </c>
+      <c r="J161" s="15">
+        <f t="shared" si="84"/>
+        <v>153</v>
+      </c>
+      <c r="K161" s="15">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="L161" s="25">
+        <v>0</v>
+      </c>
+      <c r="M161" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>44048</v>
+      </c>
+      <c r="B162" s="18">
+        <f t="shared" si="82"/>
+        <v>2167</v>
+      </c>
+      <c r="C162" s="35">
         <v>4</v>
       </c>
-      <c r="H156" s="16">
-        <f t="shared" ref="H156:H157" si="87">G156+E156</f>
-        <v>5</v>
-      </c>
-      <c r="I156" s="31">
-        <v>0</v>
-      </c>
-      <c r="J156" s="15">
-        <f t="shared" ref="J156:J157" si="88">J155+K156</f>
+      <c r="D162" s="12">
+        <v>0</v>
+      </c>
+      <c r="E162" s="3">
+        <v>1</v>
+      </c>
+      <c r="F162" s="39">
+        <v>1</v>
+      </c>
+      <c r="G162" s="23">
+        <v>2</v>
+      </c>
+      <c r="H162" s="16">
+        <f t="shared" si="83"/>
+        <v>3</v>
+      </c>
+      <c r="I162" s="31">
+        <v>0</v>
+      </c>
+      <c r="J162" s="15">
+        <f t="shared" si="84"/>
         <v>153</v>
       </c>
-      <c r="K156" s="15">
-        <f t="shared" ref="K156:K157" si="89">L156+M156</f>
-        <v>0</v>
-      </c>
-      <c r="L156" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="M156" s="26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A157" s="2">
-        <v>44043</v>
-      </c>
-      <c r="B157" s="19">
+      <c r="K162" s="15">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="L162" s="25">
+        <v>0</v>
+      </c>
+      <c r="M162" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>44049</v>
+      </c>
+      <c r="B163" s="18">
+        <f t="shared" ref="B163:B164" si="86">B162+C163</f>
+        <v>2173</v>
+      </c>
+      <c r="C163" s="35">
+        <v>6</v>
+      </c>
+      <c r="D163" s="12">
+        <v>0</v>
+      </c>
+      <c r="E163" s="3">
+        <v>1</v>
+      </c>
+      <c r="F163" s="39">
+        <v>1</v>
+      </c>
+      <c r="G163" s="23">
+        <v>2</v>
+      </c>
+      <c r="H163" s="16">
+        <f t="shared" ref="H163:H164" si="87">G163+E163</f>
+        <v>3</v>
+      </c>
+      <c r="I163" s="31">
+        <v>0</v>
+      </c>
+      <c r="J163" s="15">
+        <f t="shared" ref="J163:J164" si="88">J162+K163</f>
+        <v>153</v>
+      </c>
+      <c r="K163" s="15">
+        <f t="shared" ref="K163:K164" si="89">L163+M163</f>
+        <v>0</v>
+      </c>
+      <c r="L163" s="25">
+        <v>0</v>
+      </c>
+      <c r="M163" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>44050</v>
+      </c>
+      <c r="B164" s="18">
         <f t="shared" si="86"/>
-        <v>2144</v>
-      </c>
-      <c r="C157" s="36">
-        <v>0</v>
-      </c>
-      <c r="D157" s="13">
-        <v>0</v>
-      </c>
-      <c r="E157" s="29">
-        <v>1</v>
-      </c>
-      <c r="F157" s="40">
-        <v>1</v>
-      </c>
-      <c r="G157" s="24">
-        <v>3</v>
-      </c>
-      <c r="H157" s="17">
+        <v>2180</v>
+      </c>
+      <c r="C164" s="35">
+        <v>7</v>
+      </c>
+      <c r="D164" s="12">
+        <v>0</v>
+      </c>
+      <c r="E164" s="3">
+        <v>1</v>
+      </c>
+      <c r="F164" s="39">
+        <v>1</v>
+      </c>
+      <c r="G164" s="23">
+        <v>2</v>
+      </c>
+      <c r="H164" s="16">
         <f t="shared" si="87"/>
-        <v>4</v>
-      </c>
-      <c r="I157" s="32">
-        <v>1</v>
-      </c>
-      <c r="J157" s="20">
+        <v>3</v>
+      </c>
+      <c r="I164" s="31">
+        <v>0</v>
+      </c>
+      <c r="J164" s="15">
         <f t="shared" si="88"/>
         <v>153</v>
       </c>
-      <c r="K157" s="20">
+      <c r="K164" s="15">
         <f t="shared" si="89"/>
         <v>0</v>
       </c>
-      <c r="L157" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="M157" s="28" t="s">
-        <v>13</v>
+      <c r="L164" s="25">
+        <v>0</v>
+      </c>
+      <c r="M164" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>44051</v>
+      </c>
+      <c r="B165" s="18">
+        <f t="shared" ref="B165:B167" si="90">B164+C165</f>
+        <v>2184</v>
+      </c>
+      <c r="C165" s="35">
+        <v>4</v>
+      </c>
+      <c r="D165" s="12">
+        <v>0</v>
+      </c>
+      <c r="E165" s="3">
+        <v>1</v>
+      </c>
+      <c r="F165" s="39">
+        <v>1</v>
+      </c>
+      <c r="G165" s="23">
+        <v>2</v>
+      </c>
+      <c r="H165" s="16">
+        <f t="shared" ref="H165:H167" si="91">G165+E165</f>
+        <v>3</v>
+      </c>
+      <c r="I165" s="31">
+        <v>0</v>
+      </c>
+      <c r="J165" s="15">
+        <f t="shared" ref="J165:J167" si="92">J164+K165</f>
+        <v>153</v>
+      </c>
+      <c r="K165" s="15">
+        <f t="shared" ref="K165:K167" si="93">L165+M165</f>
+        <v>0</v>
+      </c>
+      <c r="L165" s="25">
+        <v>0</v>
+      </c>
+      <c r="M165" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>44052</v>
+      </c>
+      <c r="B166" s="18">
+        <f t="shared" si="90"/>
+        <v>2186</v>
+      </c>
+      <c r="C166" s="35">
+        <v>2</v>
+      </c>
+      <c r="D166" s="12">
+        <v>0</v>
+      </c>
+      <c r="E166" s="3">
+        <v>1</v>
+      </c>
+      <c r="F166" s="39">
+        <v>1</v>
+      </c>
+      <c r="G166" s="23">
+        <v>2</v>
+      </c>
+      <c r="H166" s="16">
+        <f t="shared" si="91"/>
+        <v>3</v>
+      </c>
+      <c r="I166" s="31">
+        <v>0</v>
+      </c>
+      <c r="J166" s="15">
+        <f t="shared" si="92"/>
+        <v>153</v>
+      </c>
+      <c r="K166" s="15">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="L166" s="25">
+        <v>0</v>
+      </c>
+      <c r="M166" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A167" s="2">
+        <v>44053</v>
+      </c>
+      <c r="B167" s="19">
+        <f t="shared" si="90"/>
+        <v>2187</v>
+      </c>
+      <c r="C167" s="36">
+        <v>1</v>
+      </c>
+      <c r="D167" s="13">
+        <v>0</v>
+      </c>
+      <c r="E167" s="29">
+        <v>1</v>
+      </c>
+      <c r="F167" s="40">
+        <v>1</v>
+      </c>
+      <c r="G167" s="24">
+        <v>2</v>
+      </c>
+      <c r="H167" s="17">
+        <f t="shared" si="91"/>
+        <v>3</v>
+      </c>
+      <c r="I167" s="32">
+        <v>0</v>
+      </c>
+      <c r="J167" s="20">
+        <f t="shared" si="92"/>
+        <v>153</v>
+      </c>
+      <c r="K167" s="20">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="L167" s="27">
+        <v>0</v>
+      </c>
+      <c r="M167" s="28">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Chiffres  COVID-19 Valais.xlsx
+++ b/Chiffres  COVID-19 Valais.xlsx
@@ -99,7 +99,7 @@
     <t>Nb de nouvelles sorties</t>
   </si>
   <si>
-    <t>Données COVID-19 Valais 10.08.2020</t>
+    <t>Données COVID-19 Valais 11.08.2020</t>
   </si>
 </sst>
 </file>
@@ -722,13 +722,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O167"/>
+  <dimension ref="A1:O168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B139" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B140" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B167" sqref="B167"/>
+      <selection pane="bottomRight" activeCell="B168" sqref="B168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8097,7 +8097,7 @@
         <v>44051</v>
       </c>
       <c r="B165" s="18">
-        <f t="shared" ref="B165:B167" si="90">B164+C165</f>
+        <f t="shared" ref="B165:B166" si="90">B164+C165</f>
         <v>2184</v>
       </c>
       <c r="C165" s="35">
@@ -8116,18 +8116,18 @@
         <v>2</v>
       </c>
       <c r="H165" s="16">
-        <f t="shared" ref="H165:H167" si="91">G165+E165</f>
+        <f t="shared" ref="H165:H166" si="91">G165+E165</f>
         <v>3</v>
       </c>
       <c r="I165" s="31">
         <v>0</v>
       </c>
       <c r="J165" s="15">
-        <f t="shared" ref="J165:J167" si="92">J164+K165</f>
+        <f t="shared" ref="J165:J166" si="92">J164+K165</f>
         <v>153</v>
       </c>
       <c r="K165" s="15">
-        <f t="shared" ref="K165:K167" si="93">L165+M165</f>
+        <f t="shared" ref="K165:K166" si="93">L165+M165</f>
         <v>0</v>
       </c>
       <c r="L165" s="25">
@@ -8143,10 +8143,10 @@
       </c>
       <c r="B166" s="18">
         <f t="shared" si="90"/>
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="C166" s="35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D166" s="12">
         <v>0</v>
@@ -8183,47 +8183,92 @@
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A167" s="2">
+      <c r="A167" s="1">
         <v>44053</v>
       </c>
-      <c r="B167" s="19">
-        <f t="shared" si="90"/>
-        <v>2187</v>
-      </c>
-      <c r="C167" s="36">
-        <v>1</v>
-      </c>
-      <c r="D167" s="13">
-        <v>0</v>
-      </c>
-      <c r="E167" s="29">
-        <v>1</v>
-      </c>
-      <c r="F167" s="40">
-        <v>1</v>
-      </c>
-      <c r="G167" s="24">
-        <v>2</v>
-      </c>
-      <c r="H167" s="17">
-        <f t="shared" si="91"/>
-        <v>3</v>
-      </c>
-      <c r="I167" s="32">
-        <v>0</v>
-      </c>
-      <c r="J167" s="20">
-        <f t="shared" si="92"/>
+      <c r="B167" s="18">
+        <f t="shared" ref="B167:B168" si="94">B166+C167</f>
+        <v>2192</v>
+      </c>
+      <c r="C167" s="35">
+        <v>5</v>
+      </c>
+      <c r="D167" s="12">
+        <v>0</v>
+      </c>
+      <c r="E167" s="3">
+        <v>1</v>
+      </c>
+      <c r="F167" s="39">
+        <v>1</v>
+      </c>
+      <c r="G167" s="23">
+        <v>2</v>
+      </c>
+      <c r="H167" s="16">
+        <f t="shared" ref="H167:H168" si="95">G167+E167</f>
+        <v>3</v>
+      </c>
+      <c r="I167" s="31">
+        <v>0</v>
+      </c>
+      <c r="J167" s="15">
+        <f t="shared" ref="J167:J168" si="96">J166+K167</f>
         <v>153</v>
       </c>
-      <c r="K167" s="20">
-        <f t="shared" si="93"/>
-        <v>0</v>
-      </c>
-      <c r="L167" s="27">
-        <v>0</v>
-      </c>
-      <c r="M167" s="28">
+      <c r="K167" s="15">
+        <f t="shared" ref="K167:K168" si="97">L167+M167</f>
+        <v>0</v>
+      </c>
+      <c r="L167" s="25">
+        <v>0</v>
+      </c>
+      <c r="M167" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A168" s="2">
+        <v>44054</v>
+      </c>
+      <c r="B168" s="19">
+        <f t="shared" si="94"/>
+        <v>2192</v>
+      </c>
+      <c r="C168" s="36">
+        <v>0</v>
+      </c>
+      <c r="D168" s="13">
+        <v>0</v>
+      </c>
+      <c r="E168" s="29">
+        <v>1</v>
+      </c>
+      <c r="F168" s="40">
+        <v>1</v>
+      </c>
+      <c r="G168" s="24">
+        <v>2</v>
+      </c>
+      <c r="H168" s="17">
+        <f t="shared" si="95"/>
+        <v>3</v>
+      </c>
+      <c r="I168" s="32">
+        <v>0</v>
+      </c>
+      <c r="J168" s="20">
+        <f t="shared" si="96"/>
+        <v>153</v>
+      </c>
+      <c r="K168" s="20">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="L168" s="27">
+        <v>0</v>
+      </c>
+      <c r="M168" s="28">
         <v>0</v>
       </c>
     </row>

--- a/Chiffres  COVID-19 Valais.xlsx
+++ b/Chiffres  COVID-19 Valais.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -99,7 +99,10 @@
     <t>Nb de nouvelles sorties</t>
   </si>
   <si>
-    <t>Données COVID-19 Valais 11.08.2020</t>
+    <t>Données COVID-19 Valais 12.08.2020</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -722,13 +725,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O168"/>
+  <dimension ref="A1:O169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B140" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B141" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B168" sqref="B168"/>
+      <selection pane="bottomRight" activeCell="B169" sqref="B169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8187,11 +8190,11 @@
         <v>44053</v>
       </c>
       <c r="B167" s="18">
-        <f t="shared" ref="B167:B168" si="94">B166+C167</f>
-        <v>2192</v>
+        <f t="shared" ref="B167" si="94">B166+C167</f>
+        <v>2197</v>
       </c>
       <c r="C167" s="35">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D167" s="12">
         <v>0</v>
@@ -8206,18 +8209,18 @@
         <v>2</v>
       </c>
       <c r="H167" s="16">
-        <f t="shared" ref="H167:H168" si="95">G167+E167</f>
+        <f t="shared" ref="H167" si="95">G167+E167</f>
         <v>3</v>
       </c>
       <c r="I167" s="31">
         <v>0</v>
       </c>
       <c r="J167" s="15">
-        <f t="shared" ref="J167:J168" si="96">J166+K167</f>
+        <f t="shared" ref="J167" si="96">J166+K167</f>
         <v>153</v>
       </c>
       <c r="K167" s="15">
-        <f t="shared" ref="K167:K168" si="97">L167+M167</f>
+        <f t="shared" ref="K167" si="97">L167+M167</f>
         <v>0</v>
       </c>
       <c r="L167" s="25">
@@ -8228,48 +8231,93 @@
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A168" s="2">
+      <c r="A168" s="1">
         <v>44054</v>
       </c>
-      <c r="B168" s="19">
-        <f t="shared" si="94"/>
-        <v>2192</v>
-      </c>
-      <c r="C168" s="36">
-        <v>0</v>
-      </c>
-      <c r="D168" s="13">
-        <v>0</v>
-      </c>
-      <c r="E168" s="29">
-        <v>1</v>
-      </c>
-      <c r="F168" s="40">
-        <v>1</v>
-      </c>
-      <c r="G168" s="24">
-        <v>2</v>
-      </c>
-      <c r="H168" s="17">
-        <f t="shared" si="95"/>
-        <v>3</v>
-      </c>
-      <c r="I168" s="32">
-        <v>0</v>
-      </c>
-      <c r="J168" s="20">
-        <f t="shared" si="96"/>
+      <c r="B168" s="18">
+        <f t="shared" ref="B168:B169" si="98">B167+C168</f>
+        <v>2204</v>
+      </c>
+      <c r="C168" s="35">
+        <v>7</v>
+      </c>
+      <c r="D168" s="12">
+        <v>1</v>
+      </c>
+      <c r="E168" s="3">
+        <v>1</v>
+      </c>
+      <c r="F168" s="39">
+        <v>1</v>
+      </c>
+      <c r="G168" s="23">
+        <v>3</v>
+      </c>
+      <c r="H168" s="16">
+        <f t="shared" ref="H168:H169" si="99">G168+E168</f>
+        <v>4</v>
+      </c>
+      <c r="I168" s="31">
+        <v>0</v>
+      </c>
+      <c r="J168" s="15">
+        <f t="shared" ref="J168:J169" si="100">J167+K168</f>
         <v>153</v>
       </c>
-      <c r="K168" s="20">
-        <f t="shared" si="97"/>
-        <v>0</v>
-      </c>
-      <c r="L168" s="27">
-        <v>0</v>
-      </c>
-      <c r="M168" s="28">
-        <v>0</v>
+      <c r="K168" s="15">
+        <f t="shared" ref="K168:K169" si="101">L168+M168</f>
+        <v>0</v>
+      </c>
+      <c r="L168" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="M168" s="26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A169" s="2">
+        <v>44055</v>
+      </c>
+      <c r="B169" s="19">
+        <f t="shared" si="98"/>
+        <v>2204</v>
+      </c>
+      <c r="C169" s="36">
+        <v>0</v>
+      </c>
+      <c r="D169" s="13">
+        <v>0</v>
+      </c>
+      <c r="E169" s="29">
+        <v>1</v>
+      </c>
+      <c r="F169" s="40">
+        <v>1</v>
+      </c>
+      <c r="G169" s="24">
+        <v>3</v>
+      </c>
+      <c r="H169" s="17">
+        <f t="shared" si="99"/>
+        <v>4</v>
+      </c>
+      <c r="I169" s="32">
+        <v>0</v>
+      </c>
+      <c r="J169" s="20">
+        <f t="shared" si="100"/>
+        <v>153</v>
+      </c>
+      <c r="K169" s="20">
+        <f t="shared" si="101"/>
+        <v>0</v>
+      </c>
+      <c r="L169" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="M169" s="28" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Chiffres  COVID-19 Valais.xlsx
+++ b/Chiffres  COVID-19 Valais.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -99,10 +99,10 @@
     <t>Nb de nouvelles sorties</t>
   </si>
   <si>
-    <t>Données COVID-19 Valais 12.08.2020</t>
+    <t>0</t>
   </si>
   <si>
-    <t>0</t>
+    <t>Données COVID-19 Valais 13.08.2020</t>
   </si>
 </sst>
 </file>
@@ -725,29 +725,29 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O169"/>
+  <dimension ref="A1:O170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B141" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B163" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B169" sqref="B169"/>
+      <selection pane="bottomRight" activeCell="A170" sqref="A170"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.42578125" style="14"/>
-    <col min="3" max="3" width="11.42578125" style="37"/>
-    <col min="4" max="4" width="10.85546875" style="14"/>
-    <col min="8" max="9" width="16.140625" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" style="14"/>
+    <col min="3" max="3" width="11.453125" style="37"/>
+    <col min="4" max="4" width="10.81640625" style="14"/>
+    <col min="8" max="9" width="16.1796875" customWidth="1"/>
+    <col min="11" max="11" width="14.54296875" customWidth="1"/>
+    <col min="12" max="12" width="13.54296875" customWidth="1"/>
+    <col min="13" max="13" width="15.7265625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B1" s="42"/>
       <c r="C1" s="42"/>
@@ -762,7 +762,7 @@
       <c r="L1" s="42"/>
       <c r="M1" s="43"/>
     </row>
-    <row r="2" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -805,7 +805,7 @@
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>43889</v>
       </c>
@@ -850,7 +850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>43890</v>
       </c>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>43891</v>
       </c>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>43892</v>
       </c>
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>43893</v>
       </c>
@@ -1030,7 +1030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>43894</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>43895</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>43896</v>
       </c>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>43897</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>43898</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>43899</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>43900</v>
       </c>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>43901</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>43902</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>43903</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>43904</v>
       </c>
@@ -1525,7 +1525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>43905</v>
       </c>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>43906</v>
       </c>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>43907</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>43908</v>
       </c>
@@ -1705,7 +1705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>43909</v>
       </c>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>43910</v>
       </c>
@@ -1795,7 +1795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>43911</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>43912</v>
       </c>
@@ -1885,7 +1885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>43913</v>
       </c>
@@ -1930,7 +1930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>43914</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>43915</v>
       </c>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>43916</v>
       </c>
@@ -2065,7 +2065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>43917</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>43918</v>
       </c>
@@ -2155,7 +2155,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>43919</v>
       </c>
@@ -2200,7 +2200,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>43920</v>
       </c>
@@ -2245,7 +2245,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>43921</v>
       </c>
@@ -2290,7 +2290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>43922</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>43923</v>
       </c>
@@ -2380,7 +2380,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>43924</v>
       </c>
@@ -2425,7 +2425,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>43925</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>43926</v>
       </c>
@@ -2515,7 +2515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>43927</v>
       </c>
@@ -2560,7 +2560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>43928</v>
       </c>
@@ -2605,7 +2605,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>43929</v>
       </c>
@@ -2650,7 +2650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>43930</v>
       </c>
@@ -2695,7 +2695,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>43931</v>
       </c>
@@ -2740,7 +2740,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>43932</v>
       </c>
@@ -2785,7 +2785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>43933</v>
       </c>
@@ -2830,7 +2830,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>43934</v>
       </c>
@@ -2875,7 +2875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>43935</v>
       </c>
@@ -2920,7 +2920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>43936</v>
       </c>
@@ -2965,7 +2965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>43937</v>
       </c>
@@ -3010,7 +3010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>43938</v>
       </c>
@@ -3055,7 +3055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>43939</v>
       </c>
@@ -3100,7 +3100,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>43940</v>
       </c>
@@ -3145,7 +3145,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>43941</v>
       </c>
@@ -3190,7 +3190,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>43942</v>
       </c>
@@ -3235,7 +3235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>43943</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>43944</v>
       </c>
@@ -3325,7 +3325,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>43945</v>
       </c>
@@ -3370,7 +3370,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>43946</v>
       </c>
@@ -3415,7 +3415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>43947</v>
       </c>
@@ -3460,7 +3460,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>43948</v>
       </c>
@@ -3505,7 +3505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>43949</v>
       </c>
@@ -3550,7 +3550,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>43950</v>
       </c>
@@ -3595,7 +3595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>43951</v>
       </c>
@@ -3640,7 +3640,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>43952</v>
       </c>
@@ -3685,7 +3685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>43953</v>
       </c>
@@ -3730,7 +3730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>43954</v>
       </c>
@@ -3775,7 +3775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>43955</v>
       </c>
@@ -3820,7 +3820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>43956</v>
       </c>
@@ -3865,7 +3865,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>43957</v>
       </c>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>43958</v>
       </c>
@@ -3955,7 +3955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>43959</v>
       </c>
@@ -4000,7 +4000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>43960</v>
       </c>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>43961</v>
       </c>
@@ -4090,7 +4090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>43962</v>
       </c>
@@ -4135,7 +4135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>43963</v>
       </c>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>43964</v>
       </c>
@@ -4225,7 +4225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>43965</v>
       </c>
@@ -4270,7 +4270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>43966</v>
       </c>
@@ -4315,7 +4315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>43967</v>
       </c>
@@ -4360,7 +4360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>43968</v>
       </c>
@@ -4405,7 +4405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>43969</v>
       </c>
@@ -4450,7 +4450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>43970</v>
       </c>
@@ -4495,7 +4495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>43971</v>
       </c>
@@ -4540,7 +4540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>43972</v>
       </c>
@@ -4585,7 +4585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>43973</v>
       </c>
@@ -4630,7 +4630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>43974</v>
       </c>
@@ -4675,7 +4675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>43975</v>
       </c>
@@ -4720,7 +4720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>43976</v>
       </c>
@@ -4765,7 +4765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>43977</v>
       </c>
@@ -4810,7 +4810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>43978</v>
       </c>
@@ -4855,7 +4855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>43979</v>
       </c>
@@ -4900,7 +4900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>43980</v>
       </c>
@@ -4945,7 +4945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>43981</v>
       </c>
@@ -4990,7 +4990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>43982</v>
       </c>
@@ -5035,7 +5035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>43983</v>
       </c>
@@ -5080,7 +5080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>43984</v>
       </c>
@@ -5125,7 +5125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>43985</v>
       </c>
@@ -5170,7 +5170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>43986</v>
       </c>
@@ -5215,7 +5215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>43987</v>
       </c>
@@ -5260,7 +5260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>43988</v>
       </c>
@@ -5305,7 +5305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>43989</v>
       </c>
@@ -5350,7 +5350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>43990</v>
       </c>
@@ -5395,7 +5395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>43991</v>
       </c>
@@ -5440,7 +5440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>43992</v>
       </c>
@@ -5485,7 +5485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>43993</v>
       </c>
@@ -5530,7 +5530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>43994</v>
       </c>
@@ -5575,7 +5575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>43995</v>
       </c>
@@ -5620,7 +5620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>43996</v>
       </c>
@@ -5665,7 +5665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>43997</v>
       </c>
@@ -5710,7 +5710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>43998</v>
       </c>
@@ -5755,7 +5755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>43999</v>
       </c>
@@ -5800,7 +5800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>44000</v>
       </c>
@@ -5845,7 +5845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>44001</v>
       </c>
@@ -5890,7 +5890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>44002</v>
       </c>
@@ -5935,7 +5935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>44003</v>
       </c>
@@ -5980,7 +5980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>44004</v>
       </c>
@@ -6025,7 +6025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>44005</v>
       </c>
@@ -6070,7 +6070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>44006</v>
       </c>
@@ -6115,7 +6115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>44007</v>
       </c>
@@ -6160,7 +6160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>44008</v>
       </c>
@@ -6205,7 +6205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>44009</v>
       </c>
@@ -6250,7 +6250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>44010</v>
       </c>
@@ -6295,7 +6295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>44011</v>
       </c>
@@ -6340,7 +6340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>44012</v>
       </c>
@@ -6385,7 +6385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>44013</v>
       </c>
@@ -6430,7 +6430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>44014</v>
       </c>
@@ -6475,7 +6475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>44015</v>
       </c>
@@ -6520,7 +6520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>44016</v>
       </c>
@@ -6565,7 +6565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>44017</v>
       </c>
@@ -6610,7 +6610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>44018</v>
       </c>
@@ -6655,7 +6655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>44019</v>
       </c>
@@ -6700,7 +6700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>44020</v>
       </c>
@@ -6745,7 +6745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>44021</v>
       </c>
@@ -6790,7 +6790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>44022</v>
       </c>
@@ -6835,7 +6835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>44023</v>
       </c>
@@ -6880,7 +6880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>44024</v>
       </c>
@@ -6925,7 +6925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>44025</v>
       </c>
@@ -6970,7 +6970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>44026</v>
       </c>
@@ -7015,7 +7015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>44027</v>
       </c>
@@ -7060,7 +7060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>44028</v>
       </c>
@@ -7105,7 +7105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>44029</v>
       </c>
@@ -7150,7 +7150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>44030</v>
       </c>
@@ -7195,7 +7195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>44031</v>
       </c>
@@ -7240,7 +7240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>44032</v>
       </c>
@@ -7285,7 +7285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>44033</v>
       </c>
@@ -7330,7 +7330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>44034</v>
       </c>
@@ -7375,7 +7375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>44035</v>
       </c>
@@ -7420,7 +7420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>44036</v>
       </c>
@@ -7465,7 +7465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <v>44037</v>
       </c>
@@ -7510,7 +7510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <v>44038</v>
       </c>
@@ -7555,7 +7555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <v>44039</v>
       </c>
@@ -7600,7 +7600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <v>44040</v>
       </c>
@@ -7645,7 +7645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>44041</v>
       </c>
@@ -7690,7 +7690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>44042</v>
       </c>
@@ -7735,7 +7735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>44043</v>
       </c>
@@ -7780,7 +7780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>44044</v>
       </c>
@@ -7825,7 +7825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
         <v>44045</v>
       </c>
@@ -7870,7 +7870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <v>44046</v>
       </c>
@@ -7915,7 +7915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
         <v>44047</v>
       </c>
@@ -7960,7 +7960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
         <v>44048</v>
       </c>
@@ -8005,7 +8005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
         <v>44049</v>
       </c>
@@ -8050,7 +8050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <v>44050</v>
       </c>
@@ -8095,7 +8095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
         <v>44051</v>
       </c>
@@ -8140,7 +8140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
         <v>44052</v>
       </c>
@@ -8185,16 +8185,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
         <v>44053</v>
       </c>
       <c r="B167" s="18">
         <f t="shared" ref="B167" si="94">B166+C167</f>
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="C167" s="35">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D167" s="12">
         <v>0</v>
@@ -8230,16 +8230,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
         <v>44054</v>
       </c>
       <c r="B168" s="18">
-        <f t="shared" ref="B168:B169" si="98">B167+C168</f>
-        <v>2204</v>
+        <f t="shared" ref="B168" si="98">B167+C168</f>
+        <v>2206</v>
       </c>
       <c r="C168" s="35">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D168" s="12">
         <v>1</v>
@@ -8254,70 +8254,115 @@
         <v>3</v>
       </c>
       <c r="H168" s="16">
-        <f t="shared" ref="H168:H169" si="99">G168+E168</f>
+        <f t="shared" ref="H168" si="99">G168+E168</f>
         <v>4</v>
       </c>
       <c r="I168" s="31">
         <v>0</v>
       </c>
       <c r="J168" s="15">
-        <f t="shared" ref="J168:J169" si="100">J167+K168</f>
+        <f t="shared" ref="J168" si="100">J167+K168</f>
         <v>153</v>
       </c>
       <c r="K168" s="15">
-        <f t="shared" ref="K168:K169" si="101">L168+M168</f>
+        <f t="shared" ref="K168" si="101">L168+M168</f>
         <v>0</v>
       </c>
       <c r="L168" s="25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M168" s="26" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A169" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A169" s="1">
         <v>44055</v>
       </c>
-      <c r="B169" s="19">
-        <f t="shared" si="98"/>
-        <v>2204</v>
-      </c>
-      <c r="C169" s="36">
-        <v>0</v>
-      </c>
-      <c r="D169" s="13">
-        <v>0</v>
-      </c>
-      <c r="E169" s="29">
-        <v>1</v>
-      </c>
-      <c r="F169" s="40">
-        <v>1</v>
-      </c>
-      <c r="G169" s="24">
-        <v>3</v>
-      </c>
-      <c r="H169" s="17">
-        <f t="shared" si="99"/>
+      <c r="B169" s="18">
+        <f t="shared" ref="B169:B170" si="102">B168+C169</f>
+        <v>2210</v>
+      </c>
+      <c r="C169" s="35">
         <v>4</v>
       </c>
-      <c r="I169" s="32">
-        <v>0</v>
-      </c>
-      <c r="J169" s="20">
-        <f t="shared" si="100"/>
+      <c r="D169" s="12">
+        <v>1</v>
+      </c>
+      <c r="E169" s="3">
+        <v>1</v>
+      </c>
+      <c r="F169" s="39">
+        <v>1</v>
+      </c>
+      <c r="G169" s="23">
+        <v>4</v>
+      </c>
+      <c r="H169" s="16">
+        <f t="shared" ref="H169:H170" si="103">G169+E169</f>
+        <v>5</v>
+      </c>
+      <c r="I169" s="31">
+        <v>0</v>
+      </c>
+      <c r="J169" s="15">
+        <f t="shared" ref="J169:J170" si="104">J168+K169</f>
         <v>153</v>
       </c>
-      <c r="K169" s="20">
-        <f t="shared" si="101"/>
-        <v>0</v>
-      </c>
-      <c r="L169" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="M169" s="28" t="s">
-        <v>14</v>
+      <c r="K169" s="15">
+        <f t="shared" ref="K169:K170" si="105">L169+M169</f>
+        <v>0</v>
+      </c>
+      <c r="L169" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="M169" s="26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A170" s="2">
+        <v>44056</v>
+      </c>
+      <c r="B170" s="19">
+        <f t="shared" si="102"/>
+        <v>2210</v>
+      </c>
+      <c r="C170" s="36">
+        <v>0</v>
+      </c>
+      <c r="D170" s="13">
+        <v>0</v>
+      </c>
+      <c r="E170" s="29">
+        <v>1</v>
+      </c>
+      <c r="F170" s="40">
+        <v>1</v>
+      </c>
+      <c r="G170" s="24">
+        <v>4</v>
+      </c>
+      <c r="H170" s="17">
+        <f t="shared" si="103"/>
+        <v>5</v>
+      </c>
+      <c r="I170" s="32">
+        <v>0</v>
+      </c>
+      <c r="J170" s="20">
+        <f t="shared" si="104"/>
+        <v>153</v>
+      </c>
+      <c r="K170" s="20">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+      <c r="L170" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="M170" s="28" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Chiffres  COVID-19 Valais.xlsx
+++ b/Chiffres  COVID-19 Valais.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -102,7 +102,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>Données COVID-19 Valais 13.08.2020</t>
+    <t>Données COVID-19 Valais 14.08.2020</t>
   </si>
 </sst>
 </file>
@@ -725,13 +725,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O170"/>
+  <dimension ref="A1:O171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B163" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B166" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A170" sqref="A170"/>
+      <selection pane="bottomRight" activeCell="A176" sqref="A176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8280,11 +8280,11 @@
         <v>44055</v>
       </c>
       <c r="B169" s="18">
-        <f t="shared" ref="B169:B170" si="102">B168+C169</f>
-        <v>2210</v>
+        <f t="shared" ref="B169" si="102">B168+C169</f>
+        <v>2214</v>
       </c>
       <c r="C169" s="35">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D169" s="12">
         <v>1</v>
@@ -8299,18 +8299,18 @@
         <v>4</v>
       </c>
       <c r="H169" s="16">
-        <f t="shared" ref="H169:H170" si="103">G169+E169</f>
+        <f t="shared" ref="H169" si="103">G169+E169</f>
         <v>5</v>
       </c>
       <c r="I169" s="31">
         <v>0</v>
       </c>
       <c r="J169" s="15">
-        <f t="shared" ref="J169:J170" si="104">J168+K169</f>
+        <f t="shared" ref="J169" si="104">J168+K169</f>
         <v>153</v>
       </c>
       <c r="K169" s="15">
-        <f t="shared" ref="K169:K170" si="105">L169+M169</f>
+        <f t="shared" ref="K169" si="105">L169+M169</f>
         <v>0</v>
       </c>
       <c r="L169" s="25" t="s">
@@ -8321,47 +8321,92 @@
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A170" s="2">
+      <c r="A170" s="1">
         <v>44056</v>
       </c>
-      <c r="B170" s="19">
-        <f t="shared" si="102"/>
-        <v>2210</v>
-      </c>
-      <c r="C170" s="36">
-        <v>0</v>
-      </c>
-      <c r="D170" s="13">
-        <v>0</v>
-      </c>
-      <c r="E170" s="29">
-        <v>1</v>
-      </c>
-      <c r="F170" s="40">
-        <v>1</v>
-      </c>
-      <c r="G170" s="24">
+      <c r="B170" s="18">
+        <f t="shared" ref="B170:B171" si="106">B169+C170</f>
+        <v>2221</v>
+      </c>
+      <c r="C170" s="35">
+        <v>7</v>
+      </c>
+      <c r="D170" s="12">
+        <v>0</v>
+      </c>
+      <c r="E170" s="3">
+        <v>1</v>
+      </c>
+      <c r="F170" s="39">
+        <v>1</v>
+      </c>
+      <c r="G170" s="23">
         <v>4</v>
       </c>
-      <c r="H170" s="17">
-        <f t="shared" si="103"/>
+      <c r="H170" s="16">
+        <f t="shared" ref="H170:H171" si="107">G170+E170</f>
         <v>5</v>
       </c>
-      <c r="I170" s="32">
-        <v>0</v>
-      </c>
-      <c r="J170" s="20">
-        <f t="shared" si="104"/>
+      <c r="I170" s="31">
+        <v>0</v>
+      </c>
+      <c r="J170" s="15">
+        <f t="shared" ref="J170:J171" si="108">J169+K170</f>
         <v>153</v>
       </c>
-      <c r="K170" s="20">
-        <f t="shared" si="105"/>
-        <v>0</v>
-      </c>
-      <c r="L170" s="27" t="s">
+      <c r="K170" s="15">
+        <f t="shared" ref="K170:K171" si="109">L170+M170</f>
+        <v>0</v>
+      </c>
+      <c r="L170" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="M170" s="28" t="s">
+      <c r="M170" s="26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A171" s="2">
+        <v>44057</v>
+      </c>
+      <c r="B171" s="19">
+        <f t="shared" si="106"/>
+        <v>2222</v>
+      </c>
+      <c r="C171" s="36">
+        <v>1</v>
+      </c>
+      <c r="D171" s="13">
+        <v>0</v>
+      </c>
+      <c r="E171" s="29">
+        <v>1</v>
+      </c>
+      <c r="F171" s="40">
+        <v>1</v>
+      </c>
+      <c r="G171" s="24">
+        <v>4</v>
+      </c>
+      <c r="H171" s="17">
+        <f t="shared" si="107"/>
+        <v>5</v>
+      </c>
+      <c r="I171" s="32">
+        <v>0</v>
+      </c>
+      <c r="J171" s="20">
+        <f t="shared" si="108"/>
+        <v>153</v>
+      </c>
+      <c r="K171" s="20">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+      <c r="L171" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="M171" s="28" t="s">
         <v>13</v>
       </c>
     </row>

--- a/Chiffres  COVID-19 Valais.xlsx
+++ b/Chiffres  COVID-19 Valais.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Jidfs\users\B105PLS\Documents\COVID-Monitoring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\B105PSG\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -728,24 +728,24 @@
   <dimension ref="A1:O310"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B169" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B161" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A169" sqref="A169"/>
+      <selection pane="bottomRight" activeCell="C176" sqref="C176"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.453125" style="14"/>
-    <col min="3" max="3" width="11.453125" style="36"/>
-    <col min="4" max="4" width="10.81640625" style="14"/>
-    <col min="8" max="9" width="16.1796875" customWidth="1"/>
-    <col min="11" max="11" width="14.54296875" customWidth="1"/>
-    <col min="12" max="12" width="13.54296875" customWidth="1"/>
-    <col min="13" max="13" width="15.7265625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="14"/>
+    <col min="3" max="3" width="11.42578125" style="36"/>
+    <col min="4" max="4" width="10.85546875" style="14"/>
+    <col min="8" max="9" width="16.140625" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="41" t="s">
         <v>13</v>
       </c>
@@ -762,7 +762,7 @@
       <c r="L1" s="42"/>
       <c r="M1" s="43"/>
     </row>
-    <row r="2" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -805,7 +805,7 @@
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43889</v>
       </c>
@@ -850,7 +850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43890</v>
       </c>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43891</v>
       </c>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43892</v>
       </c>
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43893</v>
       </c>
@@ -1030,7 +1030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43894</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43895</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43896</v>
       </c>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43897</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43898</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43899</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43900</v>
       </c>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43901</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43902</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43903</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43904</v>
       </c>
@@ -1525,7 +1525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43905</v>
       </c>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43906</v>
       </c>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43907</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43908</v>
       </c>
@@ -1705,7 +1705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43909</v>
       </c>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43910</v>
       </c>
@@ -1795,7 +1795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43911</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43912</v>
       </c>
@@ -1885,7 +1885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43913</v>
       </c>
@@ -1930,7 +1930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43914</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43915</v>
       </c>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43916</v>
       </c>
@@ -2065,7 +2065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43917</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43918</v>
       </c>
@@ -2155,7 +2155,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43919</v>
       </c>
@@ -2200,7 +2200,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>43920</v>
       </c>
@@ -2245,7 +2245,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>43921</v>
       </c>
@@ -2290,7 +2290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>43922</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>43923</v>
       </c>
@@ -2380,7 +2380,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>43924</v>
       </c>
@@ -2425,7 +2425,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>43925</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>43926</v>
       </c>
@@ -2515,7 +2515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>43927</v>
       </c>
@@ -2560,7 +2560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>43928</v>
       </c>
@@ -2605,7 +2605,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43929</v>
       </c>
@@ -2650,7 +2650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43930</v>
       </c>
@@ -2695,7 +2695,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43931</v>
       </c>
@@ -2740,7 +2740,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43932</v>
       </c>
@@ -2785,7 +2785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>43933</v>
       </c>
@@ -2830,7 +2830,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>43934</v>
       </c>
@@ -2875,7 +2875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>43935</v>
       </c>
@@ -2920,7 +2920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>43936</v>
       </c>
@@ -2965,7 +2965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>43937</v>
       </c>
@@ -3010,7 +3010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>43938</v>
       </c>
@@ -3055,7 +3055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>43939</v>
       </c>
@@ -3100,7 +3100,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>43940</v>
       </c>
@@ -3145,7 +3145,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>43941</v>
       </c>
@@ -3190,7 +3190,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>43942</v>
       </c>
@@ -3235,7 +3235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>43943</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>43944</v>
       </c>
@@ -3325,7 +3325,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>43945</v>
       </c>
@@ -3370,7 +3370,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>43946</v>
       </c>
@@ -3415,7 +3415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>43947</v>
       </c>
@@ -3460,7 +3460,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>43948</v>
       </c>
@@ -3505,7 +3505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>43949</v>
       </c>
@@ -3550,7 +3550,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>43950</v>
       </c>
@@ -3595,7 +3595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>43951</v>
       </c>
@@ -3640,7 +3640,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>43952</v>
       </c>
@@ -3685,7 +3685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>43953</v>
       </c>
@@ -3730,7 +3730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>43954</v>
       </c>
@@ -3775,7 +3775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>43955</v>
       </c>
@@ -3820,7 +3820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>43956</v>
       </c>
@@ -3865,7 +3865,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>43957</v>
       </c>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>43958</v>
       </c>
@@ -3955,7 +3955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>43959</v>
       </c>
@@ -4000,7 +4000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>43960</v>
       </c>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>43961</v>
       </c>
@@ -4090,7 +4090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>43962</v>
       </c>
@@ -4135,7 +4135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>43963</v>
       </c>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>43964</v>
       </c>
@@ -4225,7 +4225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>43965</v>
       </c>
@@ -4270,7 +4270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>43966</v>
       </c>
@@ -4315,7 +4315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>43967</v>
       </c>
@@ -4360,7 +4360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>43968</v>
       </c>
@@ -4405,7 +4405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>43969</v>
       </c>
@@ -4450,7 +4450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>43970</v>
       </c>
@@ -4495,7 +4495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>43971</v>
       </c>
@@ -4540,7 +4540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>43972</v>
       </c>
@@ -4585,7 +4585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>43973</v>
       </c>
@@ -4630,7 +4630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>43974</v>
       </c>
@@ -4675,7 +4675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>43975</v>
       </c>
@@ -4720,7 +4720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>43976</v>
       </c>
@@ -4765,7 +4765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>43977</v>
       </c>
@@ -4810,7 +4810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>43978</v>
       </c>
@@ -4855,7 +4855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>43979</v>
       </c>
@@ -4900,7 +4900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>43980</v>
       </c>
@@ -4945,7 +4945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>43981</v>
       </c>
@@ -4990,7 +4990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>43982</v>
       </c>
@@ -5035,7 +5035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>43983</v>
       </c>
@@ -5080,7 +5080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>43984</v>
       </c>
@@ -5125,7 +5125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>43985</v>
       </c>
@@ -5170,7 +5170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>43986</v>
       </c>
@@ -5215,7 +5215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>43987</v>
       </c>
@@ -5260,7 +5260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>43988</v>
       </c>
@@ -5305,7 +5305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>43989</v>
       </c>
@@ -5350,7 +5350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>43990</v>
       </c>
@@ -5395,7 +5395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>43991</v>
       </c>
@@ -5440,7 +5440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>43992</v>
       </c>
@@ -5485,7 +5485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>43993</v>
       </c>
@@ -5530,7 +5530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>43994</v>
       </c>
@@ -5575,7 +5575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>43995</v>
       </c>
@@ -5620,7 +5620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>43996</v>
       </c>
@@ -5665,7 +5665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>43997</v>
       </c>
@@ -5710,7 +5710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>43998</v>
       </c>
@@ -5755,7 +5755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>43999</v>
       </c>
@@ -5800,7 +5800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>44000</v>
       </c>
@@ -5845,7 +5845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>44001</v>
       </c>
@@ -5890,7 +5890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>44002</v>
       </c>
@@ -5935,7 +5935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>44003</v>
       </c>
@@ -5980,7 +5980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>44004</v>
       </c>
@@ -6025,7 +6025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>44005</v>
       </c>
@@ -6070,7 +6070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>44006</v>
       </c>
@@ -6115,7 +6115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>44007</v>
       </c>
@@ -6160,7 +6160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>44008</v>
       </c>
@@ -6205,7 +6205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>44009</v>
       </c>
@@ -6250,7 +6250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>44010</v>
       </c>
@@ -6295,7 +6295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>44011</v>
       </c>
@@ -6340,7 +6340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>44012</v>
       </c>
@@ -6385,7 +6385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>44013</v>
       </c>
@@ -6430,7 +6430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>44014</v>
       </c>
@@ -6475,7 +6475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>44015</v>
       </c>
@@ -6520,7 +6520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>44016</v>
       </c>
@@ -6565,7 +6565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>44017</v>
       </c>
@@ -6610,7 +6610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>44018</v>
       </c>
@@ -6655,7 +6655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>44019</v>
       </c>
@@ -6700,7 +6700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>44020</v>
       </c>
@@ -6745,7 +6745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>44021</v>
       </c>
@@ -6790,7 +6790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>44022</v>
       </c>
@@ -6835,7 +6835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>44023</v>
       </c>
@@ -6880,7 +6880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>44024</v>
       </c>
@@ -6925,7 +6925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>44025</v>
       </c>
@@ -6970,7 +6970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>44026</v>
       </c>
@@ -7015,7 +7015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>44027</v>
       </c>
@@ -7060,7 +7060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>44028</v>
       </c>
@@ -7105,7 +7105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>44029</v>
       </c>
@@ -7150,7 +7150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>44030</v>
       </c>
@@ -7195,7 +7195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>44031</v>
       </c>
@@ -7240,7 +7240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>44032</v>
       </c>
@@ -7285,7 +7285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>44033</v>
       </c>
@@ -7330,7 +7330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>44034</v>
       </c>
@@ -7375,7 +7375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>44035</v>
       </c>
@@ -7420,7 +7420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>44036</v>
       </c>
@@ -7465,7 +7465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>44037</v>
       </c>
@@ -7510,7 +7510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>44038</v>
       </c>
@@ -7555,7 +7555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>44039</v>
       </c>
@@ -7600,7 +7600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>44040</v>
       </c>
@@ -7645,7 +7645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>44041</v>
       </c>
@@ -7690,7 +7690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>44042</v>
       </c>
@@ -7735,7 +7735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>44043</v>
       </c>
@@ -7780,7 +7780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>44044</v>
       </c>
@@ -7825,7 +7825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>44045</v>
       </c>
@@ -7870,7 +7870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>44046</v>
       </c>
@@ -7915,7 +7915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>44047</v>
       </c>
@@ -7960,7 +7960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>44048</v>
       </c>
@@ -8005,7 +8005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>44049</v>
       </c>
@@ -8050,7 +8050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>44050</v>
       </c>
@@ -8095,7 +8095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>44051</v>
       </c>
@@ -8140,7 +8140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>44052</v>
       </c>
@@ -8185,7 +8185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>44053</v>
       </c>
@@ -8230,7 +8230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>44054</v>
       </c>
@@ -8275,7 +8275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>44055</v>
       </c>
@@ -8320,7 +8320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>44056</v>
       </c>
@@ -8365,7 +8365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>44057</v>
       </c>
@@ -8410,7 +8410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>44058</v>
       </c>
@@ -8455,7 +8455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>44059</v>
       </c>
@@ -8500,16 +8500,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>44060</v>
       </c>
       <c r="B174" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>2244</v>
+        <v>2249</v>
       </c>
       <c r="C174" s="34">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D174" s="12">
         <v>0</v>
@@ -8545,19 +8545,19 @@
         <v>14</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>44061</v>
       </c>
       <c r="B175" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>2244</v>
+        <v>2253</v>
       </c>
       <c r="C175" s="34">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D175" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E175" s="3">
         <v>1</v>
@@ -8566,11 +8566,11 @@
         <v>1</v>
       </c>
       <c r="G175" s="22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H175" s="16">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I175" s="30">
         <v>0</v>
@@ -8590,65 +8590,81 @@
         <v>14</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>44062</v>
       </c>
-      <c r="B176" s="18" t="str">
+      <c r="B176" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="C176" s="34"/>
-      <c r="D176" s="12"/>
-      <c r="E176" s="3"/>
-      <c r="F176" s="38"/>
-      <c r="G176" s="22"/>
-      <c r="H176" s="16" t="str">
+        <v>2253</v>
+      </c>
+      <c r="C176" s="34">
+        <v>0</v>
+      </c>
+      <c r="D176" s="12">
+        <v>0</v>
+      </c>
+      <c r="E176" s="3">
+        <v>1</v>
+      </c>
+      <c r="F176" s="38">
+        <v>1</v>
+      </c>
+      <c r="G176" s="22">
+        <v>5</v>
+      </c>
+      <c r="H176" s="16">
         <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="I176" s="30"/>
-      <c r="J176" s="15" t="str">
+        <v>6</v>
+      </c>
+      <c r="I176" s="30">
+        <v>0</v>
+      </c>
+      <c r="J176" s="15">
         <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="K176" s="15" t="str">
+        <v>153</v>
+      </c>
+      <c r="K176" s="15">
         <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="L176" s="24"/>
-      <c r="M176" s="25"/>
-    </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="L176" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="M176" s="25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>44063</v>
       </c>
-      <c r="B177" s="18" t="str">
+      <c r="B177" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v/>
+        <v>2253</v>
       </c>
       <c r="C177" s="34"/>
       <c r="D177" s="12"/>
       <c r="E177" s="3"/>
       <c r="F177" s="38"/>
       <c r="G177" s="22"/>
-      <c r="H177" s="16" t="str">
+      <c r="H177" s="16">
         <f t="shared" ca="1" si="9"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="I177" s="30"/>
-      <c r="J177" s="15" t="str">
+      <c r="J177" s="15">
         <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="K177" s="15" t="str">
+        <v>153</v>
+      </c>
+      <c r="K177" s="15">
         <f t="shared" ca="1" si="11"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L177" s="24"/>
       <c r="M177" s="25"/>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>44064</v>
       </c>
@@ -8677,7 +8693,7 @@
       <c r="L178" s="24"/>
       <c r="M178" s="25"/>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>44065</v>
       </c>
@@ -8706,7 +8722,7 @@
       <c r="L179" s="24"/>
       <c r="M179" s="25"/>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>44066</v>
       </c>
@@ -8735,7 +8751,7 @@
       <c r="L180" s="24"/>
       <c r="M180" s="25"/>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>44067</v>
       </c>
@@ -8764,7 +8780,7 @@
       <c r="L181" s="24"/>
       <c r="M181" s="25"/>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>44068</v>
       </c>
@@ -8793,7 +8809,7 @@
       <c r="L182" s="24"/>
       <c r="M182" s="25"/>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>44069</v>
       </c>
@@ -8822,7 +8838,7 @@
       <c r="L183" s="24"/>
       <c r="M183" s="25"/>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>44070</v>
       </c>
@@ -8851,7 +8867,7 @@
       <c r="L184" s="24"/>
       <c r="M184" s="25"/>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>44071</v>
       </c>
@@ -8880,7 +8896,7 @@
       <c r="L185" s="24"/>
       <c r="M185" s="25"/>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>44072</v>
       </c>
@@ -8909,7 +8925,7 @@
       <c r="L186" s="24"/>
       <c r="M186" s="25"/>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>44073</v>
       </c>
@@ -8938,7 +8954,7 @@
       <c r="L187" s="24"/>
       <c r="M187" s="25"/>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>44074</v>
       </c>
@@ -8967,7 +8983,7 @@
       <c r="L188" s="24"/>
       <c r="M188" s="25"/>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>44075</v>
       </c>
@@ -8996,7 +9012,7 @@
       <c r="L189" s="24"/>
       <c r="M189" s="25"/>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>44076</v>
       </c>
@@ -9025,7 +9041,7 @@
       <c r="L190" s="24"/>
       <c r="M190" s="25"/>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>44077</v>
       </c>
@@ -9054,7 +9070,7 @@
       <c r="L191" s="24"/>
       <c r="M191" s="25"/>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>44078</v>
       </c>
@@ -9083,7 +9099,7 @@
       <c r="L192" s="24"/>
       <c r="M192" s="25"/>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>44079</v>
       </c>
@@ -9112,7 +9128,7 @@
       <c r="L193" s="24"/>
       <c r="M193" s="25"/>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>44080</v>
       </c>
@@ -9141,7 +9157,7 @@
       <c r="L194" s="24"/>
       <c r="M194" s="25"/>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>44081</v>
       </c>
@@ -9170,7 +9186,7 @@
       <c r="L195" s="24"/>
       <c r="M195" s="25"/>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>44082</v>
       </c>
@@ -9199,7 +9215,7 @@
       <c r="L196" s="24"/>
       <c r="M196" s="25"/>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>44083</v>
       </c>
@@ -9228,7 +9244,7 @@
       <c r="L197" s="24"/>
       <c r="M197" s="25"/>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>44084</v>
       </c>
@@ -9257,7 +9273,7 @@
       <c r="L198" s="24"/>
       <c r="M198" s="25"/>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>44085</v>
       </c>
@@ -9286,7 +9302,7 @@
       <c r="L199" s="24"/>
       <c r="M199" s="25"/>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>44086</v>
       </c>
@@ -9315,7 +9331,7 @@
       <c r="L200" s="24"/>
       <c r="M200" s="25"/>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>44087</v>
       </c>
@@ -9344,7 +9360,7 @@
       <c r="L201" s="24"/>
       <c r="M201" s="25"/>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>44088</v>
       </c>
@@ -9373,7 +9389,7 @@
       <c r="L202" s="24"/>
       <c r="M202" s="25"/>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>44089</v>
       </c>
@@ -9402,7 +9418,7 @@
       <c r="L203" s="24"/>
       <c r="M203" s="25"/>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>44090</v>
       </c>
@@ -9431,7 +9447,7 @@
       <c r="L204" s="24"/>
       <c r="M204" s="25"/>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>44091</v>
       </c>
@@ -9460,7 +9476,7 @@
       <c r="L205" s="24"/>
       <c r="M205" s="25"/>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>44092</v>
       </c>
@@ -9489,7 +9505,7 @@
       <c r="L206" s="24"/>
       <c r="M206" s="25"/>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>44093</v>
       </c>
@@ -9518,7 +9534,7 @@
       <c r="L207" s="24"/>
       <c r="M207" s="25"/>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>44094</v>
       </c>
@@ -9547,7 +9563,7 @@
       <c r="L208" s="24"/>
       <c r="M208" s="25"/>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>44095</v>
       </c>
@@ -9576,7 +9592,7 @@
       <c r="L209" s="24"/>
       <c r="M209" s="25"/>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>44096</v>
       </c>
@@ -9605,7 +9621,7 @@
       <c r="L210" s="24"/>
       <c r="M210" s="25"/>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>44097</v>
       </c>
@@ -9634,7 +9650,7 @@
       <c r="L211" s="24"/>
       <c r="M211" s="25"/>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>44098</v>
       </c>
@@ -9663,7 +9679,7 @@
       <c r="L212" s="24"/>
       <c r="M212" s="25"/>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>44099</v>
       </c>
@@ -9692,7 +9708,7 @@
       <c r="L213" s="24"/>
       <c r="M213" s="25"/>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>44100</v>
       </c>
@@ -9721,7 +9737,7 @@
       <c r="L214" s="24"/>
       <c r="M214" s="25"/>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>44101</v>
       </c>
@@ -9750,7 +9766,7 @@
       <c r="L215" s="24"/>
       <c r="M215" s="25"/>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>44102</v>
       </c>
@@ -9779,7 +9795,7 @@
       <c r="L216" s="24"/>
       <c r="M216" s="25"/>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>44103</v>
       </c>
@@ -9808,7 +9824,7 @@
       <c r="L217" s="24"/>
       <c r="M217" s="25"/>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>44104</v>
       </c>
@@ -9837,7 +9853,7 @@
       <c r="L218" s="24"/>
       <c r="M218" s="25"/>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>44105</v>
       </c>
@@ -9866,7 +9882,7 @@
       <c r="L219" s="24"/>
       <c r="M219" s="25"/>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>44106</v>
       </c>
@@ -9895,7 +9911,7 @@
       <c r="L220" s="24"/>
       <c r="M220" s="25"/>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>44107</v>
       </c>
@@ -9924,7 +9940,7 @@
       <c r="L221" s="24"/>
       <c r="M221" s="25"/>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>44108</v>
       </c>
@@ -9953,7 +9969,7 @@
       <c r="L222" s="24"/>
       <c r="M222" s="25"/>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>44109</v>
       </c>
@@ -9982,7 +9998,7 @@
       <c r="L223" s="24"/>
       <c r="M223" s="25"/>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>44110</v>
       </c>
@@ -10011,7 +10027,7 @@
       <c r="L224" s="24"/>
       <c r="M224" s="25"/>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>44111</v>
       </c>
@@ -10040,7 +10056,7 @@
       <c r="L225" s="24"/>
       <c r="M225" s="25"/>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>44112</v>
       </c>
@@ -10069,7 +10085,7 @@
       <c r="L226" s="24"/>
       <c r="M226" s="25"/>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>44113</v>
       </c>
@@ -10098,7 +10114,7 @@
       <c r="L227" s="24"/>
       <c r="M227" s="25"/>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>44114</v>
       </c>
@@ -10127,7 +10143,7 @@
       <c r="L228" s="24"/>
       <c r="M228" s="25"/>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>44115</v>
       </c>
@@ -10156,7 +10172,7 @@
       <c r="L229" s="24"/>
       <c r="M229" s="25"/>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>44116</v>
       </c>
@@ -10185,7 +10201,7 @@
       <c r="L230" s="24"/>
       <c r="M230" s="25"/>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>44117</v>
       </c>
@@ -10214,7 +10230,7 @@
       <c r="L231" s="24"/>
       <c r="M231" s="25"/>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>44118</v>
       </c>
@@ -10243,7 +10259,7 @@
       <c r="L232" s="24"/>
       <c r="M232" s="25"/>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>44119</v>
       </c>
@@ -10272,7 +10288,7 @@
       <c r="L233" s="24"/>
       <c r="M233" s="25"/>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>44120</v>
       </c>
@@ -10301,7 +10317,7 @@
       <c r="L234" s="24"/>
       <c r="M234" s="25"/>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>44121</v>
       </c>
@@ -10330,7 +10346,7 @@
       <c r="L235" s="24"/>
       <c r="M235" s="25"/>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>44122</v>
       </c>
@@ -10359,7 +10375,7 @@
       <c r="L236" s="24"/>
       <c r="M236" s="25"/>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>44123</v>
       </c>
@@ -10388,7 +10404,7 @@
       <c r="L237" s="24"/>
       <c r="M237" s="25"/>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>44124</v>
       </c>
@@ -10417,7 +10433,7 @@
       <c r="L238" s="24"/>
       <c r="M238" s="25"/>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>44125</v>
       </c>
@@ -10446,7 +10462,7 @@
       <c r="L239" s="24"/>
       <c r="M239" s="25"/>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>44126</v>
       </c>
@@ -10475,7 +10491,7 @@
       <c r="L240" s="24"/>
       <c r="M240" s="25"/>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>44127</v>
       </c>
@@ -10504,7 +10520,7 @@
       <c r="L241" s="24"/>
       <c r="M241" s="25"/>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>44128</v>
       </c>
@@ -10533,7 +10549,7 @@
       <c r="L242" s="24"/>
       <c r="M242" s="25"/>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>44129</v>
       </c>
@@ -10562,7 +10578,7 @@
       <c r="L243" s="24"/>
       <c r="M243" s="25"/>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>44130</v>
       </c>
@@ -10591,7 +10607,7 @@
       <c r="L244" s="24"/>
       <c r="M244" s="25"/>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>44131</v>
       </c>
@@ -10620,7 +10636,7 @@
       <c r="L245" s="24"/>
       <c r="M245" s="25"/>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>44132</v>
       </c>
@@ -10649,7 +10665,7 @@
       <c r="L246" s="24"/>
       <c r="M246" s="25"/>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>44133</v>
       </c>
@@ -10678,7 +10694,7 @@
       <c r="L247" s="24"/>
       <c r="M247" s="25"/>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>44134</v>
       </c>
@@ -10707,7 +10723,7 @@
       <c r="L248" s="24"/>
       <c r="M248" s="25"/>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>44135</v>
       </c>
@@ -10736,7 +10752,7 @@
       <c r="L249" s="24"/>
       <c r="M249" s="25"/>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>44136</v>
       </c>
@@ -10765,7 +10781,7 @@
       <c r="L250" s="24"/>
       <c r="M250" s="25"/>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>44137</v>
       </c>
@@ -10794,7 +10810,7 @@
       <c r="L251" s="24"/>
       <c r="M251" s="25"/>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>44138</v>
       </c>
@@ -10823,7 +10839,7 @@
       <c r="L252" s="24"/>
       <c r="M252" s="25"/>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>44139</v>
       </c>
@@ -10852,7 +10868,7 @@
       <c r="L253" s="24"/>
       <c r="M253" s="25"/>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>44140</v>
       </c>
@@ -10881,7 +10897,7 @@
       <c r="L254" s="24"/>
       <c r="M254" s="25"/>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>44141</v>
       </c>
@@ -10910,7 +10926,7 @@
       <c r="L255" s="24"/>
       <c r="M255" s="25"/>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>44142</v>
       </c>
@@ -10939,7 +10955,7 @@
       <c r="L256" s="24"/>
       <c r="M256" s="25"/>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>44143</v>
       </c>
@@ -10968,7 +10984,7 @@
       <c r="L257" s="24"/>
       <c r="M257" s="25"/>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>44144</v>
       </c>
@@ -10997,7 +11013,7 @@
       <c r="L258" s="24"/>
       <c r="M258" s="25"/>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>44145</v>
       </c>
@@ -11026,7 +11042,7 @@
       <c r="L259" s="24"/>
       <c r="M259" s="25"/>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>44146</v>
       </c>
@@ -11055,7 +11071,7 @@
       <c r="L260" s="24"/>
       <c r="M260" s="25"/>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>44147</v>
       </c>
@@ -11084,7 +11100,7 @@
       <c r="L261" s="24"/>
       <c r="M261" s="25"/>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>44148</v>
       </c>
@@ -11113,7 +11129,7 @@
       <c r="L262" s="24"/>
       <c r="M262" s="25"/>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>44149</v>
       </c>
@@ -11142,7 +11158,7 @@
       <c r="L263" s="24"/>
       <c r="M263" s="25"/>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>44150</v>
       </c>
@@ -11171,7 +11187,7 @@
       <c r="L264" s="24"/>
       <c r="M264" s="25"/>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>44151</v>
       </c>
@@ -11200,7 +11216,7 @@
       <c r="L265" s="24"/>
       <c r="M265" s="25"/>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>44152</v>
       </c>
@@ -11229,7 +11245,7 @@
       <c r="L266" s="24"/>
       <c r="M266" s="25"/>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>44153</v>
       </c>
@@ -11258,7 +11274,7 @@
       <c r="L267" s="24"/>
       <c r="M267" s="25"/>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>44154</v>
       </c>
@@ -11287,7 +11303,7 @@
       <c r="L268" s="24"/>
       <c r="M268" s="25"/>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>44155</v>
       </c>
@@ -11316,7 +11332,7 @@
       <c r="L269" s="24"/>
       <c r="M269" s="25"/>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>44156</v>
       </c>
@@ -11345,7 +11361,7 @@
       <c r="L270" s="24"/>
       <c r="M270" s="25"/>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>44157</v>
       </c>
@@ -11374,7 +11390,7 @@
       <c r="L271" s="24"/>
       <c r="M271" s="25"/>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>44158</v>
       </c>
@@ -11403,7 +11419,7 @@
       <c r="L272" s="24"/>
       <c r="M272" s="25"/>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>44159</v>
       </c>
@@ -11432,7 +11448,7 @@
       <c r="L273" s="24"/>
       <c r="M273" s="25"/>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>44160</v>
       </c>
@@ -11461,7 +11477,7 @@
       <c r="L274" s="24"/>
       <c r="M274" s="25"/>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>44161</v>
       </c>
@@ -11490,7 +11506,7 @@
       <c r="L275" s="24"/>
       <c r="M275" s="25"/>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>44162</v>
       </c>
@@ -11519,7 +11535,7 @@
       <c r="L276" s="24"/>
       <c r="M276" s="25"/>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>44163</v>
       </c>
@@ -11548,7 +11564,7 @@
       <c r="L277" s="24"/>
       <c r="M277" s="25"/>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>44164</v>
       </c>
@@ -11577,7 +11593,7 @@
       <c r="L278" s="24"/>
       <c r="M278" s="25"/>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>44165</v>
       </c>
@@ -11606,7 +11622,7 @@
       <c r="L279" s="24"/>
       <c r="M279" s="25"/>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>44166</v>
       </c>
@@ -11635,7 +11651,7 @@
       <c r="L280" s="24"/>
       <c r="M280" s="25"/>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>44167</v>
       </c>
@@ -11664,7 +11680,7 @@
       <c r="L281" s="24"/>
       <c r="M281" s="25"/>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>44168</v>
       </c>
@@ -11693,7 +11709,7 @@
       <c r="L282" s="24"/>
       <c r="M282" s="25"/>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>44169</v>
       </c>
@@ -11722,7 +11738,7 @@
       <c r="L283" s="24"/>
       <c r="M283" s="25"/>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>44170</v>
       </c>
@@ -11751,7 +11767,7 @@
       <c r="L284" s="24"/>
       <c r="M284" s="25"/>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>44171</v>
       </c>
@@ -11780,7 +11796,7 @@
       <c r="L285" s="24"/>
       <c r="M285" s="25"/>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>44172</v>
       </c>
@@ -11809,7 +11825,7 @@
       <c r="L286" s="24"/>
       <c r="M286" s="25"/>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>44173</v>
       </c>
@@ -11838,7 +11854,7 @@
       <c r="L287" s="24"/>
       <c r="M287" s="25"/>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>44174</v>
       </c>
@@ -11867,7 +11883,7 @@
       <c r="L288" s="24"/>
       <c r="M288" s="25"/>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>44175</v>
       </c>
@@ -11896,7 +11912,7 @@
       <c r="L289" s="24"/>
       <c r="M289" s="25"/>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>44176</v>
       </c>
@@ -11925,7 +11941,7 @@
       <c r="L290" s="24"/>
       <c r="M290" s="25"/>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>44177</v>
       </c>
@@ -11954,7 +11970,7 @@
       <c r="L291" s="24"/>
       <c r="M291" s="25"/>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>44178</v>
       </c>
@@ -11983,7 +11999,7 @@
       <c r="L292" s="24"/>
       <c r="M292" s="25"/>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>44179</v>
       </c>
@@ -12012,7 +12028,7 @@
       <c r="L293" s="24"/>
       <c r="M293" s="25"/>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>44180</v>
       </c>
@@ -12041,7 +12057,7 @@
       <c r="L294" s="24"/>
       <c r="M294" s="25"/>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>44181</v>
       </c>
@@ -12070,7 +12086,7 @@
       <c r="L295" s="24"/>
       <c r="M295" s="25"/>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>44182</v>
       </c>
@@ -12099,7 +12115,7 @@
       <c r="L296" s="24"/>
       <c r="M296" s="25"/>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>44183</v>
       </c>
@@ -12128,7 +12144,7 @@
       <c r="L297" s="24"/>
       <c r="M297" s="25"/>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>44184</v>
       </c>
@@ -12157,7 +12173,7 @@
       <c r="L298" s="24"/>
       <c r="M298" s="25"/>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>44185</v>
       </c>
@@ -12186,7 +12202,7 @@
       <c r="L299" s="24"/>
       <c r="M299" s="25"/>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>44186</v>
       </c>
@@ -12215,7 +12231,7 @@
       <c r="L300" s="24"/>
       <c r="M300" s="25"/>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>44187</v>
       </c>
@@ -12244,7 +12260,7 @@
       <c r="L301" s="24"/>
       <c r="M301" s="25"/>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>44188</v>
       </c>
@@ -12273,7 +12289,7 @@
       <c r="L302" s="24"/>
       <c r="M302" s="25"/>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>44189</v>
       </c>
@@ -12302,7 +12318,7 @@
       <c r="L303" s="24"/>
       <c r="M303" s="25"/>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>44190</v>
       </c>
@@ -12331,7 +12347,7 @@
       <c r="L304" s="24"/>
       <c r="M304" s="25"/>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>44191</v>
       </c>
@@ -12360,7 +12376,7 @@
       <c r="L305" s="24"/>
       <c r="M305" s="25"/>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>44192</v>
       </c>
@@ -12389,7 +12405,7 @@
       <c r="L306" s="24"/>
       <c r="M306" s="25"/>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>44193</v>
       </c>
@@ -12418,7 +12434,7 @@
       <c r="L307" s="24"/>
       <c r="M307" s="25"/>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>44194</v>
       </c>
@@ -12447,7 +12463,7 @@
       <c r="L308" s="24"/>
       <c r="M308" s="25"/>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>44195</v>
       </c>
@@ -12476,7 +12492,7 @@
       <c r="L309" s="24"/>
       <c r="M309" s="25"/>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A310" s="2">
         <v>44196</v>
       </c>

--- a/Chiffres  COVID-19 Valais.xlsx
+++ b/Chiffres  COVID-19 Valais.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -731,7 +731,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B161" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C176" sqref="C176"/>
+      <selection pane="bottomRight" activeCell="A168" sqref="A168:A177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8191,10 +8191,10 @@
       </c>
       <c r="B167" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>2198</v>
+        <v>2199</v>
       </c>
       <c r="C167" s="34">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D167" s="12">
         <v>0</v>
@@ -8236,7 +8236,7 @@
       </c>
       <c r="B168" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>2206</v>
+        <v>2207</v>
       </c>
       <c r="C168" s="34">
         <v>8</v>
@@ -8281,7 +8281,7 @@
       </c>
       <c r="B169" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>2214</v>
+        <v>2215</v>
       </c>
       <c r="C169" s="34">
         <v>8</v>
@@ -8326,7 +8326,7 @@
       </c>
       <c r="B170" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>2221</v>
+        <v>2222</v>
       </c>
       <c r="C170" s="34">
         <v>7</v>
@@ -8371,13 +8371,13 @@
       </c>
       <c r="B171" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>2228</v>
+        <v>2229</v>
       </c>
       <c r="C171" s="34">
         <v>7</v>
       </c>
       <c r="D171" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E171" s="3">
         <v>1</v>
@@ -8386,11 +8386,11 @@
         <v>1</v>
       </c>
       <c r="G171" s="22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H171" s="16">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I171" s="30">
         <v>0</v>
@@ -8416,7 +8416,7 @@
       </c>
       <c r="B172" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>2234</v>
+        <v>2235</v>
       </c>
       <c r="C172" s="34">
         <v>6</v>
@@ -8431,11 +8431,11 @@
         <v>1</v>
       </c>
       <c r="G172" s="22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H172" s="16">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I172" s="30">
         <v>0</v>
@@ -8461,7 +8461,7 @@
       </c>
       <c r="B173" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>2240</v>
+        <v>2241</v>
       </c>
       <c r="C173" s="34">
         <v>6</v>
@@ -8476,11 +8476,11 @@
         <v>1</v>
       </c>
       <c r="G173" s="22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H173" s="16">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I173" s="30">
         <v>0</v>
@@ -8506,10 +8506,10 @@
       </c>
       <c r="B174" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>2249</v>
+        <v>2251</v>
       </c>
       <c r="C174" s="34">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D174" s="12">
         <v>0</v>
@@ -8521,11 +8521,11 @@
         <v>1</v>
       </c>
       <c r="G174" s="22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H174" s="16">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I174" s="30">
         <v>0</v>
@@ -8551,10 +8551,10 @@
       </c>
       <c r="B175" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>2253</v>
+        <v>2260</v>
       </c>
       <c r="C175" s="34">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D175" s="12">
         <v>1</v>
@@ -8566,11 +8566,11 @@
         <v>1</v>
       </c>
       <c r="G175" s="22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H175" s="16">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I175" s="30">
         <v>0</v>
@@ -8596,10 +8596,10 @@
       </c>
       <c r="B176" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>2253</v>
+        <v>2261</v>
       </c>
       <c r="C176" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D176" s="12">
         <v>0</v>
@@ -8618,7 +8618,7 @@
         <v>6</v>
       </c>
       <c r="I176" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J176" s="15">
         <f t="shared" ca="1" si="10"/>
@@ -8641,18 +8641,30 @@
       </c>
       <c r="B177" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>2253</v>
-      </c>
-      <c r="C177" s="34"/>
-      <c r="D177" s="12"/>
-      <c r="E177" s="3"/>
-      <c r="F177" s="38"/>
-      <c r="G177" s="22"/>
+        <v>2261</v>
+      </c>
+      <c r="C177" s="34">
+        <v>0</v>
+      </c>
+      <c r="D177" s="12">
+        <v>0</v>
+      </c>
+      <c r="E177" s="3">
+        <v>1</v>
+      </c>
+      <c r="F177" s="38">
+        <v>1</v>
+      </c>
+      <c r="G177" s="22">
+        <v>5</v>
+      </c>
       <c r="H177" s="16">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I177" s="30"/>
+        <v>6</v>
+      </c>
+      <c r="I177" s="30">
+        <v>0</v>
+      </c>
       <c r="J177" s="15">
         <f t="shared" ca="1" si="10"/>
         <v>153</v>
@@ -8661,8 +8673,12 @@
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="L177" s="24"/>
-      <c r="M177" s="25"/>
+      <c r="L177" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="M177" s="25" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178" s="1">

--- a/Chiffres  COVID-19 Valais.xlsx
+++ b/Chiffres  COVID-19 Valais.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
     <t>Date</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -728,10 +731,10 @@
   <dimension ref="A1:O310"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B161" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="H164" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A168" sqref="A168:A177"/>
+      <selection pane="bottomRight" activeCell="L178" sqref="L178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8371,10 +8374,10 @@
       </c>
       <c r="B171" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>2229</v>
+        <v>2230</v>
       </c>
       <c r="C171" s="34">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D171" s="12">
         <v>1</v>
@@ -8397,14 +8400,14 @@
       </c>
       <c r="J171" s="15">
         <f t="shared" ca="1" si="10"/>
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K171" s="15">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="L171" s="24">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L171" s="24" t="s">
+        <v>15</v>
       </c>
       <c r="M171" s="25">
         <v>0</v>
@@ -8416,7 +8419,7 @@
       </c>
       <c r="B172" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>2235</v>
+        <v>2236</v>
       </c>
       <c r="C172" s="34">
         <v>6</v>
@@ -8442,7 +8445,7 @@
       </c>
       <c r="J172" s="15">
         <f t="shared" ca="1" si="10"/>
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K172" s="15">
         <f t="shared" ca="1" si="11"/>
@@ -8464,7 +8467,7 @@
         <v>2241</v>
       </c>
       <c r="C173" s="34">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D173" s="12">
         <v>0</v>
@@ -8487,7 +8490,7 @@
       </c>
       <c r="J173" s="15">
         <f t="shared" ca="1" si="10"/>
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K173" s="15">
         <f t="shared" ca="1" si="11"/>
@@ -8532,7 +8535,7 @@
       </c>
       <c r="J174" s="15">
         <f t="shared" ca="1" si="10"/>
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K174" s="15">
         <f t="shared" ca="1" si="11"/>
@@ -8551,10 +8554,10 @@
       </c>
       <c r="B175" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>2260</v>
+        <v>2261</v>
       </c>
       <c r="C175" s="34">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D175" s="12">
         <v>1</v>
@@ -8577,7 +8580,7 @@
       </c>
       <c r="J175" s="15">
         <f t="shared" ca="1" si="10"/>
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K175" s="15">
         <f t="shared" ca="1" si="11"/>
@@ -8596,10 +8599,10 @@
       </c>
       <c r="B176" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>2261</v>
+        <v>2264</v>
       </c>
       <c r="C176" s="34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D176" s="12">
         <v>0</v>
@@ -8622,7 +8625,7 @@
       </c>
       <c r="J176" s="15">
         <f t="shared" ca="1" si="10"/>
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K176" s="15">
         <f t="shared" ca="1" si="11"/>
@@ -8641,13 +8644,13 @@
       </c>
       <c r="B177" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>2261</v>
+        <v>2269</v>
       </c>
       <c r="C177" s="34">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D177" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E177" s="3">
         <v>1</v>
@@ -8667,7 +8670,7 @@
       </c>
       <c r="J177" s="15">
         <f t="shared" ca="1" si="10"/>
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K177" s="15">
         <f t="shared" ca="1" si="11"/>
@@ -8684,30 +8687,46 @@
       <c r="A178" s="1">
         <v>44064</v>
       </c>
-      <c r="B178" s="18" t="str">
+      <c r="B178" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="C178" s="34"/>
-      <c r="D178" s="12"/>
-      <c r="E178" s="3"/>
-      <c r="F178" s="38"/>
-      <c r="G178" s="22"/>
-      <c r="H178" s="16" t="str">
+        <v>2269</v>
+      </c>
+      <c r="C178" s="34">
+        <v>0</v>
+      </c>
+      <c r="D178" s="12">
+        <v>0</v>
+      </c>
+      <c r="E178" s="3">
+        <v>1</v>
+      </c>
+      <c r="F178" s="38">
+        <v>1</v>
+      </c>
+      <c r="G178" s="22">
+        <v>7</v>
+      </c>
+      <c r="H178" s="16">
         <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="I178" s="30"/>
-      <c r="J178" s="15" t="str">
+        <v>8</v>
+      </c>
+      <c r="I178" s="30">
+        <v>0</v>
+      </c>
+      <c r="J178" s="15">
         <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="K178" s="15" t="str">
+        <v>154</v>
+      </c>
+      <c r="K178" s="15">
         <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="L178" s="24"/>
-      <c r="M178" s="25"/>
+        <v>0</v>
+      </c>
+      <c r="L178" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="M178" s="25" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179" s="1">

--- a/Chiffres  COVID-19 Valais.xlsx
+++ b/Chiffres  COVID-19 Valais.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="16">
   <si>
     <t>Date</t>
   </si>
@@ -112,6 +112,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0;\-0;"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -168,7 +171,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -301,19 +304,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -414,9 +404,6 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -424,9 +411,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -434,6 +418,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -731,16 +721,16 @@
   <dimension ref="A1:O310"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="H164" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B176" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L178" sqref="L178"/>
+      <selection pane="bottomRight" activeCell="O183" sqref="O183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.42578125" style="14"/>
-    <col min="3" max="3" width="11.42578125" style="36"/>
+    <col min="3" max="3" width="11.42578125" style="35"/>
     <col min="4" max="4" width="10.85546875" style="14"/>
     <col min="8" max="9" width="16.140625" customWidth="1"/>
     <col min="11" max="11" width="14.5703125" customWidth="1"/>
@@ -816,7 +806,7 @@
         <f>C3</f>
         <v>1</v>
       </c>
-      <c r="C3" s="33">
+      <c r="C3" s="12">
         <v>1</v>
       </c>
       <c r="D3" s="12">
@@ -825,7 +815,7 @@
       <c r="E3" s="3">
         <v>0</v>
       </c>
-      <c r="F3" s="37">
+      <c r="F3" s="39">
         <v>0</v>
       </c>
       <c r="G3" s="22">
@@ -861,7 +851,7 @@
         <f ca="1">IF(TODAY()&gt;A3,B3+C4,"")</f>
         <v>1</v>
       </c>
-      <c r="C4" s="33">
+      <c r="C4" s="12">
         <v>0</v>
       </c>
       <c r="D4" s="12">
@@ -870,7 +860,7 @@
       <c r="E4" s="3">
         <v>0</v>
       </c>
-      <c r="F4" s="38">
+      <c r="F4" s="39">
         <v>0</v>
       </c>
       <c r="G4" s="22">
@@ -906,7 +896,7 @@
         <f t="shared" ref="B5:B68" ca="1" si="0">IF(TODAY()&gt;A4,B4+C5,"")</f>
         <v>2</v>
       </c>
-      <c r="C5" s="33">
+      <c r="C5" s="12">
         <v>1</v>
       </c>
       <c r="D5" s="12">
@@ -915,7 +905,7 @@
       <c r="E5" s="3">
         <v>0</v>
       </c>
-      <c r="F5" s="38">
+      <c r="F5" s="39">
         <v>0</v>
       </c>
       <c r="G5" s="22">
@@ -951,7 +941,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
-      <c r="C6" s="33">
+      <c r="C6" s="12">
         <v>1</v>
       </c>
       <c r="D6" s="12">
@@ -960,7 +950,7 @@
       <c r="E6" s="3">
         <v>0</v>
       </c>
-      <c r="F6" s="38">
+      <c r="F6" s="39">
         <v>0</v>
       </c>
       <c r="G6" s="22">
@@ -996,7 +986,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
-      <c r="C7" s="33">
+      <c r="C7" s="12">
         <v>0</v>
       </c>
       <c r="D7" s="12">
@@ -1005,7 +995,7 @@
       <c r="E7" s="3">
         <v>0</v>
       </c>
-      <c r="F7" s="38">
+      <c r="F7" s="39">
         <v>0</v>
       </c>
       <c r="G7" s="22">
@@ -1041,7 +1031,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
-      <c r="C8" s="33">
+      <c r="C8" s="12">
         <v>1</v>
       </c>
       <c r="D8" s="12">
@@ -1050,7 +1040,7 @@
       <c r="E8" s="3">
         <v>0</v>
       </c>
-      <c r="F8" s="38">
+      <c r="F8" s="39">
         <v>0</v>
       </c>
       <c r="G8" s="22">
@@ -1086,7 +1076,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>5</v>
       </c>
-      <c r="C9" s="33">
+      <c r="C9" s="12">
         <v>1</v>
       </c>
       <c r="D9" s="12">
@@ -1095,7 +1085,7 @@
       <c r="E9" s="3">
         <v>0</v>
       </c>
-      <c r="F9" s="38">
+      <c r="F9" s="39">
         <v>0</v>
       </c>
       <c r="G9" s="22">
@@ -1131,7 +1121,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
-      <c r="C10" s="33">
+      <c r="C10" s="12">
         <v>1</v>
       </c>
       <c r="D10" s="12">
@@ -1140,7 +1130,7 @@
       <c r="E10" s="3">
         <v>0</v>
       </c>
-      <c r="F10" s="38">
+      <c r="F10" s="39">
         <v>0</v>
       </c>
       <c r="G10" s="22">
@@ -1176,7 +1166,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>7</v>
       </c>
-      <c r="C11" s="33">
+      <c r="C11" s="12">
         <v>1</v>
       </c>
       <c r="D11" s="12">
@@ -1185,7 +1175,7 @@
       <c r="E11" s="3">
         <v>0</v>
       </c>
-      <c r="F11" s="38">
+      <c r="F11" s="39">
         <v>0</v>
       </c>
       <c r="G11" s="22">
@@ -1221,7 +1211,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>12</v>
       </c>
-      <c r="C12" s="33">
+      <c r="C12" s="12">
         <v>5</v>
       </c>
       <c r="D12" s="12">
@@ -1230,7 +1220,7 @@
       <c r="E12" s="3">
         <v>1</v>
       </c>
-      <c r="F12" s="38">
+      <c r="F12" s="39">
         <v>1</v>
       </c>
       <c r="G12" s="22">
@@ -1266,7 +1256,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>17</v>
       </c>
-      <c r="C13" s="33">
+      <c r="C13" s="12">
         <v>5</v>
       </c>
       <c r="D13" s="12">
@@ -1275,7 +1265,7 @@
       <c r="E13" s="3">
         <v>1</v>
       </c>
-      <c r="F13" s="38">
+      <c r="F13" s="39">
         <v>1</v>
       </c>
       <c r="G13" s="22">
@@ -1311,7 +1301,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>22</v>
       </c>
-      <c r="C14" s="33">
+      <c r="C14" s="12">
         <v>5</v>
       </c>
       <c r="D14" s="12">
@@ -1320,7 +1310,7 @@
       <c r="E14" s="3">
         <v>1</v>
       </c>
-      <c r="F14" s="38">
+      <c r="F14" s="39">
         <v>1</v>
       </c>
       <c r="G14" s="22">
@@ -1356,7 +1346,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>30</v>
       </c>
-      <c r="C15" s="33">
+      <c r="C15" s="12">
         <v>8</v>
       </c>
       <c r="D15" s="12">
@@ -1365,7 +1355,7 @@
       <c r="E15" s="3">
         <v>1</v>
       </c>
-      <c r="F15" s="38">
+      <c r="F15" s="39">
         <v>1</v>
       </c>
       <c r="G15" s="22">
@@ -1401,7 +1391,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>53</v>
       </c>
-      <c r="C16" s="33">
+      <c r="C16" s="12">
         <v>23</v>
       </c>
       <c r="D16" s="12">
@@ -1410,7 +1400,7 @@
       <c r="E16" s="3">
         <v>1</v>
       </c>
-      <c r="F16" s="38">
+      <c r="F16" s="39">
         <v>1</v>
       </c>
       <c r="G16" s="22">
@@ -1446,7 +1436,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>76</v>
       </c>
-      <c r="C17" s="33">
+      <c r="C17" s="12">
         <v>23</v>
       </c>
       <c r="D17" s="12">
@@ -1455,7 +1445,7 @@
       <c r="E17" s="3">
         <v>1</v>
       </c>
-      <c r="F17" s="38">
+      <c r="F17" s="39">
         <v>1</v>
       </c>
       <c r="G17" s="22">
@@ -1491,7 +1481,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>98</v>
       </c>
-      <c r="C18" s="33">
+      <c r="C18" s="12">
         <v>22</v>
       </c>
       <c r="D18" s="12">
@@ -1500,7 +1490,7 @@
       <c r="E18" s="3">
         <v>1</v>
       </c>
-      <c r="F18" s="38">
+      <c r="F18" s="39">
         <v>1</v>
       </c>
       <c r="G18" s="22">
@@ -1536,7 +1526,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>115</v>
       </c>
-      <c r="C19" s="33">
+      <c r="C19" s="12">
         <v>17</v>
       </c>
       <c r="D19" s="12">
@@ -1545,7 +1535,7 @@
       <c r="E19" s="3">
         <v>1</v>
       </c>
-      <c r="F19" s="38">
+      <c r="F19" s="39">
         <v>1</v>
       </c>
       <c r="G19" s="22">
@@ -1581,7 +1571,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>172</v>
       </c>
-      <c r="C20" s="33">
+      <c r="C20" s="12">
         <v>57</v>
       </c>
       <c r="D20" s="12">
@@ -1590,7 +1580,7 @@
       <c r="E20" s="3">
         <v>2</v>
       </c>
-      <c r="F20" s="38">
+      <c r="F20" s="39">
         <v>1</v>
       </c>
       <c r="G20" s="22">
@@ -1626,7 +1616,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>225</v>
       </c>
-      <c r="C21" s="33">
+      <c r="C21" s="12">
         <v>53</v>
       </c>
       <c r="D21" s="12">
@@ -1635,7 +1625,7 @@
       <c r="E21" s="3">
         <v>2</v>
       </c>
-      <c r="F21" s="38">
+      <c r="F21" s="39">
         <v>2</v>
       </c>
       <c r="G21" s="22">
@@ -1671,7 +1661,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>312</v>
       </c>
-      <c r="C22" s="33">
+      <c r="C22" s="12">
         <v>87</v>
       </c>
       <c r="D22" s="12">
@@ -1680,7 +1670,7 @@
       <c r="E22" s="3">
         <v>2</v>
       </c>
-      <c r="F22" s="38">
+      <c r="F22" s="39">
         <v>2</v>
       </c>
       <c r="G22" s="22">
@@ -1716,7 +1706,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>349</v>
       </c>
-      <c r="C23" s="33">
+      <c r="C23" s="12">
         <v>37</v>
       </c>
       <c r="D23" s="12">
@@ -1725,7 +1715,7 @@
       <c r="E23" s="3">
         <v>5</v>
       </c>
-      <c r="F23" s="38">
+      <c r="F23" s="39">
         <v>5</v>
       </c>
       <c r="G23" s="22">
@@ -1761,7 +1751,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>436</v>
       </c>
-      <c r="C24" s="33">
+      <c r="C24" s="12">
         <v>87</v>
       </c>
       <c r="D24" s="12">
@@ -1770,7 +1760,7 @@
       <c r="E24" s="3">
         <v>6</v>
       </c>
-      <c r="F24" s="38">
+      <c r="F24" s="39">
         <v>5</v>
       </c>
       <c r="G24" s="22">
@@ -1806,7 +1796,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>498</v>
       </c>
-      <c r="C25" s="33">
+      <c r="C25" s="12">
         <v>62</v>
       </c>
       <c r="D25" s="12">
@@ -1815,7 +1805,7 @@
       <c r="E25" s="3">
         <v>8</v>
       </c>
-      <c r="F25" s="38">
+      <c r="F25" s="39">
         <v>6</v>
       </c>
       <c r="G25" s="22">
@@ -1851,7 +1841,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>535</v>
       </c>
-      <c r="C26" s="33">
+      <c r="C26" s="12">
         <v>37</v>
       </c>
       <c r="D26" s="12">
@@ -1860,7 +1850,7 @@
       <c r="E26" s="3">
         <v>11</v>
       </c>
-      <c r="F26" s="38">
+      <c r="F26" s="39">
         <v>7</v>
       </c>
       <c r="G26" s="22">
@@ -1896,7 +1886,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>628</v>
       </c>
-      <c r="C27" s="33">
+      <c r="C27" s="12">
         <v>93</v>
       </c>
       <c r="D27" s="12">
@@ -1905,7 +1895,7 @@
       <c r="E27" s="3">
         <v>12</v>
       </c>
-      <c r="F27" s="38">
+      <c r="F27" s="39">
         <v>9</v>
       </c>
       <c r="G27" s="22">
@@ -1941,7 +1931,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>728</v>
       </c>
-      <c r="C28" s="33">
+      <c r="C28" s="12">
         <v>100</v>
       </c>
       <c r="D28" s="12">
@@ -1950,7 +1940,7 @@
       <c r="E28" s="3">
         <v>13</v>
       </c>
-      <c r="F28" s="38">
+      <c r="F28" s="39">
         <v>12</v>
       </c>
       <c r="G28" s="22">
@@ -1986,7 +1976,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>793</v>
       </c>
-      <c r="C29" s="33">
+      <c r="C29" s="12">
         <v>65</v>
       </c>
       <c r="D29" s="12">
@@ -1995,7 +1985,7 @@
       <c r="E29" s="3">
         <v>15</v>
       </c>
-      <c r="F29" s="38">
+      <c r="F29" s="39">
         <v>14</v>
       </c>
       <c r="G29" s="22">
@@ -2031,7 +2021,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>874</v>
       </c>
-      <c r="C30" s="33">
+      <c r="C30" s="12">
         <v>81</v>
       </c>
       <c r="D30" s="12">
@@ -2040,7 +2030,7 @@
       <c r="E30" s="3">
         <v>19</v>
       </c>
-      <c r="F30" s="38">
+      <c r="F30" s="39">
         <v>17</v>
       </c>
       <c r="G30" s="22">
@@ -2076,7 +2066,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>968</v>
       </c>
-      <c r="C31" s="33">
+      <c r="C31" s="12">
         <v>94</v>
       </c>
       <c r="D31" s="12">
@@ -2085,7 +2075,7 @@
       <c r="E31" s="3">
         <v>20</v>
       </c>
-      <c r="F31" s="38">
+      <c r="F31" s="39">
         <v>16</v>
       </c>
       <c r="G31" s="22">
@@ -2121,7 +2111,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>1017</v>
       </c>
-      <c r="C32" s="33">
+      <c r="C32" s="12">
         <v>49</v>
       </c>
       <c r="D32" s="12">
@@ -2130,7 +2120,7 @@
       <c r="E32" s="3">
         <v>21</v>
       </c>
-      <c r="F32" s="38">
+      <c r="F32" s="39">
         <v>19</v>
       </c>
       <c r="G32" s="22">
@@ -2166,7 +2156,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>1055</v>
       </c>
-      <c r="C33" s="33">
+      <c r="C33" s="12">
         <v>38</v>
       </c>
       <c r="D33" s="12">
@@ -2175,7 +2165,7 @@
       <c r="E33" s="3">
         <v>22</v>
       </c>
-      <c r="F33" s="38">
+      <c r="F33" s="39">
         <v>21</v>
       </c>
       <c r="G33" s="22">
@@ -2211,7 +2201,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>1144</v>
       </c>
-      <c r="C34" s="33">
+      <c r="C34" s="12">
         <v>89</v>
       </c>
       <c r="D34" s="12">
@@ -2220,7 +2210,7 @@
       <c r="E34" s="3">
         <v>25</v>
       </c>
-      <c r="F34" s="38">
+      <c r="F34" s="39">
         <v>23</v>
       </c>
       <c r="G34" s="22">
@@ -2256,7 +2246,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>1211</v>
       </c>
-      <c r="C35" s="33">
+      <c r="C35" s="12">
         <v>67</v>
       </c>
       <c r="D35" s="12">
@@ -2265,7 +2255,7 @@
       <c r="E35" s="3">
         <v>24</v>
       </c>
-      <c r="F35" s="38">
+      <c r="F35" s="39">
         <v>23</v>
       </c>
       <c r="G35" s="22">
@@ -2301,7 +2291,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>1282</v>
       </c>
-      <c r="C36" s="33">
+      <c r="C36" s="12">
         <v>71</v>
       </c>
       <c r="D36" s="12">
@@ -2310,7 +2300,7 @@
       <c r="E36" s="3">
         <v>26</v>
       </c>
-      <c r="F36" s="38">
+      <c r="F36" s="39">
         <v>25</v>
       </c>
       <c r="G36" s="22">
@@ -2346,7 +2336,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>1334</v>
       </c>
-      <c r="C37" s="33">
+      <c r="C37" s="12">
         <v>52</v>
       </c>
       <c r="D37" s="12">
@@ -2355,7 +2345,7 @@
       <c r="E37" s="3">
         <v>28</v>
       </c>
-      <c r="F37" s="38">
+      <c r="F37" s="39">
         <v>24</v>
       </c>
       <c r="G37" s="22">
@@ -2391,7 +2381,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>1385</v>
       </c>
-      <c r="C38" s="33">
+      <c r="C38" s="12">
         <v>51</v>
       </c>
       <c r="D38" s="12">
@@ -2400,7 +2390,7 @@
       <c r="E38" s="3">
         <v>26</v>
       </c>
-      <c r="F38" s="38">
+      <c r="F38" s="39">
         <v>23</v>
       </c>
       <c r="G38" s="22">
@@ -2436,7 +2426,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>1418</v>
       </c>
-      <c r="C39" s="33">
+      <c r="C39" s="12">
         <v>33</v>
       </c>
       <c r="D39" s="12">
@@ -2445,7 +2435,7 @@
       <c r="E39" s="3">
         <v>28</v>
       </c>
-      <c r="F39" s="38">
+      <c r="F39" s="39">
         <v>23</v>
       </c>
       <c r="G39" s="22">
@@ -2481,7 +2471,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>1433</v>
       </c>
-      <c r="C40" s="33">
+      <c r="C40" s="12">
         <v>15</v>
       </c>
       <c r="D40" s="12">
@@ -2490,7 +2480,7 @@
       <c r="E40" s="3">
         <v>26</v>
       </c>
-      <c r="F40" s="38">
+      <c r="F40" s="39">
         <v>23</v>
       </c>
       <c r="G40" s="22">
@@ -2526,7 +2516,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>1499</v>
       </c>
-      <c r="C41" s="33">
+      <c r="C41" s="12">
         <v>66</v>
       </c>
       <c r="D41" s="12">
@@ -2535,7 +2525,7 @@
       <c r="E41" s="3">
         <v>26</v>
       </c>
-      <c r="F41" s="38">
+      <c r="F41" s="39">
         <v>22</v>
       </c>
       <c r="G41" s="22">
@@ -2571,7 +2561,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>1538</v>
       </c>
-      <c r="C42" s="33">
+      <c r="C42" s="12">
         <v>39</v>
       </c>
       <c r="D42" s="12">
@@ -2580,7 +2570,7 @@
       <c r="E42" s="3">
         <v>25</v>
       </c>
-      <c r="F42" s="38">
+      <c r="F42" s="39">
         <v>20</v>
       </c>
       <c r="G42" s="22">
@@ -2616,7 +2606,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>1573</v>
       </c>
-      <c r="C43" s="33">
+      <c r="C43" s="12">
         <v>35</v>
       </c>
       <c r="D43" s="12">
@@ -2625,7 +2615,7 @@
       <c r="E43" s="3">
         <v>26</v>
       </c>
-      <c r="F43" s="38">
+      <c r="F43" s="39">
         <v>20</v>
       </c>
       <c r="G43" s="22">
@@ -2661,7 +2651,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>1602</v>
       </c>
-      <c r="C44" s="33">
+      <c r="C44" s="12">
         <v>29</v>
       </c>
       <c r="D44" s="12">
@@ -2670,7 +2660,7 @@
       <c r="E44" s="3">
         <v>24</v>
       </c>
-      <c r="F44" s="38">
+      <c r="F44" s="39">
         <v>19</v>
       </c>
       <c r="G44" s="22">
@@ -2706,7 +2696,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>1631</v>
       </c>
-      <c r="C45" s="33">
+      <c r="C45" s="12">
         <v>29</v>
       </c>
       <c r="D45" s="12">
@@ -2715,7 +2705,7 @@
       <c r="E45" s="3">
         <v>24</v>
       </c>
-      <c r="F45" s="38">
+      <c r="F45" s="39">
         <v>18</v>
       </c>
       <c r="G45" s="22">
@@ -2751,7 +2741,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>1657</v>
       </c>
-      <c r="C46" s="33">
+      <c r="C46" s="12">
         <v>26</v>
       </c>
       <c r="D46" s="12">
@@ -2760,7 +2750,7 @@
       <c r="E46" s="3">
         <v>20</v>
       </c>
-      <c r="F46" s="38">
+      <c r="F46" s="39">
         <v>15</v>
       </c>
       <c r="G46" s="22">
@@ -2796,7 +2786,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>1670</v>
       </c>
-      <c r="C47" s="33">
+      <c r="C47" s="12">
         <v>13</v>
       </c>
       <c r="D47" s="12">
@@ -2805,7 +2795,7 @@
       <c r="E47" s="3">
         <v>22</v>
       </c>
-      <c r="F47" s="38">
+      <c r="F47" s="39">
         <v>14</v>
       </c>
       <c r="G47" s="22">
@@ -2841,7 +2831,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>1684</v>
       </c>
-      <c r="C48" s="33">
+      <c r="C48" s="12">
         <v>14</v>
       </c>
       <c r="D48" s="12">
@@ -2850,7 +2840,7 @@
       <c r="E48" s="3">
         <v>21</v>
       </c>
-      <c r="F48" s="38">
+      <c r="F48" s="39">
         <v>12</v>
       </c>
       <c r="G48" s="22">
@@ -2886,7 +2876,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>1711</v>
       </c>
-      <c r="C49" s="33">
+      <c r="C49" s="12">
         <v>27</v>
       </c>
       <c r="D49" s="12">
@@ -2895,7 +2885,7 @@
       <c r="E49" s="3">
         <v>20</v>
       </c>
-      <c r="F49" s="38">
+      <c r="F49" s="39">
         <v>11</v>
       </c>
       <c r="G49" s="22">
@@ -2931,7 +2921,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>1727</v>
       </c>
-      <c r="C50" s="33">
+      <c r="C50" s="12">
         <v>16</v>
       </c>
       <c r="D50" s="12">
@@ -2940,7 +2930,7 @@
       <c r="E50" s="3">
         <v>20</v>
       </c>
-      <c r="F50" s="38">
+      <c r="F50" s="39">
         <v>12</v>
       </c>
       <c r="G50" s="22">
@@ -2976,7 +2966,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>1744</v>
       </c>
-      <c r="C51" s="33">
+      <c r="C51" s="12">
         <v>17</v>
       </c>
       <c r="D51" s="12">
@@ -2985,7 +2975,7 @@
       <c r="E51" s="3">
         <v>17</v>
       </c>
-      <c r="F51" s="38">
+      <c r="F51" s="39">
         <v>12</v>
       </c>
       <c r="G51" s="22">
@@ -3021,7 +3011,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>1764</v>
       </c>
-      <c r="C52" s="33">
+      <c r="C52" s="12">
         <v>20</v>
       </c>
       <c r="D52" s="12">
@@ -3030,7 +3020,7 @@
       <c r="E52" s="3">
         <v>16</v>
       </c>
-      <c r="F52" s="38">
+      <c r="F52" s="39">
         <v>10</v>
       </c>
       <c r="G52" s="22">
@@ -3066,7 +3056,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>1773</v>
       </c>
-      <c r="C53" s="33">
+      <c r="C53" s="12">
         <v>9</v>
       </c>
       <c r="D53" s="12">
@@ -3075,7 +3065,7 @@
       <c r="E53" s="3">
         <v>18</v>
       </c>
-      <c r="F53" s="38">
+      <c r="F53" s="39">
         <v>10</v>
       </c>
       <c r="G53" s="22">
@@ -3111,7 +3101,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>1780</v>
       </c>
-      <c r="C54" s="33">
+      <c r="C54" s="12">
         <v>7</v>
       </c>
       <c r="D54" s="12">
@@ -3120,7 +3110,7 @@
       <c r="E54" s="3">
         <v>16</v>
       </c>
-      <c r="F54" s="38">
+      <c r="F54" s="39">
         <v>9</v>
       </c>
       <c r="G54" s="22">
@@ -3156,7 +3146,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>1797</v>
       </c>
-      <c r="C55" s="33">
+      <c r="C55" s="12">
         <v>17</v>
       </c>
       <c r="D55" s="12">
@@ -3165,7 +3155,7 @@
       <c r="E55" s="3">
         <v>15</v>
       </c>
-      <c r="F55" s="38">
+      <c r="F55" s="39">
         <v>9</v>
       </c>
       <c r="G55" s="22">
@@ -3201,7 +3191,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>1804</v>
       </c>
-      <c r="C56" s="33">
+      <c r="C56" s="12">
         <v>7</v>
       </c>
       <c r="D56" s="12">
@@ -3210,7 +3200,7 @@
       <c r="E56" s="3">
         <v>14</v>
       </c>
-      <c r="F56" s="38">
+      <c r="F56" s="39">
         <v>10</v>
       </c>
       <c r="G56" s="22">
@@ -3246,7 +3236,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>1810</v>
       </c>
-      <c r="C57" s="33">
+      <c r="C57" s="12">
         <v>6</v>
       </c>
       <c r="D57" s="12">
@@ -3255,7 +3245,7 @@
       <c r="E57" s="3">
         <v>13</v>
       </c>
-      <c r="F57" s="38">
+      <c r="F57" s="39">
         <v>10</v>
       </c>
       <c r="G57" s="22">
@@ -3291,7 +3281,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>1826</v>
       </c>
-      <c r="C58" s="33">
+      <c r="C58" s="12">
         <v>16</v>
       </c>
       <c r="D58" s="12">
@@ -3300,7 +3290,7 @@
       <c r="E58" s="3">
         <v>13</v>
       </c>
-      <c r="F58" s="38">
+      <c r="F58" s="39">
         <v>9</v>
       </c>
       <c r="G58" s="22">
@@ -3336,7 +3326,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>1835</v>
       </c>
-      <c r="C59" s="33">
+      <c r="C59" s="12">
         <v>9</v>
       </c>
       <c r="D59" s="12">
@@ -3345,7 +3335,7 @@
       <c r="E59" s="3">
         <v>14</v>
       </c>
-      <c r="F59" s="38">
+      <c r="F59" s="39">
         <v>9</v>
       </c>
       <c r="G59" s="22">
@@ -3381,7 +3371,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>1840</v>
       </c>
-      <c r="C60" s="33">
+      <c r="C60" s="12">
         <v>5</v>
       </c>
       <c r="D60" s="12">
@@ -3390,7 +3380,7 @@
       <c r="E60" s="3">
         <v>14</v>
       </c>
-      <c r="F60" s="38">
+      <c r="F60" s="39">
         <v>9</v>
       </c>
       <c r="G60" s="22">
@@ -3426,7 +3416,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>1842</v>
       </c>
-      <c r="C61" s="33">
+      <c r="C61" s="12">
         <v>2</v>
       </c>
       <c r="D61" s="12">
@@ -3435,7 +3425,7 @@
       <c r="E61" s="3">
         <v>15</v>
       </c>
-      <c r="F61" s="38">
+      <c r="F61" s="39">
         <v>8</v>
       </c>
       <c r="G61" s="22">
@@ -3471,7 +3461,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>1857</v>
       </c>
-      <c r="C62" s="33">
+      <c r="C62" s="12">
         <v>15</v>
       </c>
       <c r="D62" s="12">
@@ -3480,7 +3470,7 @@
       <c r="E62" s="3">
         <v>14</v>
       </c>
-      <c r="F62" s="38">
+      <c r="F62" s="39">
         <v>9</v>
       </c>
       <c r="G62" s="22">
@@ -3516,7 +3506,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>1868</v>
       </c>
-      <c r="C63" s="33">
+      <c r="C63" s="12">
         <v>11</v>
       </c>
       <c r="D63" s="12">
@@ -3525,7 +3515,7 @@
       <c r="E63" s="3">
         <v>13</v>
       </c>
-      <c r="F63" s="38">
+      <c r="F63" s="39">
         <v>8</v>
       </c>
       <c r="G63" s="22">
@@ -3561,7 +3551,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>1880</v>
       </c>
-      <c r="C64" s="33">
+      <c r="C64" s="12">
         <v>12</v>
       </c>
       <c r="D64" s="12">
@@ -3570,7 +3560,7 @@
       <c r="E64" s="3">
         <v>11</v>
       </c>
-      <c r="F64" s="38">
+      <c r="F64" s="39">
         <v>8</v>
       </c>
       <c r="G64" s="22">
@@ -3606,7 +3596,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>1887</v>
       </c>
-      <c r="C65" s="33">
+      <c r="C65" s="12">
         <v>7</v>
       </c>
       <c r="D65" s="12">
@@ -3615,7 +3605,7 @@
       <c r="E65" s="3">
         <v>10</v>
       </c>
-      <c r="F65" s="38">
+      <c r="F65" s="39">
         <v>8</v>
       </c>
       <c r="G65" s="22">
@@ -3651,7 +3641,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>1892</v>
       </c>
-      <c r="C66" s="33">
+      <c r="C66" s="12">
         <v>5</v>
       </c>
       <c r="D66" s="12">
@@ -3660,7 +3650,7 @@
       <c r="E66" s="3">
         <v>10</v>
       </c>
-      <c r="F66" s="38">
+      <c r="F66" s="39">
         <v>8</v>
       </c>
       <c r="G66" s="22">
@@ -3696,7 +3686,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>1895</v>
       </c>
-      <c r="C67" s="33">
+      <c r="C67" s="12">
         <v>3</v>
       </c>
       <c r="D67" s="12">
@@ -3705,7 +3695,7 @@
       <c r="E67" s="3">
         <v>10</v>
       </c>
-      <c r="F67" s="38">
+      <c r="F67" s="39">
         <v>8</v>
       </c>
       <c r="G67" s="22">
@@ -3741,7 +3731,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>1897</v>
       </c>
-      <c r="C68" s="33">
+      <c r="C68" s="12">
         <v>2</v>
       </c>
       <c r="D68" s="12">
@@ -3750,7 +3740,7 @@
       <c r="E68" s="3">
         <v>10</v>
       </c>
-      <c r="F68" s="38">
+      <c r="F68" s="39">
         <v>8</v>
       </c>
       <c r="G68" s="22">
@@ -3786,7 +3776,7 @@
         <f t="shared" ref="B69:B132" ca="1" si="4">IF(TODAY()&gt;A68,B68+C69,"")</f>
         <v>1905</v>
       </c>
-      <c r="C69" s="33">
+      <c r="C69" s="12">
         <v>8</v>
       </c>
       <c r="D69" s="12">
@@ -3795,7 +3785,7 @@
       <c r="E69" s="3">
         <v>10</v>
       </c>
-      <c r="F69" s="38">
+      <c r="F69" s="39">
         <v>7</v>
       </c>
       <c r="G69" s="22">
@@ -3831,7 +3821,7 @@
         <f t="shared" ca="1" si="4"/>
         <v>1907</v>
       </c>
-      <c r="C70" s="33">
+      <c r="C70" s="12">
         <v>2</v>
       </c>
       <c r="D70" s="12">
@@ -3840,7 +3830,7 @@
       <c r="E70" s="3">
         <v>8</v>
       </c>
-      <c r="F70" s="38">
+      <c r="F70" s="39">
         <v>6</v>
       </c>
       <c r="G70" s="22">
@@ -3876,7 +3866,7 @@
         <f t="shared" ca="1" si="4"/>
         <v>1910</v>
       </c>
-      <c r="C71" s="33">
+      <c r="C71" s="12">
         <v>3</v>
       </c>
       <c r="D71" s="12">
@@ -3885,7 +3875,7 @@
       <c r="E71" s="3">
         <v>8</v>
       </c>
-      <c r="F71" s="38">
+      <c r="F71" s="39">
         <v>5</v>
       </c>
       <c r="G71" s="22">
@@ -3921,7 +3911,7 @@
         <f t="shared" ca="1" si="4"/>
         <v>1912</v>
       </c>
-      <c r="C72" s="33">
+      <c r="C72" s="12">
         <v>2</v>
       </c>
       <c r="D72" s="12">
@@ -3930,7 +3920,7 @@
       <c r="E72" s="3">
         <v>8</v>
       </c>
-      <c r="F72" s="38">
+      <c r="F72" s="39">
         <v>5</v>
       </c>
       <c r="G72" s="22">
@@ -3966,7 +3956,7 @@
         <f t="shared" ca="1" si="4"/>
         <v>1915</v>
       </c>
-      <c r="C73" s="33">
+      <c r="C73" s="12">
         <v>3</v>
       </c>
       <c r="D73" s="12">
@@ -3975,7 +3965,7 @@
       <c r="E73" s="3">
         <v>9</v>
       </c>
-      <c r="F73" s="38">
+      <c r="F73" s="39">
         <v>5</v>
       </c>
       <c r="G73" s="22">
@@ -4011,7 +4001,7 @@
         <f t="shared" ca="1" si="4"/>
         <v>1916</v>
       </c>
-      <c r="C74" s="33">
+      <c r="C74" s="12">
         <v>1</v>
       </c>
       <c r="D74" s="12">
@@ -4020,7 +4010,7 @@
       <c r="E74" s="3">
         <v>10</v>
       </c>
-      <c r="F74" s="38">
+      <c r="F74" s="39">
         <v>7</v>
       </c>
       <c r="G74" s="22">
@@ -4056,7 +4046,7 @@
         <f t="shared" ca="1" si="4"/>
         <v>1917</v>
       </c>
-      <c r="C75" s="33">
+      <c r="C75" s="12">
         <v>1</v>
       </c>
       <c r="D75" s="12">
@@ -4065,7 +4055,7 @@
       <c r="E75" s="3">
         <v>10</v>
       </c>
-      <c r="F75" s="38">
+      <c r="F75" s="39">
         <v>7</v>
       </c>
       <c r="G75" s="22">
@@ -4101,7 +4091,7 @@
         <f t="shared" ca="1" si="4"/>
         <v>1921</v>
       </c>
-      <c r="C76" s="33">
+      <c r="C76" s="12">
         <v>4</v>
       </c>
       <c r="D76" s="12">
@@ -4110,7 +4100,7 @@
       <c r="E76" s="3">
         <v>10</v>
       </c>
-      <c r="F76" s="38">
+      <c r="F76" s="39">
         <v>7</v>
       </c>
       <c r="G76" s="22">
@@ -4146,7 +4136,7 @@
         <f t="shared" ca="1" si="4"/>
         <v>1921</v>
       </c>
-      <c r="C77" s="33">
+      <c r="C77" s="12">
         <v>0</v>
       </c>
       <c r="D77" s="12">
@@ -4155,7 +4145,7 @@
       <c r="E77" s="3">
         <v>8</v>
       </c>
-      <c r="F77" s="38">
+      <c r="F77" s="39">
         <v>7</v>
       </c>
       <c r="G77" s="22">
@@ -4191,7 +4181,7 @@
         <f t="shared" ca="1" si="4"/>
         <v>1922</v>
       </c>
-      <c r="C78" s="33">
+      <c r="C78" s="12">
         <v>1</v>
       </c>
       <c r="D78" s="12">
@@ -4200,7 +4190,7 @@
       <c r="E78" s="3">
         <v>8</v>
       </c>
-      <c r="F78" s="38">
+      <c r="F78" s="39">
         <v>5</v>
       </c>
       <c r="G78" s="22">
@@ -4236,7 +4226,7 @@
         <f t="shared" ca="1" si="4"/>
         <v>1924</v>
       </c>
-      <c r="C79" s="33">
+      <c r="C79" s="12">
         <v>2</v>
       </c>
       <c r="D79" s="12">
@@ -4245,7 +4235,7 @@
       <c r="E79" s="3">
         <v>8</v>
       </c>
-      <c r="F79" s="38">
+      <c r="F79" s="39">
         <v>5</v>
       </c>
       <c r="G79" s="22">
@@ -4281,7 +4271,7 @@
         <f t="shared" ca="1" si="4"/>
         <v>1933</v>
       </c>
-      <c r="C80" s="33">
+      <c r="C80" s="12">
         <v>9</v>
       </c>
       <c r="D80" s="12">
@@ -4290,7 +4280,7 @@
       <c r="E80" s="3">
         <v>8</v>
       </c>
-      <c r="F80" s="38">
+      <c r="F80" s="39">
         <v>4</v>
       </c>
       <c r="G80" s="22">
@@ -4326,7 +4316,7 @@
         <f t="shared" ca="1" si="4"/>
         <v>1936</v>
       </c>
-      <c r="C81" s="33">
+      <c r="C81" s="12">
         <v>3</v>
       </c>
       <c r="D81" s="12">
@@ -4335,7 +4325,7 @@
       <c r="E81" s="3">
         <v>8</v>
       </c>
-      <c r="F81" s="38">
+      <c r="F81" s="39">
         <v>4</v>
       </c>
       <c r="G81" s="22">
@@ -4371,7 +4361,7 @@
         <f t="shared" ca="1" si="4"/>
         <v>1936</v>
       </c>
-      <c r="C82" s="33">
+      <c r="C82" s="12">
         <v>0</v>
       </c>
       <c r="D82" s="12">
@@ -4380,7 +4370,7 @@
       <c r="E82" s="3">
         <v>8</v>
       </c>
-      <c r="F82" s="38">
+      <c r="F82" s="39">
         <v>4</v>
       </c>
       <c r="G82" s="22">
@@ -4416,7 +4406,7 @@
         <f t="shared" ca="1" si="4"/>
         <v>1937</v>
       </c>
-      <c r="C83" s="33">
+      <c r="C83" s="12">
         <v>1</v>
       </c>
       <c r="D83" s="12">
@@ -4425,7 +4415,7 @@
       <c r="E83" s="3">
         <v>7</v>
       </c>
-      <c r="F83" s="38">
+      <c r="F83" s="39">
         <v>3</v>
       </c>
       <c r="G83" s="22">
@@ -4461,7 +4451,7 @@
         <f t="shared" ca="1" si="4"/>
         <v>1938</v>
       </c>
-      <c r="C84" s="33">
+      <c r="C84" s="12">
         <v>1</v>
       </c>
       <c r="D84" s="12">
@@ -4470,7 +4460,7 @@
       <c r="E84" s="3">
         <v>7</v>
       </c>
-      <c r="F84" s="38">
+      <c r="F84" s="39">
         <v>3</v>
       </c>
       <c r="G84" s="22">
@@ -4506,7 +4496,7 @@
         <f t="shared" ca="1" si="4"/>
         <v>1938</v>
       </c>
-      <c r="C85" s="33">
+      <c r="C85" s="12">
         <v>0</v>
       </c>
       <c r="D85" s="12">
@@ -4515,7 +4505,7 @@
       <c r="E85" s="3">
         <v>6</v>
       </c>
-      <c r="F85" s="38">
+      <c r="F85" s="39">
         <v>3</v>
       </c>
       <c r="G85" s="22">
@@ -4551,7 +4541,7 @@
         <f t="shared" ca="1" si="4"/>
         <v>1939</v>
       </c>
-      <c r="C86" s="33">
+      <c r="C86" s="12">
         <v>1</v>
       </c>
       <c r="D86" s="12">
@@ -4560,7 +4550,7 @@
       <c r="E86" s="3">
         <v>6</v>
       </c>
-      <c r="F86" s="38">
+      <c r="F86" s="39">
         <v>3</v>
       </c>
       <c r="G86" s="22">
@@ -4596,7 +4586,7 @@
         <f t="shared" ca="1" si="4"/>
         <v>1939</v>
       </c>
-      <c r="C87" s="33">
+      <c r="C87" s="12">
         <v>0</v>
       </c>
       <c r="D87" s="12">
@@ -4605,7 +4595,7 @@
       <c r="E87" s="3">
         <v>5</v>
       </c>
-      <c r="F87" s="38">
+      <c r="F87" s="39">
         <v>2</v>
       </c>
       <c r="G87" s="22">
@@ -4641,7 +4631,7 @@
         <f t="shared" ca="1" si="4"/>
         <v>1939</v>
       </c>
-      <c r="C88" s="33">
+      <c r="C88" s="12">
         <v>0</v>
       </c>
       <c r="D88" s="12">
@@ -4650,7 +4640,7 @@
       <c r="E88" s="3">
         <v>5</v>
       </c>
-      <c r="F88" s="38">
+      <c r="F88" s="39">
         <v>2</v>
       </c>
       <c r="G88" s="22">
@@ -4686,7 +4676,7 @@
         <f t="shared" ca="1" si="4"/>
         <v>1940</v>
       </c>
-      <c r="C89" s="33">
+      <c r="C89" s="12">
         <v>1</v>
       </c>
       <c r="D89" s="12">
@@ -4695,7 +4685,7 @@
       <c r="E89" s="3">
         <v>5</v>
       </c>
-      <c r="F89" s="38">
+      <c r="F89" s="39">
         <v>2</v>
       </c>
       <c r="G89" s="22">
@@ -4731,7 +4721,7 @@
         <f t="shared" ca="1" si="4"/>
         <v>1942</v>
       </c>
-      <c r="C90" s="33">
+      <c r="C90" s="12">
         <v>2</v>
       </c>
       <c r="D90" s="12">
@@ -4740,7 +4730,7 @@
       <c r="E90" s="3">
         <v>5</v>
       </c>
-      <c r="F90" s="38">
+      <c r="F90" s="39">
         <v>2</v>
       </c>
       <c r="G90" s="22">
@@ -4776,7 +4766,7 @@
         <f t="shared" ca="1" si="4"/>
         <v>1945</v>
       </c>
-      <c r="C91" s="33">
+      <c r="C91" s="12">
         <v>3</v>
       </c>
       <c r="D91" s="12">
@@ -4785,7 +4775,7 @@
       <c r="E91" s="3">
         <v>4</v>
       </c>
-      <c r="F91" s="38">
+      <c r="F91" s="39">
         <v>2</v>
       </c>
       <c r="G91" s="22">
@@ -4821,7 +4811,7 @@
         <f t="shared" ca="1" si="4"/>
         <v>1946</v>
       </c>
-      <c r="C92" s="33">
+      <c r="C92" s="12">
         <v>1</v>
       </c>
       <c r="D92" s="12">
@@ -4830,7 +4820,7 @@
       <c r="E92" s="3">
         <v>4</v>
       </c>
-      <c r="F92" s="38">
+      <c r="F92" s="39">
         <v>2</v>
       </c>
       <c r="G92" s="22">
@@ -4866,7 +4856,7 @@
         <f t="shared" ca="1" si="4"/>
         <v>1947</v>
       </c>
-      <c r="C93" s="33">
+      <c r="C93" s="12">
         <v>1</v>
       </c>
       <c r="D93" s="12">
@@ -4875,7 +4865,7 @@
       <c r="E93" s="3">
         <v>4</v>
       </c>
-      <c r="F93" s="38">
+      <c r="F93" s="39">
         <v>2</v>
       </c>
       <c r="G93" s="22">
@@ -4911,7 +4901,7 @@
         <f t="shared" ca="1" si="4"/>
         <v>1947</v>
       </c>
-      <c r="C94" s="33">
+      <c r="C94" s="12">
         <v>0</v>
       </c>
       <c r="D94" s="12">
@@ -4920,7 +4910,7 @@
       <c r="E94" s="3">
         <v>4</v>
       </c>
-      <c r="F94" s="38">
+      <c r="F94" s="39">
         <v>2</v>
       </c>
       <c r="G94" s="22">
@@ -4956,7 +4946,7 @@
         <f t="shared" ca="1" si="4"/>
         <v>1947</v>
       </c>
-      <c r="C95" s="33">
+      <c r="C95" s="12">
         <v>0</v>
       </c>
       <c r="D95" s="12">
@@ -4965,7 +4955,7 @@
       <c r="E95" s="3">
         <v>4</v>
       </c>
-      <c r="F95" s="38">
+      <c r="F95" s="39">
         <v>2</v>
       </c>
       <c r="G95" s="22">
@@ -5001,7 +4991,7 @@
         <f t="shared" ca="1" si="4"/>
         <v>1949</v>
       </c>
-      <c r="C96" s="33">
+      <c r="C96" s="12">
         <v>2</v>
       </c>
       <c r="D96" s="12">
@@ -5010,7 +5000,7 @@
       <c r="E96" s="3">
         <v>5</v>
       </c>
-      <c r="F96" s="38">
+      <c r="F96" s="39">
         <v>2</v>
       </c>
       <c r="G96" s="22">
@@ -5046,7 +5036,7 @@
         <f t="shared" ca="1" si="4"/>
         <v>1950</v>
       </c>
-      <c r="C97" s="33">
+      <c r="C97" s="12">
         <v>1</v>
       </c>
       <c r="D97" s="12">
@@ -5055,7 +5045,7 @@
       <c r="E97" s="3">
         <v>3</v>
       </c>
-      <c r="F97" s="38">
+      <c r="F97" s="39">
         <v>2</v>
       </c>
       <c r="G97" s="22">
@@ -5091,7 +5081,7 @@
         <f t="shared" ca="1" si="4"/>
         <v>1951</v>
       </c>
-      <c r="C98" s="33">
+      <c r="C98" s="12">
         <v>1</v>
       </c>
       <c r="D98" s="12">
@@ -5100,7 +5090,7 @@
       <c r="E98" s="3">
         <v>3</v>
       </c>
-      <c r="F98" s="38">
+      <c r="F98" s="39">
         <v>2</v>
       </c>
       <c r="G98" s="22">
@@ -5136,7 +5126,7 @@
         <f t="shared" ca="1" si="4"/>
         <v>1951</v>
       </c>
-      <c r="C99" s="33">
+      <c r="C99" s="12">
         <v>0</v>
       </c>
       <c r="D99" s="12">
@@ -5145,7 +5135,7 @@
       <c r="E99" s="3">
         <v>3</v>
       </c>
-      <c r="F99" s="38">
+      <c r="F99" s="39">
         <v>2</v>
       </c>
       <c r="G99" s="22">
@@ -5181,7 +5171,7 @@
         <f t="shared" ca="1" si="4"/>
         <v>1953</v>
       </c>
-      <c r="C100" s="33">
+      <c r="C100" s="12">
         <v>2</v>
       </c>
       <c r="D100" s="12">
@@ -5190,7 +5180,7 @@
       <c r="E100" s="3">
         <v>3</v>
       </c>
-      <c r="F100" s="38">
+      <c r="F100" s="39">
         <v>2</v>
       </c>
       <c r="G100" s="22">
@@ -5226,7 +5216,7 @@
         <f t="shared" ca="1" si="4"/>
         <v>1956</v>
       </c>
-      <c r="C101" s="33">
+      <c r="C101" s="12">
         <v>3</v>
       </c>
       <c r="D101" s="12">
@@ -5235,7 +5225,7 @@
       <c r="E101" s="3">
         <v>3</v>
       </c>
-      <c r="F101" s="38">
+      <c r="F101" s="39">
         <v>2</v>
       </c>
       <c r="G101" s="22">
@@ -5271,7 +5261,7 @@
         <f t="shared" ca="1" si="4"/>
         <v>1956</v>
       </c>
-      <c r="C102" s="33">
+      <c r="C102" s="12">
         <v>0</v>
       </c>
       <c r="D102" s="12">
@@ -5280,7 +5270,7 @@
       <c r="E102" s="3">
         <v>3</v>
       </c>
-      <c r="F102" s="38">
+      <c r="F102" s="39">
         <v>2</v>
       </c>
       <c r="G102" s="22">
@@ -5316,7 +5306,7 @@
         <f t="shared" ca="1" si="4"/>
         <v>1959</v>
       </c>
-      <c r="C103" s="33">
+      <c r="C103" s="12">
         <v>3</v>
       </c>
       <c r="D103" s="12">
@@ -5325,7 +5315,7 @@
       <c r="E103" s="3">
         <v>3</v>
       </c>
-      <c r="F103" s="38">
+      <c r="F103" s="39">
         <v>2</v>
       </c>
       <c r="G103" s="22">
@@ -5361,7 +5351,7 @@
         <f t="shared" ca="1" si="4"/>
         <v>1964</v>
       </c>
-      <c r="C104" s="33">
+      <c r="C104" s="12">
         <v>5</v>
       </c>
       <c r="D104" s="12">
@@ -5370,7 +5360,7 @@
       <c r="E104" s="3">
         <v>3</v>
       </c>
-      <c r="F104" s="38">
+      <c r="F104" s="39">
         <v>2</v>
       </c>
       <c r="G104" s="22">
@@ -5406,7 +5396,7 @@
         <f t="shared" ca="1" si="4"/>
         <v>1965</v>
       </c>
-      <c r="C105" s="33">
+      <c r="C105" s="12">
         <v>1</v>
       </c>
       <c r="D105" s="12">
@@ -5415,7 +5405,7 @@
       <c r="E105" s="3">
         <v>3</v>
       </c>
-      <c r="F105" s="38">
+      <c r="F105" s="39">
         <v>2</v>
       </c>
       <c r="G105" s="22">
@@ -5451,7 +5441,7 @@
         <f t="shared" ca="1" si="4"/>
         <v>1969</v>
       </c>
-      <c r="C106" s="33">
+      <c r="C106" s="12">
         <v>4</v>
       </c>
       <c r="D106" s="12">
@@ -5460,7 +5450,7 @@
       <c r="E106" s="3">
         <v>3</v>
       </c>
-      <c r="F106" s="38">
+      <c r="F106" s="39">
         <v>2</v>
       </c>
       <c r="G106" s="22">
@@ -5496,7 +5486,7 @@
         <f t="shared" ca="1" si="4"/>
         <v>1973</v>
       </c>
-      <c r="C107" s="33">
+      <c r="C107" s="12">
         <v>4</v>
       </c>
       <c r="D107" s="12">
@@ -5505,7 +5495,7 @@
       <c r="E107" s="3">
         <v>3</v>
       </c>
-      <c r="F107" s="38">
+      <c r="F107" s="39">
         <v>1</v>
       </c>
       <c r="G107" s="22">
@@ -5541,7 +5531,7 @@
         <f t="shared" ca="1" si="4"/>
         <v>1977</v>
       </c>
-      <c r="C108" s="33">
+      <c r="C108" s="12">
         <v>4</v>
       </c>
       <c r="D108" s="12">
@@ -5550,7 +5540,7 @@
       <c r="E108" s="3">
         <v>3</v>
       </c>
-      <c r="F108" s="38">
+      <c r="F108" s="39">
         <v>0</v>
       </c>
       <c r="G108" s="22">
@@ -5586,7 +5576,7 @@
         <f t="shared" ca="1" si="4"/>
         <v>1977</v>
       </c>
-      <c r="C109" s="33">
+      <c r="C109" s="12">
         <v>0</v>
       </c>
       <c r="D109" s="12">
@@ -5595,7 +5585,7 @@
       <c r="E109" s="3">
         <v>2</v>
       </c>
-      <c r="F109" s="38">
+      <c r="F109" s="39">
         <v>0</v>
       </c>
       <c r="G109" s="22">
@@ -5631,7 +5621,7 @@
         <f t="shared" ca="1" si="4"/>
         <v>1977</v>
       </c>
-      <c r="C110" s="33">
+      <c r="C110" s="12">
         <v>0</v>
       </c>
       <c r="D110" s="12">
@@ -5640,7 +5630,7 @@
       <c r="E110" s="3">
         <v>2</v>
       </c>
-      <c r="F110" s="38">
+      <c r="F110" s="39">
         <v>0</v>
       </c>
       <c r="G110" s="22">
@@ -5676,7 +5666,7 @@
         <f t="shared" ca="1" si="4"/>
         <v>1981</v>
       </c>
-      <c r="C111" s="33">
+      <c r="C111" s="12">
         <v>4</v>
       </c>
       <c r="D111" s="12">
@@ -5685,7 +5675,7 @@
       <c r="E111" s="3">
         <v>2</v>
       </c>
-      <c r="F111" s="38">
+      <c r="F111" s="39">
         <v>0</v>
       </c>
       <c r="G111" s="22">
@@ -5721,7 +5711,7 @@
         <f t="shared" ca="1" si="4"/>
         <v>1986</v>
       </c>
-      <c r="C112" s="33">
+      <c r="C112" s="12">
         <v>5</v>
       </c>
       <c r="D112" s="12">
@@ -5730,7 +5720,7 @@
       <c r="E112" s="3">
         <v>2</v>
       </c>
-      <c r="F112" s="38">
+      <c r="F112" s="39">
         <v>0</v>
       </c>
       <c r="G112" s="22">
@@ -5766,7 +5756,7 @@
         <f t="shared" ca="1" si="4"/>
         <v>1988</v>
       </c>
-      <c r="C113" s="33">
+      <c r="C113" s="12">
         <v>2</v>
       </c>
       <c r="D113" s="12">
@@ -5775,7 +5765,7 @@
       <c r="E113" s="3">
         <v>1</v>
       </c>
-      <c r="F113" s="38">
+      <c r="F113" s="39">
         <v>0</v>
       </c>
       <c r="G113" s="22">
@@ -5811,7 +5801,7 @@
         <f t="shared" ca="1" si="4"/>
         <v>1989</v>
       </c>
-      <c r="C114" s="33">
+      <c r="C114" s="12">
         <v>1</v>
       </c>
       <c r="D114" s="12">
@@ -5820,7 +5810,7 @@
       <c r="E114" s="3">
         <v>1</v>
       </c>
-      <c r="F114" s="38">
+      <c r="F114" s="39">
         <v>0</v>
       </c>
       <c r="G114" s="22">
@@ -5856,7 +5846,7 @@
         <f t="shared" ca="1" si="4"/>
         <v>1997</v>
       </c>
-      <c r="C115" s="33">
+      <c r="C115" s="12">
         <v>8</v>
       </c>
       <c r="D115" s="12">
@@ -5865,7 +5855,7 @@
       <c r="E115" s="3">
         <v>1</v>
       </c>
-      <c r="F115" s="38">
+      <c r="F115" s="39">
         <v>0</v>
       </c>
       <c r="G115" s="22">
@@ -5901,7 +5891,7 @@
         <f t="shared" ca="1" si="4"/>
         <v>2001</v>
       </c>
-      <c r="C116" s="33">
+      <c r="C116" s="12">
         <v>4</v>
       </c>
       <c r="D116" s="12">
@@ -5910,7 +5900,7 @@
       <c r="E116" s="3">
         <v>1</v>
       </c>
-      <c r="F116" s="38">
+      <c r="F116" s="39">
         <v>0</v>
       </c>
       <c r="G116" s="22">
@@ -5946,7 +5936,7 @@
         <f t="shared" ca="1" si="4"/>
         <v>2002</v>
       </c>
-      <c r="C117" s="33">
+      <c r="C117" s="12">
         <v>1</v>
       </c>
       <c r="D117" s="12">
@@ -5955,7 +5945,7 @@
       <c r="E117" s="3">
         <v>1</v>
       </c>
-      <c r="F117" s="38">
+      <c r="F117" s="39">
         <v>0</v>
       </c>
       <c r="G117" s="22">
@@ -5991,7 +5981,7 @@
         <f t="shared" ca="1" si="4"/>
         <v>2007</v>
       </c>
-      <c r="C118" s="33">
+      <c r="C118" s="12">
         <v>5</v>
       </c>
       <c r="D118" s="12">
@@ -6000,7 +5990,7 @@
       <c r="E118" s="3">
         <v>1</v>
       </c>
-      <c r="F118" s="38">
+      <c r="F118" s="39">
         <v>0</v>
       </c>
       <c r="G118" s="22">
@@ -6036,7 +6026,7 @@
         <f t="shared" ca="1" si="4"/>
         <v>2014</v>
       </c>
-      <c r="C119" s="33">
+      <c r="C119" s="12">
         <v>7</v>
       </c>
       <c r="D119" s="12">
@@ -6045,7 +6035,7 @@
       <c r="E119" s="3">
         <v>1</v>
       </c>
-      <c r="F119" s="38">
+      <c r="F119" s="39">
         <v>0</v>
       </c>
       <c r="G119" s="22">
@@ -6081,7 +6071,7 @@
         <f t="shared" ca="1" si="4"/>
         <v>2024</v>
       </c>
-      <c r="C120" s="33">
+      <c r="C120" s="12">
         <v>10</v>
       </c>
       <c r="D120" s="12">
@@ -6090,7 +6080,7 @@
       <c r="E120" s="3">
         <v>1</v>
       </c>
-      <c r="F120" s="38">
+      <c r="F120" s="39">
         <v>0</v>
       </c>
       <c r="G120" s="22">
@@ -6126,7 +6116,7 @@
         <f t="shared" ca="1" si="4"/>
         <v>2031</v>
       </c>
-      <c r="C121" s="33">
+      <c r="C121" s="12">
         <v>7</v>
       </c>
       <c r="D121" s="12">
@@ -6135,7 +6125,7 @@
       <c r="E121" s="3">
         <v>1</v>
       </c>
-      <c r="F121" s="38">
+      <c r="F121" s="39">
         <v>0</v>
       </c>
       <c r="G121" s="22">
@@ -6171,7 +6161,7 @@
         <f t="shared" ca="1" si="4"/>
         <v>2041</v>
       </c>
-      <c r="C122" s="33">
+      <c r="C122" s="12">
         <v>10</v>
       </c>
       <c r="D122" s="12">
@@ -6180,7 +6170,7 @@
       <c r="E122" s="3">
         <v>1</v>
       </c>
-      <c r="F122" s="38">
+      <c r="F122" s="39">
         <v>0</v>
       </c>
       <c r="G122" s="22">
@@ -6216,7 +6206,7 @@
         <f t="shared" ca="1" si="4"/>
         <v>2045</v>
       </c>
-      <c r="C123" s="33">
+      <c r="C123" s="12">
         <v>4</v>
       </c>
       <c r="D123" s="12">
@@ -6225,7 +6215,7 @@
       <c r="E123" s="3">
         <v>1</v>
       </c>
-      <c r="F123" s="38">
+      <c r="F123" s="39">
         <v>0</v>
       </c>
       <c r="G123" s="22">
@@ -6261,7 +6251,7 @@
         <f t="shared" ca="1" si="4"/>
         <v>2046</v>
       </c>
-      <c r="C124" s="33">
+      <c r="C124" s="12">
         <v>1</v>
       </c>
       <c r="D124" s="12">
@@ -6270,7 +6260,7 @@
       <c r="E124" s="3">
         <v>1</v>
       </c>
-      <c r="F124" s="38">
+      <c r="F124" s="39">
         <v>0</v>
       </c>
       <c r="G124" s="22">
@@ -6306,7 +6296,7 @@
         <f t="shared" ca="1" si="4"/>
         <v>2054</v>
       </c>
-      <c r="C125" s="33">
+      <c r="C125" s="12">
         <v>8</v>
       </c>
       <c r="D125" s="12">
@@ -6315,7 +6305,7 @@
       <c r="E125" s="3">
         <v>2</v>
       </c>
-      <c r="F125" s="38">
+      <c r="F125" s="39">
         <v>0</v>
       </c>
       <c r="G125" s="22">
@@ -6351,7 +6341,7 @@
         <f t="shared" ca="1" si="4"/>
         <v>2058</v>
       </c>
-      <c r="C126" s="33">
+      <c r="C126" s="12">
         <v>4</v>
       </c>
       <c r="D126" s="12">
@@ -6360,7 +6350,7 @@
       <c r="E126" s="3">
         <v>2</v>
       </c>
-      <c r="F126" s="38">
+      <c r="F126" s="39">
         <v>0</v>
       </c>
       <c r="G126" s="22">
@@ -6396,7 +6386,7 @@
         <f t="shared" ca="1" si="4"/>
         <v>2061</v>
       </c>
-      <c r="C127" s="33">
+      <c r="C127" s="12">
         <v>3</v>
       </c>
       <c r="D127" s="12">
@@ -6405,7 +6395,7 @@
       <c r="E127" s="3">
         <v>2</v>
       </c>
-      <c r="F127" s="38">
+      <c r="F127" s="39">
         <v>0</v>
       </c>
       <c r="G127" s="22">
@@ -6441,7 +6431,7 @@
         <f t="shared" ca="1" si="4"/>
         <v>2064</v>
       </c>
-      <c r="C128" s="33">
+      <c r="C128" s="12">
         <v>3</v>
       </c>
       <c r="D128" s="12">
@@ -6450,7 +6440,7 @@
       <c r="E128" s="3">
         <v>1</v>
       </c>
-      <c r="F128" s="38">
+      <c r="F128" s="39">
         <v>0</v>
       </c>
       <c r="G128" s="22">
@@ -6486,7 +6476,7 @@
         <f t="shared" ca="1" si="4"/>
         <v>2069</v>
       </c>
-      <c r="C129" s="33">
+      <c r="C129" s="12">
         <v>5</v>
       </c>
       <c r="D129" s="12">
@@ -6495,7 +6485,7 @@
       <c r="E129" s="3">
         <v>1</v>
       </c>
-      <c r="F129" s="38">
+      <c r="F129" s="39">
         <v>0</v>
       </c>
       <c r="G129" s="22">
@@ -6531,7 +6521,7 @@
         <f t="shared" ca="1" si="4"/>
         <v>2071</v>
       </c>
-      <c r="C130" s="33">
+      <c r="C130" s="12">
         <v>2</v>
       </c>
       <c r="D130" s="12">
@@ -6540,7 +6530,7 @@
       <c r="E130" s="3">
         <v>2</v>
       </c>
-      <c r="F130" s="38">
+      <c r="F130" s="39">
         <v>0</v>
       </c>
       <c r="G130" s="22">
@@ -6576,7 +6566,7 @@
         <f t="shared" ca="1" si="4"/>
         <v>2073</v>
       </c>
-      <c r="C131" s="33">
+      <c r="C131" s="12">
         <v>2</v>
       </c>
       <c r="D131" s="12">
@@ -6585,7 +6575,7 @@
       <c r="E131" s="3">
         <v>2</v>
       </c>
-      <c r="F131" s="38">
+      <c r="F131" s="39">
         <v>0</v>
       </c>
       <c r="G131" s="22">
@@ -6621,7 +6611,7 @@
         <f t="shared" ca="1" si="4"/>
         <v>2076</v>
       </c>
-      <c r="C132" s="33">
+      <c r="C132" s="12">
         <v>3</v>
       </c>
       <c r="D132" s="12">
@@ -6630,7 +6620,7 @@
       <c r="E132" s="3">
         <v>1</v>
       </c>
-      <c r="F132" s="38">
+      <c r="F132" s="39">
         <v>0</v>
       </c>
       <c r="G132" s="22">
@@ -6666,7 +6656,7 @@
         <f t="shared" ref="B133:B196" ca="1" si="8">IF(TODAY()&gt;A132,B132+C133,"")</f>
         <v>2079</v>
       </c>
-      <c r="C133" s="33">
+      <c r="C133" s="12">
         <v>3</v>
       </c>
       <c r="D133" s="12">
@@ -6675,7 +6665,7 @@
       <c r="E133" s="3">
         <v>1</v>
       </c>
-      <c r="F133" s="38">
+      <c r="F133" s="39">
         <v>0</v>
       </c>
       <c r="G133" s="22">
@@ -6711,7 +6701,7 @@
         <f t="shared" ca="1" si="8"/>
         <v>2079</v>
       </c>
-      <c r="C134" s="33">
+      <c r="C134" s="12">
         <v>0</v>
       </c>
       <c r="D134" s="12">
@@ -6720,7 +6710,7 @@
       <c r="E134" s="3">
         <v>1</v>
       </c>
-      <c r="F134" s="38">
+      <c r="F134" s="39">
         <v>0</v>
       </c>
       <c r="G134" s="22">
@@ -6756,7 +6746,7 @@
         <f t="shared" ca="1" si="8"/>
         <v>2081</v>
       </c>
-      <c r="C135" s="33">
+      <c r="C135" s="12">
         <v>2</v>
       </c>
       <c r="D135" s="12">
@@ -6765,7 +6755,7 @@
       <c r="E135" s="3">
         <v>1</v>
       </c>
-      <c r="F135" s="38">
+      <c r="F135" s="39">
         <v>0</v>
       </c>
       <c r="G135" s="22">
@@ -6801,7 +6791,7 @@
         <f t="shared" ca="1" si="8"/>
         <v>2084</v>
       </c>
-      <c r="C136" s="33">
+      <c r="C136" s="12">
         <v>3</v>
       </c>
       <c r="D136" s="12">
@@ -6810,7 +6800,7 @@
       <c r="E136" s="3">
         <v>2</v>
       </c>
-      <c r="F136" s="38">
+      <c r="F136" s="39">
         <v>0</v>
       </c>
       <c r="G136" s="22">
@@ -6846,7 +6836,7 @@
         <f t="shared" ca="1" si="8"/>
         <v>2089</v>
       </c>
-      <c r="C137" s="33">
+      <c r="C137" s="12">
         <v>5</v>
       </c>
       <c r="D137" s="12">
@@ -6855,7 +6845,7 @@
       <c r="E137" s="3">
         <v>2</v>
       </c>
-      <c r="F137" s="38">
+      <c r="F137" s="39">
         <v>0</v>
       </c>
       <c r="G137" s="22">
@@ -6891,7 +6881,7 @@
         <f t="shared" ca="1" si="8"/>
         <v>2092</v>
       </c>
-      <c r="C138" s="33">
+      <c r="C138" s="12">
         <v>3</v>
       </c>
       <c r="D138" s="12">
@@ -6900,7 +6890,7 @@
       <c r="E138" s="3">
         <v>2</v>
       </c>
-      <c r="F138" s="38">
+      <c r="F138" s="39">
         <v>0</v>
       </c>
       <c r="G138" s="22">
@@ -6936,7 +6926,7 @@
         <f t="shared" ca="1" si="8"/>
         <v>2095</v>
       </c>
-      <c r="C139" s="33">
+      <c r="C139" s="12">
         <v>3</v>
       </c>
       <c r="D139" s="12">
@@ -6945,7 +6935,7 @@
       <c r="E139" s="3">
         <v>2</v>
       </c>
-      <c r="F139" s="38">
+      <c r="F139" s="39">
         <v>0</v>
       </c>
       <c r="G139" s="22">
@@ -6981,7 +6971,7 @@
         <f t="shared" ca="1" si="8"/>
         <v>2100</v>
       </c>
-      <c r="C140" s="33">
+      <c r="C140" s="12">
         <v>5</v>
       </c>
       <c r="D140" s="12">
@@ -6990,7 +6980,7 @@
       <c r="E140" s="3">
         <v>1</v>
       </c>
-      <c r="F140" s="38">
+      <c r="F140" s="39">
         <v>0</v>
       </c>
       <c r="G140" s="22">
@@ -7026,7 +7016,7 @@
         <f t="shared" ca="1" si="8"/>
         <v>2102</v>
       </c>
-      <c r="C141" s="33">
+      <c r="C141" s="12">
         <v>2</v>
       </c>
       <c r="D141" s="12">
@@ -7035,7 +7025,7 @@
       <c r="E141" s="3">
         <v>1</v>
       </c>
-      <c r="F141" s="38">
+      <c r="F141" s="39">
         <v>0</v>
       </c>
       <c r="G141" s="22">
@@ -7071,7 +7061,7 @@
         <f t="shared" ca="1" si="8"/>
         <v>2103</v>
       </c>
-      <c r="C142" s="33">
+      <c r="C142" s="12">
         <v>1</v>
       </c>
       <c r="D142" s="12">
@@ -7080,7 +7070,7 @@
       <c r="E142" s="3">
         <v>1</v>
       </c>
-      <c r="F142" s="38">
+      <c r="F142" s="39">
         <v>0</v>
       </c>
       <c r="G142" s="22">
@@ -7116,7 +7106,7 @@
         <f t="shared" ca="1" si="8"/>
         <v>2105</v>
       </c>
-      <c r="C143" s="33">
+      <c r="C143" s="12">
         <v>2</v>
       </c>
       <c r="D143" s="12">
@@ -7125,7 +7115,7 @@
       <c r="E143" s="3">
         <v>2</v>
       </c>
-      <c r="F143" s="38">
+      <c r="F143" s="39">
         <v>1</v>
       </c>
       <c r="G143" s="22">
@@ -7161,7 +7151,7 @@
         <f t="shared" ca="1" si="8"/>
         <v>2105</v>
       </c>
-      <c r="C144" s="34">
+      <c r="C144" s="40">
         <v>0</v>
       </c>
       <c r="D144" s="12">
@@ -7170,7 +7160,7 @@
       <c r="E144" s="3">
         <v>2</v>
       </c>
-      <c r="F144" s="38">
+      <c r="F144" s="39">
         <v>1</v>
       </c>
       <c r="G144" s="22">
@@ -7206,7 +7196,7 @@
         <f t="shared" ca="1" si="8"/>
         <v>2106</v>
       </c>
-      <c r="C145" s="34">
+      <c r="C145" s="40">
         <v>1</v>
       </c>
       <c r="D145" s="12">
@@ -7215,7 +7205,7 @@
       <c r="E145" s="3">
         <v>2</v>
       </c>
-      <c r="F145" s="38">
+      <c r="F145" s="39">
         <v>1</v>
       </c>
       <c r="G145" s="22">
@@ -7251,7 +7241,7 @@
         <f t="shared" ca="1" si="8"/>
         <v>2109</v>
       </c>
-      <c r="C146" s="34">
+      <c r="C146" s="40">
         <v>3</v>
       </c>
       <c r="D146" s="12">
@@ -7260,7 +7250,7 @@
       <c r="E146" s="3">
         <v>2</v>
       </c>
-      <c r="F146" s="38">
+      <c r="F146" s="39">
         <v>1</v>
       </c>
       <c r="G146" s="22">
@@ -7296,7 +7286,7 @@
         <f t="shared" ca="1" si="8"/>
         <v>2111</v>
       </c>
-      <c r="C147" s="34">
+      <c r="C147" s="40">
         <v>2</v>
       </c>
       <c r="D147" s="12">
@@ -7305,7 +7295,7 @@
       <c r="E147" s="3">
         <v>1</v>
       </c>
-      <c r="F147" s="38">
+      <c r="F147" s="39">
         <v>1</v>
       </c>
       <c r="G147" s="22">
@@ -7341,7 +7331,7 @@
         <f t="shared" ca="1" si="8"/>
         <v>2114</v>
       </c>
-      <c r="C148" s="34">
+      <c r="C148" s="40">
         <v>3</v>
       </c>
       <c r="D148" s="12">
@@ -7350,7 +7340,7 @@
       <c r="E148" s="3">
         <v>1</v>
       </c>
-      <c r="F148" s="38">
+      <c r="F148" s="39">
         <v>1</v>
       </c>
       <c r="G148" s="22">
@@ -7386,7 +7376,7 @@
         <f t="shared" ca="1" si="8"/>
         <v>2116</v>
       </c>
-      <c r="C149" s="34">
+      <c r="C149" s="40">
         <v>2</v>
       </c>
       <c r="D149" s="12">
@@ -7395,7 +7385,7 @@
       <c r="E149" s="3">
         <v>1</v>
       </c>
-      <c r="F149" s="38">
+      <c r="F149" s="39">
         <v>1</v>
       </c>
       <c r="G149" s="22">
@@ -7431,7 +7421,7 @@
         <f t="shared" ca="1" si="8"/>
         <v>2119</v>
       </c>
-      <c r="C150" s="34">
+      <c r="C150" s="40">
         <v>3</v>
       </c>
       <c r="D150" s="12">
@@ -7440,7 +7430,7 @@
       <c r="E150" s="3">
         <v>1</v>
       </c>
-      <c r="F150" s="38">
+      <c r="F150" s="39">
         <v>1</v>
       </c>
       <c r="G150" s="22">
@@ -7476,7 +7466,7 @@
         <f t="shared" ca="1" si="8"/>
         <v>2119</v>
       </c>
-      <c r="C151" s="34">
+      <c r="C151" s="40">
         <v>0</v>
       </c>
       <c r="D151" s="12">
@@ -7485,7 +7475,7 @@
       <c r="E151" s="3">
         <v>1</v>
       </c>
-      <c r="F151" s="38">
+      <c r="F151" s="39">
         <v>1</v>
       </c>
       <c r="G151" s="22">
@@ -7521,7 +7511,7 @@
         <f t="shared" ca="1" si="8"/>
         <v>2119</v>
       </c>
-      <c r="C152" s="34">
+      <c r="C152" s="40">
         <v>0</v>
       </c>
       <c r="D152" s="12">
@@ -7530,7 +7520,7 @@
       <c r="E152" s="3">
         <v>1</v>
       </c>
-      <c r="F152" s="38">
+      <c r="F152" s="39">
         <v>1</v>
       </c>
       <c r="G152" s="22">
@@ -7566,7 +7556,7 @@
         <f t="shared" ca="1" si="8"/>
         <v>2122</v>
       </c>
-      <c r="C153" s="34">
+      <c r="C153" s="40">
         <v>3</v>
       </c>
       <c r="D153" s="12">
@@ -7575,7 +7565,7 @@
       <c r="E153" s="3">
         <v>1</v>
       </c>
-      <c r="F153" s="38">
+      <c r="F153" s="39">
         <v>1</v>
       </c>
       <c r="G153" s="22">
@@ -7596,11 +7586,11 @@
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="L153" s="24">
-        <v>0</v>
-      </c>
-      <c r="M153" s="25">
-        <v>0</v>
+      <c r="L153" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="M153" s="25" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
@@ -7611,24 +7601,24 @@
         <f t="shared" ca="1" si="8"/>
         <v>2127</v>
       </c>
-      <c r="C154" s="34">
+      <c r="C154" s="40">
         <v>5</v>
       </c>
       <c r="D154" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E154" s="3">
         <v>1</v>
       </c>
-      <c r="F154" s="38">
+      <c r="F154" s="39">
         <v>1</v>
       </c>
       <c r="G154" s="22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H154" s="16">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I154" s="30">
         <v>1</v>
@@ -7641,11 +7631,11 @@
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="L154" s="24">
-        <v>0</v>
-      </c>
-      <c r="M154" s="25">
-        <v>0</v>
+      <c r="L154" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="M154" s="25" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
@@ -7656,7 +7646,7 @@
         <f t="shared" ca="1" si="8"/>
         <v>2136</v>
       </c>
-      <c r="C155" s="34">
+      <c r="C155" s="40">
         <v>9</v>
       </c>
       <c r="D155" s="12">
@@ -7665,15 +7655,15 @@
       <c r="E155" s="3">
         <v>1</v>
       </c>
-      <c r="F155" s="38">
+      <c r="F155" s="39">
         <v>1</v>
       </c>
       <c r="G155" s="22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H155" s="16">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I155" s="30">
         <v>0</v>
@@ -7686,11 +7676,11 @@
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="L155" s="24">
-        <v>0</v>
-      </c>
-      <c r="M155" s="25">
-        <v>0</v>
+      <c r="L155" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="M155" s="25" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
@@ -7701,7 +7691,7 @@
         <f t="shared" ca="1" si="8"/>
         <v>2145</v>
       </c>
-      <c r="C156" s="34">
+      <c r="C156" s="33">
         <v>9</v>
       </c>
       <c r="D156" s="12">
@@ -7710,15 +7700,15 @@
       <c r="E156" s="3">
         <v>1</v>
       </c>
-      <c r="F156" s="38">
+      <c r="F156" s="39">
         <v>1</v>
       </c>
       <c r="G156" s="22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H156" s="16">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I156" s="30">
         <v>0</v>
@@ -7731,11 +7721,11 @@
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="L156" s="24">
-        <v>0</v>
-      </c>
-      <c r="M156" s="25">
-        <v>0</v>
+      <c r="L156" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="M156" s="25" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
@@ -7746,7 +7736,7 @@
         <f t="shared" ca="1" si="8"/>
         <v>2148</v>
       </c>
-      <c r="C157" s="34">
+      <c r="C157" s="33">
         <v>3</v>
       </c>
       <c r="D157" s="12">
@@ -7755,15 +7745,15 @@
       <c r="E157" s="3">
         <v>1</v>
       </c>
-      <c r="F157" s="38">
+      <c r="F157" s="39">
         <v>1</v>
       </c>
       <c r="G157" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H157" s="16">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I157" s="30">
         <v>1</v>
@@ -7776,11 +7766,11 @@
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="L157" s="24">
-        <v>0</v>
-      </c>
-      <c r="M157" s="25">
-        <v>0</v>
+      <c r="L157" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="M157" s="25" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
@@ -7791,7 +7781,7 @@
         <f t="shared" ca="1" si="8"/>
         <v>2151</v>
       </c>
-      <c r="C158" s="34">
+      <c r="C158" s="33">
         <v>3</v>
       </c>
       <c r="D158" s="12">
@@ -7800,15 +7790,15 @@
       <c r="E158" s="3">
         <v>1</v>
       </c>
-      <c r="F158" s="38">
+      <c r="F158" s="39">
         <v>1</v>
       </c>
       <c r="G158" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H158" s="16">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I158" s="30">
         <v>0</v>
@@ -7821,11 +7811,11 @@
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="L158" s="24">
-        <v>0</v>
-      </c>
-      <c r="M158" s="25">
-        <v>0</v>
+      <c r="L158" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="M158" s="25" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
@@ -7836,7 +7826,7 @@
         <f t="shared" ca="1" si="8"/>
         <v>2152</v>
       </c>
-      <c r="C159" s="34">
+      <c r="C159" s="33">
         <v>1</v>
       </c>
       <c r="D159" s="12">
@@ -7845,15 +7835,15 @@
       <c r="E159" s="3">
         <v>1</v>
       </c>
-      <c r="F159" s="38">
+      <c r="F159" s="39">
         <v>1</v>
       </c>
       <c r="G159" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H159" s="16">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I159" s="30">
         <v>0</v>
@@ -7866,11 +7856,11 @@
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="L159" s="24">
-        <v>0</v>
-      </c>
-      <c r="M159" s="25">
-        <v>0</v>
+      <c r="L159" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="M159" s="25" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
@@ -7881,7 +7871,7 @@
         <f t="shared" ca="1" si="8"/>
         <v>2155</v>
       </c>
-      <c r="C160" s="34">
+      <c r="C160" s="33">
         <v>3</v>
       </c>
       <c r="D160" s="12">
@@ -7890,15 +7880,15 @@
       <c r="E160" s="3">
         <v>1</v>
       </c>
-      <c r="F160" s="38">
+      <c r="F160" s="39">
         <v>1</v>
       </c>
       <c r="G160" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H160" s="16">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I160" s="30">
         <v>0</v>
@@ -7911,11 +7901,11 @@
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="L160" s="24">
-        <v>0</v>
-      </c>
-      <c r="M160" s="25">
-        <v>0</v>
+      <c r="L160" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="M160" s="25" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.25">
@@ -7926,7 +7916,7 @@
         <f t="shared" ca="1" si="8"/>
         <v>2163</v>
       </c>
-      <c r="C161" s="34">
+      <c r="C161" s="33">
         <v>8</v>
       </c>
       <c r="D161" s="12">
@@ -7935,15 +7925,15 @@
       <c r="E161" s="3">
         <v>1</v>
       </c>
-      <c r="F161" s="38">
+      <c r="F161" s="39">
         <v>1</v>
       </c>
       <c r="G161" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H161" s="16">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I161" s="30">
         <v>0</v>
@@ -7956,11 +7946,11 @@
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="L161" s="24">
-        <v>0</v>
-      </c>
-      <c r="M161" s="25">
-        <v>0</v>
+      <c r="L161" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="M161" s="25" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.25">
@@ -7971,7 +7961,7 @@
         <f t="shared" ca="1" si="8"/>
         <v>2167</v>
       </c>
-      <c r="C162" s="34">
+      <c r="C162" s="33">
         <v>4</v>
       </c>
       <c r="D162" s="12">
@@ -7980,15 +7970,15 @@
       <c r="E162" s="3">
         <v>1</v>
       </c>
-      <c r="F162" s="38">
+      <c r="F162" s="39">
         <v>1</v>
       </c>
       <c r="G162" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H162" s="16">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I162" s="30">
         <v>0</v>
@@ -8001,11 +7991,11 @@
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="L162" s="24">
-        <v>0</v>
-      </c>
-      <c r="M162" s="25">
-        <v>0</v>
+      <c r="L162" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="M162" s="25" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
@@ -8016,7 +8006,7 @@
         <f t="shared" ca="1" si="8"/>
         <v>2173</v>
       </c>
-      <c r="C163" s="34">
+      <c r="C163" s="33">
         <v>6</v>
       </c>
       <c r="D163" s="12">
@@ -8025,15 +8015,15 @@
       <c r="E163" s="3">
         <v>1</v>
       </c>
-      <c r="F163" s="38">
+      <c r="F163" s="39">
         <v>1</v>
       </c>
       <c r="G163" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H163" s="16">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I163" s="30">
         <v>0</v>
@@ -8046,11 +8036,11 @@
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="L163" s="24">
-        <v>0</v>
-      </c>
-      <c r="M163" s="25">
-        <v>0</v>
+      <c r="L163" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="M163" s="25" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
@@ -8061,7 +8051,7 @@
         <f t="shared" ca="1" si="8"/>
         <v>2180</v>
       </c>
-      <c r="C164" s="34">
+      <c r="C164" s="33">
         <v>7</v>
       </c>
       <c r="D164" s="12">
@@ -8070,15 +8060,15 @@
       <c r="E164" s="3">
         <v>1</v>
       </c>
-      <c r="F164" s="38">
+      <c r="F164" s="39">
         <v>1</v>
       </c>
       <c r="G164" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H164" s="16">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I164" s="30">
         <v>0</v>
@@ -8091,11 +8081,11 @@
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="L164" s="24">
-        <v>0</v>
-      </c>
-      <c r="M164" s="25">
-        <v>0</v>
+      <c r="L164" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="M164" s="25" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.25">
@@ -8106,7 +8096,7 @@
         <f t="shared" ca="1" si="8"/>
         <v>2184</v>
       </c>
-      <c r="C165" s="34">
+      <c r="C165" s="33">
         <v>4</v>
       </c>
       <c r="D165" s="12">
@@ -8115,15 +8105,15 @@
       <c r="E165" s="3">
         <v>1</v>
       </c>
-      <c r="F165" s="38">
+      <c r="F165" s="39">
         <v>1</v>
       </c>
       <c r="G165" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H165" s="16">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I165" s="30">
         <v>0</v>
@@ -8136,11 +8126,11 @@
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="L165" s="24">
-        <v>0</v>
-      </c>
-      <c r="M165" s="25">
-        <v>0</v>
+      <c r="L165" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="M165" s="25" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.25">
@@ -8151,7 +8141,7 @@
         <f t="shared" ca="1" si="8"/>
         <v>2187</v>
       </c>
-      <c r="C166" s="34">
+      <c r="C166" s="33">
         <v>3</v>
       </c>
       <c r="D166" s="12">
@@ -8160,15 +8150,15 @@
       <c r="E166" s="3">
         <v>1</v>
       </c>
-      <c r="F166" s="38">
+      <c r="F166" s="39">
         <v>1</v>
       </c>
       <c r="G166" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H166" s="16">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I166" s="30">
         <v>0</v>
@@ -8181,11 +8171,11 @@
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="L166" s="24">
-        <v>0</v>
-      </c>
-      <c r="M166" s="25">
-        <v>0</v>
+      <c r="L166" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="M166" s="25" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.25">
@@ -8196,7 +8186,7 @@
         <f t="shared" ca="1" si="8"/>
         <v>2199</v>
       </c>
-      <c r="C167" s="34">
+      <c r="C167" s="33">
         <v>12</v>
       </c>
       <c r="D167" s="12">
@@ -8205,15 +8195,15 @@
       <c r="E167" s="3">
         <v>1</v>
       </c>
-      <c r="F167" s="38">
+      <c r="F167" s="39">
         <v>1</v>
       </c>
       <c r="G167" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H167" s="16">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I167" s="30">
         <v>0</v>
@@ -8226,11 +8216,11 @@
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="L167" s="24">
-        <v>0</v>
-      </c>
-      <c r="M167" s="25">
-        <v>0</v>
+      <c r="L167" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="M167" s="25" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.25">
@@ -8241,7 +8231,7 @@
         <f t="shared" ca="1" si="8"/>
         <v>2207</v>
       </c>
-      <c r="C168" s="34">
+      <c r="C168" s="33">
         <v>8</v>
       </c>
       <c r="D168" s="12">
@@ -8250,15 +8240,15 @@
       <c r="E168" s="3">
         <v>1</v>
       </c>
-      <c r="F168" s="38">
+      <c r="F168" s="39">
         <v>1</v>
       </c>
       <c r="G168" s="22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H168" s="16">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I168" s="30">
         <v>0</v>
@@ -8271,11 +8261,11 @@
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="L168" s="24">
-        <v>0</v>
-      </c>
-      <c r="M168" s="25">
-        <v>0</v>
+      <c r="L168" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="M168" s="25" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.25">
@@ -8286,7 +8276,7 @@
         <f t="shared" ca="1" si="8"/>
         <v>2215</v>
       </c>
-      <c r="C169" s="34">
+      <c r="C169" s="33">
         <v>8</v>
       </c>
       <c r="D169" s="12">
@@ -8295,15 +8285,15 @@
       <c r="E169" s="3">
         <v>1</v>
       </c>
-      <c r="F169" s="38">
+      <c r="F169" s="39">
         <v>1</v>
       </c>
       <c r="G169" s="22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H169" s="16">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I169" s="30">
         <v>0</v>
@@ -8316,11 +8306,11 @@
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="L169" s="24">
-        <v>0</v>
-      </c>
-      <c r="M169" s="25">
-        <v>0</v>
+      <c r="L169" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="M169" s="25" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.25">
@@ -8331,7 +8321,7 @@
         <f t="shared" ca="1" si="8"/>
         <v>2222</v>
       </c>
-      <c r="C170" s="34">
+      <c r="C170" s="33">
         <v>7</v>
       </c>
       <c r="D170" s="12">
@@ -8340,15 +8330,15 @@
       <c r="E170" s="3">
         <v>1</v>
       </c>
-      <c r="F170" s="38">
+      <c r="F170" s="39">
         <v>1</v>
       </c>
       <c r="G170" s="22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H170" s="16">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I170" s="30">
         <v>0</v>
@@ -8361,11 +8351,11 @@
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="L170" s="24">
-        <v>0</v>
-      </c>
-      <c r="M170" s="25">
-        <v>0</v>
+      <c r="L170" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="M170" s="25" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
@@ -8376,7 +8366,7 @@
         <f t="shared" ca="1" si="8"/>
         <v>2230</v>
       </c>
-      <c r="C171" s="34">
+      <c r="C171" s="33">
         <v>8</v>
       </c>
       <c r="D171" s="12">
@@ -8385,7 +8375,7 @@
       <c r="E171" s="3">
         <v>1</v>
       </c>
-      <c r="F171" s="38">
+      <c r="F171" s="39">
         <v>1</v>
       </c>
       <c r="G171" s="22">
@@ -8409,8 +8399,8 @@
       <c r="L171" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="M171" s="25">
-        <v>0</v>
+      <c r="M171" s="25" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
@@ -8421,7 +8411,7 @@
         <f t="shared" ca="1" si="8"/>
         <v>2236</v>
       </c>
-      <c r="C172" s="34">
+      <c r="C172" s="33">
         <v>6</v>
       </c>
       <c r="D172" s="12">
@@ -8430,7 +8420,7 @@
       <c r="E172" s="3">
         <v>1</v>
       </c>
-      <c r="F172" s="38">
+      <c r="F172" s="39">
         <v>1</v>
       </c>
       <c r="G172" s="22">
@@ -8451,11 +8441,11 @@
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="L172" s="24">
-        <v>0</v>
-      </c>
-      <c r="M172" s="25">
-        <v>0</v>
+      <c r="L172" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="M172" s="25" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
@@ -8466,7 +8456,7 @@
         <f t="shared" ca="1" si="8"/>
         <v>2241</v>
       </c>
-      <c r="C173" s="34">
+      <c r="C173" s="33">
         <v>5</v>
       </c>
       <c r="D173" s="12">
@@ -8475,7 +8465,7 @@
       <c r="E173" s="3">
         <v>1</v>
       </c>
-      <c r="F173" s="38">
+      <c r="F173" s="39">
         <v>1</v>
       </c>
       <c r="G173" s="22">
@@ -8496,11 +8486,11 @@
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="L173" s="24">
-        <v>0</v>
-      </c>
-      <c r="M173" s="25">
-        <v>0</v>
+      <c r="L173" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="M173" s="25" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.25">
@@ -8511,7 +8501,7 @@
         <f t="shared" ca="1" si="8"/>
         <v>2251</v>
       </c>
-      <c r="C174" s="34">
+      <c r="C174" s="33">
         <v>10</v>
       </c>
       <c r="D174" s="12">
@@ -8520,7 +8510,7 @@
       <c r="E174" s="3">
         <v>1</v>
       </c>
-      <c r="F174" s="38">
+      <c r="F174" s="39">
         <v>1</v>
       </c>
       <c r="G174" s="22">
@@ -8556,7 +8546,7 @@
         <f t="shared" ca="1" si="8"/>
         <v>2261</v>
       </c>
-      <c r="C175" s="34">
+      <c r="C175" s="33">
         <v>10</v>
       </c>
       <c r="D175" s="12">
@@ -8565,7 +8555,7 @@
       <c r="E175" s="3">
         <v>1</v>
       </c>
-      <c r="F175" s="38">
+      <c r="F175" s="39">
         <v>1</v>
       </c>
       <c r="G175" s="22">
@@ -8601,7 +8591,7 @@
         <f t="shared" ca="1" si="8"/>
         <v>2264</v>
       </c>
-      <c r="C176" s="34">
+      <c r="C176" s="33">
         <v>3</v>
       </c>
       <c r="D176" s="12">
@@ -8610,7 +8600,7 @@
       <c r="E176" s="3">
         <v>1</v>
       </c>
-      <c r="F176" s="38">
+      <c r="F176" s="39">
         <v>1</v>
       </c>
       <c r="G176" s="22">
@@ -8644,10 +8634,10 @@
       </c>
       <c r="B177" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>2269</v>
-      </c>
-      <c r="C177" s="34">
-        <v>5</v>
+        <v>2272</v>
+      </c>
+      <c r="C177" s="33">
+        <v>8</v>
       </c>
       <c r="D177" s="12">
         <v>2</v>
@@ -8655,15 +8645,15 @@
       <c r="E177" s="3">
         <v>1</v>
       </c>
-      <c r="F177" s="38">
+      <c r="F177" s="39">
         <v>1</v>
       </c>
       <c r="G177" s="22">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H177" s="16">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I177" s="30">
         <v>0</v>
@@ -8689,26 +8679,26 @@
       </c>
       <c r="B178" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v>2269</v>
-      </c>
-      <c r="C178" s="34">
-        <v>0</v>
+        <v>2289</v>
+      </c>
+      <c r="C178" s="33">
+        <v>17</v>
       </c>
       <c r="D178" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E178" s="3">
         <v>1</v>
       </c>
-      <c r="F178" s="38">
+      <c r="F178" s="39">
         <v>1</v>
       </c>
       <c r="G178" s="22">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H178" s="16">
         <f t="shared" ca="1" si="9"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I178" s="30">
         <v>0</v>
@@ -8732,88 +8722,136 @@
       <c r="A179" s="1">
         <v>44065</v>
       </c>
-      <c r="B179" s="18" t="str">
+      <c r="B179" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="C179" s="34"/>
-      <c r="D179" s="12"/>
-      <c r="E179" s="3"/>
-      <c r="F179" s="38"/>
-      <c r="G179" s="22"/>
-      <c r="H179" s="16" t="str">
+        <v>2299</v>
+      </c>
+      <c r="C179" s="33">
+        <v>10</v>
+      </c>
+      <c r="D179" s="12">
+        <v>0</v>
+      </c>
+      <c r="E179" s="3">
+        <v>1</v>
+      </c>
+      <c r="F179" s="39">
+        <v>1</v>
+      </c>
+      <c r="G179" s="22">
+        <v>8</v>
+      </c>
+      <c r="H179" s="16">
         <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="I179" s="30"/>
-      <c r="J179" s="15" t="str">
+        <v>9</v>
+      </c>
+      <c r="I179" s="30">
+        <v>0</v>
+      </c>
+      <c r="J179" s="15">
         <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="K179" s="15" t="str">
+        <v>154</v>
+      </c>
+      <c r="K179" s="15">
         <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="L179" s="24"/>
-      <c r="M179" s="25"/>
+        <v>0</v>
+      </c>
+      <c r="L179" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="M179" s="25" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>44066</v>
       </c>
-      <c r="B180" s="18" t="str">
+      <c r="B180" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="C180" s="34"/>
-      <c r="D180" s="12"/>
-      <c r="E180" s="3"/>
-      <c r="F180" s="38"/>
-      <c r="G180" s="22"/>
-      <c r="H180" s="16" t="str">
+        <v>2301</v>
+      </c>
+      <c r="C180" s="33">
+        <v>2</v>
+      </c>
+      <c r="D180" s="12">
+        <v>0</v>
+      </c>
+      <c r="E180" s="3">
+        <v>1</v>
+      </c>
+      <c r="F180" s="39">
+        <v>1</v>
+      </c>
+      <c r="G180" s="22">
+        <v>8</v>
+      </c>
+      <c r="H180" s="16">
         <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="I180" s="30"/>
-      <c r="J180" s="15" t="str">
+        <v>9</v>
+      </c>
+      <c r="I180" s="30">
+        <v>0</v>
+      </c>
+      <c r="J180" s="15">
         <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="K180" s="15" t="str">
+        <v>154</v>
+      </c>
+      <c r="K180" s="15">
         <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="L180" s="24"/>
-      <c r="M180" s="25"/>
+        <v>0</v>
+      </c>
+      <c r="L180" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="M180" s="25" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>44067</v>
       </c>
-      <c r="B181" s="18" t="str">
+      <c r="B181" s="18">
         <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="C181" s="34"/>
-      <c r="D181" s="12"/>
-      <c r="E181" s="3"/>
-      <c r="F181" s="38"/>
-      <c r="G181" s="22"/>
-      <c r="H181" s="16" t="str">
+        <v>2301</v>
+      </c>
+      <c r="C181" s="33">
+        <v>0</v>
+      </c>
+      <c r="D181" s="12">
+        <v>0</v>
+      </c>
+      <c r="E181" s="3">
+        <v>1</v>
+      </c>
+      <c r="F181" s="39">
+        <v>1</v>
+      </c>
+      <c r="G181" s="22">
+        <v>8</v>
+      </c>
+      <c r="H181" s="16">
         <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="I181" s="30"/>
-      <c r="J181" s="15" t="str">
+        <v>9</v>
+      </c>
+      <c r="I181" s="30">
+        <v>0</v>
+      </c>
+      <c r="J181" s="15">
         <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
-      <c r="K181" s="15" t="str">
+        <v>154</v>
+      </c>
+      <c r="K181" s="15">
         <f t="shared" ca="1" si="11"/>
-        <v/>
-      </c>
-      <c r="L181" s="24"/>
-      <c r="M181" s="25"/>
+        <v>0</v>
+      </c>
+      <c r="L181" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="M181" s="25" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
@@ -8823,10 +8861,10 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="C182" s="34"/>
+      <c r="C182" s="33"/>
       <c r="D182" s="12"/>
       <c r="E182" s="3"/>
-      <c r="F182" s="38"/>
+      <c r="F182" s="36"/>
       <c r="G182" s="22"/>
       <c r="H182" s="16" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -8852,10 +8890,10 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="C183" s="34"/>
+      <c r="C183" s="33"/>
       <c r="D183" s="12"/>
       <c r="E183" s="3"/>
-      <c r="F183" s="38"/>
+      <c r="F183" s="36"/>
       <c r="G183" s="22"/>
       <c r="H183" s="16" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -8881,10 +8919,10 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="C184" s="34"/>
+      <c r="C184" s="33"/>
       <c r="D184" s="12"/>
       <c r="E184" s="3"/>
-      <c r="F184" s="38"/>
+      <c r="F184" s="36"/>
       <c r="G184" s="22"/>
       <c r="H184" s="16" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -8910,10 +8948,10 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="C185" s="34"/>
+      <c r="C185" s="33"/>
       <c r="D185" s="12"/>
       <c r="E185" s="3"/>
-      <c r="F185" s="38"/>
+      <c r="F185" s="36"/>
       <c r="G185" s="22"/>
       <c r="H185" s="16" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -8939,10 +8977,10 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="C186" s="34"/>
+      <c r="C186" s="33"/>
       <c r="D186" s="12"/>
       <c r="E186" s="3"/>
-      <c r="F186" s="38"/>
+      <c r="F186" s="36"/>
       <c r="G186" s="22"/>
       <c r="H186" s="16" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -8968,10 +9006,10 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="C187" s="34"/>
+      <c r="C187" s="33"/>
       <c r="D187" s="12"/>
       <c r="E187" s="3"/>
-      <c r="F187" s="38"/>
+      <c r="F187" s="36"/>
       <c r="G187" s="22"/>
       <c r="H187" s="16" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -8997,10 +9035,10 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="C188" s="34"/>
+      <c r="C188" s="33"/>
       <c r="D188" s="12"/>
       <c r="E188" s="3"/>
-      <c r="F188" s="38"/>
+      <c r="F188" s="36"/>
       <c r="G188" s="22"/>
       <c r="H188" s="16" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -9026,10 +9064,10 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="C189" s="34"/>
+      <c r="C189" s="33"/>
       <c r="D189" s="12"/>
       <c r="E189" s="3"/>
-      <c r="F189" s="38"/>
+      <c r="F189" s="36"/>
       <c r="G189" s="22"/>
       <c r="H189" s="16" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -9055,10 +9093,10 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="C190" s="34"/>
+      <c r="C190" s="33"/>
       <c r="D190" s="12"/>
       <c r="E190" s="3"/>
-      <c r="F190" s="38"/>
+      <c r="F190" s="36"/>
       <c r="G190" s="22"/>
       <c r="H190" s="16" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -9084,10 +9122,10 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="C191" s="34"/>
+      <c r="C191" s="33"/>
       <c r="D191" s="12"/>
       <c r="E191" s="3"/>
-      <c r="F191" s="38"/>
+      <c r="F191" s="36"/>
       <c r="G191" s="22"/>
       <c r="H191" s="16" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -9113,10 +9151,10 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="C192" s="34"/>
+      <c r="C192" s="33"/>
       <c r="D192" s="12"/>
       <c r="E192" s="3"/>
-      <c r="F192" s="38"/>
+      <c r="F192" s="36"/>
       <c r="G192" s="22"/>
       <c r="H192" s="16" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -9142,10 +9180,10 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="C193" s="34"/>
+      <c r="C193" s="33"/>
       <c r="D193" s="12"/>
       <c r="E193" s="3"/>
-      <c r="F193" s="38"/>
+      <c r="F193" s="36"/>
       <c r="G193" s="22"/>
       <c r="H193" s="16" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -9171,10 +9209,10 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="C194" s="34"/>
+      <c r="C194" s="33"/>
       <c r="D194" s="12"/>
       <c r="E194" s="3"/>
-      <c r="F194" s="38"/>
+      <c r="F194" s="36"/>
       <c r="G194" s="22"/>
       <c r="H194" s="16" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -9200,10 +9238,10 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="C195" s="34"/>
+      <c r="C195" s="33"/>
       <c r="D195" s="12"/>
       <c r="E195" s="3"/>
-      <c r="F195" s="38"/>
+      <c r="F195" s="36"/>
       <c r="G195" s="22"/>
       <c r="H195" s="16" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -9229,10 +9267,10 @@
         <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
-      <c r="C196" s="34"/>
+      <c r="C196" s="33"/>
       <c r="D196" s="12"/>
       <c r="E196" s="3"/>
-      <c r="F196" s="38"/>
+      <c r="F196" s="36"/>
       <c r="G196" s="22"/>
       <c r="H196" s="16" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -9258,10 +9296,10 @@
         <f t="shared" ref="B197:B260" ca="1" si="12">IF(TODAY()&gt;A196,B196+C197,"")</f>
         <v/>
       </c>
-      <c r="C197" s="34"/>
+      <c r="C197" s="33"/>
       <c r="D197" s="12"/>
       <c r="E197" s="3"/>
-      <c r="F197" s="38"/>
+      <c r="F197" s="36"/>
       <c r="G197" s="22"/>
       <c r="H197" s="16" t="str">
         <f t="shared" ref="H197:H260" ca="1" si="13">IF(TODAY()&gt;A196,G197+E197,"")</f>
@@ -9287,10 +9325,10 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="C198" s="34"/>
+      <c r="C198" s="33"/>
       <c r="D198" s="12"/>
       <c r="E198" s="3"/>
-      <c r="F198" s="38"/>
+      <c r="F198" s="36"/>
       <c r="G198" s="22"/>
       <c r="H198" s="16" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -9316,10 +9354,10 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="C199" s="34"/>
+      <c r="C199" s="33"/>
       <c r="D199" s="12"/>
       <c r="E199" s="3"/>
-      <c r="F199" s="38"/>
+      <c r="F199" s="36"/>
       <c r="G199" s="22"/>
       <c r="H199" s="16" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -9345,10 +9383,10 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="C200" s="34"/>
+      <c r="C200" s="33"/>
       <c r="D200" s="12"/>
       <c r="E200" s="3"/>
-      <c r="F200" s="38"/>
+      <c r="F200" s="36"/>
       <c r="G200" s="22"/>
       <c r="H200" s="16" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -9374,10 +9412,10 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="C201" s="34"/>
+      <c r="C201" s="33"/>
       <c r="D201" s="12"/>
       <c r="E201" s="3"/>
-      <c r="F201" s="38"/>
+      <c r="F201" s="36"/>
       <c r="G201" s="22"/>
       <c r="H201" s="16" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -9403,10 +9441,10 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="C202" s="34"/>
+      <c r="C202" s="33"/>
       <c r="D202" s="12"/>
       <c r="E202" s="3"/>
-      <c r="F202" s="38"/>
+      <c r="F202" s="36"/>
       <c r="G202" s="22"/>
       <c r="H202" s="16" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -9432,10 +9470,10 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="C203" s="34"/>
+      <c r="C203" s="33"/>
       <c r="D203" s="12"/>
       <c r="E203" s="3"/>
-      <c r="F203" s="38"/>
+      <c r="F203" s="36"/>
       <c r="G203" s="22"/>
       <c r="H203" s="16" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -9461,10 +9499,10 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="C204" s="34"/>
+      <c r="C204" s="33"/>
       <c r="D204" s="12"/>
       <c r="E204" s="3"/>
-      <c r="F204" s="38"/>
+      <c r="F204" s="36"/>
       <c r="G204" s="22"/>
       <c r="H204" s="16" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -9490,10 +9528,10 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="C205" s="34"/>
+      <c r="C205" s="33"/>
       <c r="D205" s="12"/>
       <c r="E205" s="3"/>
-      <c r="F205" s="38"/>
+      <c r="F205" s="36"/>
       <c r="G205" s="22"/>
       <c r="H205" s="16" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -9519,10 +9557,10 @@
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="C206" s="34"/>
+      <c r="C206"